--- a/sberapi/DB/quotes.xlsx
+++ b/sberapi/DB/quotes.xlsx
@@ -1,93 +1,608 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\clojure\sberpb\sberapi\DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23820" windowHeight="14700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>US3755581036</t>
   </si>
   <si>
-    <t>XS1468260598</t>
+    <t>GILD US Equity</t>
   </si>
   <si>
     <t>XS1439838548</t>
   </si>
   <si>
+    <t>XS1439838548 Corp</t>
+  </si>
+  <si>
     <t>XS1255387976</t>
   </si>
   <si>
+    <t>XS1255387976 Corp</t>
+  </si>
+  <si>
     <t>RU0007976965</t>
   </si>
   <si>
+    <t>BANEP RX Equity</t>
+  </si>
+  <si>
     <t>USP989MJBG51</t>
   </si>
   <si>
-    <t>XS1003273767</t>
+    <t>USP989MJBG51 Corp</t>
   </si>
   <si>
     <t>XS0767473852</t>
   </si>
   <si>
+    <t>XS0767473852 Corp</t>
+  </si>
+  <si>
     <t>JE00B6T5S470</t>
   </si>
   <si>
+    <t>POLY LN Equity</t>
+  </si>
+  <si>
     <t>XS0935311240</t>
   </si>
   <si>
+    <t>XS0935311240 Corp</t>
+  </si>
+  <si>
     <t>IE00BY9D5467</t>
   </si>
   <si>
+    <t>AGN US Equity</t>
+  </si>
+  <si>
     <t>RU000A0JR5Z5</t>
   </si>
   <si>
+    <t>RUALR RX Equity</t>
+  </si>
+  <si>
     <t>RU000A0JKQU8</t>
   </si>
   <si>
-    <t>CH0340808812</t>
+    <t>MGNT RX Equity</t>
   </si>
   <si>
     <t>US92719A1060</t>
   </si>
   <si>
+    <t>VIP US Equity</t>
+  </si>
+  <si>
     <t>RU0007976957</t>
   </si>
   <si>
-    <t>CH0347656545</t>
+    <t>BANE RM Equity</t>
+  </si>
+  <si>
+    <t>US29760G1031</t>
+  </si>
+  <si>
+    <t>ETLN LI Equity</t>
+  </si>
+  <si>
+    <t>US36829G1076</t>
+  </si>
+  <si>
+    <t>GAZ LI Equity</t>
+  </si>
+  <si>
+    <t>US48666V2043</t>
+  </si>
+  <si>
+    <t>KMG LI Equity</t>
+  </si>
+  <si>
+    <t>US58517T2096</t>
+  </si>
+  <si>
+    <t>MFON LI Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JS942</t>
+  </si>
+  <si>
+    <t>MFON RX Equity</t>
+  </si>
+  <si>
+    <t>US3682872078</t>
+  </si>
+  <si>
+    <t>OGZD LI Equity</t>
+  </si>
+  <si>
+    <t>US74735M1080</t>
+  </si>
+  <si>
+    <t>QIWI US Equity</t>
+  </si>
+  <si>
+    <t>NL0009805522</t>
+  </si>
+  <si>
+    <t>YNDX US Equity</t>
+  </si>
+  <si>
+    <t>XS0808638612</t>
+  </si>
+  <si>
+    <t>XS0808638612 Corp</t>
+  </si>
+  <si>
+    <t>XS0547082973</t>
+  </si>
+  <si>
+    <t>XS0547082973 Corp</t>
+  </si>
+  <si>
+    <t>USA29866AA70</t>
+  </si>
+  <si>
+    <t>USA29866AA70 Corp</t>
+  </si>
+  <si>
+    <t>US71654QBB77</t>
+  </si>
+  <si>
+    <t>US71654QBB77 Corp</t>
+  </si>
+  <si>
+    <t>US71645WAR25</t>
+  </si>
+  <si>
+    <t>US71645WAR25 Corp</t>
+  </si>
+  <si>
+    <t>XS0088543193</t>
+  </si>
+  <si>
+    <t>XS0088543193 Corp</t>
+  </si>
+  <si>
+    <t>RU0007252813</t>
+  </si>
+  <si>
+    <t>ALRS RX Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JQTS3</t>
+  </si>
+  <si>
+    <t>AQUA RM Equity</t>
+  </si>
+  <si>
+    <t>RU000A0ERGA7</t>
+  </si>
+  <si>
+    <t>COMRLES RX Equity</t>
+  </si>
+  <si>
+    <t>RU0007661625</t>
+  </si>
+  <si>
+    <t>GAZP RX Equity</t>
+  </si>
+  <si>
+    <t>GB0032360173</t>
+  </si>
+  <si>
+    <t>HGM LN Equity</t>
+  </si>
+  <si>
+    <t>US40425X4079</t>
+  </si>
+  <si>
+    <t>HMSG LI Equity</t>
+  </si>
+  <si>
+    <t>US48668G2057</t>
+  </si>
+  <si>
+    <t>KCEL LI Equity</t>
+  </si>
+  <si>
+    <t>RU0008959580</t>
+  </si>
+  <si>
+    <t>KMAZ RX Equity</t>
+  </si>
+  <si>
+    <t>RU0009024277</t>
+  </si>
+  <si>
+    <t>LKOH RX Equity</t>
+  </si>
+  <si>
+    <t>RU0007775219</t>
+  </si>
+  <si>
+    <t>MTSS RX Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JPGA0</t>
+  </si>
+  <si>
+    <t>MVID RX Equity</t>
+  </si>
+  <si>
+    <t>RU0009084446</t>
+  </si>
+  <si>
+    <t>NMTP RX Equity</t>
+  </si>
+  <si>
+    <t>RU0009062467</t>
+  </si>
+  <si>
+    <t>SIBN RX Equity</t>
+  </si>
+  <si>
+    <t>RU000A0B6NK6</t>
+  </si>
+  <si>
+    <t>TRMK RX Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JNGA5</t>
+  </si>
+  <si>
+    <t>UPRO RX Equity</t>
+  </si>
+  <si>
+    <t>CA9600081009</t>
+  </si>
+  <si>
+    <t>WZR CN Equity</t>
+  </si>
+  <si>
+    <t>RU0009100945</t>
+  </si>
+  <si>
+    <t>BSPB RX Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JP7H1</t>
+  </si>
+  <si>
+    <t>DIXY RX Equity</t>
+  </si>
+  <si>
+    <t>US37949E2046</t>
+  </si>
+  <si>
+    <t>GLTR LI Equity</t>
+  </si>
+  <si>
+    <t>RU0007288411</t>
+  </si>
+  <si>
+    <t>GMKN RX Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JPFP0</t>
+  </si>
+  <si>
+    <t>LSRG RX Equity</t>
+  </si>
+  <si>
+    <t>VGG572791041</t>
+  </si>
+  <si>
+    <t>LXFT US Equity</t>
+  </si>
+  <si>
+    <t>US55302T2042</t>
+  </si>
+  <si>
+    <t>MHPC LI Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JPPN4</t>
+  </si>
+  <si>
+    <t>MRKV RM Equity</t>
+  </si>
+  <si>
+    <t>RU0009100507</t>
+  </si>
+  <si>
+    <t>NKNC RM Equity</t>
+  </si>
+  <si>
+    <t>RU0006765096</t>
+  </si>
+  <si>
+    <t>NKNCP RM Equity</t>
+  </si>
+  <si>
+    <t>JE00B1VS3333</t>
+  </si>
+  <si>
+    <t>PHAG LN Equity</t>
+  </si>
+  <si>
+    <t>JE00B1VS3770</t>
+  </si>
+  <si>
+    <t>PHAU LN Equity</t>
+  </si>
+  <si>
+    <t>JE00B1VS3002</t>
+  </si>
+  <si>
+    <t>PHPD LN Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JQU47</t>
+  </si>
+  <si>
+    <t>PRTK RX Equity</t>
+  </si>
+  <si>
+    <t>RU0006914488</t>
+  </si>
+  <si>
+    <t>SVAV RX Equity</t>
+  </si>
+  <si>
+    <t>RU000A0JNUD0</t>
+  </si>
+  <si>
+    <t>TGKA RX Equity</t>
+  </si>
+  <si>
+    <t>RU0007661302</t>
+  </si>
+  <si>
+    <t>URKA RX Equity</t>
+  </si>
+  <si>
+    <t>XS0918604496</t>
+  </si>
+  <si>
+    <t>XS0918604496 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWDU1</t>
+  </si>
+  <si>
+    <t>RU000A0JWDU1 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWBH2</t>
+  </si>
+  <si>
+    <t>RU000A0JWBH2 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JXE06</t>
+  </si>
+  <si>
+    <t>RU000A0JXE06 Corp</t>
+  </si>
+  <si>
+    <t>XS0981028177</t>
+  </si>
+  <si>
+    <t>XS0981028177 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWU98</t>
+  </si>
+  <si>
+    <t>RU000A0JWU98 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWBF6</t>
+  </si>
+  <si>
+    <t>RU000A0JWBF6 Corp</t>
+  </si>
+  <si>
+    <t>USL6366MAC75</t>
+  </si>
+  <si>
+    <t>USL6366MAC75 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JW0S4</t>
+  </si>
+  <si>
+    <t>RU000A0JW0S4 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JTKZ1</t>
+  </si>
+  <si>
+    <t>RU000A0JTKZ1 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JS751</t>
+  </si>
+  <si>
+    <t>RU000A0JS751 Corp</t>
+  </si>
+  <si>
+    <t>XS0884734343</t>
+  </si>
+  <si>
+    <t>XS0884734343 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWDN6</t>
+  </si>
+  <si>
+    <t>RU000A0JWDN6 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWC82</t>
+  </si>
+  <si>
+    <t>RU000A0JWC82 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWB75</t>
+  </si>
+  <si>
+    <t>RU000A0JWB75 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWB67</t>
+  </si>
+  <si>
+    <t>RU000A0JWB67 Corp</t>
+  </si>
+  <si>
+    <t>XS0997544860</t>
+  </si>
+  <si>
+    <t>XS0997544860 Corp</t>
+  </si>
+  <si>
+    <t>XS0830192711</t>
+  </si>
+  <si>
+    <t>XS0830192711 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWWW7</t>
+  </si>
+  <si>
+    <t>RU000A0JWWW7 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JU9T5</t>
+  </si>
+  <si>
+    <t>RU000A0JU9T5 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JS5F6</t>
+  </si>
+  <si>
+    <t>RU000A0JS5F6 Corp</t>
+  </si>
+  <si>
+    <t>XS0889402029</t>
+  </si>
+  <si>
+    <t>XS0889402029 Corp</t>
+  </si>
+  <si>
+    <t>XS0493579238</t>
+  </si>
+  <si>
+    <t>XS0493579238 Corp</t>
+  </si>
+  <si>
+    <t>XS0842078536</t>
+  </si>
+  <si>
+    <t>XS0842078536 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JWG05</t>
+  </si>
+  <si>
+    <t>RU000A0JWG05 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0DQZE3</t>
+  </si>
+  <si>
+    <t>US7496552057</t>
+  </si>
+  <si>
+    <t>LU0974284688</t>
+  </si>
+  <si>
+    <t>XS0975320879</t>
+  </si>
+  <si>
+    <t>US65504LAM90</t>
+  </si>
+  <si>
+    <t>AFKS RX Equity</t>
+  </si>
+  <si>
+    <t>AGRO LI Equity</t>
+  </si>
+  <si>
+    <t>HHPA2AH LX Equity</t>
+  </si>
+  <si>
+    <t>XS0975320879 Corp</t>
+  </si>
+  <si>
+    <t>US65504LAM90 Corp</t>
+  </si>
+  <si>
+    <t>JE00B5BCW814</t>
+  </si>
+  <si>
+    <t>486 HK Equity</t>
+  </si>
+  <si>
+    <t>RU0009029524</t>
+  </si>
+  <si>
+    <t>SNGSP RM Equity</t>
+  </si>
+  <si>
+    <t>XS0922301717</t>
+  </si>
+  <si>
+    <t>EJ644860     Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JW1P8</t>
+  </si>
+  <si>
+    <t>RU000A0JW1P8 Corp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,8 +623,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -117,17 +634,16 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="blp_datetime" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -144,44 +660,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -209,31 +725,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -261,23 +760,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -289,241 +771,1212 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>68.39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>102.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>108.9375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>105.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>908.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>100.9353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>240.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>280.39999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>9153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>3509.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>3.335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>608.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>4.3494999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>107.1875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>101.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>105.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>101.4776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>99.625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>86.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>3.5550000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>56.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37">
+        <v>249.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>383.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <v>198.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>241.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48">
+        <v>912.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>57.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <v>4.8349999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54">
+        <v>16.074999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55">
+        <v>115.14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56">
+        <v>70.78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59">
+        <v>1.3395000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61">
+        <v>102.125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64">
+        <v>101.43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65">
+        <v>106.4375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67">
+        <v>105.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68">
+        <v>102.375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70">
+        <v>97.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73">
+        <v>104.21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74">
+        <v>103.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75">
+        <v>101.16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76">
+        <v>101.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77">
+        <v>107.375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78">
+        <v>100.1875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80">
+        <v>98.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81">
+        <v>99.93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82">
+        <v>99.45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83">
+        <v>80.125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84">
+        <v>108.3954</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85">
+        <v>100.45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86">
+        <v>20.704999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89">
+        <v>106.30759999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93">
+        <v>106.0625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/sberapi/DB/quotes.xlsx
+++ b/sberapi/DB/quotes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="200">
   <si>
     <t>US3755581036</t>
   </si>
@@ -578,6 +578,42 @@
   </si>
   <si>
     <t>RU000A0JW1P8 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JRJU8</t>
+  </si>
+  <si>
+    <t>RU000A0JRJU8 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JS3W6</t>
+  </si>
+  <si>
+    <t>RU000A0JS3W6 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JTYA5</t>
+  </si>
+  <si>
+    <t>RU000A0JTYA5 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0GN9A7</t>
+  </si>
+  <si>
+    <t>RU000A0GN9A7 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JPLH5</t>
+  </si>
+  <si>
+    <t>RU000A0JPLH5 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JXJE0</t>
+  </si>
+  <si>
+    <t>RU000A0JXJE0 Corp</t>
   </si>
 </sst>
 </file>
@@ -936,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,6 +2014,86 @@
       <c r="B94" t="s">
         <v>187</v>
       </c>
+      <c r="C94">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95">
+        <v>99.459000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96">
+        <v>101.0988</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98">
+        <v>86.559899999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101">
+        <v>102.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sberapi/DB/quotes.xlsx
+++ b/sberapi/DB/quotes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
   <si>
     <t>US3755581036</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t>RU000A0JXJE0 Corp</t>
+  </si>
+  <si>
+    <t>XS0848137708</t>
+  </si>
+  <si>
+    <t>XS0848137708 Corp</t>
   </si>
 </sst>
 </file>
@@ -972,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,6 +2101,17 @@
         <v>102.2</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102">
+        <v>103.27800000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sberapi/DB/quotes.xlsx
+++ b/sberapi/DB/quotes.xlsx
@@ -747,6 +747,16 @@
         <tr r="D17" s="70"/>
         <tr r="D17" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>YNDX US Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R21C6</stp>
+        <tr r="F21" s="70"/>
+        <tr r="F21" s="70"/>
+      </tp>
       <tp>
         <v>3.3333332538604736</v>
         <stp/>
@@ -759,7 +769,7 @@
         <tr r="D20" s="70"/>
       </tp>
       <tp>
-        <v>4.9700002670288086</v>
+        <v>4.8499999046325684</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -812,7 +822,7 @@
         <tr r="D29" s="70"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2.5999999046325684</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KCEL LI Equity</stp>
@@ -920,7 +930,7 @@
         <tr r="E37" s="70"/>
       </tp>
       <tp>
-        <v>89.334190368652344</v>
+        <v>95.887603759765625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -941,8 +951,18 @@
         <tr r="E106" s="70"/>
         <tr r="E106" s="70"/>
       </tp>
-      <tp>
-        <v>106.389</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>LXFT US Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R49C6</stp>
+        <tr r="F49" s="70"/>
+        <tr r="F49" s="70"/>
+      </tp>
+      <tp>
+        <v>106.249</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -951,7 +971,7 @@
         <tr r="C93" s="70"/>
       </tp>
       <tp>
-        <v>2.7142856121063232</v>
+        <v>2.5714285373687744</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -961,6 +981,16 @@
         <tr r="D19" s="70"/>
         <tr r="D19" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>EJ644860     Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R93C6</stp>
+        <tr r="F93" s="70"/>
+        <tr r="F93" s="70"/>
+      </tp>
       <tp>
         <v>4.3333334922790527</v>
         <stp/>
@@ -994,6 +1024,16 @@
         <tr r="E46" s="70"/>
         <tr r="E46" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>DIXY RX Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R45C6</stp>
+        <tr r="F45" s="70"/>
+        <tr r="F45" s="70"/>
+      </tp>
       <tp>
         <v>3.4000000953674316</v>
         <stp/>
@@ -1037,7 +1077,7 @@
         <tr r="E57" s="70"/>
       </tp>
       <tp>
-        <v>3.5555555820465088</v>
+        <v>3.6315789222717285</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -1047,6 +1087,16 @@
         <tr r="D7" s="70"/>
         <tr r="D7" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>KMAZ RX Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R35C6</stp>
+        <tr r="F35" s="70"/>
+        <tr r="F35" s="70"/>
+      </tp>
       <tp>
         <v>5</v>
         <stp/>
@@ -1069,6 +1119,16 @@
         <tr r="D43" s="70"/>
         <tr r="D43" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>KMG LI Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R16C6</stp>
+        <tr r="F16" s="70"/>
+        <tr r="F16" s="70"/>
+      </tp>
       <tp>
         <v>69.545455932617188</v>
         <stp/>
@@ -1092,7 +1152,7 @@
         <tr r="E50" s="70"/>
       </tp>
       <tp>
-        <v>3.3333332538604736</v>
+        <v>3.4000000953674316</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -1124,8 +1184,18 @@
         <tr r="D40" s="70"/>
         <tr r="D40" s="70"/>
       </tp>
-      <tp>
-        <v>64.666664123535156</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SVAV RX Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R58C6</stp>
+        <tr r="F58" s="70"/>
+        <tr r="F58" s="70"/>
+      </tp>
+      <tp>
+        <v>62.652717590332031</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -1189,6 +1259,16 @@
         <tr r="E29" s="70"/>
         <tr r="E29" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>PHAU LN Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R55C6</stp>
+        <tr r="F55" s="70"/>
+        <tr r="F55" s="70"/>
+      </tp>
       <tp>
         <v>3.5</v>
         <stp/>
@@ -1263,7 +1343,7 @@
         <tr r="E48" s="70"/>
       </tp>
       <tp>
-        <v>238.85</v>
+        <v>237.83</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGN US Equity</stp>
@@ -1358,7 +1438,7 @@
         <tr r="D18" s="70"/>
       </tp>
       <tp>
-        <v>11.95086669921875</v>
+        <v>11.936200141906738</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -1369,7 +1449,7 @@
         <tr r="E17" s="70"/>
       </tp>
       <tp>
-        <v>111.38500000000001</v>
+        <v>111.285</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -1387,8 +1467,18 @@
         <tr r="D39" s="70"/>
         <tr r="D39" s="70"/>
       </tp>
-      <tp>
-        <v>108.88200000000001</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0842078536 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R84C6</stp>
+        <tr r="F84" s="70"/>
+        <tr r="F84" s="70"/>
+      </tp>
+      <tp>
+        <v>108.681</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -1408,7 +1498,7 @@
         <tr r="D21" s="70"/>
       </tp>
       <tp>
-        <v>145.81280517578125</v>
+        <v>145.57666015625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -1430,7 +1520,7 @@
         <tr r="E86" s="70"/>
       </tp>
       <tp>
-        <v>5.3647060394287109</v>
+        <v>5.4499998092651367</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VEON US Equity</stp>
@@ -1450,7 +1540,7 @@
         <tr r="A74" s="70"/>
       </tp>
       <tp>
-        <v>13.09</v>
+        <v>13.16</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HHPA2AH LX Equity</stp>
@@ -1459,6 +1549,26 @@
         <tr r="C88" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>AQUA RM Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R29C6</stp>
+        <tr r="F29" s="70"/>
+        <tr r="F29" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>HHPA2AH LX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R88C6</stp>
+        <tr r="F88" s="70"/>
+        <tr r="F88" s="70"/>
+      </tp>
+      <tp t="s">
         <v>XS0975320879</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -1468,7 +1578,7 @@
         <tr r="A89" s="70"/>
       </tp>
       <tp>
-        <v>103.021</v>
+        <v>103.096</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -1476,8 +1586,18 @@
         <stp>[quotes.xlsx]Calc!R26C3</stp>
         <tr r="C26" s="70"/>
       </tp>
-      <tp>
-        <v>12.537500381469727</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>US71645WAR25 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R26C6</stp>
+        <tr r="F26" s="70"/>
+        <tr r="F26" s="70"/>
+      </tp>
+      <tp>
+        <v>12.125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMG LI Equity</stp>
@@ -1499,6 +1619,26 @@
         <tr r="D28" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0493579238 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R83C6</stp>
+        <tr r="F83" s="70"/>
+        <tr r="F83" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0808638612 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R22C6</stp>
+        <tr r="F22" s="70"/>
+        <tr r="F22" s="70"/>
+      </tp>
+      <tp t="s">
         <v>XS0918604496</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -1508,7 +1648,7 @@
         <tr r="A61" s="70"/>
       </tp>
       <tp>
-        <v>106.958</v>
+        <v>106.904</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -1517,7 +1657,7 @@
         <tr r="C22" s="70"/>
       </tp>
       <tp>
-        <v>78.052000000000007</v>
+        <v>83.587000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0493579238 Corp</stp>
@@ -1536,8 +1676,18 @@
         <tr r="E13" s="70"/>
         <tr r="E13" s="70"/>
       </tp>
-      <tp>
-        <v>100.7</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWG05 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R85C6</stp>
+        <tr r="F85" s="70"/>
+        <tr r="F85" s="70"/>
+      </tp>
+      <tp>
+        <v>100.65</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWG05 Corp</stp>
@@ -1546,7 +1696,7 @@
         <tr r="C85" s="70"/>
       </tp>
       <tp>
-        <v>99.64</v>
+        <v>99.650009999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0889402029 Corp</stp>
@@ -1554,8 +1704,28 @@
         <stp>[quotes.xlsx]Calc!R82C3</stp>
         <tr r="C82" s="70"/>
       </tp>
-      <tp>
-        <v>108.264</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0547082973 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R23C6</stp>
+        <tr r="F23" s="70"/>
+        <tr r="F23" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0997544860 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R77C6</stp>
+        <tr r="F77" s="70"/>
+        <tr r="F77" s="70"/>
+      </tp>
+      <tp>
+        <v>107.955</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -1563,8 +1733,18 @@
         <stp>[quotes.xlsx]Calc!R77C3</stp>
         <tr r="C77" s="70"/>
       </tp>
-      <tp>
-        <v>100.989</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0889402029 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R82C6</stp>
+        <tr r="F82" s="70"/>
+        <tr r="F82" s="70"/>
+      </tp>
+      <tp>
+        <v>100.967</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -1581,6 +1761,36 @@
         <stp>[quotes.xlsx]Calc!R83C5</stp>
         <tr r="E83" s="70"/>
         <tr r="E83" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JV7K7 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R102C6</stp>
+        <tr r="F102" s="70"/>
+        <tr r="F102" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JXE06 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R64C6</stp>
+        <tr r="F64" s="70"/>
+        <tr r="F64" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JS751 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R71C6</stp>
+        <tr r="F71" s="70"/>
+        <tr r="F71" s="70"/>
       </tp>
       <tp t="s">
         <v>RU000A0JWU98</v>
@@ -1659,7 +1869,7 @@
         <tr r="E39" s="70"/>
       </tp>
       <tp>
-        <v>106.73789215087891</v>
+        <v>106.98520660400391</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -1669,6 +1879,16 @@
         <tr r="E28" s="70"/>
         <tr r="E28" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USP989MJBG51 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R5C6</stp>
+        <tr r="F5" s="70"/>
+        <tr r="F5" s="70"/>
+      </tp>
       <tp>
         <v>3</v>
         <stp/>
@@ -1690,8 +1910,18 @@
         <tr r="E23" s="70"/>
         <tr r="E23" s="70"/>
       </tp>
-      <tp>
-        <v>107.657</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0981028177 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R65C6</stp>
+        <tr r="F65" s="70"/>
+        <tr r="F65" s="70"/>
+      </tp>
+      <tp>
+        <v>107.00700000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -1708,6 +1938,16 @@
         <stp>[quotes.xlsx]Calc!R65C5</stp>
         <tr r="E65" s="70"/>
         <tr r="E65" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWB75 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R75C6</stp>
+        <tr r="F75" s="70"/>
+        <tr r="F75" s="70"/>
       </tp>
       <tp>
         <v>101.3</v>
@@ -1730,7 +1970,7 @@
         <tr r="D35" s="70"/>
       </tp>
       <tp>
-        <v>4.3333334922790527</v>
+        <v>4.1111111640930176</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMG LI Equity</stp>
@@ -1740,14 +1980,34 @@
         <tr r="D16" s="70"/>
         <tr r="D16" s="70"/>
       </tp>
-      <tp>
-        <v>98.615009999999998</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0884734343 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R72C6</stp>
+        <tr r="F72" s="70"/>
+        <tr r="F72" s="70"/>
+      </tp>
+      <tp>
+        <v>98.625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0884734343 Corp</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R72C3</stp>
         <tr r="C72" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>WZR CN Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R43C6</stp>
+        <tr r="F43" s="70"/>
+        <tr r="F43" s="70"/>
       </tp>
       <tp>
         <v>11547.5</v>
@@ -1760,8 +2020,18 @@
         <tr r="E11" s="70"/>
         <tr r="E11" s="70"/>
       </tp>
-      <tp>
-        <v>190</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JXJE0 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R100C6</stp>
+        <tr r="F100" s="70"/>
+        <tr r="F100" s="70"/>
+      </tp>
+      <tp>
+        <v>205</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -1772,13 +2042,23 @@
         <tr r="E32" s="70"/>
       </tp>
       <tp>
-        <v>103.021</v>
+        <v>103.19799999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R25C3</stp>
         <tr r="C25" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>US71654QBB77 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R25C6</stp>
+        <tr r="F25" s="70"/>
+        <tr r="F25" s="70"/>
       </tp>
       <tp t="s">
         <v>XS0088543193</v>
@@ -1800,6 +2080,37 @@
         <tr r="D58" s="70"/>
         <tr r="D58" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JX0J2 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R103C6</stp>
+        <tr r="F103" s="70"/>
+        <tr r="F103" s="70"/>
+      </tp>
+      <tp>
+        <v>1.1773115049893974</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>AGN US Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R9C6</stp>
+        <tr r="F9" s="70"/>
+        <tr r="F9" s="70"/>
+        <tr r="F9" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWB67 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R76C6</stp>
+        <tr r="F76" s="70"/>
+        <tr r="F76" s="70"/>
+      </tp>
       <tp>
         <v>101.3</v>
         <stp/>
@@ -1829,8 +2140,18 @@
         <tr r="D31" s="70"/>
         <tr r="D31" s="70"/>
       </tp>
-      <tp>
-        <v>4.5</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NKNC RM Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R52C6</stp>
+        <tr r="F52" s="70"/>
+        <tr r="F52" s="70"/>
+      </tp>
+      <tp>
+        <v>4.3333334922790527</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -1860,6 +2181,16 @@
         <tr r="E82" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>URKA RX Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R60C6</stp>
+        <tr r="F60" s="70"/>
+        <tr r="F60" s="70"/>
+      </tp>
+      <tp t="s">
         <v>XS0547082973</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -1899,7 +2230,7 @@
         <tr r="D92" s="70"/>
       </tp>
       <tp>
-        <v>102.7</v>
+        <v>102.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXJE0 Corp</stp>
@@ -1908,7 +2239,7 @@
         <tr r="C100" s="70"/>
       </tp>
       <tp>
-        <v>26.044216156005859</v>
+        <v>26.018661499023438</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>YNDX US Equity</stp>
@@ -1930,7 +2261,7 @@
         <tr r="E35" s="70"/>
       </tp>
       <tp>
-        <v>103.21</v>
+        <v>103.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWU98 Corp</stp>
@@ -1955,6 +2286,16 @@
         <stp>ID_ISIN</stp>
         <stp>[quotes.xlsx]Calc!R71C1</stp>
         <tr r="A71" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWU98 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R66C6</stp>
+        <tr r="F66" s="70"/>
+        <tr r="F66" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
@@ -1965,6 +2306,16 @@
         <stp>[quotes.xlsx]Calc!R10C4</stp>
         <tr r="D10" s="70"/>
         <tr r="D10" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0918604496 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R61C6</stp>
+        <tr r="F61" s="70"/>
+        <tr r="F61" s="70"/>
       </tp>
       <tp>
         <v>0</v>
@@ -2006,7 +2357,7 @@
         <tr r="A22" s="70"/>
       </tp>
       <tp>
-        <v>102.902</v>
+        <v>102.81100000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -2025,7 +2376,7 @@
         <tr r="E52" s="70"/>
       </tp>
       <tp>
-        <v>101.74</v>
+        <v>101.65</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -2034,7 +2385,7 @@
         <tr r="C103" s="70"/>
       </tp>
       <tp>
-        <v>233.01954650878906</v>
+        <v>227.81964111328125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -2093,13 +2444,33 @@
         <tr r="E77" s="70"/>
       </tp>
       <tp>
-        <v>105.56399999999999</v>
+        <v>105.20699999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R89C3</stp>
         <tr r="C89" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0975320879 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R89C6</stp>
+        <tr r="F89" s="70"/>
+        <tr r="F89" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>PHAG LN Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R54C6</stp>
+        <tr r="F54" s="70"/>
+        <tr r="F54" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -2112,7 +2483,7 @@
         <tr r="E93" s="70"/>
       </tp>
       <tp>
-        <v>11161.03515625</v>
+        <v>11203.3251953125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -2132,6 +2503,16 @@
         <tr r="A26" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>PHPD LN Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R56C6</stp>
+        <tr r="F56" s="70"/>
+        <tr r="F56" s="70"/>
+      </tp>
+      <tp t="s">
         <v>XS0842078536</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -2149,8 +2530,18 @@
         <stp>[quotes.xlsx]Calc!R102C1</stp>
         <tr r="A102" s="70"/>
       </tp>
-      <tp>
-        <v>103.4</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWC82 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R74C6</stp>
+        <tr r="F74" s="70"/>
+        <tr r="F74" s="70"/>
+      </tp>
+      <tp>
+        <v>103.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWC82 Corp</stp>
@@ -2181,7 +2572,7 @@
         <tr r="D11" s="70"/>
       </tp>
       <tp>
-        <v>176.15</v>
+        <v>175.875</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0088543193 Corp</stp>
@@ -2199,8 +2590,18 @@
         <tr r="E27" s="70"/>
         <tr r="E27" s="70"/>
       </tp>
-      <tp>
-        <v>279.06253051757813</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0088543193 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R27C6</stp>
+        <tr r="F27" s="70"/>
+        <tr r="F27" s="70"/>
+      </tp>
+      <tp>
+        <v>274.83175659179687</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DIXY RX Equity</stp>
@@ -2210,8 +2611,18 @@
         <tr r="E45" s="70"/>
         <tr r="E45" s="70"/>
       </tp>
-      <tp>
-        <v>101.4669</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>US65504LAM90 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R90C6</stp>
+        <tr r="F90" s="70"/>
+        <tr r="F90" s="70"/>
+      </tp>
+      <tp>
+        <v>101.5865</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US65504LAM90 Corp</stp>
@@ -2260,7 +2671,7 @@
         <tr r="A72" s="70"/>
       </tp>
       <tp>
-        <v>101.09</v>
+        <v>101.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -2269,7 +2680,7 @@
         <tr r="C102" s="70"/>
       </tp>
       <tp>
-        <v>3582.961669921875</v>
+        <v>3572.2861328125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -2413,7 +2824,7 @@
         <tr r="D1" s="70"/>
       </tp>
       <tp>
-        <v>113</v>
+        <v>111.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>COMRLES RX Equity</stp>
@@ -2422,13 +2833,33 @@
         <tr r="C30" s="70"/>
       </tp>
       <tp>
-        <v>101.307</v>
+        <v>101.051</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R78C3</stp>
         <tr r="C78" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>COMRLES RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R30C6</stp>
+        <tr r="F30" s="70"/>
+        <tr r="F30" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0830192711 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R78C6</stp>
+        <tr r="F78" s="70"/>
+        <tr r="F78" s="70"/>
       </tp>
       <tp t="s">
         <v>RU000A0JX0J2</v>
@@ -2451,6 +2882,17 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
+      <tp>
+        <v>4.0417495233555796</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0848137708 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R101C6</stp>
+        <tr r="F101" s="70"/>
+        <tr r="F101" s="70"/>
+        <tr r="F101" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2461,6 +2903,28 @@
         <tr r="D96" s="70"/>
         <tr r="D96" s="70"/>
       </tp>
+      <tp>
+        <v>9.1999999999999993</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWBF6 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R67C6</stp>
+        <tr r="F67" s="70"/>
+        <tr r="F67" s="70"/>
+        <tr r="F67" s="70"/>
+      </tp>
+      <tp>
+        <v>8.9499999999999993</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JPLH5 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R99C6</stp>
+        <tr r="F99" s="70"/>
+        <tr r="F99" s="70"/>
+        <tr r="F99" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2471,6 +2935,17 @@
         <tr r="D95" s="70"/>
         <tr r="D95" s="70"/>
       </tp>
+      <tp>
+        <v>7.5428756000000003</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USL6366MAC75 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R68C6</stp>
+        <tr r="F68" s="70"/>
+        <tr r="F68" s="70"/>
+        <tr r="F68" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2491,6 +2966,28 @@
         <tr r="D94" s="70"/>
         <tr r="D94" s="70"/>
       </tp>
+      <tp>
+        <v>3.1906614043833215</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ROG EB Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R106C6</stp>
+        <tr r="F106" s="70"/>
+        <tr r="F106" s="70"/>
+        <tr r="F106" s="70"/>
+      </tp>
+      <tp>
+        <v>5.3071542999999997</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USA29866AA70 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R24C6</stp>
+        <tr r="F24" s="70"/>
+        <tr r="F24" s="70"/>
+        <tr r="F24" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2501,6 +2998,39 @@
         <tr r="D62" s="70"/>
         <tr r="D62" s="70"/>
       </tp>
+      <tp>
+        <v>8.35</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JS5F6 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R81C6</stp>
+        <tr r="F81" s="70"/>
+        <tr r="F81" s="70"/>
+        <tr r="F81" s="70"/>
+      </tp>
+      <tp>
+        <v>8.24</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JTYA5 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R97C6</stp>
+        <tr r="F97" s="70"/>
+        <tr r="F97" s="70"/>
+        <tr r="F97" s="70"/>
+      </tp>
+      <tp>
+        <v>8.34</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0GN9A7 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R98C6</stp>
+        <tr r="F98" s="70"/>
+        <tr r="F98" s="70"/>
+        <tr r="F98" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2511,6 +3041,17 @@
         <tr r="D101" s="70"/>
         <tr r="D101" s="70"/>
       </tp>
+      <tp>
+        <v>12.92</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWBH2 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R63C6</stp>
+        <tr r="F63" s="70"/>
+        <tr r="F63" s="70"/>
+        <tr r="F63" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2532,13 +3073,24 @@
         <tr r="D69" s="70"/>
       </tp>
       <tp>
-        <v>256.8</v>
+        <v>256.95</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROG EB Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R106C3</stp>
         <tr r="C106" s="70"/>
+      </tp>
+      <tp>
+        <v>10.74</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWDN6 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R73C6</stp>
+        <tr r="F73" s="70"/>
+        <tr r="F73" s="70"/>
+        <tr r="F73" s="70"/>
       </tp>
       <tp t="s">
         <v>CH0012032048</v>
@@ -2589,6 +3141,17 @@
         <tr r="D67" s="70"/>
         <tr r="D67" s="70"/>
       </tp>
+      <tp>
+        <v>7.95</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JS3W6 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R96C6</stp>
+        <tr r="F96" s="70"/>
+        <tr r="F96" s="70"/>
+        <tr r="F96" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2599,6 +3162,17 @@
         <tr r="D6" s="70"/>
         <tr r="D6" s="70"/>
       </tp>
+      <tp>
+        <v>9.67</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JRJU8 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R95C6</stp>
+        <tr r="F95" s="70"/>
+        <tr r="F95" s="70"/>
+        <tr r="F95" s="70"/>
+      </tp>
       <tp t="s">
         <v>CH0038863350</v>
         <stp/>
@@ -2638,7 +3212,7 @@
         <tr r="D68" s="70"/>
       </tp>
       <tp>
-        <v>76.950999999999993</v>
+        <v>75.501000000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NESN SW Equity</stp>
@@ -2647,7 +3221,29 @@
         <tr r="C104" s="70"/>
       </tp>
       <tp>
-        <v>74.400000000000006</v>
+        <v>10.27</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JW1P8 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R94C6</stp>
+        <tr r="F94" s="70"/>
+        <tr r="F94" s="70"/>
+        <tr r="F94" s="70"/>
+      </tp>
+      <tp>
+        <v>10.199999999999999</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JU9T5 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R80C6</stp>
+        <tr r="F80" s="70"/>
+        <tr r="F80" s="70"/>
+        <tr r="F80" s="70"/>
+      </tp>
+      <tp>
+        <v>74.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NOVN VX Equity</stp>
@@ -2675,6 +3271,17 @@
         <tr r="D81" s="70"/>
         <tr r="D81" s="70"/>
       </tp>
+      <tp>
+        <v>9.7100000000000009</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWDU1 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R62C6</stp>
+        <tr r="F62" s="70"/>
+        <tr r="F62" s="70"/>
+        <tr r="F62" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2696,7 +3303,18 @@
         <tr r="D3" s="70"/>
       </tp>
       <tp>
-        <v>3.95</v>
+        <v>3.3224288684626422</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>486 HK Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R91C6</stp>
+        <tr r="F91" s="70"/>
+        <tr r="F91" s="70"/>
+        <tr r="F91" s="70"/>
+      </tp>
+      <tp>
+        <v>3.84</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>486 HK Equity</stp>
@@ -2764,6 +3382,83 @@
         <tr r="D63" s="70"/>
         <tr r="D63" s="70"/>
       </tp>
+      <tp>
+        <v>5.9828612000000003</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS1439838548 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R2C6</stp>
+        <tr r="F2" s="70"/>
+        <tr r="F2" s="70"/>
+        <tr r="F2" s="70"/>
+      </tp>
+      <tp>
+        <v>3.0143771076175456</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NESN SW Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R104C6</stp>
+        <tr r="F104" s="70"/>
+        <tr r="F104" s="70"/>
+        <tr r="F104" s="70"/>
+      </tp>
+      <tp>
+        <v>4.7559740999999995</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0935311240 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R8C6</stp>
+        <tr r="F8" s="70"/>
+        <tr r="F8" s="70"/>
+        <tr r="F8" s="70"/>
+      </tp>
+      <tp>
+        <v>8.4085318999999998</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS1255387976 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R3C6</stp>
+        <tr r="F3" s="70"/>
+        <tr r="F3" s="70"/>
+        <tr r="F3" s="70"/>
+      </tp>
+      <tp>
+        <v>9.09</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JTKZ1 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R70C6</stp>
+        <tr r="F70" s="70"/>
+        <tr r="F70" s="70"/>
+        <tr r="F70" s="70"/>
+      </tp>
+      <tp>
+        <v>10.5</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JW0S4 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R69C6</stp>
+        <tr r="F69" s="70"/>
+        <tr r="F69" s="70"/>
+        <tr r="F69" s="70"/>
+      </tp>
+      <tp>
+        <v>3.7162162162162162</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NOVN VX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R105C6</stp>
+        <tr r="F105" s="70"/>
+        <tr r="F105" s="70"/>
+        <tr r="F105" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -2784,6 +3479,17 @@
         <tr r="D73" s="70"/>
         <tr r="D73" s="70"/>
       </tp>
+      <tp>
+        <v>4.9162502000000003</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0767473852 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R6C6</stp>
+        <tr r="F6" s="70"/>
+        <tr r="F6" s="70"/>
+        <tr r="F6" s="70"/>
+      </tp>
       <tp t="s">
         <v>JE00B5BCW814</v>
         <stp/>
@@ -2792,6 +3498,17 @@
         <stp>ID_ISIN</stp>
         <stp>[quotes.xlsx]Calc!R91C1</stp>
         <tr r="A91" s="70"/>
+      </tp>
+      <tp>
+        <v>9.7100000000000009</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWWW7 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R79C6</stp>
+        <tr r="F79" s="70"/>
+        <tr r="F79" s="70"/>
+        <tr r="F79" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -2813,7 +3530,7 @@
         <tr r="A37" s="70"/>
       </tp>
       <tp>
-        <v>59</v>
+        <v>56.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMAZ RX Equity</stp>
@@ -2822,6 +3539,16 @@
         <tr r="C35" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>KMAZ RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R35C6</stp>
+        <tr r="F35" s="70"/>
+        <tr r="F35" s="70"/>
+      </tp>
+      <tp t="s">
         <v>US37949E2046</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -2829,6 +3556,16 @@
         <stp>ID_ISIN</stp>
         <stp>[quotes.xlsx]Calc!R46C1</stp>
         <tr r="A46" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>KMG LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R16C6</stp>
+        <tr r="F16" s="70"/>
+        <tr r="F16" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -2841,7 +3578,7 @@
         <tr r="D72" s="70"/>
       </tp>
       <tp>
-        <v>10</v>
+        <v>9.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMG LI Equity</stp>
@@ -2897,8 +3634,18 @@
         <stp>[quotes.xlsx]Calc!R86C1</stp>
         <tr r="A86" s="70"/>
       </tp>
-      <tp>
-        <v>578</v>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SVAV RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R58C6</stp>
+        <tr r="F58" s="70"/>
+        <tr r="F58" s="70"/>
+      </tp>
+      <tp>
+        <v>576</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SVAV RX Equity</stp>
@@ -2928,13 +3675,34 @@
         <tr r="D5" s="70"/>
       </tp>
       <tp>
-        <v>61.6</v>
+        <v>60.95</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LXFT US Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R49C3</stp>
         <tr r="C49" s="70"/>
+      </tp>
+      <tp>
+        <v>3.4329641</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>EJ644860     Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R93C6</stp>
+        <tr r="F93" s="70"/>
+        <tr r="F93" s="70"/>
+        <tr r="F93" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>LXFT US Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R49C6</stp>
+        <tr r="F49" s="70"/>
+        <tr r="F49" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -2955,8 +3723,18 @@
         <stp>[quotes.xlsx]Calc!R51C1</stp>
         <tr r="A51" s="70"/>
       </tp>
-      <tp>
-        <v>233.2</v>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>DIXY RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R45C6</stp>
+        <tr r="F45" s="70"/>
+        <tr r="F45" s="70"/>
+      </tp>
+      <tp>
+        <v>229.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DIXY RX Equity</stp>
@@ -2985,7 +3763,18 @@
         <tr r="D85" s="70"/>
       </tp>
       <tp>
-        <v>86.53</v>
+        <v>2.359448988676125</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ALRS RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R28C6</stp>
+        <tr r="F28" s="70"/>
+        <tr r="F28" s="70"/>
+        <tr r="F28" s="70"/>
+      </tp>
+      <tp>
+        <v>88.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -3109,13 +3898,24 @@
         <tr r="D82" s="70"/>
       </tp>
       <tp>
-        <v>6.22</v>
+        <v>6.2949999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NMTP RX Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R39C3</stp>
         <tr r="C39" s="70"/>
+      </tp>
+      <tp>
+        <v>7.4185863007052353</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NMTP RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R39C6</stp>
+        <tr r="F39" s="70"/>
+        <tr r="F39" s="70"/>
+        <tr r="F39" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -3128,13 +3928,23 @@
         <tr r="D84" s="70"/>
       </tp>
       <tp>
-        <v>21.82</v>
+        <v>22.78</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>YNDX US Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R21C3</stp>
         <tr r="C21" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>YNDX US Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R21C6</stp>
+        <tr r="F21" s="70"/>
+        <tr r="F21" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -3158,7 +3968,18 @@
         <tr r="D88" s="70"/>
       </tp>
       <tp>
-        <v>1052</v>
+        <v>3.1415192927141748</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>GILD US Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R1C6</stp>
+        <tr r="F1" s="70"/>
+        <tr r="F1" s="70"/>
+        <tr r="F1" s="70"/>
+      </tp>
+      <tp>
+        <v>1082</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -3167,7 +3988,7 @@
         <tr r="C7" s="70"/>
       </tp>
       <tp>
-        <v>6.0999999999999999E-2</v>
+        <v>6.0400000000000002E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MRKV RM Equity</stp>
@@ -3175,6 +3996,17 @@
         <stp>[quotes.xlsx]Calc!R51C3</stp>
         <tr r="C51" s="70"/>
       </tp>
+      <tp>
+        <v>2.0885246531030197</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>MRKV RM Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R51C6</stp>
+        <tr r="F51" s="70"/>
+        <tr r="F51" s="70"/>
+        <tr r="F51" s="70"/>
+      </tp>
       <tp t="s">
         <v>RU000A0JP7H1</v>
         <stp/>
@@ -3185,7 +4017,7 @@
         <tr r="A45" s="70"/>
       </tp>
       <tp>
-        <v>38.323436737060547</v>
+        <v>37.462532043457031</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -3236,7 +4068,7 @@
         <tr r="D90" s="70"/>
       </tp>
       <tp>
-        <v>9379</v>
+        <v>9100</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -3245,13 +4077,35 @@
         <tr r="C11" s="70"/>
       </tp>
       <tp>
-        <v>21.75</v>
+        <v>7.674088132488734</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>AFKS RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R86C6</stp>
+        <tr r="F86" s="70"/>
+        <tr r="F86" s="70"/>
+        <tr r="F86" s="70"/>
+      </tp>
+      <tp>
+        <v>21.11</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R86C3</stp>
         <tr r="C86" s="70"/>
+      </tp>
+      <tp>
+        <v>4.1578020368303568</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>MGNT RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R11C6</stp>
+        <tr r="F11" s="70"/>
+        <tr r="F11" s="70"/>
+        <tr r="F11" s="70"/>
       </tp>
       <tp t="s">
         <v>RU0006914488</v>
@@ -3273,7 +4127,7 @@
         <tr r="D27" s="70"/>
       </tp>
       <tp>
-        <v>1248.5</v>
+        <v>1195.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -3282,7 +4136,7 @@
         <tr r="C4" s="70"/>
       </tp>
       <tp>
-        <v>277.10000000000002</v>
+        <v>276.64999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MTSS RX Equity</stp>
@@ -3300,13 +4154,35 @@
         <tr r="A35" s="70"/>
       </tp>
       <tp>
-        <v>6.92</v>
+        <v>9.575006558445823</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>GLTR LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R46C6</stp>
+        <tr r="F46" s="70"/>
+        <tr r="F46" s="70"/>
+        <tr r="F46" s="70"/>
+      </tp>
+      <tp>
+        <v>7.27</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GLTR LI Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R46C3</stp>
         <tr r="C46" s="70"/>
+      </tp>
+      <tp>
+        <v>11.32075499380967</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>MTSS RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R37C6</stp>
+        <tr r="F37" s="70"/>
+        <tr r="F37" s="70"/>
+        <tr r="F37" s="70"/>
       </tp>
       <tp t="s">
         <v>US48666V2043</v>
@@ -3404,7 +4280,18 @@
         <tr r="D66" s="70"/>
       </tp>
       <tp>
-        <v>126.9</v>
+        <v>6.3353138481496662</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>GAZP RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R31C6</stp>
+        <tr r="F31" s="70"/>
+        <tr r="F31" s="70"/>
+        <tr r="F31" s="70"/>
+      </tp>
+      <tp>
+        <v>124.79</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -3413,7 +4300,18 @@
         <tr r="C31" s="70"/>
       </tp>
       <tp>
-        <v>33.130000000000003</v>
+        <v>5.9343792402455202</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>HGM LN Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R32C6</stp>
+        <tr r="F32" s="70"/>
+        <tr r="F32" s="70"/>
+        <tr r="F32" s="70"/>
+      </tp>
+      <tp>
+        <v>29.76</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -3422,7 +4320,7 @@
         <tr r="C92" s="70"/>
       </tp>
       <tp>
-        <v>179.25</v>
+        <v>176.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -3430,6 +4328,39 @@
         <stp>[quotes.xlsx]Calc!R32C3</stp>
         <tr r="C32" s="70"/>
       </tp>
+      <tp>
+        <v>23.268325744095311</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SNGSP RM Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R92C6</stp>
+        <tr r="F92" s="70"/>
+        <tr r="F92" s="70"/>
+        <tr r="F92" s="70"/>
+      </tp>
+      <tp>
+        <v>5.2790112000000002</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USP989MJBG51 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R5C6</stp>
+        <tr r="F5" s="70"/>
+        <tr r="F5" s="70"/>
+        <tr r="F5" s="70"/>
+      </tp>
+      <tp>
+        <v>3.5294118194361159</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RUALR RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R10C6</stp>
+        <tr r="F10" s="70"/>
+        <tr r="F10" s="70"/>
+        <tr r="F10" s="70"/>
+      </tp>
       <tp t="s">
         <v>RU0007252813</v>
         <stp/>
@@ -3440,13 +4371,23 @@
         <tr r="A28" s="70"/>
       </tp>
       <tp>
-        <v>291.89999999999998</v>
+        <v>278.10000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R10C3</stp>
         <tr r="C10" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>PHAU LN Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R55C6</stp>
+        <tr r="F55" s="70"/>
+        <tr r="F55" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -3459,7 +4400,7 @@
         <tr r="D61" s="70"/>
       </tp>
       <tp>
-        <v>120.58</v>
+        <v>123.59</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHAU LN Equity</stp>
@@ -3468,7 +4409,29 @@
         <tr r="C55" s="70"/>
       </tp>
       <tp>
-        <v>905</v>
+        <v>13.741097612065353</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>BANEP RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R4C6</stp>
+        <tr r="F4" s="70"/>
+        <tr r="F4" s="70"/>
+        <tr r="F4" s="70"/>
+      </tp>
+      <tp>
+        <v>4.1271012000000002</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>US71654QBB77 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R25C6</stp>
+        <tr r="F25" s="70"/>
+        <tr r="F25" s="70"/>
+        <tr r="F25" s="70"/>
+      </tp>
+      <tp>
+        <v>907.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -3486,7 +4449,39 @@
         <tr r="A33" s="70"/>
       </tp>
       <tp>
-        <v>0.15</v>
+        <v>8.5950413223140494</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>LSRG RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R48C6</stp>
+        <tr r="F48" s="70"/>
+        <tr r="F48" s="70"/>
+        <tr r="F48" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>WZR CN Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R43C6</stp>
+        <tr r="F43" s="70"/>
+        <tr r="F43" s="70"/>
+      </tp>
+      <tp>
+        <v>9.7201650528934813</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0884734343 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R72C6</stp>
+        <tr r="F72" s="70"/>
+        <tr r="F72" s="70"/>
+        <tr r="F72" s="70"/>
+      </tp>
+      <tp>
+        <v>0.16</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>WZR CN Equity</stp>
@@ -3495,7 +4490,18 @@
         <tr r="C43" s="70"/>
       </tp>
       <tp>
-        <v>2963</v>
+        <v>10.65</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWB67 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R76C6</stp>
+        <tr r="F76" s="70"/>
+        <tr r="F76" s="70"/>
+        <tr r="F76" s="70"/>
+      </tp>
+      <tp>
+        <v>2909.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -3504,7 +4510,29 @@
         <tr r="C36" s="70"/>
       </tp>
       <tp>
-        <v>206.75</v>
+        <v>6.4294309781674404</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>LKOH RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R36C6</stp>
+        <tr r="F36" s="70"/>
+        <tr r="F36" s="70"/>
+        <tr r="F36" s="70"/>
+      </tp>
+      <tp>
+        <v>0.27855153807086802</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SIBN RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R40C6</stp>
+        <tr r="F40" s="70"/>
+        <tr r="F40" s="70"/>
+        <tr r="F40" s="70"/>
+      </tp>
+      <tp>
+        <v>197.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -3513,7 +4541,7 @@
         <tr r="C40" s="70"/>
       </tp>
       <tp>
-        <v>4.3685</v>
+        <v>4.3559999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -3547,6 +4575,17 @@
         <stp>ID_ISIN</stp>
         <stp>[quotes.xlsx]Calc!R44C1</stp>
         <tr r="A44" s="70"/>
+      </tp>
+      <tp>
+        <v>5.617285306365198</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>OGZD LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R19C6</stp>
+        <tr r="F19" s="70"/>
+        <tr r="F19" s="70"/>
+        <tr r="F19" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -3559,7 +4598,7 @@
         <tr r="D93" s="70"/>
       </tp>
       <tp>
-        <v>25.34</v>
+        <v>24.68</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNCP RM Equity</stp>
@@ -3568,13 +4607,35 @@
         <tr r="C53" s="70"/>
       </tp>
       <tp>
-        <v>2.6629999999999998</v>
+        <v>10.569842886719371</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>UPRO RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R42C6</stp>
+        <tr r="F42" s="70"/>
+        <tr r="F42" s="70"/>
+        <tr r="F42" s="70"/>
+      </tp>
+      <tp>
+        <v>2.5579999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R42C3</stp>
         <tr r="C42" s="70"/>
+      </tp>
+      <tp>
+        <v>17.635108299828893</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NKNCP RM Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R53C6</stp>
+        <tr r="F53" s="70"/>
+        <tr r="F53" s="70"/>
+        <tr r="F53" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -3587,7 +4648,7 @@
         <tr r="D100" s="70"/>
       </tp>
       <tp>
-        <v>66.58</v>
+        <v>66.22</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GILD US Equity</stp>
@@ -3596,7 +4657,29 @@
         <tr r="C1" s="70"/>
       </tp>
       <tp>
-        <v>374.7</v>
+        <v>10.53</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWB75 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R75C6</stp>
+        <tr r="F75" s="70"/>
+        <tr r="F75" s="70"/>
+        <tr r="F75" s="70"/>
+      </tp>
+      <tp>
+        <v>1.9510970759083295</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>POLY LN Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R7C6</stp>
+        <tr r="F7" s="70"/>
+        <tr r="F7" s="70"/>
+        <tr r="F7" s="70"/>
+      </tp>
+      <tp>
+        <v>374</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MVID RX Equity</stp>
@@ -3605,7 +4688,40 @@
         <tr r="C38" s="70"/>
       </tp>
       <tp>
-        <v>3.86</v>
+        <v>5.3547523427041499</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>MVID RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R38C6</stp>
+        <tr r="F38" s="70"/>
+        <tr r="F38" s="70"/>
+        <tr r="F38" s="70"/>
+      </tp>
+      <tp>
+        <v>17.273576097105508</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>PRTK RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R57C6</stp>
+        <tr r="F57" s="70"/>
+        <tr r="F57" s="70"/>
+        <tr r="F57" s="70"/>
+      </tp>
+      <tp>
+        <v>4.9872120932849775</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>VEON US Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R12C6</stp>
+        <tr r="F12" s="70"/>
+        <tr r="F12" s="70"/>
+        <tr r="F12" s="70"/>
+      </tp>
+      <tp>
+        <v>3.91</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VEON US Equity</stp>
@@ -3614,13 +4730,24 @@
         <tr r="C12" s="70"/>
       </tp>
       <tp>
-        <v>106.6</v>
+        <v>106.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R57C3</stp>
         <tr r="C57" s="70"/>
+      </tp>
+      <tp>
+        <v>6.6910068799999998</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0981028177 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R65C6</stp>
+        <tr r="F65" s="70"/>
+        <tr r="F65" s="70"/>
+        <tr r="F65" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -3631,6 +4758,17 @@
         <stp>[quotes.xlsx]Calc!R103C4</stp>
         <tr r="D103" s="70"/>
         <tr r="D103" s="70"/>
+      </tp>
+      <tp>
+        <v>20.65</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWG05 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R85C6</stp>
+        <tr r="F85" s="70"/>
+        <tr r="F85" s="70"/>
+        <tr r="F85" s="70"/>
       </tp>
       <tp>
         <v>80.120002746582031</v>
@@ -3643,6 +4781,50 @@
         <tr r="E104" s="70"/>
         <tr r="E104" s="70"/>
       </tp>
+      <tp>
+        <v>4.0384276000000003</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0808638612 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R22C6</stp>
+        <tr r="F22" s="70"/>
+        <tr r="F22" s="70"/>
+        <tr r="F22" s="70"/>
+      </tp>
+      <tp>
+        <v>25.024694833119774</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0493579238 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R83C6</stp>
+        <tr r="F83" s="70"/>
+        <tr r="F83" s="70"/>
+        <tr r="F83" s="70"/>
+      </tp>
+      <tp>
+        <v>18.55</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JS751 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R71C6</stp>
+        <tr r="F71" s="70"/>
+        <tr r="F71" s="70"/>
+        <tr r="F71" s="70"/>
+      </tp>
+      <tp>
+        <v>11.14</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JXE06 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R64C6</stp>
+        <tr r="F64" s="70"/>
+        <tr r="F64" s="70"/>
+        <tr r="F64" s="70"/>
+      </tp>
       <tp t="s">
         <v>RU0009100507</v>
         <stp/>
@@ -3653,7 +4835,18 @@
         <tr r="A52" s="70"/>
       </tp>
       <tp>
-        <v>3.72</v>
+        <v>1.6260162238183062</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ETLN LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R14C6</stp>
+        <tr r="F14" s="70"/>
+        <tr r="F14" s="70"/>
+        <tr r="F14" s="70"/>
+      </tp>
+      <tp>
+        <v>3.69</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -3661,6 +4854,28 @@
         <stp>[quotes.xlsx]Calc!R14C3</stp>
         <tr r="C14" s="70"/>
       </tp>
+      <tp>
+        <v>9.5085404187822178</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0889402029 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R82C6</stp>
+        <tr r="F82" s="70"/>
+        <tr r="F82" s="70"/>
+        <tr r="F82" s="70"/>
+      </tp>
+      <tp>
+        <v>2.6538988470868117</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>TRMK RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R41C6</stp>
+        <tr r="F41" s="70"/>
+        <tr r="F41" s="70"/>
+        <tr r="F41" s="70"/>
+      </tp>
       <tp t="s">
         <v>US36829G1076</v>
         <stp/>
@@ -3671,7 +4886,7 @@
         <tr r="A15" s="70"/>
       </tp>
       <tp>
-        <v>74.05</v>
+        <v>73.099999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -3679,6 +4894,17 @@
         <stp>[quotes.xlsx]Calc!R41C3</stp>
         <tr r="C41" s="70"/>
       </tp>
+      <tp>
+        <v>4.5886627999999998</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0997544860 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R77C6</stp>
+        <tr r="F77" s="70"/>
+        <tr r="F77" s="70"/>
+        <tr r="F77" s="70"/>
+      </tp>
       <tp t="s">
         <v>RU0007661302</v>
         <stp/>
@@ -3688,6 +4914,17 @@
         <stp>[quotes.xlsx]Calc!R60C1</stp>
         <tr r="A60" s="70"/>
       </tp>
+      <tp>
+        <v>4.5663394999999998</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0547082973 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R23C6</stp>
+        <tr r="F23" s="70"/>
+        <tr r="F23" s="70"/>
+        <tr r="F23" s="70"/>
+      </tp>
       <tp t="s">
         <v>US3755581036</v>
         <stp/>
@@ -3698,7 +4935,7 @@
         <tr r="A1" s="70"/>
       </tp>
       <tp>
-        <v>11.09</v>
+        <v>10.87</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -3707,7 +4944,18 @@
         <tr r="C17" s="70"/>
       </tp>
       <tp>
-        <v>8938</v>
+        <v>10.124202370100273</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>GMKN RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R47C6</stp>
+        <tr r="F47" s="70"/>
+        <tr r="F47" s="70"/>
+        <tr r="F47" s="70"/>
+      </tp>
+      <tp>
+        <v>8780</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -3715,6 +4963,39 @@
         <stp>[quotes.xlsx]Calc!R47C3</stp>
         <tr r="C47" s="70"/>
       </tp>
+      <tp>
+        <v>7.496740168190354</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>MFON LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R17C6</stp>
+        <tr r="F17" s="70"/>
+        <tr r="F17" s="70"/>
+        <tr r="F17" s="70"/>
+      </tp>
+      <tp>
+        <v>1.129607595813402</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>QIWI US Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R20C6</stp>
+        <tr r="F20" s="70"/>
+        <tr r="F20" s="70"/>
+        <tr r="F20" s="70"/>
+      </tp>
+      <tp>
+        <v>5.1164299</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0842078536 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R84C6</stp>
+        <tr r="F84" s="70"/>
+        <tr r="F84" s="70"/>
+        <tr r="F84" s="70"/>
+      </tp>
       <tp t="s">
         <v>JE00B1VS3002</v>
         <stp/>
@@ -3725,7 +5006,7 @@
         <tr r="A56" s="70"/>
       </tp>
       <tp>
-        <v>16.14</v>
+        <v>16.82</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>QIWI US Equity</stp>
@@ -3734,7 +5015,49 @@
         <tr r="C20" s="70"/>
       </tp>
       <tp>
-        <v>3.6</v>
+        <v>4.4686883000000002</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>US71645WAR25 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R26C6</stp>
+        <tr r="F26" s="70"/>
+        <tr r="F26" s="70"/>
+        <tr r="F26" s="70"/>
+      </tp>
+      <tp>
+        <v>9.6677501996358224</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>AGRO LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R87C6</stp>
+        <tr r="F87" s="70"/>
+        <tr r="F87" s="70"/>
+        <tr r="F87" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>AQUA RM Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R29C6</stp>
+        <tr r="F29" s="70"/>
+        <tr r="F29" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>HHPA2AH LX Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R88C6</stp>
+        <tr r="F88" s="70"/>
+        <tr r="F88" s="70"/>
+      </tp>
+      <tp>
+        <v>3.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KCEL LI Equity</stp>
@@ -3752,7 +5075,18 @@
         <tr r="A50" s="70"/>
       </tp>
       <tp>
-        <v>12.5</v>
+        <v>9.4224853175027032</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>KCEL LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R34C6</stp>
+        <tr r="F34" s="70"/>
+        <tr r="F34" s="70"/>
+        <tr r="F34" s="70"/>
+      </tp>
+      <tp>
+        <v>12</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGRO LI Equity</stp>
@@ -3761,7 +5095,7 @@
         <tr r="C87" s="70"/>
       </tp>
       <tp>
-        <v>65.599999999999994</v>
+        <v>61</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AQUA RM Equity</stp>
@@ -3770,7 +5104,18 @@
         <tr r="C29" s="70"/>
       </tp>
       <tp>
-        <v>1.3050000000000001E-2</v>
+        <v>1.8305386365750864</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>TGKA RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R59C6</stp>
+        <tr r="F59" s="70"/>
+        <tr r="F59" s="70"/>
+        <tr r="F59" s="70"/>
+      </tp>
+      <tp>
+        <v>1.3285E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TGKA RX Equity</stp>
@@ -3825,7 +5170,18 @@
         <tr r="A12" s="70"/>
       </tp>
       <tp>
-        <v>621.6</v>
+        <v>9.89</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JXJE0 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R100C6</stp>
+        <tr r="F100" s="70"/>
+        <tr r="F100" s="70"/>
+        <tr r="F100" s="70"/>
+      </tp>
+      <tp>
+        <v>600.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -3833,6 +5189,28 @@
         <stp>[quotes.xlsx]Calc!R18C3</stp>
         <tr r="C18" s="70"/>
       </tp>
+      <tp>
+        <v>5.2733118971061099</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>BANE RM Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R13C6</stp>
+        <tr r="F13" s="70"/>
+        <tr r="F13" s="70"/>
+        <tr r="F13" s="70"/>
+      </tp>
+      <tp>
+        <v>1.7485428015258688</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>BSPB RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R44C6</stp>
+        <tr r="F44" s="70"/>
+        <tr r="F44" s="70"/>
+        <tr r="F44" s="70"/>
+      </tp>
       <tp t="s">
         <v>US3682872078</v>
         <stp/>
@@ -3843,7 +5221,18 @@
         <tr r="A19" s="70"/>
       </tp>
       <tp>
-        <v>59.9</v>
+        <v>8.0593038594228279</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>MFON RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R18C6</stp>
+        <tr r="F18" s="70"/>
+        <tr r="F18" s="70"/>
+        <tr r="F18" s="70"/>
+      </tp>
+      <tp>
+        <v>60.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -3852,7 +5241,7 @@
         <tr r="C44" s="70"/>
       </tp>
       <tp>
-        <v>3577</v>
+        <v>3110</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -3861,6 +5250,27 @@
         <tr r="C13" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>COMRLES RX Equity</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R30C6</stp>
+        <tr r="F30" s="70"/>
+        <tr r="F30" s="70"/>
+      </tp>
+      <tp>
+        <v>4.1559474932053204</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0830192711 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R78C6</stp>
+        <tr r="F78" s="70"/>
+        <tr r="F78" s="70"/>
+        <tr r="F78" s="70"/>
+      </tp>
+      <tp t="s">
         <v>RU0006765096</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -3878,6 +5288,28 @@
         <stp>[quotes.xlsx]Calc!R42C1</stp>
         <tr r="A42" s="70"/>
       </tp>
+      <tp>
+        <v>9.7899999999999991</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JX0J2 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R103C6</stp>
+        <tr r="F103" s="70"/>
+        <tr r="F103" s="70"/>
+        <tr r="F103" s="70"/>
+      </tp>
+      <tp>
+        <v>3.949931403774579</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>US65504LAM90 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R90C6</stp>
+        <tr r="F90" s="70"/>
+        <tr r="F90" s="70"/>
+        <tr r="F90" s="70"/>
+      </tp>
       <tp t="s">
         <v>RU0009024277</v>
         <stp/>
@@ -3887,6 +5319,17 @@
         <stp>[quotes.xlsx]Calc!R36C1</stp>
         <tr r="A36" s="70"/>
       </tp>
+      <tp>
+        <v>4.1681596000000001</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0088543193 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R27C6</stp>
+        <tr r="F27" s="70"/>
+        <tr r="F27" s="70"/>
+        <tr r="F27" s="70"/>
+      </tp>
       <tp t="s">
         <v>RU0009062467</v>
         <stp/>
@@ -3914,6 +5357,17 @@
         <stp>[quotes.xlsx]Calc!R48C1</stp>
         <tr r="A48" s="70"/>
       </tp>
+      <tp>
+        <v>3.7334426630498858</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>HMSG LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R33C6</stp>
+        <tr r="F33" s="70"/>
+        <tr r="F33" s="70"/>
+        <tr r="F33" s="70"/>
+      </tp>
       <tp t="s">
         <v>CA9600081009</v>
         <stp/>
@@ -3924,7 +5378,7 @@
         <tr r="A43" s="70"/>
       </tp>
       <tp>
-        <v>10.050000000000001</v>
+        <v>9.76</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MHPC LI Equity</stp>
@@ -3960,7 +5414,39 @@
         <tr r="A87" s="70"/>
       </tp>
       <tp>
-        <v>17.074999999999999</v>
+        <v>7.6683724304792698</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>MHPC LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R50C6</stp>
+        <tr r="F50" s="70"/>
+        <tr r="F50" s="70"/>
+        <tr r="F50" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>PHAG LN Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R54C6</stp>
+        <tr r="F54" s="70"/>
+        <tr r="F54" s="70"/>
+      </tp>
+      <tp>
+        <v>4.2797017817245901</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0975320879 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R89C6</stp>
+        <tr r="F89" s="70"/>
+        <tr r="F89" s="70"/>
+        <tr r="F89" s="70"/>
+      </tp>
+      <tp>
+        <v>17.649999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHAG LN Equity</stp>
@@ -3977,6 +5463,17 @@
         <stp>[quotes.xlsx]Calc!R59C1</stp>
         <tr r="A59" s="70"/>
       </tp>
+      <tp>
+        <v>8.93</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWC82 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R74C6</stp>
+        <tr r="F74" s="70"/>
+        <tr r="F74" s="70"/>
+        <tr r="F74" s="70"/>
+      </tp>
       <tp t="s">
         <v>US58517T2096</v>
         <stp/>
@@ -3996,6 +5493,16 @@
         <tr r="A47" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>PHPD LN Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R56C6</stp>
+        <tr r="F56" s="70"/>
+        <tr r="F56" s="70"/>
+      </tp>
+      <tp t="s">
         <v>US74735M1080</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -4005,7 +5512,7 @@
         <tr r="A20" s="70"/>
       </tp>
       <tp>
-        <v>76.819999999999993</v>
+        <v>75.61</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHPD LN Equity</stp>
@@ -4014,7 +5521,29 @@
         <tr r="C56" s="70"/>
       </tp>
       <tp>
-        <v>59.1</v>
+        <v>9.3000000000000007</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JV7K7 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R102C6</stp>
+        <tr r="F102" s="70"/>
+        <tr r="F102" s="70"/>
+        <tr r="F102" s="70"/>
+      </tp>
+      <tp>
+        <v>9.7799999999999994</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWU98 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R66C6</stp>
+        <tr r="F66" s="70"/>
+        <tr r="F66" s="70"/>
+        <tr r="F66" s="70"/>
+      </tp>
+      <tp>
+        <v>57.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNC RM Equity</stp>
@@ -4023,6 +5552,16 @@
         <tr r="C52" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NKNC RM Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R52C6</stp>
+        <tr r="F52" s="70"/>
+        <tr r="F52" s="70"/>
+      </tp>
+      <tp t="s">
         <v>US29760G1031</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -4032,7 +5571,28 @@
         <tr r="A14" s="70"/>
       </tp>
       <tp>
-        <v>159</v>
+        <v>0.50246685485674936</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>GAZ LI Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R15C6</stp>
+        <tr r="F15" s="70"/>
+        <tr r="F15" s="70"/>
+        <tr r="F15" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>URKA RX Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R60C6</stp>
+        <tr r="F60" s="70"/>
+        <tr r="F60" s="70"/>
+      </tp>
+      <tp>
+        <v>158</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>URKA RX Equity</stp>
@@ -4041,7 +5601,7 @@
         <tr r="C60" s="70"/>
       </tp>
       <tp>
-        <v>18.149999999999999</v>
+        <v>17.350000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -4070,6 +5630,17 @@
         <tr r="E105" s="70"/>
       </tp>
       <tp>
+        <v>3.8699335000000001</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0918604496 Corp</stp>
+        <stp>YLD_CNV_MID</stp>
+        <stp>[quotes.xlsx]Calc!R61C6</stp>
+        <tr r="F61" s="70"/>
+        <tr r="F61" s="70"/>
+        <tr r="F61" s="70"/>
+      </tp>
+      <tp>
         <v>4.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -4081,7 +5652,7 @@
         <tr r="D91" s="70"/>
       </tp>
       <tp>
-        <v>103.703</v>
+        <v>103.78700000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -4099,8 +5670,38 @@
         <tr r="E100" s="70"/>
         <tr r="E100" s="70"/>
       </tp>
-      <tp>
-        <v>95.24</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS1255387976 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R3C6</stp>
+        <tr r="F3" s="70"/>
+        <tr r="F3" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JS5F6 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R81C6</stp>
+        <tr r="F81" s="70"/>
+        <tr r="F81" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0935311240 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R8C6</stp>
+        <tr r="F8" s="70"/>
+        <tr r="F8" s="70"/>
+      </tp>
+      <tp>
+        <v>95.42</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS5F6 Corp</stp>
@@ -4123,6 +5724,16 @@
         <v>#N/A Field Not Applicable</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JTYA5 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R97C6</stp>
+        <tr r="F97" s="70"/>
+        <tr r="F97" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
         <stp>BEST_TARGET_PRICE</stp>
         <stp>[quotes.xlsx]Calc!R24C5</stp>
@@ -4130,6 +5741,16 @@
         <tr r="E24" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS1439838548 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R2C6</stp>
+        <tr r="F2" s="70"/>
+        <tr r="F2" s="70"/>
+      </tp>
+      <tp t="s">
         <v>RU000A0JWDN6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -4139,7 +5760,7 @@
         <tr r="A73" s="70"/>
       </tp>
       <tp>
-        <v>95.44</v>
+        <v>95.350009999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -4147,8 +5768,18 @@
         <stp>[quotes.xlsx]Calc!R97C3</stp>
         <tr r="C97" s="70"/>
       </tp>
-      <tp>
-        <v>101.455</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USL6366MAC75 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R68C6</stp>
+        <tr r="F68" s="70"/>
+        <tr r="F68" s="70"/>
+      </tp>
+      <tp>
+        <v>101.79600000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -4167,7 +5798,7 @@
         <tr r="E101" s="70"/>
       </tp>
       <tp>
-        <v>105.012</v>
+        <v>105.01600000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -4176,6 +5807,16 @@
         <tr r="C24" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USA29866AA70 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R24C6</stp>
+        <tr r="F24" s="70"/>
+        <tr r="F24" s="70"/>
+      </tp>
+      <tp t="s">
         <v>RU000A0GN9A7</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -4193,8 +5834,38 @@
         <stp>[quotes.xlsx]Calc!R101C1</stp>
         <tr r="A101" s="70"/>
       </tp>
-      <tp>
-        <v>106.4</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JPLH5 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R99C6</stp>
+        <tr r="F99" s="70"/>
+        <tr r="F99" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWBF6 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R67C6</stp>
+        <tr r="F67" s="70"/>
+        <tr r="F67" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0767473852 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R6C6</stp>
+        <tr r="F6" s="70"/>
+        <tr r="F6" s="70"/>
+      </tp>
+      <tp>
+        <v>106.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWBF6 Corp</stp>
@@ -4259,6 +5930,16 @@
         <tr r="A68" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWDN6 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R73C6</stp>
+        <tr r="F73" s="70"/>
+        <tr r="F73" s="70"/>
+      </tp>
+      <tp t="s">
         <v>RU000A0JTYA5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -4295,6 +5976,16 @@
         <tr r="E98" s="70"/>
         <tr r="E98" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWBH2 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R63C6</stp>
+        <tr r="F63" s="70"/>
+        <tr r="F63" s="70"/>
+      </tp>
       <tp>
         <v>100.2</v>
         <stp/>
@@ -4315,7 +6006,7 @@
         <tr r="E25" s="70"/>
       </tp>
       <tp>
-        <v>79.550003051757812</v>
+        <v>79.449996948242188</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GILD US Equity</stp>
@@ -4364,8 +6055,18 @@
         <stp>[quotes.xlsx]Calc!R67C1</stp>
         <tr r="A67" s="70"/>
       </tp>
-      <tp>
-        <v>89.089600000000004</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>XS0848137708 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R101C6</stp>
+        <tr r="F101" s="70"/>
+        <tr r="F101" s="70"/>
+      </tp>
+      <tp>
+        <v>88.899600000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0GN9A7 Corp</stp>
@@ -4373,6 +6074,26 @@
         <stp>[quotes.xlsx]Calc!R98C3</stp>
         <tr r="C98" s="70"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0GN9A7 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R98C6</stp>
+        <tr r="F98" s="70"/>
+        <tr r="F98" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWDU1 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R62C6</stp>
+        <tr r="F62" s="70"/>
+        <tr r="F62" s="70"/>
+      </tp>
       <tp>
         <v>102</v>
         <stp/>
@@ -4383,7 +6104,7 @@
         <tr r="C62" s="70"/>
       </tp>
       <tp>
-        <v>272.61111450195312</v>
+        <v>272.3125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGN US Equity</stp>
@@ -4412,8 +6133,18 @@
         <tr r="E99" s="70"/>
         <tr r="E99" s="70"/>
       </tp>
-      <tp>
-        <v>103.55</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JU9T5 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R80C6</stp>
+        <tr r="F80" s="70"/>
+        <tr r="F80" s="70"/>
+      </tp>
+      <tp>
+        <v>103.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW1P8 Corp</stp>
@@ -4421,8 +6152,18 @@
         <stp>[quotes.xlsx]Calc!R94C3</stp>
         <tr r="C94" s="70"/>
       </tp>
-      <tp>
-        <v>98.8</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JW1P8 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R94C6</stp>
+        <tr r="F94" s="70"/>
+        <tr r="F94" s="70"/>
+      </tp>
+      <tp>
+        <v>98.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9T5 Corp</stp>
@@ -4461,6 +6202,16 @@
         <tr r="E64" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JS3W6 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R96C6</stp>
+        <tr r="F96" s="70"/>
+        <tr r="F96" s="70"/>
+      </tp>
+      <tp t="s">
         <v>RU000A0JW0S4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -4479,7 +6230,7 @@
         <tr r="A70" s="70"/>
       </tp>
       <tp>
-        <v>102.39</v>
+        <v>102.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -4488,13 +6239,23 @@
         <tr r="C96" s="70"/>
       </tp>
       <tp>
-        <v>99.59</v>
+        <v>99.600009999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRJU8 Corp</stp>
         <stp>PX_LAST</stp>
         <stp>[quotes.xlsx]Calc!R95C3</stp>
         <tr r="C95" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JRJU8 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R95C6</stp>
+        <tr r="F95" s="70"/>
+        <tr r="F95" s="70"/>
       </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
@@ -4587,6 +6348,16 @@
         <v>#N/A Field Not Applicable</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JWWW7 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R79C6</stp>
+        <tr r="F79" s="70"/>
+        <tr r="F79" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW1P8 Corp</stp>
         <stp>BEST_TARGET_PRICE</stp>
         <stp>[quotes.xlsx]Calc!R94C5</stp>
@@ -4594,7 +6365,7 @@
         <tr r="E94" s="70"/>
       </tp>
       <tp>
-        <v>102.35</v>
+        <v>102.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWWW7 Corp</stp>
@@ -4613,7 +6384,7 @@
         <tr r="E67" s="70"/>
       </tp>
       <tp>
-        <v>96.221000000000004</v>
+        <v>96.338999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -4642,7 +6413,7 @@
         <tr r="E76" s="70"/>
       </tp>
       <tp>
-        <v>103.22799999999999</v>
+        <v>103.596</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -4651,7 +6422,7 @@
         <tr r="C3" s="70"/>
       </tp>
       <tp>
-        <v>103.157</v>
+        <v>102.572</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -4698,8 +6469,28 @@
         <tr r="E4" s="70"/>
         <tr r="E4" s="70"/>
       </tp>
-      <tp>
-        <v>110</v>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JW0S4 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R69C6</stp>
+        <tr r="F69" s="70"/>
+        <tr r="F69" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Field Not Applicable</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>RU000A0JTKZ1 Corp</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R70C6</stp>
+        <tr r="F70" s="70"/>
+        <tr r="F70" s="70"/>
+      </tp>
+      <tp>
+        <v>109.875</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0767473852 Corp</stp>
@@ -4708,7 +6499,7 @@
         <tr r="C6" s="70"/>
       </tp>
       <tp>
-        <v>97.89</v>
+        <v>97.900009999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -4735,7 +6526,7 @@
         <tr r="C69" s="70"/>
       </tp>
       <tp>
-        <v>1037.357177734375</v>
+        <v>1051.5333251953125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -5148,7 +6939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5156,9 +6947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5168,7 +6961,7 @@
     <col min="4" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5176,19 +6969,22 @@
         <v>12</v>
       </c>
       <c r="C1" s="2">
-        <v>66.5800006658</v>
+        <v>66.220000662199993</v>
       </c>
       <c r="D1" s="2">
         <v>4.0344829559326172</v>
       </c>
       <c r="E1" s="2">
-        <v>79.550003051757812</v>
+        <v>79.449996948242188</v>
       </c>
       <c r="F1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.1415192927141748</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5196,7 +6992,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>96.236000962359995</v>
+        <v>96.339000963389992</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -5205,10 +7001,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.9828612000000003</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5216,7 +7015,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>103.22800103227999</v>
+        <v>103.59600103596</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -5225,10 +7024,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.4085318999999998</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5236,19 +7038,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>1259.0000125899999</v>
+        <v>1195.500011955</v>
       </c>
       <c r="D4" s="2">
-        <v>3.3333332538604736</v>
+        <v>3.4000000953674316</v>
       </c>
       <c r="E4" s="2">
         <v>1839.0594482421875</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.741097612065353</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5256,7 +7061,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>111.38500111385</v>
+        <v>111.28500111284998</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -5265,10 +7070,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.2790112000000002</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5276,7 +7084,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>110.00000109999999</v>
+        <v>109.87500109874999</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -5285,10 +7093,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.9162502000000003</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5296,19 +7107,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>1053.0000105299998</v>
+        <v>1082.0000108199999</v>
       </c>
       <c r="D7" s="2">
-        <v>3.5555555820465088</v>
+        <v>3.6315789222717285</v>
       </c>
       <c r="E7" s="2">
-        <v>1037.357177734375</v>
+        <v>1051.5333251953125</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.9510970759083295</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5316,7 +7130,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>103.19700103196999</v>
+        <v>102.57200102572</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -5325,10 +7139,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.7559740999999995</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5336,19 +7153,22 @@
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>238.85000238849997</v>
+        <v>237.83000237830001</v>
       </c>
       <c r="D9" s="2">
         <v>4.5833334922790527</v>
       </c>
       <c r="E9" s="2">
-        <v>272.61111450195312</v>
+        <v>272.3125</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.1773115049893974</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5356,7 +7176,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>292.600002926</v>
+        <v>278.100002781</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -5365,10 +7185,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.5294118194361159</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5376,7 +7199,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>9381.0000938100002</v>
+        <v>9100.0000909999999</v>
       </c>
       <c r="D11" s="2">
         <v>3.769230842590332</v>
@@ -5385,10 +7208,13 @@
         <v>11547.5</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.1578020368303568</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>211</v>
       </c>
@@ -5396,19 +7222,22 @@
         <v>210</v>
       </c>
       <c r="C12" s="2">
-        <v>3.8600000385999995</v>
+        <v>3.9100000390999998</v>
       </c>
       <c r="D12" s="2">
         <v>4.4736843109130859</v>
       </c>
       <c r="E12" s="2">
-        <v>5.3647060394287109</v>
+        <v>5.4499998092651367</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.9872120932849775</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5416,7 +7245,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>3577.5000357749996</v>
+        <v>3110.0000310999999</v>
       </c>
       <c r="D13" s="2">
         <v>3.3333332538604736</v>
@@ -5425,10 +7254,13 @@
         <v>3095.814453125</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.2733118971061099</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5436,7 +7268,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2">
-        <v>3.8500000384999997</v>
+        <v>3.6900000368999999</v>
       </c>
       <c r="D14" s="2">
         <v>4.4000000953674316</v>
@@ -5445,10 +7277,13 @@
         <v>4.5333333015441895</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.6260162238183062</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -5456,7 +7291,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2">
-        <v>18.150000181499998</v>
+        <v>17.3500001735</v>
       </c>
       <c r="D15" s="2">
         <v>3.8571429252624512</v>
@@ -5465,10 +7300,13 @@
         <v>21.29857063293457</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.50246685485674936</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -5476,19 +7314,22 @@
         <v>40</v>
       </c>
       <c r="C16" s="2">
-        <v>10.000000099999999</v>
+        <v>9.2500000924999988</v>
       </c>
       <c r="D16" s="2">
-        <v>4.3333334922790527</v>
+        <v>4.1111111640930176</v>
       </c>
       <c r="E16" s="2">
-        <v>12.537500381469727</v>
+        <v>12.125</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -5496,19 +7337,22 @@
         <v>41</v>
       </c>
       <c r="C17" s="2">
-        <v>11.090000110899998</v>
+        <v>10.870000108699999</v>
       </c>
       <c r="D17" s="2">
         <v>3.8888888359069824</v>
       </c>
       <c r="E17" s="2">
-        <v>11.95086669921875</v>
+        <v>11.936200141906738</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.496740168190354</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -5516,7 +7360,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>621.70000621700001</v>
+        <v>600.50000600499993</v>
       </c>
       <c r="D18" s="2">
         <v>3.7999999523162842</v>
@@ -5525,10 +7369,13 @@
         <v>707.4000244140625</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.0593038594228279</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -5536,19 +7383,22 @@
         <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>4.3845000438449997</v>
+        <v>4.3560000435599999</v>
       </c>
       <c r="D19" s="2">
-        <v>2.7142856121063232</v>
+        <v>2.5714285373687744</v>
       </c>
       <c r="E19" s="2">
-        <v>4.9700002670288086</v>
+        <v>4.8499999046325684</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.617285306365198</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -5556,7 +7406,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="2">
-        <v>16.1400001614</v>
+        <v>16.8200001682</v>
       </c>
       <c r="D20" s="2">
         <v>3.3333332538604736</v>
@@ -5565,10 +7415,13 @@
         <v>16.587499618530273</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.129607595813402</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -5576,19 +7429,22 @@
         <v>45</v>
       </c>
       <c r="C21" s="2">
-        <v>21.820000218200001</v>
+        <v>22.780000227799999</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
       </c>
       <c r="E21" s="2">
-        <v>26.044216156005859</v>
+        <v>26.018661499023438</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -5596,7 +7452,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2">
-        <v>106.95800106957999</v>
+        <v>106.90400106903999</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -5605,10 +7461,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.0384276000000003</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -5616,7 +7475,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2">
-        <v>101.00900101008999</v>
+        <v>100.96700100967</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -5625,10 +7484,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.5663394999999998</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -5636,7 +7498,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="2">
-        <v>105.01200105011999</v>
+        <v>105.01600105016</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -5645,10 +7507,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.3071542999999997</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -5656,7 +7521,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="2">
-        <v>103.02100103020999</v>
+        <v>103.19800103197998</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -5665,10 +7530,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.1271012000000002</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -5676,7 +7544,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="2">
-        <v>103.02200103022</v>
+        <v>103.09600103096</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -5685,10 +7553,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.4686883000000002</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -5696,7 +7567,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="2">
-        <v>176.15000176149999</v>
+        <v>175.87500175874999</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -5705,10 +7576,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.1681596000000001</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -5716,19 +7590,22 @@
         <v>68</v>
       </c>
       <c r="C28" s="2">
-        <v>86.83000086829999</v>
+        <v>88.500000884999992</v>
       </c>
       <c r="D28" s="2">
         <v>3.875</v>
       </c>
       <c r="E28" s="2">
-        <v>106.73789215087891</v>
+        <v>106.98520660400391</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.359448988676125</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -5736,7 +7613,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2">
-        <v>65.600000655999992</v>
+        <v>61.000000609999994</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -5745,10 +7622,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -5756,7 +7636,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2">
-        <v>113.00000112999999</v>
+        <v>111.50000111499999</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -5765,10 +7645,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -5776,19 +7659,22 @@
         <v>71</v>
       </c>
       <c r="C31" s="2">
-        <v>127.35000127349998</v>
+        <v>124.79000124789999</v>
       </c>
       <c r="D31" s="2">
         <v>3.153846263885498</v>
       </c>
       <c r="E31" s="2">
-        <v>145.81280517578125</v>
+        <v>145.57666015625</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.3353138481496662</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -5796,19 +7682,22 @@
         <v>72</v>
       </c>
       <c r="C32" s="2">
-        <v>178.7500017875</v>
+        <v>176.25000176249998</v>
       </c>
       <c r="D32" s="2">
-        <v>4.5</v>
+        <v>4.3333334922790527</v>
       </c>
       <c r="E32" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.9343792402455202</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -5825,10 +7714,13 @@
         <v>9.1999998092651367</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.7334426630498858</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -5836,19 +7728,22 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>3.600000036</v>
+        <v>3.5000000349999998</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
+        <v>2.5999999046325684</v>
       </c>
       <c r="E34" s="2">
         <v>3.5</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.4224853175027032</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -5856,7 +7751,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2">
-        <v>59.000000589999999</v>
+        <v>56.500000564999993</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -5865,10 +7760,13 @@
         <v>47.459602355957031</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5876,19 +7774,22 @@
         <v>76</v>
       </c>
       <c r="C36" s="2">
-        <v>2969.0000296899998</v>
+        <v>2909.5000290949997</v>
       </c>
       <c r="D36" s="2">
         <v>4.4545454978942871</v>
       </c>
       <c r="E36" s="2">
-        <v>3582.961669921875</v>
+        <v>3572.2861328125</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.4294309781674404</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -5896,7 +7797,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="2">
-        <v>277.25000277250001</v>
+        <v>276.65000276649994</v>
       </c>
       <c r="D37" s="2">
         <v>4.3333334922790527</v>
@@ -5905,10 +7806,13 @@
         <v>309.5</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.32075499380967</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -5916,7 +7820,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="2">
-        <v>374.50000374499996</v>
+        <v>374.00000373999995</v>
       </c>
       <c r="D38" s="2">
         <v>3.4000000953674316</v>
@@ -5925,10 +7829,13 @@
         <v>416.39999389648437</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.3547523427041499</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -5936,7 +7843,7 @@
         <v>79</v>
       </c>
       <c r="C39" s="2">
-        <v>6.2250000622499995</v>
+        <v>6.2950000629499998</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -5945,10 +7852,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.4185863007052353</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5956,19 +7866,22 @@
         <v>80</v>
       </c>
       <c r="C40" s="2">
-        <v>206.90000206899998</v>
+        <v>197.20000197199997</v>
       </c>
       <c r="D40" s="2">
         <v>3.7272727489471436</v>
       </c>
       <c r="E40" s="2">
-        <v>233.01954650878906</v>
+        <v>227.81964111328125</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.27855153807086802</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -5976,19 +7889,22 @@
         <v>81</v>
       </c>
       <c r="C41" s="2">
-        <v>74.750000747499996</v>
+        <v>73.100000730999994</v>
       </c>
       <c r="D41" s="2">
         <v>4.3333334922790527</v>
       </c>
       <c r="E41" s="2">
-        <v>89.334190368652344</v>
+        <v>95.887603759765625</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.6538988470868117</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -5996,7 +7912,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="2">
-        <v>2.66500002665</v>
+        <v>2.5580000255799997</v>
       </c>
       <c r="D42" s="2">
         <v>4.3333334922790527</v>
@@ -6005,10 +7921,13 @@
         <v>3.2975001335144043</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.569842886719371</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -6016,7 +7935,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="2">
-        <v>0.15000000149999998</v>
+        <v>0.1600000016</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
@@ -6025,10 +7944,13 @@
         <v>0.31666666269302368</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -6036,19 +7958,22 @@
         <v>126</v>
       </c>
       <c r="C44" s="2">
-        <v>60.250000602499995</v>
+        <v>60.050000600499992</v>
       </c>
       <c r="D44" s="2">
         <v>3.4444444179534912</v>
       </c>
       <c r="E44" s="2">
-        <v>64.666664123535156</v>
+        <v>62.652717590332031</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.7485428015258688</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -6056,19 +7981,22 @@
         <v>127</v>
       </c>
       <c r="C45" s="2">
-        <v>233.00000232999997</v>
+        <v>229.20000229199997</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
       </c>
       <c r="E45" s="2">
-        <v>279.06253051757813</v>
+        <v>274.83175659179687</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -6076,7 +8004,7 @@
         <v>128</v>
       </c>
       <c r="C46" s="2">
-        <v>6.9500000694999997</v>
+        <v>7.2700000726999994</v>
       </c>
       <c r="D46" s="2">
         <v>4.3333334922790527</v>
@@ -6085,10 +8013,13 @@
         <v>7.5437498092651367</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.575006558445823</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -6096,19 +8027,22 @@
         <v>129</v>
       </c>
       <c r="C47" s="2">
-        <v>8968.0000896799993</v>
+        <v>8780.0000877999992</v>
       </c>
       <c r="D47" s="2">
         <v>3.7999999523162842</v>
       </c>
       <c r="E47" s="2">
-        <v>11161.03515625</v>
+        <v>11203.3251953125</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.124202370100273</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
@@ -6116,7 +8050,7 @@
         <v>130</v>
       </c>
       <c r="C48" s="2">
-        <v>906.50000906499997</v>
+        <v>907.50000907499998</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
@@ -6125,10 +8059,13 @@
         <v>1150</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.5950413223140494</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -6136,7 +8073,7 @@
         <v>131</v>
       </c>
       <c r="C49" s="2">
-        <v>61.600000615999996</v>
+        <v>60.950000609500002</v>
       </c>
       <c r="D49" s="2">
         <v>4.2857141494750977</v>
@@ -6145,10 +8082,13 @@
         <v>69.545455932617188</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
@@ -6156,7 +8096,7 @@
         <v>132</v>
       </c>
       <c r="C50" s="2">
-        <v>10.0500001005</v>
+        <v>9.760000097599999</v>
       </c>
       <c r="D50" s="2">
         <v>4.25</v>
@@ -6165,10 +8105,13 @@
         <v>11.781999588012695</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.6683724304792698</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
@@ -6176,7 +8119,7 @@
         <v>133</v>
       </c>
       <c r="C51" s="2">
-        <v>6.0500000604999993E-2</v>
+        <v>6.0400000603999998E-2</v>
       </c>
       <c r="D51" s="2">
         <v>3</v>
@@ -6185,10 +8128,13 @@
         <v>1.9999999552965164E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.0885246531030197</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
@@ -6196,7 +8142,7 @@
         <v>134</v>
       </c>
       <c r="C52" s="2">
-        <v>59.100000590999997</v>
+        <v>57.100000570999995</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -6205,10 +8151,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
@@ -6216,7 +8165,7 @@
         <v>135</v>
       </c>
       <c r="C53" s="2">
-        <v>25.3400002534</v>
+        <v>24.680000246799999</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -6225,10 +8174,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.635108299828893</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>94</v>
       </c>
@@ -6236,7 +8188,7 @@
         <v>136</v>
       </c>
       <c r="C54" s="2">
-        <v>17.075000170749998</v>
+        <v>17.650000176499997</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -6245,10 +8197,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -6256,7 +8211,7 @@
         <v>137</v>
       </c>
       <c r="C55" s="2">
-        <v>120.6200012062</v>
+        <v>123.59000123589999</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -6265,10 +8220,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -6276,7 +8234,7 @@
         <v>138</v>
       </c>
       <c r="C56" s="2">
-        <v>76.820000768199989</v>
+        <v>75.610000756099993</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -6285,10 +8243,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -6296,7 +8257,7 @@
         <v>139</v>
       </c>
       <c r="C57" s="2">
-        <v>106.700001067</v>
+        <v>106.50000106499999</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
@@ -6305,10 +8266,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.273576097105508</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -6316,7 +8280,7 @@
         <v>140</v>
       </c>
       <c r="C58" s="2">
-        <v>578.00000577999992</v>
+        <v>576.00000576000002</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
@@ -6325,10 +8289,13 @@
         <v>640.523193359375</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
@@ -6336,7 +8303,7 @@
         <v>141</v>
       </c>
       <c r="C59" s="2">
-        <v>1.315500013155E-2</v>
+        <v>1.3285000132849998E-2</v>
       </c>
       <c r="D59" s="2">
         <v>2.3333332538604736</v>
@@ -6345,10 +8312,13 @@
         <v>5.7500001043081284E-2</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.8305386365750864</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -6356,7 +8326,7 @@
         <v>142</v>
       </c>
       <c r="C60" s="2">
-        <v>158.80000158800001</v>
+        <v>158.00000158</v>
       </c>
       <c r="D60" s="2">
         <v>1.7999999523162842</v>
@@ -6365,10 +8335,13 @@
         <v>149.82072448730469</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
@@ -6376,7 +8349,7 @@
         <v>143</v>
       </c>
       <c r="C61" s="2">
-        <v>102.90200102902</v>
+        <v>102.81100102811</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -6385,10 +8358,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.8699335000000001</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
@@ -6405,10 +8381,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>103</v>
       </c>
@@ -6425,10 +8404,13 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.92</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>104</v>
       </c>
@@ -6445,10 +8427,13 @@
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.14</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>105</v>
       </c>
@@ -6456,7 +8441,7 @@
         <v>147</v>
       </c>
       <c r="C65" s="2">
-        <v>107.71100107711</v>
+        <v>107.00700107007</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -6465,10 +8450,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.6910068799999998</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>106</v>
       </c>
@@ -6476,7 +8464,7 @@
         <v>148</v>
       </c>
       <c r="C66" s="2">
-        <v>103.21000103209998</v>
+        <v>103.500001035</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -6485,10 +8473,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>107</v>
       </c>
@@ -6496,7 +8487,7 @@
         <v>149</v>
       </c>
       <c r="C67" s="2">
-        <v>106.40000106399999</v>
+        <v>106.50000106499999</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
@@ -6505,10 +8496,13 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>108</v>
       </c>
@@ -6516,7 +8510,7 @@
         <v>150</v>
       </c>
       <c r="C68" s="2">
-        <v>101.46500101465</v>
+        <v>101.79600101795999</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -6525,10 +8519,13 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.5428756000000003</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -6545,10 +8542,13 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.5</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>110</v>
       </c>
@@ -6556,7 +8556,7 @@
         <v>152</v>
       </c>
       <c r="C70" s="2">
-        <v>97.890000978899991</v>
+        <v>97.900010979000086</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -6565,10 +8565,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.09</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>111</v>
       </c>
@@ -6585,10 +8588,13 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.55</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>112</v>
       </c>
@@ -6596,7 +8602,7 @@
         <v>154</v>
       </c>
       <c r="C72" s="2">
-        <v>98.615000986149994</v>
+        <v>98.625000986250001</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -6605,10 +8611,13 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.7201650528934813</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>113</v>
       </c>
@@ -6625,10 +8634,13 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.74</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>114</v>
       </c>
@@ -6636,7 +8648,7 @@
         <v>156</v>
       </c>
       <c r="C74" s="2">
-        <v>103.400001034</v>
+        <v>103.900001039</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -6645,10 +8657,13 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.93</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>115</v>
       </c>
@@ -6665,10 +8680,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.53</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>116</v>
       </c>
@@ -6685,10 +8703,13 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.65</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>117</v>
       </c>
@@ -6696,7 +8717,7 @@
         <v>159</v>
       </c>
       <c r="C77" s="2">
-        <v>108.27000108269999</v>
+        <v>107.95500107954999</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -6705,10 +8726,13 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.5886627999999998</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>118</v>
       </c>
@@ -6716,7 +8740,7 @@
         <v>160</v>
       </c>
       <c r="C78" s="2">
-        <v>101.31200101312</v>
+        <v>101.05100101050999</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -6725,10 +8749,13 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.1559474932053204</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -6736,7 +8763,7 @@
         <v>161</v>
       </c>
       <c r="C79" s="2">
-        <v>102.35000102349998</v>
+        <v>102.25000102249999</v>
       </c>
       <c r="D79" s="2">
         <v>0</v>
@@ -6745,10 +8772,13 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -6756,7 +8786,7 @@
         <v>162</v>
       </c>
       <c r="C80" s="2">
-        <v>98.800000987999994</v>
+        <v>98.600000985999984</v>
       </c>
       <c r="D80" s="2">
         <v>0</v>
@@ -6765,10 +8795,13 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>121</v>
       </c>
@@ -6776,7 +8809,7 @@
         <v>163</v>
       </c>
       <c r="C81" s="2">
-        <v>95.240000952399996</v>
+        <v>95.420000954199992</v>
       </c>
       <c r="D81" s="2">
         <v>0</v>
@@ -6785,10 +8818,13 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.35</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>122</v>
       </c>
@@ -6796,7 +8832,7 @@
         <v>164</v>
       </c>
       <c r="C82" s="2">
-        <v>99.640000996399991</v>
+        <v>99.650010996500086</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
@@ -6805,10 +8841,13 @@
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.5085404187822178</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>123</v>
       </c>
@@ -6816,7 +8855,7 @@
         <v>165</v>
       </c>
       <c r="C83" s="2">
-        <v>77.849000778489994</v>
+        <v>83.587000835870001</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -6825,10 +8864,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25.024694833119774</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>124</v>
       </c>
@@ -6836,7 +8878,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="2">
-        <v>108.88800108888</v>
+        <v>108.68100108680999</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
@@ -6845,10 +8887,13 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.1164299</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -6856,7 +8901,7 @@
         <v>197</v>
       </c>
       <c r="C85" s="2">
-        <v>100.700001007</v>
+        <v>100.65000100650001</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -6865,10 +8910,13 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.65</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
@@ -6876,7 +8924,7 @@
         <v>172</v>
       </c>
       <c r="C86" s="2">
-        <v>21.900000218999999</v>
+        <v>21.110000211099997</v>
       </c>
       <c r="D86" s="2">
         <v>4.3333334922790527</v>
@@ -6885,10 +8933,13 @@
         <v>28.154998779296875</v>
       </c>
       <c r="F86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.674088132488734</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
@@ -6896,7 +8947,7 @@
         <v>173</v>
       </c>
       <c r="C87" s="2">
-        <v>12.5500001255</v>
+        <v>12.000000119999999</v>
       </c>
       <c r="D87" s="2">
         <v>4.1999998092651367</v>
@@ -6905,10 +8956,13 @@
         <v>16.299999237060547</v>
       </c>
       <c r="F87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.6677501996358224</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>169</v>
       </c>
@@ -6916,7 +8970,7 @@
         <v>174</v>
       </c>
       <c r="C88" s="2">
-        <v>13.090000130899998</v>
+        <v>13.160000131599999</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -6925,10 +8979,13 @@
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>170</v>
       </c>
@@ -6936,7 +8993,7 @@
         <v>198</v>
       </c>
       <c r="C89" s="2">
-        <v>105.56300105563</v>
+        <v>105.20700105206998</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
@@ -6945,10 +9002,13 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.2797017817245901</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>171</v>
       </c>
@@ -6956,7 +9016,7 @@
         <v>199</v>
       </c>
       <c r="C90" s="2">
-        <v>101.46690101466899</v>
+        <v>101.586501015865</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -6965,10 +9025,13 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.949931403774579</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
@@ -6976,7 +9039,7 @@
         <v>176</v>
       </c>
       <c r="C91" s="2">
-        <v>3.9500000394999999</v>
+        <v>3.8400000383999995</v>
       </c>
       <c r="D91" s="2">
         <v>4.5</v>
@@ -6985,10 +9048,13 @@
         <v>4.851250171661377</v>
       </c>
       <c r="F91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.3224288684626422</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>177</v>
       </c>
@@ -6996,19 +9062,22 @@
         <v>178</v>
       </c>
       <c r="C92" s="2">
-        <v>33.145000331449999</v>
+        <v>29.760000297600001</v>
       </c>
       <c r="D92" s="2">
         <v>3.625</v>
       </c>
       <c r="E92" s="2">
-        <v>38.323436737060547</v>
+        <v>37.462532043457031</v>
       </c>
       <c r="F92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23.268325744095311</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
@@ -7016,7 +9085,7 @@
         <v>180</v>
       </c>
       <c r="C93" s="2">
-        <v>106.39100106391</v>
+        <v>106.24900106249</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -7025,10 +9094,13 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.4329641</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>181</v>
       </c>
@@ -7036,7 +9108,7 @@
         <v>182</v>
       </c>
       <c r="C94" s="2">
-        <v>103.55000103549999</v>
+        <v>103.200001032</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
@@ -7045,10 +9117,13 @@
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.27</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>183</v>
       </c>
@@ -7056,7 +9131,7 @@
         <v>184</v>
       </c>
       <c r="C95" s="2">
-        <v>99.590000995899999</v>
+        <v>99.600010996000094</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -7065,10 +9140,13 @@
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.67</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>185</v>
       </c>
@@ -7076,7 +9154,7 @@
         <v>186</v>
       </c>
       <c r="C96" s="2">
-        <v>102.40000102400001</v>
+        <v>102.30000102299999</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
@@ -7085,10 +9163,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.95</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>187</v>
       </c>
@@ -7096,7 +9177,7 @@
         <v>188</v>
       </c>
       <c r="C97" s="2">
-        <v>95.450000954499998</v>
+        <v>95.350010953500089</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -7105,10 +9186,13 @@
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.24</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>189</v>
       </c>
@@ -7116,7 +9200,7 @@
         <v>190</v>
       </c>
       <c r="C98" s="2">
-        <v>89.089600890895994</v>
+        <v>88.899600888996005</v>
       </c>
       <c r="D98" s="2">
         <v>0</v>
@@ -7125,10 +9209,13 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.34</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>191</v>
       </c>
@@ -7145,10 +9232,13 @@
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>193</v>
       </c>
@@ -7156,7 +9246,7 @@
         <v>194</v>
       </c>
       <c r="C100" s="2">
-        <v>102.700001027</v>
+        <v>102.50000102499999</v>
       </c>
       <c r="D100" s="2">
         <v>0</v>
@@ -7165,10 +9255,13 @@
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.89</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
@@ -7176,7 +9269,7 @@
         <v>196</v>
       </c>
       <c r="C101" s="2">
-        <v>103.70800103708</v>
+        <v>103.78700103787</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
@@ -7185,10 +9278,13 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.0417495233555796</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
@@ -7196,7 +9292,7 @@
         <v>201</v>
       </c>
       <c r="C102" s="2">
-        <v>101.0900010109</v>
+        <v>101.0500010105</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -7205,10 +9301,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
@@ -7216,7 +9315,7 @@
         <v>203</v>
       </c>
       <c r="C103" s="2">
-        <v>101.74000101739999</v>
+        <v>101.6500010165</v>
       </c>
       <c r="D103" s="2">
         <v>0</v>
@@ -7225,10 +9324,13 @@
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -7236,7 +9338,7 @@
         <v>207</v>
       </c>
       <c r="C104" s="2">
-        <v>76.951000769509989</v>
+        <v>75.501000755009997</v>
       </c>
       <c r="D104" s="2">
         <v>3.96875</v>
@@ -7245,10 +9347,13 @@
         <v>80.120002746582031</v>
       </c>
       <c r="F104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.0143771076175456</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>204</v>
       </c>
@@ -7256,7 +9361,7 @@
         <v>205</v>
       </c>
       <c r="C105" s="2">
-        <v>74.400000743999996</v>
+        <v>74.050000740499996</v>
       </c>
       <c r="D105" s="2">
         <v>3.6571428775787354</v>
@@ -7265,10 +9370,13 @@
         <v>79.611114501953125</v>
       </c>
       <c r="F105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.7162162162162162</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>208</v>
       </c>
@@ -7276,7 +9384,7 @@
         <v>209</v>
       </c>
       <c r="C106" s="2">
-        <v>257.80000257799998</v>
+        <v>256.95000256949999</v>
       </c>
       <c r="D106" s="2">
         <v>4.4375</v>
@@ -7285,6 +9393,9 @@
         <v>283.39999389648437</v>
       </c>
       <c r="F106" s="1">
+        <v>3.1906614043833215</v>
+      </c>
+      <c r="G106">
         <v>1</v>
       </c>
     </row>
@@ -7295,7 +9406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -7309,7 +9420,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f>_xll.BDP(B1,"ID_ISIN")</f>
         <v>US3755581036</v>
@@ -7319,7 +9430,7 @@
       </c>
       <c r="C1" s="2">
         <f>_xll.BDP(B1,"PX_LAST")*1.00000001</f>
-        <v>66.5800006658</v>
+        <v>66.220000662199993</v>
       </c>
       <c r="D1" s="1">
         <f>IF(OR(_xll.BDP(B1,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B1,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B1,"BEST_ANALYST_RATING"))</f>
@@ -7327,14 +9438,20 @@
       </c>
       <c r="E1" s="1">
         <f>IF(OR(_xll.BDP(B1,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B1,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B1,"BEST_TARGET_PRICE"))</f>
-        <v>79.550003051757812</v>
+        <v>79.449996948242188</v>
       </c>
       <c r="F1" s="1">
+        <f>IF(OR(_xll.BDP(B1,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B1,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B1,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B1,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B1,"YLD_CNV_MID")),
+_xll.BDP(B1,"EQY_DVD_YLD_IND"))</f>
+        <v>3.1415192927141748</v>
+      </c>
+      <c r="G1" s="1">
         <f>COUNTIF($B:$B,B1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>_xll.BDP(B2,"ID_ISIN")</f>
         <v>XS1439838548</v>
@@ -7344,7 +9461,7 @@
       </c>
       <c r="C2" s="2">
         <f>_xll.BDP(B2,"PX_LAST")*1.00000001</f>
-        <v>96.221000962209999</v>
+        <v>96.339000963389992</v>
       </c>
       <c r="D2" s="1">
         <f>IF(OR(_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"BEST_ANALYST_RATING"))</f>
@@ -7355,11 +9472,17 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F65" si="0">COUNTIF($B:$B,B2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(OR(_xll.BDP(B2,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B2,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B2,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B2,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"YLD_CNV_MID")),
+_xll.BDP(B2,"EQY_DVD_YLD_IND"))</f>
+        <v>5.9828612000000003</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G65" si="0">COUNTIF($B:$B,B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>_xll.BDP(B3,"ID_ISIN")</f>
         <v>XS1255387976</v>
@@ -7369,7 +9492,7 @@
       </c>
       <c r="C3" s="2">
         <f>_xll.BDP(B3,"PX_LAST")*1.00000001</f>
-        <v>103.22800103227999</v>
+        <v>103.59600103596</v>
       </c>
       <c r="D3" s="1">
         <f>IF(OR(_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"BEST_ANALYST_RATING"))</f>
@@ -7380,11 +9503,17 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
+        <f>IF(OR(_xll.BDP(B3,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B3,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B3,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B3,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"YLD_CNV_MID")),
+_xll.BDP(B3,"EQY_DVD_YLD_IND"))</f>
+        <v>8.4085318999999998</v>
+      </c>
+      <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>_xll.BDP(B4,"ID_ISIN")</f>
         <v>RU0007976965</v>
@@ -7394,22 +9523,28 @@
       </c>
       <c r="C4" s="2">
         <f>_xll.BDP(B4,"PX_LAST")*1.00000001</f>
-        <v>1248.5000124849998</v>
+        <v>1195.500011955</v>
       </c>
       <c r="D4" s="1">
         <f>IF(OR(_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"BEST_ANALYST_RATING"))</f>
-        <v>3.3333332538604736</v>
+        <v>3.4000000953674316</v>
       </c>
       <c r="E4" s="1">
         <f>IF(OR(_xll.BDP(B4,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B4,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"BEST_TARGET_PRICE"))</f>
         <v>1839.0594482421875</v>
       </c>
       <c r="F4" s="1">
+        <f>IF(OR(_xll.BDP(B4,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B4,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B4,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B4,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"YLD_CNV_MID")),
+_xll.BDP(B4,"EQY_DVD_YLD_IND"))</f>
+        <v>13.741097612065353</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>_xll.BDP(B5,"ID_ISIN")</f>
         <v>USP989MJBG51</v>
@@ -7419,7 +9554,7 @@
       </c>
       <c r="C5" s="2">
         <f>_xll.BDP(B5,"PX_LAST")*1.00000001</f>
-        <v>111.38500111385</v>
+        <v>111.28500111284998</v>
       </c>
       <c r="D5" s="1">
         <f>IF(OR(_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"BEST_ANALYST_RATING"))</f>
@@ -7430,11 +9565,17 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
+        <f>IF(OR(_xll.BDP(B5,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B5,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B5,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B5,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"YLD_CNV_MID")),
+_xll.BDP(B5,"EQY_DVD_YLD_IND"))</f>
+        <v>5.2790112000000002</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>_xll.BDP(B6,"ID_ISIN")</f>
         <v>XS0767473852</v>
@@ -7444,7 +9585,7 @@
       </c>
       <c r="C6" s="2">
         <f>_xll.BDP(B6,"PX_LAST")*1.00000001</f>
-        <v>110.00000109999999</v>
+        <v>109.87500109874999</v>
       </c>
       <c r="D6" s="1">
         <f>IF(OR(_xll.BDP(B6,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B6,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B6,"BEST_ANALYST_RATING"))</f>
@@ -7455,11 +9596,17 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
+        <f>IF(OR(_xll.BDP(B6,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B6,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B6,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B6,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B6,"YLD_CNV_MID")),
+_xll.BDP(B6,"EQY_DVD_YLD_IND"))</f>
+        <v>4.9162502000000003</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>_xll.BDP(B7,"ID_ISIN")</f>
         <v>JE00B6T5S470</v>
@@ -7469,22 +9616,28 @@
       </c>
       <c r="C7" s="2">
         <f>_xll.BDP(B7,"PX_LAST")*1.00000001</f>
-        <v>1052.0000105199999</v>
+        <v>1082.0000108199999</v>
       </c>
       <c r="D7" s="1">
         <f>IF(OR(_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"BEST_ANALYST_RATING"))</f>
-        <v>3.5555555820465088</v>
+        <v>3.6315789222717285</v>
       </c>
       <c r="E7" s="1">
         <f>IF(OR(_xll.BDP(B7,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B7,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"BEST_TARGET_PRICE"))</f>
-        <v>1037.357177734375</v>
+        <v>1051.5333251953125</v>
       </c>
       <c r="F7" s="1">
+        <f>IF(OR(_xll.BDP(B7,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B7,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B7,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B7,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"YLD_CNV_MID")),
+_xll.BDP(B7,"EQY_DVD_YLD_IND"))</f>
+        <v>1.9510970759083295</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>_xll.BDP(B8,"ID_ISIN")</f>
         <v>XS0935311240</v>
@@ -7494,7 +9647,7 @@
       </c>
       <c r="C8" s="2">
         <f>_xll.BDP(B8,"PX_LAST")*1.00000001</f>
-        <v>103.15700103156999</v>
+        <v>102.57200102572</v>
       </c>
       <c r="D8" s="1">
         <f>IF(OR(_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"BEST_ANALYST_RATING"))</f>
@@ -7505,11 +9658,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
+        <f>IF(OR(_xll.BDP(B8,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B8,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B8,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B8,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"YLD_CNV_MID")),
+_xll.BDP(B8,"EQY_DVD_YLD_IND"))</f>
+        <v>4.7559740999999995</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>_xll.BDP(B9,"ID_ISIN")</f>
         <v>IE00BY9D5467</v>
@@ -7519,7 +9678,7 @@
       </c>
       <c r="C9" s="2">
         <f>_xll.BDP(B9,"PX_LAST")*1.00000001</f>
-        <v>238.85000238849997</v>
+        <v>237.83000237830001</v>
       </c>
       <c r="D9" s="1">
         <f>IF(OR(_xll.BDP(B9,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B9,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B9,"BEST_ANALYST_RATING"))</f>
@@ -7527,14 +9686,20 @@
       </c>
       <c r="E9" s="1">
         <f>IF(OR(_xll.BDP(B9,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B9,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B9,"BEST_TARGET_PRICE"))</f>
-        <v>272.61111450195312</v>
+        <v>272.3125</v>
       </c>
       <c r="F9" s="1">
+        <f>IF(OR(_xll.BDP(B9,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B9,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B9,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B9,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B9,"YLD_CNV_MID")),
+_xll.BDP(B9,"EQY_DVD_YLD_IND"))</f>
+        <v>1.1773115049893974</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>_xll.BDP(B10,"ID_ISIN")</f>
         <v>RU000A0JR5Z5</v>
@@ -7544,7 +9709,7 @@
       </c>
       <c r="C10" s="2">
         <f>_xll.BDP(B10,"PX_LAST")*1.00000001</f>
-        <v>291.90000291899997</v>
+        <v>278.100002781</v>
       </c>
       <c r="D10" s="1">
         <f>IF(OR(_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"BEST_ANALYST_RATING"))</f>
@@ -7555,11 +9720,17 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
+        <f>IF(OR(_xll.BDP(B10,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B10,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B10,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B10,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"YLD_CNV_MID")),
+_xll.BDP(B10,"EQY_DVD_YLD_IND"))</f>
+        <v>3.5294118194361159</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>_xll.BDP(B11,"ID_ISIN")</f>
         <v>RU000A0JKQU8</v>
@@ -7569,7 +9740,7 @@
       </c>
       <c r="C11" s="2">
         <f>_xll.BDP(B11,"PX_LAST")*1.00000001</f>
-        <v>9379.0000937899986</v>
+        <v>9100.0000909999999</v>
       </c>
       <c r="D11" s="1">
         <f>IF(OR(_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"BEST_ANALYST_RATING"))</f>
@@ -7580,11 +9751,17 @@
         <v>11547.5</v>
       </c>
       <c r="F11" s="1">
+        <f>IF(OR(_xll.BDP(B11,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B11,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B11,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B11,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"YLD_CNV_MID")),
+_xll.BDP(B11,"EQY_DVD_YLD_IND"))</f>
+        <v>4.1578020368303568</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>_xll.BDP(B12,"ID_ISIN")</f>
         <v>US91822M1062</v>
@@ -7594,7 +9771,7 @@
       </c>
       <c r="C12" s="2">
         <f>_xll.BDP(B12,"PX_LAST")*1.00000001</f>
-        <v>3.8600000385999995</v>
+        <v>3.9100000390999998</v>
       </c>
       <c r="D12" s="1">
         <f>IF(OR(_xll.BDP(B12,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B12,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B12,"BEST_ANALYST_RATING"))</f>
@@ -7602,14 +9779,20 @@
       </c>
       <c r="E12" s="1">
         <f>IF(OR(_xll.BDP(B12,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B12,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B12,"BEST_TARGET_PRICE"))</f>
-        <v>5.3647060394287109</v>
+        <v>5.4499998092651367</v>
       </c>
       <c r="F12" s="1">
+        <f>IF(OR(_xll.BDP(B12,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B12,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B12,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B12,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B12,"YLD_CNV_MID")),
+_xll.BDP(B12,"EQY_DVD_YLD_IND"))</f>
+        <v>4.9872120932849775</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>_xll.BDP(B13,"ID_ISIN")</f>
         <v>RU0007976957</v>
@@ -7619,7 +9802,7 @@
       </c>
       <c r="C13" s="2">
         <f>_xll.BDP(B13,"PX_LAST")*1.00000001</f>
-        <v>3577.0000357699996</v>
+        <v>3110.0000310999999</v>
       </c>
       <c r="D13" s="1">
         <f>IF(OR(_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"BEST_ANALYST_RATING"))</f>
@@ -7630,11 +9813,17 @@
         <v>3095.814453125</v>
       </c>
       <c r="F13" s="1">
+        <f>IF(OR(_xll.BDP(B13,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B13,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B13,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B13,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"YLD_CNV_MID")),
+_xll.BDP(B13,"EQY_DVD_YLD_IND"))</f>
+        <v>5.2733118971061099</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>_xll.BDP(B14,"ID_ISIN")</f>
         <v>US29760G1031</v>
@@ -7644,7 +9833,7 @@
       </c>
       <c r="C14" s="2">
         <f>_xll.BDP(B14,"PX_LAST")*1.00000001</f>
-        <v>3.7200000372000002</v>
+        <v>3.6900000368999999</v>
       </c>
       <c r="D14" s="1">
         <f>IF(OR(_xll.BDP(B14,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B14,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"BEST_ANALYST_RATING"))</f>
@@ -7655,11 +9844,17 @@
         <v>4.5333333015441895</v>
       </c>
       <c r="F14" s="1">
+        <f>IF(OR(_xll.BDP(B14,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B14,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B14,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B14,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"YLD_CNV_MID")),
+_xll.BDP(B14,"EQY_DVD_YLD_IND"))</f>
+        <v>1.6260162238183062</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>_xll.BDP(B15,"ID_ISIN")</f>
         <v>US36829G1076</v>
@@ -7669,7 +9864,7 @@
       </c>
       <c r="C15" s="2">
         <f>_xll.BDP(B15,"PX_LAST")*1.00000001</f>
-        <v>18.150000181499998</v>
+        <v>17.3500001735</v>
       </c>
       <c r="D15" s="1">
         <f>IF(OR(_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"BEST_ANALYST_RATING"))</f>
@@ -7680,11 +9875,17 @@
         <v>21.29857063293457</v>
       </c>
       <c r="F15" s="1">
+        <f>IF(OR(_xll.BDP(B15,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B15,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B15,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B15,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"YLD_CNV_MID")),
+_xll.BDP(B15,"EQY_DVD_YLD_IND"))</f>
+        <v>0.50246685485674936</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>_xll.BDP(B16,"ID_ISIN")</f>
         <v>US48666V2043</v>
@@ -7694,22 +9895,28 @@
       </c>
       <c r="C16" s="2">
         <f>_xll.BDP(B16,"PX_LAST")*1.00000001</f>
-        <v>10.000000099999999</v>
+        <v>9.2500000924999988</v>
       </c>
       <c r="D16" s="1">
         <f>IF(OR(_xll.BDP(B16,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B16,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B16,"BEST_ANALYST_RATING"))</f>
-        <v>4.3333334922790527</v>
+        <v>4.1111111640930176</v>
       </c>
       <c r="E16" s="1">
         <f>IF(OR(_xll.BDP(B16,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B16,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B16,"BEST_TARGET_PRICE"))</f>
-        <v>12.537500381469727</v>
+        <v>12.125</v>
       </c>
       <c r="F16" s="1">
+        <f>IF(OR(_xll.BDP(B16,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B16,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B16,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B16,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B16,"YLD_CNV_MID")),
+_xll.BDP(B16,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>_xll.BDP(B17,"ID_ISIN")</f>
         <v>US58517T2096</v>
@@ -7719,7 +9926,7 @@
       </c>
       <c r="C17" s="2">
         <f>_xll.BDP(B17,"PX_LAST")*1.00000001</f>
-        <v>11.090000110899998</v>
+        <v>10.870000108699999</v>
       </c>
       <c r="D17" s="1">
         <f>IF(OR(_xll.BDP(B17,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B17,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"BEST_ANALYST_RATING"))</f>
@@ -7727,14 +9934,20 @@
       </c>
       <c r="E17" s="1">
         <f>IF(OR(_xll.BDP(B17,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B17,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"BEST_TARGET_PRICE"))</f>
-        <v>11.95086669921875</v>
+        <v>11.936200141906738</v>
       </c>
       <c r="F17" s="1">
+        <f>IF(OR(_xll.BDP(B17,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B17,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B17,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B17,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"YLD_CNV_MID")),
+_xll.BDP(B17,"EQY_DVD_YLD_IND"))</f>
+        <v>7.496740168190354</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>_xll.BDP(B18,"ID_ISIN")</f>
         <v>RU000A0JS942</v>
@@ -7744,7 +9957,7 @@
       </c>
       <c r="C18" s="2">
         <f>_xll.BDP(B18,"PX_LAST")*1.00000001</f>
-        <v>621.600006216</v>
+        <v>600.50000600499993</v>
       </c>
       <c r="D18" s="1">
         <f>IF(OR(_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"BEST_ANALYST_RATING"))</f>
@@ -7755,11 +9968,17 @@
         <v>707.4000244140625</v>
       </c>
       <c r="F18" s="1">
+        <f>IF(OR(_xll.BDP(B18,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B18,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B18,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B18,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"YLD_CNV_MID")),
+_xll.BDP(B18,"EQY_DVD_YLD_IND"))</f>
+        <v>8.0593038594228279</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>_xll.BDP(B19,"ID_ISIN")</f>
         <v>US3682872078</v>
@@ -7769,22 +9988,28 @@
       </c>
       <c r="C19" s="2">
         <f>_xll.BDP(B19,"PX_LAST")*1.00000001</f>
-        <v>4.3685000436849997</v>
+        <v>4.3560000435599999</v>
       </c>
       <c r="D19" s="1">
         <f>IF(OR(_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"BEST_ANALYST_RATING"))</f>
-        <v>2.7142856121063232</v>
+        <v>2.5714285373687744</v>
       </c>
       <c r="E19" s="1">
         <f>IF(OR(_xll.BDP(B19,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B19,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"BEST_TARGET_PRICE"))</f>
-        <v>4.9700002670288086</v>
+        <v>4.8499999046325684</v>
       </c>
       <c r="F19" s="1">
+        <f>IF(OR(_xll.BDP(B19,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B19,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B19,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B19,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"YLD_CNV_MID")),
+_xll.BDP(B19,"EQY_DVD_YLD_IND"))</f>
+        <v>5.617285306365198</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>_xll.BDP(B20,"ID_ISIN")</f>
         <v>US74735M1080</v>
@@ -7794,7 +10019,7 @@
       </c>
       <c r="C20" s="2">
         <f>_xll.BDP(B20,"PX_LAST")*1.00000001</f>
-        <v>16.1400001614</v>
+        <v>16.8200001682</v>
       </c>
       <c r="D20" s="1">
         <f>IF(OR(_xll.BDP(B20,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B20,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B20,"BEST_ANALYST_RATING"))</f>
@@ -7805,11 +10030,17 @@
         <v>16.587499618530273</v>
       </c>
       <c r="F20" s="1">
+        <f>IF(OR(_xll.BDP(B20,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B20,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B20,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B20,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B20,"YLD_CNV_MID")),
+_xll.BDP(B20,"EQY_DVD_YLD_IND"))</f>
+        <v>1.129607595813402</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>_xll.BDP(B21,"ID_ISIN")</f>
         <v>NL0009805522</v>
@@ -7819,7 +10050,7 @@
       </c>
       <c r="C21" s="2">
         <f>_xll.BDP(B21,"PX_LAST")*1.00000001</f>
-        <v>21.820000218200001</v>
+        <v>22.780000227799999</v>
       </c>
       <c r="D21" s="1">
         <f>IF(OR(_xll.BDP(B21,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B21,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B21,"BEST_ANALYST_RATING"))</f>
@@ -7827,14 +10058,20 @@
       </c>
       <c r="E21" s="1">
         <f>IF(OR(_xll.BDP(B21,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B21,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B21,"BEST_TARGET_PRICE"))</f>
-        <v>26.044216156005859</v>
+        <v>26.018661499023438</v>
       </c>
       <c r="F21" s="1">
+        <f>IF(OR(_xll.BDP(B21,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B21,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B21,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B21,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B21,"YLD_CNV_MID")),
+_xll.BDP(B21,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>_xll.BDP(B22,"ID_ISIN")</f>
         <v>XS0808638612</v>
@@ -7844,7 +10081,7 @@
       </c>
       <c r="C22" s="2">
         <f>_xll.BDP(B22,"PX_LAST")*1.00000001</f>
-        <v>106.95800106957999</v>
+        <v>106.90400106903999</v>
       </c>
       <c r="D22" s="1">
         <f>IF(OR(_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"BEST_ANALYST_RATING"))</f>
@@ -7855,11 +10092,17 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
+        <f>IF(OR(_xll.BDP(B22,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B22,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B22,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B22,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"YLD_CNV_MID")),
+_xll.BDP(B22,"EQY_DVD_YLD_IND"))</f>
+        <v>4.0384276000000003</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>_xll.BDP(B23,"ID_ISIN")</f>
         <v>XS0547082973</v>
@@ -7869,7 +10112,7 @@
       </c>
       <c r="C23" s="2">
         <f>_xll.BDP(B23,"PX_LAST")*1.00000001</f>
-        <v>100.98900100989</v>
+        <v>100.96700100967</v>
       </c>
       <c r="D23" s="1">
         <f>IF(OR(_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"BEST_ANALYST_RATING"))</f>
@@ -7880,11 +10123,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
+        <f>IF(OR(_xll.BDP(B23,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B23,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B23,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B23,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"YLD_CNV_MID")),
+_xll.BDP(B23,"EQY_DVD_YLD_IND"))</f>
+        <v>4.5663394999999998</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>_xll.BDP(B24,"ID_ISIN")</f>
         <v>USA29866AA70</v>
@@ -7894,7 +10143,7 @@
       </c>
       <c r="C24" s="2">
         <f>_xll.BDP(B24,"PX_LAST")*1.00000001</f>
-        <v>105.01200105011999</v>
+        <v>105.01600105016</v>
       </c>
       <c r="D24" s="1">
         <f>IF(OR(_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"BEST_ANALYST_RATING"))</f>
@@ -7905,11 +10154,17 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
+        <f>IF(OR(_xll.BDP(B24,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B24,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B24,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B24,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"YLD_CNV_MID")),
+_xll.BDP(B24,"EQY_DVD_YLD_IND"))</f>
+        <v>5.3071542999999997</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>_xll.BDP(B25,"ID_ISIN")</f>
         <v>US71654QBB77</v>
@@ -7919,7 +10174,7 @@
       </c>
       <c r="C25" s="2">
         <f>_xll.BDP(B25,"PX_LAST")*1.00000001</f>
-        <v>103.02100103020999</v>
+        <v>103.19800103197998</v>
       </c>
       <c r="D25" s="1">
         <f>IF(OR(_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"BEST_ANALYST_RATING"))</f>
@@ -7930,11 +10185,17 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
+        <f>IF(OR(_xll.BDP(B25,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B25,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B25,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B25,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"YLD_CNV_MID")),
+_xll.BDP(B25,"EQY_DVD_YLD_IND"))</f>
+        <v>4.1271012000000002</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>_xll.BDP(B26,"ID_ISIN")</f>
         <v>US71645WAR25</v>
@@ -7944,7 +10205,7 @@
       </c>
       <c r="C26" s="2">
         <f>_xll.BDP(B26,"PX_LAST")*1.00000001</f>
-        <v>103.02100103020999</v>
+        <v>103.09600103096</v>
       </c>
       <c r="D26" s="1">
         <f>IF(OR(_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"BEST_ANALYST_RATING"))</f>
@@ -7955,11 +10216,17 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
+        <f>IF(OR(_xll.BDP(B26,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B26,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B26,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B26,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"YLD_CNV_MID")),
+_xll.BDP(B26,"EQY_DVD_YLD_IND"))</f>
+        <v>4.4686883000000002</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>_xll.BDP(B27,"ID_ISIN")</f>
         <v>XS0088543193</v>
@@ -7969,7 +10236,7 @@
       </c>
       <c r="C27" s="2">
         <f>_xll.BDP(B27,"PX_LAST")*1.00000001</f>
-        <v>176.15000176149999</v>
+        <v>175.87500175874999</v>
       </c>
       <c r="D27" s="1">
         <f>IF(OR(_xll.BDP(B27,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B27,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B27,"BEST_ANALYST_RATING"))</f>
@@ -7980,11 +10247,17 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
+        <f>IF(OR(_xll.BDP(B27,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B27,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B27,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B27,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B27,"YLD_CNV_MID")),
+_xll.BDP(B27,"EQY_DVD_YLD_IND"))</f>
+        <v>4.1681596000000001</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>_xll.BDP(B28,"ID_ISIN")</f>
         <v>RU0007252813</v>
@@ -7994,7 +10267,7 @@
       </c>
       <c r="C28" s="2">
         <f>_xll.BDP(B28,"PX_LAST")*1.00000001</f>
-        <v>86.530000865299996</v>
+        <v>88.500000884999992</v>
       </c>
       <c r="D28" s="1">
         <f>IF(OR(_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"BEST_ANALYST_RATING"))</f>
@@ -8002,14 +10275,20 @@
       </c>
       <c r="E28" s="1">
         <f>IF(OR(_xll.BDP(B28,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B28,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"BEST_TARGET_PRICE"))</f>
-        <v>106.73789215087891</v>
+        <v>106.98520660400391</v>
       </c>
       <c r="F28" s="1">
+        <f>IF(OR(_xll.BDP(B28,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B28,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B28,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B28,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"YLD_CNV_MID")),
+_xll.BDP(B28,"EQY_DVD_YLD_IND"))</f>
+        <v>2.359448988676125</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>_xll.BDP(B29,"ID_ISIN")</f>
         <v>RU000A0JQTS3</v>
@@ -8019,7 +10298,7 @@
       </c>
       <c r="C29" s="2">
         <f>_xll.BDP(B29,"PX_LAST")*1.00000001</f>
-        <v>65.600000655999992</v>
+        <v>61.000000609999994</v>
       </c>
       <c r="D29" s="1">
         <f>IF(OR(_xll.BDP(B29,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B29,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B29,"BEST_ANALYST_RATING"))</f>
@@ -8030,11 +10309,17 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
+        <f>IF(OR(_xll.BDP(B29,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B29,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B29,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B29,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B29,"YLD_CNV_MID")),
+_xll.BDP(B29,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>_xll.BDP(B30,"ID_ISIN")</f>
         <v>RU000A0ERGA7</v>
@@ -8044,7 +10329,7 @@
       </c>
       <c r="C30" s="2">
         <f>_xll.BDP(B30,"PX_LAST")*1.00000001</f>
-        <v>113.00000112999999</v>
+        <v>111.50000111499999</v>
       </c>
       <c r="D30" s="1">
         <f>IF(OR(_xll.BDP(B30,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B30,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B30,"BEST_ANALYST_RATING"))</f>
@@ -8055,11 +10340,17 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
+        <f>IF(OR(_xll.BDP(B30,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B30,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B30,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B30,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B30,"YLD_CNV_MID")),
+_xll.BDP(B30,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>_xll.BDP(B31,"ID_ISIN")</f>
         <v>RU0007661625</v>
@@ -8069,7 +10360,7 @@
       </c>
       <c r="C31" s="2">
         <f>_xll.BDP(B31,"PX_LAST")*1.00000001</f>
-        <v>126.900001269</v>
+        <v>124.79000124789999</v>
       </c>
       <c r="D31" s="1">
         <f>IF(OR(_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"BEST_ANALYST_RATING"))</f>
@@ -8077,14 +10368,20 @@
       </c>
       <c r="E31" s="1">
         <f>IF(OR(_xll.BDP(B31,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B31,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"BEST_TARGET_PRICE"))</f>
-        <v>145.81280517578125</v>
+        <v>145.57666015625</v>
       </c>
       <c r="F31" s="1">
+        <f>IF(OR(_xll.BDP(B31,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B31,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B31,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B31,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"YLD_CNV_MID")),
+_xll.BDP(B31,"EQY_DVD_YLD_IND"))</f>
+        <v>6.3353138481496662</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>_xll.BDP(B32,"ID_ISIN")</f>
         <v>GB0032360173</v>
@@ -8094,22 +10391,28 @@
       </c>
       <c r="C32" s="2">
         <f>_xll.BDP(B32,"PX_LAST")*1.00000001</f>
-        <v>179.2500017925</v>
+        <v>176.25000176249998</v>
       </c>
       <c r="D32" s="1">
         <f>IF(OR(_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"BEST_ANALYST_RATING"))</f>
-        <v>4.5</v>
+        <v>4.3333334922790527</v>
       </c>
       <c r="E32" s="1">
         <f>IF(OR(_xll.BDP(B32,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B32,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"BEST_TARGET_PRICE"))</f>
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F32" s="1">
+        <f>IF(OR(_xll.BDP(B32,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B32,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B32,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B32,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"YLD_CNV_MID")),
+_xll.BDP(B32,"EQY_DVD_YLD_IND"))</f>
+        <v>5.9343792402455202</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>_xll.BDP(B33,"ID_ISIN")</f>
         <v>US40425X4079</v>
@@ -8130,11 +10433,17 @@
         <v>9.1999998092651367</v>
       </c>
       <c r="F33" s="1">
+        <f>IF(OR(_xll.BDP(B33,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B33,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B33,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B33,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B33,"YLD_CNV_MID")),
+_xll.BDP(B33,"EQY_DVD_YLD_IND"))</f>
+        <v>3.7334426630498858</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>_xll.BDP(B34,"ID_ISIN")</f>
         <v>US48668G2057</v>
@@ -8144,22 +10453,28 @@
       </c>
       <c r="C34" s="2">
         <f>_xll.BDP(B34,"PX_LAST")*1.00000001</f>
-        <v>3.600000036</v>
+        <v>3.5000000349999998</v>
       </c>
       <c r="D34" s="1">
         <f>IF(OR(_xll.BDP(B34,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B34,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B34,"BEST_ANALYST_RATING"))</f>
-        <v>3</v>
+        <v>2.5999999046325684</v>
       </c>
       <c r="E34" s="1">
         <f>IF(OR(_xll.BDP(B34,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B34,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B34,"BEST_TARGET_PRICE"))</f>
         <v>3.5</v>
       </c>
       <c r="F34" s="1">
+        <f>IF(OR(_xll.BDP(B34,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B34,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B34,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B34,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B34,"YLD_CNV_MID")),
+_xll.BDP(B34,"EQY_DVD_YLD_IND"))</f>
+        <v>9.4224853175027032</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>_xll.BDP(B35,"ID_ISIN")</f>
         <v>RU0008959580</v>
@@ -8169,7 +10484,7 @@
       </c>
       <c r="C35" s="2">
         <f>_xll.BDP(B35,"PX_LAST")*1.00000001</f>
-        <v>59.000000589999999</v>
+        <v>56.500000564999993</v>
       </c>
       <c r="D35" s="1">
         <f>IF(OR(_xll.BDP(B35,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B35,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B35,"BEST_ANALYST_RATING"))</f>
@@ -8180,11 +10495,17 @@
         <v>47.459602355957031</v>
       </c>
       <c r="F35" s="1">
+        <f>IF(OR(_xll.BDP(B35,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B35,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B35,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B35,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B35,"YLD_CNV_MID")),
+_xll.BDP(B35,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f>_xll.BDP(B36,"ID_ISIN")</f>
         <v>RU0009024277</v>
@@ -8194,7 +10515,7 @@
       </c>
       <c r="C36" s="2">
         <f>_xll.BDP(B36,"PX_LAST")*1.00000001</f>
-        <v>2963.00002963</v>
+        <v>2909.5000290949997</v>
       </c>
       <c r="D36" s="1">
         <f>IF(OR(_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"BEST_ANALYST_RATING"))</f>
@@ -8202,14 +10523,20 @@
       </c>
       <c r="E36" s="1">
         <f>IF(OR(_xll.BDP(B36,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B36,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"BEST_TARGET_PRICE"))</f>
-        <v>3582.961669921875</v>
+        <v>3572.2861328125</v>
       </c>
       <c r="F36" s="1">
+        <f>IF(OR(_xll.BDP(B36,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B36,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B36,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B36,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"YLD_CNV_MID")),
+_xll.BDP(B36,"EQY_DVD_YLD_IND"))</f>
+        <v>6.4294309781674404</v>
+      </c>
+      <c r="G36" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
         <f>_xll.BDP(B37,"ID_ISIN")</f>
         <v>RU0007775219</v>
@@ -8219,7 +10546,7 @@
       </c>
       <c r="C37" s="2">
         <f>_xll.BDP(B37,"PX_LAST")*1.00000001</f>
-        <v>277.10000277099999</v>
+        <v>276.65000276649994</v>
       </c>
       <c r="D37" s="1">
         <f>IF(OR(_xll.BDP(B37,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B37,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B37,"BEST_ANALYST_RATING"))</f>
@@ -8230,11 +10557,17 @@
         <v>309.5</v>
       </c>
       <c r="F37" s="1">
+        <f>IF(OR(_xll.BDP(B37,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B37,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B37,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B37,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B37,"YLD_CNV_MID")),
+_xll.BDP(B37,"EQY_DVD_YLD_IND"))</f>
+        <v>11.32075499380967</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>_xll.BDP(B38,"ID_ISIN")</f>
         <v>RU000A0JPGA0</v>
@@ -8244,7 +10577,7 @@
       </c>
       <c r="C38" s="2">
         <f>_xll.BDP(B38,"PX_LAST")*1.00000001</f>
-        <v>374.70000374699998</v>
+        <v>374.00000373999995</v>
       </c>
       <c r="D38" s="1">
         <f>IF(OR(_xll.BDP(B38,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B38,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B38,"BEST_ANALYST_RATING"))</f>
@@ -8255,11 +10588,17 @@
         <v>416.39999389648437</v>
       </c>
       <c r="F38" s="1">
+        <f>IF(OR(_xll.BDP(B38,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B38,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B38,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B38,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B38,"YLD_CNV_MID")),
+_xll.BDP(B38,"EQY_DVD_YLD_IND"))</f>
+        <v>5.3547523427041499</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>_xll.BDP(B39,"ID_ISIN")</f>
         <v>RU0009084446</v>
@@ -8269,7 +10608,7 @@
       </c>
       <c r="C39" s="2">
         <f>_xll.BDP(B39,"PX_LAST")*1.00000001</f>
-        <v>6.2200000621999996</v>
+        <v>6.2950000629499998</v>
       </c>
       <c r="D39" s="1">
         <f>IF(OR(_xll.BDP(B39,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B39,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"BEST_ANALYST_RATING"))</f>
@@ -8280,11 +10619,17 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
+        <f>IF(OR(_xll.BDP(B39,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B39,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B39,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B39,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"YLD_CNV_MID")),
+_xll.BDP(B39,"EQY_DVD_YLD_IND"))</f>
+        <v>7.4185863007052353</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
         <f>_xll.BDP(B40,"ID_ISIN")</f>
         <v>RU0009062467</v>
@@ -8294,7 +10639,7 @@
       </c>
       <c r="C40" s="2">
         <f>_xll.BDP(B40,"PX_LAST")*1.00000001</f>
-        <v>206.75000206749999</v>
+        <v>197.20000197199997</v>
       </c>
       <c r="D40" s="1">
         <f>IF(OR(_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"BEST_ANALYST_RATING"))</f>
@@ -8302,14 +10647,20 @@
       </c>
       <c r="E40" s="1">
         <f>IF(OR(_xll.BDP(B40,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B40,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"BEST_TARGET_PRICE"))</f>
-        <v>233.01954650878906</v>
+        <v>227.81964111328125</v>
       </c>
       <c r="F40" s="1">
+        <f>IF(OR(_xll.BDP(B40,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B40,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B40,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B40,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"YLD_CNV_MID")),
+_xll.BDP(B40,"EQY_DVD_YLD_IND"))</f>
+        <v>0.27855153807086802</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
         <f>_xll.BDP(B41,"ID_ISIN")</f>
         <v>RU000A0B6NK6</v>
@@ -8319,7 +10670,7 @@
       </c>
       <c r="C41" s="2">
         <f>_xll.BDP(B41,"PX_LAST")*1.00000001</f>
-        <v>74.050000740499996</v>
+        <v>73.100000730999994</v>
       </c>
       <c r="D41" s="1">
         <f>IF(OR(_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"BEST_ANALYST_RATING"))</f>
@@ -8327,14 +10678,20 @@
       </c>
       <c r="E41" s="1">
         <f>IF(OR(_xll.BDP(B41,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B41,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"BEST_TARGET_PRICE"))</f>
-        <v>89.334190368652344</v>
+        <v>95.887603759765625</v>
       </c>
       <c r="F41" s="1">
+        <f>IF(OR(_xll.BDP(B41,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B41,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B41,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B41,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"YLD_CNV_MID")),
+_xll.BDP(B41,"EQY_DVD_YLD_IND"))</f>
+        <v>2.6538988470868117</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
         <f>_xll.BDP(B42,"ID_ISIN")</f>
         <v>RU000A0JNGA5</v>
@@ -8344,7 +10701,7 @@
       </c>
       <c r="C42" s="2">
         <f>_xll.BDP(B42,"PX_LAST")*1.00000001</f>
-        <v>2.6630000266299998</v>
+        <v>2.5580000255799997</v>
       </c>
       <c r="D42" s="1">
         <f>IF(OR(_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"BEST_ANALYST_RATING"))</f>
@@ -8355,11 +10712,17 @@
         <v>3.2975001335144043</v>
       </c>
       <c r="F42" s="1">
+        <f>IF(OR(_xll.BDP(B42,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B42,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B42,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B42,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"YLD_CNV_MID")),
+_xll.BDP(B42,"EQY_DVD_YLD_IND"))</f>
+        <v>10.569842886719371</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f>_xll.BDP(B43,"ID_ISIN")</f>
         <v>CA9600081009</v>
@@ -8369,7 +10732,7 @@
       </c>
       <c r="C43" s="2">
         <f>_xll.BDP(B43,"PX_LAST")*1.00000001</f>
-        <v>0.15000000149999998</v>
+        <v>0.1600000016</v>
       </c>
       <c r="D43" s="1">
         <f>IF(OR(_xll.BDP(B43,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B43,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B43,"BEST_ANALYST_RATING"))</f>
@@ -8380,11 +10743,17 @@
         <v>0.31666666269302368</v>
       </c>
       <c r="F43" s="1">
+        <f>IF(OR(_xll.BDP(B43,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B43,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B43,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B43,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B43,"YLD_CNV_MID")),
+_xll.BDP(B43,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f>_xll.BDP(B44,"ID_ISIN")</f>
         <v>RU0009100945</v>
@@ -8394,7 +10763,7 @@
       </c>
       <c r="C44" s="2">
         <f>_xll.BDP(B44,"PX_LAST")*1.00000001</f>
-        <v>59.900000598999995</v>
+        <v>60.050000600499992</v>
       </c>
       <c r="D44" s="1">
         <f>IF(OR(_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"BEST_ANALYST_RATING"))</f>
@@ -8402,14 +10771,20 @@
       </c>
       <c r="E44" s="1">
         <f>IF(OR(_xll.BDP(B44,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B44,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"BEST_TARGET_PRICE"))</f>
-        <v>64.666664123535156</v>
+        <v>62.652717590332031</v>
       </c>
       <c r="F44" s="1">
+        <f>IF(OR(_xll.BDP(B44,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B44,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B44,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B44,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"YLD_CNV_MID")),
+_xll.BDP(B44,"EQY_DVD_YLD_IND"))</f>
+        <v>1.7485428015258688</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f>_xll.BDP(B45,"ID_ISIN")</f>
         <v>RU000A0JP7H1</v>
@@ -8419,7 +10794,7 @@
       </c>
       <c r="C45" s="2">
         <f>_xll.BDP(B45,"PX_LAST")*1.00000001</f>
-        <v>233.20000233199997</v>
+        <v>229.20000229199997</v>
       </c>
       <c r="D45" s="1">
         <f>IF(OR(_xll.BDP(B45,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B45,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B45,"BEST_ANALYST_RATING"))</f>
@@ -8427,14 +10802,20 @@
       </c>
       <c r="E45" s="1">
         <f>IF(OR(_xll.BDP(B45,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B45,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B45,"BEST_TARGET_PRICE"))</f>
-        <v>279.06253051757813</v>
+        <v>274.83175659179687</v>
       </c>
       <c r="F45" s="1">
+        <f>IF(OR(_xll.BDP(B45,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B45,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B45,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B45,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B45,"YLD_CNV_MID")),
+_xll.BDP(B45,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f>_xll.BDP(B46,"ID_ISIN")</f>
         <v>US37949E2046</v>
@@ -8444,7 +10825,7 @@
       </c>
       <c r="C46" s="2">
         <f>_xll.BDP(B46,"PX_LAST")*1.00000001</f>
-        <v>6.9200000691999994</v>
+        <v>7.2700000726999994</v>
       </c>
       <c r="D46" s="1">
         <f>IF(OR(_xll.BDP(B46,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B46,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B46,"BEST_ANALYST_RATING"))</f>
@@ -8455,11 +10836,17 @@
         <v>7.5437498092651367</v>
       </c>
       <c r="F46" s="1">
+        <f>IF(OR(_xll.BDP(B46,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B46,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B46,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B46,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B46,"YLD_CNV_MID")),
+_xll.BDP(B46,"EQY_DVD_YLD_IND"))</f>
+        <v>9.575006558445823</v>
+      </c>
+      <c r="G46" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f>_xll.BDP(B47,"ID_ISIN")</f>
         <v>RU0007288411</v>
@@ -8469,7 +10856,7 @@
       </c>
       <c r="C47" s="2">
         <f>_xll.BDP(B47,"PX_LAST")*1.00000001</f>
-        <v>8938.0000893799988</v>
+        <v>8780.0000877999992</v>
       </c>
       <c r="D47" s="1">
         <f>IF(OR(_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"BEST_ANALYST_RATING"))</f>
@@ -8477,14 +10864,20 @@
       </c>
       <c r="E47" s="1">
         <f>IF(OR(_xll.BDP(B47,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B47,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"BEST_TARGET_PRICE"))</f>
-        <v>11161.03515625</v>
+        <v>11203.3251953125</v>
       </c>
       <c r="F47" s="1">
+        <f>IF(OR(_xll.BDP(B47,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B47,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B47,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B47,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"YLD_CNV_MID")),
+_xll.BDP(B47,"EQY_DVD_YLD_IND"))</f>
+        <v>10.124202370100273</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
         <f>_xll.BDP(B48,"ID_ISIN")</f>
         <v>RU000A0JPFP0</v>
@@ -8494,7 +10887,7 @@
       </c>
       <c r="C48" s="2">
         <f>_xll.BDP(B48,"PX_LAST")*1.00000001</f>
-        <v>905.0000090499999</v>
+        <v>907.50000907499998</v>
       </c>
       <c r="D48" s="1">
         <f>IF(OR(_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"BEST_ANALYST_RATING"))</f>
@@ -8505,11 +10898,17 @@
         <v>1150</v>
       </c>
       <c r="F48" s="1">
+        <f>IF(OR(_xll.BDP(B48,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B48,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B48,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B48,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"YLD_CNV_MID")),
+_xll.BDP(B48,"EQY_DVD_YLD_IND"))</f>
+        <v>8.5950413223140494</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
         <f>_xll.BDP(B49,"ID_ISIN")</f>
         <v>VGG572791041</v>
@@ -8519,7 +10918,7 @@
       </c>
       <c r="C49" s="2">
         <f>_xll.BDP(B49,"PX_LAST")*1.00000001</f>
-        <v>61.600000615999996</v>
+        <v>60.950000609500002</v>
       </c>
       <c r="D49" s="1">
         <f>IF(OR(_xll.BDP(B49,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B49,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B49,"BEST_ANALYST_RATING"))</f>
@@ -8530,11 +10929,17 @@
         <v>69.545455932617188</v>
       </c>
       <c r="F49" s="1">
+        <f>IF(OR(_xll.BDP(B49,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B49,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B49,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B49,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B49,"YLD_CNV_MID")),
+_xll.BDP(B49,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
         <f>_xll.BDP(B50,"ID_ISIN")</f>
         <v>US55302T2042</v>
@@ -8544,7 +10949,7 @@
       </c>
       <c r="C50" s="2">
         <f>_xll.BDP(B50,"PX_LAST")*1.00000001</f>
-        <v>10.0500001005</v>
+        <v>9.760000097599999</v>
       </c>
       <c r="D50" s="1">
         <f>IF(OR(_xll.BDP(B50,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B50,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B50,"BEST_ANALYST_RATING"))</f>
@@ -8555,11 +10960,17 @@
         <v>11.781999588012695</v>
       </c>
       <c r="F50" s="1">
+        <f>IF(OR(_xll.BDP(B50,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B50,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B50,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B50,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B50,"YLD_CNV_MID")),
+_xll.BDP(B50,"EQY_DVD_YLD_IND"))</f>
+        <v>7.6683724304792698</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
         <f>_xll.BDP(B51,"ID_ISIN")</f>
         <v>RU000A0JPPN4</v>
@@ -8569,7 +10980,7 @@
       </c>
       <c r="C51" s="2">
         <f>_xll.BDP(B51,"PX_LAST")*1.00000001</f>
-        <v>6.1000000609999994E-2</v>
+        <v>6.0400000603999998E-2</v>
       </c>
       <c r="D51" s="1">
         <f>IF(OR(_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"BEST_ANALYST_RATING"))</f>
@@ -8580,11 +10991,17 @@
         <v>1.9999999552965164E-2</v>
       </c>
       <c r="F51" s="1">
+        <f>IF(OR(_xll.BDP(B51,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B51,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B51,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B51,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"YLD_CNV_MID")),
+_xll.BDP(B51,"EQY_DVD_YLD_IND"))</f>
+        <v>2.0885246531030197</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f>_xll.BDP(B52,"ID_ISIN")</f>
         <v>RU0009100507</v>
@@ -8594,7 +11011,7 @@
       </c>
       <c r="C52" s="2">
         <f>_xll.BDP(B52,"PX_LAST")*1.00000001</f>
-        <v>59.100000590999997</v>
+        <v>57.100000570999995</v>
       </c>
       <c r="D52" s="1">
         <f>IF(OR(_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B52,"BEST_ANALYST_RATING"))</f>
@@ -8605,11 +11022,17 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
+        <f>IF(OR(_xll.BDP(B52,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B52,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B52,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B52,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B52,"YLD_CNV_MID")),
+_xll.BDP(B52,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f>_xll.BDP(B53,"ID_ISIN")</f>
         <v>RU0006765096</v>
@@ -8619,7 +11042,7 @@
       </c>
       <c r="C53" s="2">
         <f>_xll.BDP(B53,"PX_LAST")*1.00000001</f>
-        <v>25.3400002534</v>
+        <v>24.680000246799999</v>
       </c>
       <c r="D53" s="1">
         <f>IF(OR(_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B53,"BEST_ANALYST_RATING"))</f>
@@ -8630,11 +11053,17 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
+        <f>IF(OR(_xll.BDP(B53,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B53,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B53,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B53,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B53,"YLD_CNV_MID")),
+_xll.BDP(B53,"EQY_DVD_YLD_IND"))</f>
+        <v>17.635108299828893</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
         <f>_xll.BDP(B54,"ID_ISIN")</f>
         <v>JE00B1VS3333</v>
@@ -8644,7 +11073,7 @@
       </c>
       <c r="C54" s="2">
         <f>_xll.BDP(B54,"PX_LAST")*1.00000001</f>
-        <v>17.075000170749998</v>
+        <v>17.650000176499997</v>
       </c>
       <c r="D54" s="1">
         <f>IF(OR(_xll.BDP(B54,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B54,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B54,"BEST_ANALYST_RATING"))</f>
@@ -8655,11 +11084,17 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
+        <f>IF(OR(_xll.BDP(B54,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B54,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B54,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B54,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B54,"YLD_CNV_MID")),
+_xll.BDP(B54,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
         <f>_xll.BDP(B55,"ID_ISIN")</f>
         <v>JE00B1VS3770</v>
@@ -8669,7 +11104,7 @@
       </c>
       <c r="C55" s="2">
         <f>_xll.BDP(B55,"PX_LAST")*1.00000001</f>
-        <v>120.58000120579999</v>
+        <v>123.59000123589999</v>
       </c>
       <c r="D55" s="1">
         <f>IF(OR(_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B55,"BEST_ANALYST_RATING"))</f>
@@ -8680,11 +11115,17 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
+        <f>IF(OR(_xll.BDP(B55,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B55,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B55,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B55,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B55,"YLD_CNV_MID")),
+_xll.BDP(B55,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f>_xll.BDP(B56,"ID_ISIN")</f>
         <v>JE00B1VS3002</v>
@@ -8694,7 +11135,7 @@
       </c>
       <c r="C56" s="2">
         <f>_xll.BDP(B56,"PX_LAST")*1.00000001</f>
-        <v>76.820000768199989</v>
+        <v>75.610000756099993</v>
       </c>
       <c r="D56" s="1">
         <f>IF(OR(_xll.BDP(B56,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B56,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B56,"BEST_ANALYST_RATING"))</f>
@@ -8705,11 +11146,17 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
+        <f>IF(OR(_xll.BDP(B56,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B56,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B56,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B56,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B56,"YLD_CNV_MID")),
+_xll.BDP(B56,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f>_xll.BDP(B57,"ID_ISIN")</f>
         <v>RU000A0JQU47</v>
@@ -8719,7 +11166,7 @@
       </c>
       <c r="C57" s="2">
         <f>_xll.BDP(B57,"PX_LAST")*1.00000001</f>
-        <v>106.60000106599999</v>
+        <v>106.50000106499999</v>
       </c>
       <c r="D57" s="1">
         <f>IF(OR(_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"BEST_ANALYST_RATING"))</f>
@@ -8730,11 +11177,17 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
+        <f>IF(OR(_xll.BDP(B57,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B57,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B57,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B57,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"YLD_CNV_MID")),
+_xll.BDP(B57,"EQY_DVD_YLD_IND"))</f>
+        <v>17.273576097105508</v>
+      </c>
+      <c r="G57" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f>_xll.BDP(B58,"ID_ISIN")</f>
         <v>RU0006914488</v>
@@ -8744,7 +11197,7 @@
       </c>
       <c r="C58" s="2">
         <f>_xll.BDP(B58,"PX_LAST")*1.00000001</f>
-        <v>578.00000577999992</v>
+        <v>576.00000576000002</v>
       </c>
       <c r="D58" s="1">
         <f>IF(OR(_xll.BDP(B58,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B58,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B58,"BEST_ANALYST_RATING"))</f>
@@ -8755,11 +11208,17 @@
         <v>640.523193359375</v>
       </c>
       <c r="F58" s="1">
+        <f>IF(OR(_xll.BDP(B58,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B58,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B58,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B58,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B58,"YLD_CNV_MID")),
+_xll.BDP(B58,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f>_xll.BDP(B59,"ID_ISIN")</f>
         <v>RU000A0JNUD0</v>
@@ -8769,7 +11228,7 @@
       </c>
       <c r="C59" s="2">
         <f>_xll.BDP(B59,"PX_LAST")*1.00000001</f>
-        <v>1.3050000130500001E-2</v>
+        <v>1.3285000132849998E-2</v>
       </c>
       <c r="D59" s="1">
         <f>IF(OR(_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"BEST_ANALYST_RATING"))</f>
@@ -8780,11 +11239,17 @@
         <v>5.7500001043081284E-2</v>
       </c>
       <c r="F59" s="1">
+        <f>IF(OR(_xll.BDP(B59,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B59,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B59,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B59,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"YLD_CNV_MID")),
+_xll.BDP(B59,"EQY_DVD_YLD_IND"))</f>
+        <v>1.8305386365750864</v>
+      </c>
+      <c r="G59" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="str">
         <f>_xll.BDP(B60,"ID_ISIN")</f>
         <v>RU0007661302</v>
@@ -8794,7 +11259,7 @@
       </c>
       <c r="C60" s="2">
         <f>_xll.BDP(B60,"PX_LAST")*1.00000001</f>
-        <v>159.00000158999998</v>
+        <v>158.00000158</v>
       </c>
       <c r="D60" s="1">
         <f>IF(OR(_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B60,"BEST_ANALYST_RATING"))</f>
@@ -8805,11 +11270,17 @@
         <v>149.82072448730469</v>
       </c>
       <c r="F60" s="1">
+        <f>IF(OR(_xll.BDP(B60,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B60,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B60,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B60,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B60,"YLD_CNV_MID")),
+_xll.BDP(B60,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="str">
         <f>_xll.BDP(B61,"ID_ISIN")</f>
         <v>XS0918604496</v>
@@ -8819,7 +11290,7 @@
       </c>
       <c r="C61" s="2">
         <f>_xll.BDP(B61,"PX_LAST")*1.00000001</f>
-        <v>102.90200102902</v>
+        <v>102.81100102811</v>
       </c>
       <c r="D61" s="1">
         <f>IF(OR(_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"BEST_ANALYST_RATING"))</f>
@@ -8830,11 +11301,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
+        <f>IF(OR(_xll.BDP(B61,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B61,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B61,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B61,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"YLD_CNV_MID")),
+_xll.BDP(B61,"EQY_DVD_YLD_IND"))</f>
+        <v>3.8699335000000001</v>
+      </c>
+      <c r="G61" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>_xll.BDP(B62,"ID_ISIN")</f>
         <v>RU000A0JWDU1</v>
@@ -8855,11 +11332,17 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
+        <f>IF(OR(_xll.BDP(B62,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B62,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B62,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B62,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B62,"YLD_CNV_MID")),
+_xll.BDP(B62,"EQY_DVD_YLD_IND"))</f>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G62" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>_xll.BDP(B63,"ID_ISIN")</f>
         <v>RU000A0JWBH2</v>
@@ -8880,11 +11363,17 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
+        <f>IF(OR(_xll.BDP(B63,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B63,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B63,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B63,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B63,"YLD_CNV_MID")),
+_xll.BDP(B63,"EQY_DVD_YLD_IND"))</f>
+        <v>12.92</v>
+      </c>
+      <c r="G63" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f>_xll.BDP(B64,"ID_ISIN")</f>
         <v>RU000A0JXE06</v>
@@ -8905,11 +11394,17 @@
         <v>0</v>
       </c>
       <c r="F64" s="1">
+        <f>IF(OR(_xll.BDP(B64,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B64,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B64,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B64,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B64,"YLD_CNV_MID")),
+_xll.BDP(B64,"EQY_DVD_YLD_IND"))</f>
+        <v>11.14</v>
+      </c>
+      <c r="G64" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f>_xll.BDP(B65,"ID_ISIN")</f>
         <v>XS0981028177</v>
@@ -8919,7 +11414,7 @@
       </c>
       <c r="C65" s="2">
         <f>_xll.BDP(B65,"PX_LAST")*1.00000001</f>
-        <v>107.65700107656998</v>
+        <v>107.00700107007</v>
       </c>
       <c r="D65" s="1">
         <f>IF(OR(_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"BEST_ANALYST_RATING"))</f>
@@ -8930,11 +11425,17 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
+        <f>IF(OR(_xll.BDP(B65,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B65,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B65,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B65,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"YLD_CNV_MID")),
+_xll.BDP(B65,"EQY_DVD_YLD_IND"))</f>
+        <v>6.6910068799999998</v>
+      </c>
+      <c r="G65" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
         <f>_xll.BDP(B66,"ID_ISIN")</f>
         <v>RU000A0JWU98</v>
@@ -8944,7 +11445,7 @@
       </c>
       <c r="C66" s="2">
         <f>_xll.BDP(B66,"PX_LAST")*1.00000001</f>
-        <v>103.21000103209998</v>
+        <v>103.500001035</v>
       </c>
       <c r="D66" s="1">
         <f>IF(OR(_xll.BDP(B66,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B66,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B66,"BEST_ANALYST_RATING"))</f>
@@ -8955,11 +11456,17 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" ref="F66:F106" si="1">COUNTIF($B:$B,B66)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(OR(_xll.BDP(B66,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B66,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B66,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B66,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B66,"YLD_CNV_MID")),
+_xll.BDP(B66,"EQY_DVD_YLD_IND"))</f>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" ref="G66:G106" si="1">COUNTIF($B:$B,B66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
         <f>_xll.BDP(B67,"ID_ISIN")</f>
         <v>RU000A0JWBF6</v>
@@ -8969,7 +11476,7 @@
       </c>
       <c r="C67" s="2">
         <f>_xll.BDP(B67,"PX_LAST")*1.00000001</f>
-        <v>106.40000106399999</v>
+        <v>106.50000106499999</v>
       </c>
       <c r="D67" s="1">
         <f>IF(OR(_xll.BDP(B67,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B67,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B67,"BEST_ANALYST_RATING"))</f>
@@ -8980,11 +11487,17 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
+        <f>IF(OR(_xll.BDP(B67,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B67,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B67,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B67,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B67,"YLD_CNV_MID")),
+_xll.BDP(B67,"EQY_DVD_YLD_IND"))</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G67" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f>_xll.BDP(B68,"ID_ISIN")</f>
         <v>USL6366MAC75</v>
@@ -8994,7 +11507,7 @@
       </c>
       <c r="C68" s="2">
         <f>_xll.BDP(B68,"PX_LAST")*1.00000001</f>
-        <v>101.45500101454999</v>
+        <v>101.79600101795999</v>
       </c>
       <c r="D68" s="1">
         <f>IF(OR(_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"BEST_ANALYST_RATING"))</f>
@@ -9005,11 +11518,17 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
+        <f>IF(OR(_xll.BDP(B68,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B68,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B68,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B68,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"YLD_CNV_MID")),
+_xll.BDP(B68,"EQY_DVD_YLD_IND"))</f>
+        <v>7.5428756000000003</v>
+      </c>
+      <c r="G68" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
         <f>_xll.BDP(B69,"ID_ISIN")</f>
         <v>RU000A0JW0S4</v>
@@ -9030,11 +11549,17 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
+        <f>IF(OR(_xll.BDP(B69,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B69,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B69,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B69,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B69,"YLD_CNV_MID")),
+_xll.BDP(B69,"EQY_DVD_YLD_IND"))</f>
+        <v>10.5</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="str">
         <f>_xll.BDP(B70,"ID_ISIN")</f>
         <v>RU000A0JTKZ1</v>
@@ -9044,7 +11569,7 @@
       </c>
       <c r="C70" s="2">
         <f>_xll.BDP(B70,"PX_LAST")*1.00000001</f>
-        <v>97.890000978899991</v>
+        <v>97.900010979000086</v>
       </c>
       <c r="D70" s="1">
         <f>IF(OR(_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"BEST_ANALYST_RATING"))</f>
@@ -9055,11 +11580,17 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
+        <f>IF(OR(_xll.BDP(B70,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B70,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B70,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B70,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"YLD_CNV_MID")),
+_xll.BDP(B70,"EQY_DVD_YLD_IND"))</f>
+        <v>9.09</v>
+      </c>
+      <c r="G70" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f>_xll.BDP(B71,"ID_ISIN")</f>
         <v>RU000A0JS751</v>
@@ -9080,11 +11611,17 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
+        <f>IF(OR(_xll.BDP(B71,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B71,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B71,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B71,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B71,"YLD_CNV_MID")),
+_xll.BDP(B71,"EQY_DVD_YLD_IND"))</f>
+        <v>18.55</v>
+      </c>
+      <c r="G71" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f>_xll.BDP(B72,"ID_ISIN")</f>
         <v>XS0884734343</v>
@@ -9094,7 +11631,7 @@
       </c>
       <c r="C72" s="2">
         <f>_xll.BDP(B72,"PX_LAST")*1.00000001</f>
-        <v>98.615010986150097</v>
+        <v>98.625000986250001</v>
       </c>
       <c r="D72" s="1">
         <f>IF(OR(_xll.BDP(B72,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B72,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B72,"BEST_ANALYST_RATING"))</f>
@@ -9105,11 +11642,17 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
+        <f>IF(OR(_xll.BDP(B72,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B72,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B72,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B72,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B72,"YLD_CNV_MID")),
+_xll.BDP(B72,"EQY_DVD_YLD_IND"))</f>
+        <v>9.7201650528934813</v>
+      </c>
+      <c r="G72" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f>_xll.BDP(B73,"ID_ISIN")</f>
         <v>RU000A0JWDN6</v>
@@ -9130,11 +11673,17 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
+        <f>IF(OR(_xll.BDP(B73,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B73,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B73,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B73,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B73,"YLD_CNV_MID")),
+_xll.BDP(B73,"EQY_DVD_YLD_IND"))</f>
+        <v>10.74</v>
+      </c>
+      <c r="G73" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f>_xll.BDP(B74,"ID_ISIN")</f>
         <v>RU000A0JWC82</v>
@@ -9144,7 +11693,7 @@
       </c>
       <c r="C74" s="2">
         <f>_xll.BDP(B74,"PX_LAST")*1.00000001</f>
-        <v>103.400001034</v>
+        <v>103.900001039</v>
       </c>
       <c r="D74" s="1">
         <f>IF(OR(_xll.BDP(B74,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B74,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B74,"BEST_ANALYST_RATING"))</f>
@@ -9155,11 +11704,17 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
+        <f>IF(OR(_xll.BDP(B74,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B74,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B74,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B74,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B74,"YLD_CNV_MID")),
+_xll.BDP(B74,"EQY_DVD_YLD_IND"))</f>
+        <v>8.93</v>
+      </c>
+      <c r="G74" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f>_xll.BDP(B75,"ID_ISIN")</f>
         <v>RU000A0JWB75</v>
@@ -9180,11 +11735,17 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
+        <f>IF(OR(_xll.BDP(B75,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B75,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B75,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B75,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B75,"YLD_CNV_MID")),
+_xll.BDP(B75,"EQY_DVD_YLD_IND"))</f>
+        <v>10.53</v>
+      </c>
+      <c r="G75" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>_xll.BDP(B76,"ID_ISIN")</f>
         <v>RU000A0JWB67</v>
@@ -9205,11 +11766,17 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
+        <f>IF(OR(_xll.BDP(B76,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B76,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B76,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B76,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B76,"YLD_CNV_MID")),
+_xll.BDP(B76,"EQY_DVD_YLD_IND"))</f>
+        <v>10.65</v>
+      </c>
+      <c r="G76" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>_xll.BDP(B77,"ID_ISIN")</f>
         <v>XS0997544860</v>
@@ -9219,7 +11786,7 @@
       </c>
       <c r="C77" s="2">
         <f>_xll.BDP(B77,"PX_LAST")*1.00000001</f>
-        <v>108.26400108263999</v>
+        <v>107.95500107954999</v>
       </c>
       <c r="D77" s="1">
         <f>IF(OR(_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"BEST_ANALYST_RATING"))</f>
@@ -9230,11 +11797,17 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
+        <f>IF(OR(_xll.BDP(B77,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B77,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B77,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B77,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"YLD_CNV_MID")),
+_xll.BDP(B77,"EQY_DVD_YLD_IND"))</f>
+        <v>4.5886627999999998</v>
+      </c>
+      <c r="G77" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f>_xll.BDP(B78,"ID_ISIN")</f>
         <v>XS0830192711</v>
@@ -9244,7 +11817,7 @@
       </c>
       <c r="C78" s="2">
         <f>_xll.BDP(B78,"PX_LAST")*1.00000001</f>
-        <v>101.30700101306999</v>
+        <v>101.05100101050999</v>
       </c>
       <c r="D78" s="1">
         <f>IF(OR(_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"BEST_ANALYST_RATING"))</f>
@@ -9255,11 +11828,17 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
+        <f>IF(OR(_xll.BDP(B78,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B78,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B78,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B78,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"YLD_CNV_MID")),
+_xll.BDP(B78,"EQY_DVD_YLD_IND"))</f>
+        <v>4.1559474932053204</v>
+      </c>
+      <c r="G78" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f>_xll.BDP(B79,"ID_ISIN")</f>
         <v>RU000A0JWWW7</v>
@@ -9269,7 +11848,7 @@
       </c>
       <c r="C79" s="2">
         <f>_xll.BDP(B79,"PX_LAST")*1.00000001</f>
-        <v>102.35000102349998</v>
+        <v>102.25000102249999</v>
       </c>
       <c r="D79" s="1">
         <f>IF(OR(_xll.BDP(B79,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B79,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B79,"BEST_ANALYST_RATING"))</f>
@@ -9280,11 +11859,17 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
+        <f>IF(OR(_xll.BDP(B79,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B79,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B79,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B79,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B79,"YLD_CNV_MID")),
+_xll.BDP(B79,"EQY_DVD_YLD_IND"))</f>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G79" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f>_xll.BDP(B80,"ID_ISIN")</f>
         <v>RU000A0JU9T5</v>
@@ -9294,7 +11879,7 @@
       </c>
       <c r="C80" s="2">
         <f>_xll.BDP(B80,"PX_LAST")*1.00000001</f>
-        <v>98.800000987999994</v>
+        <v>98.600000985999984</v>
       </c>
       <c r="D80" s="1">
         <f>IF(OR(_xll.BDP(B80,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B80,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B80,"BEST_ANALYST_RATING"))</f>
@@ -9305,11 +11890,17 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
+        <f>IF(OR(_xll.BDP(B80,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B80,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B80,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B80,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B80,"YLD_CNV_MID")),
+_xll.BDP(B80,"EQY_DVD_YLD_IND"))</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G80" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f>_xll.BDP(B81,"ID_ISIN")</f>
         <v>RU000A0JS5F6</v>
@@ -9319,7 +11910,7 @@
       </c>
       <c r="C81" s="2">
         <f>_xll.BDP(B81,"PX_LAST")*1.00000001</f>
-        <v>95.240000952399996</v>
+        <v>95.420000954199992</v>
       </c>
       <c r="D81" s="1">
         <f>IF(OR(_xll.BDP(B81,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B81,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B81,"BEST_ANALYST_RATING"))</f>
@@ -9330,11 +11921,17 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
+        <f>IF(OR(_xll.BDP(B81,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B81,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B81,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B81,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B81,"YLD_CNV_MID")),
+_xll.BDP(B81,"EQY_DVD_YLD_IND"))</f>
+        <v>8.35</v>
+      </c>
+      <c r="G81" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="str">
         <f>_xll.BDP(B82,"ID_ISIN")</f>
         <v>XS0889402029</v>
@@ -9344,7 +11941,7 @@
       </c>
       <c r="C82" s="2">
         <f>_xll.BDP(B82,"PX_LAST")*1.00000001</f>
-        <v>99.640000996399991</v>
+        <v>99.650010996500086</v>
       </c>
       <c r="D82" s="1">
         <f>IF(OR(_xll.BDP(B82,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B82,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B82,"BEST_ANALYST_RATING"))</f>
@@ -9355,11 +11952,17 @@
         <v>0</v>
       </c>
       <c r="F82" s="1">
+        <f>IF(OR(_xll.BDP(B82,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B82,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B82,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B82,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B82,"YLD_CNV_MID")),
+_xll.BDP(B82,"EQY_DVD_YLD_IND"))</f>
+        <v>9.5085404187822178</v>
+      </c>
+      <c r="G82" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="str">
         <f>_xll.BDP(B83,"ID_ISIN")</f>
         <v>XS0493579238</v>
@@ -9369,7 +11972,7 @@
       </c>
       <c r="C83" s="2">
         <f>_xll.BDP(B83,"PX_LAST")*1.00000001</f>
-        <v>78.052000780520004</v>
+        <v>83.587000835870001</v>
       </c>
       <c r="D83" s="1">
         <f>IF(OR(_xll.BDP(B83,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B83,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B83,"BEST_ANALYST_RATING"))</f>
@@ -9380,11 +11983,17 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
+        <f>IF(OR(_xll.BDP(B83,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B83,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B83,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B83,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B83,"YLD_CNV_MID")),
+_xll.BDP(B83,"EQY_DVD_YLD_IND"))</f>
+        <v>25.024694833119774</v>
+      </c>
+      <c r="G83" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f>_xll.BDP(B84,"ID_ISIN")</f>
         <v>XS0842078536</v>
@@ -9394,7 +12003,7 @@
       </c>
       <c r="C84" s="2">
         <f>_xll.BDP(B84,"PX_LAST")*1.00000001</f>
-        <v>108.88200108882</v>
+        <v>108.68100108680999</v>
       </c>
       <c r="D84" s="1">
         <f>IF(OR(_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"BEST_ANALYST_RATING"))</f>
@@ -9405,11 +12014,17 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
+        <f>IF(OR(_xll.BDP(B84,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B84,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B84,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B84,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"YLD_CNV_MID")),
+_xll.BDP(B84,"EQY_DVD_YLD_IND"))</f>
+        <v>5.1164299</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f>_xll.BDP(B85,"ID_ISIN")</f>
         <v>RU000A0JWG05</v>
@@ -9419,7 +12034,7 @@
       </c>
       <c r="C85" s="2">
         <f>_xll.BDP(B85,"PX_LAST")*1.00000001</f>
-        <v>100.700001007</v>
+        <v>100.65000100650001</v>
       </c>
       <c r="D85" s="1">
         <f>IF(OR(_xll.BDP(B85,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B85,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B85,"BEST_ANALYST_RATING"))</f>
@@ -9430,11 +12045,17 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
+        <f>IF(OR(_xll.BDP(B85,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B85,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B85,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B85,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B85,"YLD_CNV_MID")),
+_xll.BDP(B85,"EQY_DVD_YLD_IND"))</f>
+        <v>20.65</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f>_xll.BDP(B86,"ID_ISIN")</f>
         <v>RU000A0DQZE3</v>
@@ -9444,7 +12065,7 @@
       </c>
       <c r="C86" s="2">
         <f>_xll.BDP(B86,"PX_LAST")*1.00000001</f>
-        <v>21.750000217499998</v>
+        <v>21.110000211099997</v>
       </c>
       <c r="D86" s="1">
         <f>IF(OR(_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"BEST_ANALYST_RATING"))</f>
@@ -9455,11 +12076,17 @@
         <v>28.154998779296875</v>
       </c>
       <c r="F86" s="1">
+        <f>IF(OR(_xll.BDP(B86,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B86,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B86,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B86,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"YLD_CNV_MID")),
+_xll.BDP(B86,"EQY_DVD_YLD_IND"))</f>
+        <v>7.674088132488734</v>
+      </c>
+      <c r="G86" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f>_xll.BDP(B87,"ID_ISIN")</f>
         <v>US7496552057</v>
@@ -9469,7 +12096,7 @@
       </c>
       <c r="C87" s="2">
         <f>_xll.BDP(B87,"PX_LAST")*1.00000001</f>
-        <v>12.500000125</v>
+        <v>12.000000119999999</v>
       </c>
       <c r="D87" s="1">
         <f>IF(OR(_xll.BDP(B87,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B87,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B87,"BEST_ANALYST_RATING"))</f>
@@ -9480,11 +12107,17 @@
         <v>16.299999237060547</v>
       </c>
       <c r="F87" s="1">
+        <f>IF(OR(_xll.BDP(B87,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B87,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B87,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B87,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B87,"YLD_CNV_MID")),
+_xll.BDP(B87,"EQY_DVD_YLD_IND"))</f>
+        <v>9.6677501996358224</v>
+      </c>
+      <c r="G87" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f>_xll.BDP(B88,"ID_ISIN")</f>
         <v>LU0974284688</v>
@@ -9494,7 +12127,7 @@
       </c>
       <c r="C88" s="2">
         <f>_xll.BDP(B88,"PX_LAST")*1.00000001</f>
-        <v>13.090000130899998</v>
+        <v>13.160000131599999</v>
       </c>
       <c r="D88" s="1">
         <f>IF(OR(_xll.BDP(B88,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B88,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B88,"BEST_ANALYST_RATING"))</f>
@@ -9505,11 +12138,17 @@
         <v>0</v>
       </c>
       <c r="F88" s="1">
+        <f>IF(OR(_xll.BDP(B88,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B88,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B88,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B88,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B88,"YLD_CNV_MID")),
+_xll.BDP(B88,"EQY_DVD_YLD_IND"))</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f>_xll.BDP(B89,"ID_ISIN")</f>
         <v>XS0975320879</v>
@@ -9519,7 +12158,7 @@
       </c>
       <c r="C89" s="2">
         <f>_xll.BDP(B89,"PX_LAST")*1.00000001</f>
-        <v>105.56400105563999</v>
+        <v>105.20700105206998</v>
       </c>
       <c r="D89" s="1">
         <f>IF(OR(_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"BEST_ANALYST_RATING"))</f>
@@ -9530,11 +12169,17 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
+        <f>IF(OR(_xll.BDP(B89,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B89,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B89,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B89,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"YLD_CNV_MID")),
+_xll.BDP(B89,"EQY_DVD_YLD_IND"))</f>
+        <v>4.2797017817245901</v>
+      </c>
+      <c r="G89" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f>_xll.BDP(B90,"ID_ISIN")</f>
         <v>US65504LAM90</v>
@@ -9544,7 +12189,7 @@
       </c>
       <c r="C90" s="2">
         <f>_xll.BDP(B90,"PX_LAST")*1.00000001</f>
-        <v>101.46690101466899</v>
+        <v>101.586501015865</v>
       </c>
       <c r="D90" s="1">
         <f>IF(OR(_xll.BDP(B90,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B90,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B90,"BEST_ANALYST_RATING"))</f>
@@ -9555,11 +12200,17 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
+        <f>IF(OR(_xll.BDP(B90,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B90,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B90,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B90,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B90,"YLD_CNV_MID")),
+_xll.BDP(B90,"EQY_DVD_YLD_IND"))</f>
+        <v>3.949931403774579</v>
+      </c>
+      <c r="G90" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="str">
         <f>_xll.BDP(B91,"ID_ISIN")</f>
         <v>JE00B5BCW814</v>
@@ -9569,7 +12220,7 @@
       </c>
       <c r="C91" s="2">
         <f>_xll.BDP(B91,"PX_LAST")*1.00000001</f>
-        <v>3.9500000394999999</v>
+        <v>3.8400000383999995</v>
       </c>
       <c r="D91" s="1">
         <f>IF(OR(_xll.BDP(B91,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B91,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B91,"BEST_ANALYST_RATING"))</f>
@@ -9580,11 +12231,17 @@
         <v>4.851250171661377</v>
       </c>
       <c r="F91" s="1">
+        <f>IF(OR(_xll.BDP(B91,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B91,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B91,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B91,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B91,"YLD_CNV_MID")),
+_xll.BDP(B91,"EQY_DVD_YLD_IND"))</f>
+        <v>3.3224288684626422</v>
+      </c>
+      <c r="G91" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="str">
         <f>_xll.BDP(B92,"ID_ISIN")</f>
         <v>RU0009029524</v>
@@ -9594,7 +12251,7 @@
       </c>
       <c r="C92" s="2">
         <f>_xll.BDP(B92,"PX_LAST")*1.00000001</f>
-        <v>33.130000331300003</v>
+        <v>29.760000297600001</v>
       </c>
       <c r="D92" s="1">
         <f>IF(OR(_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"BEST_ANALYST_RATING"))</f>
@@ -9602,14 +12259,20 @@
       </c>
       <c r="E92" s="1">
         <f>IF(OR(_xll.BDP(B92,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B92,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"BEST_TARGET_PRICE"))</f>
-        <v>38.323436737060547</v>
+        <v>37.462532043457031</v>
       </c>
       <c r="F92" s="1">
+        <f>IF(OR(_xll.BDP(B92,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B92,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B92,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B92,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"YLD_CNV_MID")),
+_xll.BDP(B92,"EQY_DVD_YLD_IND"))</f>
+        <v>23.268325744095311</v>
+      </c>
+      <c r="G92" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f>_xll.BDP(B93,"ID_ISIN")</f>
         <v>XS0922301717</v>
@@ -9619,7 +12282,7 @@
       </c>
       <c r="C93" s="2">
         <f>_xll.BDP(B93,"PX_LAST")*1.00000001</f>
-        <v>106.38900106388999</v>
+        <v>106.24900106249</v>
       </c>
       <c r="D93" s="1">
         <f>IF(OR(_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"BEST_ANALYST_RATING"))</f>
@@ -9630,11 +12293,17 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
+        <f>IF(OR(_xll.BDP(B93,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B93,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B93,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B93,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"YLD_CNV_MID")),
+_xll.BDP(B93,"EQY_DVD_YLD_IND"))</f>
+        <v>3.4329641</v>
+      </c>
+      <c r="G93" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f>_xll.BDP(B94,"ID_ISIN")</f>
         <v>RU000A0JW1P8</v>
@@ -9644,7 +12313,7 @@
       </c>
       <c r="C94" s="2">
         <f>_xll.BDP(B94,"PX_LAST")*1.00000001</f>
-        <v>103.55000103549999</v>
+        <v>103.200001032</v>
       </c>
       <c r="D94" s="1">
         <f>IF(OR(_xll.BDP(B94,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B94,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B94,"BEST_ANALYST_RATING"))</f>
@@ -9655,11 +12324,17 @@
         <v>0</v>
       </c>
       <c r="F94" s="1">
+        <f>IF(OR(_xll.BDP(B94,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B94,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B94,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B94,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B94,"YLD_CNV_MID")),
+_xll.BDP(B94,"EQY_DVD_YLD_IND"))</f>
+        <v>10.27</v>
+      </c>
+      <c r="G94" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="str">
         <f>_xll.BDP(B95,"ID_ISIN")</f>
         <v>RU000A0JRJU8</v>
@@ -9669,7 +12344,7 @@
       </c>
       <c r="C95" s="2">
         <f>_xll.BDP(B95,"PX_LAST")*1.00000001</f>
-        <v>99.590000995899999</v>
+        <v>99.600010996000094</v>
       </c>
       <c r="D95" s="1">
         <f>IF(OR(_xll.BDP(B95,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B95,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B95,"BEST_ANALYST_RATING"))</f>
@@ -9680,11 +12355,17 @@
         <v>0</v>
       </c>
       <c r="F95" s="1">
+        <f>IF(OR(_xll.BDP(B95,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B95,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B95,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B95,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B95,"YLD_CNV_MID")),
+_xll.BDP(B95,"EQY_DVD_YLD_IND"))</f>
+        <v>9.67</v>
+      </c>
+      <c r="G95" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="str">
         <f>_xll.BDP(B96,"ID_ISIN")</f>
         <v>RU000A0JS3W6</v>
@@ -9694,7 +12375,7 @@
       </c>
       <c r="C96" s="2">
         <f>_xll.BDP(B96,"PX_LAST")*1.00000001</f>
-        <v>102.3900010239</v>
+        <v>102.30000102299999</v>
       </c>
       <c r="D96" s="1">
         <f>IF(OR(_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"BEST_ANALYST_RATING"))</f>
@@ -9705,11 +12386,17 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
+        <f>IF(OR(_xll.BDP(B96,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B96,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B96,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B96,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"YLD_CNV_MID")),
+_xll.BDP(B96,"EQY_DVD_YLD_IND"))</f>
+        <v>7.95</v>
+      </c>
+      <c r="G96" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="str">
         <f>_xll.BDP(B97,"ID_ISIN")</f>
         <v>RU000A0JTYA5</v>
@@ -9719,7 +12406,7 @@
       </c>
       <c r="C97" s="2">
         <f>_xll.BDP(B97,"PX_LAST")*1.00000001</f>
-        <v>95.440000954399991</v>
+        <v>95.350010953500089</v>
       </c>
       <c r="D97" s="1">
         <f>IF(OR(_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B97,"BEST_ANALYST_RATING"))</f>
@@ -9730,11 +12417,17 @@
         <v>0</v>
       </c>
       <c r="F97" s="1">
+        <f>IF(OR(_xll.BDP(B97,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B97,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B97,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B97,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B97,"YLD_CNV_MID")),
+_xll.BDP(B97,"EQY_DVD_YLD_IND"))</f>
+        <v>8.24</v>
+      </c>
+      <c r="G97" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="str">
         <f>_xll.BDP(B98,"ID_ISIN")</f>
         <v>RU000A0GN9A7</v>
@@ -9744,7 +12437,7 @@
       </c>
       <c r="C98" s="2">
         <f>_xll.BDP(B98,"PX_LAST")*1.00000001</f>
-        <v>89.089600890895994</v>
+        <v>88.899600888996005</v>
       </c>
       <c r="D98" s="1">
         <f>IF(OR(_xll.BDP(B98,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B98,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B98,"BEST_ANALYST_RATING"))</f>
@@ -9755,11 +12448,17 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
+        <f>IF(OR(_xll.BDP(B98,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B98,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B98,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B98,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B98,"YLD_CNV_MID")),
+_xll.BDP(B98,"EQY_DVD_YLD_IND"))</f>
+        <v>8.34</v>
+      </c>
+      <c r="G98" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="str">
         <f>_xll.BDP(B99,"ID_ISIN")</f>
         <v>RU000A0JPLH5</v>
@@ -9780,11 +12479,17 @@
         <v>0</v>
       </c>
       <c r="F99" s="1">
+        <f>IF(OR(_xll.BDP(B99,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B99,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B99,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B99,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B99,"YLD_CNV_MID")),
+_xll.BDP(B99,"EQY_DVD_YLD_IND"))</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G99" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="str">
         <f>_xll.BDP(B100,"ID_ISIN")</f>
         <v>RU000A0JXJE0</v>
@@ -9794,7 +12499,7 @@
       </c>
       <c r="C100" s="2">
         <f>_xll.BDP(B100,"PX_LAST")*1.00000001</f>
-        <v>102.700001027</v>
+        <v>102.50000102499999</v>
       </c>
       <c r="D100" s="1">
         <f>IF(OR(_xll.BDP(B100,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B100,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B100,"BEST_ANALYST_RATING"))</f>
@@ -9805,11 +12510,17 @@
         <v>0</v>
       </c>
       <c r="F100" s="1">
+        <f>IF(OR(_xll.BDP(B100,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B100,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B100,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B100,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B100,"YLD_CNV_MID")),
+_xll.BDP(B100,"EQY_DVD_YLD_IND"))</f>
+        <v>9.89</v>
+      </c>
+      <c r="G100" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="str">
         <f>_xll.BDP(B101,"ID_ISIN")</f>
         <v>XS0848137708</v>
@@ -9819,7 +12530,7 @@
       </c>
       <c r="C101" s="2">
         <f>_xll.BDP(B101,"PX_LAST")*1.00000001</f>
-        <v>103.70300103702999</v>
+        <v>103.78700103787</v>
       </c>
       <c r="D101" s="1">
         <f>IF(OR(_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"BEST_ANALYST_RATING"))</f>
@@ -9830,11 +12541,17 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
+        <f>IF(OR(_xll.BDP(B101,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B101,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B101,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B101,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"YLD_CNV_MID")),
+_xll.BDP(B101,"EQY_DVD_YLD_IND"))</f>
+        <v>4.0417495233555796</v>
+      </c>
+      <c r="G101" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="str">
         <f>_xll.BDP(B102,"ID_ISIN")</f>
         <v>RU000A0JV7K7</v>
@@ -9844,7 +12561,7 @@
       </c>
       <c r="C102" s="2">
         <f>_xll.BDP(B102,"PX_LAST")*1.00000001</f>
-        <v>101.0900010109</v>
+        <v>101.0500010105</v>
       </c>
       <c r="D102" s="1">
         <f>IF(OR(_xll.BDP(B102,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B102,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B102,"BEST_ANALYST_RATING"))</f>
@@ -9855,11 +12572,17 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
+        <f>IF(OR(_xll.BDP(B102,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B102,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B102,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B102,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B102,"YLD_CNV_MID")),
+_xll.BDP(B102,"EQY_DVD_YLD_IND"))</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G102" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="str">
         <f>_xll.BDP(B103,"ID_ISIN")</f>
         <v>RU000A0JX0J2</v>
@@ -9869,7 +12592,7 @@
       </c>
       <c r="C103" s="2">
         <f>_xll.BDP(B103,"PX_LAST")*1.00000001</f>
-        <v>101.74000101739999</v>
+        <v>101.6500010165</v>
       </c>
       <c r="D103" s="1">
         <f>IF(OR(_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"BEST_ANALYST_RATING"))</f>
@@ -9880,11 +12603,17 @@
         <v>0</v>
       </c>
       <c r="F103" s="1">
+        <f>IF(OR(_xll.BDP(B103,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B103,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B103,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B103,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"YLD_CNV_MID")),
+_xll.BDP(B103,"EQY_DVD_YLD_IND"))</f>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="G103" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="str">
         <f>_xll.BDP(B104,"ID_ISIN")</f>
         <v>CH0038863350</v>
@@ -9894,7 +12623,7 @@
       </c>
       <c r="C104" s="2">
         <f>_xll.BDP(B104,"PX_LAST")*1.00000001</f>
-        <v>76.951000769509989</v>
+        <v>75.501000755009997</v>
       </c>
       <c r="D104" s="1">
         <f>IF(OR(_xll.BDP(B104,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B104,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B104,"BEST_ANALYST_RATING"))</f>
@@ -9905,11 +12634,17 @@
         <v>80.120002746582031</v>
       </c>
       <c r="F104" s="1">
+        <f>IF(OR(_xll.BDP(B104,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B104,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B104,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B104,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B104,"YLD_CNV_MID")),
+_xll.BDP(B104,"EQY_DVD_YLD_IND"))</f>
+        <v>3.0143771076175456</v>
+      </c>
+      <c r="G104" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="str">
         <f>_xll.BDP(B105,"ID_ISIN")</f>
         <v>CH0012005267</v>
@@ -9919,7 +12654,7 @@
       </c>
       <c r="C105" s="2">
         <f>_xll.BDP(B105,"PX_LAST")*1.00000001</f>
-        <v>74.400000743999996</v>
+        <v>74.050000740499996</v>
       </c>
       <c r="D105" s="1">
         <f>IF(OR(_xll.BDP(B105,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B105,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B105,"BEST_ANALYST_RATING"))</f>
@@ -9930,11 +12665,17 @@
         <v>79.611114501953125</v>
       </c>
       <c r="F105" s="1">
+        <f>IF(OR(_xll.BDP(B105,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B105,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B105,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B105,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B105,"YLD_CNV_MID")),
+_xll.BDP(B105,"EQY_DVD_YLD_IND"))</f>
+        <v>3.7162162162162162</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="str">
         <f>_xll.BDP(B106,"ID_ISIN")</f>
         <v>CH0012032048</v>
@@ -9944,7 +12685,7 @@
       </c>
       <c r="C106" s="2">
         <f>_xll.BDP(B106,"PX_LAST")*1.00000001</f>
-        <v>256.80000256799997</v>
+        <v>256.95000256949999</v>
       </c>
       <c r="D106" s="1">
         <f>IF(OR(_xll.BDP(B106,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B106,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B106,"BEST_ANALYST_RATING"))</f>
@@ -9955,6 +12696,12 @@
         <v>283.39999389648437</v>
       </c>
       <c r="F106" s="1">
+        <f>IF(OR(_xll.BDP(B106,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B106,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+IF(OR(_xll.BDP(B106,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B106,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B106,"YLD_CNV_MID")),
+_xll.BDP(B106,"EQY_DVD_YLD_IND"))</f>
+        <v>3.1906614043833215</v>
+      </c>
+      <c r="G106" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>

--- a/sberapi/DB/quotes.xlsx
+++ b/sberapi/DB/quotes.xlsx
@@ -769,7 +769,7 @@
         <tr r="D20" s="70"/>
       </tp>
       <tp>
-        <v>4.8499999046325684</v>
+        <v>4.7818183898925781</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -876,7 +876,7 @@
         <tr r="E60" s="70"/>
       </tp>
       <tp>
-        <v>4.4000000953674316</v>
+        <v>4.5999999046325684</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -930,7 +930,7 @@
         <tr r="E37" s="70"/>
       </tp>
       <tp>
-        <v>95.887603759765625</v>
+        <v>96.111404418945313</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -962,7 +962,7 @@
         <tr r="F49" s="70"/>
       </tp>
       <tp>
-        <v>106.249</v>
+        <v>106.29</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -971,7 +971,7 @@
         <tr r="C93" s="70"/>
       </tp>
       <tp>
-        <v>2.5714285373687744</v>
+        <v>2.7142856121063232</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -1130,7 +1130,7 @@
         <tr r="F16" s="70"/>
       </tp>
       <tp>
-        <v>69.545455932617188</v>
+        <v>68.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LXFT US Equity</stp>
@@ -1152,7 +1152,7 @@
         <tr r="E50" s="70"/>
       </tp>
       <tp>
-        <v>3.4000000953674316</v>
+        <v>3.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -1195,7 +1195,7 @@
         <tr r="F58" s="70"/>
       </tp>
       <tp>
-        <v>62.652717590332031</v>
+        <v>65.5841064453125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -1343,7 +1343,7 @@
         <tr r="E48" s="70"/>
       </tp>
       <tp>
-        <v>237.83</v>
+        <v>235.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGN US Equity</stp>
@@ -1385,7 +1385,7 @@
         <tr r="E87" s="70"/>
       </tp>
       <tp>
-        <v>640.523193359375</v>
+        <v>657.1898193359375</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SVAV RX Equity</stp>
@@ -1405,7 +1405,7 @@
         <tr r="A93" s="70"/>
       </tp>
       <tp>
-        <v>3.4444444179534912</v>
+        <v>3.7999999523162842</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -1416,7 +1416,7 @@
         <tr r="D44" s="70"/>
       </tp>
       <tp>
-        <v>3.3333332538604736</v>
+        <v>3.4000000953674316</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -1438,7 +1438,7 @@
         <tr r="D18" s="70"/>
       </tp>
       <tp>
-        <v>11.936200141906738</v>
+        <v>11.946866989135742</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -1449,7 +1449,7 @@
         <tr r="E17" s="70"/>
       </tp>
       <tp>
-        <v>111.285</v>
+        <v>111.614</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -1478,7 +1478,7 @@
         <tr r="F84" s="70"/>
       </tp>
       <tp>
-        <v>108.681</v>
+        <v>108.715</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -1498,7 +1498,7 @@
         <tr r="D21" s="70"/>
       </tp>
       <tp>
-        <v>145.57666015625</v>
+        <v>142.13432312011719</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -1540,7 +1540,7 @@
         <tr r="A74" s="70"/>
       </tp>
       <tp>
-        <v>13.16</v>
+        <v>13.11</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HHPA2AH LX Equity</stp>
@@ -1578,7 +1578,7 @@
         <tr r="A89" s="70"/>
       </tp>
       <tp>
-        <v>103.096</v>
+        <v>102.989</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -1648,7 +1648,7 @@
         <tr r="A61" s="70"/>
       </tp>
       <tp>
-        <v>106.904</v>
+        <v>106.858</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -1657,7 +1657,7 @@
         <tr r="C22" s="70"/>
       </tp>
       <tp>
-        <v>83.587000000000003</v>
+        <v>82.768000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0493579238 Corp</stp>
@@ -1666,7 +1666,7 @@
         <tr r="C83" s="70"/>
       </tp>
       <tp>
-        <v>3095.814453125</v>
+        <v>2491.62890625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -1687,7 +1687,7 @@
         <tr r="F85" s="70"/>
       </tp>
       <tp>
-        <v>100.65</v>
+        <v>100.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWG05 Corp</stp>
@@ -1696,7 +1696,7 @@
         <tr r="C85" s="70"/>
       </tp>
       <tp>
-        <v>99.650009999999995</v>
+        <v>99.64</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0889402029 Corp</stp>
@@ -1725,7 +1725,7 @@
         <tr r="F77" s="70"/>
       </tp>
       <tp>
-        <v>107.955</v>
+        <v>108.05800000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -1744,7 +1744,7 @@
         <tr r="F82" s="70"/>
       </tp>
       <tp>
-        <v>100.967</v>
+        <v>101.008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -1869,7 +1869,7 @@
         <tr r="E39" s="70"/>
       </tp>
       <tp>
-        <v>106.98520660400391</v>
+        <v>106.75113677978516</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -1921,7 +1921,7 @@
         <tr r="F65" s="70"/>
       </tp>
       <tp>
-        <v>107.00700000000001</v>
+        <v>107.767</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -1950,7 +1950,7 @@
         <tr r="F75" s="70"/>
       </tp>
       <tp>
-        <v>101.3</v>
+        <v>101.48</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB75 Corp</stp>
@@ -1991,7 +1991,7 @@
         <tr r="F72" s="70"/>
       </tp>
       <tp>
-        <v>98.625</v>
+        <v>98.790009999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0884734343 Corp</stp>
@@ -2042,7 +2042,7 @@
         <tr r="E32" s="70"/>
       </tp>
       <tp>
-        <v>103.19799999999999</v>
+        <v>103.41200000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -2070,7 +2070,7 @@
         <tr r="A27" s="70"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>3.6666667461395264</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SVAV RX Equity</stp>
@@ -2091,7 +2091,7 @@
         <tr r="F103" s="70"/>
       </tp>
       <tp>
-        <v>1.1773115049893974</v>
+        <v>1.1876988132836837</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGN US Equity</stp>
@@ -2112,7 +2112,7 @@
         <tr r="F76" s="70"/>
       </tp>
       <tp>
-        <v>101.3</v>
+        <v>101.87</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB67 Corp</stp>
@@ -2130,7 +2130,7 @@
         <tr r="A90" s="70"/>
       </tp>
       <tp>
-        <v>3.153846263885498</v>
+        <v>3.307692289352417</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -2219,7 +2219,7 @@
         <tr r="A77" s="70"/>
       </tp>
       <tp>
-        <v>3.625</v>
+        <v>3.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -2230,7 +2230,7 @@
         <tr r="D92" s="70"/>
       </tp>
       <tp>
-        <v>102.5</v>
+        <v>102.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXJE0 Corp</stp>
@@ -2239,7 +2239,7 @@
         <tr r="C100" s="70"/>
       </tp>
       <tp>
-        <v>26.018661499023438</v>
+        <v>26.075803756713867</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>YNDX US Equity</stp>
@@ -2261,7 +2261,7 @@
         <tr r="E35" s="70"/>
       </tp>
       <tp>
-        <v>103.5</v>
+        <v>103.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWU98 Corp</stp>
@@ -2357,7 +2357,7 @@
         <tr r="A22" s="70"/>
       </tp>
       <tp>
-        <v>102.81100000000001</v>
+        <v>102.785</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -2376,7 +2376,7 @@
         <tr r="E52" s="70"/>
       </tp>
       <tp>
-        <v>101.65</v>
+        <v>101.64</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -2385,7 +2385,7 @@
         <tr r="C103" s="70"/>
       </tp>
       <tp>
-        <v>227.81964111328125</v>
+        <v>226.81964111328125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -2444,7 +2444,7 @@
         <tr r="E77" s="70"/>
       </tp>
       <tp>
-        <v>105.20699999999999</v>
+        <v>105.233</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -2483,7 +2483,7 @@
         <tr r="E93" s="70"/>
       </tp>
       <tp>
-        <v>11203.3251953125</v>
+        <v>11163.2998046875</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -2541,7 +2541,7 @@
         <tr r="F74" s="70"/>
       </tp>
       <tp>
-        <v>103.9</v>
+        <v>104.01</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWC82 Corp</stp>
@@ -2572,7 +2572,7 @@
         <tr r="D11" s="70"/>
       </tp>
       <tp>
-        <v>175.875</v>
+        <v>176.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0088543193 Corp</stp>
@@ -2601,7 +2601,7 @@
         <tr r="F27" s="70"/>
       </tp>
       <tp>
-        <v>274.83175659179687</v>
+        <v>270.40008544921875</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DIXY RX Equity</stp>
@@ -2622,7 +2622,7 @@
         <tr r="F90" s="70"/>
       </tp>
       <tp>
-        <v>101.5865</v>
+        <v>101.30500000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US65504LAM90 Corp</stp>
@@ -2671,7 +2671,7 @@
         <tr r="A72" s="70"/>
       </tp>
       <tp>
-        <v>101.05</v>
+        <v>101.04</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -2680,7 +2680,7 @@
         <tr r="C102" s="70"/>
       </tp>
       <tp>
-        <v>3572.2861328125</v>
+        <v>3557.086181640625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -2740,7 +2740,7 @@
         <tr r="A65" s="70"/>
       </tp>
       <tp>
-        <v>4.5333333015441895</v>
+        <v>4.6666665077209473</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -2802,7 +2802,7 @@
         <tr r="A75" s="70"/>
       </tp>
       <tp>
-        <v>21.29857063293457</v>
+        <v>21.441429138183594</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -2824,7 +2824,7 @@
         <tr r="D1" s="70"/>
       </tp>
       <tp>
-        <v>111.5</v>
+        <v>111</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>COMRLES RX Equity</stp>
@@ -2833,7 +2833,7 @@
         <tr r="C30" s="70"/>
       </tp>
       <tp>
-        <v>101.051</v>
+        <v>101.092</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -2883,7 +2883,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>4.0417495233555796</v>
+        <v>4.4090728225574578</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -2915,7 +2915,7 @@
         <tr r="F67" s="70"/>
       </tp>
       <tp>
-        <v>8.9499999999999993</v>
+        <v>8.9600000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JPLH5 Corp</stp>
@@ -2936,7 +2936,7 @@
         <tr r="D95" s="70"/>
       </tp>
       <tp>
-        <v>7.5428756000000003</v>
+        <v>7.3199671999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -2967,7 +2967,7 @@
         <tr r="D94" s="70"/>
       </tp>
       <tp>
-        <v>3.1906614043833215</v>
+        <v>3.2289820079799711</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROG EB Equity</stp>
@@ -2978,7 +2978,7 @@
         <tr r="F106" s="70"/>
       </tp>
       <tp>
-        <v>5.3071542999999997</v>
+        <v>5.3016582000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -2999,7 +2999,7 @@
         <tr r="D62" s="70"/>
       </tp>
       <tp>
-        <v>8.35</v>
+        <v>8.36</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS5F6 Corp</stp>
@@ -3010,7 +3010,7 @@
         <tr r="F81" s="70"/>
       </tp>
       <tp>
-        <v>8.24</v>
+        <v>8.2100000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -3021,7 +3021,7 @@
         <tr r="F97" s="70"/>
       </tp>
       <tp>
-        <v>8.34</v>
+        <v>8.31</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0GN9A7 Corp</stp>
@@ -3073,7 +3073,7 @@
         <tr r="D69" s="70"/>
       </tp>
       <tp>
-        <v>256.95</v>
+        <v>253.95</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROG EB Equity</stp>
@@ -3082,7 +3082,7 @@
         <tr r="C106" s="70"/>
       </tp>
       <tp>
-        <v>10.74</v>
+        <v>10.73</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWDN6 Corp</stp>
@@ -3142,7 +3142,7 @@
         <tr r="D67" s="70"/>
       </tp>
       <tp>
-        <v>7.95</v>
+        <v>7.93</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -3163,7 +3163,7 @@
         <tr r="D6" s="70"/>
       </tp>
       <tp>
-        <v>9.67</v>
+        <v>9.1999999999999993</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRJU8 Corp</stp>
@@ -3221,7 +3221,7 @@
         <tr r="C104" s="70"/>
       </tp>
       <tp>
-        <v>10.27</v>
+        <v>10.210000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW1P8 Corp</stp>
@@ -3232,7 +3232,7 @@
         <tr r="F94" s="70"/>
       </tp>
       <tp>
-        <v>10.199999999999999</v>
+        <v>10.29</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9T5 Corp</stp>
@@ -3243,7 +3243,7 @@
         <tr r="F80" s="70"/>
       </tp>
       <tp>
-        <v>74.05</v>
+        <v>73.099999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NOVN VX Equity</stp>
@@ -3272,7 +3272,7 @@
         <tr r="D81" s="70"/>
       </tp>
       <tp>
-        <v>9.7100000000000009</v>
+        <v>9.6999999999999993</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWDU1 Corp</stp>
@@ -3303,7 +3303,7 @@
         <tr r="D3" s="70"/>
       </tp>
       <tp>
-        <v>3.3224288684626422</v>
+        <v>3.3574018039201436</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>486 HK Equity</stp>
@@ -3314,7 +3314,7 @@
         <tr r="F91" s="70"/>
       </tp>
       <tp>
-        <v>3.84</v>
+        <v>3.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>486 HK Equity</stp>
@@ -3383,7 +3383,7 @@
         <tr r="D63" s="70"/>
       </tp>
       <tp>
-        <v>5.9828612000000003</v>
+        <v>5.8973654</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -3394,7 +3394,7 @@
         <tr r="F2" s="70"/>
       </tp>
       <tp>
-        <v>3.0143771076175456</v>
+        <v>3.0203147993079833</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NESN SW Equity</stp>
@@ -3405,7 +3405,7 @@
         <tr r="F104" s="70"/>
       </tp>
       <tp>
-        <v>4.7559740999999995</v>
+        <v>4.7492364</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -3416,7 +3416,7 @@
         <tr r="F8" s="70"/>
       </tp>
       <tp>
-        <v>8.4085318999999998</v>
+        <v>6.4276904000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -3427,7 +3427,7 @@
         <tr r="F3" s="70"/>
       </tp>
       <tp>
-        <v>9.09</v>
+        <v>8.86</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -3449,7 +3449,7 @@
         <tr r="F69" s="70"/>
       </tp>
       <tp>
-        <v>3.7162162162162162</v>
+        <v>3.7619699042407659</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NOVN VX Equity</stp>
@@ -3480,7 +3480,7 @@
         <tr r="D73" s="70"/>
       </tp>
       <tp>
-        <v>4.9162502000000003</v>
+        <v>4.8754764000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0767473852 Corp</stp>
@@ -3500,7 +3500,7 @@
         <tr r="A91" s="70"/>
       </tp>
       <tp>
-        <v>9.7100000000000009</v>
+        <v>9.64</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWWW7 Corp</stp>
@@ -3530,7 +3530,7 @@
         <tr r="A37" s="70"/>
       </tp>
       <tp>
-        <v>56.5</v>
+        <v>57.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMAZ RX Equity</stp>
@@ -3578,7 +3578,7 @@
         <tr r="D72" s="70"/>
       </tp>
       <tp>
-        <v>9.25</v>
+        <v>9.23</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMG LI Equity</stp>
@@ -3645,7 +3645,7 @@
         <tr r="F58" s="70"/>
       </tp>
       <tp>
-        <v>576</v>
+        <v>581</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SVAV RX Equity</stp>
@@ -3675,7 +3675,7 @@
         <tr r="D5" s="70"/>
       </tp>
       <tp>
-        <v>60.95</v>
+        <v>60.55</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LXFT US Equity</stp>
@@ -3684,7 +3684,7 @@
         <tr r="C49" s="70"/>
       </tp>
       <tp>
-        <v>3.4329641</v>
+        <v>3.418374</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -3734,7 +3734,7 @@
         <tr r="F45" s="70"/>
       </tp>
       <tp>
-        <v>229.2</v>
+        <v>214.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DIXY RX Equity</stp>
@@ -3763,7 +3763,7 @@
         <tr r="D85" s="70"/>
       </tp>
       <tp>
-        <v>2.359448988676125</v>
+        <v>2.3685402472453667</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -3774,7 +3774,7 @@
         <tr r="F28" s="70"/>
       </tp>
       <tp>
-        <v>88.5</v>
+        <v>88.24</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -3898,7 +3898,7 @@
         <tr r="D82" s="70"/>
       </tp>
       <tp>
-        <v>6.2949999999999999</v>
+        <v>7.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NMTP RX Equity</stp>
@@ -3907,7 +3907,7 @@
         <tr r="C39" s="70"/>
       </tp>
       <tp>
-        <v>7.4185863007052353</v>
+        <v>11.054984722854906</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NMTP RX Equity</stp>
@@ -3928,7 +3928,7 @@
         <tr r="D84" s="70"/>
       </tp>
       <tp>
-        <v>22.78</v>
+        <v>23.969899999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>YNDX US Equity</stp>
@@ -3968,7 +3968,7 @@
         <tr r="D88" s="70"/>
       </tp>
       <tp>
-        <v>3.1415192927141748</v>
+        <v>3.1259391699820478</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GILD US Equity</stp>
@@ -3979,7 +3979,7 @@
         <tr r="F1" s="70"/>
       </tp>
       <tp>
-        <v>1082</v>
+        <v>1085</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -3988,7 +3988,7 @@
         <tr r="C7" s="70"/>
       </tp>
       <tp>
-        <v>6.0400000000000002E-2</v>
+        <v>5.9650000000000002E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MRKV RM Equity</stp>
@@ -3997,7 +3997,7 @@
         <tr r="C51" s="70"/>
       </tp>
       <tp>
-        <v>2.0885246531030197</v>
+        <v>2.126878194311923</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MRKV RM Equity</stp>
@@ -4017,7 +4017,7 @@
         <tr r="A45" s="70"/>
       </tp>
       <tp>
-        <v>37.462532043457031</v>
+        <v>37.372226715087891</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -4068,7 +4068,7 @@
         <tr r="D90" s="70"/>
       </tp>
       <tp>
-        <v>9100</v>
+        <v>9158</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -4077,7 +4077,7 @@
         <tr r="C11" s="70"/>
       </tp>
       <tp>
-        <v>7.674088132488734</v>
+        <v>7.6959620179020032</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -4088,7 +4088,7 @@
         <tr r="F86" s="70"/>
       </tp>
       <tp>
-        <v>21.11</v>
+        <v>21.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -4097,7 +4097,7 @@
         <tr r="C86" s="70"/>
       </tp>
       <tp>
-        <v>4.1578020368303568</v>
+        <v>4.1319207748341436</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -4127,7 +4127,7 @@
         <tr r="D27" s="70"/>
       </tp>
       <tp>
-        <v>1195.5</v>
+        <v>1134.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -4136,7 +4136,7 @@
         <tr r="C4" s="70"/>
       </tp>
       <tp>
-        <v>276.64999999999998</v>
+        <v>273.10000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MTSS RX Equity</stp>
@@ -4154,7 +4154,7 @@
         <tr r="A35" s="70"/>
       </tp>
       <tp>
-        <v>9.575006558445823</v>
+        <v>8.9588542702575449</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GLTR LI Equity</stp>
@@ -4165,7 +4165,7 @@
         <tr r="F46" s="70"/>
       </tp>
       <tp>
-        <v>7.27</v>
+        <v>7.77</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GLTR LI Equity</stp>
@@ -4174,7 +4174,7 @@
         <tr r="C46" s="70"/>
       </tp>
       <tp>
-        <v>11.32075499380967</v>
+        <v>11.424386950911552</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MTSS RX Equity</stp>
@@ -4280,7 +4280,7 @@
         <tr r="D66" s="70"/>
       </tp>
       <tp>
-        <v>6.3353138481496662</v>
+        <v>6.4208983288457002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -4291,7 +4291,7 @@
         <tr r="F31" s="70"/>
       </tp>
       <tp>
-        <v>124.79</v>
+        <v>122.88</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -4300,7 +4300,7 @@
         <tr r="C31" s="70"/>
       </tp>
       <tp>
-        <v>5.9343792402455202</v>
+        <v>6.1447560523073994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -4311,7 +4311,7 @@
         <tr r="F32" s="70"/>
       </tp>
       <tp>
-        <v>29.76</v>
+        <v>29.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -4320,7 +4320,7 @@
         <tr r="C92" s="70"/>
       </tp>
       <tp>
-        <v>176.25</v>
+        <v>169.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -4329,7 +4329,7 @@
         <tr r="C32" s="70"/>
       </tp>
       <tp>
-        <v>23.268325744095311</v>
+        <v>23.37837863612819</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -4340,7 +4340,7 @@
         <tr r="F92" s="70"/>
       </tp>
       <tp>
-        <v>5.2790112000000002</v>
+        <v>5.1874818999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -4351,7 +4351,7 @@
         <tr r="F5" s="70"/>
       </tp>
       <tp>
-        <v>3.5294118194361159</v>
+        <v>3.5846995091394862</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
@@ -4371,7 +4371,7 @@
         <tr r="A28" s="70"/>
       </tp>
       <tp>
-        <v>278.10000000000002</v>
+        <v>274.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
@@ -4400,7 +4400,7 @@
         <tr r="D61" s="70"/>
       </tp>
       <tp>
-        <v>123.59</v>
+        <v>123.63</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHAU LN Equity</stp>
@@ -4409,7 +4409,7 @@
         <tr r="C55" s="70"/>
       </tp>
       <tp>
-        <v>13.741097612065353</v>
+        <v>14.455707360070516</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -4420,7 +4420,7 @@
         <tr r="F4" s="70"/>
       </tp>
       <tp>
-        <v>4.1271012000000002</v>
+        <v>4.0774378999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -4431,7 +4431,7 @@
         <tr r="F25" s="70"/>
       </tp>
       <tp>
-        <v>907.5</v>
+        <v>868</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -4449,7 +4449,7 @@
         <tr r="A33" s="70"/>
       </tp>
       <tp>
-        <v>8.5950413223140494</v>
+        <v>8.9861751152073737</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -4470,7 +4470,7 @@
         <tr r="F43" s="70"/>
       </tp>
       <tp>
-        <v>9.7201650528934813</v>
+        <v>9.5334802092849955</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0884734343 Corp</stp>
@@ -4490,7 +4490,7 @@
         <tr r="C43" s="70"/>
       </tp>
       <tp>
-        <v>10.65</v>
+        <v>10.51</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB67 Corp</stp>
@@ -4501,7 +4501,7 @@
         <tr r="F76" s="70"/>
       </tp>
       <tp>
-        <v>2909.5</v>
+        <v>2825.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -4510,7 +4510,7 @@
         <tr r="C36" s="70"/>
       </tp>
       <tp>
-        <v>6.4294309781674404</v>
+        <v>6.61829764643426</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -4521,7 +4521,7 @@
         <tr r="F36" s="70"/>
       </tp>
       <tp>
-        <v>0.27855153807086802</v>
+        <v>0.26699029704899463</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -4532,7 +4532,7 @@
         <tr r="F40" s="70"/>
       </tp>
       <tp>
-        <v>197.2</v>
+        <v>206</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -4541,7 +4541,7 @@
         <tr r="C40" s="70"/>
       </tp>
       <tp>
-        <v>4.3559999999999999</v>
+        <v>4.3289999999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -4577,7 +4577,7 @@
         <tr r="A44" s="70"/>
       </tp>
       <tp>
-        <v>5.617285306365198</v>
+        <v>5.6451835817375375</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -4598,7 +4598,7 @@
         <tr r="D93" s="70"/>
       </tp>
       <tp>
-        <v>24.68</v>
+        <v>24.07</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNCP RM Equity</stp>
@@ -4607,7 +4607,7 @@
         <tr r="C53" s="70"/>
       </tp>
       <tp>
-        <v>10.569842886719371</v>
+        <v>10.45522026827315</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -4618,7 +4618,7 @@
         <tr r="F42" s="70"/>
       </tp>
       <tp>
-        <v>2.5579999999999998</v>
+        <v>2.5819999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -4627,7 +4627,7 @@
         <tr r="C42" s="70"/>
       </tp>
       <tp>
-        <v>17.635108299828893</v>
+        <v>18.030744298246326</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNCP RM Equity</stp>
@@ -4648,7 +4648,7 @@
         <tr r="D100" s="70"/>
       </tp>
       <tp>
-        <v>66.22</v>
+        <v>66.540000000000006</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GILD US Equity</stp>
@@ -4657,7 +4657,7 @@
         <tr r="C1" s="70"/>
       </tp>
       <tp>
-        <v>10.53</v>
+        <v>10.46</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB75 Corp</stp>
@@ -4668,7 +4668,7 @@
         <tr r="F75" s="70"/>
       </tp>
       <tp>
-        <v>1.9510970759083295</v>
+        <v>1.9450717697495141</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -4679,7 +4679,7 @@
         <tr r="F7" s="70"/>
       </tp>
       <tp>
-        <v>374</v>
+        <v>378.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MVID RX Equity</stp>
@@ -4688,7 +4688,7 @@
         <tr r="C38" s="70"/>
       </tp>
       <tp>
-        <v>5.3547523427041499</v>
+        <v>5.2826201796090855</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MVID RX Equity</stp>
@@ -4699,7 +4699,7 @@
         <tr r="F38" s="70"/>
       </tp>
       <tp>
-        <v>17.273576097105508</v>
+        <v>17.241379310344829</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
@@ -4710,7 +4710,7 @@
         <tr r="F57" s="70"/>
       </tp>
       <tp>
-        <v>4.9872120932849775</v>
+        <v>5.0128532865666484</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VEON US Equity</stp>
@@ -4721,7 +4721,7 @@
         <tr r="F12" s="70"/>
       </tp>
       <tp>
-        <v>3.91</v>
+        <v>3.89</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VEON US Equity</stp>
@@ -4730,7 +4730,7 @@
         <tr r="C12" s="70"/>
       </tp>
       <tp>
-        <v>106.5</v>
+        <v>107.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
@@ -4739,7 +4739,7 @@
         <tr r="C57" s="70"/>
       </tp>
       <tp>
-        <v>6.6910068799999998</v>
+        <v>6.2895276600000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -4760,7 +4760,7 @@
         <tr r="D103" s="70"/>
       </tp>
       <tp>
-        <v>20.65</v>
+        <v>9.56</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWG05 Corp</stp>
@@ -4782,7 +4782,7 @@
         <tr r="E104" s="70"/>
       </tp>
       <tp>
-        <v>4.0384276000000003</v>
+        <v>4.0534444000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -4793,7 +4793,7 @@
         <tr r="F22" s="70"/>
       </tp>
       <tp>
-        <v>25.024694833119774</v>
+        <v>25.872665300249142</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0493579238 Corp</stp>
@@ -4804,7 +4804,7 @@
         <tr r="F83" s="70"/>
       </tp>
       <tp>
-        <v>18.55</v>
+        <v>75.88</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS751 Corp</stp>
@@ -4835,7 +4835,7 @@
         <tr r="A52" s="70"/>
       </tp>
       <tp>
-        <v>1.6260162238183062</v>
+        <v>1.6085790525173054</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -4846,7 +4846,7 @@
         <tr r="F14" s="70"/>
       </tp>
       <tp>
-        <v>3.69</v>
+        <v>3.73</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -4855,7 +4855,7 @@
         <tr r="C14" s="70"/>
       </tp>
       <tp>
-        <v>9.5085404187822178</v>
+        <v>9.5177316746089211</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0889402029 Corp</stp>
@@ -4866,7 +4866,7 @@
         <tr r="F82" s="70"/>
       </tp>
       <tp>
-        <v>2.6538988470868117</v>
+        <v>2.6630062556217697</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -4886,7 +4886,7 @@
         <tr r="A15" s="70"/>
       </tp>
       <tp>
-        <v>73.099999999999994</v>
+        <v>72.849999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -4895,7 +4895,7 @@
         <tr r="C41" s="70"/>
       </tp>
       <tp>
-        <v>4.5886627999999998</v>
+        <v>4.5713976000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -4915,7 +4915,7 @@
         <tr r="A60" s="70"/>
       </tp>
       <tp>
-        <v>4.5663394999999998</v>
+        <v>4.5567114000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -4935,7 +4935,7 @@
         <tr r="A1" s="70"/>
       </tp>
       <tp>
-        <v>10.87</v>
+        <v>10.63</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -4944,7 +4944,7 @@
         <tr r="C17" s="70"/>
       </tp>
       <tp>
-        <v>10.124202370100273</v>
+        <v>10.312209842154132</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -4955,7 +4955,7 @@
         <tr r="F47" s="70"/>
       </tp>
       <tp>
-        <v>8780</v>
+        <v>8616</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -4964,7 +4964,7 @@
         <tr r="C47" s="70"/>
       </tp>
       <tp>
-        <v>7.496740168190354</v>
+        <v>7.6589462113402851</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -4975,7 +4975,7 @@
         <tr r="F17" s="70"/>
       </tp>
       <tp>
-        <v>1.129607595813402</v>
+        <v>1.1459589723511112</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>QIWI US Equity</stp>
@@ -4986,7 +4986,7 @@
         <tr r="F20" s="70"/>
       </tp>
       <tp>
-        <v>5.1164299</v>
+        <v>5.1097834999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -5006,7 +5006,7 @@
         <tr r="A56" s="70"/>
       </tp>
       <tp>
-        <v>16.82</v>
+        <v>16.559999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>QIWI US Equity</stp>
@@ -5015,7 +5015,7 @@
         <tr r="C20" s="70"/>
       </tp>
       <tp>
-        <v>4.4686883000000002</v>
+        <v>4.5011003000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -5026,7 +5026,7 @@
         <tr r="F26" s="70"/>
       </tp>
       <tp>
-        <v>9.6677501996358224</v>
+        <v>9.6276350535792439</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGRO LI Equity</stp>
@@ -5057,7 +5057,7 @@
         <tr r="F88" s="70"/>
       </tp>
       <tp>
-        <v>3.5</v>
+        <v>3.7949999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KCEL LI Equity</stp>
@@ -5075,7 +5075,7 @@
         <tr r="A50" s="70"/>
       </tp>
       <tp>
-        <v>9.4224853175027032</v>
+        <v>9.0600820360602903</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KCEL LI Equity</stp>
@@ -5086,7 +5086,7 @@
         <tr r="F34" s="70"/>
       </tp>
       <tp>
-        <v>12</v>
+        <v>12.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGRO LI Equity</stp>
@@ -5095,7 +5095,7 @@
         <tr r="C87" s="70"/>
       </tp>
       <tp>
-        <v>61</v>
+        <v>61.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AQUA RM Equity</stp>
@@ -5104,7 +5104,7 @@
         <tr r="C29" s="70"/>
       </tp>
       <tp>
-        <v>1.8305386365750864</v>
+        <v>1.8844823885641158</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TGKA RX Equity</stp>
@@ -5115,7 +5115,7 @@
         <tr r="F59" s="70"/>
       </tp>
       <tp>
-        <v>1.3285E-2</v>
+        <v>1.2895E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TGKA RX Equity</stp>
@@ -5170,7 +5170,7 @@
         <tr r="A12" s="70"/>
       </tp>
       <tp>
-        <v>9.89</v>
+        <v>9.73</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXJE0 Corp</stp>
@@ -5181,7 +5181,7 @@
         <tr r="F100" s="70"/>
       </tp>
       <tp>
-        <v>600.5</v>
+        <v>588.70000000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -5190,7 +5190,7 @@
         <tr r="C18" s="70"/>
       </tp>
       <tp>
-        <v>5.2733118971061099</v>
+        <v>4.9893519926985093</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -5201,7 +5201,7 @@
         <tr r="F13" s="70"/>
       </tp>
       <tp>
-        <v>1.7485428015258688</v>
+        <v>1.7456358309497659</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -5221,7 +5221,7 @@
         <tr r="A19" s="70"/>
       </tp>
       <tp>
-        <v>8.0593038594228279</v>
+        <v>8.2181078763572675</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -5232,7 +5232,7 @@
         <tr r="F18" s="70"/>
       </tp>
       <tp>
-        <v>60.05</v>
+        <v>60.15</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -5241,7 +5241,7 @@
         <tr r="C44" s="70"/>
       </tp>
       <tp>
-        <v>3110</v>
+        <v>3287.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -5260,7 +5260,7 @@
         <tr r="F30" s="70"/>
       </tp>
       <tp>
-        <v>4.1559474932053204</v>
+        <v>4.1497147060797213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -5289,7 +5289,7 @@
         <tr r="A42" s="70"/>
       </tp>
       <tp>
-        <v>9.7899999999999991</v>
+        <v>9.76</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -5300,7 +5300,7 @@
         <tr r="F103" s="70"/>
       </tp>
       <tp>
-        <v>3.949931403774579</v>
+        <v>4.2557935042127077</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US65504LAM90 Corp</stp>
@@ -5320,7 +5320,7 @@
         <tr r="A36" s="70"/>
       </tp>
       <tp>
-        <v>4.1681596000000001</v>
+        <v>4.1252560999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0088543193 Corp</stp>
@@ -5378,7 +5378,7 @@
         <tr r="A43" s="70"/>
       </tp>
       <tp>
-        <v>9.76</v>
+        <v>10.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MHPC LI Equity</stp>
@@ -5414,7 +5414,7 @@
         <tr r="A87" s="70"/>
       </tp>
       <tp>
-        <v>7.6683724304792698</v>
+        <v>7.2737862762895595</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MHPC LI Equity</stp>
@@ -5435,7 +5435,7 @@
         <tr r="F54" s="70"/>
       </tp>
       <tp>
-        <v>4.2797017817245901</v>
+        <v>4.2468654092382376</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -5446,7 +5446,7 @@
         <tr r="F89" s="70"/>
       </tp>
       <tp>
-        <v>17.649999999999999</v>
+        <v>17.510000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHAG LN Equity</stp>
@@ -5464,7 +5464,7 @@
         <tr r="A59" s="70"/>
       </tp>
       <tp>
-        <v>8.93</v>
+        <v>8.92</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWC82 Corp</stp>
@@ -5512,7 +5512,7 @@
         <tr r="A20" s="70"/>
       </tp>
       <tp>
-        <v>75.61</v>
+        <v>75.08</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHPD LN Equity</stp>
@@ -5521,7 +5521,7 @@
         <tr r="C56" s="70"/>
       </tp>
       <tp>
-        <v>9.3000000000000007</v>
+        <v>9.26</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -5532,7 +5532,7 @@
         <tr r="F102" s="70"/>
       </tp>
       <tp>
-        <v>9.7799999999999994</v>
+        <v>9.89</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWU98 Corp</stp>
@@ -5543,7 +5543,7 @@
         <tr r="F66" s="70"/>
       </tp>
       <tp>
-        <v>57.1</v>
+        <v>55.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNC RM Equity</stp>
@@ -5571,7 +5571,7 @@
         <tr r="A14" s="70"/>
       </tp>
       <tp>
-        <v>0.50246685485674936</v>
+        <v>0.47768766749395081</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -5592,7 +5592,7 @@
         <tr r="F60" s="70"/>
       </tp>
       <tp>
-        <v>158</v>
+        <v>157.55000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>URKA RX Equity</stp>
@@ -5601,7 +5601,7 @@
         <tr r="C60" s="70"/>
       </tp>
       <tp>
-        <v>17.350000000000001</v>
+        <v>18.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -5630,7 +5630,7 @@
         <tr r="E105" s="70"/>
       </tp>
       <tp>
-        <v>3.8699335000000001</v>
+        <v>3.8800568000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -5652,7 +5652,7 @@
         <tr r="D91" s="70"/>
       </tp>
       <tp>
-        <v>103.78700000000001</v>
+        <v>103.399</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -5760,7 +5760,7 @@
         <tr r="A73" s="70"/>
       </tp>
       <tp>
-        <v>95.350009999999997</v>
+        <v>95.490009999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -5779,7 +5779,7 @@
         <tr r="F68" s="70"/>
       </tp>
       <tp>
-        <v>101.79600000000001</v>
+        <v>102.423</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -5798,7 +5798,7 @@
         <tr r="E101" s="70"/>
       </tp>
       <tp>
-        <v>105.01600000000001</v>
+        <v>105.008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -5865,7 +5865,7 @@
         <tr r="F6" s="70"/>
       </tp>
       <tp>
-        <v>106.5</v>
+        <v>106.45</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWBF6 Corp</stp>
@@ -6006,7 +6006,7 @@
         <tr r="E25" s="70"/>
       </tp>
       <tp>
-        <v>79.449996948242188</v>
+        <v>79.315788269042969</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GILD US Equity</stp>
@@ -6066,7 +6066,7 @@
         <tr r="F101" s="70"/>
       </tp>
       <tp>
-        <v>88.899600000000007</v>
+        <v>88.799499999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0GN9A7 Corp</stp>
@@ -6144,7 +6144,7 @@
         <tr r="F80" s="70"/>
       </tp>
       <tp>
-        <v>103.2</v>
+        <v>103.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW1P8 Corp</stp>
@@ -6230,7 +6230,7 @@
         <tr r="A70" s="70"/>
       </tp>
       <tp>
-        <v>102.3</v>
+        <v>102.39</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -6239,7 +6239,7 @@
         <tr r="C96" s="70"/>
       </tp>
       <tp>
-        <v>99.600009999999997</v>
+        <v>99.69</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRJU8 Corp</stp>
@@ -6365,7 +6365,7 @@
         <tr r="E94" s="70"/>
       </tp>
       <tp>
-        <v>102.25</v>
+        <v>102.34</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWWW7 Corp</stp>
@@ -6384,7 +6384,7 @@
         <tr r="E67" s="70"/>
       </tp>
       <tp>
-        <v>96.338999999999999</v>
+        <v>96.674000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -6413,7 +6413,7 @@
         <tr r="E76" s="70"/>
       </tp>
       <tp>
-        <v>103.596</v>
+        <v>106.795</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -6422,7 +6422,7 @@
         <tr r="C3" s="70"/>
       </tp>
       <tp>
-        <v>102.572</v>
+        <v>102.61799999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -6490,7 +6490,7 @@
         <tr r="F70" s="70"/>
       </tp>
       <tp>
-        <v>109.875</v>
+        <v>110.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0767473852 Corp</stp>
@@ -6499,7 +6499,7 @@
         <tr r="C6" s="70"/>
       </tp>
       <tp>
-        <v>97.900009999999995</v>
+        <v>98.09</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -6526,7 +6526,7 @@
         <tr r="C69" s="70"/>
       </tp>
       <tp>
-        <v>1051.5333251953125</v>
+        <v>1054.86669921875</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -6596,7 +6596,7 @@
         <tr r="A3" s="70"/>
       </tp>
       <tp>
-        <v>3.6571428775787354</v>
+        <v>3.6764705181121826</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NOVN VX Equity</stp>
@@ -6939,7 +6939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6949,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6969,16 +6969,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="2">
-        <v>66.220000662199993</v>
+        <v>66.540000665400001</v>
       </c>
       <c r="D1" s="2">
         <v>4.0344829559326172</v>
       </c>
       <c r="E1" s="2">
-        <v>79.449996948242188</v>
+        <v>79.315788269042969</v>
       </c>
       <c r="F1">
-        <v>3.1415192927141748</v>
+        <v>3.1259391699820478</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -6992,7 +6992,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>96.339000963389992</v>
+        <v>96.674000966739996</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5.9828612000000003</v>
+        <v>5.8973654</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>103.59600103596</v>
+        <v>106.79500106795</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>8.4085318999999998</v>
+        <v>6.4276904000000004</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -7038,16 +7038,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>1195.500011955</v>
+        <v>1134.5000113449998</v>
       </c>
       <c r="D4" s="2">
-        <v>3.4000000953674316</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="2">
         <v>1839.0594482421875</v>
       </c>
       <c r="F4" s="1">
-        <v>13.741097612065353</v>
+        <v>14.455707360070516</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7061,7 +7061,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>111.28500111284998</v>
+        <v>111.61400111614</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5.2790112000000002</v>
+        <v>5.1874818999999999</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>109.87500109874999</v>
+        <v>110.500001105</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>4.9162502000000003</v>
+        <v>4.8754764000000002</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7107,16 +7107,16 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>1082.0000108199999</v>
+        <v>1085.0000108499999</v>
       </c>
       <c r="D7" s="2">
         <v>3.6315789222717285</v>
       </c>
       <c r="E7" s="2">
-        <v>1051.5333251953125</v>
+        <v>1054.86669921875</v>
       </c>
       <c r="F7" s="1">
-        <v>1.9510970759083295</v>
+        <v>1.9450717697495141</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7130,7 +7130,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>102.57200102572</v>
+        <v>102.61800102617998</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>4.7559740999999995</v>
+        <v>4.7492364</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -7153,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>237.83000237830001</v>
+        <v>235.75000235749999</v>
       </c>
       <c r="D9" s="2">
         <v>4.5833334922790527</v>
@@ -7162,7 +7162,7 @@
         <v>272.3125</v>
       </c>
       <c r="F9" s="1">
-        <v>1.1773115049893974</v>
+        <v>1.1876988132836837</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -7176,7 +7176,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>278.100002781</v>
+        <v>274.50000274499996</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3.5294118194361159</v>
+        <v>3.5846995091394862</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>9100.0000909999999</v>
+        <v>9158.0000915799992</v>
       </c>
       <c r="D11" s="2">
         <v>3.769230842590332</v>
@@ -7208,7 +7208,7 @@
         <v>11547.5</v>
       </c>
       <c r="F11" s="1">
-        <v>4.1578020368303568</v>
+        <v>4.1319207748341436</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7222,7 +7222,7 @@
         <v>210</v>
       </c>
       <c r="C12" s="2">
-        <v>3.9100000390999998</v>
+        <v>3.8900000388999998</v>
       </c>
       <c r="D12" s="2">
         <v>4.4736843109130859</v>
@@ -7231,7 +7231,7 @@
         <v>5.4499998092651367</v>
       </c>
       <c r="F12" s="1">
-        <v>4.9872120932849775</v>
+        <v>5.0128532865666484</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7245,16 +7245,16 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>3110.0000310999999</v>
+        <v>3287.5000328749998</v>
       </c>
       <c r="D13" s="2">
-        <v>3.3333332538604736</v>
+        <v>3.4000000953674316</v>
       </c>
       <c r="E13" s="2">
-        <v>3095.814453125</v>
+        <v>2491.62890625</v>
       </c>
       <c r="F13" s="1">
-        <v>5.2733118971061099</v>
+        <v>4.9893519926985093</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7268,16 +7268,16 @@
         <v>38</v>
       </c>
       <c r="C14" s="2">
-        <v>3.6900000368999999</v>
+        <v>3.7300000373</v>
       </c>
       <c r="D14" s="2">
-        <v>4.4000000953674316</v>
+        <v>4.5999999046325684</v>
       </c>
       <c r="E14" s="2">
-        <v>4.5333333015441895</v>
+        <v>4.6666665077209473</v>
       </c>
       <c r="F14" s="1">
-        <v>1.6260162238183062</v>
+        <v>1.6085790525173054</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7291,16 +7291,16 @@
         <v>39</v>
       </c>
       <c r="C15" s="2">
-        <v>17.3500001735</v>
+        <v>18.300000182999998</v>
       </c>
       <c r="D15" s="2">
         <v>3.8571429252624512</v>
       </c>
       <c r="E15" s="2">
-        <v>21.29857063293457</v>
+        <v>21.441429138183594</v>
       </c>
       <c r="F15" s="1">
-        <v>0.50246685485674936</v>
+        <v>0.47768766749395081</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7314,7 +7314,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="2">
-        <v>9.2500000924999988</v>
+        <v>9.2300000922999992</v>
       </c>
       <c r="D16" s="2">
         <v>4.1111111640930176</v>
@@ -7337,16 +7337,16 @@
         <v>41</v>
       </c>
       <c r="C17" s="2">
-        <v>10.870000108699999</v>
+        <v>10.630000106300001</v>
       </c>
       <c r="D17" s="2">
         <v>3.8888888359069824</v>
       </c>
       <c r="E17" s="2">
-        <v>11.936200141906738</v>
+        <v>11.946866989135742</v>
       </c>
       <c r="F17" s="1">
-        <v>7.496740168190354</v>
+        <v>7.6589462113402851</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7360,7 +7360,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>600.50000600499993</v>
+        <v>588.70000588699997</v>
       </c>
       <c r="D18" s="2">
         <v>3.7999999523162842</v>
@@ -7369,7 +7369,7 @@
         <v>707.4000244140625</v>
       </c>
       <c r="F18" s="1">
-        <v>8.0593038594228279</v>
+        <v>8.2181078763572675</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -7383,16 +7383,16 @@
         <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>4.3560000435599999</v>
+        <v>4.3290000432899998</v>
       </c>
       <c r="D19" s="2">
-        <v>2.5714285373687744</v>
+        <v>2.7142856121063232</v>
       </c>
       <c r="E19" s="2">
-        <v>4.8499999046325684</v>
+        <v>4.7818183898925781</v>
       </c>
       <c r="F19" s="1">
-        <v>5.617285306365198</v>
+        <v>5.6451835817375375</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -7406,7 +7406,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="2">
-        <v>16.8200001682</v>
+        <v>16.560000165599998</v>
       </c>
       <c r="D20" s="2">
         <v>3.3333332538604736</v>
@@ -7415,7 +7415,7 @@
         <v>16.587499618530273</v>
       </c>
       <c r="F20" s="1">
-        <v>1.129607595813402</v>
+        <v>1.1459589723511112</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -7429,13 +7429,13 @@
         <v>45</v>
       </c>
       <c r="C21" s="2">
-        <v>22.780000227799999</v>
+        <v>23.969900239698998</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
       </c>
       <c r="E21" s="2">
-        <v>26.018661499023438</v>
+        <v>26.075803756713867</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2">
-        <v>106.90400106903999</v>
+        <v>106.85800106857999</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>4.0384276000000003</v>
+        <v>4.0534444000000001</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7475,7 +7475,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2">
-        <v>100.96700100967</v>
+        <v>101.00800101007999</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>4.5663394999999998</v>
+        <v>4.5567114000000002</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -7498,7 +7498,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="2">
-        <v>105.01600105016</v>
+        <v>105.00800105007998</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>5.3071542999999997</v>
+        <v>5.3016582000000003</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -7521,7 +7521,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="2">
-        <v>103.19800103197998</v>
+        <v>103.41200103412</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>4.1271012000000002</v>
+        <v>4.0774378999999996</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -7544,7 +7544,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="2">
-        <v>103.09600103096</v>
+        <v>102.98900102989001</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>4.4686883000000002</v>
+        <v>4.5011003000000001</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="2">
-        <v>175.87500175874999</v>
+        <v>176.400001764</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>4.1681596000000001</v>
+        <v>4.1252560999999996</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -7590,16 +7590,16 @@
         <v>68</v>
       </c>
       <c r="C28" s="2">
-        <v>88.500000884999992</v>
+        <v>88.240000882399983</v>
       </c>
       <c r="D28" s="2">
         <v>3.875</v>
       </c>
       <c r="E28" s="2">
-        <v>106.98520660400391</v>
+        <v>106.75113677978516</v>
       </c>
       <c r="F28" s="1">
-        <v>2.359448988676125</v>
+        <v>2.3685402472453667</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -7613,7 +7613,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2">
-        <v>61.000000609999994</v>
+        <v>61.500000614999998</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -7636,7 +7636,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2">
-        <v>111.50000111499999</v>
+        <v>111.00000111</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -7659,16 +7659,16 @@
         <v>71</v>
       </c>
       <c r="C31" s="2">
-        <v>124.79000124789999</v>
+        <v>122.88000122879998</v>
       </c>
       <c r="D31" s="2">
-        <v>3.153846263885498</v>
+        <v>3.307692289352417</v>
       </c>
       <c r="E31" s="2">
-        <v>145.57666015625</v>
+        <v>142.13432312011719</v>
       </c>
       <c r="F31" s="1">
-        <v>6.3353138481496662</v>
+        <v>6.4208983288457002</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -7682,7 +7682,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="2">
-        <v>176.25000176249998</v>
+        <v>169.25000169249998</v>
       </c>
       <c r="D32" s="2">
         <v>4.3333334922790527</v>
@@ -7691,7 +7691,7 @@
         <v>205</v>
       </c>
       <c r="F32" s="1">
-        <v>5.9343792402455202</v>
+        <v>6.1447560523073994</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -7728,7 +7728,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>3.5000000349999998</v>
+        <v>3.7950000379499995</v>
       </c>
       <c r="D34" s="2">
         <v>2.5999999046325684</v>
@@ -7737,7 +7737,7 @@
         <v>3.5</v>
       </c>
       <c r="F34" s="1">
-        <v>9.4224853175027032</v>
+        <v>9.0600820360602903</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -7751,7 +7751,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2">
-        <v>56.500000564999993</v>
+        <v>57.600000575999999</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -7774,16 +7774,16 @@
         <v>76</v>
       </c>
       <c r="C36" s="2">
-        <v>2909.5000290949997</v>
+        <v>2825.500028255</v>
       </c>
       <c r="D36" s="2">
         <v>4.4545454978942871</v>
       </c>
       <c r="E36" s="2">
-        <v>3572.2861328125</v>
+        <v>3557.086181640625</v>
       </c>
       <c r="F36" s="1">
-        <v>6.4294309781674404</v>
+        <v>6.61829764643426</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -7797,7 +7797,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="2">
-        <v>276.65000276649994</v>
+        <v>273.10000273100002</v>
       </c>
       <c r="D37" s="2">
         <v>4.3333334922790527</v>
@@ -7806,7 +7806,7 @@
         <v>309.5</v>
       </c>
       <c r="F37" s="1">
-        <v>11.32075499380967</v>
+        <v>11.424386950911552</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7820,7 +7820,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="2">
-        <v>374.00000373999995</v>
+        <v>378.600003786</v>
       </c>
       <c r="D38" s="2">
         <v>3.4000000953674316</v>
@@ -7829,7 +7829,7 @@
         <v>416.39999389648437</v>
       </c>
       <c r="F38" s="1">
-        <v>5.3547523427041499</v>
+        <v>5.2826201796090855</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7843,7 +7843,7 @@
         <v>79</v>
       </c>
       <c r="C39" s="2">
-        <v>6.2950000629499998</v>
+        <v>7.0500000704999994</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>7.4185863007052353</v>
+        <v>11.054984722854906</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7866,16 +7866,16 @@
         <v>80</v>
       </c>
       <c r="C40" s="2">
-        <v>197.20000197199997</v>
+        <v>206.00000205999999</v>
       </c>
       <c r="D40" s="2">
         <v>3.7272727489471436</v>
       </c>
       <c r="E40" s="2">
-        <v>227.81964111328125</v>
+        <v>226.81964111328125</v>
       </c>
       <c r="F40" s="1">
-        <v>0.27855153807086802</v>
+        <v>0.26699029704899463</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7889,16 +7889,16 @@
         <v>81</v>
       </c>
       <c r="C41" s="2">
-        <v>73.100000730999994</v>
+        <v>72.850000728499992</v>
       </c>
       <c r="D41" s="2">
         <v>4.3333334922790527</v>
       </c>
       <c r="E41" s="2">
-        <v>95.887603759765625</v>
+        <v>96.111404418945313</v>
       </c>
       <c r="F41" s="1">
-        <v>2.6538988470868117</v>
+        <v>2.6630062556217697</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -7912,7 +7912,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="2">
-        <v>2.5580000255799997</v>
+        <v>2.5820000258199998</v>
       </c>
       <c r="D42" s="2">
         <v>4.3333334922790527</v>
@@ -7921,7 +7921,7 @@
         <v>3.2975001335144043</v>
       </c>
       <c r="F42" s="1">
-        <v>10.569842886719371</v>
+        <v>10.45522026827315</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -7958,16 +7958,16 @@
         <v>126</v>
       </c>
       <c r="C44" s="2">
-        <v>60.050000600499992</v>
+        <v>60.150000601499997</v>
       </c>
       <c r="D44" s="2">
-        <v>3.4444444179534912</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="E44" s="2">
-        <v>62.652717590332031</v>
+        <v>65.5841064453125</v>
       </c>
       <c r="F44" s="1">
-        <v>1.7485428015258688</v>
+        <v>1.7456358309497659</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -7981,13 +7981,13 @@
         <v>127</v>
       </c>
       <c r="C45" s="2">
-        <v>229.20000229199997</v>
+        <v>214.10000214099998</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
       </c>
       <c r="E45" s="2">
-        <v>274.83175659179687</v>
+        <v>270.40008544921875</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>128</v>
       </c>
       <c r="C46" s="2">
-        <v>7.2700000726999994</v>
+        <v>7.7700000776999989</v>
       </c>
       <c r="D46" s="2">
         <v>4.3333334922790527</v>
@@ -8013,7 +8013,7 @@
         <v>7.5437498092651367</v>
       </c>
       <c r="F46" s="1">
-        <v>9.575006558445823</v>
+        <v>8.9588542702575449</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -8027,16 +8027,16 @@
         <v>129</v>
       </c>
       <c r="C47" s="2">
-        <v>8780.0000877999992</v>
+        <v>8616.0000861600001</v>
       </c>
       <c r="D47" s="2">
         <v>3.7999999523162842</v>
       </c>
       <c r="E47" s="2">
-        <v>11203.3251953125</v>
+        <v>11163.2998046875</v>
       </c>
       <c r="F47" s="1">
-        <v>10.124202370100273</v>
+        <v>10.312209842154132</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -8050,7 +8050,7 @@
         <v>130</v>
       </c>
       <c r="C48" s="2">
-        <v>907.50000907499998</v>
+        <v>868.00000867999995</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
@@ -8059,7 +8059,7 @@
         <v>1150</v>
       </c>
       <c r="F48" s="1">
-        <v>8.5950413223140494</v>
+        <v>8.9861751152073737</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8073,13 +8073,13 @@
         <v>131</v>
       </c>
       <c r="C49" s="2">
-        <v>60.950000609500002</v>
+        <v>60.550000605499996</v>
       </c>
       <c r="D49" s="2">
         <v>4.2857141494750977</v>
       </c>
       <c r="E49" s="2">
-        <v>69.545455932617188</v>
+        <v>68.5</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>132</v>
       </c>
       <c r="C50" s="2">
-        <v>9.760000097599999</v>
+        <v>10.300000103</v>
       </c>
       <c r="D50" s="2">
         <v>4.25</v>
@@ -8105,7 +8105,7 @@
         <v>11.781999588012695</v>
       </c>
       <c r="F50" s="1">
-        <v>7.6683724304792698</v>
+        <v>7.2737862762895595</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -8119,7 +8119,7 @@
         <v>133</v>
       </c>
       <c r="C51" s="2">
-        <v>6.0400000603999998E-2</v>
+        <v>5.9650000596499997E-2</v>
       </c>
       <c r="D51" s="2">
         <v>3</v>
@@ -8128,7 +8128,7 @@
         <v>1.9999999552965164E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>2.0885246531030197</v>
+        <v>2.126878194311923</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -8142,7 +8142,7 @@
         <v>134</v>
       </c>
       <c r="C52" s="2">
-        <v>57.100000570999995</v>
+        <v>55.400000553999995</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -8165,7 +8165,7 @@
         <v>135</v>
       </c>
       <c r="C53" s="2">
-        <v>24.680000246799999</v>
+        <v>24.070000240699997</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>17.635108299828893</v>
+        <v>18.030744298246326</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -8188,7 +8188,7 @@
         <v>136</v>
       </c>
       <c r="C54" s="2">
-        <v>17.650000176499997</v>
+        <v>17.5100001751</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>137</v>
       </c>
       <c r="C55" s="2">
-        <v>123.59000123589999</v>
+        <v>123.63000123629999</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>138</v>
       </c>
       <c r="C56" s="2">
-        <v>75.610000756099993</v>
+        <v>75.080000750799996</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -8257,7 +8257,7 @@
         <v>139</v>
       </c>
       <c r="C57" s="2">
-        <v>106.50000106499999</v>
+        <v>107.20000107199999</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
@@ -8266,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>17.273576097105508</v>
+        <v>17.241379310344829</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -8280,13 +8280,13 @@
         <v>140</v>
       </c>
       <c r="C58" s="2">
-        <v>576.00000576000002</v>
+        <v>581.00000580999995</v>
       </c>
       <c r="D58" s="2">
-        <v>3</v>
+        <v>3.6666667461395264</v>
       </c>
       <c r="E58" s="2">
-        <v>640.523193359375</v>
+        <v>657.1898193359375</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>141</v>
       </c>
       <c r="C59" s="2">
-        <v>1.3285000132849998E-2</v>
+        <v>1.289500012895E-2</v>
       </c>
       <c r="D59" s="2">
         <v>2.3333332538604736</v>
@@ -8312,7 +8312,7 @@
         <v>5.7500001043081284E-2</v>
       </c>
       <c r="F59" s="1">
-        <v>1.8305386365750864</v>
+        <v>1.8844823885641158</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -8326,7 +8326,7 @@
         <v>142</v>
       </c>
       <c r="C60" s="2">
-        <v>158.00000158</v>
+        <v>157.5500015755</v>
       </c>
       <c r="D60" s="2">
         <v>1.7999999523162842</v>
@@ -8349,7 +8349,7 @@
         <v>143</v>
       </c>
       <c r="C61" s="2">
-        <v>102.81100102811</v>
+        <v>102.78500102784999</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>3.8699335000000001</v>
+        <v>3.8800568000000002</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>9.7100000000000009</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -8441,7 +8441,7 @@
         <v>147</v>
       </c>
       <c r="C65" s="2">
-        <v>107.00700107007</v>
+        <v>107.76700107766999</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>6.6910068799999998</v>
+        <v>6.2895276600000001</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -8464,7 +8464,7 @@
         <v>148</v>
       </c>
       <c r="C66" s="2">
-        <v>103.500001035</v>
+        <v>103.30000103299999</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>9.7799999999999994</v>
+        <v>9.89</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -8487,7 +8487,7 @@
         <v>149</v>
       </c>
       <c r="C67" s="2">
-        <v>106.50000106499999</v>
+        <v>106.4500010645</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>150</v>
       </c>
       <c r="C68" s="2">
-        <v>101.79600101795999</v>
+        <v>102.42300102422999</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>7.5428756000000003</v>
+        <v>7.3199671999999998</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -8556,7 +8556,7 @@
         <v>152</v>
       </c>
       <c r="C70" s="2">
-        <v>97.900010979000086</v>
+        <v>98.090000980900001</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>9.09</v>
+        <v>8.86</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>18.55</v>
+        <v>75.88</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -8602,7 +8602,7 @@
         <v>154</v>
       </c>
       <c r="C72" s="2">
-        <v>98.625000986250001</v>
+        <v>98.790010987900089</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>9.7201650528934813</v>
+        <v>9.5334802092849955</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>10.74</v>
+        <v>10.73</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -8648,7 +8648,7 @@
         <v>156</v>
       </c>
       <c r="C74" s="2">
-        <v>103.900001039</v>
+        <v>104.01000104009999</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>8.93</v>
+        <v>8.92</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -8671,7 +8671,7 @@
         <v>157</v>
       </c>
       <c r="C75" s="2">
-        <v>101.30000101299999</v>
+        <v>101.4800010148</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>10.53</v>
+        <v>10.46</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -8694,7 +8694,7 @@
         <v>158</v>
       </c>
       <c r="C76" s="2">
-        <v>101.30000101299999</v>
+        <v>101.87000101869999</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>10.65</v>
+        <v>10.51</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -8717,7 +8717,7 @@
         <v>159</v>
       </c>
       <c r="C77" s="2">
-        <v>107.95500107954999</v>
+        <v>108.05800108058</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -8726,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>4.5886627999999998</v>
+        <v>4.5713976000000001</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -8740,7 +8740,7 @@
         <v>160</v>
       </c>
       <c r="C78" s="2">
-        <v>101.05100101050999</v>
+        <v>101.09200101091999</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>4.1559474932053204</v>
+        <v>4.1497147060797213</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>161</v>
       </c>
       <c r="C79" s="2">
-        <v>102.25000102249999</v>
+        <v>102.34000102339999</v>
       </c>
       <c r="D79" s="2">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>9.7100000000000009</v>
+        <v>9.64</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>10.199999999999999</v>
+        <v>10.29</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>8.35</v>
+        <v>8.36</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -8832,7 +8832,7 @@
         <v>164</v>
       </c>
       <c r="C82" s="2">
-        <v>99.650010996500086</v>
+        <v>99.640000996399991</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>9.5085404187822178</v>
+        <v>9.5177316746089211</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8855,7 +8855,7 @@
         <v>165</v>
       </c>
       <c r="C83" s="2">
-        <v>83.587000835870001</v>
+        <v>82.768000827679998</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>25.024694833119774</v>
+        <v>25.872665300249142</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8878,7 +8878,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="2">
-        <v>108.68100108680999</v>
+        <v>108.71500108715</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>5.1164299</v>
+        <v>5.1097834999999998</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         <v>197</v>
       </c>
       <c r="C85" s="2">
-        <v>100.65000100650001</v>
+        <v>100.60000100599999</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>20.65</v>
+        <v>9.56</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8924,7 +8924,7 @@
         <v>172</v>
       </c>
       <c r="C86" s="2">
-        <v>21.110000211099997</v>
+        <v>21.050000210499999</v>
       </c>
       <c r="D86" s="2">
         <v>4.3333334922790527</v>
@@ -8933,7 +8933,7 @@
         <v>28.154998779296875</v>
       </c>
       <c r="F86" s="1">
-        <v>7.674088132488734</v>
+        <v>7.6959620179020032</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -8947,7 +8947,7 @@
         <v>173</v>
       </c>
       <c r="C87" s="2">
-        <v>12.000000119999999</v>
+        <v>12.0500001205</v>
       </c>
       <c r="D87" s="2">
         <v>4.1999998092651367</v>
@@ -8956,7 +8956,7 @@
         <v>16.299999237060547</v>
       </c>
       <c r="F87" s="1">
-        <v>9.6677501996358224</v>
+        <v>9.6276350535792439</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8970,7 +8970,7 @@
         <v>174</v>
       </c>
       <c r="C88" s="2">
-        <v>13.160000131599999</v>
+        <v>13.110000131099998</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -8993,7 +8993,7 @@
         <v>198</v>
       </c>
       <c r="C89" s="2">
-        <v>105.20700105206998</v>
+        <v>105.23300105233</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>4.2797017817245901</v>
+        <v>4.2468654092382376</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -9016,7 +9016,7 @@
         <v>199</v>
       </c>
       <c r="C90" s="2">
-        <v>101.586501015865</v>
+        <v>101.30500101305</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>3.949931403774579</v>
+        <v>4.2557935042127077</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>176</v>
       </c>
       <c r="C91" s="2">
-        <v>3.8400000383999995</v>
+        <v>3.8000000379999994</v>
       </c>
       <c r="D91" s="2">
         <v>4.5</v>
@@ -9048,7 +9048,7 @@
         <v>4.851250171661377</v>
       </c>
       <c r="F91" s="1">
-        <v>3.3224288684626422</v>
+        <v>3.3574018039201436</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -9062,16 +9062,16 @@
         <v>178</v>
       </c>
       <c r="C92" s="2">
-        <v>29.760000297600001</v>
+        <v>29.600000296000001</v>
       </c>
       <c r="D92" s="2">
-        <v>3.625</v>
+        <v>3.75</v>
       </c>
       <c r="E92" s="2">
-        <v>37.462532043457031</v>
+        <v>37.372226715087891</v>
       </c>
       <c r="F92" s="1">
-        <v>23.268325744095311</v>
+        <v>23.37837863612819</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9085,7 +9085,7 @@
         <v>180</v>
       </c>
       <c r="C93" s="2">
-        <v>106.24900106249</v>
+        <v>106.2900010629</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>3.4329641</v>
+        <v>3.418374</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9108,7 +9108,7 @@
         <v>182</v>
       </c>
       <c r="C94" s="2">
-        <v>103.200001032</v>
+        <v>103.400001034</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>10.27</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -9131,7 +9131,7 @@
         <v>184</v>
       </c>
       <c r="C95" s="2">
-        <v>99.600010996000094</v>
+        <v>99.690000996899997</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>9.67</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9154,7 +9154,7 @@
         <v>186</v>
       </c>
       <c r="C96" s="2">
-        <v>102.30000102299999</v>
+        <v>102.3900010239</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>7.95</v>
+        <v>7.93</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -9177,7 +9177,7 @@
         <v>188</v>
       </c>
       <c r="C97" s="2">
-        <v>95.350010953500089</v>
+        <v>95.490010954900086</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <v>8.24</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>190</v>
       </c>
       <c r="C98" s="2">
-        <v>88.899600888996005</v>
+        <v>88.799500887994995</v>
       </c>
       <c r="D98" s="2">
         <v>0</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>8.34</v>
+        <v>8.31</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>8.9499999999999993</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -9246,7 +9246,7 @@
         <v>194</v>
       </c>
       <c r="C100" s="2">
-        <v>102.50000102499999</v>
+        <v>102.800001028</v>
       </c>
       <c r="D100" s="2">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>9.89</v>
+        <v>9.73</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9269,7 +9269,7 @@
         <v>196</v>
       </c>
       <c r="C101" s="2">
-        <v>103.78700103787</v>
+        <v>103.39900103398999</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>4.0417495233555796</v>
+        <v>4.4090728225574578</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9292,7 +9292,7 @@
         <v>201</v>
       </c>
       <c r="C102" s="2">
-        <v>101.0500010105</v>
+        <v>101.0400010104</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.26</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9315,7 +9315,7 @@
         <v>203</v>
       </c>
       <c r="C103" s="2">
-        <v>101.6500010165</v>
+        <v>101.64000101639999</v>
       </c>
       <c r="D103" s="2">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>9.7899999999999991</v>
+        <v>9.76</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9347,7 +9347,7 @@
         <v>80.120002746582031</v>
       </c>
       <c r="F104" s="1">
-        <v>3.0143771076175456</v>
+        <v>3.0203147993079833</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9361,16 +9361,16 @@
         <v>205</v>
       </c>
       <c r="C105" s="2">
-        <v>74.050000740499996</v>
+        <v>73.100000730999994</v>
       </c>
       <c r="D105" s="2">
-        <v>3.6571428775787354</v>
+        <v>3.6764705181121826</v>
       </c>
       <c r="E105" s="2">
         <v>79.611114501953125</v>
       </c>
       <c r="F105" s="1">
-        <v>3.7162162162162162</v>
+        <v>3.7619699042407659</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9384,7 +9384,7 @@
         <v>209</v>
       </c>
       <c r="C106" s="2">
-        <v>256.95000256949999</v>
+        <v>253.95000253949996</v>
       </c>
       <c r="D106" s="2">
         <v>4.4375</v>
@@ -9393,7 +9393,7 @@
         <v>283.39999389648437</v>
       </c>
       <c r="F106" s="1">
-        <v>3.1906614043833215</v>
+        <v>3.2289820079799711</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="C1" s="2">
         <f>_xll.BDP(B1,"PX_LAST")*1.00000001</f>
-        <v>66.220000662199993</v>
+        <v>66.540000665400001</v>
       </c>
       <c r="D1" s="1">
         <f>IF(OR(_xll.BDP(B1,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B1,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B1,"BEST_ANALYST_RATING"))</f>
@@ -9438,13 +9438,13 @@
       </c>
       <c r="E1" s="1">
         <f>IF(OR(_xll.BDP(B1,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B1,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B1,"BEST_TARGET_PRICE"))</f>
-        <v>79.449996948242188</v>
+        <v>79.315788269042969</v>
       </c>
       <c r="F1" s="1">
         <f>IF(OR(_xll.BDP(B1,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B1,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B1,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B1,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B1,"YLD_CNV_MID")),
 _xll.BDP(B1,"EQY_DVD_YLD_IND"))</f>
-        <v>3.1415192927141748</v>
+        <v>3.1259391699820478</v>
       </c>
       <c r="G1" s="1">
         <f>COUNTIF($B:$B,B1)</f>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="C2" s="2">
         <f>_xll.BDP(B2,"PX_LAST")*1.00000001</f>
-        <v>96.339000963389992</v>
+        <v>96.674000966739996</v>
       </c>
       <c r="D2" s="1">
         <f>IF(OR(_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"BEST_ANALYST_RATING"))</f>
@@ -9475,7 +9475,7 @@
         <f>IF(OR(_xll.BDP(B2,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B2,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B2,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B2,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"YLD_CNV_MID")),
 _xll.BDP(B2,"EQY_DVD_YLD_IND"))</f>
-        <v>5.9828612000000003</v>
+        <v>5.8973654</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G65" si="0">COUNTIF($B:$B,B2)</f>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="C3" s="2">
         <f>_xll.BDP(B3,"PX_LAST")*1.00000001</f>
-        <v>103.59600103596</v>
+        <v>106.79500106795</v>
       </c>
       <c r="D3" s="1">
         <f>IF(OR(_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"BEST_ANALYST_RATING"))</f>
@@ -9506,7 +9506,7 @@
         <f>IF(OR(_xll.BDP(B3,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B3,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B3,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B3,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"YLD_CNV_MID")),
 _xll.BDP(B3,"EQY_DVD_YLD_IND"))</f>
-        <v>8.4085318999999998</v>
+        <v>6.4276904000000004</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
@@ -9523,11 +9523,11 @@
       </c>
       <c r="C4" s="2">
         <f>_xll.BDP(B4,"PX_LAST")*1.00000001</f>
-        <v>1195.500011955</v>
+        <v>1134.5000113449998</v>
       </c>
       <c r="D4" s="1">
         <f>IF(OR(_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"BEST_ANALYST_RATING"))</f>
-        <v>3.4000000953674316</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="1">
         <f>IF(OR(_xll.BDP(B4,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B4,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"BEST_TARGET_PRICE"))</f>
@@ -9537,7 +9537,7 @@
         <f>IF(OR(_xll.BDP(B4,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B4,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B4,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B4,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"YLD_CNV_MID")),
 _xll.BDP(B4,"EQY_DVD_YLD_IND"))</f>
-        <v>13.741097612065353</v>
+        <v>14.455707360070516</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="C5" s="2">
         <f>_xll.BDP(B5,"PX_LAST")*1.00000001</f>
-        <v>111.28500111284998</v>
+        <v>111.61400111614</v>
       </c>
       <c r="D5" s="1">
         <f>IF(OR(_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"BEST_ANALYST_RATING"))</f>
@@ -9568,7 +9568,7 @@
         <f>IF(OR(_xll.BDP(B5,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B5,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B5,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B5,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"YLD_CNV_MID")),
 _xll.BDP(B5,"EQY_DVD_YLD_IND"))</f>
-        <v>5.2790112000000002</v>
+        <v>5.1874818999999999</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="C6" s="2">
         <f>_xll.BDP(B6,"PX_LAST")*1.00000001</f>
-        <v>109.87500109874999</v>
+        <v>110.500001105</v>
       </c>
       <c r="D6" s="1">
         <f>IF(OR(_xll.BDP(B6,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B6,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B6,"BEST_ANALYST_RATING"))</f>
@@ -9599,7 +9599,7 @@
         <f>IF(OR(_xll.BDP(B6,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B6,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B6,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B6,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B6,"YLD_CNV_MID")),
 _xll.BDP(B6,"EQY_DVD_YLD_IND"))</f>
-        <v>4.9162502000000003</v>
+        <v>4.8754764000000002</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C7" s="2">
         <f>_xll.BDP(B7,"PX_LAST")*1.00000001</f>
-        <v>1082.0000108199999</v>
+        <v>1085.0000108499999</v>
       </c>
       <c r="D7" s="1">
         <f>IF(OR(_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"BEST_ANALYST_RATING"))</f>
@@ -9624,13 +9624,13 @@
       </c>
       <c r="E7" s="1">
         <f>IF(OR(_xll.BDP(B7,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B7,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"BEST_TARGET_PRICE"))</f>
-        <v>1051.5333251953125</v>
+        <v>1054.86669921875</v>
       </c>
       <c r="F7" s="1">
         <f>IF(OR(_xll.BDP(B7,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B7,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B7,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B7,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"YLD_CNV_MID")),
 _xll.BDP(B7,"EQY_DVD_YLD_IND"))</f>
-        <v>1.9510970759083295</v>
+        <v>1.9450717697495141</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="C8" s="2">
         <f>_xll.BDP(B8,"PX_LAST")*1.00000001</f>
-        <v>102.57200102572</v>
+        <v>102.61800102617998</v>
       </c>
       <c r="D8" s="1">
         <f>IF(OR(_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"BEST_ANALYST_RATING"))</f>
@@ -9661,7 +9661,7 @@
         <f>IF(OR(_xll.BDP(B8,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B8,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B8,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B8,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"YLD_CNV_MID")),
 _xll.BDP(B8,"EQY_DVD_YLD_IND"))</f>
-        <v>4.7559740999999995</v>
+        <v>4.7492364</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="C9" s="2">
         <f>_xll.BDP(B9,"PX_LAST")*1.00000001</f>
-        <v>237.83000237830001</v>
+        <v>235.75000235749999</v>
       </c>
       <c r="D9" s="1">
         <f>IF(OR(_xll.BDP(B9,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B9,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B9,"BEST_ANALYST_RATING"))</f>
@@ -9692,7 +9692,7 @@
         <f>IF(OR(_xll.BDP(B9,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B9,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B9,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B9,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B9,"YLD_CNV_MID")),
 _xll.BDP(B9,"EQY_DVD_YLD_IND"))</f>
-        <v>1.1773115049893974</v>
+        <v>1.1876988132836837</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="C10" s="2">
         <f>_xll.BDP(B10,"PX_LAST")*1.00000001</f>
-        <v>278.100002781</v>
+        <v>274.50000274499996</v>
       </c>
       <c r="D10" s="1">
         <f>IF(OR(_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"BEST_ANALYST_RATING"))</f>
@@ -9723,7 +9723,7 @@
         <f>IF(OR(_xll.BDP(B10,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B10,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B10,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B10,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"YLD_CNV_MID")),
 _xll.BDP(B10,"EQY_DVD_YLD_IND"))</f>
-        <v>3.5294118194361159</v>
+        <v>3.5846995091394862</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="C11" s="2">
         <f>_xll.BDP(B11,"PX_LAST")*1.00000001</f>
-        <v>9100.0000909999999</v>
+        <v>9158.0000915799992</v>
       </c>
       <c r="D11" s="1">
         <f>IF(OR(_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"BEST_ANALYST_RATING"))</f>
@@ -9754,7 +9754,7 @@
         <f>IF(OR(_xll.BDP(B11,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B11,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B11,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B11,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"YLD_CNV_MID")),
 _xll.BDP(B11,"EQY_DVD_YLD_IND"))</f>
-        <v>4.1578020368303568</v>
+        <v>4.1319207748341436</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="C12" s="2">
         <f>_xll.BDP(B12,"PX_LAST")*1.00000001</f>
-        <v>3.9100000390999998</v>
+        <v>3.8900000388999998</v>
       </c>
       <c r="D12" s="1">
         <f>IF(OR(_xll.BDP(B12,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B12,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B12,"BEST_ANALYST_RATING"))</f>
@@ -9785,7 +9785,7 @@
         <f>IF(OR(_xll.BDP(B12,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B12,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B12,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B12,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B12,"YLD_CNV_MID")),
 _xll.BDP(B12,"EQY_DVD_YLD_IND"))</f>
-        <v>4.9872120932849775</v>
+        <v>5.0128532865666484</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
@@ -9802,21 +9802,21 @@
       </c>
       <c r="C13" s="2">
         <f>_xll.BDP(B13,"PX_LAST")*1.00000001</f>
-        <v>3110.0000310999999</v>
+        <v>3287.5000328749998</v>
       </c>
       <c r="D13" s="1">
         <f>IF(OR(_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"BEST_ANALYST_RATING"))</f>
-        <v>3.3333332538604736</v>
+        <v>3.4000000953674316</v>
       </c>
       <c r="E13" s="1">
         <f>IF(OR(_xll.BDP(B13,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B13,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"BEST_TARGET_PRICE"))</f>
-        <v>3095.814453125</v>
+        <v>2491.62890625</v>
       </c>
       <c r="F13" s="1">
         <f>IF(OR(_xll.BDP(B13,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B13,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B13,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B13,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"YLD_CNV_MID")),
 _xll.BDP(B13,"EQY_DVD_YLD_IND"))</f>
-        <v>5.2733118971061099</v>
+        <v>4.9893519926985093</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -9833,21 +9833,21 @@
       </c>
       <c r="C14" s="2">
         <f>_xll.BDP(B14,"PX_LAST")*1.00000001</f>
-        <v>3.6900000368999999</v>
+        <v>3.7300000373</v>
       </c>
       <c r="D14" s="1">
         <f>IF(OR(_xll.BDP(B14,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B14,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"BEST_ANALYST_RATING"))</f>
-        <v>4.4000000953674316</v>
+        <v>4.5999999046325684</v>
       </c>
       <c r="E14" s="1">
         <f>IF(OR(_xll.BDP(B14,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B14,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"BEST_TARGET_PRICE"))</f>
-        <v>4.5333333015441895</v>
+        <v>4.6666665077209473</v>
       </c>
       <c r="F14" s="1">
         <f>IF(OR(_xll.BDP(B14,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B14,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B14,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B14,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"YLD_CNV_MID")),
 _xll.BDP(B14,"EQY_DVD_YLD_IND"))</f>
-        <v>1.6260162238183062</v>
+        <v>1.6085790525173054</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="C15" s="2">
         <f>_xll.BDP(B15,"PX_LAST")*1.00000001</f>
-        <v>17.3500001735</v>
+        <v>18.300000182999998</v>
       </c>
       <c r="D15" s="1">
         <f>IF(OR(_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"BEST_ANALYST_RATING"))</f>
@@ -9872,13 +9872,13 @@
       </c>
       <c r="E15" s="1">
         <f>IF(OR(_xll.BDP(B15,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B15,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"BEST_TARGET_PRICE"))</f>
-        <v>21.29857063293457</v>
+        <v>21.441429138183594</v>
       </c>
       <c r="F15" s="1">
         <f>IF(OR(_xll.BDP(B15,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B15,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B15,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B15,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"YLD_CNV_MID")),
 _xll.BDP(B15,"EQY_DVD_YLD_IND"))</f>
-        <v>0.50246685485674936</v>
+        <v>0.47768766749395081</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="C16" s="2">
         <f>_xll.BDP(B16,"PX_LAST")*1.00000001</f>
-        <v>9.2500000924999988</v>
+        <v>9.2300000922999992</v>
       </c>
       <c r="D16" s="1">
         <f>IF(OR(_xll.BDP(B16,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B16,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B16,"BEST_ANALYST_RATING"))</f>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="C17" s="2">
         <f>_xll.BDP(B17,"PX_LAST")*1.00000001</f>
-        <v>10.870000108699999</v>
+        <v>10.630000106300001</v>
       </c>
       <c r="D17" s="1">
         <f>IF(OR(_xll.BDP(B17,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B17,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"BEST_ANALYST_RATING"))</f>
@@ -9934,13 +9934,13 @@
       </c>
       <c r="E17" s="1">
         <f>IF(OR(_xll.BDP(B17,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B17,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"BEST_TARGET_PRICE"))</f>
-        <v>11.936200141906738</v>
+        <v>11.946866989135742</v>
       </c>
       <c r="F17" s="1">
         <f>IF(OR(_xll.BDP(B17,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B17,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B17,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B17,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"YLD_CNV_MID")),
 _xll.BDP(B17,"EQY_DVD_YLD_IND"))</f>
-        <v>7.496740168190354</v>
+        <v>7.6589462113402851</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="C18" s="2">
         <f>_xll.BDP(B18,"PX_LAST")*1.00000001</f>
-        <v>600.50000600499993</v>
+        <v>588.70000588699997</v>
       </c>
       <c r="D18" s="1">
         <f>IF(OR(_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"BEST_ANALYST_RATING"))</f>
@@ -9971,7 +9971,7 @@
         <f>IF(OR(_xll.BDP(B18,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B18,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B18,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B18,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"YLD_CNV_MID")),
 _xll.BDP(B18,"EQY_DVD_YLD_IND"))</f>
-        <v>8.0593038594228279</v>
+        <v>8.2181078763572675</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
@@ -9988,21 +9988,21 @@
       </c>
       <c r="C19" s="2">
         <f>_xll.BDP(B19,"PX_LAST")*1.00000001</f>
-        <v>4.3560000435599999</v>
+        <v>4.3290000432899998</v>
       </c>
       <c r="D19" s="1">
         <f>IF(OR(_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"BEST_ANALYST_RATING"))</f>
-        <v>2.5714285373687744</v>
+        <v>2.7142856121063232</v>
       </c>
       <c r="E19" s="1">
         <f>IF(OR(_xll.BDP(B19,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B19,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"BEST_TARGET_PRICE"))</f>
-        <v>4.8499999046325684</v>
+        <v>4.7818183898925781</v>
       </c>
       <c r="F19" s="1">
         <f>IF(OR(_xll.BDP(B19,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B19,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B19,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B19,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"YLD_CNV_MID")),
 _xll.BDP(B19,"EQY_DVD_YLD_IND"))</f>
-        <v>5.617285306365198</v>
+        <v>5.6451835817375375</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="C20" s="2">
         <f>_xll.BDP(B20,"PX_LAST")*1.00000001</f>
-        <v>16.8200001682</v>
+        <v>16.560000165599998</v>
       </c>
       <c r="D20" s="1">
         <f>IF(OR(_xll.BDP(B20,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B20,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B20,"BEST_ANALYST_RATING"))</f>
@@ -10033,7 +10033,7 @@
         <f>IF(OR(_xll.BDP(B20,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B20,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B20,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B20,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B20,"YLD_CNV_MID")),
 _xll.BDP(B20,"EQY_DVD_YLD_IND"))</f>
-        <v>1.129607595813402</v>
+        <v>1.1459589723511112</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
@@ -10050,7 +10050,7 @@
       </c>
       <c r="C21" s="2">
         <f>_xll.BDP(B21,"PX_LAST")*1.00000001</f>
-        <v>22.780000227799999</v>
+        <v>23.969900239698998</v>
       </c>
       <c r="D21" s="1">
         <f>IF(OR(_xll.BDP(B21,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B21,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B21,"BEST_ANALYST_RATING"))</f>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="E21" s="1">
         <f>IF(OR(_xll.BDP(B21,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B21,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B21,"BEST_TARGET_PRICE"))</f>
-        <v>26.018661499023438</v>
+        <v>26.075803756713867</v>
       </c>
       <c r="F21" s="1">
         <f>IF(OR(_xll.BDP(B21,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B21,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
@@ -10081,7 +10081,7 @@
       </c>
       <c r="C22" s="2">
         <f>_xll.BDP(B22,"PX_LAST")*1.00000001</f>
-        <v>106.90400106903999</v>
+        <v>106.85800106857999</v>
       </c>
       <c r="D22" s="1">
         <f>IF(OR(_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"BEST_ANALYST_RATING"))</f>
@@ -10095,7 +10095,7 @@
         <f>IF(OR(_xll.BDP(B22,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B22,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B22,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B22,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"YLD_CNV_MID")),
 _xll.BDP(B22,"EQY_DVD_YLD_IND"))</f>
-        <v>4.0384276000000003</v>
+        <v>4.0534444000000001</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="C23" s="2">
         <f>_xll.BDP(B23,"PX_LAST")*1.00000001</f>
-        <v>100.96700100967</v>
+        <v>101.00800101007999</v>
       </c>
       <c r="D23" s="1">
         <f>IF(OR(_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"BEST_ANALYST_RATING"))</f>
@@ -10126,7 +10126,7 @@
         <f>IF(OR(_xll.BDP(B23,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B23,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B23,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B23,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"YLD_CNV_MID")),
 _xll.BDP(B23,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5663394999999998</v>
+        <v>4.5567114000000002</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C24" s="2">
         <f>_xll.BDP(B24,"PX_LAST")*1.00000001</f>
-        <v>105.01600105016</v>
+        <v>105.00800105007998</v>
       </c>
       <c r="D24" s="1">
         <f>IF(OR(_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"BEST_ANALYST_RATING"))</f>
@@ -10157,7 +10157,7 @@
         <f>IF(OR(_xll.BDP(B24,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B24,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B24,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B24,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"YLD_CNV_MID")),
 _xll.BDP(B24,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3071542999999997</v>
+        <v>5.3016582000000003</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="C25" s="2">
         <f>_xll.BDP(B25,"PX_LAST")*1.00000001</f>
-        <v>103.19800103197998</v>
+        <v>103.41200103412</v>
       </c>
       <c r="D25" s="1">
         <f>IF(OR(_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"BEST_ANALYST_RATING"))</f>
@@ -10188,7 +10188,7 @@
         <f>IF(OR(_xll.BDP(B25,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B25,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B25,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B25,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"YLD_CNV_MID")),
 _xll.BDP(B25,"EQY_DVD_YLD_IND"))</f>
-        <v>4.1271012000000002</v>
+        <v>4.0774378999999996</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="C26" s="2">
         <f>_xll.BDP(B26,"PX_LAST")*1.00000001</f>
-        <v>103.09600103096</v>
+        <v>102.98900102989001</v>
       </c>
       <c r="D26" s="1">
         <f>IF(OR(_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"BEST_ANALYST_RATING"))</f>
@@ -10219,7 +10219,7 @@
         <f>IF(OR(_xll.BDP(B26,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B26,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B26,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B26,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"YLD_CNV_MID")),
 _xll.BDP(B26,"EQY_DVD_YLD_IND"))</f>
-        <v>4.4686883000000002</v>
+        <v>4.5011003000000001</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="C27" s="2">
         <f>_xll.BDP(B27,"PX_LAST")*1.00000001</f>
-        <v>175.87500175874999</v>
+        <v>176.400001764</v>
       </c>
       <c r="D27" s="1">
         <f>IF(OR(_xll.BDP(B27,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B27,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B27,"BEST_ANALYST_RATING"))</f>
@@ -10250,7 +10250,7 @@
         <f>IF(OR(_xll.BDP(B27,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B27,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B27,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B27,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B27,"YLD_CNV_MID")),
 _xll.BDP(B27,"EQY_DVD_YLD_IND"))</f>
-        <v>4.1681596000000001</v>
+        <v>4.1252560999999996</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="C28" s="2">
         <f>_xll.BDP(B28,"PX_LAST")*1.00000001</f>
-        <v>88.500000884999992</v>
+        <v>88.240000882399983</v>
       </c>
       <c r="D28" s="1">
         <f>IF(OR(_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"BEST_ANALYST_RATING"))</f>
@@ -10275,13 +10275,13 @@
       </c>
       <c r="E28" s="1">
         <f>IF(OR(_xll.BDP(B28,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B28,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"BEST_TARGET_PRICE"))</f>
-        <v>106.98520660400391</v>
+        <v>106.75113677978516</v>
       </c>
       <c r="F28" s="1">
         <f>IF(OR(_xll.BDP(B28,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B28,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B28,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B28,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"YLD_CNV_MID")),
 _xll.BDP(B28,"EQY_DVD_YLD_IND"))</f>
-        <v>2.359448988676125</v>
+        <v>2.3685402472453667</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="C29" s="2">
         <f>_xll.BDP(B29,"PX_LAST")*1.00000001</f>
-        <v>61.000000609999994</v>
+        <v>61.500000614999998</v>
       </c>
       <c r="D29" s="1">
         <f>IF(OR(_xll.BDP(B29,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B29,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B29,"BEST_ANALYST_RATING"))</f>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="C30" s="2">
         <f>_xll.BDP(B30,"PX_LAST")*1.00000001</f>
-        <v>111.50000111499999</v>
+        <v>111.00000111</v>
       </c>
       <c r="D30" s="1">
         <f>IF(OR(_xll.BDP(B30,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B30,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B30,"BEST_ANALYST_RATING"))</f>
@@ -10360,21 +10360,21 @@
       </c>
       <c r="C31" s="2">
         <f>_xll.BDP(B31,"PX_LAST")*1.00000001</f>
-        <v>124.79000124789999</v>
+        <v>122.88000122879998</v>
       </c>
       <c r="D31" s="1">
         <f>IF(OR(_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"BEST_ANALYST_RATING"))</f>
-        <v>3.153846263885498</v>
+        <v>3.307692289352417</v>
       </c>
       <c r="E31" s="1">
         <f>IF(OR(_xll.BDP(B31,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B31,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"BEST_TARGET_PRICE"))</f>
-        <v>145.57666015625</v>
+        <v>142.13432312011719</v>
       </c>
       <c r="F31" s="1">
         <f>IF(OR(_xll.BDP(B31,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B31,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B31,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B31,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"YLD_CNV_MID")),
 _xll.BDP(B31,"EQY_DVD_YLD_IND"))</f>
-        <v>6.3353138481496662</v>
+        <v>6.4208983288457002</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C32" s="2">
         <f>_xll.BDP(B32,"PX_LAST")*1.00000001</f>
-        <v>176.25000176249998</v>
+        <v>169.25000169249998</v>
       </c>
       <c r="D32" s="1">
         <f>IF(OR(_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"BEST_ANALYST_RATING"))</f>
@@ -10405,7 +10405,7 @@
         <f>IF(OR(_xll.BDP(B32,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B32,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B32,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B32,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"YLD_CNV_MID")),
 _xll.BDP(B32,"EQY_DVD_YLD_IND"))</f>
-        <v>5.9343792402455202</v>
+        <v>6.1447560523073994</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="C34" s="2">
         <f>_xll.BDP(B34,"PX_LAST")*1.00000001</f>
-        <v>3.5000000349999998</v>
+        <v>3.7950000379499995</v>
       </c>
       <c r="D34" s="1">
         <f>IF(OR(_xll.BDP(B34,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B34,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B34,"BEST_ANALYST_RATING"))</f>
@@ -10467,7 +10467,7 @@
         <f>IF(OR(_xll.BDP(B34,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B34,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B34,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B34,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B34,"YLD_CNV_MID")),
 _xll.BDP(B34,"EQY_DVD_YLD_IND"))</f>
-        <v>9.4224853175027032</v>
+        <v>9.0600820360602903</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="C35" s="2">
         <f>_xll.BDP(B35,"PX_LAST")*1.00000001</f>
-        <v>56.500000564999993</v>
+        <v>57.600000575999999</v>
       </c>
       <c r="D35" s="1">
         <f>IF(OR(_xll.BDP(B35,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B35,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B35,"BEST_ANALYST_RATING"))</f>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="C36" s="2">
         <f>_xll.BDP(B36,"PX_LAST")*1.00000001</f>
-        <v>2909.5000290949997</v>
+        <v>2825.500028255</v>
       </c>
       <c r="D36" s="1">
         <f>IF(OR(_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"BEST_ANALYST_RATING"))</f>
@@ -10523,13 +10523,13 @@
       </c>
       <c r="E36" s="1">
         <f>IF(OR(_xll.BDP(B36,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B36,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"BEST_TARGET_PRICE"))</f>
-        <v>3572.2861328125</v>
+        <v>3557.086181640625</v>
       </c>
       <c r="F36" s="1">
         <f>IF(OR(_xll.BDP(B36,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B36,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B36,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B36,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"YLD_CNV_MID")),
 _xll.BDP(B36,"EQY_DVD_YLD_IND"))</f>
-        <v>6.4294309781674404</v>
+        <v>6.61829764643426</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="C37" s="2">
         <f>_xll.BDP(B37,"PX_LAST")*1.00000001</f>
-        <v>276.65000276649994</v>
+        <v>273.10000273100002</v>
       </c>
       <c r="D37" s="1">
         <f>IF(OR(_xll.BDP(B37,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B37,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B37,"BEST_ANALYST_RATING"))</f>
@@ -10560,7 +10560,7 @@
         <f>IF(OR(_xll.BDP(B37,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B37,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B37,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B37,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B37,"YLD_CNV_MID")),
 _xll.BDP(B37,"EQY_DVD_YLD_IND"))</f>
-        <v>11.32075499380967</v>
+        <v>11.424386950911552</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="C38" s="2">
         <f>_xll.BDP(B38,"PX_LAST")*1.00000001</f>
-        <v>374.00000373999995</v>
+        <v>378.600003786</v>
       </c>
       <c r="D38" s="1">
         <f>IF(OR(_xll.BDP(B38,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B38,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B38,"BEST_ANALYST_RATING"))</f>
@@ -10591,7 +10591,7 @@
         <f>IF(OR(_xll.BDP(B38,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B38,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B38,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B38,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B38,"YLD_CNV_MID")),
 _xll.BDP(B38,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3547523427041499</v>
+        <v>5.2826201796090855</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="C39" s="2">
         <f>_xll.BDP(B39,"PX_LAST")*1.00000001</f>
-        <v>6.2950000629499998</v>
+        <v>7.0500000704999994</v>
       </c>
       <c r="D39" s="1">
         <f>IF(OR(_xll.BDP(B39,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B39,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"BEST_ANALYST_RATING"))</f>
@@ -10622,7 +10622,7 @@
         <f>IF(OR(_xll.BDP(B39,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B39,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B39,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B39,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"YLD_CNV_MID")),
 _xll.BDP(B39,"EQY_DVD_YLD_IND"))</f>
-        <v>7.4185863007052353</v>
+        <v>11.054984722854906</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="C40" s="2">
         <f>_xll.BDP(B40,"PX_LAST")*1.00000001</f>
-        <v>197.20000197199997</v>
+        <v>206.00000205999999</v>
       </c>
       <c r="D40" s="1">
         <f>IF(OR(_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"BEST_ANALYST_RATING"))</f>
@@ -10647,13 +10647,13 @@
       </c>
       <c r="E40" s="1">
         <f>IF(OR(_xll.BDP(B40,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B40,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"BEST_TARGET_PRICE"))</f>
-        <v>227.81964111328125</v>
+        <v>226.81964111328125</v>
       </c>
       <c r="F40" s="1">
         <f>IF(OR(_xll.BDP(B40,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B40,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B40,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B40,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"YLD_CNV_MID")),
 _xll.BDP(B40,"EQY_DVD_YLD_IND"))</f>
-        <v>0.27855153807086802</v>
+        <v>0.26699029704899463</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C41" s="2">
         <f>_xll.BDP(B41,"PX_LAST")*1.00000001</f>
-        <v>73.100000730999994</v>
+        <v>72.850000728499992</v>
       </c>
       <c r="D41" s="1">
         <f>IF(OR(_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"BEST_ANALYST_RATING"))</f>
@@ -10678,13 +10678,13 @@
       </c>
       <c r="E41" s="1">
         <f>IF(OR(_xll.BDP(B41,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B41,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"BEST_TARGET_PRICE"))</f>
-        <v>95.887603759765625</v>
+        <v>96.111404418945313</v>
       </c>
       <c r="F41" s="1">
         <f>IF(OR(_xll.BDP(B41,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B41,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B41,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B41,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"YLD_CNV_MID")),
 _xll.BDP(B41,"EQY_DVD_YLD_IND"))</f>
-        <v>2.6538988470868117</v>
+        <v>2.6630062556217697</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="C42" s="2">
         <f>_xll.BDP(B42,"PX_LAST")*1.00000001</f>
-        <v>2.5580000255799997</v>
+        <v>2.5820000258199998</v>
       </c>
       <c r="D42" s="1">
         <f>IF(OR(_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"BEST_ANALYST_RATING"))</f>
@@ -10715,7 +10715,7 @@
         <f>IF(OR(_xll.BDP(B42,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B42,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B42,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B42,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"YLD_CNV_MID")),
 _xll.BDP(B42,"EQY_DVD_YLD_IND"))</f>
-        <v>10.569842886719371</v>
+        <v>10.45522026827315</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
@@ -10763,21 +10763,21 @@
       </c>
       <c r="C44" s="2">
         <f>_xll.BDP(B44,"PX_LAST")*1.00000001</f>
-        <v>60.050000600499992</v>
+        <v>60.150000601499997</v>
       </c>
       <c r="D44" s="1">
         <f>IF(OR(_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"BEST_ANALYST_RATING"))</f>
-        <v>3.4444444179534912</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="E44" s="1">
         <f>IF(OR(_xll.BDP(B44,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B44,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"BEST_TARGET_PRICE"))</f>
-        <v>62.652717590332031</v>
+        <v>65.5841064453125</v>
       </c>
       <c r="F44" s="1">
         <f>IF(OR(_xll.BDP(B44,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B44,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B44,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B44,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"YLD_CNV_MID")),
 _xll.BDP(B44,"EQY_DVD_YLD_IND"))</f>
-        <v>1.7485428015258688</v>
+        <v>1.7456358309497659</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="C45" s="2">
         <f>_xll.BDP(B45,"PX_LAST")*1.00000001</f>
-        <v>229.20000229199997</v>
+        <v>214.10000214099998</v>
       </c>
       <c r="D45" s="1">
         <f>IF(OR(_xll.BDP(B45,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B45,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B45,"BEST_ANALYST_RATING"))</f>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="E45" s="1">
         <f>IF(OR(_xll.BDP(B45,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B45,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B45,"BEST_TARGET_PRICE"))</f>
-        <v>274.83175659179687</v>
+        <v>270.40008544921875</v>
       </c>
       <c r="F45" s="1">
         <f>IF(OR(_xll.BDP(B45,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B45,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
@@ -10825,7 +10825,7 @@
       </c>
       <c r="C46" s="2">
         <f>_xll.BDP(B46,"PX_LAST")*1.00000001</f>
-        <v>7.2700000726999994</v>
+        <v>7.7700000776999989</v>
       </c>
       <c r="D46" s="1">
         <f>IF(OR(_xll.BDP(B46,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B46,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B46,"BEST_ANALYST_RATING"))</f>
@@ -10839,7 +10839,7 @@
         <f>IF(OR(_xll.BDP(B46,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B46,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B46,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B46,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B46,"YLD_CNV_MID")),
 _xll.BDP(B46,"EQY_DVD_YLD_IND"))</f>
-        <v>9.575006558445823</v>
+        <v>8.9588542702575449</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="0"/>
@@ -10856,7 +10856,7 @@
       </c>
       <c r="C47" s="2">
         <f>_xll.BDP(B47,"PX_LAST")*1.00000001</f>
-        <v>8780.0000877999992</v>
+        <v>8616.0000861600001</v>
       </c>
       <c r="D47" s="1">
         <f>IF(OR(_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"BEST_ANALYST_RATING"))</f>
@@ -10864,13 +10864,13 @@
       </c>
       <c r="E47" s="1">
         <f>IF(OR(_xll.BDP(B47,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B47,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"BEST_TARGET_PRICE"))</f>
-        <v>11203.3251953125</v>
+        <v>11163.2998046875</v>
       </c>
       <c r="F47" s="1">
         <f>IF(OR(_xll.BDP(B47,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B47,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B47,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B47,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"YLD_CNV_MID")),
 _xll.BDP(B47,"EQY_DVD_YLD_IND"))</f>
-        <v>10.124202370100273</v>
+        <v>10.312209842154132</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="C48" s="2">
         <f>_xll.BDP(B48,"PX_LAST")*1.00000001</f>
-        <v>907.50000907499998</v>
+        <v>868.00000867999995</v>
       </c>
       <c r="D48" s="1">
         <f>IF(OR(_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"BEST_ANALYST_RATING"))</f>
@@ -10901,7 +10901,7 @@
         <f>IF(OR(_xll.BDP(B48,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B48,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B48,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B48,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"YLD_CNV_MID")),
 _xll.BDP(B48,"EQY_DVD_YLD_IND"))</f>
-        <v>8.5950413223140494</v>
+        <v>8.9861751152073737</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="C49" s="2">
         <f>_xll.BDP(B49,"PX_LAST")*1.00000001</f>
-        <v>60.950000609500002</v>
+        <v>60.550000605499996</v>
       </c>
       <c r="D49" s="1">
         <f>IF(OR(_xll.BDP(B49,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B49,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B49,"BEST_ANALYST_RATING"))</f>
@@ -10926,7 +10926,7 @@
       </c>
       <c r="E49" s="1">
         <f>IF(OR(_xll.BDP(B49,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B49,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B49,"BEST_TARGET_PRICE"))</f>
-        <v>69.545455932617188</v>
+        <v>68.5</v>
       </c>
       <c r="F49" s="1">
         <f>IF(OR(_xll.BDP(B49,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B49,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
@@ -10949,7 +10949,7 @@
       </c>
       <c r="C50" s="2">
         <f>_xll.BDP(B50,"PX_LAST")*1.00000001</f>
-        <v>9.760000097599999</v>
+        <v>10.300000103</v>
       </c>
       <c r="D50" s="1">
         <f>IF(OR(_xll.BDP(B50,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B50,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B50,"BEST_ANALYST_RATING"))</f>
@@ -10963,7 +10963,7 @@
         <f>IF(OR(_xll.BDP(B50,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B50,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B50,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B50,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B50,"YLD_CNV_MID")),
 _xll.BDP(B50,"EQY_DVD_YLD_IND"))</f>
-        <v>7.6683724304792698</v>
+        <v>7.2737862762895595</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
@@ -10980,7 +10980,7 @@
       </c>
       <c r="C51" s="2">
         <f>_xll.BDP(B51,"PX_LAST")*1.00000001</f>
-        <v>6.0400000603999998E-2</v>
+        <v>5.9650000596499997E-2</v>
       </c>
       <c r="D51" s="1">
         <f>IF(OR(_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"BEST_ANALYST_RATING"))</f>
@@ -10994,7 +10994,7 @@
         <f>IF(OR(_xll.BDP(B51,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B51,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B51,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B51,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"YLD_CNV_MID")),
 _xll.BDP(B51,"EQY_DVD_YLD_IND"))</f>
-        <v>2.0885246531030197</v>
+        <v>2.126878194311923</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="C52" s="2">
         <f>_xll.BDP(B52,"PX_LAST")*1.00000001</f>
-        <v>57.100000570999995</v>
+        <v>55.400000553999995</v>
       </c>
       <c r="D52" s="1">
         <f>IF(OR(_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B52,"BEST_ANALYST_RATING"))</f>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="C53" s="2">
         <f>_xll.BDP(B53,"PX_LAST")*1.00000001</f>
-        <v>24.680000246799999</v>
+        <v>24.070000240699997</v>
       </c>
       <c r="D53" s="1">
         <f>IF(OR(_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B53,"BEST_ANALYST_RATING"))</f>
@@ -11056,7 +11056,7 @@
         <f>IF(OR(_xll.BDP(B53,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B53,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B53,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B53,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B53,"YLD_CNV_MID")),
 _xll.BDP(B53,"EQY_DVD_YLD_IND"))</f>
-        <v>17.635108299828893</v>
+        <v>18.030744298246326</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="C54" s="2">
         <f>_xll.BDP(B54,"PX_LAST")*1.00000001</f>
-        <v>17.650000176499997</v>
+        <v>17.5100001751</v>
       </c>
       <c r="D54" s="1">
         <f>IF(OR(_xll.BDP(B54,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B54,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B54,"BEST_ANALYST_RATING"))</f>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="C55" s="2">
         <f>_xll.BDP(B55,"PX_LAST")*1.00000001</f>
-        <v>123.59000123589999</v>
+        <v>123.63000123629999</v>
       </c>
       <c r="D55" s="1">
         <f>IF(OR(_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B55,"BEST_ANALYST_RATING"))</f>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="C56" s="2">
         <f>_xll.BDP(B56,"PX_LAST")*1.00000001</f>
-        <v>75.610000756099993</v>
+        <v>75.080000750799996</v>
       </c>
       <c r="D56" s="1">
         <f>IF(OR(_xll.BDP(B56,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B56,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B56,"BEST_ANALYST_RATING"))</f>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="C57" s="2">
         <f>_xll.BDP(B57,"PX_LAST")*1.00000001</f>
-        <v>106.50000106499999</v>
+        <v>107.20000107199999</v>
       </c>
       <c r="D57" s="1">
         <f>IF(OR(_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"BEST_ANALYST_RATING"))</f>
@@ -11180,7 +11180,7 @@
         <f>IF(OR(_xll.BDP(B57,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B57,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B57,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B57,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"YLD_CNV_MID")),
 _xll.BDP(B57,"EQY_DVD_YLD_IND"))</f>
-        <v>17.273576097105508</v>
+        <v>17.241379310344829</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
@@ -11197,15 +11197,15 @@
       </c>
       <c r="C58" s="2">
         <f>_xll.BDP(B58,"PX_LAST")*1.00000001</f>
-        <v>576.00000576000002</v>
+        <v>581.00000580999995</v>
       </c>
       <c r="D58" s="1">
         <f>IF(OR(_xll.BDP(B58,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B58,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B58,"BEST_ANALYST_RATING"))</f>
-        <v>3</v>
+        <v>3.6666667461395264</v>
       </c>
       <c r="E58" s="1">
         <f>IF(OR(_xll.BDP(B58,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B58,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B58,"BEST_TARGET_PRICE"))</f>
-        <v>640.523193359375</v>
+        <v>657.1898193359375</v>
       </c>
       <c r="F58" s="1">
         <f>IF(OR(_xll.BDP(B58,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B58,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
@@ -11228,7 +11228,7 @@
       </c>
       <c r="C59" s="2">
         <f>_xll.BDP(B59,"PX_LAST")*1.00000001</f>
-        <v>1.3285000132849998E-2</v>
+        <v>1.289500012895E-2</v>
       </c>
       <c r="D59" s="1">
         <f>IF(OR(_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"BEST_ANALYST_RATING"))</f>
@@ -11242,7 +11242,7 @@
         <f>IF(OR(_xll.BDP(B59,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B59,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B59,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B59,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"YLD_CNV_MID")),
 _xll.BDP(B59,"EQY_DVD_YLD_IND"))</f>
-        <v>1.8305386365750864</v>
+        <v>1.8844823885641158</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="C60" s="2">
         <f>_xll.BDP(B60,"PX_LAST")*1.00000001</f>
-        <v>158.00000158</v>
+        <v>157.5500015755</v>
       </c>
       <c r="D60" s="1">
         <f>IF(OR(_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B60,"BEST_ANALYST_RATING"))</f>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="C61" s="2">
         <f>_xll.BDP(B61,"PX_LAST")*1.00000001</f>
-        <v>102.81100102811</v>
+        <v>102.78500102784999</v>
       </c>
       <c r="D61" s="1">
         <f>IF(OR(_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"BEST_ANALYST_RATING"))</f>
@@ -11304,7 +11304,7 @@
         <f>IF(OR(_xll.BDP(B61,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B61,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B61,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B61,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"YLD_CNV_MID")),
 _xll.BDP(B61,"EQY_DVD_YLD_IND"))</f>
-        <v>3.8699335000000001</v>
+        <v>3.8800568000000002</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
@@ -11335,7 +11335,7 @@
         <f>IF(OR(_xll.BDP(B62,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B62,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B62,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B62,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B62,"YLD_CNV_MID")),
 _xll.BDP(B62,"EQY_DVD_YLD_IND"))</f>
-        <v>9.7100000000000009</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
@@ -11414,7 +11414,7 @@
       </c>
       <c r="C65" s="2">
         <f>_xll.BDP(B65,"PX_LAST")*1.00000001</f>
-        <v>107.00700107007</v>
+        <v>107.76700107766999</v>
       </c>
       <c r="D65" s="1">
         <f>IF(OR(_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"BEST_ANALYST_RATING"))</f>
@@ -11428,7 +11428,7 @@
         <f>IF(OR(_xll.BDP(B65,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B65,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B65,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B65,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"YLD_CNV_MID")),
 _xll.BDP(B65,"EQY_DVD_YLD_IND"))</f>
-        <v>6.6910068799999998</v>
+        <v>6.2895276600000001</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="C66" s="2">
         <f>_xll.BDP(B66,"PX_LAST")*1.00000001</f>
-        <v>103.500001035</v>
+        <v>103.30000103299999</v>
       </c>
       <c r="D66" s="1">
         <f>IF(OR(_xll.BDP(B66,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B66,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B66,"BEST_ANALYST_RATING"))</f>
@@ -11459,7 +11459,7 @@
         <f>IF(OR(_xll.BDP(B66,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B66,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B66,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B66,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B66,"YLD_CNV_MID")),
 _xll.BDP(B66,"EQY_DVD_YLD_IND"))</f>
-        <v>9.7799999999999994</v>
+        <v>9.89</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" ref="G66:G106" si="1">COUNTIF($B:$B,B66)</f>
@@ -11476,7 +11476,7 @@
       </c>
       <c r="C67" s="2">
         <f>_xll.BDP(B67,"PX_LAST")*1.00000001</f>
-        <v>106.50000106499999</v>
+        <v>106.4500010645</v>
       </c>
       <c r="D67" s="1">
         <f>IF(OR(_xll.BDP(B67,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B67,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B67,"BEST_ANALYST_RATING"))</f>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="C68" s="2">
         <f>_xll.BDP(B68,"PX_LAST")*1.00000001</f>
-        <v>101.79600101795999</v>
+        <v>102.42300102422999</v>
       </c>
       <c r="D68" s="1">
         <f>IF(OR(_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"BEST_ANALYST_RATING"))</f>
@@ -11521,7 +11521,7 @@
         <f>IF(OR(_xll.BDP(B68,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B68,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B68,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B68,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"YLD_CNV_MID")),
 _xll.BDP(B68,"EQY_DVD_YLD_IND"))</f>
-        <v>7.5428756000000003</v>
+        <v>7.3199671999999998</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="1"/>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="C70" s="2">
         <f>_xll.BDP(B70,"PX_LAST")*1.00000001</f>
-        <v>97.900010979000086</v>
+        <v>98.090000980900001</v>
       </c>
       <c r="D70" s="1">
         <f>IF(OR(_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"BEST_ANALYST_RATING"))</f>
@@ -11583,7 +11583,7 @@
         <f>IF(OR(_xll.BDP(B70,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B70,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B70,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B70,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"YLD_CNV_MID")),
 _xll.BDP(B70,"EQY_DVD_YLD_IND"))</f>
-        <v>9.09</v>
+        <v>8.86</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="1"/>
@@ -11614,7 +11614,7 @@
         <f>IF(OR(_xll.BDP(B71,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B71,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B71,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B71,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B71,"YLD_CNV_MID")),
 _xll.BDP(B71,"EQY_DVD_YLD_IND"))</f>
-        <v>18.55</v>
+        <v>75.88</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="1"/>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="C72" s="2">
         <f>_xll.BDP(B72,"PX_LAST")*1.00000001</f>
-        <v>98.625000986250001</v>
+        <v>98.790010987900089</v>
       </c>
       <c r="D72" s="1">
         <f>IF(OR(_xll.BDP(B72,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B72,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B72,"BEST_ANALYST_RATING"))</f>
@@ -11645,7 +11645,7 @@
         <f>IF(OR(_xll.BDP(B72,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B72,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B72,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B72,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B72,"YLD_CNV_MID")),
 _xll.BDP(B72,"EQY_DVD_YLD_IND"))</f>
-        <v>9.7201650528934813</v>
+        <v>9.5334802092849955</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="1"/>
@@ -11676,7 +11676,7 @@
         <f>IF(OR(_xll.BDP(B73,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B73,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B73,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B73,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B73,"YLD_CNV_MID")),
 _xll.BDP(B73,"EQY_DVD_YLD_IND"))</f>
-        <v>10.74</v>
+        <v>10.73</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="1"/>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="C74" s="2">
         <f>_xll.BDP(B74,"PX_LAST")*1.00000001</f>
-        <v>103.900001039</v>
+        <v>104.01000104009999</v>
       </c>
       <c r="D74" s="1">
         <f>IF(OR(_xll.BDP(B74,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B74,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B74,"BEST_ANALYST_RATING"))</f>
@@ -11707,7 +11707,7 @@
         <f>IF(OR(_xll.BDP(B74,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B74,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B74,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B74,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B74,"YLD_CNV_MID")),
 _xll.BDP(B74,"EQY_DVD_YLD_IND"))</f>
-        <v>8.93</v>
+        <v>8.92</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="1"/>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C75" s="2">
         <f>_xll.BDP(B75,"PX_LAST")*1.00000001</f>
-        <v>101.30000101299999</v>
+        <v>101.4800010148</v>
       </c>
       <c r="D75" s="1">
         <f>IF(OR(_xll.BDP(B75,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B75,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B75,"BEST_ANALYST_RATING"))</f>
@@ -11738,7 +11738,7 @@
         <f>IF(OR(_xll.BDP(B75,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B75,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B75,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B75,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B75,"YLD_CNV_MID")),
 _xll.BDP(B75,"EQY_DVD_YLD_IND"))</f>
-        <v>10.53</v>
+        <v>10.46</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="1"/>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="C76" s="2">
         <f>_xll.BDP(B76,"PX_LAST")*1.00000001</f>
-        <v>101.30000101299999</v>
+        <v>101.87000101869999</v>
       </c>
       <c r="D76" s="1">
         <f>IF(OR(_xll.BDP(B76,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B76,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B76,"BEST_ANALYST_RATING"))</f>
@@ -11769,7 +11769,7 @@
         <f>IF(OR(_xll.BDP(B76,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B76,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B76,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B76,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B76,"YLD_CNV_MID")),
 _xll.BDP(B76,"EQY_DVD_YLD_IND"))</f>
-        <v>10.65</v>
+        <v>10.51</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="1"/>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="C77" s="2">
         <f>_xll.BDP(B77,"PX_LAST")*1.00000001</f>
-        <v>107.95500107954999</v>
+        <v>108.05800108058</v>
       </c>
       <c r="D77" s="1">
         <f>IF(OR(_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"BEST_ANALYST_RATING"))</f>
@@ -11800,7 +11800,7 @@
         <f>IF(OR(_xll.BDP(B77,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B77,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B77,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B77,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"YLD_CNV_MID")),
 _xll.BDP(B77,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5886627999999998</v>
+        <v>4.5713976000000001</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="1"/>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="C78" s="2">
         <f>_xll.BDP(B78,"PX_LAST")*1.00000001</f>
-        <v>101.05100101050999</v>
+        <v>101.09200101091999</v>
       </c>
       <c r="D78" s="1">
         <f>IF(OR(_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"BEST_ANALYST_RATING"))</f>
@@ -11831,7 +11831,7 @@
         <f>IF(OR(_xll.BDP(B78,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B78,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B78,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B78,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"YLD_CNV_MID")),
 _xll.BDP(B78,"EQY_DVD_YLD_IND"))</f>
-        <v>4.1559474932053204</v>
+        <v>4.1497147060797213</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="1"/>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="C79" s="2">
         <f>_xll.BDP(B79,"PX_LAST")*1.00000001</f>
-        <v>102.25000102249999</v>
+        <v>102.34000102339999</v>
       </c>
       <c r="D79" s="1">
         <f>IF(OR(_xll.BDP(B79,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B79,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B79,"BEST_ANALYST_RATING"))</f>
@@ -11862,7 +11862,7 @@
         <f>IF(OR(_xll.BDP(B79,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B79,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B79,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B79,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B79,"YLD_CNV_MID")),
 _xll.BDP(B79,"EQY_DVD_YLD_IND"))</f>
-        <v>9.7100000000000009</v>
+        <v>9.64</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="1"/>
@@ -11893,7 +11893,7 @@
         <f>IF(OR(_xll.BDP(B80,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B80,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B80,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B80,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B80,"YLD_CNV_MID")),
 _xll.BDP(B80,"EQY_DVD_YLD_IND"))</f>
-        <v>10.199999999999999</v>
+        <v>10.29</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="1"/>
@@ -11924,7 +11924,7 @@
         <f>IF(OR(_xll.BDP(B81,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B81,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B81,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B81,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B81,"YLD_CNV_MID")),
 _xll.BDP(B81,"EQY_DVD_YLD_IND"))</f>
-        <v>8.35</v>
+        <v>8.36</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="1"/>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="C82" s="2">
         <f>_xll.BDP(B82,"PX_LAST")*1.00000001</f>
-        <v>99.650010996500086</v>
+        <v>99.640000996399991</v>
       </c>
       <c r="D82" s="1">
         <f>IF(OR(_xll.BDP(B82,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B82,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B82,"BEST_ANALYST_RATING"))</f>
@@ -11955,7 +11955,7 @@
         <f>IF(OR(_xll.BDP(B82,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B82,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B82,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B82,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B82,"YLD_CNV_MID")),
 _xll.BDP(B82,"EQY_DVD_YLD_IND"))</f>
-        <v>9.5085404187822178</v>
+        <v>9.5177316746089211</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="1"/>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="C83" s="2">
         <f>_xll.BDP(B83,"PX_LAST")*1.00000001</f>
-        <v>83.587000835870001</v>
+        <v>82.768000827679998</v>
       </c>
       <c r="D83" s="1">
         <f>IF(OR(_xll.BDP(B83,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B83,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B83,"BEST_ANALYST_RATING"))</f>
@@ -11986,7 +11986,7 @@
         <f>IF(OR(_xll.BDP(B83,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B83,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B83,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B83,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B83,"YLD_CNV_MID")),
 _xll.BDP(B83,"EQY_DVD_YLD_IND"))</f>
-        <v>25.024694833119774</v>
+        <v>25.872665300249142</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="1"/>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="C84" s="2">
         <f>_xll.BDP(B84,"PX_LAST")*1.00000001</f>
-        <v>108.68100108680999</v>
+        <v>108.71500108715</v>
       </c>
       <c r="D84" s="1">
         <f>IF(OR(_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"BEST_ANALYST_RATING"))</f>
@@ -12017,7 +12017,7 @@
         <f>IF(OR(_xll.BDP(B84,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B84,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B84,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B84,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"YLD_CNV_MID")),
 _xll.BDP(B84,"EQY_DVD_YLD_IND"))</f>
-        <v>5.1164299</v>
+        <v>5.1097834999999998</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="1"/>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="C85" s="2">
         <f>_xll.BDP(B85,"PX_LAST")*1.00000001</f>
-        <v>100.65000100650001</v>
+        <v>100.60000100599999</v>
       </c>
       <c r="D85" s="1">
         <f>IF(OR(_xll.BDP(B85,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B85,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B85,"BEST_ANALYST_RATING"))</f>
@@ -12048,7 +12048,7 @@
         <f>IF(OR(_xll.BDP(B85,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B85,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B85,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B85,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B85,"YLD_CNV_MID")),
 _xll.BDP(B85,"EQY_DVD_YLD_IND"))</f>
-        <v>20.65</v>
+        <v>9.56</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="1"/>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="C86" s="2">
         <f>_xll.BDP(B86,"PX_LAST")*1.00000001</f>
-        <v>21.110000211099997</v>
+        <v>21.050000210499999</v>
       </c>
       <c r="D86" s="1">
         <f>IF(OR(_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"BEST_ANALYST_RATING"))</f>
@@ -12079,7 +12079,7 @@
         <f>IF(OR(_xll.BDP(B86,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B86,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B86,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B86,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"YLD_CNV_MID")),
 _xll.BDP(B86,"EQY_DVD_YLD_IND"))</f>
-        <v>7.674088132488734</v>
+        <v>7.6959620179020032</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="1"/>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="C87" s="2">
         <f>_xll.BDP(B87,"PX_LAST")*1.00000001</f>
-        <v>12.000000119999999</v>
+        <v>12.0500001205</v>
       </c>
       <c r="D87" s="1">
         <f>IF(OR(_xll.BDP(B87,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B87,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B87,"BEST_ANALYST_RATING"))</f>
@@ -12110,7 +12110,7 @@
         <f>IF(OR(_xll.BDP(B87,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B87,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B87,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B87,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B87,"YLD_CNV_MID")),
 _xll.BDP(B87,"EQY_DVD_YLD_IND"))</f>
-        <v>9.6677501996358224</v>
+        <v>9.6276350535792439</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="1"/>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="C88" s="2">
         <f>_xll.BDP(B88,"PX_LAST")*1.00000001</f>
-        <v>13.160000131599999</v>
+        <v>13.110000131099998</v>
       </c>
       <c r="D88" s="1">
         <f>IF(OR(_xll.BDP(B88,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B88,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B88,"BEST_ANALYST_RATING"))</f>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="C89" s="2">
         <f>_xll.BDP(B89,"PX_LAST")*1.00000001</f>
-        <v>105.20700105206998</v>
+        <v>105.23300105233</v>
       </c>
       <c r="D89" s="1">
         <f>IF(OR(_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"BEST_ANALYST_RATING"))</f>
@@ -12172,7 +12172,7 @@
         <f>IF(OR(_xll.BDP(B89,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B89,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B89,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B89,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"YLD_CNV_MID")),
 _xll.BDP(B89,"EQY_DVD_YLD_IND"))</f>
-        <v>4.2797017817245901</v>
+        <v>4.2468654092382376</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="1"/>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="C90" s="2">
         <f>_xll.BDP(B90,"PX_LAST")*1.00000001</f>
-        <v>101.586501015865</v>
+        <v>101.30500101305</v>
       </c>
       <c r="D90" s="1">
         <f>IF(OR(_xll.BDP(B90,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B90,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B90,"BEST_ANALYST_RATING"))</f>
@@ -12203,7 +12203,7 @@
         <f>IF(OR(_xll.BDP(B90,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B90,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B90,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B90,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B90,"YLD_CNV_MID")),
 _xll.BDP(B90,"EQY_DVD_YLD_IND"))</f>
-        <v>3.949931403774579</v>
+        <v>4.2557935042127077</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="1"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="C91" s="2">
         <f>_xll.BDP(B91,"PX_LAST")*1.00000001</f>
-        <v>3.8400000383999995</v>
+        <v>3.8000000379999994</v>
       </c>
       <c r="D91" s="1">
         <f>IF(OR(_xll.BDP(B91,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B91,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B91,"BEST_ANALYST_RATING"))</f>
@@ -12234,7 +12234,7 @@
         <f>IF(OR(_xll.BDP(B91,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B91,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B91,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B91,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B91,"YLD_CNV_MID")),
 _xll.BDP(B91,"EQY_DVD_YLD_IND"))</f>
-        <v>3.3224288684626422</v>
+        <v>3.3574018039201436</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="1"/>
@@ -12251,21 +12251,21 @@
       </c>
       <c r="C92" s="2">
         <f>_xll.BDP(B92,"PX_LAST")*1.00000001</f>
-        <v>29.760000297600001</v>
+        <v>29.600000296000001</v>
       </c>
       <c r="D92" s="1">
         <f>IF(OR(_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"BEST_ANALYST_RATING"))</f>
-        <v>3.625</v>
+        <v>3.75</v>
       </c>
       <c r="E92" s="1">
         <f>IF(OR(_xll.BDP(B92,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B92,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"BEST_TARGET_PRICE"))</f>
-        <v>37.462532043457031</v>
+        <v>37.372226715087891</v>
       </c>
       <c r="F92" s="1">
         <f>IF(OR(_xll.BDP(B92,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B92,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B92,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B92,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"YLD_CNV_MID")),
 _xll.BDP(B92,"EQY_DVD_YLD_IND"))</f>
-        <v>23.268325744095311</v>
+        <v>23.37837863612819</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="1"/>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="C93" s="2">
         <f>_xll.BDP(B93,"PX_LAST")*1.00000001</f>
-        <v>106.24900106249</v>
+        <v>106.2900010629</v>
       </c>
       <c r="D93" s="1">
         <f>IF(OR(_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"BEST_ANALYST_RATING"))</f>
@@ -12296,7 +12296,7 @@
         <f>IF(OR(_xll.BDP(B93,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B93,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B93,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B93,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"YLD_CNV_MID")),
 _xll.BDP(B93,"EQY_DVD_YLD_IND"))</f>
-        <v>3.4329641</v>
+        <v>3.418374</v>
       </c>
       <c r="G93" s="1">
         <f t="shared" si="1"/>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="C94" s="2">
         <f>_xll.BDP(B94,"PX_LAST")*1.00000001</f>
-        <v>103.200001032</v>
+        <v>103.400001034</v>
       </c>
       <c r="D94" s="1">
         <f>IF(OR(_xll.BDP(B94,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B94,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B94,"BEST_ANALYST_RATING"))</f>
@@ -12327,7 +12327,7 @@
         <f>IF(OR(_xll.BDP(B94,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B94,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B94,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B94,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B94,"YLD_CNV_MID")),
 _xll.BDP(B94,"EQY_DVD_YLD_IND"))</f>
-        <v>10.27</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" si="1"/>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="C95" s="2">
         <f>_xll.BDP(B95,"PX_LAST")*1.00000001</f>
-        <v>99.600010996000094</v>
+        <v>99.690000996899997</v>
       </c>
       <c r="D95" s="1">
         <f>IF(OR(_xll.BDP(B95,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B95,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B95,"BEST_ANALYST_RATING"))</f>
@@ -12358,7 +12358,7 @@
         <f>IF(OR(_xll.BDP(B95,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B95,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B95,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B95,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B95,"YLD_CNV_MID")),
 _xll.BDP(B95,"EQY_DVD_YLD_IND"))</f>
-        <v>9.67</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="1"/>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="C96" s="2">
         <f>_xll.BDP(B96,"PX_LAST")*1.00000001</f>
-        <v>102.30000102299999</v>
+        <v>102.3900010239</v>
       </c>
       <c r="D96" s="1">
         <f>IF(OR(_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"BEST_ANALYST_RATING"))</f>
@@ -12389,7 +12389,7 @@
         <f>IF(OR(_xll.BDP(B96,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B96,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B96,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B96,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"YLD_CNV_MID")),
 _xll.BDP(B96,"EQY_DVD_YLD_IND"))</f>
-        <v>7.95</v>
+        <v>7.93</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="1"/>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="C97" s="2">
         <f>_xll.BDP(B97,"PX_LAST")*1.00000001</f>
-        <v>95.350010953500089</v>
+        <v>95.490010954900086</v>
       </c>
       <c r="D97" s="1">
         <f>IF(OR(_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B97,"BEST_ANALYST_RATING"))</f>
@@ -12420,7 +12420,7 @@
         <f>IF(OR(_xll.BDP(B97,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B97,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B97,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B97,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B97,"YLD_CNV_MID")),
 _xll.BDP(B97,"EQY_DVD_YLD_IND"))</f>
-        <v>8.24</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" si="1"/>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="C98" s="2">
         <f>_xll.BDP(B98,"PX_LAST")*1.00000001</f>
-        <v>88.899600888996005</v>
+        <v>88.799500887994995</v>
       </c>
       <c r="D98" s="1">
         <f>IF(OR(_xll.BDP(B98,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B98,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B98,"BEST_ANALYST_RATING"))</f>
@@ -12451,7 +12451,7 @@
         <f>IF(OR(_xll.BDP(B98,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B98,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B98,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B98,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B98,"YLD_CNV_MID")),
 _xll.BDP(B98,"EQY_DVD_YLD_IND"))</f>
-        <v>8.34</v>
+        <v>8.31</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" si="1"/>
@@ -12482,7 +12482,7 @@
         <f>IF(OR(_xll.BDP(B99,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B99,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B99,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B99,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B99,"YLD_CNV_MID")),
 _xll.BDP(B99,"EQY_DVD_YLD_IND"))</f>
-        <v>8.9499999999999993</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" si="1"/>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="C100" s="2">
         <f>_xll.BDP(B100,"PX_LAST")*1.00000001</f>
-        <v>102.50000102499999</v>
+        <v>102.800001028</v>
       </c>
       <c r="D100" s="1">
         <f>IF(OR(_xll.BDP(B100,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B100,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B100,"BEST_ANALYST_RATING"))</f>
@@ -12513,7 +12513,7 @@
         <f>IF(OR(_xll.BDP(B100,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B100,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B100,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B100,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B100,"YLD_CNV_MID")),
 _xll.BDP(B100,"EQY_DVD_YLD_IND"))</f>
-        <v>9.89</v>
+        <v>9.73</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="1"/>
@@ -12530,7 +12530,7 @@
       </c>
       <c r="C101" s="2">
         <f>_xll.BDP(B101,"PX_LAST")*1.00000001</f>
-        <v>103.78700103787</v>
+        <v>103.39900103398999</v>
       </c>
       <c r="D101" s="1">
         <f>IF(OR(_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"BEST_ANALYST_RATING"))</f>
@@ -12544,7 +12544,7 @@
         <f>IF(OR(_xll.BDP(B101,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B101,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B101,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B101,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"YLD_CNV_MID")),
 _xll.BDP(B101,"EQY_DVD_YLD_IND"))</f>
-        <v>4.0417495233555796</v>
+        <v>4.4090728225574578</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" si="1"/>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="C102" s="2">
         <f>_xll.BDP(B102,"PX_LAST")*1.00000001</f>
-        <v>101.0500010105</v>
+        <v>101.0400010104</v>
       </c>
       <c r="D102" s="1">
         <f>IF(OR(_xll.BDP(B102,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B102,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B102,"BEST_ANALYST_RATING"))</f>
@@ -12575,7 +12575,7 @@
         <f>IF(OR(_xll.BDP(B102,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B102,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B102,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B102,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B102,"YLD_CNV_MID")),
 _xll.BDP(B102,"EQY_DVD_YLD_IND"))</f>
-        <v>9.3000000000000007</v>
+        <v>9.26</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" si="1"/>
@@ -12592,7 +12592,7 @@
       </c>
       <c r="C103" s="2">
         <f>_xll.BDP(B103,"PX_LAST")*1.00000001</f>
-        <v>101.6500010165</v>
+        <v>101.64000101639999</v>
       </c>
       <c r="D103" s="1">
         <f>IF(OR(_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"BEST_ANALYST_RATING"))</f>
@@ -12606,7 +12606,7 @@
         <f>IF(OR(_xll.BDP(B103,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B103,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B103,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B103,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"YLD_CNV_MID")),
 _xll.BDP(B103,"EQY_DVD_YLD_IND"))</f>
-        <v>9.7899999999999991</v>
+        <v>9.76</v>
       </c>
       <c r="G103" s="1">
         <f t="shared" si="1"/>
@@ -12637,7 +12637,7 @@
         <f>IF(OR(_xll.BDP(B104,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B104,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B104,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B104,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B104,"YLD_CNV_MID")),
 _xll.BDP(B104,"EQY_DVD_YLD_IND"))</f>
-        <v>3.0143771076175456</v>
+        <v>3.0203147993079833</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" si="1"/>
@@ -12654,11 +12654,11 @@
       </c>
       <c r="C105" s="2">
         <f>_xll.BDP(B105,"PX_LAST")*1.00000001</f>
-        <v>74.050000740499996</v>
+        <v>73.100000730999994</v>
       </c>
       <c r="D105" s="1">
         <f>IF(OR(_xll.BDP(B105,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B105,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B105,"BEST_ANALYST_RATING"))</f>
-        <v>3.6571428775787354</v>
+        <v>3.6764705181121826</v>
       </c>
       <c r="E105" s="1">
         <f>IF(OR(_xll.BDP(B105,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B105,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B105,"BEST_TARGET_PRICE"))</f>
@@ -12668,7 +12668,7 @@
         <f>IF(OR(_xll.BDP(B105,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B105,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B105,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B105,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B105,"YLD_CNV_MID")),
 _xll.BDP(B105,"EQY_DVD_YLD_IND"))</f>
-        <v>3.7162162162162162</v>
+        <v>3.7619699042407659</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" si="1"/>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="C106" s="2">
         <f>_xll.BDP(B106,"PX_LAST")*1.00000001</f>
-        <v>256.95000256949999</v>
+        <v>253.95000253949996</v>
       </c>
       <c r="D106" s="1">
         <f>IF(OR(_xll.BDP(B106,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B106,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B106,"BEST_ANALYST_RATING"))</f>
@@ -12699,7 +12699,7 @@
         <f>IF(OR(_xll.BDP(B106,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B106,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B106,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B106,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B106,"YLD_CNV_MID")),
 _xll.BDP(B106,"EQY_DVD_YLD_IND"))</f>
-        <v>3.1906614043833215</v>
+        <v>3.2289820079799711</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" si="1"/>

--- a/sberapi/DB/quotes.xlsx
+++ b/sberapi/DB/quotes.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Calc" sheetId="70" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1266,7 +1266,7 @@
         <tr r="F49" s="70"/>
       </tp>
       <tp>
-        <v>106.29900000000001</v>
+        <v>106.34</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -1510,7 +1510,7 @@
         <tr r="E44" s="70"/>
       </tp>
       <tp>
-        <v>0.31666666269302368</v>
+        <v>0.34999999403953552</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>WZR CN Equity</stp>
@@ -1666,7 +1666,7 @@
         <tr r="A141" s="70"/>
       </tp>
       <tp>
-        <v>236.35</v>
+        <v>236.98</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGN US Equity</stp>
@@ -1686,7 +1686,7 @@
         <tr r="D33" s="70"/>
       </tp>
       <tp>
-        <v>100.012</v>
+        <v>99.994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US25152RYE79 Corp</stp>
@@ -1781,7 +1781,7 @@
         <tr r="E17" s="70"/>
       </tp>
       <tp>
-        <v>112.176</v>
+        <v>112.596</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -1810,7 +1810,7 @@
         <tr r="F84" s="70"/>
       </tp>
       <tp>
-        <v>109.084</v>
+        <v>109.17</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -1830,7 +1830,7 @@
         <tr r="D21" s="70"/>
       </tp>
       <tp>
-        <v>142.13432312011719</v>
+        <v>141.64179992675781</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -1852,7 +1852,7 @@
         <tr r="E86" s="70"/>
       </tp>
       <tp>
-        <v>5.4393749237060547</v>
+        <v>5.445624828338623</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VEON US Equity</stp>
@@ -1882,7 +1882,7 @@
         <tr r="E108" s="70"/>
       </tp>
       <tp>
-        <v>13.08</v>
+        <v>13.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HHPA2AH LX Equity</stp>
@@ -1920,7 +1920,7 @@
         <tr r="A89" s="70"/>
       </tp>
       <tp>
-        <v>103.79</v>
+        <v>103.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7J9 Corp</stp>
@@ -1938,7 +1938,7 @@
         <tr r="A119" s="70"/>
       </tp>
       <tp>
-        <v>103.108</v>
+        <v>103.24</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -2008,7 +2008,7 @@
         <tr r="A61" s="70"/>
       </tp>
       <tp>
-        <v>106.79</v>
+        <v>106.878</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -2017,7 +2017,7 @@
         <tr r="C22" s="70"/>
       </tp>
       <tp>
-        <v>83.122</v>
+        <v>82.08</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0493579238 Corp</stp>
@@ -2037,7 +2037,7 @@
         <tr r="E13" s="70"/>
       </tp>
       <tp>
-        <v>101</v>
+        <v>101.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXMQ8 Corp</stp>
@@ -2115,7 +2115,7 @@
         <tr r="E121" s="70"/>
       </tp>
       <tp>
-        <v>99.74</v>
+        <v>99.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0889402029 Corp</stp>
@@ -2144,7 +2144,7 @@
         <tr r="F77" s="70"/>
       </tp>
       <tp>
-        <v>108.23099999999999</v>
+        <v>108.383</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -2163,7 +2163,7 @@
         <tr r="F82" s="70"/>
       </tp>
       <tp>
-        <v>101.64</v>
+        <v>101.913</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -2191,7 +2191,7 @@
         <tr r="A113" s="70"/>
       </tp>
       <tp>
-        <v>108.443</v>
+        <v>108.461</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAG54 Corp</stp>
@@ -2296,7 +2296,7 @@
         <tr r="A78" s="70"/>
       </tp>
       <tp>
-        <v>101.23</v>
+        <v>101.24</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX5W4 Corp</stp>
@@ -2335,7 +2335,7 @@
         <tr r="A102" s="70"/>
       </tp>
       <tp>
-        <v>99.75</v>
+        <v>100</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTM28 Corp</stp>
@@ -2395,7 +2395,7 @@
         <tr r="F65" s="70"/>
       </tp>
       <tp>
-        <v>107.83</v>
+        <v>107.807</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -2414,7 +2414,7 @@
         <tr r="E65" s="70"/>
       </tp>
       <tp>
-        <v>97.699700000000007</v>
+        <v>97.7</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JP2S9 Corp</stp>
@@ -2432,7 +2432,7 @@
         <tr r="A108" s="70"/>
       </tp>
       <tp>
-        <v>99.66</v>
+        <v>99.656000000000006</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71656MAF68 Corp</stp>
@@ -2451,7 +2451,7 @@
         <tr r="F75" s="70"/>
       </tp>
       <tp>
-        <v>101.48</v>
+        <v>101.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB75 Corp</stp>
@@ -2492,7 +2492,7 @@
         <tr r="F72" s="70"/>
       </tp>
       <tp>
-        <v>98.99</v>
+        <v>99</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0884734343 Corp</stp>
@@ -2563,7 +2563,7 @@
         <tr r="E32" s="70"/>
       </tp>
       <tp>
-        <v>103.53400000000001</v>
+        <v>103.554</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -2612,7 +2612,7 @@
         <tr r="D58" s="70"/>
       </tp>
       <tp>
-        <v>102.99</v>
+        <v>103.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0H6 Corp</stp>
@@ -2621,7 +2621,7 @@
         <tr r="C119" s="70"/>
       </tp>
       <tp>
-        <v>1.1846837115787112</v>
+        <v>1.1817337521382139</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGN US Equity</stp>
@@ -2651,7 +2651,7 @@
         <tr r="F76" s="70"/>
       </tp>
       <tp>
-        <v>101.45</v>
+        <v>101.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB67 Corp</stp>
@@ -2779,7 +2779,7 @@
         <tr r="D92" s="70"/>
       </tp>
       <tp>
-        <v>101.19</v>
+        <v>101.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -2788,7 +2788,7 @@
         <tr r="C117" s="70"/>
       </tp>
       <tp>
-        <v>97.7</v>
+        <v>97.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9V1 Corp</stp>
@@ -2797,7 +2797,7 @@
         <tr r="C121" s="70"/>
       </tp>
       <tp>
-        <v>102.75</v>
+        <v>102.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXJE0 Corp</stp>
@@ -2828,7 +2828,7 @@
         <tr r="E35" s="70"/>
       </tp>
       <tp>
-        <v>103.41</v>
+        <v>103.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWU98 Corp</stp>
@@ -2915,7 +2915,7 @@
         <tr r="A22" s="70"/>
       </tp>
       <tp>
-        <v>102.828</v>
+        <v>102.874</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -2993,7 +2993,7 @@
         <tr r="E77" s="70"/>
       </tp>
       <tp>
-        <v>105.348</v>
+        <v>105.331</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -3190,7 +3190,7 @@
         <tr r="E141" s="70"/>
       </tp>
       <tp>
-        <v>177.25</v>
+        <v>177.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0088543193 Corp</stp>
@@ -3219,7 +3219,7 @@
         <tr r="F27" s="70"/>
       </tp>
       <tp>
-        <v>99.39</v>
+        <v>99.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRCJ6 Corp</stp>
@@ -3239,7 +3239,7 @@
         <tr r="E45" s="70"/>
       </tp>
       <tp>
-        <v>102.09</v>
+        <v>102.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -3268,7 +3268,7 @@
         <tr r="F90" s="70"/>
       </tp>
       <tp>
-        <v>101.25</v>
+        <v>101.43980000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US65504LAM90 Corp</stp>
@@ -3558,7 +3558,7 @@
         <tr r="C30" s="70"/>
       </tp>
       <tp>
-        <v>101.205</v>
+        <v>101.277</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -3618,7 +3618,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>4.3694170223252105</v>
+        <v>4.3350403895801692</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -3681,7 +3681,7 @@
         <tr r="D112" s="70"/>
       </tp>
       <tp>
-        <v>4.8061311</v>
+        <v>4.7871842000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319822752 Corp</stp>
@@ -3702,7 +3702,7 @@
         <tr r="D95" s="70"/>
       </tp>
       <tp>
-        <v>3.669008587041374</v>
+        <v>1.872553630522463</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSN RM Equity</stp>
@@ -3743,7 +3743,7 @@
         <tr r="D124" s="70"/>
       </tp>
       <tp>
-        <v>4.5824335000000005</v>
+        <v>4.5571042000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405766384 Corp</stp>
@@ -3783,7 +3783,7 @@
         <tr r="F155" s="70"/>
       </tp>
       <tp>
-        <v>1.5449885999999999</v>
+        <v>1.5441672</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CH0205819441 Corp</stp>
@@ -3794,7 +3794,7 @@
         <tr r="F153" s="70"/>
       </tp>
       <tp>
-        <v>8.3912764344310915</v>
+        <v>7.8461924984209901</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1071551474 Corp</stp>
@@ -3844,7 +3844,7 @@
         <tr r="D109" s="70"/>
       </tp>
       <tp>
-        <v>7.1996434999999996</v>
+        <v>6.8877040999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -3855,7 +3855,7 @@
         <tr r="F68" s="70"/>
       </tp>
       <tp>
-        <v>37.96</v>
+        <v>38.17</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>FXI US Equity</stp>
@@ -3894,7 +3894,7 @@
         <tr r="D139" s="70"/>
       </tp>
       <tp>
-        <v>3.6646938000000002</v>
+        <v>3.6293060000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0588433267 Corp</stp>
@@ -3925,7 +3925,7 @@
         <tr r="D94" s="70"/>
       </tp>
       <tp>
-        <v>1.8701299444421546</v>
+        <v>1.8623901412577069</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MON US Equity</stp>
@@ -3936,7 +3936,7 @@
         <tr r="F146" s="70"/>
       </tp>
       <tp>
-        <v>3.259141418626843</v>
+        <v>3.1900407738825658</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROG EB Equity</stp>
@@ -3947,7 +3947,7 @@
         <tr r="F106" s="70"/>
       </tp>
       <tp>
-        <v>5.3078818999999999</v>
+        <v>5.1804493000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -3958,7 +3958,7 @@
         <tr r="F24" s="70"/>
       </tp>
       <tp>
-        <v>122.31</v>
+        <v>121.48</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GLD US Equity</stp>
@@ -3987,7 +3987,7 @@
         <tr r="D128" s="70"/>
       </tp>
       <tp>
-        <v>5.2645012299999996</v>
+        <v>5.2636728699999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1400710726 Corp</stp>
@@ -3998,7 +3998,7 @@
         <tr r="F107" s="70"/>
       </tp>
       <tp>
-        <v>3.650182</v>
+        <v>3.6111184000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0524610812 Corp</stp>
@@ -4019,7 +4019,7 @@
         <tr r="D62" s="70"/>
       </tp>
       <tp>
-        <v>8.77</v>
+        <v>8.7799999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS5F6 Corp</stp>
@@ -4030,7 +4030,7 @@
         <tr r="F81" s="70"/>
       </tp>
       <tp>
-        <v>5.5137289117884958</v>
+        <v>5.5823156087794761</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US456837AE31 Corp</stp>
@@ -4061,7 +4061,7 @@
         <tr r="D133" s="70"/>
       </tp>
       <tp>
-        <v>5.8455034000000001</v>
+        <v>5.8230411000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0979891925 Corp</stp>
@@ -4072,7 +4072,7 @@
         <tr r="F110" s="70"/>
       </tp>
       <tp>
-        <v>43.209258664319989</v>
+        <v>40.77535006702194</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1117280625 Corp</stp>
@@ -4083,7 +4083,7 @@
         <tr r="F129" s="70"/>
       </tp>
       <tp>
-        <v>4.0352596815579691</v>
+        <v>4.0196314467578436</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1032750165 Corp</stp>
@@ -4094,7 +4094,7 @@
         <tr r="F125" s="70"/>
       </tp>
       <tp>
-        <v>8.01</v>
+        <v>7.99</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -4105,7 +4105,7 @@
         <tr r="F97" s="70"/>
       </tp>
       <tp>
-        <v>1.7892643293736996</v>
+        <v>1.7862594579808586</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VTBR RX Equity</stp>
@@ -4116,7 +4116,7 @@
         <tr r="F131" s="70"/>
       </tp>
       <tp>
-        <v>2.4724295048222005</v>
+        <v>2.4579263254421027</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XLE US Equity</stp>
@@ -4147,7 +4147,7 @@
         <tr r="D126" s="70"/>
       </tp>
       <tp>
-        <v>4.4397541</v>
+        <v>4.4382726000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0643183220 Corp</stp>
@@ -4158,7 +4158,7 @@
         <tr r="F124" s="70"/>
       </tp>
       <tp>
-        <v>5.7120315760992701</v>
+        <v>5.6903277702122832</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0191754729 Corp</stp>
@@ -4169,7 +4169,7 @@
         <tr r="F127" s="70"/>
       </tp>
       <tp>
-        <v>8.23</v>
+        <v>8.16</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0GN9A7 Corp</stp>
@@ -4210,7 +4210,7 @@
         <tr r="D155" s="70"/>
       </tp>
       <tp>
-        <v>0.53958930000000005</v>
+        <v>1.5436527</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0299183250 Corp</stp>
@@ -4221,7 +4221,7 @@
         <tr r="F151" s="70"/>
       </tp>
       <tp>
-        <v>67.790000000000006</v>
+        <v>68.19</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XLE US Equity</stp>
@@ -4230,7 +4230,7 @@
         <tr r="C144" s="70"/>
       </tp>
       <tp>
-        <v>37.21</v>
+        <v>37.58</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TBT US Equity</stp>
@@ -4248,7 +4248,7 @@
         <tr r="A145" s="70"/>
       </tp>
       <tp>
-        <v>6.5390000000000004E-2</v>
+        <v>6.5500000000000003E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VTBR RX Equity</stp>
@@ -4266,7 +4266,7 @@
         <tr r="A123" s="70"/>
       </tp>
       <tp>
-        <v>6.6049927000000004</v>
+        <v>6.5421297999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USN54468AF52 Corp</stp>
@@ -4298,7 +4298,7 @@
         <tr r="F63" s="70"/>
       </tp>
       <tp>
-        <v>3.6311592392474257</v>
+        <v>3.611181679901291</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>FXI US Equity</stp>
@@ -4309,7 +4309,7 @@
         <tr r="F149" s="70"/>
       </tp>
       <tp>
-        <v>98.475080889908057</v>
+        <v>98.776996948381253</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USU77583AA79 Corp</stp>
@@ -4330,7 +4330,7 @@
         <tr r="D130" s="70"/>
       </tp>
       <tp>
-        <v>5.7230688000000001</v>
+        <v>5.6838066000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319813769 Corp</stp>
@@ -4371,7 +4371,7 @@
         <tr r="F138" s="70"/>
       </tp>
       <tp>
-        <v>115.5</v>
+        <v>116.02</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MON US Equity</stp>
@@ -4380,7 +4380,7 @@
         <tr r="C146" s="70"/>
       </tp>
       <tp>
-        <v>251.6</v>
+        <v>257.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROG EB Equity</stp>
@@ -4409,7 +4409,7 @@
         <tr r="D107" s="70"/>
       </tp>
       <tp>
-        <v>3.3188439000000001</v>
+        <v>3.3141715</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0779213460 Corp</stp>
@@ -4420,7 +4420,7 @@
         <tr r="F128" s="70"/>
       </tp>
       <tp>
-        <v>16.722869200000002</v>
+        <v>17.541155</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0925043100 Corp</stp>
@@ -4482,7 +4482,7 @@
         <tr r="D110" s="70"/>
       </tp>
       <tp>
-        <v>3.0486452000000002</v>
+        <v>3.0463469999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0849020556 Corp</stp>
@@ -4493,7 +4493,7 @@
         <tr r="F133" s="70"/>
       </tp>
       <tp>
-        <v>5.0131880999999998</v>
+        <v>5.0048053000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533921299 Corp</stp>
@@ -4522,7 +4522,7 @@
         <tr r="A146" s="70"/>
       </tp>
       <tp>
-        <v>5.5983720000000003</v>
+        <v>5.5337931000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1508914691 Corp</stp>
@@ -4533,7 +4533,7 @@
         <tr r="F109" s="70"/>
       </tp>
       <tp>
-        <v>5.5848404</v>
+        <v>5.6115934000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0579851949 Corp</stp>
@@ -4564,7 +4564,7 @@
         <tr r="D136" s="70"/>
       </tp>
       <tp>
-        <v>5.0880169000000004</v>
+        <v>5.0650351999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405775377 Corp</stp>
@@ -4575,7 +4575,7 @@
         <tr r="F139" s="70"/>
       </tp>
       <tp>
-        <v>3.4069004999999999</v>
+        <v>3.3975195</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0555493203 Corp</stp>
@@ -4586,7 +4586,7 @@
         <tr r="F142" s="70"/>
       </tp>
       <tp>
-        <v>4.8450047999999999</v>
+        <v>4.8451126999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0934609016 Corp</stp>
@@ -4607,7 +4607,7 @@
         <tr r="D79" s="70"/>
       </tp>
       <tp>
-        <v>59</v>
+        <v>58.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TUNG LN Equity</stp>
@@ -4625,7 +4625,7 @@
         <tr r="A131" s="70"/>
       </tp>
       <tp>
-        <v>320.14999999999998</v>
+        <v>319.35000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSN RM Equity</stp>
@@ -4672,7 +4672,7 @@
         <tr r="D67" s="70"/>
       </tp>
       <tp>
-        <v>7.73</v>
+        <v>7.71</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -4693,7 +4693,7 @@
         <tr r="D6" s="70"/>
       </tp>
       <tp>
-        <v>113.29</v>
+        <v>112.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MOEX RM Equity</stp>
@@ -4702,7 +4702,7 @@
         <tr r="C103" s="70"/>
       </tp>
       <tp>
-        <v>0.97506924679404816</v>
+        <v>0.96618356964386087</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CSSMI SW Equity</stp>
@@ -4713,7 +4713,7 @@
         <tr r="F150" s="70"/>
       </tp>
       <tp>
-        <v>9.36</v>
+        <v>9.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRJU8 Corp</stp>
@@ -4790,7 +4790,7 @@
         <tr r="C104" s="70"/>
       </tp>
       <tp>
-        <v>24.24</v>
+        <v>24.06</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MAIL LI Equity</stp>
@@ -4799,7 +4799,7 @@
         <tr r="C147" s="70"/>
       </tp>
       <tp>
-        <v>10.130000000000001</v>
+        <v>10.24</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW1P8 Corp</stp>
@@ -4809,8 +4809,8 @@
         <tr r="F94" s="70"/>
         <tr r="F94" s="70"/>
       </tp>
-      <tp>
-        <v>10.220000000000001</v>
+      <tp t="s">
+        <v>#N/A N/A</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9T5 Corp</stp>
@@ -4818,10 +4818,9 @@
         <stp>[quotes.xlsx]Calc!R80C6</stp>
         <tr r="F80" s="70"/>
         <tr r="F80" s="70"/>
-        <tr r="F80" s="70"/>
-      </tp>
-      <tp>
-        <v>73.3</v>
+      </tp>
+      <tp>
+        <v>75.7</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NOVN VX Equity</stp>
@@ -4881,7 +4880,7 @@
         <tr r="D3" s="70"/>
       </tp>
       <tp>
-        <v>3.3485897256946311</v>
+        <v>3.2629480447305745</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>486 HK Equity</stp>
@@ -4901,7 +4900,7 @@
         <tr r="A103" s="70"/>
       </tp>
       <tp>
-        <v>3.81</v>
+        <v>3.91</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>486 HK Equity</stp>
@@ -4979,7 +4978,7 @@
         <tr r="D63" s="70"/>
       </tp>
       <tp>
-        <v>5.7452408000000004</v>
+        <v>5.7019840000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -5000,7 +4999,7 @@
         <tr r="F147" s="70"/>
       </tp>
       <tp>
-        <v>3.0251216483546477</v>
+        <v>2.9811667032226778</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NESN SW Equity</stp>
@@ -5011,7 +5010,7 @@
         <tr r="F104" s="70"/>
       </tp>
       <tp>
-        <v>4.7470660000000002</v>
+        <v>4.6845080000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -5022,7 +5021,7 @@
         <tr r="F8" s="70"/>
       </tp>
       <tp>
-        <v>6.3907173999999998</v>
+        <v>6.2354221000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -5033,7 +5032,7 @@
         <tr r="F3" s="70"/>
       </tp>
       <tp>
-        <v>8.48</v>
+        <v>8.19</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -5044,7 +5043,7 @@
         <tr r="F70" s="70"/>
       </tp>
       <tp>
-        <v>10.41</v>
+        <v>10.37</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW0S4 Corp</stp>
@@ -5055,7 +5054,7 @@
         <tr r="F69" s="70"/>
       </tp>
       <tp>
-        <v>3.7517053206002728</v>
+        <v>3.6327608982826951</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NOVN VX Equity</stp>
@@ -5095,7 +5094,7 @@
         <tr r="D73" s="70"/>
       </tp>
       <tp>
-        <v>4.8107458000000003</v>
+        <v>4.8267253999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0767473852 Corp</stp>
@@ -5106,7 +5105,7 @@
         <tr r="F6" s="70"/>
       </tp>
       <tp>
-        <v>36.76</v>
+        <v>36.65</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KORS US Equity</stp>
@@ -5124,7 +5123,7 @@
         <tr r="A91" s="70"/>
       </tp>
       <tp>
-        <v>6.7790624312283718</v>
+        <v>6.8388244241661829</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MOEX RM Equity</stp>
@@ -5135,7 +5134,7 @@
         <tr r="F103" s="70"/>
       </tp>
       <tp>
-        <v>90.25</v>
+        <v>91.08</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CSSMI SW Equity</stp>
@@ -5144,7 +5143,7 @@
         <tr r="C150" s="70"/>
       </tp>
       <tp>
-        <v>9.4600000000000009</v>
+        <v>9.5500000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWWW7 Corp</stp>
@@ -5174,7 +5173,7 @@
         <tr r="A37" s="70"/>
       </tp>
       <tp>
-        <v>56.9</v>
+        <v>56.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMAZ RX Equity</stp>
@@ -5222,7 +5221,7 @@
         <tr r="D72" s="70"/>
       </tp>
       <tp>
-        <v>9.3000000000000007</v>
+        <v>9.8000000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMG LI Equity</stp>
@@ -5289,7 +5288,7 @@
         <tr r="F58" s="70"/>
       </tp>
       <tp>
-        <v>573</v>
+        <v>590</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SVAV RX Equity</stp>
@@ -5298,7 +5297,7 @@
         <tr r="C58" s="70"/>
       </tp>
       <tp>
-        <v>4.5833334922790527</v>
+        <v>4.6521739959716797</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGN US Equity</stp>
@@ -5329,7 +5328,7 @@
         <tr r="D5" s="70"/>
       </tp>
       <tp>
-        <v>62.55</v>
+        <v>61.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LXFT US Equity</stp>
@@ -5338,7 +5337,7 @@
         <tr r="C49" s="70"/>
       </tp>
       <tp>
-        <v>3.4018347000000002</v>
+        <v>3.3884409</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -5388,7 +5387,7 @@
         <tr r="F45" s="70"/>
       </tp>
       <tp>
-        <v>227</v>
+        <v>221.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DIXY RX Equity</stp>
@@ -5417,7 +5416,7 @@
         <tr r="D85" s="70"/>
       </tp>
       <tp>
-        <v>2.2116401208140863</v>
+        <v>9.3841953606302866</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -5428,7 +5427,7 @@
         <tr r="F28" s="70"/>
       </tp>
       <tp>
-        <v>93.2</v>
+        <v>95.16</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -5542,7 +5541,7 @@
         <tr r="D82" s="70"/>
       </tp>
       <tp>
-        <v>6.98</v>
+        <v>6.99</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NMTP RX Equity</stp>
@@ -5551,7 +5550,7 @@
         <tr r="C39" s="70"/>
       </tp>
       <tp>
-        <v>11.126052481787545</v>
+        <v>11.141969581189244</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NMTP RX Equity</stp>
@@ -5572,7 +5571,7 @@
         <tr r="D84" s="70"/>
       </tp>
       <tp>
-        <v>23.08</v>
+        <v>23.38</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>YNDX US Equity</stp>
@@ -5622,7 +5621,7 @@
         <tr r="D141" s="70"/>
       </tp>
       <tp>
-        <v>3.1548611007220604</v>
+        <v>3.139622526348762</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GILD US Equity</stp>
@@ -5633,7 +5632,7 @@
         <tr r="F1" s="70"/>
       </tp>
       <tp>
-        <v>1023</v>
+        <v>1020</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -5642,7 +5641,7 @@
         <tr r="C7" s="70"/>
       </tp>
       <tp>
-        <v>6.08E-2</v>
+        <v>6.3950000000000007E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MRKV RM Equity</stp>
@@ -5651,7 +5650,7 @@
         <tr r="C51" s="70"/>
       </tp>
       <tp>
-        <v>2.095394799988227</v>
+        <v>1.9937402791750263</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MRKV RM Equity</stp>
@@ -5671,7 +5670,7 @@
         <tr r="A45" s="70"/>
       </tp>
       <tp>
-        <v>36.830867767333984</v>
+        <v>36.704414367675781</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -5733,7 +5732,7 @@
         <tr r="D90" s="70"/>
       </tp>
       <tp>
-        <v>9070</v>
+        <v>8885</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -5742,7 +5741,7 @@
         <tr r="C11" s="70"/>
       </tp>
       <tp>
-        <v>7.7308518480953072</v>
+        <v>7.5191459956758937</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -5753,7 +5752,7 @@
         <tr r="F86" s="70"/>
       </tp>
       <tp>
-        <v>20.954999999999998</v>
+        <v>21.545000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -5762,7 +5761,7 @@
         <tr r="C86" s="70"/>
       </tp>
       <tp>
-        <v>4.1715544140194325</v>
+        <v>4.2584128908448227</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -5792,7 +5791,7 @@
         <tr r="D27" s="70"/>
       </tp>
       <tp>
-        <v>1191</v>
+        <v>1225.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -5801,7 +5800,7 @@
         <tr r="C4" s="70"/>
       </tp>
       <tp>
-        <v>266.55</v>
+        <v>273.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MTSS RX Equity</stp>
@@ -5819,7 +5818,7 @@
         <tr r="A35" s="70"/>
       </tp>
       <tp>
-        <v>8.5832672848213463</v>
+        <v>8.8562719694530685</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GLTR LI Equity</stp>
@@ -5830,7 +5829,7 @@
         <tr r="F46" s="70"/>
       </tp>
       <tp>
-        <v>7.73</v>
+        <v>7.86</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GLTR LI Equity</stp>
@@ -5839,7 +5838,7 @@
         <tr r="C46" s="70"/>
       </tp>
       <tp>
-        <v>11.705121276660833</v>
+        <v>11.409764404073671</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MTSS RX Equity</stp>
@@ -5926,7 +5925,7 @@
         <tr r="A21" s="70"/>
       </tp>
       <tp>
-        <v>1.8250905355170248</v>
+        <v>1.8480585633382021</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US25152RYE79 Corp</stp>
@@ -5956,7 +5955,7 @@
         <tr r="D66" s="70"/>
       </tp>
       <tp>
-        <v>6.10917527408873</v>
+        <v>6.1068110421715147</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -5967,7 +5966,7 @@
         <tr r="F31" s="70"/>
       </tp>
       <tp>
-        <v>123</v>
+        <v>129.19999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -5976,7 +5975,7 @@
         <tr r="C31" s="70"/>
       </tp>
       <tp>
-        <v>6.3511448052093273</v>
+        <v>6.9333330790201817</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -5987,7 +5986,7 @@
         <tr r="F32" s="70"/>
       </tp>
       <tp>
-        <v>29.495000000000001</v>
+        <v>29.36</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -5996,7 +5995,7 @@
         <tr r="C92" s="70"/>
       </tp>
       <tp>
-        <v>156</v>
+        <v>149.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -6005,7 +6004,7 @@
         <tr r="C32" s="70"/>
       </tp>
       <tp>
-        <v>23.461603920304949</v>
+        <v>23.569482548685102</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -6016,7 +6015,7 @@
         <tr r="F92" s="70"/>
       </tp>
       <tp>
-        <v>5.0252704000000001</v>
+        <v>4.9115628000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -6027,7 +6026,7 @@
         <tr r="F5" s="70"/>
       </tp>
       <tp>
-        <v>3.5846995091394862</v>
+        <v>3.5105244925393833</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
@@ -6047,7 +6046,7 @@
         <tr r="A28" s="70"/>
       </tp>
       <tp>
-        <v>274.5</v>
+        <v>280.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
@@ -6087,7 +6086,7 @@
         <tr r="D61" s="70"/>
       </tp>
       <tp>
-        <v>123.47</v>
+        <v>122.24</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHAU LN Equity</stp>
@@ -6096,7 +6095,7 @@
         <tr r="C55" s="70"/>
       </tp>
       <tp>
-        <v>13.769941225860622</v>
+        <v>13.382292941656468</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -6107,7 +6106,7 @@
         <tr r="F4" s="70"/>
       </tp>
       <tp>
-        <v>4.0469777999999996</v>
+        <v>4.0419638000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -6118,7 +6117,7 @@
         <tr r="F25" s="70"/>
       </tp>
       <tp>
-        <v>857.5</v>
+        <v>848.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -6136,7 +6135,7 @@
         <tr r="A33" s="70"/>
       </tp>
       <tp>
-        <v>9.0962099125364428</v>
+        <v>9.1926929876252217</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -6157,7 +6156,7 @@
         <tr r="F43" s="70"/>
       </tp>
       <tp>
-        <v>9.243148615253304</v>
+        <v>9.2401420076666074</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0884734343 Corp</stp>
@@ -6168,7 +6167,7 @@
         <tr r="F72" s="70"/>
       </tp>
       <tp>
-        <v>0.19</v>
+        <v>0.185</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>WZR CN Equity</stp>
@@ -6177,7 +6176,7 @@
         <tr r="C43" s="70"/>
       </tp>
       <tp>
-        <v>10.48</v>
+        <v>10.59</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB67 Corp</stp>
@@ -6188,7 +6187,7 @@
         <tr r="F76" s="70"/>
       </tp>
       <tp>
-        <v>2850</v>
+        <v>2915.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -6207,7 +6206,7 @@
         <tr r="E150" s="70"/>
       </tp>
       <tp>
-        <v>6.5591020694493158</v>
+        <v>6.4139941690962097</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -6218,7 +6217,7 @@
         <tr r="F36" s="70"/>
       </tp>
       <tp>
-        <v>5.3280121253059525</v>
+        <v>5.4117052471121267</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -6240,7 +6239,7 @@
         <tr r="E145" s="70"/>
       </tp>
       <tp>
-        <v>200.45</v>
+        <v>197.35</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -6249,7 +6248,7 @@
         <tr r="C40" s="70"/>
       </tp>
       <tp>
-        <v>9.6</v>
+        <v>9.5500000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7J9 Corp</stp>
@@ -6260,7 +6259,7 @@
         <tr r="F120" s="70"/>
       </tp>
       <tp>
-        <v>16.18</v>
+        <v>9.57</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTM28 Corp</stp>
@@ -6271,7 +6270,7 @@
         <tr r="F71" s="70"/>
       </tp>
       <tp>
-        <v>4.3144999999999998</v>
+        <v>4.5644999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -6307,7 +6306,7 @@
         <tr r="A44" s="70"/>
       </tp>
       <tp>
-        <v>5.6582541619221569</v>
+        <v>5.3539269855059262</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -6328,7 +6327,7 @@
         <tr r="D93" s="70"/>
       </tp>
       <tp>
-        <v>23.96</v>
+        <v>22.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNCP RM Equity</stp>
@@ -6337,7 +6336,7 @@
         <tr r="C53" s="70"/>
       </tp>
       <tp>
-        <v>10.499952832625931</v>
+        <v>10.4390482338288</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -6348,7 +6347,7 @@
         <tr r="F42" s="70"/>
       </tp>
       <tp>
-        <v>2.5710000000000002</v>
+        <v>2.585</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -6357,7 +6356,7 @@
         <tr r="C42" s="70"/>
       </tp>
       <tp>
-        <v>18.11352317440689</v>
+        <v>19.169611981395278</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNCP RM Equity</stp>
@@ -6398,7 +6397,7 @@
         <tr r="D100" s="70"/>
       </tp>
       <tp>
-        <v>9.3699999999999992</v>
+        <v>8.77</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXMQ8 Corp</stp>
@@ -6409,7 +6408,7 @@
         <tr r="F102" s="70"/>
       </tp>
       <tp>
-        <v>65.930000000000007</v>
+        <v>66.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GILD US Equity</stp>
@@ -6418,7 +6417,7 @@
         <tr r="C1" s="70"/>
       </tp>
       <tp>
-        <v>10.45</v>
+        <v>10.67</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB75 Corp</stp>
@@ -6429,7 +6428,7 @@
         <tr r="F75" s="70"/>
       </tp>
       <tp>
-        <v>2.0848756790161134</v>
+        <v>2.0437799715528304</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -6440,7 +6439,7 @@
         <tr r="F7" s="70"/>
       </tp>
       <tp>
-        <v>378</v>
+        <v>377</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MVID RX Equity</stp>
@@ -6449,7 +6448,7 @@
         <tr r="C38" s="70"/>
       </tp>
       <tp>
-        <v>5.2910052910052912</v>
+        <v>5.3050397877984086</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MVID RX Equity</stp>
@@ -6460,7 +6459,7 @@
         <tr r="F38" s="70"/>
       </tp>
       <tp>
-        <v>23.2947998046875</v>
+        <v>23.561466217041016</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MAIL LI Equity</stp>
@@ -6471,7 +6470,7 @@
         <tr r="E147" s="70"/>
       </tp>
       <tp>
-        <v>18.5</v>
+        <v>18.353174603174605</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
@@ -6482,7 +6481,7 @@
         <tr r="F57" s="70"/>
       </tp>
       <tp>
-        <v>4.7911546154162803</v>
+        <v>4.7101447547691455</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VEON US Equity</stp>
@@ -6493,7 +6492,7 @@
         <tr r="F12" s="70"/>
       </tp>
       <tp>
-        <v>4.07</v>
+        <v>4.1399999999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VEON US Equity</stp>
@@ -6502,7 +6501,7 @@
         <tr r="C12" s="70"/>
       </tp>
       <tp>
-        <v>100</v>
+        <v>100.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
@@ -6511,7 +6510,7 @@
         <tr r="C57" s="70"/>
       </tp>
       <tp>
-        <v>6.2236971199999997</v>
+        <v>6.2300630899999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -6522,7 +6521,7 @@
         <tr r="F65" s="70"/>
       </tp>
       <tp>
-        <v>5.9040774000000003</v>
+        <v>5.8981690000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAG54 Corp</stp>
@@ -6533,7 +6532,7 @@
         <tr r="F108" s="70"/>
       </tp>
       <tp>
-        <v>9.5</v>
+        <v>9.61</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWG05 Corp</stp>
@@ -6544,7 +6543,7 @@
         <tr r="F85" s="70"/>
       </tp>
       <tp>
-        <v>80.680000305175781</v>
+        <v>80.839996337890625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NESN SW Equity</stp>
@@ -6555,7 +6554,7 @@
         <tr r="E104" s="70"/>
       </tp>
       <tp>
-        <v>4.0618359000000002</v>
+        <v>4.0318094000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -6566,7 +6565,7 @@
         <tr r="F22" s="70"/>
       </tp>
       <tp>
-        <v>25.678840126076174</v>
+        <v>26.746994134754143</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0493579238 Corp</stp>
@@ -6608,7 +6607,7 @@
         <tr r="A52" s="70"/>
       </tp>
       <tp>
-        <v>1.5999999642372131</v>
+        <v>1.5831134210790367</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -6619,7 +6618,7 @@
         <tr r="F14" s="70"/>
       </tp>
       <tp>
-        <v>3.75</v>
+        <v>3.8149999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -6628,7 +6627,7 @@
         <tr r="C14" s="70"/>
       </tp>
       <tp>
-        <v>9.3841482172127613</v>
+        <v>9.3428782707195133</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0889402029 Corp</stp>
@@ -6639,7 +6638,7 @@
         <tr r="F82" s="70"/>
       </tp>
       <tp>
-        <v>2.6740179975471521</v>
+        <v>2.6269465906844403</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -6659,7 +6658,7 @@
         <tr r="A15" s="70"/>
       </tp>
       <tp>
-        <v>72.55</v>
+        <v>73.849999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -6668,7 +6667,7 @@
         <tr r="C41" s="70"/>
       </tp>
       <tp>
-        <v>4.5386699999999998</v>
+        <v>4.5131622</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -6688,7 +6687,7 @@
         <tr r="A60" s="70"/>
       </tp>
       <tp>
-        <v>4.3567020000000003</v>
+        <v>4.2712161999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -6699,7 +6698,7 @@
         <tr r="F23" s="70"/>
       </tp>
       <tp>
-        <v>6.6474045000000004</v>
+        <v>6.6476677999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71656MAF68 Corp</stp>
@@ -6710,7 +6709,7 @@
         <tr r="F113" s="70"/>
       </tp>
       <tp>
-        <v>8.4700000000000006</v>
+        <v>8.48</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JP2S9 Corp</stp>
@@ -6730,7 +6729,7 @@
         <tr r="A1" s="70"/>
       </tp>
       <tp>
-        <v>10.62</v>
+        <v>10.78</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -6739,7 +6738,7 @@
         <tr r="C17" s="70"/>
       </tp>
       <tp>
-        <v>9.9107640825432242</v>
+        <v>10.199747445758236</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -6750,7 +6749,7 @@
         <tr r="F47" s="70"/>
       </tp>
       <tp>
-        <v>8538</v>
+        <v>8711</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -6759,7 +6758,7 @@
         <tr r="C47" s="70"/>
       </tp>
       <tp>
-        <v>7.6661580250986114</v>
+        <v>7.552374603575811</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -6770,7 +6769,7 @@
         <tr r="F17" s="70"/>
       </tp>
       <tp>
-        <v>1.0832382988358848</v>
+        <v>1.0764872386165112</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>QIWI US Equity</stp>
@@ -6781,7 +6780,7 @@
         <tr r="F20" s="70"/>
       </tp>
       <tp>
-        <v>5.0326697999999999</v>
+        <v>5.0126793999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -6801,7 +6800,7 @@
         <tr r="A56" s="70"/>
       </tp>
       <tp>
-        <v>17.54</v>
+        <v>17.649999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>QIWI US Equity</stp>
@@ -6830,7 +6829,7 @@
         <tr r="D116" s="70"/>
       </tp>
       <tp>
-        <v>4.4652627000000003</v>
+        <v>4.4248912000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -6841,7 +6840,7 @@
         <tr r="F26" s="70"/>
       </tp>
       <tp>
-        <v>9.7890292541890211</v>
+        <v>9.6666663885116577</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGRO LI Equity</stp>
@@ -6901,7 +6900,7 @@
         <tr r="F34" s="70"/>
       </tp>
       <tp>
-        <v>11.85</v>
+        <v>12</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AGRO LI Equity</stp>
@@ -6910,7 +6909,7 @@
         <tr r="C87" s="70"/>
       </tp>
       <tp>
-        <v>61.7</v>
+        <v>60.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AQUA RM Equity</stp>
@@ -6919,7 +6918,7 @@
         <tr r="C29" s="70"/>
       </tp>
       <tp>
-        <v>2.0091277718507046</v>
+        <v>1.908158649433394</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TGKA RX Equity</stp>
@@ -6930,7 +6929,7 @@
         <tr r="F59" s="70"/>
       </tp>
       <tp>
-        <v>1.2095E-2</v>
+        <v>1.2725E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TGKA RX Equity</stp>
@@ -6948,7 +6947,7 @@
         <tr r="A54" s="70"/>
       </tp>
       <tp>
-        <v>9.94</v>
+        <v>9.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0H6 Corp</stp>
@@ -6996,7 +6995,7 @@
         <tr r="D102" s="70"/>
       </tp>
       <tp>
-        <v>9.41</v>
+        <v>10.26</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXJE0 Corp</stp>
@@ -7007,7 +7006,7 @@
         <tr r="F100" s="70"/>
       </tp>
       <tp>
-        <v>8.9499999999999993</v>
+        <v>8.93</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -7018,7 +7017,7 @@
         <tr r="F117" s="70"/>
       </tp>
       <tp>
-        <v>8.06</v>
+        <v>8.02</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9V1 Corp</stp>
@@ -7029,7 +7028,7 @@
         <tr r="F121" s="70"/>
       </tp>
       <tp>
-        <v>583.4</v>
+        <v>597.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -7038,7 +7037,7 @@
         <tr r="C18" s="70"/>
       </tp>
       <tp>
-        <v>5.3682487725040922</v>
+        <v>4.9219687875150058</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -7049,7 +7048,7 @@
         <tr r="F13" s="70"/>
       </tp>
       <tp>
-        <v>1.7355371112665854</v>
+        <v>1.6813449997058194</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -7069,7 +7068,7 @@
         <tr r="A19" s="70"/>
       </tp>
       <tp>
-        <v>8.2927667240512903</v>
+        <v>8.1024955732901081</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -7080,7 +7079,7 @@
         <tr r="F18" s="70"/>
       </tp>
       <tp>
-        <v>60.5</v>
+        <v>62.45</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -7089,7 +7088,7 @@
         <tr r="C44" s="70"/>
       </tp>
       <tp>
-        <v>3216</v>
+        <v>3332</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -7108,7 +7107,7 @@
         <tr r="F30" s="70"/>
       </tp>
       <tp>
-        <v>4.1233046468287533</v>
+        <v>4.1089899119938265</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -7147,7 +7146,7 @@
         <tr r="D108" s="70"/>
       </tp>
       <tp>
-        <v>4.2910489113380414</v>
+        <v>4.0683852020357838</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US65504LAM90 Corp</stp>
@@ -7167,7 +7166,7 @@
         <tr r="A36" s="70"/>
       </tp>
       <tp>
-        <v>4.0528608999999998</v>
+        <v>4.0555376000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0088543193 Corp</stp>
@@ -7187,7 +7186,7 @@
         <tr r="A40" s="70"/>
       </tp>
       <tp>
-        <v>7.6</v>
+        <v>7.65</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HMSG LI Equity</stp>
@@ -7205,7 +7204,7 @@
         <tr r="A48" s="70"/>
       </tp>
       <tp>
-        <v>3.7383550876065303</v>
+        <v>3.713921394223481</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HMSG LI Equity</stp>
@@ -7235,7 +7234,7 @@
         <tr r="D120" s="70"/>
       </tp>
       <tp>
-        <v>10.199999999999999</v>
+        <v>10.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MHPC LI Equity</stp>
@@ -7271,7 +7270,7 @@
         <tr r="A87" s="70"/>
       </tp>
       <tp>
-        <v>7.3450979064492623</v>
+        <v>7.2737862762895595</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MHPC LI Equity</stp>
@@ -7292,7 +7291,7 @@
         <tr r="F54" s="70"/>
       </tp>
       <tp>
-        <v>4.1438985032694902</v>
+        <v>4.1529363950878215</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -7303,7 +7302,7 @@
         <tr r="F89" s="70"/>
       </tp>
       <tp>
-        <v>17.015000000000001</v>
+        <v>17</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHAG LN Equity</stp>
@@ -7321,7 +7320,7 @@
         <tr r="A59" s="70"/>
       </tp>
       <tp>
-        <v>9.5299999999999994</v>
+        <v>9.48</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -7332,7 +7331,7 @@
         <tr r="F116" s="70"/>
       </tp>
       <tp>
-        <v>8.31</v>
+        <v>8.18</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRCJ6 Corp</stp>
@@ -7401,7 +7400,7 @@
         <tr r="A20" s="70"/>
       </tp>
       <tp>
-        <v>75.75</v>
+        <v>75.55</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHPD LN Equity</stp>
@@ -7420,7 +7419,7 @@
         <tr r="D119" s="70"/>
       </tp>
       <tp>
-        <v>9.75</v>
+        <v>9.82</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWU98 Corp</stp>
@@ -7431,7 +7430,7 @@
         <tr r="F66" s="70"/>
       </tp>
       <tp>
-        <v>54.8</v>
+        <v>55.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNC RM Equity</stp>
@@ -7459,7 +7458,7 @@
         <tr r="A14" s="70"/>
       </tp>
       <tp>
-        <v>0.49532954157753423</v>
+        <v>0.49674073685268394</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -7480,7 +7479,7 @@
         <tr r="F60" s="70"/>
       </tp>
       <tp>
-        <v>151.80000000000001</v>
+        <v>150.19999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>URKA RX Equity</stp>
@@ -7489,7 +7488,7 @@
         <tr r="C60" s="70"/>
       </tp>
       <tp>
-        <v>17.600000000000001</v>
+        <v>17.55</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -7528,7 +7527,7 @@
         <tr r="E103" s="70"/>
       </tp>
       <tp>
-        <v>79.5</v>
+        <v>79.711540222167969</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NOVN VX Equity</stp>
@@ -7539,7 +7538,7 @@
         <tr r="E105" s="70"/>
       </tp>
       <tp>
-        <v>3.8592693000000002</v>
+        <v>3.8421007999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -7570,7 +7569,7 @@
         <tr r="D113" s="70"/>
       </tp>
       <tp>
-        <v>4.5</v>
+        <v>4.4285712242126465</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>486 HK Equity</stp>
@@ -7590,7 +7589,7 @@
         <tr r="A137" s="70"/>
       </tp>
       <tp>
-        <v>103.38500000000001</v>
+        <v>103.40900000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -7728,7 +7727,7 @@
         <tr r="D106" s="70"/>
       </tp>
       <tp>
-        <v>111.694</v>
+        <v>111.755</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319822752 Corp</stp>
@@ -7833,7 +7832,7 @@
         <tr r="A73" s="70"/>
       </tp>
       <tp>
-        <v>95.99</v>
+        <v>96.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -7862,7 +7861,7 @@
         <tr r="E139" s="70"/>
       </tp>
       <tp>
-        <v>100.505</v>
+        <v>100.616</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405766384 Corp</stp>
@@ -7901,7 +7900,7 @@
         <tr r="F68" s="70"/>
       </tp>
       <tp>
-        <v>102.723</v>
+        <v>103.548</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -7952,7 +7951,7 @@
         <tr r="E101" s="70"/>
       </tp>
       <tp>
-        <v>104.97</v>
+        <v>105.03</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -7992,7 +7991,7 @@
         <tr r="D131" s="70"/>
       </tp>
       <tp>
-        <v>94.5</v>
+        <v>95.863</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1071551474 Corp</stp>
@@ -8039,7 +8038,7 @@
         <tr r="F111" s="70"/>
       </tp>
       <tp>
-        <v>97.28</v>
+        <v>96.86</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CH0355509487 Corp</stp>
@@ -8118,7 +8117,7 @@
         <tr r="A153" s="70"/>
       </tp>
       <tp>
-        <v>110.254</v>
+        <v>110.378</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0588433267 Corp</stp>
@@ -8174,7 +8173,7 @@
         <tr r="E102" s="70"/>
       </tp>
       <tp>
-        <v>101.313</v>
+        <v>101.125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US456837AE31 Corp</stp>
@@ -8192,7 +8191,7 @@
         <tr r="C107" s="70"/>
       </tp>
       <tp>
-        <v>109.738</v>
+        <v>109.854</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0524610812 Corp</stp>
@@ -8260,7 +8259,7 @@
         <tr r="F6" s="70"/>
       </tp>
       <tp>
-        <v>106.84</v>
+        <v>106.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWBF6 Corp</stp>
@@ -8298,7 +8297,7 @@
         <tr r="F154" s="70"/>
       </tp>
       <tp>
-        <v>43.942</v>
+        <v>43.96</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1117280625 Corp</stp>
@@ -8307,7 +8306,7 @@
         <tr r="C129" s="70"/>
       </tp>
       <tp>
-        <v>102.55800000000001</v>
+        <v>102.58199999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1032750165 Corp</stp>
@@ -8316,7 +8315,7 @@
         <tr r="C125" s="70"/>
       </tp>
       <tp>
-        <v>114.13200000000001</v>
+        <v>114.258</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0979891925 Corp</stp>
@@ -8432,7 +8431,7 @@
         <tr r="F137" s="70"/>
       </tp>
       <tp>
-        <v>131.42599999999999</v>
+        <v>131.70699999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0191754729 Corp</stp>
@@ -8498,7 +8497,7 @@
         <tr r="F134" s="70"/>
       </tp>
       <tp>
-        <v>104.943</v>
+        <v>105.17100000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USN54468AF52 Corp</stp>
@@ -8507,7 +8506,7 @@
         <tr r="C154" s="70"/>
       </tp>
       <tp>
-        <v>100.21299999999999</v>
+        <v>100.16</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0299183250 Corp</stp>
@@ -8612,7 +8611,7 @@
         <tr r="E143" s="70"/>
       </tp>
       <tp>
-        <v>22.542999999999999</v>
+        <v>22.501999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USU77583AA79 Corp</stp>
@@ -8687,7 +8686,7 @@
         <tr r="E125" s="70"/>
       </tp>
       <tp>
-        <v>104.706</v>
+        <v>104.869</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319813769 Corp</stp>
@@ -8762,7 +8761,7 @@
         <tr r="A135" s="70"/>
       </tp>
       <tp>
-        <v>77.637</v>
+        <v>76.069999999999993</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0925043100 Corp</stp>
@@ -8771,7 +8770,7 @@
         <tr r="C143" s="70"/>
       </tp>
       <tp>
-        <v>107.617</v>
+        <v>107.616</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0779213460 Corp</stp>
@@ -8850,7 +8849,7 @@
         <tr r="E26" s="70"/>
       </tp>
       <tp>
-        <v>4.851250171661377</v>
+        <v>4.9728569984436035</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>486 HK Equity</stp>
@@ -8911,7 +8910,7 @@
         <tr r="F155" s="70"/>
       </tp>
       <tp>
-        <v>100.461</v>
+        <v>100.496</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533921299 Corp</stp>
@@ -8987,7 +8986,7 @@
         <tr r="D149" s="70"/>
       </tp>
       <tp>
-        <v>99.613</v>
+        <v>99.867000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1508914691 Corp</stp>
@@ -8996,7 +8995,7 @@
         <tr r="C109" s="70"/>
       </tp>
       <tp>
-        <v>100.542</v>
+        <v>100.452</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0579851949 Corp</stp>
@@ -9033,7 +9032,7 @@
         <tr r="A127" s="70"/>
       </tp>
       <tp>
-        <v>88.500900000000001</v>
+        <v>89.6999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0GN9A7 Corp</stp>
@@ -9091,7 +9090,7 @@
         <tr r="C152" s="70"/>
       </tp>
       <tp>
-        <v>106.93899999999999</v>
+        <v>107.036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405775377 Corp</stp>
@@ -9100,7 +9099,7 @@
         <tr r="C139" s="70"/>
       </tp>
       <tp>
-        <v>114.29</v>
+        <v>114.312</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0555493203 Corp</stp>
@@ -9197,7 +9196,7 @@
         <tr r="F80" s="70"/>
       </tp>
       <tp>
-        <v>103.3</v>
+        <v>103.29</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW1P8 Corp</stp>
@@ -9216,7 +9215,7 @@
         <tr r="F94" s="70"/>
       </tp>
       <tp>
-        <v>98.85</v>
+        <v>98.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9T5 Corp</stp>
@@ -9314,7 +9313,7 @@
         <tr r="A70" s="70"/>
       </tp>
       <tp>
-        <v>103.74</v>
+        <v>103.85</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -9450,7 +9449,7 @@
         <tr r="E94" s="70"/>
       </tp>
       <tp>
-        <v>102.7</v>
+        <v>102.65</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWWW7 Corp</stp>
@@ -9480,7 +9479,7 @@
         <tr r="E67" s="70"/>
       </tp>
       <tp>
-        <v>97.236999999999995</v>
+        <v>97.396000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -9509,7 +9508,7 @@
         <tr r="E76" s="70"/>
       </tp>
       <tp>
-        <v>106.792</v>
+        <v>107.036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -9518,7 +9517,7 @@
         <tr r="C3" s="70"/>
       </tp>
       <tp>
-        <v>102.62</v>
+        <v>102.955</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -9596,7 +9595,7 @@
         <tr r="F70" s="70"/>
       </tp>
       <tp>
-        <v>111.5</v>
+        <v>111.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0767473852 Corp</stp>
@@ -9605,7 +9604,7 @@
         <tr r="C6" s="70"/>
       </tp>
       <tp>
-        <v>98.39</v>
+        <v>98.600009999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -10066,7 +10065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10077,7 +10076,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10096,7 +10095,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2">
-        <v>65.930000659300006</v>
+        <v>66.2500006625</v>
       </c>
       <c r="D1" s="2">
         <v>4.0344829559326172</v>
@@ -10105,7 +10104,7 @@
         <v>79.052635192871094</v>
       </c>
       <c r="F1">
-        <v>3.1548611007220604</v>
+        <v>3.139622526348762</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -10119,7 +10118,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>97.237000972369984</v>
+        <v>97.39600097396</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -10128,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5.7452408000000004</v>
+        <v>5.7019840000000004</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -10142,7 +10141,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>106.79200106792</v>
+        <v>107.03600107036</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -10151,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>6.3907173999999998</v>
+        <v>6.2354221000000001</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -10165,7 +10164,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>1191.00001191</v>
+        <v>1225.500012255</v>
       </c>
       <c r="D4" s="2">
         <v>3.5</v>
@@ -10174,7 +10173,7 @@
         <v>1839.0594482421875</v>
       </c>
       <c r="F4" s="1">
-        <v>13.769941225860622</v>
+        <v>13.382292941656468</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -10188,7 +10187,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>112.17600112176</v>
+        <v>112.59600112596</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -10197,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5.0252704000000001</v>
+        <v>4.9115628000000005</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -10211,7 +10210,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>111.50000111499999</v>
+        <v>111.25000111249999</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -10220,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>4.8107458000000003</v>
+        <v>4.8267253999999999</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -10234,7 +10233,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>1023.0000102299999</v>
+        <v>1020.0000101999999</v>
       </c>
       <c r="D7" s="2">
         <v>3.6315789222717285</v>
@@ -10243,7 +10242,7 @@
         <v>1049.5625</v>
       </c>
       <c r="F7" s="1">
-        <v>2.0848756790161134</v>
+        <v>2.0437799715528304</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -10257,7 +10256,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>102.6200010262</v>
+        <v>102.95500102954999</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -10266,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>4.7470660000000002</v>
+        <v>4.6845080000000001</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -10280,16 +10279,16 @@
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>236.35000236349998</v>
+        <v>236.98000236979996</v>
       </c>
       <c r="D9" s="2">
-        <v>4.5833334922790527</v>
+        <v>4.6521739959716797</v>
       </c>
       <c r="E9" s="2">
         <v>273.875</v>
       </c>
       <c r="F9" s="1">
-        <v>1.1846837115787112</v>
+        <v>1.1817337521382139</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -10303,7 +10302,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>274.50000274499996</v>
+        <v>280.30000280299998</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -10312,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3.5846995091394862</v>
+        <v>3.5105244925393833</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -10326,7 +10325,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>9070.0000906999994</v>
+        <v>8885.0000888499999</v>
       </c>
       <c r="D11" s="2">
         <v>3.769230842590332</v>
@@ -10335,7 +10334,7 @@
         <v>11356.888671875</v>
       </c>
       <c r="F11" s="1">
-        <v>4.1715544140194325</v>
+        <v>4.2584128908448227</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -10349,16 +10348,16 @@
         <v>208</v>
       </c>
       <c r="C12" s="2">
-        <v>4.0700000407000001</v>
+        <v>4.1400000413999996</v>
       </c>
       <c r="D12" s="2">
         <v>4.5789475440979004</v>
       </c>
       <c r="E12" s="2">
-        <v>5.4393749237060547</v>
+        <v>5.445624828338623</v>
       </c>
       <c r="F12" s="1">
-        <v>4.7911546154162803</v>
+        <v>4.7101447547691455</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -10372,7 +10371,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>3216.0000321599996</v>
+        <v>3332.0000333199996</v>
       </c>
       <c r="D13" s="2">
         <v>3.4000000953674316</v>
@@ -10381,7 +10380,7 @@
         <v>2491.62890625</v>
       </c>
       <c r="F13" s="1">
-        <v>5.3682487725040922</v>
+        <v>4.9219687875150058</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -10395,7 +10394,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2">
-        <v>3.7500000374999996</v>
+        <v>3.8150000381499996</v>
       </c>
       <c r="D14" s="2">
         <v>4.5999999046325684</v>
@@ -10404,7 +10403,7 @@
         <v>4.6666665077209473</v>
       </c>
       <c r="F14" s="1">
-        <v>1.5999999642372131</v>
+        <v>1.5831134210790367</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -10418,7 +10417,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2">
-        <v>17.600000176000002</v>
+        <v>17.550000175499999</v>
       </c>
       <c r="D15" s="2">
         <v>3.8571429252624512</v>
@@ -10427,7 +10426,7 @@
         <v>21.441429138183594</v>
       </c>
       <c r="F15" s="1">
-        <v>0.49532954157753423</v>
+        <v>0.49674073685268394</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -10441,7 +10440,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="2">
-        <v>9.3000000929999995</v>
+        <v>9.8000000979999999</v>
       </c>
       <c r="D16" s="2">
         <v>4.25</v>
@@ -10464,7 +10463,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="2">
-        <v>10.620000106199999</v>
+        <v>10.780000107799999</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -10473,7 +10472,7 @@
         <v>12.050214767456055</v>
       </c>
       <c r="F17" s="1">
-        <v>7.6661580250986114</v>
+        <v>7.552374603575811</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -10487,7 +10486,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>583.4000058339999</v>
+        <v>597.10000597099997</v>
       </c>
       <c r="D18" s="2">
         <v>4.1999998092651367</v>
@@ -10496,7 +10495,7 @@
         <v>707.4000244140625</v>
       </c>
       <c r="F18" s="1">
-        <v>8.2927667240512903</v>
+        <v>8.1024955732901081</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -10510,7 +10509,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>4.3145000431449994</v>
+        <v>4.5645000456449996</v>
       </c>
       <c r="D19" s="2">
         <v>2.7142856121063232</v>
@@ -10519,7 +10518,7 @@
         <v>4.7818183898925781</v>
       </c>
       <c r="F19" s="1">
-        <v>5.6582541619221569</v>
+        <v>5.3539269855059262</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -10533,7 +10532,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="2">
-        <v>17.540000175399999</v>
+        <v>17.650000176499997</v>
       </c>
       <c r="D20" s="2">
         <v>3.3333332538604736</v>
@@ -10542,7 +10541,7 @@
         <v>17.185714721679687</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0832382988358848</v>
+        <v>1.0764872386165112</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -10556,7 +10555,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="2">
-        <v>23.080000230799996</v>
+        <v>23.380000233799997</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -10579,7 +10578,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2">
-        <v>106.79000106789999</v>
+        <v>106.87800106877999</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -10588,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>4.0618359000000002</v>
+        <v>4.0318094000000002</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -10602,7 +10601,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2">
-        <v>101.64000101639999</v>
+        <v>101.91300101912999</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -10611,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>4.3567020000000003</v>
+        <v>4.2712161999999996</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -10625,7 +10624,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="2">
-        <v>104.97000104969999</v>
+        <v>105.0300010503</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -10634,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>5.3078818999999999</v>
+        <v>5.1804493000000003</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -10648,7 +10647,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="2">
-        <v>103.53400103534</v>
+        <v>103.55400103554</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -10657,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>4.0469777999999996</v>
+        <v>4.0419638000000004</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -10671,7 +10670,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="2">
-        <v>103.10800103107999</v>
+        <v>103.24000103239999</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -10680,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>4.4652627000000003</v>
+        <v>4.4248912000000002</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -10694,7 +10693,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="2">
-        <v>177.25000177249999</v>
+        <v>177.20000177199998</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -10703,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>4.0528608999999998</v>
+        <v>4.0555376000000001</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -10717,7 +10716,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2">
-        <v>93.200000931999995</v>
+        <v>95.160000951599997</v>
       </c>
       <c r="D28" s="2">
         <v>4.125</v>
@@ -10726,7 +10725,7 @@
         <v>103.23792266845703</v>
       </c>
       <c r="F28" s="1">
-        <v>2.2116401208140863</v>
+        <v>9.3841953606302866</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -10740,7 +10739,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2">
-        <v>61.700000617000001</v>
+        <v>60.400000603999992</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -10786,16 +10785,16 @@
         <v>71</v>
       </c>
       <c r="C31" s="2">
-        <v>123.00000123</v>
+        <v>129.20000129199997</v>
       </c>
       <c r="D31" s="2">
         <v>3.307692289352417</v>
       </c>
       <c r="E31" s="2">
-        <v>142.13432312011719</v>
+        <v>141.64179992675781</v>
       </c>
       <c r="F31" s="1">
-        <v>6.10917527408873</v>
+        <v>6.1068110421715147</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -10809,7 +10808,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="2">
-        <v>156.00000155999999</v>
+        <v>149.75000149749999</v>
       </c>
       <c r="D32" s="2">
         <v>4.3333334922790527</v>
@@ -10818,7 +10817,7 @@
         <v>205</v>
       </c>
       <c r="F32" s="1">
-        <v>6.3511448052093273</v>
+        <v>6.9333330790201817</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -10832,7 +10831,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2">
-        <v>7.6000000759999988</v>
+        <v>7.6500000764999996</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
@@ -10841,7 +10840,7 @@
         <v>9.1999998092651367</v>
       </c>
       <c r="F33" s="1">
-        <v>3.7383550876065303</v>
+        <v>3.713921394223481</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -10878,7 +10877,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2">
-        <v>56.900000568999992</v>
+        <v>56.800000567999994</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -10901,7 +10900,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2">
-        <v>2850.0000284999996</v>
+        <v>2915.500029155</v>
       </c>
       <c r="D36" s="2">
         <v>4.4545454978942871</v>
@@ -10910,7 +10909,7 @@
         <v>3557.086181640625</v>
       </c>
       <c r="F36" s="1">
-        <v>6.5591020694493158</v>
+        <v>6.4139941690962097</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -10924,7 +10923,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="2">
-        <v>266.55000266550002</v>
+        <v>273.20000273199997</v>
       </c>
       <c r="D37" s="2">
         <v>4.3333334922790527</v>
@@ -10933,7 +10932,7 @@
         <v>317.79998779296875</v>
       </c>
       <c r="F37" s="1">
-        <v>11.705121276660833</v>
+        <v>11.409764404073671</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10947,7 +10946,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="2">
-        <v>378.00000377999999</v>
+        <v>377.00000376999998</v>
       </c>
       <c r="D38" s="2">
         <v>3.4000000953674316</v>
@@ -10956,7 +10955,7 @@
         <v>413.75</v>
       </c>
       <c r="F38" s="1">
-        <v>5.2910052910052912</v>
+        <v>5.3050397877984086</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -10970,7 +10969,7 @@
         <v>79</v>
       </c>
       <c r="C39" s="2">
-        <v>6.9800000698</v>
+        <v>6.9900000698999998</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -10979,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>11.126052481787545</v>
+        <v>11.141969581189244</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -10993,7 +10992,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="2">
-        <v>200.45000200449996</v>
+        <v>197.35000197349999</v>
       </c>
       <c r="D40" s="2">
         <v>3.7272727489471436</v>
@@ -11002,7 +11001,7 @@
         <v>226.81964111328125</v>
       </c>
       <c r="F40" s="1">
-        <v>5.3280121253059525</v>
+        <v>5.4117052471121267</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -11016,7 +11015,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="2">
-        <v>72.550000725499999</v>
+        <v>73.850000738499986</v>
       </c>
       <c r="D41" s="2">
         <v>4.3333334922790527</v>
@@ -11025,7 +11024,7 @@
         <v>96.325996398925781</v>
       </c>
       <c r="F41" s="1">
-        <v>2.6740179975471521</v>
+        <v>2.6269465906844403</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -11039,7 +11038,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="2">
-        <v>2.5710000257100001</v>
+        <v>2.5850000258499999</v>
       </c>
       <c r="D42" s="2">
         <v>4.3333334922790527</v>
@@ -11048,7 +11047,7 @@
         <v>3.2975001335144043</v>
       </c>
       <c r="F42" s="1">
-        <v>10.499952832625931</v>
+        <v>10.4390482338288</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -11062,13 +11061,13 @@
         <v>83</v>
       </c>
       <c r="C43" s="2">
-        <v>0.19000000189999999</v>
+        <v>0.18500000184999998</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
       </c>
       <c r="E43" s="2">
-        <v>0.31666666269302368</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -11085,7 +11084,7 @@
         <v>125</v>
       </c>
       <c r="C44" s="2">
-        <v>60.500000604999997</v>
+        <v>62.450000624499999</v>
       </c>
       <c r="D44" s="2">
         <v>4.1999998092651367</v>
@@ -11094,7 +11093,7 @@
         <v>69.6466064453125</v>
       </c>
       <c r="F44" s="1">
-        <v>1.7355371112665854</v>
+        <v>1.6813449997058194</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -11108,7 +11107,7 @@
         <v>126</v>
       </c>
       <c r="C45" s="2">
-        <v>227.00000226999998</v>
+        <v>221.90000221899999</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -11131,7 +11130,7 @@
         <v>127</v>
       </c>
       <c r="C46" s="2">
-        <v>7.7300000772999997</v>
+        <v>7.8600000785999997</v>
       </c>
       <c r="D46" s="2">
         <v>4.5</v>
@@ -11140,7 +11139,7 @@
         <v>7.84375</v>
       </c>
       <c r="F46" s="1">
-        <v>8.5832672848213463</v>
+        <v>8.8562719694530685</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -11154,7 +11153,7 @@
         <v>128</v>
       </c>
       <c r="C47" s="2">
-        <v>8538.0000853799993</v>
+        <v>8711.0000871100001</v>
       </c>
       <c r="D47" s="2">
         <v>3.7999999523162842</v>
@@ -11163,7 +11162,7 @@
         <v>11175.060546875</v>
       </c>
       <c r="F47" s="1">
-        <v>9.9107640825432242</v>
+        <v>10.199747445758236</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -11177,7 +11176,7 @@
         <v>129</v>
       </c>
       <c r="C48" s="2">
-        <v>857.50000857499992</v>
+        <v>848.50000848499997</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
@@ -11186,7 +11185,7 @@
         <v>1150</v>
       </c>
       <c r="F48" s="1">
-        <v>9.0962099125364428</v>
+        <v>9.1926929876252217</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -11200,7 +11199,7 @@
         <v>130</v>
       </c>
       <c r="C49" s="2">
-        <v>62.55000062549999</v>
+        <v>61.800000617999991</v>
       </c>
       <c r="D49" s="2">
         <v>4.2857141494750977</v>
@@ -11223,7 +11222,7 @@
         <v>131</v>
       </c>
       <c r="C50" s="2">
-        <v>10.200000101999999</v>
+        <v>10.300000103</v>
       </c>
       <c r="D50" s="2">
         <v>4.25</v>
@@ -11232,7 +11231,7 @@
         <v>11.781999588012695</v>
       </c>
       <c r="F50" s="1">
-        <v>7.3450979064492623</v>
+        <v>7.2737862762895595</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -11246,7 +11245,7 @@
         <v>132</v>
       </c>
       <c r="C51" s="2">
-        <v>6.0800000607999997E-2</v>
+        <v>6.3950000639500001E-2</v>
       </c>
       <c r="D51" s="2">
         <v>3</v>
@@ -11255,7 +11254,7 @@
         <v>1.9999999552965164E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>2.095394799988227</v>
+        <v>1.9937402791750263</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -11269,7 +11268,7 @@
         <v>133</v>
       </c>
       <c r="C52" s="2">
-        <v>54.800000547999993</v>
+        <v>55.200000551999999</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -11292,7 +11291,7 @@
         <v>134</v>
       </c>
       <c r="C53" s="2">
-        <v>23.960000239599999</v>
+        <v>22.600000225999999</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -11301,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>18.11352317440689</v>
+        <v>19.169611981395278</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -11315,7 +11314,7 @@
         <v>135</v>
       </c>
       <c r="C54" s="2">
-        <v>17.01500017015</v>
+        <v>17.00000017</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -11338,7 +11337,7 @@
         <v>136</v>
       </c>
       <c r="C55" s="2">
-        <v>123.47000123469999</v>
+        <v>122.24000122239998</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -11361,7 +11360,7 @@
         <v>137</v>
       </c>
       <c r="C56" s="2">
-        <v>75.75000075749999</v>
+        <v>75.550000755499994</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -11384,7 +11383,7 @@
         <v>138</v>
       </c>
       <c r="C57" s="2">
-        <v>100.000001</v>
+        <v>100.800001008</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
@@ -11393,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>18.5</v>
+        <v>18.353174603174605</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -11407,7 +11406,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="2">
-        <v>573.00000573</v>
+        <v>590.00000590000002</v>
       </c>
       <c r="D58" s="2">
         <v>3.6666667461395264</v>
@@ -11430,7 +11429,7 @@
         <v>140</v>
       </c>
       <c r="C59" s="2">
-        <v>1.209500012095E-2</v>
+        <v>1.2725000127249999E-2</v>
       </c>
       <c r="D59" s="2">
         <v>2.3333332538604736</v>
@@ -11439,7 +11438,7 @@
         <v>5.7500001043081284E-2</v>
       </c>
       <c r="F59" s="1">
-        <v>2.0091277718507046</v>
+        <v>1.908158649433394</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -11453,7 +11452,7 @@
         <v>141</v>
       </c>
       <c r="C60" s="2">
-        <v>151.80000151800002</v>
+        <v>150.20000150199999</v>
       </c>
       <c r="D60" s="2">
         <v>1.7999999523162842</v>
@@ -11476,7 +11475,7 @@
         <v>142</v>
       </c>
       <c r="C61" s="2">
-        <v>102.82800102828</v>
+        <v>102.87400102873998</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -11485,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>3.8592693000000002</v>
+        <v>3.8421007999999999</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -11568,7 +11567,7 @@
         <v>146</v>
       </c>
       <c r="C65" s="2">
-        <v>107.83000107829999</v>
+        <v>107.80700107807</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -11577,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>6.2236971199999997</v>
+        <v>6.2300630899999998</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -11591,7 +11590,7 @@
         <v>147</v>
       </c>
       <c r="C66" s="2">
-        <v>103.41000103409999</v>
+        <v>103.200001032</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -11600,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>9.75</v>
+        <v>9.82</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -11614,7 +11613,7 @@
         <v>148</v>
       </c>
       <c r="C67" s="2">
-        <v>106.8400010684</v>
+        <v>106.900001069</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
@@ -11637,7 +11636,7 @@
         <v>149</v>
       </c>
       <c r="C68" s="2">
-        <v>102.72300102723</v>
+        <v>103.54800103548</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -11646,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>7.1996434999999996</v>
+        <v>6.8877040999999997</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -11669,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>10.41</v>
+        <v>10.37</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -11683,7 +11682,7 @@
         <v>151</v>
       </c>
       <c r="C70" s="2">
-        <v>98.390000983899995</v>
+        <v>98.600010986000086</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -11692,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>8.48</v>
+        <v>8.19</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -11706,7 +11705,7 @@
         <v>308</v>
       </c>
       <c r="C71" s="2">
-        <v>99.750000997499995</v>
+        <v>100.000001</v>
       </c>
       <c r="D71" s="2">
         <v>0</v>
@@ -11715,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>16.18</v>
+        <v>9.57</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -11729,7 +11728,7 @@
         <v>152</v>
       </c>
       <c r="C72" s="2">
-        <v>98.990000989899983</v>
+        <v>99.00000098999999</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -11738,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>9.243148615253304</v>
+        <v>9.2401420076666074</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -11798,7 +11797,7 @@
         <v>155</v>
       </c>
       <c r="C75" s="2">
-        <v>101.4800010148</v>
+        <v>101.500001015</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
@@ -11807,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>10.45</v>
+        <v>10.67</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -11821,7 +11820,7 @@
         <v>156</v>
       </c>
       <c r="C76" s="2">
-        <v>101.4500010145</v>
+        <v>101.80000101799999</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -11830,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>10.48</v>
+        <v>10.59</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -11844,7 +11843,7 @@
         <v>157</v>
       </c>
       <c r="C77" s="2">
-        <v>108.23100108230999</v>
+        <v>108.38300108383</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -11853,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>4.5386699999999998</v>
+        <v>4.5131622</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -11867,7 +11866,7 @@
         <v>158</v>
       </c>
       <c r="C78" s="2">
-        <v>101.20500101204999</v>
+        <v>101.27700101277</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -11876,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>4.1233046468287533</v>
+        <v>4.1089899119938265</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -11890,7 +11889,7 @@
         <v>159</v>
       </c>
       <c r="C79" s="2">
-        <v>102.700001027</v>
+        <v>102.65000102649999</v>
       </c>
       <c r="D79" s="2">
         <v>0</v>
@@ -11899,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>9.4600000000000009</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -11913,7 +11912,7 @@
         <v>160</v>
       </c>
       <c r="C80" s="2">
-        <v>98.850000988499986</v>
+        <v>98.600000985999984</v>
       </c>
       <c r="D80" s="2">
         <v>0</v>
@@ -11922,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>10.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -11945,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>8.77</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -11959,7 +11958,7 @@
         <v>162</v>
       </c>
       <c r="C82" s="2">
-        <v>99.740000997399989</v>
+        <v>99.750000997499995</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
@@ -11968,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>9.3841482172127613</v>
+        <v>9.3428782707195133</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -11982,7 +11981,7 @@
         <v>163</v>
       </c>
       <c r="C83" s="2">
-        <v>83.122000831219992</v>
+        <v>82.080000820799995</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -11991,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>25.678840126076174</v>
+        <v>26.746994134754143</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -12005,7 +12004,7 @@
         <v>164</v>
       </c>
       <c r="C84" s="2">
-        <v>109.08400109083999</v>
+        <v>109.1700010917</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
@@ -12014,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>5.0326697999999999</v>
+        <v>5.0126793999999997</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -12037,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>9.5</v>
+        <v>9.61</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -12051,7 +12050,7 @@
         <v>170</v>
       </c>
       <c r="C86" s="2">
-        <v>20.955000209549997</v>
+        <v>21.545000215449999</v>
       </c>
       <c r="D86" s="2">
         <v>5</v>
@@ -12060,7 +12059,7 @@
         <v>28.75</v>
       </c>
       <c r="F86" s="1">
-        <v>7.7308518480953072</v>
+        <v>7.5191459956758937</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -12074,7 +12073,7 @@
         <v>171</v>
       </c>
       <c r="C87" s="2">
-        <v>11.850000118499999</v>
+        <v>12.000000119999999</v>
       </c>
       <c r="D87" s="2">
         <v>4</v>
@@ -12083,7 +12082,7 @@
         <v>15.971428871154785</v>
       </c>
       <c r="F87" s="1">
-        <v>9.7890292541890211</v>
+        <v>9.6666663885116577</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -12097,7 +12096,7 @@
         <v>172</v>
       </c>
       <c r="C88" s="2">
-        <v>13.080000130799998</v>
+        <v>13.400000133999999</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -12120,7 +12119,7 @@
         <v>196</v>
       </c>
       <c r="C89" s="2">
-        <v>105.34800105347999</v>
+        <v>105.33100105330999</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
@@ -12129,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>4.1438985032694902</v>
+        <v>4.1529363950878215</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -12143,7 +12142,7 @@
         <v>197</v>
       </c>
       <c r="C90" s="2">
-        <v>101.25000101249999</v>
+        <v>101.439801014398</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -12152,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>4.2910489113380414</v>
+        <v>4.0683852020357838</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -12166,16 +12165,16 @@
         <v>174</v>
       </c>
       <c r="C91" s="2">
-        <v>3.8100000380999997</v>
+        <v>3.9100000390999998</v>
       </c>
       <c r="D91" s="2">
-        <v>4.5</v>
+        <v>4.4285712242126465</v>
       </c>
       <c r="E91" s="2">
-        <v>4.851250171661377</v>
+        <v>4.9728569984436035</v>
       </c>
       <c r="F91" s="1">
-        <v>3.3485897256946311</v>
+        <v>3.2629480447305745</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -12189,16 +12188,16 @@
         <v>176</v>
       </c>
       <c r="C92" s="2">
-        <v>29.49500029495</v>
+        <v>29.360000293599999</v>
       </c>
       <c r="D92" s="2">
         <v>3.75</v>
       </c>
       <c r="E92" s="2">
-        <v>36.830867767333984</v>
+        <v>36.704414367675781</v>
       </c>
       <c r="F92" s="1">
-        <v>23.461603920304949</v>
+        <v>23.569482548685102</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -12212,7 +12211,7 @@
         <v>178</v>
       </c>
       <c r="C93" s="2">
-        <v>106.29900106299</v>
+        <v>106.3400010634</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -12221,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>3.4018347000000002</v>
+        <v>3.3884409</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -12235,7 +12234,7 @@
         <v>180</v>
       </c>
       <c r="C94" s="2">
-        <v>103.30000103299999</v>
+        <v>103.29000103289999</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
@@ -12244,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>10.130000000000001</v>
+        <v>10.24</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -12267,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>9.36</v>
+        <v>9.4</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -12281,7 +12280,7 @@
         <v>184</v>
       </c>
       <c r="C96" s="2">
-        <v>103.74000103739999</v>
+        <v>103.85000103849998</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
@@ -12290,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>7.73</v>
+        <v>7.71</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -12304,7 +12303,7 @@
         <v>186</v>
       </c>
       <c r="C97" s="2">
-        <v>95.990000959899987</v>
+        <v>96.050000960499986</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -12313,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <v>8.01</v>
+        <v>7.99</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -12327,7 +12326,7 @@
         <v>188</v>
       </c>
       <c r="C98" s="2">
-        <v>88.500900885009003</v>
+        <v>89.699900896998997</v>
       </c>
       <c r="D98" s="2">
         <v>0</v>
@@ -12336,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>8.23</v>
+        <v>8.16</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -12373,7 +12372,7 @@
         <v>192</v>
       </c>
       <c r="C100" s="2">
-        <v>102.75000102749999</v>
+        <v>102.50000102499999</v>
       </c>
       <c r="D100" s="2">
         <v>0</v>
@@ -12382,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>9.41</v>
+        <v>10.26</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -12396,7 +12395,7 @@
         <v>194</v>
       </c>
       <c r="C101" s="2">
-        <v>103.38500103385</v>
+        <v>103.40900103409</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
@@ -12405,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>4.3694170223252105</v>
+        <v>4.3350403895801692</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -12419,7 +12418,7 @@
         <v>218</v>
       </c>
       <c r="C102" s="2">
-        <v>101.00000100999999</v>
+        <v>101.500001015</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -12428,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>9.3699999999999992</v>
+        <v>8.77</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -12442,7 +12441,7 @@
         <v>221</v>
       </c>
       <c r="C103" s="2">
-        <v>113.2900011329</v>
+        <v>112.30000112299999</v>
       </c>
       <c r="D103" s="2">
         <v>3.9333333969116211</v>
@@ -12451,7 +12450,7 @@
         <v>138.52499389648437</v>
       </c>
       <c r="F103" s="1">
-        <v>6.7790624312283718</v>
+        <v>6.8388244241661829</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -12471,10 +12470,10 @@
         <v>3.96875</v>
       </c>
       <c r="E104" s="2">
-        <v>80.680000305175781</v>
+        <v>80.839996337890625</v>
       </c>
       <c r="F104" s="1">
-        <v>3.0251216483546477</v>
+        <v>2.9811667032226778</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -12488,16 +12487,16 @@
         <v>203</v>
       </c>
       <c r="C105" s="2">
-        <v>73.30000073299999</v>
+        <v>75.700000756999998</v>
       </c>
       <c r="D105" s="2">
         <v>3.696969747543335</v>
       </c>
       <c r="E105" s="2">
-        <v>79.5</v>
+        <v>79.711540222167969</v>
       </c>
       <c r="F105" s="1">
-        <v>3.7517053206002728</v>
+        <v>3.6327608982826951</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -12511,7 +12510,7 @@
         <v>207</v>
       </c>
       <c r="C106" s="2">
-        <v>251.60000251599999</v>
+        <v>257.0500025705</v>
       </c>
       <c r="D106" s="2">
         <v>4.4375</v>
@@ -12520,7 +12519,7 @@
         <v>283.20001220703125</v>
       </c>
       <c r="F106" s="1">
-        <v>3.259141418626843</v>
+        <v>3.1900407738825658</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -12543,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>5.2645012299999996</v>
+        <v>5.2636728699999997</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -12557,7 +12556,7 @@
         <v>212</v>
       </c>
       <c r="C108" s="2">
-        <v>108.44300108442999</v>
+        <v>108.46100108460999</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
@@ -12566,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>5.9040774000000003</v>
+        <v>5.8981690000000002</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -12580,7 +12579,7 @@
         <v>213</v>
       </c>
       <c r="C109" s="2">
-        <v>99.613000996129998</v>
+        <v>99.867000998669994</v>
       </c>
       <c r="D109" s="2">
         <v>0</v>
@@ -12589,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>5.5983720000000003</v>
+        <v>5.5337931000000005</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -12603,7 +12602,7 @@
         <v>214</v>
       </c>
       <c r="C110" s="2">
-        <v>114.13200114132</v>
+        <v>114.25800114257999</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -12612,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>5.8455034000000001</v>
+        <v>5.8230411000000002</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -12626,7 +12625,7 @@
         <v>215</v>
       </c>
       <c r="C111" s="2">
-        <v>100.46100100461</v>
+        <v>100.49600100495999</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -12635,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>5.0131880999999998</v>
+        <v>5.0048053000000001</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -12649,7 +12648,7 @@
         <v>219</v>
       </c>
       <c r="C112" s="2">
-        <v>104.70600104706</v>
+        <v>104.86900104869</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -12658,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>5.7230688000000001</v>
+        <v>5.6838066000000005</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -12672,7 +12671,7 @@
         <v>216</v>
       </c>
       <c r="C113">
-        <v>99.66000099659999</v>
+        <v>99.656000996559996</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -12681,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>6.6474045000000004</v>
+        <v>6.6476677999999998</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -12695,7 +12694,7 @@
         <v>222</v>
       </c>
       <c r="C114">
-        <v>97.699700976997008</v>
+        <v>97.700000977000002</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -12704,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>8.4700000000000006</v>
+        <v>8.48</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -12718,7 +12717,7 @@
         <v>217</v>
       </c>
       <c r="C115">
-        <v>100.54200100541999</v>
+        <v>100.45200100451999</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -12727,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>5.5848404</v>
+        <v>5.6115934000000003</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -12741,7 +12740,7 @@
         <v>201</v>
       </c>
       <c r="C116">
-        <v>102.09000102089999</v>
+        <v>102.200001022</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -12750,7 +12749,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>9.5299999999999994</v>
+        <v>9.48</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -12764,7 +12763,7 @@
         <v>199</v>
       </c>
       <c r="C117">
-        <v>101.19000101189999</v>
+        <v>101.200001012</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -12773,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>8.9499999999999993</v>
+        <v>8.93</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -12787,7 +12786,7 @@
         <v>220</v>
       </c>
       <c r="C118">
-        <v>101.23000101229999</v>
+        <v>101.24000101239999</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -12810,7 +12809,7 @@
         <v>223</v>
       </c>
       <c r="C119">
-        <v>102.99000102989999</v>
+        <v>103.10000103099999</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -12819,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>9.94</v>
+        <v>9.9</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -12833,7 +12832,7 @@
         <v>224</v>
       </c>
       <c r="C120">
-        <v>103.7900010379</v>
+        <v>103.900001039</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -12842,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>9.6</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -12856,7 +12855,7 @@
         <v>225</v>
       </c>
       <c r="C121">
-        <v>97.700000977000002</v>
+        <v>97.750000977499994</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -12865,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>8.06</v>
+        <v>8.02</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -12879,7 +12878,7 @@
         <v>226</v>
       </c>
       <c r="C122">
-        <v>99.390000993899989</v>
+        <v>99.500000994999994</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -12888,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>8.31</v>
+        <v>8.18</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -12902,7 +12901,7 @@
         <v>227</v>
       </c>
       <c r="C123">
-        <v>320.15000320149994</v>
+        <v>319.35000319350002</v>
       </c>
       <c r="D123">
         <v>3.9090909957885742</v>
@@ -12911,7 +12910,7 @@
         <v>419.84967041015625</v>
       </c>
       <c r="F123">
-        <v>3.669008587041374</v>
+        <v>1.872553630522463</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -12934,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>4.4397541</v>
+        <v>4.4382726000000003</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -12948,7 +12947,7 @@
         <v>229</v>
       </c>
       <c r="C125">
-        <v>102.55800102558</v>
+        <v>102.58200102581999</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -12957,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>4.0352596815579691</v>
+        <v>4.0196314467578436</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -12971,7 +12970,7 @@
         <v>230</v>
       </c>
       <c r="C126">
-        <v>100.50500100504999</v>
+        <v>100.61600100615999</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -12980,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>4.5824335000000005</v>
+        <v>4.5571042000000004</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -12994,7 +12993,7 @@
         <v>231</v>
       </c>
       <c r="C127">
-        <v>131.42600131425999</v>
+        <v>131.70700131707</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -13003,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>5.7120315760992701</v>
+        <v>5.6903277702122832</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -13017,7 +13016,7 @@
         <v>232</v>
       </c>
       <c r="C128">
-        <v>107.61700107617</v>
+        <v>107.61600107615999</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -13026,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>3.3188439000000001</v>
+        <v>3.3141715</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -13040,7 +13039,7 @@
         <v>233</v>
       </c>
       <c r="C129">
-        <v>43.942000439419999</v>
+        <v>43.960000439600002</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -13049,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>43.209258664319989</v>
+        <v>40.77535006702194</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -13063,7 +13062,7 @@
         <v>234</v>
       </c>
       <c r="C130">
-        <v>111.69400111694</v>
+        <v>111.75500111754999</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -13072,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>4.8061311</v>
+        <v>4.7871842000000004</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -13086,7 +13085,7 @@
         <v>235</v>
       </c>
       <c r="C131">
-        <v>6.5390000653899993E-2</v>
+        <v>6.5500000655000001E-2</v>
       </c>
       <c r="D131">
         <v>1.8333333730697632</v>
@@ -13095,7 +13094,7 @@
         <v>3.6499999463558197E-2</v>
       </c>
       <c r="F131">
-        <v>1.7892643293736996</v>
+        <v>1.7862594579808586</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -13109,7 +13108,7 @@
         <v>236</v>
       </c>
       <c r="C132">
-        <v>109.73800109737999</v>
+        <v>109.85400109854</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -13118,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>3.650182</v>
+        <v>3.6111184000000001</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -13141,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>3.0486452000000002</v>
+        <v>3.0463469999999999</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -13155,7 +13154,7 @@
         <v>239</v>
       </c>
       <c r="C134">
-        <v>37.210000372099998</v>
+        <v>37.580000375799997</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -13178,7 +13177,7 @@
         <v>238</v>
       </c>
       <c r="C135">
-        <v>22.543000225429999</v>
+        <v>22.502000225019998</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -13187,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>98.475080889908057</v>
+        <v>98.776996948381253</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -13201,7 +13200,7 @@
         <v>240</v>
       </c>
       <c r="C136">
-        <v>110.25400110254</v>
+        <v>110.37800110377999</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -13210,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>3.6646938000000002</v>
+        <v>3.6293060000000001</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -13224,7 +13223,7 @@
         <v>241</v>
       </c>
       <c r="C137">
-        <v>101.31300101312999</v>
+        <v>101.12500101124999</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -13233,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>5.5137289117884958</v>
+        <v>5.5823156087794761</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -13247,7 +13246,7 @@
         <v>242</v>
       </c>
       <c r="C138">
-        <v>122.31000122309999</v>
+        <v>121.4800012148</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -13270,7 +13269,7 @@
         <v>243</v>
       </c>
       <c r="C139">
-        <v>106.93900106938999</v>
+        <v>107.03600107036</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -13279,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>5.0880169000000004</v>
+        <v>5.0650351999999996</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -13293,7 +13292,7 @@
         <v>244</v>
       </c>
       <c r="C140">
-        <v>94.500000944999996</v>
+        <v>95.863000958629996</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -13302,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>8.3912764344310915</v>
+        <v>7.8461924984209901</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -13316,7 +13315,7 @@
         <v>245</v>
       </c>
       <c r="C141">
-        <v>100.01200100011999</v>
+        <v>99.994000999939999</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -13325,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.8250905355170248</v>
+        <v>1.8480585633382021</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -13339,7 +13338,7 @@
         <v>246</v>
       </c>
       <c r="C142">
-        <v>114.2900011429</v>
+        <v>114.31200114311999</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -13348,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>3.4069004999999999</v>
+        <v>3.3975195</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -13362,7 +13361,7 @@
         <v>247</v>
       </c>
       <c r="C143">
-        <v>77.637000776370002</v>
+        <v>76.070000760699983</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -13371,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>16.722869200000002</v>
+        <v>17.541155</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -13385,7 +13384,7 @@
         <v>248</v>
       </c>
       <c r="C144">
-        <v>67.790000677899997</v>
+        <v>68.190000681899988</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -13394,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2.4724295048222005</v>
+        <v>2.4579263254421027</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -13408,7 +13407,7 @@
         <v>249</v>
       </c>
       <c r="C145">
-        <v>59.000000589999999</v>
+        <v>58.500000584999995</v>
       </c>
       <c r="D145">
         <v>5</v>
@@ -13431,7 +13430,7 @@
         <v>250</v>
       </c>
       <c r="C146">
-        <v>115.50000115499999</v>
+        <v>116.02000116019998</v>
       </c>
       <c r="D146">
         <v>4.095238208770752</v>
@@ -13440,7 +13439,7 @@
         <v>123.35713958740234</v>
       </c>
       <c r="F146">
-        <v>1.8701299444421546</v>
+        <v>1.8623901412577069</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13454,13 +13453,13 @@
         <v>251</v>
       </c>
       <c r="C147">
-        <v>24.240000242399997</v>
+        <v>24.060000240599997</v>
       </c>
       <c r="D147">
         <v>3.9411764144897461</v>
       </c>
       <c r="E147">
-        <v>23.2947998046875</v>
+        <v>23.561466217041016</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -13477,7 +13476,7 @@
         <v>252</v>
       </c>
       <c r="C148">
-        <v>36.760000367599993</v>
+        <v>36.650000366499995</v>
       </c>
       <c r="D148">
         <v>3.2400000095367432</v>
@@ -13500,7 +13499,7 @@
         <v>253</v>
       </c>
       <c r="C149">
-        <v>37.960000379599997</v>
+        <v>38.1700003817</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -13509,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>3.6311592392474257</v>
+        <v>3.611181679901291</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13523,7 +13522,7 @@
         <v>254</v>
       </c>
       <c r="C150">
-        <v>90.250000902499991</v>
+        <v>91.080000910799995</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -13532,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0.97506924679404816</v>
+        <v>0.96618356964386087</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13546,7 +13545,7 @@
         <v>255</v>
       </c>
       <c r="C151">
-        <v>100.21300100212999</v>
+        <v>100.16000100159999</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -13555,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0.53958930000000005</v>
+        <v>1.5436527</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13578,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>4.8450047999999999</v>
+        <v>4.8451126999999996</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13601,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.5449885999999999</v>
+        <v>1.5441672</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13615,7 +13614,7 @@
         <v>258</v>
       </c>
       <c r="C154">
-        <v>104.94300104942999</v>
+        <v>105.17100105170999</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -13624,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>6.6049927000000004</v>
+        <v>6.5421297999999997</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13638,7 +13637,7 @@
         <v>259</v>
       </c>
       <c r="C155">
-        <v>97.280000972799996</v>
+        <v>96.860000968599991</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -13662,8 +13661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13684,7 +13683,7 @@
       </c>
       <c r="C1" s="2">
         <f>_xll.BDP(B1,"PX_LAST")*1.00000001</f>
-        <v>65.930000659300006</v>
+        <v>66.2500006625</v>
       </c>
       <c r="D1" s="1">
         <f>IF(OR(_xll.BDP(B1,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B1,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B1,"BEST_ANALYST_RATING"))</f>
@@ -13698,7 +13697,7 @@
         <f>IF(OR(_xll.BDP(B1,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B1,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B1,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B1,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B1,"YLD_CNV_MID")),
 _xll.BDP(B1,"EQY_DVD_YLD_IND"))</f>
-        <v>3.1548611007220604</v>
+        <v>3.139622526348762</v>
       </c>
       <c r="G1" s="1">
         <f>COUNTIF($B:$B,B1)</f>
@@ -13715,7 +13714,7 @@
       </c>
       <c r="C2" s="2">
         <f>_xll.BDP(B2,"PX_LAST")*1.00000001</f>
-        <v>97.237000972369984</v>
+        <v>97.39600097396</v>
       </c>
       <c r="D2" s="1">
         <f>IF(OR(_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"BEST_ANALYST_RATING"))</f>
@@ -13729,7 +13728,7 @@
         <f>IF(OR(_xll.BDP(B2,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B2,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B2,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B2,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"YLD_CNV_MID")),
 _xll.BDP(B2,"EQY_DVD_YLD_IND"))</f>
-        <v>5.7452408000000004</v>
+        <v>5.7019840000000004</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G65" si="0">COUNTIF($B:$B,B2)</f>
@@ -13746,7 +13745,7 @@
       </c>
       <c r="C3" s="2">
         <f>_xll.BDP(B3,"PX_LAST")*1.00000001</f>
-        <v>106.79200106792</v>
+        <v>107.03600107036</v>
       </c>
       <c r="D3" s="1">
         <f>IF(OR(_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"BEST_ANALYST_RATING"))</f>
@@ -13760,7 +13759,7 @@
         <f>IF(OR(_xll.BDP(B3,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B3,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B3,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B3,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"YLD_CNV_MID")),
 _xll.BDP(B3,"EQY_DVD_YLD_IND"))</f>
-        <v>6.3907173999999998</v>
+        <v>6.2354221000000001</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
@@ -13777,7 +13776,7 @@
       </c>
       <c r="C4" s="2">
         <f>_xll.BDP(B4,"PX_LAST")*1.00000001</f>
-        <v>1191.00001191</v>
+        <v>1225.500012255</v>
       </c>
       <c r="D4" s="1">
         <f>IF(OR(_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"BEST_ANALYST_RATING"))</f>
@@ -13791,7 +13790,7 @@
         <f>IF(OR(_xll.BDP(B4,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B4,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B4,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B4,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"YLD_CNV_MID")),
 _xll.BDP(B4,"EQY_DVD_YLD_IND"))</f>
-        <v>13.769941225860622</v>
+        <v>13.382292941656468</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
@@ -13808,7 +13807,7 @@
       </c>
       <c r="C5" s="2">
         <f>_xll.BDP(B5,"PX_LAST")*1.00000001</f>
-        <v>112.17600112176</v>
+        <v>112.59600112596</v>
       </c>
       <c r="D5" s="1">
         <f>IF(OR(_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"BEST_ANALYST_RATING"))</f>
@@ -13822,7 +13821,7 @@
         <f>IF(OR(_xll.BDP(B5,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B5,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B5,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B5,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"YLD_CNV_MID")),
 _xll.BDP(B5,"EQY_DVD_YLD_IND"))</f>
-        <v>5.0252704000000001</v>
+        <v>4.9115628000000005</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -13839,7 +13838,7 @@
       </c>
       <c r="C6" s="2">
         <f>_xll.BDP(B6,"PX_LAST")*1.00000001</f>
-        <v>111.50000111499999</v>
+        <v>111.25000111249999</v>
       </c>
       <c r="D6" s="1">
         <f>IF(OR(_xll.BDP(B6,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B6,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B6,"BEST_ANALYST_RATING"))</f>
@@ -13853,7 +13852,7 @@
         <f>IF(OR(_xll.BDP(B6,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B6,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B6,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B6,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B6,"YLD_CNV_MID")),
 _xll.BDP(B6,"EQY_DVD_YLD_IND"))</f>
-        <v>4.8107458000000003</v>
+        <v>4.8267253999999999</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -13870,7 +13869,7 @@
       </c>
       <c r="C7" s="2">
         <f>_xll.BDP(B7,"PX_LAST")*1.00000001</f>
-        <v>1023.0000102299999</v>
+        <v>1020.0000101999999</v>
       </c>
       <c r="D7" s="1">
         <f>IF(OR(_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"BEST_ANALYST_RATING"))</f>
@@ -13884,7 +13883,7 @@
         <f>IF(OR(_xll.BDP(B7,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B7,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B7,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B7,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"YLD_CNV_MID")),
 _xll.BDP(B7,"EQY_DVD_YLD_IND"))</f>
-        <v>2.0848756790161134</v>
+        <v>2.0437799715528304</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -13901,7 +13900,7 @@
       </c>
       <c r="C8" s="2">
         <f>_xll.BDP(B8,"PX_LAST")*1.00000001</f>
-        <v>102.6200010262</v>
+        <v>102.95500102954999</v>
       </c>
       <c r="D8" s="1">
         <f>IF(OR(_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"BEST_ANALYST_RATING"))</f>
@@ -13915,7 +13914,7 @@
         <f>IF(OR(_xll.BDP(B8,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B8,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B8,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B8,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"YLD_CNV_MID")),
 _xll.BDP(B8,"EQY_DVD_YLD_IND"))</f>
-        <v>4.7470660000000002</v>
+        <v>4.6845080000000001</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -13932,11 +13931,11 @@
       </c>
       <c r="C9" s="2">
         <f>_xll.BDP(B9,"PX_LAST")*1.00000001</f>
-        <v>236.35000236349998</v>
+        <v>236.98000236979996</v>
       </c>
       <c r="D9" s="1">
         <f>IF(OR(_xll.BDP(B9,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B9,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B9,"BEST_ANALYST_RATING"))</f>
-        <v>4.5833334922790527</v>
+        <v>4.6521739959716797</v>
       </c>
       <c r="E9" s="1">
         <f>IF(OR(_xll.BDP(B9,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B9,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B9,"BEST_TARGET_PRICE"))</f>
@@ -13946,7 +13945,7 @@
         <f>IF(OR(_xll.BDP(B9,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B9,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B9,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B9,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B9,"YLD_CNV_MID")),
 _xll.BDP(B9,"EQY_DVD_YLD_IND"))</f>
-        <v>1.1846837115787112</v>
+        <v>1.1817337521382139</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -13963,7 +13962,7 @@
       </c>
       <c r="C10" s="2">
         <f>_xll.BDP(B10,"PX_LAST")*1.00000001</f>
-        <v>274.50000274499996</v>
+        <v>280.30000280299998</v>
       </c>
       <c r="D10" s="1">
         <f>IF(OR(_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"BEST_ANALYST_RATING"))</f>
@@ -13977,7 +13976,7 @@
         <f>IF(OR(_xll.BDP(B10,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B10,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B10,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B10,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"YLD_CNV_MID")),
 _xll.BDP(B10,"EQY_DVD_YLD_IND"))</f>
-        <v>3.5846995091394862</v>
+        <v>3.5105244925393833</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -13994,7 +13993,7 @@
       </c>
       <c r="C11" s="2">
         <f>_xll.BDP(B11,"PX_LAST")*1.00000001</f>
-        <v>9070.0000906999994</v>
+        <v>8885.0000888499999</v>
       </c>
       <c r="D11" s="1">
         <f>IF(OR(_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"BEST_ANALYST_RATING"))</f>
@@ -14008,7 +14007,7 @@
         <f>IF(OR(_xll.BDP(B11,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B11,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B11,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B11,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"YLD_CNV_MID")),
 _xll.BDP(B11,"EQY_DVD_YLD_IND"))</f>
-        <v>4.1715544140194325</v>
+        <v>4.2584128908448227</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -14025,7 +14024,7 @@
       </c>
       <c r="C12" s="2">
         <f>_xll.BDP(B12,"PX_LAST")*1.00000001</f>
-        <v>4.0700000407000001</v>
+        <v>4.1400000413999996</v>
       </c>
       <c r="D12" s="1">
         <f>IF(OR(_xll.BDP(B12,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B12,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B12,"BEST_ANALYST_RATING"))</f>
@@ -14033,13 +14032,13 @@
       </c>
       <c r="E12" s="1">
         <f>IF(OR(_xll.BDP(B12,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B12,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B12,"BEST_TARGET_PRICE"))</f>
-        <v>5.4393749237060547</v>
+        <v>5.445624828338623</v>
       </c>
       <c r="F12" s="1">
         <f>IF(OR(_xll.BDP(B12,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B12,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B12,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B12,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B12,"YLD_CNV_MID")),
 _xll.BDP(B12,"EQY_DVD_YLD_IND"))</f>
-        <v>4.7911546154162803</v>
+        <v>4.7101447547691455</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
@@ -14056,7 +14055,7 @@
       </c>
       <c r="C13" s="2">
         <f>_xll.BDP(B13,"PX_LAST")*1.00000001</f>
-        <v>3216.0000321599996</v>
+        <v>3332.0000333199996</v>
       </c>
       <c r="D13" s="1">
         <f>IF(OR(_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"BEST_ANALYST_RATING"))</f>
@@ -14070,7 +14069,7 @@
         <f>IF(OR(_xll.BDP(B13,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B13,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B13,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B13,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"YLD_CNV_MID")),
 _xll.BDP(B13,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3682487725040922</v>
+        <v>4.9219687875150058</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -14087,7 +14086,7 @@
       </c>
       <c r="C14" s="2">
         <f>_xll.BDP(B14,"PX_LAST")*1.00000001</f>
-        <v>3.7500000374999996</v>
+        <v>3.8150000381499996</v>
       </c>
       <c r="D14" s="1">
         <f>IF(OR(_xll.BDP(B14,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B14,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"BEST_ANALYST_RATING"))</f>
@@ -14101,7 +14100,7 @@
         <f>IF(OR(_xll.BDP(B14,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B14,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B14,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B14,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"YLD_CNV_MID")),
 _xll.BDP(B14,"EQY_DVD_YLD_IND"))</f>
-        <v>1.5999999642372131</v>
+        <v>1.5831134210790367</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
@@ -14118,7 +14117,7 @@
       </c>
       <c r="C15" s="2">
         <f>_xll.BDP(B15,"PX_LAST")*1.00000001</f>
-        <v>17.600000176000002</v>
+        <v>17.550000175499999</v>
       </c>
       <c r="D15" s="1">
         <f>IF(OR(_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"BEST_ANALYST_RATING"))</f>
@@ -14132,7 +14131,7 @@
         <f>IF(OR(_xll.BDP(B15,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B15,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B15,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B15,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"YLD_CNV_MID")),
 _xll.BDP(B15,"EQY_DVD_YLD_IND"))</f>
-        <v>0.49532954157753423</v>
+        <v>0.49674073685268394</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
@@ -14149,7 +14148,7 @@
       </c>
       <c r="C16" s="2">
         <f>_xll.BDP(B16,"PX_LAST")*1.00000001</f>
-        <v>9.3000000929999995</v>
+        <v>9.8000000979999999</v>
       </c>
       <c r="D16" s="1">
         <f>IF(OR(_xll.BDP(B16,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B16,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B16,"BEST_ANALYST_RATING"))</f>
@@ -14180,7 +14179,7 @@
       </c>
       <c r="C17" s="2">
         <f>_xll.BDP(B17,"PX_LAST")*1.00000001</f>
-        <v>10.620000106199999</v>
+        <v>10.780000107799999</v>
       </c>
       <c r="D17" s="1">
         <f>IF(OR(_xll.BDP(B17,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B17,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"BEST_ANALYST_RATING"))</f>
@@ -14194,7 +14193,7 @@
         <f>IF(OR(_xll.BDP(B17,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B17,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B17,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B17,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"YLD_CNV_MID")),
 _xll.BDP(B17,"EQY_DVD_YLD_IND"))</f>
-        <v>7.6661580250986114</v>
+        <v>7.552374603575811</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
@@ -14211,7 +14210,7 @@
       </c>
       <c r="C18" s="2">
         <f>_xll.BDP(B18,"PX_LAST")*1.00000001</f>
-        <v>583.4000058339999</v>
+        <v>597.10000597099997</v>
       </c>
       <c r="D18" s="1">
         <f>IF(OR(_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"BEST_ANALYST_RATING"))</f>
@@ -14225,7 +14224,7 @@
         <f>IF(OR(_xll.BDP(B18,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B18,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B18,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B18,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"YLD_CNV_MID")),
 _xll.BDP(B18,"EQY_DVD_YLD_IND"))</f>
-        <v>8.2927667240512903</v>
+        <v>8.1024955732901081</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
@@ -14242,7 +14241,7 @@
       </c>
       <c r="C19" s="2">
         <f>_xll.BDP(B19,"PX_LAST")*1.00000001</f>
-        <v>4.3145000431449994</v>
+        <v>4.5645000456449996</v>
       </c>
       <c r="D19" s="1">
         <f>IF(OR(_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"BEST_ANALYST_RATING"))</f>
@@ -14256,7 +14255,7 @@
         <f>IF(OR(_xll.BDP(B19,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B19,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B19,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B19,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"YLD_CNV_MID")),
 _xll.BDP(B19,"EQY_DVD_YLD_IND"))</f>
-        <v>5.6582541619221569</v>
+        <v>5.3539269855059262</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
@@ -14273,7 +14272,7 @@
       </c>
       <c r="C20" s="2">
         <f>_xll.BDP(B20,"PX_LAST")*1.00000001</f>
-        <v>17.540000175399999</v>
+        <v>17.650000176499997</v>
       </c>
       <c r="D20" s="1">
         <f>IF(OR(_xll.BDP(B20,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B20,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B20,"BEST_ANALYST_RATING"))</f>
@@ -14287,7 +14286,7 @@
         <f>IF(OR(_xll.BDP(B20,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B20,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B20,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B20,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B20,"YLD_CNV_MID")),
 _xll.BDP(B20,"EQY_DVD_YLD_IND"))</f>
-        <v>1.0832382988358848</v>
+        <v>1.0764872386165112</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
@@ -14304,7 +14303,7 @@
       </c>
       <c r="C21" s="2">
         <f>_xll.BDP(B21,"PX_LAST")*1.00000001</f>
-        <v>23.080000230799996</v>
+        <v>23.380000233799997</v>
       </c>
       <c r="D21" s="1">
         <f>IF(OR(_xll.BDP(B21,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B21,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B21,"BEST_ANALYST_RATING"))</f>
@@ -14335,7 +14334,7 @@
       </c>
       <c r="C22" s="2">
         <f>_xll.BDP(B22,"PX_LAST")*1.00000001</f>
-        <v>106.79000106789999</v>
+        <v>106.87800106877999</v>
       </c>
       <c r="D22" s="1">
         <f>IF(OR(_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"BEST_ANALYST_RATING"))</f>
@@ -14349,7 +14348,7 @@
         <f>IF(OR(_xll.BDP(B22,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B22,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B22,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B22,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"YLD_CNV_MID")),
 _xll.BDP(B22,"EQY_DVD_YLD_IND"))</f>
-        <v>4.0618359000000002</v>
+        <v>4.0318094000000002</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
@@ -14366,7 +14365,7 @@
       </c>
       <c r="C23" s="2">
         <f>_xll.BDP(B23,"PX_LAST")*1.00000001</f>
-        <v>101.64000101639999</v>
+        <v>101.91300101912999</v>
       </c>
       <c r="D23" s="1">
         <f>IF(OR(_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"BEST_ANALYST_RATING"))</f>
@@ -14380,7 +14379,7 @@
         <f>IF(OR(_xll.BDP(B23,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B23,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B23,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B23,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"YLD_CNV_MID")),
 _xll.BDP(B23,"EQY_DVD_YLD_IND"))</f>
-        <v>4.3567020000000003</v>
+        <v>4.2712161999999996</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
@@ -14397,7 +14396,7 @@
       </c>
       <c r="C24" s="2">
         <f>_xll.BDP(B24,"PX_LAST")*1.00000001</f>
-        <v>104.97000104969999</v>
+        <v>105.0300010503</v>
       </c>
       <c r="D24" s="1">
         <f>IF(OR(_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"BEST_ANALYST_RATING"))</f>
@@ -14411,7 +14410,7 @@
         <f>IF(OR(_xll.BDP(B24,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B24,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B24,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B24,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"YLD_CNV_MID")),
 _xll.BDP(B24,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3078818999999999</v>
+        <v>5.1804493000000003</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
@@ -14428,7 +14427,7 @@
       </c>
       <c r="C25" s="2">
         <f>_xll.BDP(B25,"PX_LAST")*1.00000001</f>
-        <v>103.53400103534</v>
+        <v>103.55400103554</v>
       </c>
       <c r="D25" s="1">
         <f>IF(OR(_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"BEST_ANALYST_RATING"))</f>
@@ -14442,7 +14441,7 @@
         <f>IF(OR(_xll.BDP(B25,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B25,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B25,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B25,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"YLD_CNV_MID")),
 _xll.BDP(B25,"EQY_DVD_YLD_IND"))</f>
-        <v>4.0469777999999996</v>
+        <v>4.0419638000000004</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
@@ -14459,7 +14458,7 @@
       </c>
       <c r="C26" s="2">
         <f>_xll.BDP(B26,"PX_LAST")*1.00000001</f>
-        <v>103.10800103107999</v>
+        <v>103.24000103239999</v>
       </c>
       <c r="D26" s="1">
         <f>IF(OR(_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"BEST_ANALYST_RATING"))</f>
@@ -14473,7 +14472,7 @@
         <f>IF(OR(_xll.BDP(B26,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B26,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B26,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B26,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"YLD_CNV_MID")),
 _xll.BDP(B26,"EQY_DVD_YLD_IND"))</f>
-        <v>4.4652627000000003</v>
+        <v>4.4248912000000002</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
@@ -14490,7 +14489,7 @@
       </c>
       <c r="C27" s="2">
         <f>_xll.BDP(B27,"PX_LAST")*1.00000001</f>
-        <v>177.25000177249999</v>
+        <v>177.20000177199998</v>
       </c>
       <c r="D27" s="1">
         <f>IF(OR(_xll.BDP(B27,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B27,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B27,"BEST_ANALYST_RATING"))</f>
@@ -14504,7 +14503,7 @@
         <f>IF(OR(_xll.BDP(B27,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B27,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B27,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B27,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B27,"YLD_CNV_MID")),
 _xll.BDP(B27,"EQY_DVD_YLD_IND"))</f>
-        <v>4.0528608999999998</v>
+        <v>4.0555376000000001</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
@@ -14521,7 +14520,7 @@
       </c>
       <c r="C28" s="2">
         <f>_xll.BDP(B28,"PX_LAST")*1.00000001</f>
-        <v>93.200000931999995</v>
+        <v>95.160000951599997</v>
       </c>
       <c r="D28" s="1">
         <f>IF(OR(_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"BEST_ANALYST_RATING"))</f>
@@ -14535,7 +14534,7 @@
         <f>IF(OR(_xll.BDP(B28,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B28,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B28,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B28,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"YLD_CNV_MID")),
 _xll.BDP(B28,"EQY_DVD_YLD_IND"))</f>
-        <v>2.2116401208140863</v>
+        <v>9.3841953606302866</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
@@ -14552,7 +14551,7 @@
       </c>
       <c r="C29" s="2">
         <f>_xll.BDP(B29,"PX_LAST")*1.00000001</f>
-        <v>61.700000617000001</v>
+        <v>60.400000603999992</v>
       </c>
       <c r="D29" s="1">
         <f>IF(OR(_xll.BDP(B29,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B29,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B29,"BEST_ANALYST_RATING"))</f>
@@ -14614,7 +14613,7 @@
       </c>
       <c r="C31" s="2">
         <f>_xll.BDP(B31,"PX_LAST")*1.00000001</f>
-        <v>123.00000123</v>
+        <v>129.20000129199997</v>
       </c>
       <c r="D31" s="1">
         <f>IF(OR(_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"BEST_ANALYST_RATING"))</f>
@@ -14622,13 +14621,13 @@
       </c>
       <c r="E31" s="1">
         <f>IF(OR(_xll.BDP(B31,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B31,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"BEST_TARGET_PRICE"))</f>
-        <v>142.13432312011719</v>
+        <v>141.64179992675781</v>
       </c>
       <c r="F31" s="1">
         <f>IF(OR(_xll.BDP(B31,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B31,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B31,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B31,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"YLD_CNV_MID")),
 _xll.BDP(B31,"EQY_DVD_YLD_IND"))</f>
-        <v>6.10917527408873</v>
+        <v>6.1068110421715147</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
@@ -14645,7 +14644,7 @@
       </c>
       <c r="C32" s="2">
         <f>_xll.BDP(B32,"PX_LAST")*1.00000001</f>
-        <v>156.00000155999999</v>
+        <v>149.75000149749999</v>
       </c>
       <c r="D32" s="1">
         <f>IF(OR(_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"BEST_ANALYST_RATING"))</f>
@@ -14659,7 +14658,7 @@
         <f>IF(OR(_xll.BDP(B32,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B32,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B32,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B32,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"YLD_CNV_MID")),
 _xll.BDP(B32,"EQY_DVD_YLD_IND"))</f>
-        <v>6.3511448052093273</v>
+        <v>6.9333330790201817</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
@@ -14676,7 +14675,7 @@
       </c>
       <c r="C33" s="2">
         <f>_xll.BDP(B33,"PX_LAST")*1.00000001</f>
-        <v>7.6000000759999988</v>
+        <v>7.6500000764999996</v>
       </c>
       <c r="D33" s="1">
         <f>IF(OR(_xll.BDP(B33,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B33,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B33,"BEST_ANALYST_RATING"))</f>
@@ -14690,7 +14689,7 @@
         <f>IF(OR(_xll.BDP(B33,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B33,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B33,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B33,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B33,"YLD_CNV_MID")),
 _xll.BDP(B33,"EQY_DVD_YLD_IND"))</f>
-        <v>3.7383550876065303</v>
+        <v>3.713921394223481</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
@@ -14738,7 +14737,7 @@
       </c>
       <c r="C35" s="2">
         <f>_xll.BDP(B35,"PX_LAST")*1.00000001</f>
-        <v>56.900000568999992</v>
+        <v>56.800000567999994</v>
       </c>
       <c r="D35" s="1">
         <f>IF(OR(_xll.BDP(B35,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B35,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B35,"BEST_ANALYST_RATING"))</f>
@@ -14769,7 +14768,7 @@
       </c>
       <c r="C36" s="2">
         <f>_xll.BDP(B36,"PX_LAST")*1.00000001</f>
-        <v>2850.0000284999996</v>
+        <v>2915.500029155</v>
       </c>
       <c r="D36" s="1">
         <f>IF(OR(_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"BEST_ANALYST_RATING"))</f>
@@ -14783,7 +14782,7 @@
         <f>IF(OR(_xll.BDP(B36,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B36,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B36,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B36,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"YLD_CNV_MID")),
 _xll.BDP(B36,"EQY_DVD_YLD_IND"))</f>
-        <v>6.5591020694493158</v>
+        <v>6.4139941690962097</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
@@ -14800,7 +14799,7 @@
       </c>
       <c r="C37" s="2">
         <f>_xll.BDP(B37,"PX_LAST")*1.00000001</f>
-        <v>266.55000266550002</v>
+        <v>273.20000273199997</v>
       </c>
       <c r="D37" s="1">
         <f>IF(OR(_xll.BDP(B37,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B37,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B37,"BEST_ANALYST_RATING"))</f>
@@ -14814,7 +14813,7 @@
         <f>IF(OR(_xll.BDP(B37,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B37,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B37,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B37,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B37,"YLD_CNV_MID")),
 _xll.BDP(B37,"EQY_DVD_YLD_IND"))</f>
-        <v>11.705121276660833</v>
+        <v>11.409764404073671</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
@@ -14831,7 +14830,7 @@
       </c>
       <c r="C38" s="2">
         <f>_xll.BDP(B38,"PX_LAST")*1.00000001</f>
-        <v>378.00000377999999</v>
+        <v>377.00000376999998</v>
       </c>
       <c r="D38" s="1">
         <f>IF(OR(_xll.BDP(B38,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B38,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B38,"BEST_ANALYST_RATING"))</f>
@@ -14845,7 +14844,7 @@
         <f>IF(OR(_xll.BDP(B38,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B38,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B38,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B38,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B38,"YLD_CNV_MID")),
 _xll.BDP(B38,"EQY_DVD_YLD_IND"))</f>
-        <v>5.2910052910052912</v>
+        <v>5.3050397877984086</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
@@ -14862,7 +14861,7 @@
       </c>
       <c r="C39" s="2">
         <f>_xll.BDP(B39,"PX_LAST")*1.00000001</f>
-        <v>6.9800000698</v>
+        <v>6.9900000698999998</v>
       </c>
       <c r="D39" s="1">
         <f>IF(OR(_xll.BDP(B39,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B39,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"BEST_ANALYST_RATING"))</f>
@@ -14876,7 +14875,7 @@
         <f>IF(OR(_xll.BDP(B39,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B39,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B39,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B39,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"YLD_CNV_MID")),
 _xll.BDP(B39,"EQY_DVD_YLD_IND"))</f>
-        <v>11.126052481787545</v>
+        <v>11.141969581189244</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
@@ -14893,7 +14892,7 @@
       </c>
       <c r="C40" s="2">
         <f>_xll.BDP(B40,"PX_LAST")*1.00000001</f>
-        <v>200.45000200449996</v>
+        <v>197.35000197349999</v>
       </c>
       <c r="D40" s="1">
         <f>IF(OR(_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"BEST_ANALYST_RATING"))</f>
@@ -14907,7 +14906,7 @@
         <f>IF(OR(_xll.BDP(B40,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B40,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B40,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B40,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"YLD_CNV_MID")),
 _xll.BDP(B40,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3280121253059525</v>
+        <v>5.4117052471121267</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
@@ -14924,7 +14923,7 @@
       </c>
       <c r="C41" s="2">
         <f>_xll.BDP(B41,"PX_LAST")*1.00000001</f>
-        <v>72.550000725499999</v>
+        <v>73.850000738499986</v>
       </c>
       <c r="D41" s="1">
         <f>IF(OR(_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"BEST_ANALYST_RATING"))</f>
@@ -14938,7 +14937,7 @@
         <f>IF(OR(_xll.BDP(B41,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B41,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B41,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B41,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"YLD_CNV_MID")),
 _xll.BDP(B41,"EQY_DVD_YLD_IND"))</f>
-        <v>2.6740179975471521</v>
+        <v>2.6269465906844403</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
@@ -14955,7 +14954,7 @@
       </c>
       <c r="C42" s="2">
         <f>_xll.BDP(B42,"PX_LAST")*1.00000001</f>
-        <v>2.5710000257100001</v>
+        <v>2.5850000258499999</v>
       </c>
       <c r="D42" s="1">
         <f>IF(OR(_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"BEST_ANALYST_RATING"))</f>
@@ -14969,7 +14968,7 @@
         <f>IF(OR(_xll.BDP(B42,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B42,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B42,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B42,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"YLD_CNV_MID")),
 _xll.BDP(B42,"EQY_DVD_YLD_IND"))</f>
-        <v>10.499952832625931</v>
+        <v>10.4390482338288</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
@@ -14986,7 +14985,7 @@
       </c>
       <c r="C43" s="2">
         <f>_xll.BDP(B43,"PX_LAST")*1.00000001</f>
-        <v>0.19000000189999999</v>
+        <v>0.18500000184999998</v>
       </c>
       <c r="D43" s="1">
         <f>IF(OR(_xll.BDP(B43,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B43,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B43,"BEST_ANALYST_RATING"))</f>
@@ -14994,7 +14993,7 @@
       </c>
       <c r="E43" s="1">
         <f>IF(OR(_xll.BDP(B43,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B43,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B43,"BEST_TARGET_PRICE"))</f>
-        <v>0.31666666269302368</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="F43" s="1">
         <f>IF(OR(_xll.BDP(B43,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B43,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
@@ -15017,7 +15016,7 @@
       </c>
       <c r="C44" s="2">
         <f>_xll.BDP(B44,"PX_LAST")*1.00000001</f>
-        <v>60.500000604999997</v>
+        <v>62.450000624499999</v>
       </c>
       <c r="D44" s="1">
         <f>IF(OR(_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"BEST_ANALYST_RATING"))</f>
@@ -15031,7 +15030,7 @@
         <f>IF(OR(_xll.BDP(B44,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B44,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B44,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B44,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"YLD_CNV_MID")),
 _xll.BDP(B44,"EQY_DVD_YLD_IND"))</f>
-        <v>1.7355371112665854</v>
+        <v>1.6813449997058194</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
@@ -15048,7 +15047,7 @@
       </c>
       <c r="C45" s="2">
         <f>_xll.BDP(B45,"PX_LAST")*1.00000001</f>
-        <v>227.00000226999998</v>
+        <v>221.90000221899999</v>
       </c>
       <c r="D45" s="1">
         <f>IF(OR(_xll.BDP(B45,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B45,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B45,"BEST_ANALYST_RATING"))</f>
@@ -15079,7 +15078,7 @@
       </c>
       <c r="C46" s="2">
         <f>_xll.BDP(B46,"PX_LAST")*1.00000001</f>
-        <v>7.7300000772999997</v>
+        <v>7.8600000785999997</v>
       </c>
       <c r="D46" s="1">
         <f>IF(OR(_xll.BDP(B46,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B46,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B46,"BEST_ANALYST_RATING"))</f>
@@ -15093,7 +15092,7 @@
         <f>IF(OR(_xll.BDP(B46,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B46,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B46,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B46,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B46,"YLD_CNV_MID")),
 _xll.BDP(B46,"EQY_DVD_YLD_IND"))</f>
-        <v>8.5832672848213463</v>
+        <v>8.8562719694530685</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="0"/>
@@ -15110,7 +15109,7 @@
       </c>
       <c r="C47" s="2">
         <f>_xll.BDP(B47,"PX_LAST")*1.00000001</f>
-        <v>8538.0000853799993</v>
+        <v>8711.0000871100001</v>
       </c>
       <c r="D47" s="1">
         <f>IF(OR(_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"BEST_ANALYST_RATING"))</f>
@@ -15124,7 +15123,7 @@
         <f>IF(OR(_xll.BDP(B47,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B47,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B47,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B47,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"YLD_CNV_MID")),
 _xll.BDP(B47,"EQY_DVD_YLD_IND"))</f>
-        <v>9.9107640825432242</v>
+        <v>10.199747445758236</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
@@ -15141,7 +15140,7 @@
       </c>
       <c r="C48" s="2">
         <f>_xll.BDP(B48,"PX_LAST")*1.00000001</f>
-        <v>857.50000857499992</v>
+        <v>848.50000848499997</v>
       </c>
       <c r="D48" s="1">
         <f>IF(OR(_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"BEST_ANALYST_RATING"))</f>
@@ -15155,7 +15154,7 @@
         <f>IF(OR(_xll.BDP(B48,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B48,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B48,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B48,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"YLD_CNV_MID")),
 _xll.BDP(B48,"EQY_DVD_YLD_IND"))</f>
-        <v>9.0962099125364428</v>
+        <v>9.1926929876252217</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
@@ -15172,7 +15171,7 @@
       </c>
       <c r="C49" s="2">
         <f>_xll.BDP(B49,"PX_LAST")*1.00000001</f>
-        <v>62.55000062549999</v>
+        <v>61.800000617999991</v>
       </c>
       <c r="D49" s="1">
         <f>IF(OR(_xll.BDP(B49,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B49,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B49,"BEST_ANALYST_RATING"))</f>
@@ -15203,7 +15202,7 @@
       </c>
       <c r="C50" s="2">
         <f>_xll.BDP(B50,"PX_LAST")*1.00000001</f>
-        <v>10.200000101999999</v>
+        <v>10.300000103</v>
       </c>
       <c r="D50" s="1">
         <f>IF(OR(_xll.BDP(B50,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B50,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B50,"BEST_ANALYST_RATING"))</f>
@@ -15217,7 +15216,7 @@
         <f>IF(OR(_xll.BDP(B50,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B50,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B50,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B50,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B50,"YLD_CNV_MID")),
 _xll.BDP(B50,"EQY_DVD_YLD_IND"))</f>
-        <v>7.3450979064492623</v>
+        <v>7.2737862762895595</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
@@ -15234,7 +15233,7 @@
       </c>
       <c r="C51" s="2">
         <f>_xll.BDP(B51,"PX_LAST")*1.00000001</f>
-        <v>6.0800000607999997E-2</v>
+        <v>6.3950000639500001E-2</v>
       </c>
       <c r="D51" s="1">
         <f>IF(OR(_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"BEST_ANALYST_RATING"))</f>
@@ -15248,7 +15247,7 @@
         <f>IF(OR(_xll.BDP(B51,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B51,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B51,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B51,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"YLD_CNV_MID")),
 _xll.BDP(B51,"EQY_DVD_YLD_IND"))</f>
-        <v>2.095394799988227</v>
+        <v>1.9937402791750263</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
@@ -15265,7 +15264,7 @@
       </c>
       <c r="C52" s="2">
         <f>_xll.BDP(B52,"PX_LAST")*1.00000001</f>
-        <v>54.800000547999993</v>
+        <v>55.200000551999999</v>
       </c>
       <c r="D52" s="1">
         <f>IF(OR(_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B52,"BEST_ANALYST_RATING"))</f>
@@ -15296,7 +15295,7 @@
       </c>
       <c r="C53" s="2">
         <f>_xll.BDP(B53,"PX_LAST")*1.00000001</f>
-        <v>23.960000239599999</v>
+        <v>22.600000225999999</v>
       </c>
       <c r="D53" s="1">
         <f>IF(OR(_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B53,"BEST_ANALYST_RATING"))</f>
@@ -15310,7 +15309,7 @@
         <f>IF(OR(_xll.BDP(B53,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B53,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B53,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B53,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B53,"YLD_CNV_MID")),
 _xll.BDP(B53,"EQY_DVD_YLD_IND"))</f>
-        <v>18.11352317440689</v>
+        <v>19.169611981395278</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
@@ -15327,7 +15326,7 @@
       </c>
       <c r="C54" s="2">
         <f>_xll.BDP(B54,"PX_LAST")*1.00000001</f>
-        <v>17.01500017015</v>
+        <v>17.00000017</v>
       </c>
       <c r="D54" s="1">
         <f>IF(OR(_xll.BDP(B54,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B54,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B54,"BEST_ANALYST_RATING"))</f>
@@ -15358,7 +15357,7 @@
       </c>
       <c r="C55" s="2">
         <f>_xll.BDP(B55,"PX_LAST")*1.00000001</f>
-        <v>123.47000123469999</v>
+        <v>122.24000122239998</v>
       </c>
       <c r="D55" s="1">
         <f>IF(OR(_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B55,"BEST_ANALYST_RATING"))</f>
@@ -15389,7 +15388,7 @@
       </c>
       <c r="C56" s="2">
         <f>_xll.BDP(B56,"PX_LAST")*1.00000001</f>
-        <v>75.75000075749999</v>
+        <v>75.550000755499994</v>
       </c>
       <c r="D56" s="1">
         <f>IF(OR(_xll.BDP(B56,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B56,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B56,"BEST_ANALYST_RATING"))</f>
@@ -15420,7 +15419,7 @@
       </c>
       <c r="C57" s="2">
         <f>_xll.BDP(B57,"PX_LAST")*1.00000001</f>
-        <v>100.000001</v>
+        <v>100.800001008</v>
       </c>
       <c r="D57" s="1">
         <f>IF(OR(_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"BEST_ANALYST_RATING"))</f>
@@ -15434,7 +15433,7 @@
         <f>IF(OR(_xll.BDP(B57,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B57,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B57,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B57,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"YLD_CNV_MID")),
 _xll.BDP(B57,"EQY_DVD_YLD_IND"))</f>
-        <v>18.5</v>
+        <v>18.353174603174605</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
@@ -15451,7 +15450,7 @@
       </c>
       <c r="C58" s="2">
         <f>_xll.BDP(B58,"PX_LAST")*1.00000001</f>
-        <v>573.00000573</v>
+        <v>590.00000590000002</v>
       </c>
       <c r="D58" s="1">
         <f>IF(OR(_xll.BDP(B58,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B58,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B58,"BEST_ANALYST_RATING"))</f>
@@ -15482,7 +15481,7 @@
       </c>
       <c r="C59" s="2">
         <f>_xll.BDP(B59,"PX_LAST")*1.00000001</f>
-        <v>1.209500012095E-2</v>
+        <v>1.2725000127249999E-2</v>
       </c>
       <c r="D59" s="1">
         <f>IF(OR(_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"BEST_ANALYST_RATING"))</f>
@@ -15496,7 +15495,7 @@
         <f>IF(OR(_xll.BDP(B59,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B59,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B59,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B59,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"YLD_CNV_MID")),
 _xll.BDP(B59,"EQY_DVD_YLD_IND"))</f>
-        <v>2.0091277718507046</v>
+        <v>1.908158649433394</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
@@ -15513,7 +15512,7 @@
       </c>
       <c r="C60" s="2">
         <f>_xll.BDP(B60,"PX_LAST")*1.00000001</f>
-        <v>151.80000151800002</v>
+        <v>150.20000150199999</v>
       </c>
       <c r="D60" s="1">
         <f>IF(OR(_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B60,"BEST_ANALYST_RATING"))</f>
@@ -15544,7 +15543,7 @@
       </c>
       <c r="C61" s="2">
         <f>_xll.BDP(B61,"PX_LAST")*1.00000001</f>
-        <v>102.82800102828</v>
+        <v>102.87400102873998</v>
       </c>
       <c r="D61" s="1">
         <f>IF(OR(_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"BEST_ANALYST_RATING"))</f>
@@ -15558,7 +15557,7 @@
         <f>IF(OR(_xll.BDP(B61,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B61,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B61,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B61,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"YLD_CNV_MID")),
 _xll.BDP(B61,"EQY_DVD_YLD_IND"))</f>
-        <v>3.8592693000000002</v>
+        <v>3.8421007999999999</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
@@ -15668,7 +15667,7 @@
       </c>
       <c r="C65" s="2">
         <f>_xll.BDP(B65,"PX_LAST")*1.00000001</f>
-        <v>107.83000107829999</v>
+        <v>107.80700107807</v>
       </c>
       <c r="D65" s="1">
         <f>IF(OR(_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"BEST_ANALYST_RATING"))</f>
@@ -15682,7 +15681,7 @@
         <f>IF(OR(_xll.BDP(B65,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B65,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B65,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B65,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"YLD_CNV_MID")),
 _xll.BDP(B65,"EQY_DVD_YLD_IND"))</f>
-        <v>6.2236971199999997</v>
+        <v>6.2300630899999998</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
@@ -15699,7 +15698,7 @@
       </c>
       <c r="C66" s="2">
         <f>_xll.BDP(B66,"PX_LAST")*1.00000001</f>
-        <v>103.41000103409999</v>
+        <v>103.200001032</v>
       </c>
       <c r="D66" s="1">
         <f>IF(OR(_xll.BDP(B66,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B66,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B66,"BEST_ANALYST_RATING"))</f>
@@ -15713,10 +15712,10 @@
         <f>IF(OR(_xll.BDP(B66,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B66,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B66,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B66,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B66,"YLD_CNV_MID")),
 _xll.BDP(B66,"EQY_DVD_YLD_IND"))</f>
-        <v>9.75</v>
+        <v>9.82</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66:G107" si="1">COUNTIF($B:$B,B66)</f>
+        <f t="shared" ref="G66:G106" si="1">COUNTIF($B:$B,B66)</f>
         <v>1</v>
       </c>
     </row>
@@ -15730,7 +15729,7 @@
       </c>
       <c r="C67" s="2">
         <f>_xll.BDP(B67,"PX_LAST")*1.00000001</f>
-        <v>106.8400010684</v>
+        <v>106.900001069</v>
       </c>
       <c r="D67" s="1">
         <f>IF(OR(_xll.BDP(B67,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B67,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B67,"BEST_ANALYST_RATING"))</f>
@@ -15761,7 +15760,7 @@
       </c>
       <c r="C68" s="2">
         <f>_xll.BDP(B68,"PX_LAST")*1.00000001</f>
-        <v>102.72300102723</v>
+        <v>103.54800103548</v>
       </c>
       <c r="D68" s="1">
         <f>IF(OR(_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"BEST_ANALYST_RATING"))</f>
@@ -15775,7 +15774,7 @@
         <f>IF(OR(_xll.BDP(B68,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B68,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B68,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B68,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"YLD_CNV_MID")),
 _xll.BDP(B68,"EQY_DVD_YLD_IND"))</f>
-        <v>7.1996434999999996</v>
+        <v>6.8877040999999997</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="1"/>
@@ -15806,7 +15805,7 @@
         <f>IF(OR(_xll.BDP(B69,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B69,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B69,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B69,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B69,"YLD_CNV_MID")),
 _xll.BDP(B69,"EQY_DVD_YLD_IND"))</f>
-        <v>10.41</v>
+        <v>10.37</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="1"/>
@@ -15823,7 +15822,7 @@
       </c>
       <c r="C70" s="2">
         <f>_xll.BDP(B70,"PX_LAST")*1.00000001</f>
-        <v>98.390000983899995</v>
+        <v>98.600010986000086</v>
       </c>
       <c r="D70" s="1">
         <f>IF(OR(_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"BEST_ANALYST_RATING"))</f>
@@ -15837,7 +15836,7 @@
         <f>IF(OR(_xll.BDP(B70,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B70,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B70,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B70,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"YLD_CNV_MID")),
 _xll.BDP(B70,"EQY_DVD_YLD_IND"))</f>
-        <v>8.48</v>
+        <v>8.19</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="1"/>
@@ -15854,7 +15853,7 @@
       </c>
       <c r="C71" s="2">
         <f>_xll.BDP(B71,"PX_LAST")*1.00000001</f>
-        <v>99.750000997499995</v>
+        <v>100.000001</v>
       </c>
       <c r="D71" s="1">
         <f>IF(OR(_xll.BDP(B71,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B71,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B71,"BEST_ANALYST_RATING"))</f>
@@ -15868,7 +15867,7 @@
         <f>IF(OR(_xll.BDP(B71,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B71,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B71,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B71,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B71,"YLD_CNV_MID")),
 _xll.BDP(B71,"EQY_DVD_YLD_IND"))</f>
-        <v>16.18</v>
+        <v>9.57</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="1"/>
@@ -15885,7 +15884,7 @@
       </c>
       <c r="C72" s="2">
         <f>_xll.BDP(B72,"PX_LAST")*1.00000001</f>
-        <v>98.990000989899983</v>
+        <v>99.00000098999999</v>
       </c>
       <c r="D72" s="1">
         <f>IF(OR(_xll.BDP(B72,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B72,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B72,"BEST_ANALYST_RATING"))</f>
@@ -15899,7 +15898,7 @@
         <f>IF(OR(_xll.BDP(B72,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B72,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B72,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B72,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B72,"YLD_CNV_MID")),
 _xll.BDP(B72,"EQY_DVD_YLD_IND"))</f>
-        <v>9.243148615253304</v>
+        <v>9.2401420076666074</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="1"/>
@@ -15978,7 +15977,7 @@
       </c>
       <c r="C75" s="2">
         <f>_xll.BDP(B75,"PX_LAST")*1.00000001</f>
-        <v>101.4800010148</v>
+        <v>101.500001015</v>
       </c>
       <c r="D75" s="1">
         <f>IF(OR(_xll.BDP(B75,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B75,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B75,"BEST_ANALYST_RATING"))</f>
@@ -15992,7 +15991,7 @@
         <f>IF(OR(_xll.BDP(B75,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B75,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B75,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B75,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B75,"YLD_CNV_MID")),
 _xll.BDP(B75,"EQY_DVD_YLD_IND"))</f>
-        <v>10.45</v>
+        <v>10.67</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="1"/>
@@ -16009,7 +16008,7 @@
       </c>
       <c r="C76" s="2">
         <f>_xll.BDP(B76,"PX_LAST")*1.00000001</f>
-        <v>101.4500010145</v>
+        <v>101.80000101799999</v>
       </c>
       <c r="D76" s="1">
         <f>IF(OR(_xll.BDP(B76,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B76,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B76,"BEST_ANALYST_RATING"))</f>
@@ -16023,7 +16022,7 @@
         <f>IF(OR(_xll.BDP(B76,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B76,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B76,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B76,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B76,"YLD_CNV_MID")),
 _xll.BDP(B76,"EQY_DVD_YLD_IND"))</f>
-        <v>10.48</v>
+        <v>10.59</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="1"/>
@@ -16040,7 +16039,7 @@
       </c>
       <c r="C77" s="2">
         <f>_xll.BDP(B77,"PX_LAST")*1.00000001</f>
-        <v>108.23100108230999</v>
+        <v>108.38300108383</v>
       </c>
       <c r="D77" s="1">
         <f>IF(OR(_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"BEST_ANALYST_RATING"))</f>
@@ -16054,7 +16053,7 @@
         <f>IF(OR(_xll.BDP(B77,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B77,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B77,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B77,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"YLD_CNV_MID")),
 _xll.BDP(B77,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5386699999999998</v>
+        <v>4.5131622</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="1"/>
@@ -16071,7 +16070,7 @@
       </c>
       <c r="C78" s="2">
         <f>_xll.BDP(B78,"PX_LAST")*1.00000001</f>
-        <v>101.20500101204999</v>
+        <v>101.27700101277</v>
       </c>
       <c r="D78" s="1">
         <f>IF(OR(_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"BEST_ANALYST_RATING"))</f>
@@ -16085,7 +16084,7 @@
         <f>IF(OR(_xll.BDP(B78,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B78,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B78,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B78,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"YLD_CNV_MID")),
 _xll.BDP(B78,"EQY_DVD_YLD_IND"))</f>
-        <v>4.1233046468287533</v>
+        <v>4.1089899119938265</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="1"/>
@@ -16102,7 +16101,7 @@
       </c>
       <c r="C79" s="2">
         <f>_xll.BDP(B79,"PX_LAST")*1.00000001</f>
-        <v>102.700001027</v>
+        <v>102.65000102649999</v>
       </c>
       <c r="D79" s="1">
         <f>IF(OR(_xll.BDP(B79,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B79,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B79,"BEST_ANALYST_RATING"))</f>
@@ -16116,7 +16115,7 @@
         <f>IF(OR(_xll.BDP(B79,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B79,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B79,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B79,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B79,"YLD_CNV_MID")),
 _xll.BDP(B79,"EQY_DVD_YLD_IND"))</f>
-        <v>9.4600000000000009</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="1"/>
@@ -16133,7 +16132,7 @@
       </c>
       <c r="C80" s="2">
         <f>_xll.BDP(B80,"PX_LAST")*1.00000001</f>
-        <v>98.850000988499986</v>
+        <v>98.600000985999984</v>
       </c>
       <c r="D80" s="1">
         <f>IF(OR(_xll.BDP(B80,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B80,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B80,"BEST_ANALYST_RATING"))</f>
@@ -16147,7 +16146,7 @@
         <f>IF(OR(_xll.BDP(B80,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B80,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B80,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B80,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B80,"YLD_CNV_MID")),
 _xll.BDP(B80,"EQY_DVD_YLD_IND"))</f>
-        <v>10.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="1"/>
@@ -16178,7 +16177,7 @@
         <f>IF(OR(_xll.BDP(B81,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B81,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B81,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B81,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B81,"YLD_CNV_MID")),
 _xll.BDP(B81,"EQY_DVD_YLD_IND"))</f>
-        <v>8.77</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="1"/>
@@ -16195,7 +16194,7 @@
       </c>
       <c r="C82" s="2">
         <f>_xll.BDP(B82,"PX_LAST")*1.00000001</f>
-        <v>99.740000997399989</v>
+        <v>99.750000997499995</v>
       </c>
       <c r="D82" s="1">
         <f>IF(OR(_xll.BDP(B82,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B82,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B82,"BEST_ANALYST_RATING"))</f>
@@ -16209,7 +16208,7 @@
         <f>IF(OR(_xll.BDP(B82,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B82,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B82,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B82,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B82,"YLD_CNV_MID")),
 _xll.BDP(B82,"EQY_DVD_YLD_IND"))</f>
-        <v>9.3841482172127613</v>
+        <v>9.3428782707195133</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="1"/>
@@ -16226,7 +16225,7 @@
       </c>
       <c r="C83" s="2">
         <f>_xll.BDP(B83,"PX_LAST")*1.00000001</f>
-        <v>83.122000831219992</v>
+        <v>82.080000820799995</v>
       </c>
       <c r="D83" s="1">
         <f>IF(OR(_xll.BDP(B83,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B83,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B83,"BEST_ANALYST_RATING"))</f>
@@ -16240,7 +16239,7 @@
         <f>IF(OR(_xll.BDP(B83,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B83,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B83,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B83,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B83,"YLD_CNV_MID")),
 _xll.BDP(B83,"EQY_DVD_YLD_IND"))</f>
-        <v>25.678840126076174</v>
+        <v>26.746994134754143</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="1"/>
@@ -16257,7 +16256,7 @@
       </c>
       <c r="C84" s="2">
         <f>_xll.BDP(B84,"PX_LAST")*1.00000001</f>
-        <v>109.08400109083999</v>
+        <v>109.1700010917</v>
       </c>
       <c r="D84" s="1">
         <f>IF(OR(_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"BEST_ANALYST_RATING"))</f>
@@ -16271,7 +16270,7 @@
         <f>IF(OR(_xll.BDP(B84,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B84,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B84,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B84,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"YLD_CNV_MID")),
 _xll.BDP(B84,"EQY_DVD_YLD_IND"))</f>
-        <v>5.0326697999999999</v>
+        <v>5.0126793999999997</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="1"/>
@@ -16302,7 +16301,7 @@
         <f>IF(OR(_xll.BDP(B85,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B85,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B85,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B85,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B85,"YLD_CNV_MID")),
 _xll.BDP(B85,"EQY_DVD_YLD_IND"))</f>
-        <v>9.5</v>
+        <v>9.61</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="1"/>
@@ -16319,7 +16318,7 @@
       </c>
       <c r="C86" s="2">
         <f>_xll.BDP(B86,"PX_LAST")*1.00000001</f>
-        <v>20.955000209549997</v>
+        <v>21.545000215449999</v>
       </c>
       <c r="D86" s="1">
         <f>IF(OR(_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"BEST_ANALYST_RATING"))</f>
@@ -16333,7 +16332,7 @@
         <f>IF(OR(_xll.BDP(B86,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B86,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B86,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B86,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"YLD_CNV_MID")),
 _xll.BDP(B86,"EQY_DVD_YLD_IND"))</f>
-        <v>7.7308518480953072</v>
+        <v>7.5191459956758937</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="1"/>
@@ -16350,7 +16349,7 @@
       </c>
       <c r="C87" s="2">
         <f>_xll.BDP(B87,"PX_LAST")*1.00000001</f>
-        <v>11.850000118499999</v>
+        <v>12.000000119999999</v>
       </c>
       <c r="D87" s="1">
         <f>IF(OR(_xll.BDP(B87,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B87,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B87,"BEST_ANALYST_RATING"))</f>
@@ -16364,7 +16363,7 @@
         <f>IF(OR(_xll.BDP(B87,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B87,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B87,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B87,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B87,"YLD_CNV_MID")),
 _xll.BDP(B87,"EQY_DVD_YLD_IND"))</f>
-        <v>9.7890292541890211</v>
+        <v>9.6666663885116577</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="1"/>
@@ -16381,7 +16380,7 @@
       </c>
       <c r="C88" s="2">
         <f>_xll.BDP(B88,"PX_LAST")*1.00000001</f>
-        <v>13.080000130799998</v>
+        <v>13.400000133999999</v>
       </c>
       <c r="D88" s="1">
         <f>IF(OR(_xll.BDP(B88,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B88,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B88,"BEST_ANALYST_RATING"))</f>
@@ -16412,7 +16411,7 @@
       </c>
       <c r="C89" s="2">
         <f>_xll.BDP(B89,"PX_LAST")*1.00000001</f>
-        <v>105.34800105347999</v>
+        <v>105.33100105330999</v>
       </c>
       <c r="D89" s="1">
         <f>IF(OR(_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"BEST_ANALYST_RATING"))</f>
@@ -16426,7 +16425,7 @@
         <f>IF(OR(_xll.BDP(B89,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B89,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B89,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B89,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"YLD_CNV_MID")),
 _xll.BDP(B89,"EQY_DVD_YLD_IND"))</f>
-        <v>4.1438985032694902</v>
+        <v>4.1529363950878215</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="1"/>
@@ -16443,7 +16442,7 @@
       </c>
       <c r="C90" s="2">
         <f>_xll.BDP(B90,"PX_LAST")*1.00000001</f>
-        <v>101.25000101249999</v>
+        <v>101.439801014398</v>
       </c>
       <c r="D90" s="1">
         <f>IF(OR(_xll.BDP(B90,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B90,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B90,"BEST_ANALYST_RATING"))</f>
@@ -16457,7 +16456,7 @@
         <f>IF(OR(_xll.BDP(B90,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B90,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B90,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B90,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B90,"YLD_CNV_MID")),
 _xll.BDP(B90,"EQY_DVD_YLD_IND"))</f>
-        <v>4.2910489113380414</v>
+        <v>4.0683852020357838</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="1"/>
@@ -16474,21 +16473,21 @@
       </c>
       <c r="C91" s="2">
         <f>_xll.BDP(B91,"PX_LAST")*1.00000001</f>
-        <v>3.8100000380999997</v>
+        <v>3.9100000390999998</v>
       </c>
       <c r="D91" s="1">
         <f>IF(OR(_xll.BDP(B91,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B91,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B91,"BEST_ANALYST_RATING"))</f>
-        <v>4.5</v>
+        <v>4.4285712242126465</v>
       </c>
       <c r="E91" s="1">
         <f>IF(OR(_xll.BDP(B91,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B91,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B91,"BEST_TARGET_PRICE"))</f>
-        <v>4.851250171661377</v>
+        <v>4.9728569984436035</v>
       </c>
       <c r="F91" s="1">
         <f>IF(OR(_xll.BDP(B91,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B91,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B91,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B91,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B91,"YLD_CNV_MID")),
 _xll.BDP(B91,"EQY_DVD_YLD_IND"))</f>
-        <v>3.3485897256946311</v>
+        <v>3.2629480447305745</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="1"/>
@@ -16505,7 +16504,7 @@
       </c>
       <c r="C92" s="2">
         <f>_xll.BDP(B92,"PX_LAST")*1.00000001</f>
-        <v>29.49500029495</v>
+        <v>29.360000293599999</v>
       </c>
       <c r="D92" s="1">
         <f>IF(OR(_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"BEST_ANALYST_RATING"))</f>
@@ -16513,13 +16512,13 @@
       </c>
       <c r="E92" s="1">
         <f>IF(OR(_xll.BDP(B92,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B92,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"BEST_TARGET_PRICE"))</f>
-        <v>36.830867767333984</v>
+        <v>36.704414367675781</v>
       </c>
       <c r="F92" s="1">
         <f>IF(OR(_xll.BDP(B92,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B92,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B92,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B92,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"YLD_CNV_MID")),
 _xll.BDP(B92,"EQY_DVD_YLD_IND"))</f>
-        <v>23.461603920304949</v>
+        <v>23.569482548685102</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="1"/>
@@ -16536,7 +16535,7 @@
       </c>
       <c r="C93" s="2">
         <f>_xll.BDP(B93,"PX_LAST")*1.00000001</f>
-        <v>106.29900106299</v>
+        <v>106.3400010634</v>
       </c>
       <c r="D93" s="1">
         <f>IF(OR(_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"BEST_ANALYST_RATING"))</f>
@@ -16550,7 +16549,7 @@
         <f>IF(OR(_xll.BDP(B93,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B93,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B93,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B93,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"YLD_CNV_MID")),
 _xll.BDP(B93,"EQY_DVD_YLD_IND"))</f>
-        <v>3.4018347000000002</v>
+        <v>3.3884409</v>
       </c>
       <c r="G93" s="1">
         <f t="shared" si="1"/>
@@ -16567,7 +16566,7 @@
       </c>
       <c r="C94" s="2">
         <f>_xll.BDP(B94,"PX_LAST")*1.00000001</f>
-        <v>103.30000103299999</v>
+        <v>103.29000103289999</v>
       </c>
       <c r="D94" s="1">
         <f>IF(OR(_xll.BDP(B94,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B94,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B94,"BEST_ANALYST_RATING"))</f>
@@ -16581,7 +16580,7 @@
         <f>IF(OR(_xll.BDP(B94,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B94,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B94,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B94,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B94,"YLD_CNV_MID")),
 _xll.BDP(B94,"EQY_DVD_YLD_IND"))</f>
-        <v>10.130000000000001</v>
+        <v>10.24</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" si="1"/>
@@ -16612,7 +16611,7 @@
         <f>IF(OR(_xll.BDP(B95,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B95,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B95,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B95,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B95,"YLD_CNV_MID")),
 _xll.BDP(B95,"EQY_DVD_YLD_IND"))</f>
-        <v>9.36</v>
+        <v>9.4</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="1"/>
@@ -16629,7 +16628,7 @@
       </c>
       <c r="C96" s="2">
         <f>_xll.BDP(B96,"PX_LAST")*1.00000001</f>
-        <v>103.74000103739999</v>
+        <v>103.85000103849998</v>
       </c>
       <c r="D96" s="1">
         <f>IF(OR(_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"BEST_ANALYST_RATING"))</f>
@@ -16643,7 +16642,7 @@
         <f>IF(OR(_xll.BDP(B96,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B96,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B96,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B96,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"YLD_CNV_MID")),
 _xll.BDP(B96,"EQY_DVD_YLD_IND"))</f>
-        <v>7.73</v>
+        <v>7.71</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="1"/>
@@ -16660,7 +16659,7 @@
       </c>
       <c r="C97" s="2">
         <f>_xll.BDP(B97,"PX_LAST")*1.00000001</f>
-        <v>95.990000959899987</v>
+        <v>96.050000960499986</v>
       </c>
       <c r="D97" s="1">
         <f>IF(OR(_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B97,"BEST_ANALYST_RATING"))</f>
@@ -16674,7 +16673,7 @@
         <f>IF(OR(_xll.BDP(B97,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B97,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B97,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B97,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B97,"YLD_CNV_MID")),
 _xll.BDP(B97,"EQY_DVD_YLD_IND"))</f>
-        <v>8.01</v>
+        <v>7.99</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" si="1"/>
@@ -16691,7 +16690,7 @@
       </c>
       <c r="C98" s="2">
         <f>_xll.BDP(B98,"PX_LAST")*1.00000001</f>
-        <v>88.500900885009003</v>
+        <v>89.699900896998997</v>
       </c>
       <c r="D98" s="1">
         <f>IF(OR(_xll.BDP(B98,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B98,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B98,"BEST_ANALYST_RATING"))</f>
@@ -16705,7 +16704,7 @@
         <f>IF(OR(_xll.BDP(B98,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B98,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B98,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B98,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B98,"YLD_CNV_MID")),
 _xll.BDP(B98,"EQY_DVD_YLD_IND"))</f>
-        <v>8.23</v>
+        <v>8.16</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" si="1"/>
@@ -16753,7 +16752,7 @@
       </c>
       <c r="C100" s="2">
         <f>_xll.BDP(B100,"PX_LAST")*1.00000001</f>
-        <v>102.75000102749999</v>
+        <v>102.50000102499999</v>
       </c>
       <c r="D100" s="1">
         <f>IF(OR(_xll.BDP(B100,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B100,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B100,"BEST_ANALYST_RATING"))</f>
@@ -16767,7 +16766,7 @@
         <f>IF(OR(_xll.BDP(B100,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B100,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B100,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B100,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B100,"YLD_CNV_MID")),
 _xll.BDP(B100,"EQY_DVD_YLD_IND"))</f>
-        <v>9.41</v>
+        <v>10.26</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="1"/>
@@ -16784,7 +16783,7 @@
       </c>
       <c r="C101" s="2">
         <f>_xll.BDP(B101,"PX_LAST")*1.00000001</f>
-        <v>103.38500103385</v>
+        <v>103.40900103409</v>
       </c>
       <c r="D101" s="1">
         <f>IF(OR(_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"BEST_ANALYST_RATING"))</f>
@@ -16798,7 +16797,7 @@
         <f>IF(OR(_xll.BDP(B101,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B101,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B101,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B101,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"YLD_CNV_MID")),
 _xll.BDP(B101,"EQY_DVD_YLD_IND"))</f>
-        <v>4.3694170223252105</v>
+        <v>4.3350403895801692</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" si="1"/>
@@ -16815,7 +16814,7 @@
       </c>
       <c r="C102" s="2">
         <f>_xll.BDP(B102,"PX_LAST")*1.00000001</f>
-        <v>101.00000100999999</v>
+        <v>101.500001015</v>
       </c>
       <c r="D102" s="1">
         <f>IF(OR(_xll.BDP(B102,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B102,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B102,"BEST_ANALYST_RATING"))</f>
@@ -16829,7 +16828,7 @@
         <f>IF(OR(_xll.BDP(B102,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B102,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B102,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B102,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B102,"YLD_CNV_MID")),
 _xll.BDP(B102,"EQY_DVD_YLD_IND"))</f>
-        <v>9.3699999999999992</v>
+        <v>8.77</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" si="1"/>
@@ -16846,7 +16845,7 @@
       </c>
       <c r="C103" s="2">
         <f>_xll.BDP(B103,"PX_LAST")*1.00000001</f>
-        <v>113.2900011329</v>
+        <v>112.30000112299999</v>
       </c>
       <c r="D103" s="1">
         <f>IF(OR(_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"BEST_ANALYST_RATING"))</f>
@@ -16860,7 +16859,7 @@
         <f>IF(OR(_xll.BDP(B103,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B103,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B103,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B103,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"YLD_CNV_MID")),
 _xll.BDP(B103,"EQY_DVD_YLD_IND"))</f>
-        <v>6.7790624312283718</v>
+        <v>6.8388244241661829</v>
       </c>
       <c r="G103" s="1">
         <f t="shared" si="1"/>
@@ -16885,13 +16884,13 @@
       </c>
       <c r="E104" s="1">
         <f>IF(OR(_xll.BDP(B104,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B104,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B104,"BEST_TARGET_PRICE"))</f>
-        <v>80.680000305175781</v>
+        <v>80.839996337890625</v>
       </c>
       <c r="F104" s="1">
         <f>IF(OR(_xll.BDP(B104,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B104,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B104,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B104,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B104,"YLD_CNV_MID")),
 _xll.BDP(B104,"EQY_DVD_YLD_IND"))</f>
-        <v>3.0251216483546477</v>
+        <v>2.9811667032226778</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" si="1"/>
@@ -16908,7 +16907,7 @@
       </c>
       <c r="C105" s="2">
         <f>_xll.BDP(B105,"PX_LAST")*1.00000001</f>
-        <v>73.30000073299999</v>
+        <v>75.700000756999998</v>
       </c>
       <c r="D105" s="1">
         <f>IF(OR(_xll.BDP(B105,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B105,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B105,"BEST_ANALYST_RATING"))</f>
@@ -16916,13 +16915,13 @@
       </c>
       <c r="E105" s="1">
         <f>IF(OR(_xll.BDP(B105,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B105,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B105,"BEST_TARGET_PRICE"))</f>
-        <v>79.5</v>
+        <v>79.711540222167969</v>
       </c>
       <c r="F105" s="1">
         <f>IF(OR(_xll.BDP(B105,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B105,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B105,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B105,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B105,"YLD_CNV_MID")),
 _xll.BDP(B105,"EQY_DVD_YLD_IND"))</f>
-        <v>3.7517053206002728</v>
+        <v>3.6327608982826951</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" si="1"/>
@@ -16939,7 +16938,7 @@
       </c>
       <c r="C106" s="2">
         <f>_xll.BDP(B106,"PX_LAST")*1.00000001</f>
-        <v>251.60000251599999</v>
+        <v>257.0500025705</v>
       </c>
       <c r="D106" s="1">
         <f>IF(OR(_xll.BDP(B106,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B106,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B106,"BEST_ANALYST_RATING"))</f>
@@ -16953,7 +16952,7 @@
         <f>IF(OR(_xll.BDP(B106,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B106,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B106,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B106,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B106,"YLD_CNV_MID")),
 _xll.BDP(B106,"EQY_DVD_YLD_IND"))</f>
-        <v>3.259141418626843</v>
+        <v>3.1900407738825658</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" si="1"/>
@@ -16984,10 +16983,10 @@
         <f>IF(OR(_xll.BDP(B107,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B107,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B107,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B107,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B107,"YLD_CNV_MID")),
 _xll.BDP(B107,"EQY_DVD_YLD_IND"))</f>
-        <v>5.2645012299999996</v>
+        <v>5.2636728699999997</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" ref="G107:G108" si="2">COUNTIF($B:$B,B107)</f>
+        <f t="shared" ref="G107" si="2">COUNTIF($B:$B,B107)</f>
         <v>1</v>
       </c>
     </row>
@@ -17001,7 +17000,7 @@
       </c>
       <c r="C108" s="2">
         <f>_xll.BDP(B108,"PX_LAST")*1.00000001</f>
-        <v>108.44300108442999</v>
+        <v>108.46100108460999</v>
       </c>
       <c r="D108" s="1">
         <f>IF(OR(_xll.BDP(B108,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B108,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B108,"BEST_ANALYST_RATING"))</f>
@@ -17015,7 +17014,7 @@
         <f>IF(OR(_xll.BDP(B108,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B108,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B108,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B108,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B108,"YLD_CNV_MID")),
 _xll.BDP(B108,"EQY_DVD_YLD_IND"))</f>
-        <v>5.9040774000000003</v>
+        <v>5.8981690000000002</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" ref="G108:G155" si="3">COUNTIF($B:$B,B108)</f>
@@ -17032,7 +17031,7 @@
       </c>
       <c r="C109" s="2">
         <f>_xll.BDP(B109,"PX_LAST")*1.00000001</f>
-        <v>99.613000996129998</v>
+        <v>99.867000998669994</v>
       </c>
       <c r="D109" s="1">
         <f>IF(OR(_xll.BDP(B109,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B109,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B109,"BEST_ANALYST_RATING"))</f>
@@ -17046,7 +17045,7 @@
         <f>IF(OR(_xll.BDP(B109,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B109,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B109,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B109,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B109,"YLD_CNV_MID")),
 _xll.BDP(B109,"EQY_DVD_YLD_IND"))</f>
-        <v>5.5983720000000003</v>
+        <v>5.5337931000000005</v>
       </c>
       <c r="G109" s="1">
         <f t="shared" si="3"/>
@@ -17063,7 +17062,7 @@
       </c>
       <c r="C110" s="2">
         <f>_xll.BDP(B110,"PX_LAST")*1.00000001</f>
-        <v>114.13200114132</v>
+        <v>114.25800114257999</v>
       </c>
       <c r="D110" s="1">
         <f>IF(OR(_xll.BDP(B110,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B110,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B110,"BEST_ANALYST_RATING"))</f>
@@ -17077,7 +17076,7 @@
         <f>IF(OR(_xll.BDP(B110,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B110,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B110,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B110,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B110,"YLD_CNV_MID")),
 _xll.BDP(B110,"EQY_DVD_YLD_IND"))</f>
-        <v>5.8455034000000001</v>
+        <v>5.8230411000000002</v>
       </c>
       <c r="G110" s="1">
         <f t="shared" si="3"/>
@@ -17094,7 +17093,7 @@
       </c>
       <c r="C111" s="2">
         <f>_xll.BDP(B111,"PX_LAST")*1.00000001</f>
-        <v>100.46100100461</v>
+        <v>100.49600100495999</v>
       </c>
       <c r="D111" s="1">
         <f>IF(OR(_xll.BDP(B111,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B111,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B111,"BEST_ANALYST_RATING"))</f>
@@ -17108,7 +17107,7 @@
         <f>IF(OR(_xll.BDP(B111,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B111,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B111,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B111,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B111,"YLD_CNV_MID")),
 _xll.BDP(B111,"EQY_DVD_YLD_IND"))</f>
-        <v>5.0131880999999998</v>
+        <v>5.0048053000000001</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" si="3"/>
@@ -17125,7 +17124,7 @@
       </c>
       <c r="C112" s="2">
         <f>_xll.BDP(B112,"PX_LAST")*1.00000001</f>
-        <v>104.70600104706</v>
+        <v>104.86900104869</v>
       </c>
       <c r="D112" s="1">
         <f>IF(OR(_xll.BDP(B112,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B112,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B112,"BEST_ANALYST_RATING"))</f>
@@ -17139,7 +17138,7 @@
         <f>IF(OR(_xll.BDP(B112,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B112,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B112,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B112,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B112,"YLD_CNV_MID")),
 _xll.BDP(B112,"EQY_DVD_YLD_IND"))</f>
-        <v>5.7230688000000001</v>
+        <v>5.6838066000000005</v>
       </c>
       <c r="G112" s="1">
         <f t="shared" si="3"/>
@@ -17156,7 +17155,7 @@
       </c>
       <c r="C113" s="2">
         <f>_xll.BDP(B113,"PX_LAST")*1.00000001</f>
-        <v>99.66000099659999</v>
+        <v>99.656000996559996</v>
       </c>
       <c r="D113" s="1">
         <f>IF(OR(_xll.BDP(B113,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B113,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B113,"BEST_ANALYST_RATING"))</f>
@@ -17170,7 +17169,7 @@
         <f>IF(OR(_xll.BDP(B113,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B113,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B113,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B113,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B113,"YLD_CNV_MID")),
 _xll.BDP(B113,"EQY_DVD_YLD_IND"))</f>
-        <v>6.6474045000000004</v>
+        <v>6.6476677999999998</v>
       </c>
       <c r="G113" s="1">
         <f t="shared" si="3"/>
@@ -17187,7 +17186,7 @@
       </c>
       <c r="C114" s="2">
         <f>_xll.BDP(B114,"PX_LAST")*1.00000001</f>
-        <v>97.699700976997008</v>
+        <v>97.700000977000002</v>
       </c>
       <c r="D114" s="1">
         <f>IF(OR(_xll.BDP(B114,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B114,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B114,"BEST_ANALYST_RATING"))</f>
@@ -17201,7 +17200,7 @@
         <f>IF(OR(_xll.BDP(B114,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B114,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B114,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B114,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B114,"YLD_CNV_MID")),
 _xll.BDP(B114,"EQY_DVD_YLD_IND"))</f>
-        <v>8.4700000000000006</v>
+        <v>8.48</v>
       </c>
       <c r="G114" s="1">
         <f t="shared" si="3"/>
@@ -17218,7 +17217,7 @@
       </c>
       <c r="C115" s="2">
         <f>_xll.BDP(B115,"PX_LAST")*1.00000001</f>
-        <v>100.54200100541999</v>
+        <v>100.45200100451999</v>
       </c>
       <c r="D115" s="1">
         <f>IF(OR(_xll.BDP(B115,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B115,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B115,"BEST_ANALYST_RATING"))</f>
@@ -17232,7 +17231,7 @@
         <f>IF(OR(_xll.BDP(B115,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B115,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B115,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B115,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B115,"YLD_CNV_MID")),
 _xll.BDP(B115,"EQY_DVD_YLD_IND"))</f>
-        <v>5.5848404</v>
+        <v>5.6115934000000003</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" si="3"/>
@@ -17249,7 +17248,7 @@
       </c>
       <c r="C116" s="2">
         <f>_xll.BDP(B116,"PX_LAST")*1.00000001</f>
-        <v>102.09000102089999</v>
+        <v>102.200001022</v>
       </c>
       <c r="D116" s="1">
         <f>IF(OR(_xll.BDP(B116,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B116,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B116,"BEST_ANALYST_RATING"))</f>
@@ -17263,7 +17262,7 @@
         <f>IF(OR(_xll.BDP(B116,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B116,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B116,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B116,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B116,"YLD_CNV_MID")),
 _xll.BDP(B116,"EQY_DVD_YLD_IND"))</f>
-        <v>9.5299999999999994</v>
+        <v>9.48</v>
       </c>
       <c r="G116" s="1">
         <f t="shared" si="3"/>
@@ -17280,7 +17279,7 @@
       </c>
       <c r="C117" s="2">
         <f>_xll.BDP(B117,"PX_LAST")*1.00000001</f>
-        <v>101.19000101189999</v>
+        <v>101.200001012</v>
       </c>
       <c r="D117" s="1">
         <f>IF(OR(_xll.BDP(B117,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B117,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B117,"BEST_ANALYST_RATING"))</f>
@@ -17294,7 +17293,7 @@
         <f>IF(OR(_xll.BDP(B117,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B117,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B117,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B117,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B117,"YLD_CNV_MID")),
 _xll.BDP(B117,"EQY_DVD_YLD_IND"))</f>
-        <v>8.9499999999999993</v>
+        <v>8.93</v>
       </c>
       <c r="G117" s="1">
         <f t="shared" si="3"/>
@@ -17311,7 +17310,7 @@
       </c>
       <c r="C118" s="2">
         <f>_xll.BDP(B118,"PX_LAST")*1.00000001</f>
-        <v>101.23000101229999</v>
+        <v>101.24000101239999</v>
       </c>
       <c r="D118" s="1">
         <f>IF(OR(_xll.BDP(B118,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B118,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B118,"BEST_ANALYST_RATING"))</f>
@@ -17342,7 +17341,7 @@
       </c>
       <c r="C119" s="2">
         <f>_xll.BDP(B119,"PX_LAST")*1.00000001</f>
-        <v>102.99000102989999</v>
+        <v>103.10000103099999</v>
       </c>
       <c r="D119" s="1">
         <f>IF(OR(_xll.BDP(B119,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B119,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B119,"BEST_ANALYST_RATING"))</f>
@@ -17356,7 +17355,7 @@
         <f>IF(OR(_xll.BDP(B119,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B119,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B119,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B119,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B119,"YLD_CNV_MID")),
 _xll.BDP(B119,"EQY_DVD_YLD_IND"))</f>
-        <v>9.94</v>
+        <v>9.9</v>
       </c>
       <c r="G119" s="1">
         <f t="shared" si="3"/>
@@ -17373,7 +17372,7 @@
       </c>
       <c r="C120" s="2">
         <f>_xll.BDP(B120,"PX_LAST")*1.00000001</f>
-        <v>103.7900010379</v>
+        <v>103.900001039</v>
       </c>
       <c r="D120" s="1">
         <f>IF(OR(_xll.BDP(B120,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B120,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B120,"BEST_ANALYST_RATING"))</f>
@@ -17387,7 +17386,7 @@
         <f>IF(OR(_xll.BDP(B120,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B120,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B120,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B120,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B120,"YLD_CNV_MID")),
 _xll.BDP(B120,"EQY_DVD_YLD_IND"))</f>
-        <v>9.6</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="G120" s="1">
         <f t="shared" si="3"/>
@@ -17404,7 +17403,7 @@
       </c>
       <c r="C121" s="2">
         <f>_xll.BDP(B121,"PX_LAST")*1.00000001</f>
-        <v>97.700000977000002</v>
+        <v>97.750000977499994</v>
       </c>
       <c r="D121" s="1">
         <f>IF(OR(_xll.BDP(B121,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B121,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B121,"BEST_ANALYST_RATING"))</f>
@@ -17418,7 +17417,7 @@
         <f>IF(OR(_xll.BDP(B121,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B121,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B121,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B121,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B121,"YLD_CNV_MID")),
 _xll.BDP(B121,"EQY_DVD_YLD_IND"))</f>
-        <v>8.06</v>
+        <v>8.02</v>
       </c>
       <c r="G121" s="1">
         <f t="shared" si="3"/>
@@ -17435,7 +17434,7 @@
       </c>
       <c r="C122" s="2">
         <f>_xll.BDP(B122,"PX_LAST")*1.00000001</f>
-        <v>99.390000993899989</v>
+        <v>99.500000994999994</v>
       </c>
       <c r="D122" s="1">
         <f>IF(OR(_xll.BDP(B122,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B122,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B122,"BEST_ANALYST_RATING"))</f>
@@ -17449,7 +17448,7 @@
         <f>IF(OR(_xll.BDP(B122,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B122,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B122,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B122,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B122,"YLD_CNV_MID")),
 _xll.BDP(B122,"EQY_DVD_YLD_IND"))</f>
-        <v>8.31</v>
+        <v>8.18</v>
       </c>
       <c r="G122" s="1">
         <f t="shared" si="3"/>
@@ -17466,7 +17465,7 @@
       </c>
       <c r="C123" s="2">
         <f>_xll.BDP(B123,"PX_LAST")*1.00000001</f>
-        <v>320.15000320149994</v>
+        <v>319.35000319350002</v>
       </c>
       <c r="D123" s="1">
         <f>IF(OR(_xll.BDP(B123,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B123,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B123,"BEST_ANALYST_RATING"))</f>
@@ -17480,7 +17479,7 @@
         <f>IF(OR(_xll.BDP(B123,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B123,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B123,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B123,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B123,"YLD_CNV_MID")),
 _xll.BDP(B123,"EQY_DVD_YLD_IND"))</f>
-        <v>3.669008587041374</v>
+        <v>1.872553630522463</v>
       </c>
       <c r="G123" s="1">
         <f t="shared" si="3"/>
@@ -17511,7 +17510,7 @@
         <f>IF(OR(_xll.BDP(B124,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B124,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B124,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B124,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B124,"YLD_CNV_MID")),
 _xll.BDP(B124,"EQY_DVD_YLD_IND"))</f>
-        <v>4.4397541</v>
+        <v>4.4382726000000003</v>
       </c>
       <c r="G124" s="1">
         <f t="shared" si="3"/>
@@ -17528,7 +17527,7 @@
       </c>
       <c r="C125" s="2">
         <f>_xll.BDP(B125,"PX_LAST")*1.00000001</f>
-        <v>102.55800102558</v>
+        <v>102.58200102581999</v>
       </c>
       <c r="D125" s="1">
         <f>IF(OR(_xll.BDP(B125,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B125,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B125,"BEST_ANALYST_RATING"))</f>
@@ -17542,7 +17541,7 @@
         <f>IF(OR(_xll.BDP(B125,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B125,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B125,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B125,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B125,"YLD_CNV_MID")),
 _xll.BDP(B125,"EQY_DVD_YLD_IND"))</f>
-        <v>4.0352596815579691</v>
+        <v>4.0196314467578436</v>
       </c>
       <c r="G125" s="1">
         <f t="shared" si="3"/>
@@ -17559,7 +17558,7 @@
       </c>
       <c r="C126" s="2">
         <f>_xll.BDP(B126,"PX_LAST")*1.00000001</f>
-        <v>100.50500100504999</v>
+        <v>100.61600100615999</v>
       </c>
       <c r="D126" s="1">
         <f>IF(OR(_xll.BDP(B126,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B126,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B126,"BEST_ANALYST_RATING"))</f>
@@ -17573,7 +17572,7 @@
         <f>IF(OR(_xll.BDP(B126,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B126,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B126,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B126,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B126,"YLD_CNV_MID")),
 _xll.BDP(B126,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5824335000000005</v>
+        <v>4.5571042000000004</v>
       </c>
       <c r="G126" s="1">
         <f t="shared" si="3"/>
@@ -17590,7 +17589,7 @@
       </c>
       <c r="C127" s="2">
         <f>_xll.BDP(B127,"PX_LAST")*1.00000001</f>
-        <v>131.42600131425999</v>
+        <v>131.70700131707</v>
       </c>
       <c r="D127" s="1">
         <f>IF(OR(_xll.BDP(B127,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B127,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B127,"BEST_ANALYST_RATING"))</f>
@@ -17604,7 +17603,7 @@
         <f>IF(OR(_xll.BDP(B127,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B127,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B127,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B127,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B127,"YLD_CNV_MID")),
 _xll.BDP(B127,"EQY_DVD_YLD_IND"))</f>
-        <v>5.7120315760992701</v>
+        <v>5.6903277702122832</v>
       </c>
       <c r="G127" s="1">
         <f t="shared" si="3"/>
@@ -17621,7 +17620,7 @@
       </c>
       <c r="C128" s="2">
         <f>_xll.BDP(B128,"PX_LAST")*1.00000001</f>
-        <v>107.61700107617</v>
+        <v>107.61600107615999</v>
       </c>
       <c r="D128" s="1">
         <f>IF(OR(_xll.BDP(B128,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B128,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B128,"BEST_ANALYST_RATING"))</f>
@@ -17635,7 +17634,7 @@
         <f>IF(OR(_xll.BDP(B128,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B128,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B128,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B128,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B128,"YLD_CNV_MID")),
 _xll.BDP(B128,"EQY_DVD_YLD_IND"))</f>
-        <v>3.3188439000000001</v>
+        <v>3.3141715</v>
       </c>
       <c r="G128" s="1">
         <f t="shared" si="3"/>
@@ -17652,7 +17651,7 @@
       </c>
       <c r="C129" s="2">
         <f>_xll.BDP(B129,"PX_LAST")*1.00000001</f>
-        <v>43.942000439419999</v>
+        <v>43.960000439600002</v>
       </c>
       <c r="D129" s="1">
         <f>IF(OR(_xll.BDP(B129,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B129,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B129,"BEST_ANALYST_RATING"))</f>
@@ -17666,7 +17665,7 @@
         <f>IF(OR(_xll.BDP(B129,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B129,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B129,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B129,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B129,"YLD_CNV_MID")),
 _xll.BDP(B129,"EQY_DVD_YLD_IND"))</f>
-        <v>43.209258664319989</v>
+        <v>40.77535006702194</v>
       </c>
       <c r="G129" s="1">
         <f t="shared" si="3"/>
@@ -17683,7 +17682,7 @@
       </c>
       <c r="C130" s="2">
         <f>_xll.BDP(B130,"PX_LAST")*1.00000001</f>
-        <v>111.69400111694</v>
+        <v>111.75500111754999</v>
       </c>
       <c r="D130" s="1">
         <f>IF(OR(_xll.BDP(B130,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B130,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B130,"BEST_ANALYST_RATING"))</f>
@@ -17697,7 +17696,7 @@
         <f>IF(OR(_xll.BDP(B130,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B130,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B130,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B130,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B130,"YLD_CNV_MID")),
 _xll.BDP(B130,"EQY_DVD_YLD_IND"))</f>
-        <v>4.8061311</v>
+        <v>4.7871842000000004</v>
       </c>
       <c r="G130" s="1">
         <f t="shared" si="3"/>
@@ -17714,7 +17713,7 @@
       </c>
       <c r="C131" s="2">
         <f>_xll.BDP(B131,"PX_LAST")*1.00000001</f>
-        <v>6.5390000653899993E-2</v>
+        <v>6.5500000655000001E-2</v>
       </c>
       <c r="D131" s="1">
         <f>IF(OR(_xll.BDP(B131,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B131,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B131,"BEST_ANALYST_RATING"))</f>
@@ -17728,7 +17727,7 @@
         <f>IF(OR(_xll.BDP(B131,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B131,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B131,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B131,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B131,"YLD_CNV_MID")),
 _xll.BDP(B131,"EQY_DVD_YLD_IND"))</f>
-        <v>1.7892643293736996</v>
+        <v>1.7862594579808586</v>
       </c>
       <c r="G131" s="1">
         <f t="shared" si="3"/>
@@ -17745,7 +17744,7 @@
       </c>
       <c r="C132" s="2">
         <f>_xll.BDP(B132,"PX_LAST")*1.00000001</f>
-        <v>109.73800109737999</v>
+        <v>109.85400109854</v>
       </c>
       <c r="D132" s="1">
         <f>IF(OR(_xll.BDP(B132,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B132,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B132,"BEST_ANALYST_RATING"))</f>
@@ -17759,7 +17758,7 @@
         <f>IF(OR(_xll.BDP(B132,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B132,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B132,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B132,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B132,"YLD_CNV_MID")),
 _xll.BDP(B132,"EQY_DVD_YLD_IND"))</f>
-        <v>3.650182</v>
+        <v>3.6111184000000001</v>
       </c>
       <c r="G132" s="1">
         <f t="shared" si="3"/>
@@ -17790,7 +17789,7 @@
         <f>IF(OR(_xll.BDP(B133,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B133,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B133,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B133,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B133,"YLD_CNV_MID")),
 _xll.BDP(B133,"EQY_DVD_YLD_IND"))</f>
-        <v>3.0486452000000002</v>
+        <v>3.0463469999999999</v>
       </c>
       <c r="G133" s="1">
         <f t="shared" si="3"/>
@@ -17807,7 +17806,7 @@
       </c>
       <c r="C134" s="2">
         <f>_xll.BDP(B134,"PX_LAST")*1.00000001</f>
-        <v>37.210000372099998</v>
+        <v>37.580000375799997</v>
       </c>
       <c r="D134" s="1">
         <f>IF(OR(_xll.BDP(B134,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B134,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B134,"BEST_ANALYST_RATING"))</f>
@@ -17838,7 +17837,7 @@
       </c>
       <c r="C135" s="2">
         <f>_xll.BDP(B135,"PX_LAST")*1.00000001</f>
-        <v>22.543000225429999</v>
+        <v>22.502000225019998</v>
       </c>
       <c r="D135" s="1">
         <f>IF(OR(_xll.BDP(B135,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B135,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B135,"BEST_ANALYST_RATING"))</f>
@@ -17852,7 +17851,7 @@
         <f>IF(OR(_xll.BDP(B135,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B135,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B135,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B135,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B135,"YLD_CNV_MID")),
 _xll.BDP(B135,"EQY_DVD_YLD_IND"))</f>
-        <v>98.475080889908057</v>
+        <v>98.776996948381253</v>
       </c>
       <c r="G135" s="1">
         <f t="shared" si="3"/>
@@ -17869,7 +17868,7 @@
       </c>
       <c r="C136" s="2">
         <f>_xll.BDP(B136,"PX_LAST")*1.00000001</f>
-        <v>110.25400110254</v>
+        <v>110.37800110377999</v>
       </c>
       <c r="D136" s="1">
         <f>IF(OR(_xll.BDP(B136,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B136,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B136,"BEST_ANALYST_RATING"))</f>
@@ -17883,7 +17882,7 @@
         <f>IF(OR(_xll.BDP(B136,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B136,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B136,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B136,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B136,"YLD_CNV_MID")),
 _xll.BDP(B136,"EQY_DVD_YLD_IND"))</f>
-        <v>3.6646938000000002</v>
+        <v>3.6293060000000001</v>
       </c>
       <c r="G136" s="1">
         <f t="shared" si="3"/>
@@ -17900,7 +17899,7 @@
       </c>
       <c r="C137" s="2">
         <f>_xll.BDP(B137,"PX_LAST")*1.00000001</f>
-        <v>101.31300101312999</v>
+        <v>101.12500101124999</v>
       </c>
       <c r="D137" s="1">
         <f>IF(OR(_xll.BDP(B137,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B137,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B137,"BEST_ANALYST_RATING"))</f>
@@ -17914,7 +17913,7 @@
         <f>IF(OR(_xll.BDP(B137,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B137,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B137,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B137,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B137,"YLD_CNV_MID")),
 _xll.BDP(B137,"EQY_DVD_YLD_IND"))</f>
-        <v>5.5137289117884958</v>
+        <v>5.5823156087794761</v>
       </c>
       <c r="G137" s="1">
         <f t="shared" si="3"/>
@@ -17931,7 +17930,7 @@
       </c>
       <c r="C138" s="2">
         <f>_xll.BDP(B138,"PX_LAST")*1.00000001</f>
-        <v>122.31000122309999</v>
+        <v>121.4800012148</v>
       </c>
       <c r="D138" s="1">
         <f>IF(OR(_xll.BDP(B138,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B138,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B138,"BEST_ANALYST_RATING"))</f>
@@ -17962,7 +17961,7 @@
       </c>
       <c r="C139" s="2">
         <f>_xll.BDP(B139,"PX_LAST")*1.00000001</f>
-        <v>106.93900106938999</v>
+        <v>107.03600107036</v>
       </c>
       <c r="D139" s="1">
         <f>IF(OR(_xll.BDP(B139,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B139,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B139,"BEST_ANALYST_RATING"))</f>
@@ -17976,7 +17975,7 @@
         <f>IF(OR(_xll.BDP(B139,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B139,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B139,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B139,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B139,"YLD_CNV_MID")),
 _xll.BDP(B139,"EQY_DVD_YLD_IND"))</f>
-        <v>5.0880169000000004</v>
+        <v>5.0650351999999996</v>
       </c>
       <c r="G139" s="1">
         <f t="shared" si="3"/>
@@ -17993,7 +17992,7 @@
       </c>
       <c r="C140" s="2">
         <f>_xll.BDP(B140,"PX_LAST")*1.00000001</f>
-        <v>94.500000944999996</v>
+        <v>95.863000958629996</v>
       </c>
       <c r="D140" s="1">
         <f>IF(OR(_xll.BDP(B140,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B140,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B140,"BEST_ANALYST_RATING"))</f>
@@ -18007,7 +18006,7 @@
         <f>IF(OR(_xll.BDP(B140,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B140,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B140,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B140,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B140,"YLD_CNV_MID")),
 _xll.BDP(B140,"EQY_DVD_YLD_IND"))</f>
-        <v>8.3912764344310915</v>
+        <v>7.8461924984209901</v>
       </c>
       <c r="G140" s="1">
         <f t="shared" si="3"/>
@@ -18024,7 +18023,7 @@
       </c>
       <c r="C141" s="2">
         <f>_xll.BDP(B141,"PX_LAST")*1.00000001</f>
-        <v>100.01200100011999</v>
+        <v>99.994000999939999</v>
       </c>
       <c r="D141" s="1">
         <f>IF(OR(_xll.BDP(B141,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B141,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B141,"BEST_ANALYST_RATING"))</f>
@@ -18038,7 +18037,7 @@
         <f>IF(OR(_xll.BDP(B141,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B141,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B141,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B141,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B141,"YLD_CNV_MID")),
 _xll.BDP(B141,"EQY_DVD_YLD_IND"))</f>
-        <v>1.8250905355170248</v>
+        <v>1.8480585633382021</v>
       </c>
       <c r="G141" s="1">
         <f t="shared" si="3"/>
@@ -18055,7 +18054,7 @@
       </c>
       <c r="C142" s="2">
         <f>_xll.BDP(B142,"PX_LAST")*1.00000001</f>
-        <v>114.2900011429</v>
+        <v>114.31200114311999</v>
       </c>
       <c r="D142" s="1">
         <f>IF(OR(_xll.BDP(B142,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B142,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B142,"BEST_ANALYST_RATING"))</f>
@@ -18069,7 +18068,7 @@
         <f>IF(OR(_xll.BDP(B142,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B142,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B142,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B142,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B142,"YLD_CNV_MID")),
 _xll.BDP(B142,"EQY_DVD_YLD_IND"))</f>
-        <v>3.4069004999999999</v>
+        <v>3.3975195</v>
       </c>
       <c r="G142" s="1">
         <f t="shared" si="3"/>
@@ -18086,7 +18085,7 @@
       </c>
       <c r="C143" s="2">
         <f>_xll.BDP(B143,"PX_LAST")*1.00000001</f>
-        <v>77.637000776370002</v>
+        <v>76.070000760699983</v>
       </c>
       <c r="D143" s="1">
         <f>IF(OR(_xll.BDP(B143,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B143,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B143,"BEST_ANALYST_RATING"))</f>
@@ -18100,7 +18099,7 @@
         <f>IF(OR(_xll.BDP(B143,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B143,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B143,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B143,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B143,"YLD_CNV_MID")),
 _xll.BDP(B143,"EQY_DVD_YLD_IND"))</f>
-        <v>16.722869200000002</v>
+        <v>17.541155</v>
       </c>
       <c r="G143" s="1">
         <f t="shared" si="3"/>
@@ -18117,7 +18116,7 @@
       </c>
       <c r="C144" s="2">
         <f>_xll.BDP(B144,"PX_LAST")*1.00000001</f>
-        <v>67.790000677899997</v>
+        <v>68.190000681899988</v>
       </c>
       <c r="D144" s="1">
         <f>IF(OR(_xll.BDP(B144,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B144,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B144,"BEST_ANALYST_RATING"))</f>
@@ -18131,7 +18130,7 @@
         <f>IF(OR(_xll.BDP(B144,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B144,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B144,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B144,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B144,"YLD_CNV_MID")),
 _xll.BDP(B144,"EQY_DVD_YLD_IND"))</f>
-        <v>2.4724295048222005</v>
+        <v>2.4579263254421027</v>
       </c>
       <c r="G144" s="1">
         <f t="shared" si="3"/>
@@ -18148,7 +18147,7 @@
       </c>
       <c r="C145" s="2">
         <f>_xll.BDP(B145,"PX_LAST")*1.00000001</f>
-        <v>59.000000589999999</v>
+        <v>58.500000584999995</v>
       </c>
       <c r="D145" s="1">
         <f>IF(OR(_xll.BDP(B145,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B145,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B145,"BEST_ANALYST_RATING"))</f>
@@ -18179,7 +18178,7 @@
       </c>
       <c r="C146" s="2">
         <f>_xll.BDP(B146,"PX_LAST")*1.00000001</f>
-        <v>115.50000115499999</v>
+        <v>116.02000116019998</v>
       </c>
       <c r="D146" s="1">
         <f>IF(OR(_xll.BDP(B146,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B146,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B146,"BEST_ANALYST_RATING"))</f>
@@ -18193,7 +18192,7 @@
         <f>IF(OR(_xll.BDP(B146,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B146,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B146,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B146,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B146,"YLD_CNV_MID")),
 _xll.BDP(B146,"EQY_DVD_YLD_IND"))</f>
-        <v>1.8701299444421546</v>
+        <v>1.8623901412577069</v>
       </c>
       <c r="G146" s="1">
         <f t="shared" si="3"/>
@@ -18210,7 +18209,7 @@
       </c>
       <c r="C147" s="2">
         <f>_xll.BDP(B147,"PX_LAST")*1.00000001</f>
-        <v>24.240000242399997</v>
+        <v>24.060000240599997</v>
       </c>
       <c r="D147" s="1">
         <f>IF(OR(_xll.BDP(B147,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B147,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B147,"BEST_ANALYST_RATING"))</f>
@@ -18218,7 +18217,7 @@
       </c>
       <c r="E147" s="1">
         <f>IF(OR(_xll.BDP(B147,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B147,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B147,"BEST_TARGET_PRICE"))</f>
-        <v>23.2947998046875</v>
+        <v>23.561466217041016</v>
       </c>
       <c r="F147" s="1">
         <f>IF(OR(_xll.BDP(B147,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B147,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
@@ -18241,7 +18240,7 @@
       </c>
       <c r="C148" s="2">
         <f>_xll.BDP(B148,"PX_LAST")*1.00000001</f>
-        <v>36.760000367599993</v>
+        <v>36.650000366499995</v>
       </c>
       <c r="D148" s="1">
         <f>IF(OR(_xll.BDP(B148,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B148,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B148,"BEST_ANALYST_RATING"))</f>
@@ -18272,7 +18271,7 @@
       </c>
       <c r="C149" s="2">
         <f>_xll.BDP(B149,"PX_LAST")*1.00000001</f>
-        <v>37.960000379599997</v>
+        <v>38.1700003817</v>
       </c>
       <c r="D149" s="1">
         <f>IF(OR(_xll.BDP(B149,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B149,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B149,"BEST_ANALYST_RATING"))</f>
@@ -18286,7 +18285,7 @@
         <f>IF(OR(_xll.BDP(B149,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B149,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B149,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B149,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B149,"YLD_CNV_MID")),
 _xll.BDP(B149,"EQY_DVD_YLD_IND"))</f>
-        <v>3.6311592392474257</v>
+        <v>3.611181679901291</v>
       </c>
       <c r="G149" s="1">
         <f t="shared" si="3"/>
@@ -18303,7 +18302,7 @@
       </c>
       <c r="C150" s="2">
         <f>_xll.BDP(B150,"PX_LAST")*1.00000001</f>
-        <v>90.250000902499991</v>
+        <v>91.080000910799995</v>
       </c>
       <c r="D150" s="1">
         <f>IF(OR(_xll.BDP(B150,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B150,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B150,"BEST_ANALYST_RATING"))</f>
@@ -18317,7 +18316,7 @@
         <f>IF(OR(_xll.BDP(B150,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B150,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B150,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B150,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B150,"YLD_CNV_MID")),
 _xll.BDP(B150,"EQY_DVD_YLD_IND"))</f>
-        <v>0.97506924679404816</v>
+        <v>0.96618356964386087</v>
       </c>
       <c r="G150" s="1">
         <f t="shared" si="3"/>
@@ -18334,7 +18333,7 @@
       </c>
       <c r="C151" s="2">
         <f>_xll.BDP(B151,"PX_LAST")*1.00000001</f>
-        <v>100.21300100212999</v>
+        <v>100.16000100159999</v>
       </c>
       <c r="D151" s="1">
         <f>IF(OR(_xll.BDP(B151,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B151,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B151,"BEST_ANALYST_RATING"))</f>
@@ -18348,7 +18347,7 @@
         <f>IF(OR(_xll.BDP(B151,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B151,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B151,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B151,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B151,"YLD_CNV_MID")),
 _xll.BDP(B151,"EQY_DVD_YLD_IND"))</f>
-        <v>0.53958930000000005</v>
+        <v>1.5436527</v>
       </c>
       <c r="G151" s="1">
         <f t="shared" si="3"/>
@@ -18379,7 +18378,7 @@
         <f>IF(OR(_xll.BDP(B152,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B152,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B152,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B152,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B152,"YLD_CNV_MID")),
 _xll.BDP(B152,"EQY_DVD_YLD_IND"))</f>
-        <v>4.8450047999999999</v>
+        <v>4.8451126999999996</v>
       </c>
       <c r="G152" s="1">
         <f t="shared" si="3"/>
@@ -18410,7 +18409,7 @@
         <f>IF(OR(_xll.BDP(B153,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B153,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B153,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B153,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B153,"YLD_CNV_MID")),
 _xll.BDP(B153,"EQY_DVD_YLD_IND"))</f>
-        <v>1.5449885999999999</v>
+        <v>1.5441672</v>
       </c>
       <c r="G153" s="1">
         <f t="shared" si="3"/>
@@ -18427,7 +18426,7 @@
       </c>
       <c r="C154" s="2">
         <f>_xll.BDP(B154,"PX_LAST")*1.00000001</f>
-        <v>104.94300104942999</v>
+        <v>105.17100105170999</v>
       </c>
       <c r="D154" s="1">
         <f>IF(OR(_xll.BDP(B154,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B154,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B154,"BEST_ANALYST_RATING"))</f>
@@ -18441,7 +18440,7 @@
         <f>IF(OR(_xll.BDP(B154,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B154,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
 IF(OR(_xll.BDP(B154,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B154,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B154,"YLD_CNV_MID")),
 _xll.BDP(B154,"EQY_DVD_YLD_IND"))</f>
-        <v>6.6049927000000004</v>
+        <v>6.5421297999999997</v>
       </c>
       <c r="G154" s="1">
         <f t="shared" si="3"/>
@@ -18458,7 +18457,7 @@
       </c>
       <c r="C155" s="2">
         <f>_xll.BDP(B155,"PX_LAST")*1.00000001</f>
-        <v>97.280000972799996</v>
+        <v>96.860000968599991</v>
       </c>
       <c r="D155" s="1">
         <f>IF(OR(_xll.BDP(B155,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B155,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B155,"BEST_ANALYST_RATING"))</f>

--- a/sberapi/DB/quotes.xlsx
+++ b/sberapi/DB/quotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="635">
   <si>
     <t>US3755581036</t>
   </si>
@@ -1908,6 +1908,18 @@
   </si>
   <si>
     <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>US55315J1025</t>
+  </si>
+  <si>
+    <t>NILSY US Equity</t>
+  </si>
+  <si>
+    <t>21/06/2017</t>
+  </si>
+  <si>
+    <t>17/11/2017</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2071,7 @@
         <tr r="E19" s="70"/>
       </tp>
       <tp>
-        <v>7.3653761476464158E-2</v>
+        <v>7.3755987975356707E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0H6 Corp</stp>
@@ -2079,7 +2091,7 @@
         <tr r="E56" s="70"/>
       </tp>
       <tp>
-        <v>8.675577034010022</v>
+        <v>8.675716456461803</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVW48 Corp</stp>
@@ -2141,7 +2153,7 @@
         <tr r="D29" s="70"/>
       </tp>
       <tp>
-        <v>2.7522056531755998</v>
+        <v>2.7521855567211535</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -2193,7 +2205,7 @@
         <tr r="F107" s="70"/>
       </tp>
       <tp>
-        <v>1.5171147387091573</v>
+        <v>1.5171133994121631</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -2522,7 +2534,7 @@
         <tr r="F125" s="70"/>
       </tp>
       <tp>
-        <v>106.25700000000001</v>
+        <v>106.247</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -2596,7 +2608,7 @@
         <tr r="G12" s="70"/>
       </tp>
       <tp>
-        <v>3.4382898492162757</v>
+        <v>3.4382421325354979</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAG54 Corp</stp>
@@ -2659,7 +2671,7 @@
         <tr r="F122" s="70"/>
       </tp>
       <tp>
-        <v>0.81946617454215342</v>
+        <v>0.81946460552227562</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US65504LAM90 Corp</stp>
@@ -2846,7 +2858,7 @@
         <tr r="E49" s="70"/>
       </tp>
       <tp>
-        <v>0.2371695655307435</v>
+        <v>0.23720831768357423</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7J9 Corp</stp>
@@ -2959,7 +2971,7 @@
         <tr r="L123" s="70"/>
       </tp>
       <tp>
-        <v>4.7965233424500768</v>
+        <v>4.7964744438853613</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -3060,7 +3072,7 @@
         <tr r="E44" s="70"/>
       </tp>
       <tp>
-        <v>2.344370943690707</v>
+        <v>2.3443791962322553</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTG59 Corp</stp>
@@ -3092,7 +3104,7 @@
         <tr r="D52" s="70"/>
       </tp>
       <tp>
-        <v>4.6290712720751666</v>
+        <v>4.6290214028856385</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -3187,7 +3199,7 @@
         <tr r="A9" s="70"/>
       </tp>
       <tp>
-        <v>3.3553867212676907</v>
+        <v>3.3554016962337712</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -3258,7 +3270,7 @@
         <tr r="F155" s="70"/>
       </tp>
       <tp>
-        <v>2.7184948450330428</v>
+        <v>2.7184796250317116</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -3301,7 +3313,7 @@
         <tr r="G59" s="70"/>
       </tp>
       <tp>
-        <v>5.7566352177781974</v>
+        <v>5.7570160707394029</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWV63 Corp</stp>
@@ -3416,7 +3428,7 @@
         <tr r="H82" s="70"/>
       </tp>
       <tp>
-        <v>3.1577035781041958</v>
+        <v>3.1577085579022701</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -3426,7 +3438,7 @@
         <tr r="H23" s="70"/>
       </tp>
       <tp>
-        <v>5.4086230944137839</v>
+        <v>5.4085415556607757</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -3458,7 +3470,7 @@
         <tr r="E48" s="70"/>
       </tp>
       <tp>
-        <v>0.42429194924219765</v>
+        <v>0.42431808703321788</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -3479,7 +3491,7 @@
         <tr r="A141" s="70"/>
       </tp>
       <tp>
-        <v>0.82305791282972829</v>
+        <v>0.82305843647586607</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRCJ6 Corp</stp>
@@ -3652,7 +3664,7 @@
         <tr r="F158" s="70"/>
       </tp>
       <tp>
-        <v>1.7837540502890012</v>
+        <v>1.7837529406335464</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -3763,6 +3775,15 @@
         <tr r="F136" s="70"/>
       </tp>
       <tp t="s">
+        <v>MMC Norilsk Nickel PJSC</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>SECURITY_NAME</stp>
+        <stp>[quotes.xlsx]Calc!R168C12</stp>
+        <tr r="L168" s="70"/>
+      </tp>
+      <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -3837,7 +3858,7 @@
         <tr r="I165" s="70"/>
       </tp>
       <tp>
-        <v>4.1980267527285431</v>
+        <v>4.1980327990381934</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -3983,7 +4004,7 @@
         <tr r="H100" s="70"/>
       </tp>
       <tp>
-        <v>0.12782057621442303</v>
+        <v>0.12786158531478742</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -3993,7 +4014,7 @@
         <tr r="H117" s="70"/>
       </tp>
       <tp>
-        <v>1.8492789897366999</v>
+        <v>1.8492847769132401</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9V1 Corp</stp>
@@ -4033,7 +4054,7 @@
         <tr r="H76" s="70"/>
       </tp>
       <tp>
-        <v>112.986</v>
+        <v>112.985</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -4081,7 +4102,7 @@
         <tr r="F84" s="70"/>
       </tp>
       <tp>
-        <v>109.28100000000001</v>
+        <v>109.26900000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -4123,7 +4144,7 @@
         <tr r="E31" s="70"/>
       </tp>
       <tp>
-        <v>97.19</v>
+        <v>97.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTG59 Corp</stp>
@@ -4276,7 +4297,7 @@
         <tr r="I160" s="70"/>
       </tp>
       <tp>
-        <v>104.09</v>
+        <v>104.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7J9 Corp</stp>
@@ -4339,7 +4360,7 @@
         <tr r="I27" s="70"/>
       </tp>
       <tp>
-        <v>102.73399999999999</v>
+        <v>102.741</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -4420,7 +4441,7 @@
         <tr r="A61" s="70"/>
       </tp>
       <tp>
-        <v>106.828</v>
+        <v>106.815</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -4649,7 +4670,7 @@
         <tr r="F77" s="70"/>
       </tp>
       <tp>
-        <v>108.297</v>
+        <v>108.28400000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -4667,8 +4688,19 @@
         <tr r="F82" s="70"/>
         <tr r="F82" s="70"/>
       </tp>
-      <tp>
-        <v>102.36</v>
+      <tp t="s">
+        <v>17/11/2017</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>BDVD_NEXT_EST_DECL_DT</stp>
+        <stp>[quotes.xlsx]Calc!R168C9</stp>
+        <tr r="I168" s="70"/>
+        <tr r="I168" s="70"/>
+        <tr r="I168" s="70"/>
+      </tp>
+      <tp>
+        <v>102.363</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -4740,7 +4772,7 @@
         <tr r="G44" s="70"/>
       </tp>
       <tp>
-        <v>107.89400000000001</v>
+        <v>107.881</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAG54 Corp</stp>
@@ -5111,7 +5143,7 @@
         <tr r="F65" s="70"/>
       </tp>
       <tp>
-        <v>107.941</v>
+        <v>107.94</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -5334,7 +5366,7 @@
         <tr r="E32" s="70"/>
       </tp>
       <tp>
-        <v>103.816</v>
+        <v>103.818</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -5405,7 +5437,7 @@
         <tr r="D58" s="70"/>
       </tp>
       <tp>
-        <v>106.49</v>
+        <v>106.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVW48 Corp</stp>
@@ -5426,7 +5458,7 @@
         <tr r="G95" s="70"/>
       </tp>
       <tp>
-        <v>103.09</v>
+        <v>103.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0H6 Corp</stp>
@@ -5685,7 +5717,7 @@
         <tr r="D92" s="70"/>
       </tp>
       <tp>
-        <v>101.19</v>
+        <v>101.2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -5694,7 +5726,7 @@
         <tr r="C117" s="70"/>
       </tp>
       <tp>
-        <v>97.39</v>
+        <v>97.400009999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9V1 Corp</stp>
@@ -5867,7 +5899,7 @@
         <tr r="A22" s="70"/>
       </tp>
       <tp>
-        <v>102.80200000000001</v>
+        <v>102.782</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -6032,7 +6064,7 @@
         <tr r="E77" s="70"/>
       </tp>
       <tp>
-        <v>104.946</v>
+        <v>104.944</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -6495,7 +6527,7 @@
         <tr r="F80" s="70"/>
       </tp>
       <tp>
-        <v>2.7647788174419934</v>
+        <v>2.7647680909425159</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -6544,7 +6576,7 @@
         <tr r="F27" s="70"/>
       </tp>
       <tp>
-        <v>99.34</v>
+        <v>99.350009999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRCJ6 Corp</stp>
@@ -6575,7 +6607,7 @@
         <tr r="E45" s="70"/>
       </tp>
       <tp>
-        <v>102.24</v>
+        <v>102.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -6637,7 +6669,7 @@
         <tr r="I84" s="70"/>
       </tp>
       <tp>
-        <v>3.3636903921835457</v>
+        <v>3.3636877876952815</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -6667,7 +6699,7 @@
         <tr r="E153" s="70"/>
       </tp>
       <tp>
-        <v>101.297</v>
+        <v>101.277</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US65504LAM90 Corp</stp>
@@ -7191,7 +7223,7 @@
         <tr r="I131" s="70"/>
       </tp>
       <tp>
-        <v>107</v>
+        <v>100</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>COMRLES RX Equity</stp>
@@ -7200,7 +7232,7 @@
         <tr r="C30" s="70"/>
       </tp>
       <tp>
-        <v>101.357</v>
+        <v>101.343</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -7369,7 +7401,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>4.5171073699693967</v>
+        <v>4.5187081170724568</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -7480,7 +7512,7 @@
         <tr r="I159" s="70"/>
       </tp>
       <tp>
-        <v>4.7600477999999997</v>
+        <v>4.7621339000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319822752 Corp</stp>
@@ -7511,7 +7543,7 @@
         <tr r="D95" s="70"/>
       </tp>
       <tp>
-        <v>1.9090183620346326</v>
+        <v>1.9056724088825643</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSN RM Equity</stp>
@@ -7571,7 +7603,7 @@
         <tr r="D124" s="70"/>
       </tp>
       <tp>
-        <v>4.5706677999999998</v>
+        <v>4.5707830999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405766384 Corp</stp>
@@ -7622,7 +7654,16 @@
         <tr r="F53" s="70"/>
       </tp>
       <tp>
-        <v>6.6460672278524049</v>
+        <v>10.2671309706353</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>EQY_DVD_YLD_IND</stp>
+        <stp>[quotes.xlsx]Calc!R168C6</stp>
+        <tr r="F168" s="70"/>
+      </tp>
+      <tp>
+        <v>6.6497341653524034</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1071551474 Corp</stp>
@@ -7694,7 +7735,7 @@
         <tr r="D109" s="70"/>
       </tp>
       <tp>
-        <v>6.4316510999999998</v>
+        <v>6.4299634000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -7753,7 +7794,7 @@
         <tr r="D139" s="70"/>
       </tp>
       <tp>
-        <v>4.5799687000000002</v>
+        <v>4.5768804999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1069383856 Corp</stp>
@@ -7784,7 +7825,7 @@
         <tr r="I110" s="70"/>
       </tp>
       <tp>
-        <v>3.6072421000000001</v>
+        <v>3.6086076999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0588433267 Corp</stp>
@@ -7824,7 +7865,7 @@
         <tr r="F146" s="70"/>
       </tp>
       <tp>
-        <v>3.0654204894449109</v>
+        <v>3.0711609772528603</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROG EB Equity</stp>
@@ -7833,7 +7874,7 @@
         <tr r="F106" s="70"/>
       </tp>
       <tp>
-        <v>4.8372626199999997</v>
+        <v>4.8469522200000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -7904,7 +7945,7 @@
         <tr r="D128" s="70"/>
       </tp>
       <tp>
-        <v>5.3439223299999998</v>
+        <v>5.3438247199999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1400710726 Corp</stp>
@@ -7925,7 +7966,7 @@
         <tr r="I115" s="70"/>
       </tp>
       <tp>
-        <v>3.5524250999999998</v>
+        <v>3.5501901</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0524610812 Corp</stp>
@@ -7976,7 +8017,7 @@
         <tr r="L118" s="70"/>
       </tp>
       <tp>
-        <v>1.9096279738144661</v>
+        <v>1.9056724028043339</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSN RM Equity</stp>
@@ -7997,7 +8038,7 @@
         <tr r="G2" s="70"/>
       </tp>
       <tp>
-        <v>4.929990472205616</v>
+        <v>4.9208477273047286</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US456837AE31 Corp</stp>
@@ -8058,7 +8099,7 @@
         <tr r="I129" s="70"/>
       </tp>
       <tp>
-        <v>5.6493773000000003</v>
+        <v>5.6509274999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0979891925 Corp</stp>
@@ -8069,7 +8110,7 @@
         <tr r="F110" s="70"/>
       </tp>
       <tp>
-        <v>31.356485884390565</v>
+        <v>31.429233609947289</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1117280625 Corp</stp>
@@ -8080,7 +8121,7 @@
         <tr r="F129" s="70"/>
       </tp>
       <tp>
-        <v>3.996930918547835</v>
+        <v>3.9905815597607517</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1032750165 Corp</stp>
@@ -8150,7 +8191,7 @@
         <tr r="L98" s="70"/>
       </tp>
       <tp>
-        <v>1.7625790071971414</v>
+        <v>1.7636417621004861</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VTBR RX Equity</stp>
@@ -8219,7 +8260,7 @@
         <tr r="I124" s="70"/>
       </tp>
       <tp>
-        <v>4.3936403000000004</v>
+        <v>4.3932072</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0643183220 Corp</stp>
@@ -8230,7 +8271,7 @@
         <tr r="F124" s="70"/>
       </tp>
       <tp>
-        <v>5.6055469171379295</v>
+        <v>5.6077033718665641</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0191754729 Corp</stp>
@@ -8380,7 +8421,7 @@
         <tr r="A145" s="70"/>
       </tp>
       <tp>
-        <v>6.6379999999999995E-2</v>
+        <v>6.6339999999999996E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VTBR RX Equity</stp>
@@ -8470,7 +8511,7 @@
         <tr r="I125" s="70"/>
       </tp>
       <tp>
-        <v>9.66</v>
+        <v>9.68</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWBH2 Corp</stp>
@@ -8481,7 +8522,7 @@
         <tr r="F63" s="70"/>
       </tp>
       <tp>
-        <v>1.9175455417066154</v>
+        <v>1.9157088122605364</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -8521,6 +8562,17 @@
         <tr r="F3" s="70"/>
       </tp>
       <tp t="s">
+        <v>US55315J1025</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>ID_ISIN</stp>
+        <stp>[quotes.xlsx]Calc!R168C1</stp>
+        <tr r="A168" s="70"/>
+        <tr r="A168" s="70"/>
+        <tr r="A168" s="70"/>
+      </tp>
+      <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -8540,7 +8592,7 @@
         <tr r="L7" s="70"/>
       </tp>
       <tp>
-        <v>5.5417003000000005</v>
+        <v>5.5466793000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319813769 Corp</stp>
@@ -8618,7 +8670,7 @@
         <tr r="C146" s="70"/>
       </tp>
       <tp>
-        <v>267.5</v>
+        <v>267</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROG EB Equity</stp>
@@ -8667,7 +8719,7 @@
         <tr r="D107" s="70"/>
       </tp>
       <tp>
-        <v>3.2537272000000002</v>
+        <v>3.2559979999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0779213460 Corp</stp>
@@ -8698,7 +8750,7 @@
         <tr r="D157" s="70"/>
       </tp>
       <tp>
-        <v>17.875394799999999</v>
+        <v>17.970134900000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0925043100 Corp</stp>
@@ -8771,6 +8823,16 @@
         <tr r="I1" s="70"/>
         <tr r="I1" s="70"/>
       </tp>
+      <tp>
+        <v>10.64649868775477</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>BDVD_PROJ_12M_YLD</stp>
+        <stp>[quotes.xlsx]Calc!R168C6</stp>
+        <tr r="F168" s="70"/>
+        <tr r="F168" s="70"/>
+      </tp>
       <tp t="s">
         <v>MHPSA 8 1/4 04/02/20</v>
         <stp/>
@@ -8842,7 +8904,7 @@
         <tr r="D110" s="70"/>
       </tp>
       <tp>
-        <v>2.9721394999999999</v>
+        <v>2.9710885</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0849020556 Corp</stp>
@@ -8873,7 +8935,7 @@
         <tr r="F155" s="70"/>
       </tp>
       <tp>
-        <v>5.0849814000000002</v>
+        <v>5.0873907999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533921299 Corp</stp>
@@ -8883,6 +8945,16 @@
         <tr r="F111" s="70"/>
         <tr r="F111" s="70"/>
       </tp>
+      <tp>
+        <v>14.92</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>PX_LAST</stp>
+        <stp>[quotes.xlsx]Calc!R168C3</stp>
+        <tr r="C168" s="70"/>
+        <tr r="C168" s="70"/>
+      </tp>
       <tp t="s">
         <v>CH0012032048</v>
         <stp/>
@@ -8915,7 +8987,7 @@
         <tr r="L96" s="70"/>
       </tp>
       <tp>
-        <v>5.2115248999999997</v>
+        <v>5.2164579</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1508914691 Corp</stp>
@@ -8926,7 +8998,7 @@
         <tr r="F109" s="70"/>
       </tp>
       <tp>
-        <v>5.3343797000000004</v>
+        <v>5.3328848999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0579851949 Corp</stp>
@@ -8976,7 +9048,7 @@
         <tr r="F30" s="70"/>
       </tp>
       <tp>
-        <v>9.4265606672748614</v>
+        <v>9.4191952077093362</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CHMF RX Equity</stp>
@@ -9015,7 +9087,7 @@
         <tr r="G3" s="70"/>
       </tp>
       <tp>
-        <v>6.2193816000000002</v>
+        <v>6.2166613999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USN54468AF52 Corp</stp>
@@ -9046,7 +9118,7 @@
         <tr r="D159" s="70"/>
       </tp>
       <tp>
-        <v>5.0328795</v>
+        <v>5.0358872000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405775377 Corp</stp>
@@ -9067,7 +9139,7 @@
         <tr r="I111" s="70"/>
       </tp>
       <tp>
-        <v>3.3860540000000001</v>
+        <v>3.3843481999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0555493203 Corp</stp>
@@ -9118,7 +9190,7 @@
         <tr r="A131" s="70"/>
       </tp>
       <tp>
-        <v>313.25</v>
+        <v>313.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSN RM Equity</stp>
@@ -9261,7 +9333,7 @@
         <tr r="I9" s="70"/>
       </tp>
       <tp>
-        <v>3.5420619860847569</v>
+        <v>3.5398230088495577</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NOVN VX Equity</stp>
@@ -9271,7 +9343,7 @@
         <tr r="F105" s="70"/>
       </tp>
       <tp>
-        <v>116.08</v>
+        <v>115.97</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MOEX RM Equity</stp>
@@ -9280,7 +9352,7 @@
         <tr r="C103" s="70"/>
       </tp>
       <tp>
-        <v>6.6184074457083755</v>
+        <v>6.6224023454341641</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MOEX RM Equity</stp>
@@ -9290,7 +9362,7 @@
         <tr r="F103" s="70"/>
       </tp>
       <tp>
-        <v>0.92680357581003525</v>
+        <v>0.92621828779247284</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CSSMI SW Equity</stp>
@@ -9437,7 +9509,7 @@
         <tr r="F148" s="70"/>
       </tp>
       <tp>
-        <v>14.452117025269748</v>
+        <v>14.444588900761207</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CHMF RX Equity</stp>
@@ -9538,7 +9610,7 @@
         <tr r="C104" s="70"/>
       </tp>
       <tp>
-        <v>27.05</v>
+        <v>27.02</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MAIL LI Equity</stp>
@@ -10005,7 +10077,7 @@
         <tr r="D63" s="70"/>
       </tp>
       <tp>
-        <v>5.3424747999999997</v>
+        <v>5.3464359999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -10045,7 +10117,7 @@
         <tr r="F147" s="70"/>
       </tp>
       <tp>
-        <v>2.8412250060294566</v>
+        <v>2.8377193141405055</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NESN SW Equity</stp>
@@ -10086,7 +10158,7 @@
         <tr r="G124" s="70"/>
       </tp>
       <tp>
-        <v>4.6141437999999999</v>
+        <v>4.6108469000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -10097,7 +10169,7 @@
         <tr r="F8" s="70"/>
       </tp>
       <tp>
-        <v>5.8052406000000003</v>
+        <v>5.8061758000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -10166,7 +10238,7 @@
         <tr r="L120" s="70"/>
       </tp>
       <tp>
-        <v>2.9029906980766147</v>
+        <v>2.8994090140775564</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NESN SW Equity</stp>
@@ -10331,7 +10403,7 @@
         <tr r="I7" s="70"/>
       </tp>
       <tp>
-        <v>767.5</v>
+        <v>767.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CHMF RX Equity</stp>
@@ -10393,7 +10465,7 @@
         <tr r="F145" s="70"/>
       </tp>
       <tp>
-        <v>6.6166966729892511</v>
+        <v>6.6224021974119367</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MOEX RM Equity</stp>
@@ -10412,7 +10484,7 @@
         <tr r="F150" s="70"/>
       </tp>
       <tp>
-        <v>94.95</v>
+        <v>95.01</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CSSMI SW Equity</stp>
@@ -10564,7 +10636,7 @@
         <tr r="A37" s="70"/>
       </tp>
       <tp>
-        <v>55.85</v>
+        <v>56.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KMAZ RX Equity</stp>
@@ -10900,7 +10972,7 @@
         <tr r="G153" s="70"/>
       </tp>
       <tp>
-        <v>7.7896000000000001</v>
+        <v>7.7896999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USDHKD Curncy</stp>
@@ -10929,7 +11001,7 @@
         <tr r="D5" s="70"/>
       </tp>
       <tp>
-        <v>57.150399999999998</v>
+        <v>57.147500000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USDRUB Curncy</stp>
@@ -10956,7 +11028,7 @@
         <tr r="L124" s="70"/>
       </tp>
       <tp>
-        <v>3.3865506999999999</v>
+        <v>3.3853419000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -11068,7 +11140,7 @@
         <tr r="L158" s="70"/>
       </tp>
       <tp>
-        <v>220.3</v>
+        <v>220</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DIXY RX Equity</stp>
@@ -11105,6 +11177,16 @@
         <tr r="D65" s="70"/>
       </tp>
       <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>BEST_TARGET_PRICE</stp>
+        <stp>[quotes.xlsx]Calc!R168C5</stp>
+        <tr r="E168" s="70"/>
+        <tr r="E168" s="70"/>
+      </tp>
+      <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -11142,7 +11224,7 @@
         <tr r="L133" s="70"/>
       </tp>
       <tp>
-        <v>9.5477390197538554</v>
+        <v>9.5784621958337244</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -11151,7 +11233,7 @@
         <tr r="F28" s="70"/>
       </tp>
       <tp>
-        <v>93.53</v>
+        <v>93.23</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -11456,7 +11538,7 @@
         <tr r="L132" s="70"/>
       </tp>
       <tp>
-        <v>10.787031492037787</v>
+        <v>10.794506912337189</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NMTP RX Equity</stp>
@@ -11616,7 +11698,7 @@
         <tr r="F1" s="70"/>
       </tp>
       <tp>
-        <v>1027</v>
+        <v>1029</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -11625,7 +11707,7 @@
         <tr r="C7" s="70"/>
       </tp>
       <tp>
-        <v>6.8900000000000003E-2</v>
+        <v>6.905E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MRKV RM Equity</stp>
@@ -11791,7 +11873,7 @@
         <tr r="D90" s="70"/>
       </tp>
       <tp>
-        <v>9001</v>
+        <v>9005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -11800,7 +11882,7 @@
         <tr r="C11" s="70"/>
       </tp>
       <tp>
-        <v>10.94964518261826</v>
+        <v>11.130195841761399</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -11820,7 +11902,7 @@
         <tr r="G147" s="70"/>
       </tp>
       <tp>
-        <v>14.795</v>
+        <v>14.555</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -11829,7 +11911,7 @@
         <tr r="C86" s="70"/>
       </tp>
       <tp>
-        <v>2.2465007301437354</v>
+        <v>2.2460017295373067</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -11878,7 +11960,7 @@
         <tr r="L163" s="70"/>
       </tp>
       <tp>
-        <v>1228</v>
+        <v>1231</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -11916,7 +11998,7 @@
         <tr r="A35" s="70"/>
       </tp>
       <tp>
-        <v>9.4461788329974752</v>
+        <v>9.420648619935319</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GLTR LI Equity</stp>
@@ -11945,7 +12027,7 @@
         <tr r="L110" s="70"/>
       </tp>
       <tp>
-        <v>7.38</v>
+        <v>7.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GLTR LI Equity</stp>
@@ -12227,7 +12309,7 @@
         <tr r="D66" s="70"/>
       </tp>
       <tp>
-        <v>5.9547168803664876</v>
+        <v>5.9412649597030081</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -12245,7 +12327,7 @@
         <tr r="L112" s="70"/>
       </tp>
       <tp>
-        <v>132.5</v>
+        <v>132.80000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -12254,7 +12336,7 @@
         <tr r="C31" s="70"/>
       </tp>
       <tp>
-        <v>7.4153294962782699</v>
+        <v>7.3368604010795577</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -12265,7 +12347,7 @@
         <tr r="F32" s="70"/>
       </tp>
       <tp>
-        <v>31.305</v>
+        <v>31.32</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -12274,7 +12356,7 @@
         <tr r="C92" s="70"/>
       </tp>
       <tp>
-        <v>140.25</v>
+        <v>141.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -12283,7 +12365,7 @@
         <tr r="C32" s="70"/>
       </tp>
       <tp>
-        <v>22.105095276454065</v>
+        <v>22.094508544999826</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -12322,7 +12404,7 @@
         <tr r="L91" s="70"/>
       </tp>
       <tp>
-        <v>4.7684639999999998</v>
+        <v>4.7677978999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -12333,7 +12415,7 @@
         <tr r="F5" s="70"/>
       </tp>
       <tp>
-        <v>3.5536295242282021</v>
+        <v>3.5665096602348281</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
@@ -12355,7 +12437,7 @@
         <tr r="A28" s="70"/>
       </tp>
       <tp>
-        <v>276.89999999999998</v>
+        <v>275.89999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
@@ -12404,7 +12486,7 @@
         <tr r="D61" s="70"/>
       </tp>
       <tp>
-        <v>117.4</v>
+        <v>117.54</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHAU LN Equity</stp>
@@ -12413,7 +12495,7 @@
         <tr r="C55" s="70"/>
       </tp>
       <tp>
-        <v>13.349613349613348</v>
+        <v>13.322502030869213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -12431,7 +12513,7 @@
         <tr r="L82" s="70"/>
       </tp>
       <tp>
-        <v>3.9736257999999998</v>
+        <v>3.9731645000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -12451,7 +12533,7 @@
         <tr r="L27" s="70"/>
       </tp>
       <tp>
-        <v>890</v>
+        <v>891</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -12482,7 +12564,7 @@
         <tr r="G123" s="70"/>
       </tp>
       <tp>
-        <v>8.7640449438202239</v>
+        <v>8.7542087542087543</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -12564,7 +12646,7 @@
         <tr r="F76" s="70"/>
       </tp>
       <tp>
-        <v>2846.5</v>
+        <v>2859</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -12583,7 +12665,7 @@
         <tr r="E150" s="70"/>
       </tp>
       <tp>
-        <v>6.8505181802213242</v>
+        <v>6.8205666316894025</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -12592,7 +12674,7 @@
         <tr r="F36" s="70"/>
       </tp>
       <tp>
-        <v>5.436497991944913</v>
+        <v>5.426829423361677</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -12621,7 +12703,7 @@
         <tr r="E145" s="70"/>
       </tp>
       <tp>
-        <v>196.45</v>
+        <v>196.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -12652,7 +12734,7 @@
         <tr r="F71" s="70"/>
       </tp>
       <tp>
-        <v>4.58</v>
+        <v>4.5895000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -12703,7 +12785,7 @@
         <tr r="L99" s="70"/>
       </tp>
       <tp>
-        <v>5.3358078002929687</v>
+        <v>5.3253431521773358</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -12722,7 +12804,7 @@
         <tr r="D93" s="70"/>
       </tp>
       <tp>
-        <v>23.42</v>
+        <v>23.47</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNCP RM Equity</stp>
@@ -12731,7 +12813,7 @@
         <tr r="C53" s="70"/>
       </tp>
       <tp>
-        <v>10.426952001808139</v>
+        <v>10.483642226283989</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -12740,7 +12822,7 @@
         <tr r="F42" s="70"/>
       </tp>
       <tp>
-        <v>2.589</v>
+        <v>2.5750000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -12894,7 +12976,7 @@
         <tr r="L71" s="70"/>
       </tp>
       <tp>
-        <v>2.0165990367023947</v>
+        <v>2.0126795050469966</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -12903,7 +12985,7 @@
         <tr r="F7" s="70"/>
       </tp>
       <tp>
-        <v>384.2</v>
+        <v>384.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MVID RX Equity</stp>
@@ -12933,7 +13015,7 @@
         <tr r="E147" s="70"/>
       </tp>
       <tp>
-        <v>17.50236518448439</v>
+        <v>17.61904761904762</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
@@ -12962,7 +13044,7 @@
         <tr r="C12" s="70"/>
       </tp>
       <tp>
-        <v>105.6</v>
+        <v>105</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
@@ -12971,7 +13053,7 @@
         <tr r="C57" s="70"/>
       </tp>
       <tp>
-        <v>6.0555742199999996</v>
+        <v>6.0563708500000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -13013,7 +13095,7 @@
         <tr r="I116" s="70"/>
       </tp>
       <tp>
-        <v>6.0277215999999996</v>
+        <v>6.0300051000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAG54 Corp</stp>
@@ -13084,7 +13166,7 @@
         <tr r="L95" s="70"/>
       </tp>
       <tp>
-        <v>4.0170047000000002</v>
+        <v>4.0149051</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -13201,7 +13283,7 @@
         <tr r="F82" s="70"/>
       </tp>
       <tp>
-        <v>5.1621444015452438</v>
+        <v>5.161461216738263</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -13221,7 +13303,7 @@
         <tr r="A15" s="70"/>
       </tp>
       <tp>
-        <v>75.55</v>
+        <v>75.56</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -13239,7 +13321,7 @@
         <tr r="L70" s="70"/>
       </tp>
       <tp>
-        <v>4.5201744999999995</v>
+        <v>4.5210255000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -13261,7 +13343,7 @@
         <tr r="A60" s="70"/>
       </tp>
       <tp>
-        <v>4.1273467000000004</v>
+        <v>4.1205911999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -13333,7 +13415,7 @@
         <tr r="C17" s="70"/>
       </tp>
       <tp>
-        <v>10.419245734053851</v>
+        <v>10.42898903807167</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -13342,7 +13424,7 @@
         <tr r="F47" s="70"/>
       </tp>
       <tp>
-        <v>8563</v>
+        <v>8555</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -13393,7 +13475,7 @@
         <tr r="G131" s="70"/>
       </tp>
       <tp>
-        <v>4.9764648999999999</v>
+        <v>4.9772714000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -13465,7 +13547,7 @@
         <tr r="I28" s="70"/>
       </tp>
       <tp>
-        <v>4.5613339000000002</v>
+        <v>4.5588512000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -13584,7 +13666,7 @@
         <tr r="F59" s="70"/>
       </tp>
       <tp>
-        <v>1.2975E-2</v>
+        <v>1.3010000000000001E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TGKA RX Equity</stp>
@@ -13802,7 +13884,7 @@
         <tr r="G10" s="70"/>
       </tp>
       <tp>
-        <v>602.4</v>
+        <v>602.20000000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -13811,7 +13893,7 @@
         <tr r="C18" s="70"/>
       </tp>
       <tp>
-        <v>5.2113123609787104</v>
+        <v>5.2080025404890442</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -13820,7 +13902,7 @@
         <tr r="F13" s="70"/>
       </tp>
       <tp>
-        <v>1.6241298566377171</v>
+        <v>1.6191209750443858</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -13842,7 +13924,7 @@
         <tr r="A19" s="70"/>
       </tp>
       <tp>
-        <v>8.0312086766459547</v>
+        <v>8.0338759661433468</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -13853,7 +13935,7 @@
         <tr r="F18" s="70"/>
       </tp>
       <tp>
-        <v>64.650000000000006</v>
+        <v>64.849999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -13862,7 +13944,7 @@
         <tr r="C44" s="70"/>
       </tp>
       <tp>
-        <v>3147</v>
+        <v>3149</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -13881,7 +13963,7 @@
         <tr r="F30" s="70"/>
       </tp>
       <tp>
-        <v>4.0910099143105922</v>
+        <v>4.0927823651686213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -13935,7 +14017,7 @@
         <tr r="I149" s="70"/>
       </tp>
       <tp>
-        <v>4.2363047503332822</v>
+        <v>4.1668191078061705</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US65504LAM90 Corp</stp>
@@ -13946,6 +14028,17 @@
         <tr r="F90" s="70"/>
       </tp>
       <tp t="s">
+        <v>21/06/2017</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>DVD_EX_DT</stp>
+        <stp>[quotes.xlsx]Calc!R168C7</stp>
+        <tr r="G168" s="70"/>
+        <tr r="G168" s="70"/>
+        <tr r="G168" s="70"/>
+      </tp>
+      <tp t="s">
         <v>RU0009024277</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
@@ -14171,7 +14264,7 @@
         <tr r="L76" s="70"/>
       </tp>
       <tp>
-        <v>10.050000000000001</v>
+        <v>10.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MHPC LI Equity</stp>
@@ -14231,7 +14324,7 @@
         <tr r="L63" s="70"/>
       </tp>
       <tp>
-        <v>7.4547262334111908</v>
+        <v>7.4178216480972736</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MHPC LI Equity</stp>
@@ -14252,7 +14345,7 @@
         <tr r="F54" s="70"/>
       </tp>
       <tp>
-        <v>4.2979396272020987</v>
+        <v>4.3001258093919743</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -14480,7 +14573,7 @@
         <tr r="D119" s="70"/>
       </tp>
       <tp>
-        <v>10.84</v>
+        <v>10.83</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWV63 Corp</stp>
@@ -14529,7 +14622,7 @@
         <tr r="L78" s="70"/>
       </tp>
       <tp>
-        <v>51</v>
+        <v>51.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNC RM Equity</stp>
@@ -14559,7 +14652,7 @@
         <tr r="A14" s="70"/>
       </tp>
       <tp>
-        <v>10.953008953776877</v>
+        <v>10.889143012355438</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -14578,7 +14671,7 @@
         <tr r="F60" s="70"/>
       </tp>
       <tp>
-        <v>150.44999999999999</v>
+        <v>150.4</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>URKA RX Equity</stp>
@@ -14587,7 +14680,7 @@
         <tr r="C60" s="70"/>
       </tp>
       <tp>
-        <v>17.05</v>
+        <v>17.149999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -14669,7 +14762,7 @@
         <tr r="E105" s="70"/>
       </tp>
       <tp>
-        <v>3.8566172000000001</v>
+        <v>3.8582326999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -14754,7 +14847,7 @@
         <tr r="A137" s="70"/>
       </tp>
       <tp>
-        <v>10.918981931222071</v>
+        <v>10.914740726354633</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MTSS RX Equity</stp>
@@ -14783,7 +14876,7 @@
         <tr r="C158" s="70"/>
       </tp>
       <tp>
-        <v>103.066</v>
+        <v>103.065</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -14855,7 +14948,7 @@
         <tr r="F109" s="70"/>
       </tp>
       <tp>
-        <v>4.1826604897418935</v>
+        <v>4.1821069348861828</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -15008,7 +15101,7 @@
         <tr r="I69" s="70"/>
       </tp>
       <tp>
-        <v>4.3023255813953485</v>
+        <v>4.3106796116504853</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -15028,7 +15121,7 @@
         <tr r="F54" s="70"/>
       </tp>
       <tp>
-        <v>111.709</v>
+        <v>111.702</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319822752 Corp</stp>
@@ -15150,7 +15243,7 @@
         <tr r="A73" s="70"/>
       </tp>
       <tp>
-        <v>95.94</v>
+        <v>95.95</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -15272,7 +15365,7 @@
         <tr r="G90" s="70"/>
       </tp>
       <tp>
-        <v>100.56100000000001</v>
+        <v>100.54900000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405766384 Corp</stp>
@@ -15330,7 +15423,7 @@
         <tr r="F143" s="70"/>
       </tp>
       <tp>
-        <v>97.16</v>
+        <v>97.22</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CH0355509487 Corp</stp>
@@ -15358,7 +15451,7 @@
         <tr r="L31" s="70"/>
       </tp>
       <tp>
-        <v>104.69</v>
+        <v>104.70099999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -15409,7 +15502,7 @@
         <tr r="E101" s="70"/>
       </tp>
       <tp>
-        <v>105.066</v>
+        <v>105.063</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -15449,7 +15542,7 @@
         <tr r="D131" s="70"/>
       </tp>
       <tp>
-        <v>98.959000000000003</v>
+        <v>98.95</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1071551474 Corp</stp>
@@ -15520,7 +15613,7 @@
         <tr r="F133" s="70"/>
       </tp>
       <tp>
-        <v>6.0278257943989955</v>
+        <v>6.015583208242024</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -15722,7 +15815,7 @@
         <tr r="E155" s="70"/>
       </tp>
       <tp>
-        <v>110.336</v>
+        <v>110.325</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0588433267 Corp</stp>
@@ -15731,7 +15824,7 @@
         <tr r="C136" s="70"/>
       </tp>
       <tp>
-        <v>100.339</v>
+        <v>100.333</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1069383856 Corp</stp>
@@ -15832,7 +15925,7 @@
         <tr r="H69" s="70"/>
       </tp>
       <tp>
-        <v>0.70819089452880701</v>
+        <v>0.70819140837771044</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -15842,7 +15935,7 @@
         <tr r="H70" s="70"/>
       </tp>
       <tp>
-        <v>102.872</v>
+        <v>102.89400000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US456837AE31 Corp</stp>
@@ -15861,7 +15954,7 @@
         <tr r="F57" s="70"/>
       </tp>
       <tp>
-        <v>109.252</v>
+        <v>109.261</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1400710726 Corp</stp>
@@ -15870,7 +15963,7 @@
         <tr r="C107" s="70"/>
       </tp>
       <tp>
-        <v>109.90900000000001</v>
+        <v>109.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0524610812 Corp</stp>
@@ -15997,7 +16090,7 @@
         <tr r="L17" s="70"/>
       </tp>
       <tp>
-        <v>57.398000000000003</v>
+        <v>57.280999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1117280625 Corp</stp>
@@ -16006,7 +16099,7 @@
         <tr r="C129" s="70"/>
       </tp>
       <tp>
-        <v>102.55200000000001</v>
+        <v>102.563</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1032750165 Corp</stp>
@@ -16015,7 +16108,7 @@
         <tr r="C125" s="70"/>
       </tp>
       <tp>
-        <v>115.16800000000001</v>
+        <v>115.155</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0979891925 Corp</stp>
@@ -16044,6 +16137,17 @@
         <tr r="F46" s="70"/>
         <tr r="F46" s="70"/>
       </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>NILSY US Equity</stp>
+        <stp>BEST_ANALYST_RATING</stp>
+        <stp>[quotes.xlsx]Calc!R168C4</stp>
+        <tr r="D168" s="70"/>
+        <tr r="D168" s="70"/>
+        <tr r="D168" s="70"/>
+      </tp>
       <tp t="s">
         <v>#N/A Field Not Applicable</v>
         <stp/>
@@ -16167,7 +16271,7 @@
         <tr r="A153" s="70"/>
       </tp>
       <tp>
-        <v>8.7640449438202239</v>
+        <v>8.7542087542087543</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -16177,7 +16281,7 @@
         <tr r="F48" s="70"/>
       </tp>
       <tp>
-        <v>132.803</v>
+        <v>132.732</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0191754729 Corp</stp>
@@ -16196,7 +16300,7 @@
         <tr r="F157" s="70"/>
       </tp>
       <tp>
-        <v>113.30800000000001</v>
+        <v>113.309</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0643183220 Corp</stp>
@@ -16256,7 +16360,7 @@
         <tr r="L44" s="70"/>
       </tp>
       <tp>
-        <v>1.4786387577836164</v>
+        <v>1.4786378758248275</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -16266,7 +16370,7 @@
         <tr r="H3" s="70"/>
       </tp>
       <tp>
-        <v>5.1314003211000987</v>
+        <v>5.1314169105469514</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -16390,7 +16494,7 @@
         <tr r="A68" s="70"/>
       </tp>
       <tp>
-        <v>3.7427668107509002</v>
+        <v>3.7427105501841278</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -16558,7 +16662,7 @@
         <tr r="E125" s="70"/>
       </tp>
       <tp>
-        <v>105.426</v>
+        <v>105.401</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319813769 Corp</stp>
@@ -16760,7 +16864,7 @@
         <tr r="C151" s="70"/>
       </tp>
       <tp>
-        <v>75.765000000000001</v>
+        <v>75.566999999999993</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0925043100 Corp</stp>
@@ -16819,7 +16923,7 @@
         <tr r="A156" s="70"/>
       </tp>
       <tp>
-        <v>3.2535527299925207</v>
+        <v>3.2584269662921348</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROG EB Equity</stp>
@@ -17039,7 +17143,7 @@
         <tr r="L88" s="70"/>
       </tp>
       <tp>
-        <v>100.16200000000001</v>
+        <v>100.148</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533921299 Corp</stp>
@@ -17171,7 +17275,7 @@
         <tr r="D149" s="70"/>
       </tp>
       <tp>
-        <v>106.30200000000001</v>
+        <v>106.30800000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USN54468AF52 Corp</stp>
@@ -17189,7 +17293,7 @@
         <tr r="L30" s="70"/>
       </tp>
       <tp>
-        <v>101.14</v>
+        <v>101.11</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1508914691 Corp</stp>
@@ -17198,7 +17302,7 @@
         <tr r="C109" s="70"/>
       </tp>
       <tp>
-        <v>101.369</v>
+        <v>101.374</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0579851949 Corp</stp>
@@ -17268,7 +17372,7 @@
         <tr r="F98" s="70"/>
       </tp>
       <tp>
-        <v>6.8529312237546129</v>
+        <v>6.8530094092280853</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -17288,7 +17392,7 @@
         <tr r="H6" s="70"/>
       </tp>
       <tp>
-        <v>5.2988955781893932</v>
+        <v>5.2885964614193455</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -17319,7 +17423,7 @@
         <tr r="F145" s="70"/>
       </tp>
       <tp>
-        <v>107.10899999999999</v>
+        <v>107.096</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405775377 Corp</stp>
@@ -17328,7 +17432,7 @@
         <tr r="C139" s="70"/>
       </tp>
       <tp>
-        <v>114.17</v>
+        <v>114.166</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0555493203 Corp</stp>
@@ -17337,7 +17441,7 @@
         <tr r="C142" s="70"/>
       </tp>
       <tp>
-        <v>11.396011396011396</v>
+        <v>11.372867587327375</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -17385,7 +17489,7 @@
         <tr r="L54" s="70"/>
       </tp>
       <tp>
-        <v>5.1533430820686394</v>
+        <v>5.1532599034457194</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0979891925 Corp</stp>
@@ -17395,7 +17499,7 @@
         <tr r="H110" s="70"/>
       </tp>
       <tp>
-        <v>3.2227610565189257</v>
+        <v>3.2215411813981438</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1117280625 Corp</stp>
@@ -17415,7 +17519,7 @@
         <tr r="F138" s="70"/>
       </tp>
       <tp>
-        <v>1.7029441291943035</v>
+        <v>1.7029496574131524</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1032750165 Corp</stp>
@@ -17465,7 +17569,7 @@
         <tr r="E9" s="70"/>
       </tp>
       <tp>
-        <v>2.7100948032015415</v>
+        <v>2.71012209894258</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US456837AE31 Corp</stp>
@@ -17494,7 +17598,7 @@
         <tr r="H157" s="70"/>
       </tp>
       <tp>
-        <v>4.7969198706993197</v>
+        <v>4.7969637053755099</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1400710726 Corp</stp>
@@ -17504,7 +17608,7 @@
         <tr r="H107" s="70"/>
       </tp>
       <tp>
-        <v>2.8382610775545905</v>
+        <v>2.8382445818133952</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0524610812 Corp</stp>
@@ -17572,7 +17676,7 @@
         <tr r="F134" s="70"/>
       </tp>
       <tp>
-        <v>1.9397155346923893</v>
+        <v>1.9397103644418678</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1069383856 Corp</stp>
@@ -17582,7 +17686,7 @@
         <tr r="H159" s="70"/>
       </tp>
       <tp>
-        <v>3.3220175169158495</v>
+        <v>3.3219926862531675</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0588433267 Corp</stp>
@@ -17683,7 +17787,7 @@
         <tr r="F162" s="70"/>
       </tp>
       <tp>
-        <v>5.9574146783449109</v>
+        <v>5.9412650602409638</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -17703,7 +17807,7 @@
         <tr r="F12" s="70"/>
       </tp>
       <tp>
-        <v>8.5985104942450921</v>
+        <v>8.7255238749570605</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -17751,7 +17855,7 @@
         <tr r="L86" s="70"/>
       </tp>
       <tp>
-        <v>31632</v>
+        <v>31695</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSM7 Index</stp>
@@ -17866,7 +17970,7 @@
         <tr r="E79" s="70"/>
       </tp>
       <tp>
-        <v>2.7849210396531472</v>
+        <v>2.7849120253329005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1071551474 Corp</stp>
@@ -17886,7 +17990,7 @@
         <tr r="E69" s="70"/>
       </tp>
       <tp>
-        <v>3.1735956199646735</v>
+        <v>3.1733391598178691</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWBH2 Corp</stp>
@@ -17957,7 +18061,7 @@
         <tr r="H152" s="70"/>
       </tp>
       <tp>
-        <v>4.3850228151299149</v>
+        <v>4.3849884483885013</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405766384 Corp</stp>
@@ -17967,7 +18071,7 @@
         <tr r="H126" s="70"/>
       </tp>
       <tp>
-        <v>3.6942653923094015</v>
+        <v>3.6918036428254108</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -18036,7 +18140,7 @@
         <tr r="E64" s="70"/>
       </tp>
       <tp>
-        <v>3.2243494682306344</v>
+        <v>3.2243280850337266</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319822752 Corp</stp>
@@ -18078,7 +18182,7 @@
         <tr r="A70" s="70"/>
       </tp>
       <tp>
-        <v>104.59</v>
+        <v>104.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -18148,7 +18252,7 @@
         <tr r="D148" s="70"/>
       </tp>
       <tp>
-        <v>9.5487596236099233</v>
+        <v>9.5784618684972642</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -18177,7 +18281,7 @@
         <tr r="H158" s="70"/>
       </tp>
       <tp>
-        <v>0.92579733867416703</v>
+        <v>0.92579719816729777</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -18283,7 +18387,7 @@
         <tr r="E85" s="70"/>
       </tp>
       <tp>
-        <v>4.0625471623225344</v>
+        <v>4.0624963854579885</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405775377 Corp</stp>
@@ -18293,7 +18397,7 @@
         <tr r="H139" s="70"/>
       </tp>
       <tp>
-        <v>3.126162874643315</v>
+        <v>3.1261549733833909</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0555493203 Corp</stp>
@@ -18417,7 +18521,7 @@
         <tr r="E74" s="70"/>
       </tp>
       <tp>
-        <v>3.451841005455087</v>
+        <v>3.4518648523914059</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USN54468AF52 Corp</stp>
@@ -18427,7 +18531,7 @@
         <tr r="H153" s="70"/>
       </tp>
       <tp>
-        <v>4.0002687536816364</v>
+        <v>4.0001891723493372</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1508914691 Corp</stp>
@@ -18437,7 +18541,7 @@
         <tr r="H109" s="70"/>
       </tp>
       <tp>
-        <v>3.3303287879294472</v>
+        <v>3.3303403906151545</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0579851949 Corp</stp>
@@ -18447,7 +18551,7 @@
         <tr r="H115" s="70"/>
       </tp>
       <tp>
-        <v>10.709609539396773</v>
+        <v>10.708357685563998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -18523,7 +18627,7 @@
         <tr r="L50" s="70"/>
       </tp>
       <tp>
-        <v>2.7277778464251106</v>
+        <v>2.7277888972746607</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -18604,7 +18708,7 @@
         <tr r="F52" s="70"/>
       </tp>
       <tp>
-        <v>0.95384078619805868</v>
+        <v>0.95384076070502599</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0849020556 Corp</stp>
@@ -18614,7 +18718,7 @@
         <tr r="H133" s="70"/>
       </tp>
       <tp>
-        <v>8.5903307888040707</v>
+        <v>8.5772357723577226</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -18633,7 +18737,7 @@
         <tr r="H155" s="70"/>
       </tp>
       <tp>
-        <v>4.1881644468650938</v>
+        <v>4.188117731231384</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533921299 Corp</stp>
@@ -18643,7 +18747,7 @@
         <tr r="H111" s="70"/>
       </tp>
       <tp>
-        <v>98.736000000000004</v>
+        <v>98.715000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -18681,7 +18785,7 @@
         <tr r="F78" s="70"/>
       </tp>
       <tp>
-        <v>2.6036027986261958</v>
+        <v>2.6036201510760399</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -18700,7 +18804,7 @@
         <tr r="L33" s="70"/>
       </tp>
       <tp>
-        <v>0.4500000008733292</v>
+        <v>0.45000000087365216</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -18750,7 +18854,7 @@
         <tr r="F35" s="70"/>
       </tp>
       <tp>
-        <v>1.8683440048865969</v>
+        <v>1.8683437430184093</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0779213460 Corp</stp>
@@ -18760,7 +18864,7 @@
         <tr r="H128" s="70"/>
       </tp>
       <tp>
-        <v>2.6834028636521734</v>
+        <v>2.682954200442484</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0925043100 Corp</stp>
@@ -18790,7 +18894,7 @@
         <tr r="H151" s="70"/>
       </tp>
       <tp>
-        <v>107.52500000000001</v>
+        <v>107.524</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -18799,7 +18903,7 @@
         <tr r="C3" s="70"/>
       </tp>
       <tp>
-        <v>103.324</v>
+        <v>103.327</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -18868,7 +18972,7 @@
         <tr r="F144" s="70"/>
       </tp>
       <tp>
-        <v>4.0318568905323131</v>
+        <v>4.0317586862400479</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319813769 Corp</stp>
@@ -18889,7 +18993,7 @@
         <tr r="A95" s="70"/>
       </tp>
       <tp>
-        <v>28728</v>
+        <v>28855</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH=M7 RU Equity</stp>
@@ -18928,7 +19032,7 @@
         <tr r="E95" s="70"/>
       </tp>
       <tp>
-        <v>8.6321375725019056</v>
+        <v>8.6067498203109913</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -18998,7 +19102,7 @@
         <tr r="F14" s="70"/>
       </tp>
       <tp>
-        <v>50.730000000000004</v>
+        <v>50.83</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>B5M7 Comdty</stp>
@@ -19086,7 +19190,7 @@
         <tr r="L46" s="70"/>
       </tp>
       <tp>
-        <v>98.540009999999995</v>
+        <v>98.55</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -19218,7 +19322,7 @@
         <tr r="E73" s="70"/>
       </tp>
       <tp>
-        <v>7.0323488045007032</v>
+        <v>6.9954529555788731</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -19260,7 +19364,7 @@
         <tr r="H99" s="70"/>
       </tp>
       <tp>
-        <v>3.2408967817634577</v>
+        <v>3.2409313034037059</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWBF6 Corp</stp>
@@ -19331,7 +19435,7 @@
         <tr r="G26" s="70"/>
       </tp>
       <tp>
-        <v>4.1087925528157072</v>
+        <v>4.1087962326280438</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0643183220 Corp</stp>
@@ -19341,7 +19445,7 @@
         <tr r="H124" s="70"/>
       </tp>
       <tp>
-        <v>10.205190854759115</v>
+        <v>10.203362710006543</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0191754729 Corp</stp>
@@ -19705,7 +19809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19713,9 +19817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L167"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="L168" sqref="L168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19771,7 +19877,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>98.753000987530001</v>
+        <v>98.715000987149992</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -19780,13 +19886,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5.3363294999999997</v>
+        <v>5.3464359999999997</v>
       </c>
       <c r="G2" t="s">
         <v>314</v>
       </c>
       <c r="H2">
-        <v>3.742812079324902</v>
+        <v>3.7427105501841278</v>
       </c>
       <c r="I2" t="s">
         <v>328</v>
@@ -19806,7 +19912,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>107.53600107535999</v>
+        <v>107.52400107523999</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -19815,13 +19921,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>5.7986941999999999</v>
+        <v>5.8061758000000001</v>
       </c>
       <c r="G3" t="s">
         <v>315</v>
       </c>
       <c r="H3">
-        <v>1.4786484585796491</v>
+        <v>1.4786378758248275</v>
       </c>
       <c r="I3" t="s">
         <v>328</v>
@@ -19841,7 +19947,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>1232.00001232</v>
+        <v>1231.0000123099999</v>
       </c>
       <c r="D4" s="2">
         <v>3.5</v>
@@ -19850,7 +19956,7 @@
         <v>1839.0594482421875</v>
       </c>
       <c r="F4" s="1">
-        <v>13.311688311688311</v>
+        <v>13.322502030869213</v>
       </c>
       <c r="G4" t="s">
         <v>316</v>
@@ -19876,7 +19982,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>112.96600112965999</v>
+        <v>112.98500112984999</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -19885,13 +19991,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>4.7728608999999995</v>
+        <v>4.7677978999999997</v>
       </c>
       <c r="G5" t="s">
         <v>317</v>
       </c>
       <c r="H5">
-        <v>3.3636383054797929</v>
+        <v>3.3636877876952815</v>
       </c>
       <c r="I5" t="s">
         <v>328</v>
@@ -19911,7 +20017,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>111.25000111249999</v>
+        <v>111.00000111</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -19920,13 +20026,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>4.8258136</v>
+        <v>4.8419121000000001</v>
       </c>
       <c r="G6" t="s">
         <v>318</v>
       </c>
       <c r="H6">
-        <v>14.204895644357691</v>
+        <v>14.192633268500472</v>
       </c>
       <c r="I6" t="s">
         <v>328</v>
@@ -19946,7 +20052,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>1022.0000102199999</v>
+        <v>1029.0000102899999</v>
       </c>
       <c r="D7" s="2">
         <v>3.5</v>
@@ -19955,7 +20061,7 @@
         <v>1037.4000244140625</v>
       </c>
       <c r="F7" s="1">
-        <v>2.0264649811089623</v>
+        <v>2.0126795050469966</v>
       </c>
       <c r="G7" t="s">
         <v>319</v>
@@ -19981,7 +20087,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>103.31800103318</v>
+        <v>103.32700103326999</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -19990,13 +20096,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>4.6125423999999997</v>
+        <v>4.6108469000000003</v>
       </c>
       <c r="G8" t="s">
         <v>320</v>
       </c>
       <c r="H8">
-        <v>5.1313671356226953</v>
+        <v>5.1314169105469514</v>
       </c>
       <c r="I8" t="s">
         <v>328</v>
@@ -20051,16 +20157,16 @@
         <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>278.90000278899998</v>
+        <v>275.90000275899996</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>388.64920790324942</v>
+        <v>388.91508438707257</v>
       </c>
       <c r="F10" s="1">
-        <v>3.5281463437030807</v>
+        <v>3.5665096602348281</v>
       </c>
       <c r="G10" t="s">
         <v>321</v>
@@ -20086,7 +20192,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>9050.0000904999997</v>
+        <v>9005.0000900499999</v>
       </c>
       <c r="D11" s="2">
         <v>3.615384578704834</v>
@@ -20095,7 +20201,7 @@
         <v>11048.7138671875</v>
       </c>
       <c r="F11" s="1">
-        <v>2.2345855881496028</v>
+        <v>2.2460017295373067</v>
       </c>
       <c r="G11" t="s">
         <v>442</v>
@@ -20156,7 +20262,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>3156.00003156</v>
+        <v>3149.0000314899999</v>
       </c>
       <c r="D13" s="2">
         <v>3.4000000953674316</v>
@@ -20165,7 +20271,7 @@
         <v>2491.62890625</v>
       </c>
       <c r="F13" s="1">
-        <v>5.1964512040557667</v>
+        <v>5.2080025404890442</v>
       </c>
       <c r="G13" t="s">
         <v>316</v>
@@ -20191,7 +20297,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2">
-        <v>4.0350000403499999</v>
+        <v>4.0650000406500002</v>
       </c>
       <c r="D14" s="2">
         <v>4.5999999046325684</v>
@@ -20200,7 +20306,7 @@
         <v>4.5999999046325684</v>
       </c>
       <c r="F14" s="1">
-        <v>1.4851484816558289</v>
+        <v>1.4760147271561006</v>
       </c>
       <c r="G14" t="s">
         <v>324</v>
@@ -20226,7 +20332,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2">
-        <v>17.200000171999999</v>
+        <v>17.150000171499997</v>
       </c>
       <c r="D15" s="2">
         <v>3.8571429252624512</v>
@@ -20235,7 +20341,7 @@
         <v>20.126667022705078</v>
       </c>
       <c r="F15" s="1">
-        <v>10.857488526854404</v>
+        <v>10.889143012355438</v>
       </c>
       <c r="G15" t="s">
         <v>343</v>
@@ -20296,7 +20402,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="2">
-        <v>10.800000108000001</v>
+        <v>10.790000107899999</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -20305,7 +20411,7 @@
         <v>11.935615539550781</v>
       </c>
       <c r="F17" s="1">
-        <v>7.531415192095027</v>
+        <v>7.5453751831832481</v>
       </c>
       <c r="G17" t="s">
         <v>325</v>
@@ -20331,7 +20437,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>601.80000601799986</v>
+        <v>602.20000602200003</v>
       </c>
       <c r="D18" s="2">
         <v>4.1999998092651367</v>
@@ -20340,7 +20446,7 @@
         <v>707.4000244140625</v>
       </c>
       <c r="F18" s="1">
-        <v>8.0392158637612567</v>
+        <v>8.0338759661433468</v>
       </c>
       <c r="G18" t="s">
         <v>325</v>
@@ -20366,7 +20472,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>4.6065000460649994</v>
+        <v>4.5895000458949999</v>
       </c>
       <c r="D19" s="2">
         <v>2.7142856121063232</v>
@@ -20375,7 +20481,7 @@
         <v>4.7230768203735352</v>
       </c>
       <c r="F19" s="1">
-        <v>5.3051122816328666</v>
+        <v>5.3253431521773358</v>
       </c>
       <c r="G19" t="s">
         <v>326</v>
@@ -20471,7 +20577,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2">
-        <v>106.84600106846</v>
+        <v>106.81500106815</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -20480,13 +20586,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>4.0042339</v>
+        <v>4.0149051</v>
       </c>
       <c r="G22" t="s">
         <v>329</v>
       </c>
       <c r="H22">
-        <v>2.7185167566294188</v>
+        <v>2.7184796250317116</v>
       </c>
       <c r="I22" t="s">
         <v>328</v>
@@ -20506,7 +20612,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2">
-        <v>102.39300102393</v>
+        <v>102.36300102362999</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -20515,13 +20621,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>4.1113248000000002</v>
+        <v>4.1205911999999998</v>
       </c>
       <c r="G23" t="s">
         <v>330</v>
       </c>
       <c r="H23">
-        <v>3.1577505198034843</v>
+        <v>3.1577085579022701</v>
       </c>
       <c r="I23" t="s">
         <v>328</v>
@@ -20541,7 +20647,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="2">
-        <v>105.08600105085999</v>
+        <v>105.06300105062999</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -20550,13 +20656,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>4.7963601200000001</v>
+        <v>4.8469522200000004</v>
       </c>
       <c r="G24" t="s">
         <v>331</v>
       </c>
       <c r="H24">
-        <v>0.4500000008736218</v>
+        <v>0.45000000087365216</v>
       </c>
       <c r="I24" t="s">
         <v>328</v>
@@ -20576,7 +20682,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="2">
-        <v>103.80500103804999</v>
+        <v>103.81800103817999</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -20585,13 +20691,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>3.9761630000000001</v>
+        <v>3.9731645000000002</v>
       </c>
       <c r="G25" t="s">
         <v>332</v>
       </c>
       <c r="H25">
-        <v>4.1979934963099224</v>
+        <v>4.1980327990381934</v>
       </c>
       <c r="I25" t="s">
         <v>328</v>
@@ -20611,7 +20717,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="2">
-        <v>102.62600102626</v>
+        <v>102.74100102740999</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -20620,13 +20726,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>4.5924607999999996</v>
+        <v>4.5588512000000003</v>
       </c>
       <c r="G26" t="s">
         <v>333</v>
       </c>
       <c r="H26">
-        <v>3.3551554583088516</v>
+        <v>3.3554016962337712</v>
       </c>
       <c r="I26" t="s">
         <v>328</v>
@@ -20681,7 +20787,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2">
-        <v>93.550000935499995</v>
+        <v>93.230000932300001</v>
       </c>
       <c r="D28" s="2">
         <v>4.125</v>
@@ -20690,7 +20796,7 @@
         <v>103.40160369873047</v>
       </c>
       <c r="F28" s="1">
-        <v>9.545697814191108</v>
+        <v>9.5784621958337244</v>
       </c>
       <c r="G28" t="s">
         <v>335</v>
@@ -20751,7 +20857,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2">
-        <v>107.00000107</v>
+        <v>100.000001</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -20786,7 +20892,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2">
-        <v>132.92000132919998</v>
+        <v>132.80000132800001</v>
       </c>
       <c r="D31" s="2">
         <v>3.461538553237915</v>
@@ -20795,7 +20901,7 @@
         <v>141.19801330566406</v>
       </c>
       <c r="F31" s="1">
-        <v>5.9359011935642458</v>
+        <v>5.9412649597030081</v>
       </c>
       <c r="G31" t="s">
         <v>328</v>
@@ -20821,7 +20927,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="2">
-        <v>140.75000140749998</v>
+        <v>141.75000141749999</v>
       </c>
       <c r="D32" s="2">
         <v>4.3333334922790527</v>
@@ -20830,7 +20936,7 @@
         <v>205</v>
       </c>
       <c r="F32" s="1">
-        <v>7.3889872955810105</v>
+        <v>7.3368604010795577</v>
       </c>
       <c r="G32" t="s">
         <v>337</v>
@@ -20865,7 +20971,7 @@
         <v>9.1999998092651367</v>
       </c>
       <c r="F33" s="1">
-        <v>3.7042371141863928</v>
+        <v>3.6898050215337181</v>
       </c>
       <c r="G33" t="s">
         <v>338</v>
@@ -20961,7 +21067,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2">
-        <v>2868.00002868</v>
+        <v>2859.0000285899996</v>
       </c>
       <c r="D36" s="2">
         <v>4.4545454978942871</v>
@@ -20970,7 +21076,7 @@
         <v>3507.02294921875</v>
       </c>
       <c r="F36" s="1">
-        <v>6.7979780373017258</v>
+        <v>6.8205666316894025</v>
       </c>
       <c r="G36" t="s">
         <v>341</v>
@@ -20996,7 +21102,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="2">
-        <v>257.30000257299997</v>
+        <v>257.45000257449999</v>
       </c>
       <c r="D37" s="2">
         <v>4.3333334922790527</v>
@@ -21005,7 +21111,7 @@
         <v>317.79998779296875</v>
       </c>
       <c r="F37" s="1">
-        <v>12.125923343544287</v>
+        <v>12.11885832703028</v>
       </c>
       <c r="G37" t="s">
         <v>341</v>
@@ -21031,7 +21137,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="2">
-        <v>384.50000384499998</v>
+        <v>384.30000384300001</v>
       </c>
       <c r="D38" s="2">
         <v>3.4000000953674316</v>
@@ -21066,7 +21172,7 @@
         <v>79</v>
       </c>
       <c r="C39" s="2">
-        <v>7.2100000720999997</v>
+        <v>7.2200000721999995</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -21075,7 +21181,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>10.801992700764607</v>
+        <v>10.794506912337189</v>
       </c>
       <c r="G39" t="s">
         <v>342</v>
@@ -21101,7 +21207,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="2">
-        <v>197.45000197449997</v>
+        <v>196.800001968</v>
       </c>
       <c r="D40" s="2">
         <v>3.7272727489471436</v>
@@ -21110,7 +21216,7 @@
         <v>209.57554626464844</v>
       </c>
       <c r="F40" s="1">
-        <v>5.4089644493166782</v>
+        <v>5.426829423361677</v>
       </c>
       <c r="G40" t="s">
         <v>343</v>
@@ -21136,7 +21242,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="2">
-        <v>75.510000755099995</v>
+        <v>75.560000755600001</v>
       </c>
       <c r="D41" s="2">
         <v>4.3333334922790527</v>
@@ -21145,7 +21251,7 @@
         <v>100.34012603759766</v>
       </c>
       <c r="F41" s="1">
-        <v>5.1648789502945718</v>
+        <v>5.161461216738263</v>
       </c>
       <c r="G41" t="s">
         <v>439</v>
@@ -21241,7 +21347,7 @@
         <v>125</v>
       </c>
       <c r="C44" s="2">
-        <v>63.600000635999997</v>
+        <v>64.850000648499986</v>
       </c>
       <c r="D44" s="2">
         <v>4.1999998092651367</v>
@@ -21250,7 +21356,7 @@
         <v>73.358100891113281</v>
       </c>
       <c r="F44" s="1">
-        <v>1.6470587487314261</v>
+        <v>1.6191209750443858</v>
       </c>
       <c r="G44" t="s">
         <v>345</v>
@@ -21311,7 +21417,7 @@
         <v>127</v>
       </c>
       <c r="C46" s="2">
-        <v>7.5600000755999988</v>
+        <v>7.4000000740000003</v>
       </c>
       <c r="D46" s="2">
         <v>4.5</v>
@@ -21320,7 +21426,7 @@
         <v>7.84375</v>
       </c>
       <c r="F46" s="1">
-        <v>9.2212698131642021</v>
+        <v>9.420648619935319</v>
       </c>
       <c r="G46" t="s">
         <v>346</v>
@@ -21346,7 +21452,7 @@
         <v>128</v>
       </c>
       <c r="C47" s="2">
-        <v>8583.0000858299991</v>
+        <v>8555.0000855500002</v>
       </c>
       <c r="D47" s="2">
         <v>3.7999999523162842</v>
@@ -21355,7 +21461,7 @@
         <v>11030.2666015625</v>
       </c>
       <c r="F47" s="1">
-        <v>10.394966937050347</v>
+        <v>10.42898903807167</v>
       </c>
       <c r="G47" t="s">
         <v>442</v>
@@ -21381,7 +21487,7 @@
         <v>129</v>
       </c>
       <c r="C48" s="2">
-        <v>892.50000892499997</v>
+        <v>891.00000890999991</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
@@ -21390,7 +21496,7 @@
         <v>1150</v>
       </c>
       <c r="F48" s="1">
-        <v>8.7394957983193269</v>
+        <v>8.7542087542087543</v>
       </c>
       <c r="G48" t="s">
         <v>439</v>
@@ -21486,7 +21592,7 @@
         <v>132</v>
       </c>
       <c r="C51" s="2">
-        <v>6.8850000688499988E-2</v>
+        <v>6.9050000690499991E-2</v>
       </c>
       <c r="D51" s="2">
         <v>3</v>
@@ -21521,7 +21627,7 @@
         <v>133</v>
       </c>
       <c r="C52" s="2">
-        <v>51.00000051</v>
+        <v>51.300000512999993</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -21556,7 +21662,7 @@
         <v>134</v>
       </c>
       <c r="C53" s="2">
-        <v>23.340000233399998</v>
+        <v>23.470000234699999</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -21591,7 +21697,7 @@
         <v>135</v>
       </c>
       <c r="C54" s="2">
-        <v>15.59500015595</v>
+        <v>15.460000154599999</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -21626,7 +21732,7 @@
         <v>136</v>
       </c>
       <c r="C55" s="2">
-        <v>117.4400011744</v>
+        <v>117.54000117539999</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -21696,7 +21802,7 @@
         <v>138</v>
       </c>
       <c r="C57" s="2">
-        <v>106.00000105999999</v>
+        <v>105.00000104999999</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
@@ -21705,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>17.452830188679243</v>
+        <v>17.61904761904762</v>
       </c>
       <c r="G57" t="s">
         <v>350</v>
@@ -21766,7 +21872,7 @@
         <v>140</v>
       </c>
       <c r="C59" s="2">
-        <v>1.2945000129449999E-2</v>
+        <v>1.3010000130099999E-2</v>
       </c>
       <c r="D59" s="2">
         <v>2.3333332538604736</v>
@@ -21801,7 +21907,7 @@
         <v>141</v>
       </c>
       <c r="C60" s="2">
-        <v>150.60000150599998</v>
+        <v>150.40000150399999</v>
       </c>
       <c r="D60" s="2">
         <v>1.7999999523162842</v>
@@ -21836,7 +21942,7 @@
         <v>142</v>
       </c>
       <c r="C61" s="2">
-        <v>102.81400102813998</v>
+        <v>102.78200102781999</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -21845,13 +21951,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>3.8465671000000001</v>
+        <v>3.8582326999999998</v>
       </c>
       <c r="G61" t="s">
         <v>354</v>
       </c>
       <c r="H61">
-        <v>2.7522182099818626</v>
+        <v>2.7521855567211535</v>
       </c>
       <c r="I61" t="s">
         <v>328</v>
@@ -21915,13 +22021,13 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>9.65</v>
+        <v>9.68</v>
       </c>
       <c r="G63" t="s">
         <v>356</v>
       </c>
       <c r="H63">
-        <v>3.173760349777655</v>
+        <v>3.1733391598178691</v>
       </c>
       <c r="I63" t="s">
         <v>328</v>
@@ -21941,7 +22047,7 @@
         <v>145</v>
       </c>
       <c r="C64" s="2">
-        <v>106.60000106599999</v>
+        <v>106.75000106749999</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -21976,7 +22082,7 @@
         <v>146</v>
       </c>
       <c r="C65" s="2">
-        <v>107.95500107954999</v>
+        <v>107.94000107939999</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -21985,13 +22091,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>6.0484052699999999</v>
+        <v>6.0563708500000004</v>
       </c>
       <c r="G65" t="s">
         <v>354</v>
       </c>
       <c r="H65">
-        <v>1.783764036059559</v>
+        <v>1.7837529406335464</v>
       </c>
       <c r="I65" t="s">
         <v>328</v>
@@ -22055,13 +22161,13 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="G67" t="s">
         <v>356</v>
       </c>
       <c r="H67">
-        <v>3.240758643123864</v>
+        <v>3.2409313034037059</v>
       </c>
       <c r="I67" t="s">
         <v>420</v>
@@ -22081,7 +22187,7 @@
         <v>149</v>
       </c>
       <c r="C68" s="2">
-        <v>104.70900104709</v>
+        <v>104.70100104700998</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -22090,13 +22196,13 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>6.4267760000000003</v>
+        <v>6.4299634000000001</v>
       </c>
       <c r="G68" t="s">
         <v>357</v>
       </c>
       <c r="H68">
-        <v>2.6036335572441511</v>
+        <v>2.6036201510760399</v>
       </c>
       <c r="I68" t="s">
         <v>328</v>
@@ -22256,7 +22362,7 @@
         <v>153</v>
       </c>
       <c r="C73" s="2">
-        <v>105.6500010565</v>
+        <v>105.6400010564</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -22326,7 +22432,7 @@
         <v>155</v>
       </c>
       <c r="C75" s="2">
-        <v>102.26000102259999</v>
+        <v>101.900001019</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
@@ -22335,13 +22441,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>10.36</v>
+        <v>10.39</v>
       </c>
       <c r="G75" t="s">
         <v>362</v>
       </c>
       <c r="H75">
-        <v>3.2265757459492637</v>
+        <v>3.2262820507361143</v>
       </c>
       <c r="I75" t="s">
         <v>425</v>
@@ -22396,7 +22502,7 @@
         <v>157</v>
       </c>
       <c r="C77" s="2">
-        <v>108.35200108351999</v>
+        <v>108.28400108283999</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -22405,13 +22511,13 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>4.5093706999999998</v>
+        <v>4.5210255000000004</v>
       </c>
       <c r="G77" t="s">
         <v>363</v>
       </c>
       <c r="H77">
-        <v>5.4089882065367183</v>
+        <v>5.4085415556607757</v>
       </c>
       <c r="I77" t="s">
         <v>328</v>
@@ -22431,7 +22537,7 @@
         <v>158</v>
       </c>
       <c r="C78" s="2">
-        <v>101.400001014</v>
+        <v>101.34300101343</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -22440,13 +22546,13 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>4.0808998391546671</v>
+        <v>4.0927823651686213</v>
       </c>
       <c r="G78" t="s">
         <v>364</v>
       </c>
       <c r="H78">
-        <v>4.7966665983540038</v>
+        <v>4.7964744438853613</v>
       </c>
       <c r="I78" t="s">
         <v>328</v>
@@ -22606,7 +22712,7 @@
         <v>163</v>
       </c>
       <c r="C83" s="2">
-        <v>81.065000810649991</v>
+        <v>80.998000809979999</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -22615,13 +22721,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>28.344308848685174</v>
+        <v>28.415251876757665</v>
       </c>
       <c r="G83" t="s">
         <v>368</v>
       </c>
       <c r="H83">
-        <v>1.2883634685194765</v>
+        <v>1.2883159737597751</v>
       </c>
       <c r="I83" t="s">
         <v>328</v>
@@ -22641,7 +22747,7 @@
         <v>164</v>
       </c>
       <c r="C84" s="2">
-        <v>109.33400109333999</v>
+        <v>109.26900109269</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
@@ -22650,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>4.9643718999999997</v>
+        <v>4.9772714000000002</v>
       </c>
       <c r="G84" t="s">
         <v>354</v>
       </c>
       <c r="H84">
-        <v>4.6293009981601996</v>
+        <v>4.6290214028856385</v>
       </c>
       <c r="I84" t="s">
         <v>328</v>
@@ -22685,13 +22791,13 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>9.09</v>
+        <v>8.94</v>
       </c>
       <c r="G85" t="s">
         <v>427</v>
       </c>
       <c r="H85">
-        <v>0.45865517475498407</v>
+        <v>0.45896256640396571</v>
       </c>
       <c r="I85" t="s">
         <v>427</v>
@@ -22711,7 +22817,7 @@
         <v>170</v>
       </c>
       <c r="C86" s="2">
-        <v>14.645000146449998</v>
+        <v>14.555000145549998</v>
       </c>
       <c r="D86" s="2">
         <v>5</v>
@@ -22720,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>11.061795867315613</v>
+        <v>11.130195841761399</v>
       </c>
       <c r="G86" t="s">
         <v>369</v>
@@ -22746,7 +22852,7 @@
         <v>171</v>
       </c>
       <c r="C87" s="2">
-        <v>12.0500001205</v>
+        <v>12.100000120999999</v>
       </c>
       <c r="D87" s="2">
         <v>4</v>
@@ -22755,7 +22861,7 @@
         <v>15.971428871154785</v>
       </c>
       <c r="F87" s="1">
-        <v>9.6265557395966699</v>
+        <v>9.5867765836479251</v>
       </c>
       <c r="G87" t="s">
         <v>370</v>
@@ -22816,7 +22922,7 @@
         <v>196</v>
       </c>
       <c r="C89" s="2">
-        <v>104.95600104956</v>
+        <v>104.94400104943999</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
@@ -22825,13 +22931,13 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>4.2910694052328298</v>
+        <v>4.3001258093919743</v>
       </c>
       <c r="G89" t="s">
         <v>315</v>
       </c>
       <c r="H89">
-        <v>1.5171210997738815</v>
+        <v>1.5171133994121631</v>
       </c>
       <c r="I89" t="s">
         <v>328</v>
@@ -22851,7 +22957,7 @@
         <v>197</v>
       </c>
       <c r="C90" s="2">
-        <v>101.1500010115</v>
+        <v>101.27700101277</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -22860,13 +22966,13 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>4.3217239654397721</v>
+        <v>4.1668191078061705</v>
       </c>
       <c r="G90" t="s">
         <v>371</v>
       </c>
       <c r="H90">
-        <v>0.819454375154964</v>
+        <v>0.81946460552227562</v>
       </c>
       <c r="I90" t="s">
         <v>328</v>
@@ -22921,7 +23027,7 @@
         <v>176</v>
       </c>
       <c r="C92" s="2">
-        <v>31.375000313749997</v>
+        <v>31.320000313199998</v>
       </c>
       <c r="D92" s="2">
         <v>3.75</v>
@@ -22930,7 +23036,7 @@
         <v>37.259967803955078</v>
       </c>
       <c r="F92" s="1">
-        <v>22.059292560707508</v>
+        <v>22.094508544999826</v>
       </c>
       <c r="G92" t="s">
         <v>372</v>
@@ -22956,7 +23062,7 @@
         <v>178</v>
       </c>
       <c r="C93" s="2">
-        <v>106.26400106263999</v>
+        <v>106.24700106246999</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -22965,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>3.3794710000000001</v>
+        <v>3.3853419000000002</v>
       </c>
       <c r="G93" t="s">
         <v>373</v>
       </c>
       <c r="H93">
-        <v>2.7647863250461548</v>
+        <v>2.7647680909425159</v>
       </c>
       <c r="I93" t="s">
         <v>328</v>
@@ -23140,13 +23246,13 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>8.02</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="G98" t="s">
         <v>376</v>
       </c>
       <c r="H98">
-        <v>10.012010673375448</v>
+        <v>10.008605905886659</v>
       </c>
       <c r="I98" t="s">
         <v>328</v>
@@ -23236,7 +23342,7 @@
         <v>194</v>
       </c>
       <c r="C101" s="2">
-        <v>103.08800103087999</v>
+        <v>103.06500103065</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
@@ -23245,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>4.4947006867407335</v>
+        <v>4.5187081170724568</v>
       </c>
       <c r="G101" t="s">
         <v>365</v>
       </c>
       <c r="H101">
-        <v>0.92579930545032918</v>
+        <v>0.92579719816729777</v>
       </c>
       <c r="I101" t="s">
         <v>328</v>
@@ -23280,13 +23386,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>9.33</v>
+        <v>9.32</v>
       </c>
       <c r="G102" t="s">
         <v>379</v>
       </c>
       <c r="H102">
-        <v>2.9413998054904584</v>
+        <v>2.9415285904844031</v>
       </c>
       <c r="I102" t="s">
         <v>328</v>
@@ -23306,7 +23412,7 @@
         <v>221</v>
       </c>
       <c r="C103" s="2">
-        <v>116.32000116319999</v>
+        <v>115.97000115969999</v>
       </c>
       <c r="D103" s="2">
         <v>3.9333333969116211</v>
@@ -23315,7 +23421,7 @@
         <v>138.52499389648437</v>
       </c>
       <c r="F103" s="1">
-        <v>6.6024757808963415</v>
+        <v>6.6224021974119367</v>
       </c>
       <c r="G103" t="s">
         <v>380</v>
@@ -23350,7 +23456,7 @@
         <v>81.541664123535156</v>
       </c>
       <c r="F104" s="1">
-        <v>2.8359699771497269</v>
+        <v>2.8377193141405055</v>
       </c>
       <c r="G104" t="s">
         <v>381</v>
@@ -23376,7 +23482,7 @@
         <v>203</v>
       </c>
       <c r="C105" s="2">
-        <v>79.500000794999991</v>
+        <v>79.100000790999985</v>
       </c>
       <c r="D105" s="2">
         <v>3.696969747543335</v>
@@ -23385,7 +23491,7 @@
         <v>81.040000915527344</v>
       </c>
       <c r="F105" s="1">
-        <v>3.459119496855346</v>
+        <v>3.4766118836915298</v>
       </c>
       <c r="G105" t="s">
         <v>382</v>
@@ -23411,7 +23517,7 @@
         <v>207</v>
       </c>
       <c r="C106" s="2">
-        <v>268.80000268800001</v>
+        <v>267.00000266999996</v>
       </c>
       <c r="D106" s="2">
         <v>4.4375</v>
@@ -23420,7 +23526,7 @@
         <v>286.08694458007812</v>
       </c>
       <c r="F106" s="1">
-        <v>3.0505951671373275</v>
+        <v>3.0711609772528603</v>
       </c>
       <c r="G106" t="s">
         <v>383</v>
@@ -23446,7 +23552,7 @@
         <v>211</v>
       </c>
       <c r="C107" s="2">
-        <v>109.25600109256</v>
+        <v>109.26100109260999</v>
       </c>
       <c r="D107" s="2">
         <v>0</v>
@@ -23455,13 +23561,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>5.34499602</v>
+        <v>5.3438247199999998</v>
       </c>
       <c r="G107" t="s">
         <v>384</v>
       </c>
       <c r="H107">
-        <v>4.7969393535043983</v>
+        <v>4.7969637053755099</v>
       </c>
       <c r="I107" t="s">
         <v>328</v>
@@ -23481,7 +23587,7 @@
         <v>212</v>
       </c>
       <c r="C108" s="2">
-        <v>107.94700107947</v>
+        <v>107.88100107880999</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
@@ -23490,13 +23596,13 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>6.0121463999999998</v>
+        <v>6.0300051000000003</v>
       </c>
       <c r="G108" t="s">
         <v>385</v>
       </c>
       <c r="H108">
-        <v>3.4384861234355193</v>
+        <v>3.4382421325354979</v>
       </c>
       <c r="I108" t="s">
         <v>328</v>
@@ -23516,7 +23622,7 @@
         <v>213</v>
       </c>
       <c r="C109" s="2">
-        <v>101.1500010115</v>
+        <v>101.1100010111</v>
       </c>
       <c r="D109" s="2">
         <v>0</v>
@@ -23525,13 +23631,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>5.2063401000000002</v>
+        <v>5.2164579</v>
       </c>
       <c r="G109" t="s">
         <v>386</v>
       </c>
       <c r="H109">
-        <v>4.0002970690714417</v>
+        <v>4.0001891723493372</v>
       </c>
       <c r="I109" t="s">
         <v>328</v>
@@ -23551,7 +23657,7 @@
         <v>214</v>
       </c>
       <c r="C110" s="2">
-        <v>115.19300115192999</v>
+        <v>115.15500115155</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -23560,13 +23666,13 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>5.6445553999999998</v>
+        <v>5.6509274999999999</v>
       </c>
       <c r="G110" t="s">
         <v>387</v>
       </c>
       <c r="H110">
-        <v>5.1535029991526144</v>
+        <v>5.1532599034457194</v>
       </c>
       <c r="I110" t="s">
         <v>328</v>
@@ -23586,7 +23692,7 @@
         <v>215</v>
       </c>
       <c r="C111" s="2">
-        <v>100.20600100205999</v>
+        <v>100.14800100147998</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -23595,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>5.0734203000000004</v>
+        <v>5.0873907999999997</v>
       </c>
       <c r="G111" t="s">
         <v>359</v>
       </c>
       <c r="H111">
-        <v>4.1883111998050664</v>
+        <v>4.188117731231384</v>
       </c>
       <c r="I111" t="s">
         <v>328</v>
@@ -23621,7 +23727,7 @@
         <v>219</v>
       </c>
       <c r="C112" s="2">
-        <v>105.47400105474</v>
+        <v>105.40100105401</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -23630,13 +23736,13 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>5.5294949999999998</v>
+        <v>5.5466793000000001</v>
       </c>
       <c r="G112" t="s">
         <v>388</v>
       </c>
       <c r="H112">
-        <v>4.0320433737136572</v>
+        <v>4.0317586862400479</v>
       </c>
       <c r="I112" t="s">
         <v>328</v>
@@ -23656,7 +23762,7 @@
         <v>216</v>
       </c>
       <c r="C113">
-        <v>99.84300099843</v>
+        <v>99.852000998519998</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -23665,13 +23771,13 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>6.6352260000000003</v>
+        <v>6.6345947000000001</v>
       </c>
       <c r="G113" t="s">
         <v>315</v>
       </c>
       <c r="H113">
-        <v>15.186930268815708</v>
+        <v>15.188362755683029</v>
       </c>
       <c r="I113" t="s">
         <v>328</v>
@@ -23726,7 +23832,7 @@
         <v>217</v>
       </c>
       <c r="C115">
-        <v>101.36300101363</v>
+        <v>101.37400101373998</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -23735,13 +23841,13 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>5.3361736999999998</v>
+        <v>5.3328848999999998</v>
       </c>
       <c r="G115" t="s">
         <v>390</v>
       </c>
       <c r="H115">
-        <v>3.3303148624781875</v>
+        <v>3.3303403906151545</v>
       </c>
       <c r="I115" t="s">
         <v>328</v>
@@ -23831,7 +23937,7 @@
         <v>220</v>
       </c>
       <c r="C118">
-        <v>102.11000102109999</v>
+        <v>102.05000102049999</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -24006,7 +24112,7 @@
         <v>227</v>
       </c>
       <c r="C123">
-        <v>314.25000314249996</v>
+        <v>313.80000313799997</v>
       </c>
       <c r="D123">
         <v>4.0909090042114258</v>
@@ -24015,7 +24121,7 @@
         <v>402.4000244140625</v>
       </c>
       <c r="F123">
-        <v>1.9029435223781976</v>
+        <v>1.9056724088825643</v>
       </c>
       <c r="G123" t="s">
         <v>444</v>
@@ -24041,7 +24147,7 @@
         <v>228</v>
       </c>
       <c r="C124">
-        <v>113.31800113317999</v>
+        <v>113.30900113308999</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -24050,13 +24156,13 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>4.3912582000000002</v>
+        <v>4.3932072</v>
       </c>
       <c r="G124" t="s">
         <v>395</v>
       </c>
       <c r="H124">
-        <v>4.1088293587951004</v>
+        <v>4.1087962326280438</v>
       </c>
       <c r="I124" t="s">
         <v>328</v>
@@ -24076,7 +24182,7 @@
         <v>229</v>
       </c>
       <c r="C125">
-        <v>102.46800102467999</v>
+        <v>102.56300102563</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -24085,13 +24191,13 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>4.045735250880516</v>
+        <v>3.9905815597607517</v>
       </c>
       <c r="G125" t="s">
         <v>396</v>
       </c>
       <c r="H125">
-        <v>1.702903717540498</v>
+        <v>1.7029496574131524</v>
       </c>
       <c r="I125" t="s">
         <v>328</v>
@@ -24111,7 +24217,7 @@
         <v>230</v>
       </c>
       <c r="C126">
-        <v>100.58300100583</v>
+        <v>100.54900100549</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -24120,13 +24226,13 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>4.5629448999999997</v>
+        <v>4.5707830999999999</v>
       </c>
       <c r="G126" t="s">
         <v>397</v>
       </c>
       <c r="H126">
-        <v>4.3850900355930831</v>
+        <v>4.3849884483885013</v>
       </c>
       <c r="I126" t="s">
         <v>328</v>
@@ -24146,7 +24252,7 @@
         <v>231</v>
       </c>
       <c r="C127">
-        <v>132.90700132907</v>
+        <v>132.73200132731998</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -24155,13 +24261,13 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>5.594509848764611</v>
+        <v>5.6077033718665641</v>
       </c>
       <c r="G127" t="s">
         <v>331</v>
       </c>
       <c r="H127">
-        <v>10.20788514715173</v>
+        <v>10.203362710006543</v>
       </c>
       <c r="I127" t="s">
         <v>328</v>
@@ -24181,7 +24287,7 @@
         <v>232</v>
       </c>
       <c r="C128">
-        <v>107.55500107555</v>
+        <v>107.55200107552</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -24190,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>3.2522134</v>
+        <v>3.2559979999999999</v>
       </c>
       <c r="G128" t="s">
         <v>451</v>
       </c>
       <c r="H128">
-        <v>1.8683455760964685</v>
+        <v>1.8683437430184093</v>
       </c>
       <c r="I128" t="s">
         <v>328</v>
@@ -24216,7 +24322,7 @@
         <v>233</v>
       </c>
       <c r="C129">
-        <v>57.458000574579998</v>
+        <v>57.281000572809994</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -24225,13 +24331,13 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>31.318784878747419</v>
+        <v>31.429233609947289</v>
       </c>
       <c r="G129" t="s">
         <v>386</v>
       </c>
       <c r="H129">
-        <v>3.2233853921037898</v>
+        <v>3.2215411813981438</v>
       </c>
       <c r="I129" t="s">
         <v>328</v>
@@ -24251,7 +24357,7 @@
         <v>234</v>
       </c>
       <c r="C130">
-        <v>111.74400111743999</v>
+        <v>111.70200111701999</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -24260,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>4.7503149999999996</v>
+        <v>4.7621339000000003</v>
       </c>
       <c r="G130" t="s">
         <v>398</v>
       </c>
       <c r="H130">
-        <v>3.2244416569587115</v>
+        <v>3.2243280850337266</v>
       </c>
       <c r="I130" t="s">
         <v>328</v>
@@ -24286,7 +24392,7 @@
         <v>235</v>
       </c>
       <c r="C131">
-        <v>6.6440000664399992E-2</v>
+        <v>6.6340000663399998E-2</v>
       </c>
       <c r="D131">
         <v>1.8333333730697632</v>
@@ -24295,7 +24401,7 @@
         <v>3.6499999463558197E-2</v>
       </c>
       <c r="F131">
-        <v>1.7609872741984685</v>
+        <v>1.7636417621004861</v>
       </c>
       <c r="G131" t="s">
         <v>399</v>
@@ -24321,7 +24427,7 @@
         <v>236</v>
       </c>
       <c r="C132">
-        <v>109.92800109928</v>
+        <v>109.90000109899999</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -24330,13 +24436,13 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>3.5412520999999999</v>
+        <v>3.5501901</v>
       </c>
       <c r="G132" t="s">
         <v>400</v>
       </c>
       <c r="H132">
-        <v>2.8382958949768029</v>
+        <v>2.8382445818133952</v>
       </c>
       <c r="I132" t="s">
         <v>328</v>
@@ -24356,7 +24462,7 @@
         <v>237</v>
       </c>
       <c r="C133">
-        <v>101.09300101093</v>
+        <v>101.08800101087999</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -24365,13 +24471,13 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>2.9658338</v>
+        <v>2.9710885</v>
       </c>
       <c r="G133" t="s">
         <v>427</v>
       </c>
       <c r="H133">
-        <v>0.95384101561232215</v>
+        <v>0.95384076070502599</v>
       </c>
       <c r="I133" t="s">
         <v>328</v>
@@ -24435,13 +24541,13 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>107.40036457706985</v>
+        <v>107.40227789272603</v>
       </c>
       <c r="G135" t="s">
         <v>332</v>
       </c>
       <c r="H135">
-        <v>1.9127845533418519</v>
+        <v>1.9127811280204172</v>
       </c>
       <c r="I135" t="s">
         <v>328</v>
@@ -24461,7 +24567,7 @@
         <v>240</v>
       </c>
       <c r="C136">
-        <v>110.36300110363</v>
+        <v>110.32500110325</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -24470,13 +24576,13 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>3.5982304000000003</v>
+        <v>3.6086076999999999</v>
       </c>
       <c r="G136" t="s">
         <v>403</v>
       </c>
       <c r="H136">
-        <v>3.3220784472953775</v>
+        <v>3.3219926862531675</v>
       </c>
       <c r="I136" t="s">
         <v>328</v>
@@ -24496,7 +24602,7 @@
         <v>241</v>
       </c>
       <c r="C137">
-        <v>102.87700102877</v>
+        <v>102.89400102894</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -24505,13 +24611,13 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>4.927064497767538</v>
+        <v>4.9208477273047286</v>
       </c>
       <c r="G137" t="s">
         <v>387</v>
       </c>
       <c r="H137">
-        <v>2.7101014764064919</v>
+        <v>2.71012209894258</v>
       </c>
       <c r="I137" t="s">
         <v>328</v>
@@ -24566,7 +24672,7 @@
         <v>243</v>
       </c>
       <c r="C139">
-        <v>107.1500010715</v>
+        <v>107.09600107096</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -24575,13 +24681,13 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>5.0233965999999999</v>
+        <v>5.0358872000000003</v>
       </c>
       <c r="G139" t="s">
         <v>404</v>
       </c>
       <c r="H139">
-        <v>4.0627013071279361</v>
+        <v>4.0624963854579885</v>
       </c>
       <c r="I139" t="s">
         <v>328</v>
@@ -24601,7 +24707,7 @@
         <v>244</v>
       </c>
       <c r="C140">
-        <v>99.021000990209998</v>
+        <v>98.950000989499998</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -24610,13 +24716,13 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>6.6221476408887856</v>
+        <v>6.6497341653524034</v>
       </c>
       <c r="G140" t="s">
         <v>405</v>
       </c>
       <c r="H140">
-        <v>2.7849798367821212</v>
+        <v>2.7849120253329005</v>
       </c>
       <c r="I140" t="s">
         <v>328</v>
@@ -24645,13 +24751,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>4.7970684606217722</v>
+        <v>4.7969938724117291</v>
       </c>
       <c r="G141" t="s">
         <v>628</v>
       </c>
       <c r="H141">
-        <v>0.25000000014731427</v>
+        <v>0.25000000014784751</v>
       </c>
       <c r="I141" t="s">
         <v>328</v>
@@ -24671,7 +24777,7 @@
         <v>246</v>
       </c>
       <c r="C142">
-        <v>114.19100114190999</v>
+        <v>114.16600114165999</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -24680,13 +24786,13 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>3.3770997999999999</v>
+        <v>3.3843481999999998</v>
       </c>
       <c r="G142" t="s">
         <v>451</v>
       </c>
       <c r="H142">
-        <v>3.1261997430259347</v>
+        <v>3.1261549733833909</v>
       </c>
       <c r="I142" t="s">
         <v>328</v>
@@ -24706,7 +24812,7 @@
         <v>247</v>
       </c>
       <c r="C143">
-        <v>75.58200075581999</v>
+        <v>75.567000755669994</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -24715,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>17.962095399999999</v>
+        <v>17.970134900000001</v>
       </c>
       <c r="G143" t="s">
         <v>452</v>
       </c>
       <c r="H143">
-        <v>2.6829882572464965</v>
+        <v>2.682954200442484</v>
       </c>
       <c r="I143" t="s">
         <v>328</v>
@@ -24776,7 +24882,7 @@
         <v>249</v>
       </c>
       <c r="C145">
-        <v>66.000000659999998</v>
+        <v>69.000000689999993</v>
       </c>
       <c r="D145">
         <v>5</v>
@@ -24846,7 +24952,7 @@
         <v>251</v>
       </c>
       <c r="C147">
-        <v>26.980000269799998</v>
+        <v>27.020000270199997</v>
       </c>
       <c r="D147">
         <v>4</v>
@@ -24951,7 +25057,7 @@
         <v>254</v>
       </c>
       <c r="C150">
-        <v>95.250000952499988</v>
+        <v>95.010000950099993</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -24960,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0.92388450942953115</v>
+        <v>0.92621828779247284</v>
       </c>
       <c r="G150" t="s">
         <v>381</v>
@@ -24986,7 +25092,7 @@
         <v>255</v>
       </c>
       <c r="C151">
-        <v>99.00000098999999</v>
+        <v>99.500000994999994</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -24995,13 +25101,13 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>4.7694400000000003</v>
+        <v>4.6728433999999996</v>
       </c>
       <c r="G151" t="s">
         <v>392</v>
       </c>
       <c r="H151">
-        <v>5.2086338866352495</v>
+        <v>5.211287009549336</v>
       </c>
       <c r="I151" t="s">
         <v>328</v>
@@ -25056,7 +25162,7 @@
         <v>257</v>
       </c>
       <c r="C153">
-        <v>106.33600106335999</v>
+        <v>106.30800106308</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -25065,13 +25171,13 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>6.2091827000000004</v>
+        <v>6.2166613999999996</v>
       </c>
       <c r="G153" t="s">
         <v>410</v>
       </c>
       <c r="H153">
-        <v>3.4519657128823407</v>
+        <v>3.4518648523914059</v>
       </c>
       <c r="I153" t="s">
         <v>328</v>
@@ -25091,7 +25197,7 @@
         <v>258</v>
       </c>
       <c r="C154">
-        <v>97.350000973499988</v>
+        <v>97.220000972199998</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -25161,7 +25267,7 @@
         <v>309</v>
       </c>
       <c r="C156" s="1">
-        <v>96.12</v>
+        <v>95.87</v>
       </c>
       <c r="D156" s="1">
         <v>0</v>
@@ -25266,7 +25372,7 @@
         <v>446</v>
       </c>
       <c r="C159" s="2">
-        <v>100.355</v>
+        <v>100.333</v>
       </c>
       <c r="D159" s="2">
         <v>0</v>
@@ -25275,13 +25381,13 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>4.5658161000000002</v>
+        <v>4.5768804999999997</v>
       </c>
       <c r="G159" t="s">
         <v>454</v>
       </c>
       <c r="H159">
-        <v>1.9397274636402109</v>
+        <v>1.9397103644418678</v>
       </c>
       <c r="I159" t="s">
         <v>328</v>
@@ -25301,7 +25407,7 @@
         <v>607</v>
       </c>
       <c r="C160" s="2">
-        <v>771.5</v>
+        <v>767.9</v>
       </c>
       <c r="D160" s="2">
         <v>3.4000000953674316</v>
@@ -25310,7 +25416,7 @@
         <v>874.3414306640625</v>
       </c>
       <c r="F160">
-        <v>14.377187060135491</v>
+        <v>14.444588900761207</v>
       </c>
       <c r="G160" t="s">
         <v>439</v>
@@ -25371,7 +25477,7 @@
         <v>613</v>
       </c>
       <c r="C162" s="2">
-        <v>50.97</v>
+        <v>50.83</v>
       </c>
       <c r="D162" s="2">
         <v>0</v>
@@ -25406,7 +25512,7 @@
         <v>614</v>
       </c>
       <c r="C163" s="2">
-        <v>57530</v>
+        <v>57632</v>
       </c>
       <c r="D163" s="2">
         <v>0</v>
@@ -25441,7 +25547,7 @@
         <v>615</v>
       </c>
       <c r="C164" s="2">
-        <v>31728</v>
+        <v>31695</v>
       </c>
       <c r="D164" s="2">
         <v>0</v>
@@ -25476,7 +25582,7 @@
         <v>616</v>
       </c>
       <c r="C165" s="2">
-        <v>28966</v>
+        <v>28855</v>
       </c>
       <c r="D165" s="2">
         <v>0</v>
@@ -25520,13 +25626,13 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>10.84</v>
+        <v>10.83</v>
       </c>
       <c r="G166" t="s">
         <v>318</v>
       </c>
       <c r="H166">
-        <v>5.7566352177781974</v>
+        <v>5.7570160707394029</v>
       </c>
       <c r="I166" t="s">
         <v>328</v>
@@ -25572,6 +25678,41 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1" t="s">
         <v>626</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>631</v>
+      </c>
+      <c r="B168" t="s">
+        <v>632</v>
+      </c>
+      <c r="C168" s="2">
+        <v>14.92</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>10.2671309706353</v>
+      </c>
+      <c r="G168" t="s">
+        <v>633</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>634</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="L168" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -25581,10 +25722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L167"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A125" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25661,7 +25802,7 @@
       </c>
       <c r="C2" s="2">
         <f>_xll.BDP(B2,"PX_LAST")*1.00000001</f>
-        <v>98.736000987360001</v>
+        <v>98.715000987149992</v>
       </c>
       <c r="D2" s="1">
         <f>IF(OR(_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"BEST_ANALYST_RATING"))</f>
@@ -25679,7 +25820,7 @@
          IF(OR(_xll.BDP(B2,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B2,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"YLD_CNV_MID")),
               _xll.BDP(B2,"EQY_DVD_YLD_IND")),
 _xll.BDP(B2,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3424747999999997</v>
+        <v>5.3464359999999997</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B2)) = FALSE,  IF(  OR(   _xll.BDP($B2,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B2,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B2,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B2,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B2,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B2,"NXT_CPN_DT")))</f>
@@ -25687,7 +25828,7 @@
       </c>
       <c r="H2" s="1">
         <f>IF(ISERR(FIND("Equity",B2))=FALSE,0,IF(_xll.BDP($B2,"DUR_MID")="#N/A N/A",0,_xll.BDP($B2,"DUR_MID")))</f>
-        <v>3.7427668107509002</v>
+        <v>3.7427105501841278</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B2)) = FALSE,  IF(  OR(   _xll.BDP($B2,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B2,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B2,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B2,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B2,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B2,"NXT_PUT_DT")))</f>
@@ -25712,7 +25853,7 @@
       </c>
       <c r="C3" s="2">
         <f>_xll.BDP(B3,"PX_LAST")*1.00000001</f>
-        <v>107.52500107525</v>
+        <v>107.52400107523999</v>
       </c>
       <c r="D3" s="1">
         <f>IF(OR(_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"BEST_ANALYST_RATING"))</f>
@@ -25730,7 +25871,7 @@
          IF(OR(_xll.BDP(B3,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B3,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"YLD_CNV_MID")),
               _xll.BDP(B3,"EQY_DVD_YLD_IND")),
 _xll.BDP(B3,"EQY_DVD_YLD_IND"))</f>
-        <v>5.8052406000000003</v>
+        <v>5.8061758000000001</v>
       </c>
       <c r="G3" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B3)) = FALSE,  IF(  OR(   _xll.BDP($B3,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B3,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B3,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B3,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B3,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B3,"NXT_CPN_DT")))</f>
@@ -25738,7 +25879,7 @@
       </c>
       <c r="H3" s="1">
         <f>IF(ISERR(FIND("Equity",B3))=FALSE,0,IF(_xll.BDP($B3,"DUR_MID")="#N/A N/A",0,_xll.BDP($B3,"DUR_MID")))</f>
-        <v>1.4786387577836164</v>
+        <v>1.4786378758248275</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B3)) = FALSE,  IF(  OR(   _xll.BDP($B3,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B3,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B3,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B3,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B3,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B3,"NXT_PUT_DT")))</f>
@@ -25763,7 +25904,7 @@
       </c>
       <c r="C4" s="2">
         <f>_xll.BDP(B4,"PX_LAST")*1.00000001</f>
-        <v>1228.00001228</v>
+        <v>1231.0000123099999</v>
       </c>
       <c r="D4" s="1">
         <f>IF(OR(_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"BEST_ANALYST_RATING"))</f>
@@ -25781,7 +25922,7 @@
          IF(OR(_xll.BDP(B4,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B4,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"YLD_CNV_MID")),
               _xll.BDP(B4,"EQY_DVD_YLD_IND")),
 _xll.BDP(B4,"EQY_DVD_YLD_IND"))</f>
-        <v>13.349613349613348</v>
+        <v>13.322502030869213</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B4)) = FALSE,  IF(  OR(   _xll.BDP($B4,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B4,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B4,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B4,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B4,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B4,"NXT_CPN_DT")))</f>
@@ -25814,7 +25955,7 @@
       </c>
       <c r="C5" s="2">
         <f>_xll.BDP(B5,"PX_LAST")*1.00000001</f>
-        <v>112.98600112986</v>
+        <v>112.98500112984999</v>
       </c>
       <c r="D5" s="1">
         <f>IF(OR(_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"BEST_ANALYST_RATING"))</f>
@@ -25832,7 +25973,7 @@
          IF(OR(_xll.BDP(B5,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B5,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"YLD_CNV_MID")),
               _xll.BDP(B5,"EQY_DVD_YLD_IND")),
 _xll.BDP(B5,"EQY_DVD_YLD_IND"))</f>
-        <v>4.7684639999999998</v>
+        <v>4.7677978999999997</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B5)) = FALSE,  IF(  OR(   _xll.BDP($B5,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B5,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B5,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B5,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B5,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B5,"NXT_CPN_DT")))</f>
@@ -25840,7 +25981,7 @@
       </c>
       <c r="H5" s="1">
         <f>IF(ISERR(FIND("Equity",B5))=FALSE,0,IF(_xll.BDP($B5,"DUR_MID")="#N/A N/A",0,_xll.BDP($B5,"DUR_MID")))</f>
-        <v>3.3636903921835457</v>
+        <v>3.3636877876952815</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B5)) = FALSE,  IF(  OR(   _xll.BDP($B5,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B5,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B5,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B5,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B5,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B5,"NXT_PUT_DT")))</f>
@@ -25916,7 +26057,7 @@
       </c>
       <c r="C7" s="2">
         <f>_xll.BDP(B7,"PX_LAST")*1.00000001</f>
-        <v>1027.0000102699998</v>
+        <v>1029.0000102899999</v>
       </c>
       <c r="D7" s="1">
         <f>IF(OR(_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"BEST_ANALYST_RATING"))</f>
@@ -25934,7 +26075,7 @@
          IF(OR(_xll.BDP(B7,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B7,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"YLD_CNV_MID")),
               _xll.BDP(B7,"EQY_DVD_YLD_IND")),
 _xll.BDP(B7,"EQY_DVD_YLD_IND"))</f>
-        <v>2.0165990367023947</v>
+        <v>2.0126795050469966</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B7)) = FALSE,  IF(  OR(   _xll.BDP($B7,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B7,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B7,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B7,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B7,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B7,"NXT_CPN_DT")))</f>
@@ -25967,7 +26108,7 @@
       </c>
       <c r="C8" s="2">
         <f>_xll.BDP(B8,"PX_LAST")*1.00000001</f>
-        <v>103.32400103323999</v>
+        <v>103.32700103326999</v>
       </c>
       <c r="D8" s="1">
         <f>IF(OR(_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"BEST_ANALYST_RATING"))</f>
@@ -25985,7 +26126,7 @@
          IF(OR(_xll.BDP(B8,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B8,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"YLD_CNV_MID")),
               _xll.BDP(B8,"EQY_DVD_YLD_IND")),
 _xll.BDP(B8,"EQY_DVD_YLD_IND"))</f>
-        <v>4.6141437999999999</v>
+        <v>4.6108469000000003</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B8)) = FALSE,  IF(  OR(   _xll.BDP($B8,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B8,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B8,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B8,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B8,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B8,"NXT_CPN_DT")))</f>
@@ -25993,7 +26134,7 @@
       </c>
       <c r="H8" s="1">
         <f>IF(ISERR(FIND("Equity",B8))=FALSE,0,IF(_xll.BDP($B8,"DUR_MID")="#N/A N/A",0,_xll.BDP($B8,"DUR_MID")))</f>
-        <v>5.1314003211000987</v>
+        <v>5.1314169105469514</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B8)) = FALSE,  IF(  OR(   _xll.BDP($B8,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B8,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B8,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B8,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B8,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B8,"NXT_PUT_DT")))</f>
@@ -26069,7 +26210,7 @@
       </c>
       <c r="C10" s="2">
         <f>_xll.BDP(B10,"PX_LAST")*1.00000001</f>
-        <v>276.90000276899997</v>
+        <v>275.90000275899996</v>
       </c>
       <c r="D10" s="1">
         <f>IF(OR(_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"BEST_ANALYST_RATING"))</f>
@@ -26079,7 +26220,7 @@
         <f>IF(A10="RU000A0JR5Z5",10*_xll.BDP("486 HK Equity","BEST_TARGET_PRICE")*_xll.BDP("USDRUB Curncy","PX_LAST")/_xll.BDP("USDHKD Curncy","PX_LAST"),
       IF(OR(_xll.BDP(B10,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B10,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"BEST_TARGET_PRICE"))
 )</f>
-        <v>388.93981322525241</v>
+        <v>388.91508438707257</v>
       </c>
       <c r="F10" s="1">
         <f>IF(OR(_xll.BDP(B10,"BDVD_PROJ_12M_YLD")="#N/A N/A",_xll.BDP(B10,"BDVD_PROJ_12M_YLD")="#N/A Field Not Applicable"),
@@ -26087,7 +26228,7 @@
          IF(OR(_xll.BDP(B10,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B10,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"YLD_CNV_MID")),
               _xll.BDP(B10,"EQY_DVD_YLD_IND")),
 _xll.BDP(B10,"EQY_DVD_YLD_IND"))</f>
-        <v>3.5536295242282021</v>
+        <v>3.5665096602348281</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B10)) = FALSE,  IF(  OR(   _xll.BDP($B10,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B10,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B10,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B10,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B10,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B10,"NXT_CPN_DT")))</f>
@@ -26120,7 +26261,7 @@
       </c>
       <c r="C11" s="2">
         <f>_xll.BDP(B11,"PX_LAST")*1.00000001</f>
-        <v>9001.0000900100003</v>
+        <v>9005.0000900499999</v>
       </c>
       <c r="D11" s="1">
         <f>IF(OR(_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"BEST_ANALYST_RATING"))</f>
@@ -26138,7 +26279,7 @@
          IF(OR(_xll.BDP(B11,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B11,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"YLD_CNV_MID")),
               _xll.BDP(B11,"EQY_DVD_YLD_IND")),
 _xll.BDP(B11,"EQY_DVD_YLD_IND"))</f>
-        <v>2.2465007301437354</v>
+        <v>2.2460017295373067</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B11)) = FALSE,  IF(  OR(   _xll.BDP($B11,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B11,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B11,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B11,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B11,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B11,"NXT_CPN_DT")))</f>
@@ -26222,7 +26363,7 @@
       </c>
       <c r="C13" s="2">
         <f>_xll.BDP(B13,"PX_LAST")*1.00000001</f>
-        <v>3147.0000314699996</v>
+        <v>3149.0000314899999</v>
       </c>
       <c r="D13" s="1">
         <f>IF(OR(_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"BEST_ANALYST_RATING"))</f>
@@ -26240,7 +26381,7 @@
          IF(OR(_xll.BDP(B13,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B13,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"YLD_CNV_MID")),
               _xll.BDP(B13,"EQY_DVD_YLD_IND")),
 _xll.BDP(B13,"EQY_DVD_YLD_IND"))</f>
-        <v>5.2113123609787104</v>
+        <v>5.2080025404890442</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B13)) = FALSE,  IF(  OR(   _xll.BDP($B13,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B13,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B13,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B13,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B13,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B13,"NXT_CPN_DT")))</f>
@@ -26324,7 +26465,7 @@
       </c>
       <c r="C15" s="2">
         <f>_xll.BDP(B15,"PX_LAST")*1.00000001</f>
-        <v>17.050000170499999</v>
+        <v>17.150000171499997</v>
       </c>
       <c r="D15" s="1">
         <f>IF(OR(_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"BEST_ANALYST_RATING"))</f>
@@ -26342,7 +26483,7 @@
          IF(OR(_xll.BDP(B15,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B15,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"YLD_CNV_MID")),
               _xll.BDP(B15,"EQY_DVD_YLD_IND")),
 _xll.BDP(B15,"EQY_DVD_YLD_IND"))</f>
-        <v>10.953008953776877</v>
+        <v>10.889143012355438</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B15)) = FALSE,  IF(  OR(   _xll.BDP($B15,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B15,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B15,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B15,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B15,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B15,"NXT_CPN_DT")))</f>
@@ -26477,7 +26618,7 @@
       </c>
       <c r="C18" s="2">
         <f>_xll.BDP(B18,"PX_LAST")*1.00000001</f>
-        <v>602.40000602399994</v>
+        <v>602.20000602200003</v>
       </c>
       <c r="D18" s="1">
         <f>IF(OR(_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"BEST_ANALYST_RATING"))</f>
@@ -26495,7 +26636,7 @@
          IF(OR(_xll.BDP(B18,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B18,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"YLD_CNV_MID")),
               _xll.BDP(B18,"EQY_DVD_YLD_IND")),
 _xll.BDP(B18,"EQY_DVD_YLD_IND"))</f>
-        <v>8.0312086766459547</v>
+        <v>8.0338759661433468</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B18)) = FALSE,  IF(  OR(   _xll.BDP($B18,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B18,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B18,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B18,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B18,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B18,"NXT_CPN_DT")))</f>
@@ -26528,7 +26669,7 @@
       </c>
       <c r="C19" s="2">
         <f>_xll.BDP(B19,"PX_LAST")*1.00000001</f>
-        <v>4.5800000457999994</v>
+        <v>4.5895000458949999</v>
       </c>
       <c r="D19" s="1">
         <f>IF(OR(_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"BEST_ANALYST_RATING"))</f>
@@ -26546,7 +26687,7 @@
          IF(OR(_xll.BDP(B19,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B19,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"YLD_CNV_MID")),
               _xll.BDP(B19,"EQY_DVD_YLD_IND")),
 _xll.BDP(B19,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3358078002929687</v>
+        <v>5.3253431521773358</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B19)) = FALSE,  IF(  OR(   _xll.BDP($B19,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B19,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B19,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B19,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B19,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B19,"NXT_CPN_DT")))</f>
@@ -26681,7 +26822,7 @@
       </c>
       <c r="C22" s="2">
         <f>_xll.BDP(B22,"PX_LAST")*1.00000001</f>
-        <v>106.82800106828</v>
+        <v>106.81500106815</v>
       </c>
       <c r="D22" s="1">
         <f>IF(OR(_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"BEST_ANALYST_RATING"))</f>
@@ -26699,7 +26840,7 @@
          IF(OR(_xll.BDP(B22,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B22,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"YLD_CNV_MID")),
               _xll.BDP(B22,"EQY_DVD_YLD_IND")),
 _xll.BDP(B22,"EQY_DVD_YLD_IND"))</f>
-        <v>4.0170047000000002</v>
+        <v>4.0149051</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B22)) = FALSE,  IF(  OR(   _xll.BDP($B22,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B22,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B22,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B22,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B22,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B22,"NXT_CPN_DT")))</f>
@@ -26707,7 +26848,7 @@
       </c>
       <c r="H22" s="1">
         <f>IF(ISERR(FIND("Equity",B22))=FALSE,0,IF(_xll.BDP($B22,"DUR_MID")="#N/A N/A",0,_xll.BDP($B22,"DUR_MID")))</f>
-        <v>2.7184948450330428</v>
+        <v>2.7184796250317116</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B22)) = FALSE,  IF(  OR(   _xll.BDP($B22,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B22,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B22,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B22,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B22,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B22,"NXT_PUT_DT")))</f>
@@ -26732,7 +26873,7 @@
       </c>
       <c r="C23" s="2">
         <f>_xll.BDP(B23,"PX_LAST")*1.00000001</f>
-        <v>102.36000102359999</v>
+        <v>102.36300102362999</v>
       </c>
       <c r="D23" s="1">
         <f>IF(OR(_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"BEST_ANALYST_RATING"))</f>
@@ -26750,7 +26891,7 @@
          IF(OR(_xll.BDP(B23,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B23,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"YLD_CNV_MID")),
               _xll.BDP(B23,"EQY_DVD_YLD_IND")),
 _xll.BDP(B23,"EQY_DVD_YLD_IND"))</f>
-        <v>4.1273467000000004</v>
+        <v>4.1205911999999998</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B23)) = FALSE,  IF(  OR(   _xll.BDP($B23,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B23,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B23,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B23,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B23,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B23,"NXT_CPN_DT")))</f>
@@ -26758,7 +26899,7 @@
       </c>
       <c r="H23" s="1">
         <f>IF(ISERR(FIND("Equity",B23))=FALSE,0,IF(_xll.BDP($B23,"DUR_MID")="#N/A N/A",0,_xll.BDP($B23,"DUR_MID")))</f>
-        <v>3.1577035781041958</v>
+        <v>3.1577085579022701</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B23)) = FALSE,  IF(  OR(   _xll.BDP($B23,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B23,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B23,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B23,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B23,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B23,"NXT_PUT_DT")))</f>
@@ -26783,7 +26924,7 @@
       </c>
       <c r="C24" s="2">
         <f>_xll.BDP(B24,"PX_LAST")*1.00000001</f>
-        <v>105.06600105065999</v>
+        <v>105.06300105062999</v>
       </c>
       <c r="D24" s="1">
         <f>IF(OR(_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"BEST_ANALYST_RATING"))</f>
@@ -26801,7 +26942,7 @@
          IF(OR(_xll.BDP(B24,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B24,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"YLD_CNV_MID")),
               _xll.BDP(B24,"EQY_DVD_YLD_IND")),
 _xll.BDP(B24,"EQY_DVD_YLD_IND"))</f>
-        <v>4.8372626199999997</v>
+        <v>4.8469522200000004</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B24)) = FALSE,  IF(  OR(   _xll.BDP($B24,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B24,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B24,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B24,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B24,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B24,"NXT_CPN_DT")))</f>
@@ -26809,7 +26950,7 @@
       </c>
       <c r="H24" s="1">
         <f>IF(ISERR(FIND("Equity",B24))=FALSE,0,IF(_xll.BDP($B24,"DUR_MID")="#N/A N/A",0,_xll.BDP($B24,"DUR_MID")))</f>
-        <v>0.4500000008733292</v>
+        <v>0.45000000087365216</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B24)) = FALSE,  IF(  OR(   _xll.BDP($B24,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B24,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B24,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B24,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B24,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B24,"NXT_PUT_DT")))</f>
@@ -26834,7 +26975,7 @@
       </c>
       <c r="C25" s="2">
         <f>_xll.BDP(B25,"PX_LAST")*1.00000001</f>
-        <v>103.81600103816</v>
+        <v>103.81800103817999</v>
       </c>
       <c r="D25" s="1">
         <f>IF(OR(_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"BEST_ANALYST_RATING"))</f>
@@ -26852,7 +26993,7 @@
          IF(OR(_xll.BDP(B25,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B25,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"YLD_CNV_MID")),
               _xll.BDP(B25,"EQY_DVD_YLD_IND")),
 _xll.BDP(B25,"EQY_DVD_YLD_IND"))</f>
-        <v>3.9736257999999998</v>
+        <v>3.9731645000000002</v>
       </c>
       <c r="G25" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B25)) = FALSE,  IF(  OR(   _xll.BDP($B25,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B25,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B25,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B25,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B25,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B25,"NXT_CPN_DT")))</f>
@@ -26860,7 +27001,7 @@
       </c>
       <c r="H25" s="1">
         <f>IF(ISERR(FIND("Equity",B25))=FALSE,0,IF(_xll.BDP($B25,"DUR_MID")="#N/A N/A",0,_xll.BDP($B25,"DUR_MID")))</f>
-        <v>4.1980267527285431</v>
+        <v>4.1980327990381934</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B25)) = FALSE,  IF(  OR(   _xll.BDP($B25,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B25,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B25,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B25,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B25,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B25,"NXT_PUT_DT")))</f>
@@ -26885,7 +27026,7 @@
       </c>
       <c r="C26" s="2">
         <f>_xll.BDP(B26,"PX_LAST")*1.00000001</f>
-        <v>102.73400102733999</v>
+        <v>102.74100102740999</v>
       </c>
       <c r="D26" s="1">
         <f>IF(OR(_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"BEST_ANALYST_RATING"))</f>
@@ -26903,7 +27044,7 @@
          IF(OR(_xll.BDP(B26,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B26,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"YLD_CNV_MID")),
               _xll.BDP(B26,"EQY_DVD_YLD_IND")),
 _xll.BDP(B26,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5613339000000002</v>
+        <v>4.5588512000000003</v>
       </c>
       <c r="G26" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B26)) = FALSE,  IF(  OR(   _xll.BDP($B26,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B26,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B26,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B26,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B26,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B26,"NXT_CPN_DT")))</f>
@@ -26911,7 +27052,7 @@
       </c>
       <c r="H26" s="1">
         <f>IF(ISERR(FIND("Equity",B26))=FALSE,0,IF(_xll.BDP($B26,"DUR_MID")="#N/A N/A",0,_xll.BDP($B26,"DUR_MID")))</f>
-        <v>3.3553867212676907</v>
+        <v>3.3554016962337712</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B26)) = FALSE,  IF(  OR(   _xll.BDP($B26,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B26,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B26,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B26,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B26,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B26,"NXT_PUT_DT")))</f>
@@ -26987,7 +27128,7 @@
       </c>
       <c r="C28" s="2">
         <f>_xll.BDP(B28,"PX_LAST")*1.00000001</f>
-        <v>93.530000935299995</v>
+        <v>93.230000932300001</v>
       </c>
       <c r="D28" s="1">
         <f>IF(OR(_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"BEST_ANALYST_RATING"))</f>
@@ -27005,7 +27146,7 @@
          IF(OR(_xll.BDP(B28,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B28,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"YLD_CNV_MID")),
               _xll.BDP(B28,"EQY_DVD_YLD_IND")),
 _xll.BDP(B28,"EQY_DVD_YLD_IND"))</f>
-        <v>9.5477390197538554</v>
+        <v>9.5784621958337244</v>
       </c>
       <c r="G28" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B28)) = FALSE,  IF(  OR(   _xll.BDP($B28,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B28,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B28,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B28,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B28,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B28,"NXT_CPN_DT")))</f>
@@ -27089,7 +27230,7 @@
       </c>
       <c r="C30" s="2">
         <f>_xll.BDP(B30,"PX_LAST")*1.00000001</f>
-        <v>107.00000107</v>
+        <v>100.000001</v>
       </c>
       <c r="D30" s="1">
         <f>IF(OR(_xll.BDP(B30,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B30,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B30,"BEST_ANALYST_RATING"))</f>
@@ -27140,7 +27281,7 @@
       </c>
       <c r="C31" s="2">
         <f>_xll.BDP(B31,"PX_LAST")*1.00000001</f>
-        <v>132.500001325</v>
+        <v>132.80000132800001</v>
       </c>
       <c r="D31" s="1">
         <f>IF(OR(_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"BEST_ANALYST_RATING"))</f>
@@ -27158,7 +27299,7 @@
          IF(OR(_xll.BDP(B31,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B31,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"YLD_CNV_MID")),
               _xll.BDP(B31,"EQY_DVD_YLD_IND")),
 _xll.BDP(B31,"EQY_DVD_YLD_IND"))</f>
-        <v>5.9547168803664876</v>
+        <v>5.9412649597030081</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B31)) = FALSE,  IF(  OR(   _xll.BDP($B31,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B31,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B31,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B31,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B31,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B31,"NXT_CPN_DT")))</f>
@@ -27191,7 +27332,7 @@
       </c>
       <c r="C32" s="2">
         <f>_xll.BDP(B32,"PX_LAST")*1.00000001</f>
-        <v>140.2500014025</v>
+        <v>141.75000141749999</v>
       </c>
       <c r="D32" s="1">
         <f>IF(OR(_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"BEST_ANALYST_RATING"))</f>
@@ -27209,7 +27350,7 @@
          IF(OR(_xll.BDP(B32,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B32,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"YLD_CNV_MID")),
               _xll.BDP(B32,"EQY_DVD_YLD_IND")),
 _xll.BDP(B32,"EQY_DVD_YLD_IND"))</f>
-        <v>7.4153294962782699</v>
+        <v>7.3368604010795577</v>
       </c>
       <c r="G32" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B32)) = FALSE,  IF(  OR(   _xll.BDP($B32,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B32,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B32,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B32,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B32,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B32,"NXT_CPN_DT")))</f>
@@ -27344,7 +27485,7 @@
       </c>
       <c r="C35" s="2">
         <f>_xll.BDP(B35,"PX_LAST")*1.00000001</f>
-        <v>55.8500005585</v>
+        <v>56.400000563999996</v>
       </c>
       <c r="D35" s="1">
         <f>IF(OR(_xll.BDP(B35,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B35,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B35,"BEST_ANALYST_RATING"))</f>
@@ -27395,7 +27536,7 @@
       </c>
       <c r="C36" s="2">
         <f>_xll.BDP(B36,"PX_LAST")*1.00000001</f>
-        <v>2846.500028465</v>
+        <v>2859.0000285899996</v>
       </c>
       <c r="D36" s="1">
         <f>IF(OR(_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"BEST_ANALYST_RATING"))</f>
@@ -27413,7 +27554,7 @@
          IF(OR(_xll.BDP(B36,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B36,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"YLD_CNV_MID")),
               _xll.BDP(B36,"EQY_DVD_YLD_IND")),
 _xll.BDP(B36,"EQY_DVD_YLD_IND"))</f>
-        <v>6.8505181802213242</v>
+        <v>6.8205666316894025</v>
       </c>
       <c r="G36" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B36)) = FALSE,  IF(  OR(   _xll.BDP($B36,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B36,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B36,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B36,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B36,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B36,"NXT_CPN_DT")))</f>
@@ -27497,7 +27638,7 @@
       </c>
       <c r="C38" s="2">
         <f>_xll.BDP(B38,"PX_LAST")*1.00000001</f>
-        <v>384.20000384199994</v>
+        <v>384.30000384300001</v>
       </c>
       <c r="D38" s="1">
         <f>IF(OR(_xll.BDP(B38,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B38,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B38,"BEST_ANALYST_RATING"))</f>
@@ -27566,7 +27707,7 @@
          IF(OR(_xll.BDP(B39,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B39,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"YLD_CNV_MID")),
               _xll.BDP(B39,"EQY_DVD_YLD_IND")),
 _xll.BDP(B39,"EQY_DVD_YLD_IND"))</f>
-        <v>10.787031492037787</v>
+        <v>10.794506912337189</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B39)) = FALSE,  IF(  OR(   _xll.BDP($B39,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B39,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B39,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B39,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B39,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B39,"NXT_CPN_DT")))</f>
@@ -27599,7 +27740,7 @@
       </c>
       <c r="C40" s="2">
         <f>_xll.BDP(B40,"PX_LAST")*1.00000001</f>
-        <v>196.45000196449999</v>
+        <v>196.800001968</v>
       </c>
       <c r="D40" s="1">
         <f>IF(OR(_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"BEST_ANALYST_RATING"))</f>
@@ -27617,7 +27758,7 @@
          IF(OR(_xll.BDP(B40,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B40,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"YLD_CNV_MID")),
               _xll.BDP(B40,"EQY_DVD_YLD_IND")),
 _xll.BDP(B40,"EQY_DVD_YLD_IND"))</f>
-        <v>5.436497991944913</v>
+        <v>5.426829423361677</v>
       </c>
       <c r="G40" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B40)) = FALSE,  IF(  OR(   _xll.BDP($B40,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B40,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B40,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B40,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B40,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B40,"NXT_CPN_DT")))</f>
@@ -27650,7 +27791,7 @@
       </c>
       <c r="C41" s="2">
         <f>_xll.BDP(B41,"PX_LAST")*1.00000001</f>
-        <v>75.550000755499994</v>
+        <v>75.560000755600001</v>
       </c>
       <c r="D41" s="1">
         <f>IF(OR(_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"BEST_ANALYST_RATING"))</f>
@@ -27668,7 +27809,7 @@
          IF(OR(_xll.BDP(B41,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B41,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"YLD_CNV_MID")),
               _xll.BDP(B41,"EQY_DVD_YLD_IND")),
 _xll.BDP(B41,"EQY_DVD_YLD_IND"))</f>
-        <v>5.1621444015452438</v>
+        <v>5.161461216738263</v>
       </c>
       <c r="G41" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B41)) = FALSE,  IF(  OR(   _xll.BDP($B41,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B41,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B41,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B41,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B41,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B41,"NXT_CPN_DT")))</f>
@@ -27701,7 +27842,7 @@
       </c>
       <c r="C42" s="2">
         <f>_xll.BDP(B42,"PX_LAST")*1.00000001</f>
-        <v>2.5890000258899999</v>
+        <v>2.5750000257500001</v>
       </c>
       <c r="D42" s="1">
         <f>IF(OR(_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"BEST_ANALYST_RATING"))</f>
@@ -27719,7 +27860,7 @@
          IF(OR(_xll.BDP(B42,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B42,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"YLD_CNV_MID")),
               _xll.BDP(B42,"EQY_DVD_YLD_IND")),
 _xll.BDP(B42,"EQY_DVD_YLD_IND"))</f>
-        <v>10.426952001808139</v>
+        <v>10.483642226283989</v>
       </c>
       <c r="G42" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B42)) = FALSE,  IF(  OR(   _xll.BDP($B42,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B42,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B42,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B42,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B42,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B42,"NXT_CPN_DT")))</f>
@@ -27803,7 +27944,7 @@
       </c>
       <c r="C44" s="2">
         <f>_xll.BDP(B44,"PX_LAST")*1.00000001</f>
-        <v>64.650000646500004</v>
+        <v>64.850000648499986</v>
       </c>
       <c r="D44" s="1">
         <f>IF(OR(_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"BEST_ANALYST_RATING"))</f>
@@ -27821,7 +27962,7 @@
          IF(OR(_xll.BDP(B44,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B44,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"YLD_CNV_MID")),
               _xll.BDP(B44,"EQY_DVD_YLD_IND")),
 _xll.BDP(B44,"EQY_DVD_YLD_IND"))</f>
-        <v>1.6241298566377171</v>
+        <v>1.6191209750443858</v>
       </c>
       <c r="G44" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B44)) = FALSE,  IF(  OR(   _xll.BDP($B44,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B44,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B44,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B44,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B44,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B44,"NXT_CPN_DT")))</f>
@@ -27854,7 +27995,7 @@
       </c>
       <c r="C45" s="2">
         <f>_xll.BDP(B45,"PX_LAST")*1.00000001</f>
-        <v>220.30000220299999</v>
+        <v>220.00000219999998</v>
       </c>
       <c r="D45" s="1">
         <f>IF(OR(_xll.BDP(B45,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B45,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B45,"BEST_ANALYST_RATING"))</f>
@@ -27905,7 +28046,7 @@
       </c>
       <c r="C46" s="2">
         <f>_xll.BDP(B46,"PX_LAST")*1.00000001</f>
-        <v>7.3800000737999998</v>
+        <v>7.4000000740000003</v>
       </c>
       <c r="D46" s="1">
         <f>IF(OR(_xll.BDP(B46,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B46,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B46,"BEST_ANALYST_RATING"))</f>
@@ -27923,7 +28064,7 @@
          IF(OR(_xll.BDP(B46,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B46,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B46,"YLD_CNV_MID")),
               _xll.BDP(B46,"EQY_DVD_YLD_IND")),
 _xll.BDP(B46,"EQY_DVD_YLD_IND"))</f>
-        <v>9.4461788329974752</v>
+        <v>9.420648619935319</v>
       </c>
       <c r="G46" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B46)) = FALSE,  IF(  OR(   _xll.BDP($B46,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B46,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B46,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B46,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B46,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B46,"NXT_CPN_DT")))</f>
@@ -27956,7 +28097,7 @@
       </c>
       <c r="C47" s="2">
         <f>_xll.BDP(B47,"PX_LAST")*1.00000001</f>
-        <v>8563.0000856299994</v>
+        <v>8555.0000855500002</v>
       </c>
       <c r="D47" s="1">
         <f>IF(OR(_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"BEST_ANALYST_RATING"))</f>
@@ -27974,7 +28115,7 @@
          IF(OR(_xll.BDP(B47,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B47,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"YLD_CNV_MID")),
               _xll.BDP(B47,"EQY_DVD_YLD_IND")),
 _xll.BDP(B47,"EQY_DVD_YLD_IND"))</f>
-        <v>10.419245734053851</v>
+        <v>10.42898903807167</v>
       </c>
       <c r="G47" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B47)) = FALSE,  IF(  OR(   _xll.BDP($B47,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B47,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B47,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B47,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B47,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B47,"NXT_CPN_DT")))</f>
@@ -28007,7 +28148,7 @@
       </c>
       <c r="C48" s="2">
         <f>_xll.BDP(B48,"PX_LAST")*1.00000001</f>
-        <v>890.0000088999999</v>
+        <v>891.00000890999991</v>
       </c>
       <c r="D48" s="1">
         <f>IF(OR(_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"BEST_ANALYST_RATING"))</f>
@@ -28025,7 +28166,7 @@
          IF(OR(_xll.BDP(B48,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B48,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"YLD_CNV_MID")),
               _xll.BDP(B48,"EQY_DVD_YLD_IND")),
 _xll.BDP(B48,"EQY_DVD_YLD_IND"))</f>
-        <v>8.7640449438202239</v>
+        <v>8.7542087542087543</v>
       </c>
       <c r="G48" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B48)) = FALSE,  IF(  OR(   _xll.BDP($B48,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B48,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B48,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B48,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B48,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B48,"NXT_CPN_DT")))</f>
@@ -28109,7 +28250,7 @@
       </c>
       <c r="C50" s="2">
         <f>_xll.BDP(B50,"PX_LAST")*1.00000001</f>
-        <v>10.0500001005</v>
+        <v>10.100000100999999</v>
       </c>
       <c r="D50" s="1">
         <f>IF(OR(_xll.BDP(B50,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B50,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B50,"BEST_ANALYST_RATING"))</f>
@@ -28127,7 +28268,7 @@
          IF(OR(_xll.BDP(B50,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B50,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B50,"YLD_CNV_MID")),
               _xll.BDP(B50,"EQY_DVD_YLD_IND")),
 _xll.BDP(B50,"EQY_DVD_YLD_IND"))</f>
-        <v>7.4547262334111908</v>
+        <v>7.4178216480972736</v>
       </c>
       <c r="G50" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B50)) = FALSE,  IF(  OR(   _xll.BDP($B50,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B50,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B50,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B50,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B50,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B50,"NXT_CPN_DT")))</f>
@@ -28160,7 +28301,7 @@
       </c>
       <c r="C51" s="2">
         <f>_xll.BDP(B51,"PX_LAST")*1.00000001</f>
-        <v>6.8900000688999999E-2</v>
+        <v>6.9050000690499991E-2</v>
       </c>
       <c r="D51" s="1">
         <f>IF(OR(_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"BEST_ANALYST_RATING"))</f>
@@ -28211,7 +28352,7 @@
       </c>
       <c r="C52" s="2">
         <f>_xll.BDP(B52,"PX_LAST")*1.00000001</f>
-        <v>51.00000051</v>
+        <v>51.300000512999993</v>
       </c>
       <c r="D52" s="1">
         <f>IF(OR(_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B52,"BEST_ANALYST_RATING"))</f>
@@ -28262,7 +28403,7 @@
       </c>
       <c r="C53" s="2">
         <f>_xll.BDP(B53,"PX_LAST")*1.00000001</f>
-        <v>23.4200002342</v>
+        <v>23.470000234699999</v>
       </c>
       <c r="D53" s="1">
         <f>IF(OR(_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B53,"BEST_ANALYST_RATING"))</f>
@@ -28364,7 +28505,7 @@
       </c>
       <c r="C55" s="2">
         <f>_xll.BDP(B55,"PX_LAST")*1.00000001</f>
-        <v>117.400001174</v>
+        <v>117.54000117539999</v>
       </c>
       <c r="D55" s="1">
         <f>IF(OR(_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B55,"BEST_ANALYST_RATING"))</f>
@@ -28466,7 +28607,7 @@
       </c>
       <c r="C57" s="2">
         <f>_xll.BDP(B57,"PX_LAST")*1.00000001</f>
-        <v>105.60000105599998</v>
+        <v>105.00000104999999</v>
       </c>
       <c r="D57" s="1">
         <f>IF(OR(_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"BEST_ANALYST_RATING"))</f>
@@ -28484,7 +28625,7 @@
          IF(OR(_xll.BDP(B57,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B57,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"YLD_CNV_MID")),
               _xll.BDP(B57,"EQY_DVD_YLD_IND")),
 _xll.BDP(B57,"EQY_DVD_YLD_IND"))</f>
-        <v>17.50236518448439</v>
+        <v>17.61904761904762</v>
       </c>
       <c r="G57" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B57)) = FALSE,  IF(  OR(   _xll.BDP($B57,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B57,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B57,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B57,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B57,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B57,"NXT_CPN_DT")))</f>
@@ -28568,7 +28709,7 @@
       </c>
       <c r="C59" s="2">
         <f>_xll.BDP(B59,"PX_LAST")*1.00000001</f>
-        <v>1.2975000129749999E-2</v>
+        <v>1.3010000130099999E-2</v>
       </c>
       <c r="D59" s="1">
         <f>IF(OR(_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"BEST_ANALYST_RATING"))</f>
@@ -28619,7 +28760,7 @@
       </c>
       <c r="C60" s="2">
         <f>_xll.BDP(B60,"PX_LAST")*1.00000001</f>
-        <v>150.45000150449997</v>
+        <v>150.40000150399999</v>
       </c>
       <c r="D60" s="1">
         <f>IF(OR(_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B60,"BEST_ANALYST_RATING"))</f>
@@ -28670,7 +28811,7 @@
       </c>
       <c r="C61" s="2">
         <f>_xll.BDP(B61,"PX_LAST")*1.00000001</f>
-        <v>102.80200102802</v>
+        <v>102.78200102781999</v>
       </c>
       <c r="D61" s="1">
         <f>IF(OR(_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"BEST_ANALYST_RATING"))</f>
@@ -28688,7 +28829,7 @@
          IF(OR(_xll.BDP(B61,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B61,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"YLD_CNV_MID")),
               _xll.BDP(B61,"EQY_DVD_YLD_IND")),
 _xll.BDP(B61,"EQY_DVD_YLD_IND"))</f>
-        <v>3.8566172000000001</v>
+        <v>3.8582326999999998</v>
       </c>
       <c r="G61" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B61)) = FALSE,  IF(  OR(   _xll.BDP($B61,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B61,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B61,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B61,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B61,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B61,"NXT_CPN_DT")))</f>
@@ -28696,7 +28837,7 @@
       </c>
       <c r="H61" s="1">
         <f>IF(ISERR(FIND("Equity",B61))=FALSE,0,IF(_xll.BDP($B61,"DUR_MID")="#N/A N/A",0,_xll.BDP($B61,"DUR_MID")))</f>
-        <v>2.7522056531755998</v>
+        <v>2.7521855567211535</v>
       </c>
       <c r="I61" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B61)) = FALSE,  IF(  OR(   _xll.BDP($B61,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B61,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B61,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B61,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B61,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B61,"NXT_PUT_DT")))</f>
@@ -28790,7 +28931,7 @@
          IF(OR(_xll.BDP(B63,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B63,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B63,"YLD_CNV_MID")),
               _xll.BDP(B63,"EQY_DVD_YLD_IND")),
 _xll.BDP(B63,"EQY_DVD_YLD_IND"))</f>
-        <v>9.66</v>
+        <v>9.68</v>
       </c>
       <c r="G63" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B63)) = FALSE,  IF(  OR(   _xll.BDP($B63,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B63,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B63,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B63,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B63,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B63,"NXT_CPN_DT")))</f>
@@ -28798,7 +28939,7 @@
       </c>
       <c r="H63" s="1">
         <f>IF(ISERR(FIND("Equity",B63))=FALSE,0,IF(_xll.BDP($B63,"DUR_MID")="#N/A N/A",0,_xll.BDP($B63,"DUR_MID")))</f>
-        <v>3.1735956199646735</v>
+        <v>3.1733391598178691</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B63)) = FALSE,  IF(  OR(   _xll.BDP($B63,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B63,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B63,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B63,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B63,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B63,"NXT_PUT_DT")))</f>
@@ -28874,7 +29015,7 @@
       </c>
       <c r="C65" s="2">
         <f>_xll.BDP(B65,"PX_LAST")*1.00000001</f>
-        <v>107.94100107941</v>
+        <v>107.94000107939999</v>
       </c>
       <c r="D65" s="1">
         <f>IF(OR(_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"BEST_ANALYST_RATING"))</f>
@@ -28892,7 +29033,7 @@
          IF(OR(_xll.BDP(B65,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B65,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"YLD_CNV_MID")),
               _xll.BDP(B65,"EQY_DVD_YLD_IND")),
 _xll.BDP(B65,"EQY_DVD_YLD_IND"))</f>
-        <v>6.0555742199999996</v>
+        <v>6.0563708500000004</v>
       </c>
       <c r="G65" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B65)) = FALSE,  IF(  OR(   _xll.BDP($B65,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B65,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B65,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B65,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B65,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B65,"NXT_CPN_DT")))</f>
@@ -28900,7 +29041,7 @@
       </c>
       <c r="H65" s="1">
         <f>IF(ISERR(FIND("Equity",B65))=FALSE,0,IF(_xll.BDP($B65,"DUR_MID")="#N/A N/A",0,_xll.BDP($B65,"DUR_MID")))</f>
-        <v>1.7837540502890012</v>
+        <v>1.7837529406335464</v>
       </c>
       <c r="I65" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B65)) = FALSE,  IF(  OR(   _xll.BDP($B65,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B65,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B65,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B65,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B65,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B65,"NXT_PUT_DT")))</f>
@@ -29002,7 +29143,7 @@
       </c>
       <c r="H67" s="1">
         <f>IF(ISERR(FIND("Equity",B67))=FALSE,0,IF(_xll.BDP($B67,"DUR_MID")="#N/A N/A",0,_xll.BDP($B67,"DUR_MID")))</f>
-        <v>3.2408967817634577</v>
+        <v>3.2409313034037059</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B67)) = FALSE,  IF(  OR(   _xll.BDP($B67,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B67,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B67,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B67,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B67,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B67,"NXT_PUT_DT")))</f>
@@ -29027,7 +29168,7 @@
       </c>
       <c r="C68" s="2">
         <f>_xll.BDP(B68,"PX_LAST")*1.00000001</f>
-        <v>104.69000104689999</v>
+        <v>104.70100104700998</v>
       </c>
       <c r="D68" s="1">
         <f>IF(OR(_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"BEST_ANALYST_RATING"))</f>
@@ -29045,7 +29186,7 @@
          IF(OR(_xll.BDP(B68,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B68,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"YLD_CNV_MID")),
               _xll.BDP(B68,"EQY_DVD_YLD_IND")),
 _xll.BDP(B68,"EQY_DVD_YLD_IND"))</f>
-        <v>6.4316510999999998</v>
+        <v>6.4299634000000001</v>
       </c>
       <c r="G68" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B68)) = FALSE,  IF(  OR(   _xll.BDP($B68,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B68,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B68,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B68,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B68,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B68,"NXT_CPN_DT")))</f>
@@ -29053,7 +29194,7 @@
       </c>
       <c r="H68" s="1">
         <f>IF(ISERR(FIND("Equity",B68))=FALSE,0,IF(_xll.BDP($B68,"DUR_MID")="#N/A N/A",0,_xll.BDP($B68,"DUR_MID")))</f>
-        <v>2.6036027986261958</v>
+        <v>2.6036201510760399</v>
       </c>
       <c r="I68" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B68)) = FALSE,  IF(  OR(   _xll.BDP($B68,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B68,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B68,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B68,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B68,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B68,"NXT_PUT_DT")))</f>
@@ -29129,7 +29270,7 @@
       </c>
       <c r="C70" s="2">
         <f>_xll.BDP(B70,"PX_LAST")*1.00000001</f>
-        <v>98.540010985400087</v>
+        <v>98.550000985499992</v>
       </c>
       <c r="D70" s="1">
         <f>IF(OR(_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"BEST_ANALYST_RATING"))</f>
@@ -29155,7 +29296,7 @@
       </c>
       <c r="H70" s="1">
         <f>IF(ISERR(FIND("Equity",B70))=FALSE,0,IF(_xll.BDP($B70,"DUR_MID")="#N/A N/A",0,_xll.BDP($B70,"DUR_MID")))</f>
-        <v>0.70819089452880701</v>
+        <v>0.70819140837771044</v>
       </c>
       <c r="I70" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B70)) = FALSE,  IF(  OR(   _xll.BDP($B70,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B70,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B70,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B70,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B70,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B70,"NXT_PUT_DT")))</f>
@@ -29486,7 +29627,7 @@
       </c>
       <c r="C77" s="2">
         <f>_xll.BDP(B77,"PX_LAST")*1.00000001</f>
-        <v>108.29700108296998</v>
+        <v>108.28400108283999</v>
       </c>
       <c r="D77" s="1">
         <f>IF(OR(_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"BEST_ANALYST_RATING"))</f>
@@ -29504,7 +29645,7 @@
          IF(OR(_xll.BDP(B77,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B77,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"YLD_CNV_MID")),
               _xll.BDP(B77,"EQY_DVD_YLD_IND")),
 _xll.BDP(B77,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5201744999999995</v>
+        <v>4.5210255000000004</v>
       </c>
       <c r="G77" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B77)) = FALSE,  IF(  OR(   _xll.BDP($B77,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B77,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B77,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B77,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B77,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B77,"NXT_CPN_DT")))</f>
@@ -29512,7 +29653,7 @@
       </c>
       <c r="H77" s="1">
         <f>IF(ISERR(FIND("Equity",B77))=FALSE,0,IF(_xll.BDP($B77,"DUR_MID")="#N/A N/A",0,_xll.BDP($B77,"DUR_MID")))</f>
-        <v>5.4086230944137839</v>
+        <v>5.4085415556607757</v>
       </c>
       <c r="I77" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B77)) = FALSE,  IF(  OR(   _xll.BDP($B77,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B77,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B77,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B77,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B77,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B77,"NXT_PUT_DT")))</f>
@@ -29537,7 +29678,7 @@
       </c>
       <c r="C78" s="2">
         <f>_xll.BDP(B78,"PX_LAST")*1.00000001</f>
-        <v>101.35700101357</v>
+        <v>101.34300101343</v>
       </c>
       <c r="D78" s="1">
         <f>IF(OR(_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"BEST_ANALYST_RATING"))</f>
@@ -29555,7 +29696,7 @@
          IF(OR(_xll.BDP(B78,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B78,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"YLD_CNV_MID")),
               _xll.BDP(B78,"EQY_DVD_YLD_IND")),
 _xll.BDP(B78,"EQY_DVD_YLD_IND"))</f>
-        <v>4.0910099143105922</v>
+        <v>4.0927823651686213</v>
       </c>
       <c r="G78" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B78)) = FALSE,  IF(  OR(   _xll.BDP($B78,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B78,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B78,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B78,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B78,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B78,"NXT_CPN_DT")))</f>
@@ -29563,7 +29704,7 @@
       </c>
       <c r="H78" s="1">
         <f>IF(ISERR(FIND("Equity",B78))=FALSE,0,IF(_xll.BDP($B78,"DUR_MID")="#N/A N/A",0,_xll.BDP($B78,"DUR_MID")))</f>
-        <v>4.7965233424500768</v>
+        <v>4.7964744438853613</v>
       </c>
       <c r="I78" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B78)) = FALSE,  IF(  OR(   _xll.BDP($B78,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B78,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B78,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B78,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B78,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B78,"NXT_PUT_DT")))</f>
@@ -29843,7 +29984,7 @@
       </c>
       <c r="C84" s="2">
         <f>_xll.BDP(B84,"PX_LAST")*1.00000001</f>
-        <v>109.28100109281</v>
+        <v>109.26900109269</v>
       </c>
       <c r="D84" s="1">
         <f>IF(OR(_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"BEST_ANALYST_RATING"))</f>
@@ -29861,7 +30002,7 @@
          IF(OR(_xll.BDP(B84,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B84,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"YLD_CNV_MID")),
               _xll.BDP(B84,"EQY_DVD_YLD_IND")),
 _xll.BDP(B84,"EQY_DVD_YLD_IND"))</f>
-        <v>4.9764648999999999</v>
+        <v>4.9772714000000002</v>
       </c>
       <c r="G84" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B84)) = FALSE,  IF(  OR(   _xll.BDP($B84,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B84,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B84,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B84,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B84,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B84,"NXT_CPN_DT")))</f>
@@ -29869,7 +30010,7 @@
       </c>
       <c r="H84" s="1">
         <f>IF(ISERR(FIND("Equity",B84))=FALSE,0,IF(_xll.BDP($B84,"DUR_MID")="#N/A N/A",0,_xll.BDP($B84,"DUR_MID")))</f>
-        <v>4.6290712720751666</v>
+        <v>4.6290214028856385</v>
       </c>
       <c r="I84" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B84)) = FALSE,  IF(  OR(   _xll.BDP($B84,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B84,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B84,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B84,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B84,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B84,"NXT_PUT_DT")))</f>
@@ -29945,7 +30086,7 @@
       </c>
       <c r="C86" s="2">
         <f>_xll.BDP(B86,"PX_LAST")*1.00000001</f>
-        <v>14.795000147949999</v>
+        <v>14.555000145549998</v>
       </c>
       <c r="D86" s="1">
         <f>IF(OR(_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"BEST_ANALYST_RATING"))</f>
@@ -29963,7 +30104,7 @@
          IF(OR(_xll.BDP(B86,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B86,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"YLD_CNV_MID")),
               _xll.BDP(B86,"EQY_DVD_YLD_IND")),
 _xll.BDP(B86,"EQY_DVD_YLD_IND"))</f>
-        <v>10.94964518261826</v>
+        <v>11.130195841761399</v>
       </c>
       <c r="G86" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B86)) = FALSE,  IF(  OR(   _xll.BDP($B86,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B86,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B86,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B86,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B86,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B86,"NXT_CPN_DT")))</f>
@@ -30098,7 +30239,7 @@
       </c>
       <c r="C89" s="2">
         <f>_xll.BDP(B89,"PX_LAST")*1.00000001</f>
-        <v>104.94600104945999</v>
+        <v>104.94400104943999</v>
       </c>
       <c r="D89" s="1">
         <f>IF(OR(_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"BEST_ANALYST_RATING"))</f>
@@ -30116,7 +30257,7 @@
          IF(OR(_xll.BDP(B89,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B89,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"YLD_CNV_MID")),
               _xll.BDP(B89,"EQY_DVD_YLD_IND")),
 _xll.BDP(B89,"EQY_DVD_YLD_IND"))</f>
-        <v>4.2979396272020987</v>
+        <v>4.3001258093919743</v>
       </c>
       <c r="G89" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B89)) = FALSE,  IF(  OR(   _xll.BDP($B89,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B89,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B89,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B89,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B89,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B89,"NXT_CPN_DT")))</f>
@@ -30124,7 +30265,7 @@
       </c>
       <c r="H89" s="1">
         <f>IF(ISERR(FIND("Equity",B89))=FALSE,0,IF(_xll.BDP($B89,"DUR_MID")="#N/A N/A",0,_xll.BDP($B89,"DUR_MID")))</f>
-        <v>1.5171147387091573</v>
+        <v>1.5171133994121631</v>
       </c>
       <c r="I89" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B89)) = FALSE,  IF(  OR(   _xll.BDP($B89,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B89,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B89,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B89,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B89,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B89,"NXT_PUT_DT")))</f>
@@ -30149,7 +30290,7 @@
       </c>
       <c r="C90" s="2">
         <f>_xll.BDP(B90,"PX_LAST")*1.00000001</f>
-        <v>101.29700101296999</v>
+        <v>101.27700101277</v>
       </c>
       <c r="D90" s="1">
         <f>IF(OR(_xll.BDP(B90,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B90,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B90,"BEST_ANALYST_RATING"))</f>
@@ -30167,7 +30308,7 @@
          IF(OR(_xll.BDP(B90,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B90,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B90,"YLD_CNV_MID")),
               _xll.BDP(B90,"EQY_DVD_YLD_IND")),
 _xll.BDP(B90,"EQY_DVD_YLD_IND"))</f>
-        <v>4.2363047503332822</v>
+        <v>4.1668191078061705</v>
       </c>
       <c r="G90" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B90)) = FALSE,  IF(  OR(   _xll.BDP($B90,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B90,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B90,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B90,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B90,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B90,"NXT_CPN_DT")))</f>
@@ -30175,7 +30316,7 @@
       </c>
       <c r="H90" s="1">
         <f>IF(ISERR(FIND("Equity",B90))=FALSE,0,IF(_xll.BDP($B90,"DUR_MID")="#N/A N/A",0,_xll.BDP($B90,"DUR_MID")))</f>
-        <v>0.81946617454215342</v>
+        <v>0.81946460552227562</v>
       </c>
       <c r="I90" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B90)) = FALSE,  IF(  OR(   _xll.BDP($B90,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B90,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B90,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B90,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B90,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B90,"NXT_PUT_DT")))</f>
@@ -30251,7 +30392,7 @@
       </c>
       <c r="C92" s="2">
         <f>_xll.BDP(B92,"PX_LAST")*1.00000001</f>
-        <v>31.305000313049998</v>
+        <v>31.320000313199998</v>
       </c>
       <c r="D92" s="1">
         <f>IF(OR(_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"BEST_ANALYST_RATING"))</f>
@@ -30269,7 +30410,7 @@
          IF(OR(_xll.BDP(B92,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B92,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"YLD_CNV_MID")),
               _xll.BDP(B92,"EQY_DVD_YLD_IND")),
 _xll.BDP(B92,"EQY_DVD_YLD_IND"))</f>
-        <v>22.105095276454065</v>
+        <v>22.094508544999826</v>
       </c>
       <c r="G92" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B92)) = FALSE,  IF(  OR(   _xll.BDP($B92,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B92,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B92,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B92,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B92,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B92,"NXT_CPN_DT")))</f>
@@ -30302,7 +30443,7 @@
       </c>
       <c r="C93" s="2">
         <f>_xll.BDP(B93,"PX_LAST")*1.00000001</f>
-        <v>106.25700106257</v>
+        <v>106.24700106246999</v>
       </c>
       <c r="D93" s="1">
         <f>IF(OR(_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"BEST_ANALYST_RATING"))</f>
@@ -30320,7 +30461,7 @@
          IF(OR(_xll.BDP(B93,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B93,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"YLD_CNV_MID")),
               _xll.BDP(B93,"EQY_DVD_YLD_IND")),
 _xll.BDP(B93,"EQY_DVD_YLD_IND"))</f>
-        <v>3.3865506999999999</v>
+        <v>3.3853419000000002</v>
       </c>
       <c r="G93" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B93)) = FALSE,  IF(  OR(   _xll.BDP($B93,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B93,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B93,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B93,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B93,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B93,"NXT_CPN_DT")))</f>
@@ -30328,7 +30469,7 @@
       </c>
       <c r="H93" s="1">
         <f>IF(ISERR(FIND("Equity",B93))=FALSE,0,IF(_xll.BDP($B93,"DUR_MID")="#N/A N/A",0,_xll.BDP($B93,"DUR_MID")))</f>
-        <v>2.7647788174419934</v>
+        <v>2.7647680909425159</v>
       </c>
       <c r="I93" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B93)) = FALSE,  IF(  OR(   _xll.BDP($B93,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B93,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B93,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B93,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B93,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B93,"NXT_PUT_DT")))</f>
@@ -30455,7 +30596,7 @@
       </c>
       <c r="C96" s="2">
         <f>_xll.BDP(B96,"PX_LAST")*1.00000001</f>
-        <v>104.5900010459</v>
+        <v>104.60000104599999</v>
       </c>
       <c r="D96" s="1">
         <f>IF(OR(_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"BEST_ANALYST_RATING"))</f>
@@ -30481,7 +30622,7 @@
       </c>
       <c r="H96" s="1">
         <f>IF(ISERR(FIND("Equity",B96))=FALSE,0,IF(_xll.BDP($B96,"DUR_MID")="#N/A N/A",0,_xll.BDP($B96,"DUR_MID")))</f>
-        <v>6.8529312237546129</v>
+        <v>6.8530094092280853</v>
       </c>
       <c r="I96" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B96)) = FALSE,  IF(  OR(   _xll.BDP($B96,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B96,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B96,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B96,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B96,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B96,"NXT_PUT_DT")))</f>
@@ -30506,7 +30647,7 @@
       </c>
       <c r="C97" s="2">
         <f>_xll.BDP(B97,"PX_LAST")*1.00000001</f>
-        <v>95.940000959399995</v>
+        <v>95.950000959500002</v>
       </c>
       <c r="D97" s="1">
         <f>IF(OR(_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B97,"BEST_ANALYST_RATING"))</f>
@@ -30532,7 +30673,7 @@
       </c>
       <c r="H97" s="1">
         <f>IF(ISERR(FIND("Equity",B97))=FALSE,0,IF(_xll.BDP($B97,"DUR_MID")="#N/A N/A",0,_xll.BDP($B97,"DUR_MID")))</f>
-        <v>2.7277778464251106</v>
+        <v>2.7277888972746607</v>
       </c>
       <c r="I97" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B97)) = FALSE,  IF(  OR(   _xll.BDP($B97,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B97,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B97,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B97,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B97,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B97,"NXT_PUT_DT")))</f>
@@ -30710,7 +30851,7 @@
       </c>
       <c r="C101" s="2">
         <f>_xll.BDP(B101,"PX_LAST")*1.00000001</f>
-        <v>103.06600103065999</v>
+        <v>103.06500103065</v>
       </c>
       <c r="D101" s="1">
         <f>IF(OR(_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"BEST_ANALYST_RATING"))</f>
@@ -30728,7 +30869,7 @@
          IF(OR(_xll.BDP(B101,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B101,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"YLD_CNV_MID")),
               _xll.BDP(B101,"EQY_DVD_YLD_IND")),
 _xll.BDP(B101,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5171073699693967</v>
+        <v>4.5187081170724568</v>
       </c>
       <c r="G101" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B101)) = FALSE,  IF(  OR(   _xll.BDP($B101,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B101,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B101,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B101,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B101,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B101,"NXT_CPN_DT")))</f>
@@ -30736,7 +30877,7 @@
       </c>
       <c r="H101" s="1">
         <f>IF(ISERR(FIND("Equity",B101))=FALSE,0,IF(_xll.BDP($B101,"DUR_MID")="#N/A N/A",0,_xll.BDP($B101,"DUR_MID")))</f>
-        <v>0.92579733867416703</v>
+        <v>0.92579719816729777</v>
       </c>
       <c r="I101" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B101)) = FALSE,  IF(  OR(   _xll.BDP($B101,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B101,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B101,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B101,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B101,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B101,"NXT_PUT_DT")))</f>
@@ -30812,7 +30953,7 @@
       </c>
       <c r="C103" s="2">
         <f>_xll.BDP(B103,"PX_LAST")*1.00000001</f>
-        <v>116.08000116079999</v>
+        <v>115.97000115969999</v>
       </c>
       <c r="D103" s="1">
         <f>IF(OR(_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"BEST_ANALYST_RATING"))</f>
@@ -30830,7 +30971,7 @@
          IF(OR(_xll.BDP(B103,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B103,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"YLD_CNV_MID")),
               _xll.BDP(B103,"EQY_DVD_YLD_IND")),
 _xll.BDP(B103,"EQY_DVD_YLD_IND"))</f>
-        <v>6.6166966729892511</v>
+        <v>6.6224021974119367</v>
       </c>
       <c r="G103" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B103)) = FALSE,  IF(  OR(   _xll.BDP($B103,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B103,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B103,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B103,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B103,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B103,"NXT_CPN_DT")))</f>
@@ -30881,7 +31022,7 @@
          IF(OR(_xll.BDP(B104,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B104,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B104,"YLD_CNV_MID")),
               _xll.BDP(B104,"EQY_DVD_YLD_IND")),
 _xll.BDP(B104,"EQY_DVD_YLD_IND"))</f>
-        <v>2.8412250060294566</v>
+        <v>2.8377193141405055</v>
       </c>
       <c r="G104" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B104)) = FALSE,  IF(  OR(   _xll.BDP($B104,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B104,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B104,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B104,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B104,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B104,"NXT_CPN_DT")))</f>
@@ -30965,7 +31106,7 @@
       </c>
       <c r="C106" s="2">
         <f>_xll.BDP(B106,"PX_LAST")*1.00000001</f>
-        <v>267.50000267499996</v>
+        <v>267.00000266999996</v>
       </c>
       <c r="D106" s="1">
         <f>IF(OR(_xll.BDP(B106,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B106,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B106,"BEST_ANALYST_RATING"))</f>
@@ -30983,7 +31124,7 @@
          IF(OR(_xll.BDP(B106,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B106,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B106,"YLD_CNV_MID")),
               _xll.BDP(B106,"EQY_DVD_YLD_IND")),
 _xll.BDP(B106,"EQY_DVD_YLD_IND"))</f>
-        <v>3.0654204894449109</v>
+        <v>3.0711609772528603</v>
       </c>
       <c r="G106" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B106)) = FALSE,  IF(  OR(   _xll.BDP($B106,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B106,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B106,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B106,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B106,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B106,"NXT_CPN_DT")))</f>
@@ -31016,7 +31157,7 @@
       </c>
       <c r="C107" s="2">
         <f>_xll.BDP(B107,"PX_LAST")*1.00000001</f>
-        <v>109.25200109251999</v>
+        <v>109.26100109260999</v>
       </c>
       <c r="D107" s="1">
         <f>IF(OR(_xll.BDP(B107,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B107,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B107,"BEST_ANALYST_RATING"))</f>
@@ -31034,7 +31175,7 @@
          IF(OR(_xll.BDP(B107,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B107,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B107,"YLD_CNV_MID")),
               _xll.BDP(B107,"EQY_DVD_YLD_IND")),
 _xll.BDP(B107,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3439223299999998</v>
+        <v>5.3438247199999998</v>
       </c>
       <c r="G107" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B107)) = FALSE,  IF(  OR(   _xll.BDP($B107,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B107,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B107,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B107,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B107,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B107,"NXT_CPN_DT")))</f>
@@ -31042,7 +31183,7 @@
       </c>
       <c r="H107" s="1">
         <f>IF(ISERR(FIND("Equity",B107))=FALSE,0,IF(_xll.BDP($B107,"DUR_MID")="#N/A N/A",0,_xll.BDP($B107,"DUR_MID")))</f>
-        <v>4.7969198706993197</v>
+        <v>4.7969637053755099</v>
       </c>
       <c r="I107" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B107)) = FALSE,  IF(  OR(   _xll.BDP($B107,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B107,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B107,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B107,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B107,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B107,"NXT_PUT_DT")))</f>
@@ -31067,7 +31208,7 @@
       </c>
       <c r="C108" s="2">
         <f>_xll.BDP(B108,"PX_LAST")*1.00000001</f>
-        <v>107.89400107893999</v>
+        <v>107.88100107880999</v>
       </c>
       <c r="D108" s="1">
         <f>IF(OR(_xll.BDP(B108,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B108,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B108,"BEST_ANALYST_RATING"))</f>
@@ -31085,7 +31226,7 @@
          IF(OR(_xll.BDP(B108,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B108,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B108,"YLD_CNV_MID")),
               _xll.BDP(B108,"EQY_DVD_YLD_IND")),
 _xll.BDP(B108,"EQY_DVD_YLD_IND"))</f>
-        <v>6.0277215999999996</v>
+        <v>6.0300051000000003</v>
       </c>
       <c r="G108" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B108)) = FALSE,  IF(  OR(   _xll.BDP($B108,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B108,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B108,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B108,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B108,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B108,"NXT_CPN_DT")))</f>
@@ -31093,7 +31234,7 @@
       </c>
       <c r="H108" s="1">
         <f>IF(ISERR(FIND("Equity",B108))=FALSE,0,IF(_xll.BDP($B108,"DUR_MID")="#N/A N/A",0,_xll.BDP($B108,"DUR_MID")))</f>
-        <v>3.4382898492162757</v>
+        <v>3.4382421325354979</v>
       </c>
       <c r="I108" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B108)) = FALSE,  IF(  OR(   _xll.BDP($B108,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B108,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B108,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B108,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B108,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B108,"NXT_PUT_DT")))</f>
@@ -31118,7 +31259,7 @@
       </c>
       <c r="C109" s="2">
         <f>_xll.BDP(B109,"PX_LAST")*1.00000001</f>
-        <v>101.14000101139999</v>
+        <v>101.1100010111</v>
       </c>
       <c r="D109" s="1">
         <f>IF(OR(_xll.BDP(B109,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B109,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B109,"BEST_ANALYST_RATING"))</f>
@@ -31136,7 +31277,7 @@
          IF(OR(_xll.BDP(B109,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B109,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B109,"YLD_CNV_MID")),
               _xll.BDP(B109,"EQY_DVD_YLD_IND")),
 _xll.BDP(B109,"EQY_DVD_YLD_IND"))</f>
-        <v>5.2115248999999997</v>
+        <v>5.2164579</v>
       </c>
       <c r="G109" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B109)) = FALSE,  IF(  OR(   _xll.BDP($B109,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B109,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B109,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B109,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B109,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B109,"NXT_CPN_DT")))</f>
@@ -31144,7 +31285,7 @@
       </c>
       <c r="H109" s="1">
         <f>IF(ISERR(FIND("Equity",B109))=FALSE,0,IF(_xll.BDP($B109,"DUR_MID")="#N/A N/A",0,_xll.BDP($B109,"DUR_MID")))</f>
-        <v>4.0002687536816364</v>
+        <v>4.0001891723493372</v>
       </c>
       <c r="I109" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B109)) = FALSE,  IF(  OR(   _xll.BDP($B109,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B109,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B109,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B109,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B109,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B109,"NXT_PUT_DT")))</f>
@@ -31169,7 +31310,7 @@
       </c>
       <c r="C110" s="2">
         <f>_xll.BDP(B110,"PX_LAST")*1.00000001</f>
-        <v>115.16800115168</v>
+        <v>115.15500115155</v>
       </c>
       <c r="D110" s="1">
         <f>IF(OR(_xll.BDP(B110,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B110,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B110,"BEST_ANALYST_RATING"))</f>
@@ -31187,7 +31328,7 @@
          IF(OR(_xll.BDP(B110,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B110,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B110,"YLD_CNV_MID")),
               _xll.BDP(B110,"EQY_DVD_YLD_IND")),
 _xll.BDP(B110,"EQY_DVD_YLD_IND"))</f>
-        <v>5.6493773000000003</v>
+        <v>5.6509274999999999</v>
       </c>
       <c r="G110" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B110)) = FALSE,  IF(  OR(   _xll.BDP($B110,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B110,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B110,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B110,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B110,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B110,"NXT_CPN_DT")))</f>
@@ -31195,7 +31336,7 @@
       </c>
       <c r="H110" s="1">
         <f>IF(ISERR(FIND("Equity",B110))=FALSE,0,IF(_xll.BDP($B110,"DUR_MID")="#N/A N/A",0,_xll.BDP($B110,"DUR_MID")))</f>
-        <v>5.1533430820686394</v>
+        <v>5.1532599034457194</v>
       </c>
       <c r="I110" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B110)) = FALSE,  IF(  OR(   _xll.BDP($B110,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B110,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B110,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B110,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B110,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B110,"NXT_PUT_DT")))</f>
@@ -31220,7 +31361,7 @@
       </c>
       <c r="C111" s="2">
         <f>_xll.BDP(B111,"PX_LAST")*1.00000001</f>
-        <v>100.16200100162</v>
+        <v>100.14800100147998</v>
       </c>
       <c r="D111" s="1">
         <f>IF(OR(_xll.BDP(B111,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B111,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B111,"BEST_ANALYST_RATING"))</f>
@@ -31238,7 +31379,7 @@
          IF(OR(_xll.BDP(B111,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B111,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B111,"YLD_CNV_MID")),
               _xll.BDP(B111,"EQY_DVD_YLD_IND")),
 _xll.BDP(B111,"EQY_DVD_YLD_IND"))</f>
-        <v>5.0849814000000002</v>
+        <v>5.0873907999999997</v>
       </c>
       <c r="G111" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B111)) = FALSE,  IF(  OR(   _xll.BDP($B111,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B111,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B111,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B111,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B111,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B111,"NXT_CPN_DT")))</f>
@@ -31246,7 +31387,7 @@
       </c>
       <c r="H111" s="1">
         <f>IF(ISERR(FIND("Equity",B111))=FALSE,0,IF(_xll.BDP($B111,"DUR_MID")="#N/A N/A",0,_xll.BDP($B111,"DUR_MID")))</f>
-        <v>4.1881644468650938</v>
+        <v>4.188117731231384</v>
       </c>
       <c r="I111" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B111)) = FALSE,  IF(  OR(   _xll.BDP($B111,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B111,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B111,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B111,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B111,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B111,"NXT_PUT_DT")))</f>
@@ -31271,7 +31412,7 @@
       </c>
       <c r="C112" s="2">
         <f>_xll.BDP(B112,"PX_LAST")*1.00000001</f>
-        <v>105.42600105426</v>
+        <v>105.40100105401</v>
       </c>
       <c r="D112" s="1">
         <f>IF(OR(_xll.BDP(B112,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B112,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B112,"BEST_ANALYST_RATING"))</f>
@@ -31289,7 +31430,7 @@
          IF(OR(_xll.BDP(B112,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B112,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B112,"YLD_CNV_MID")),
               _xll.BDP(B112,"EQY_DVD_YLD_IND")),
 _xll.BDP(B112,"EQY_DVD_YLD_IND"))</f>
-        <v>5.5417003000000005</v>
+        <v>5.5466793000000001</v>
       </c>
       <c r="G112" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B112)) = FALSE,  IF(  OR(   _xll.BDP($B112,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B112,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B112,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B112,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B112,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B112,"NXT_CPN_DT")))</f>
@@ -31297,7 +31438,7 @@
       </c>
       <c r="H112" s="1">
         <f>IF(ISERR(FIND("Equity",B112))=FALSE,0,IF(_xll.BDP($B112,"DUR_MID")="#N/A N/A",0,_xll.BDP($B112,"DUR_MID")))</f>
-        <v>4.0318568905323131</v>
+        <v>4.0317586862400479</v>
       </c>
       <c r="I112" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B112)) = FALSE,  IF(  OR(   _xll.BDP($B112,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B112,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B112,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B112,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B112,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B112,"NXT_PUT_DT")))</f>
@@ -31424,7 +31565,7 @@
       </c>
       <c r="C115" s="2">
         <f>_xll.BDP(B115,"PX_LAST")*1.00000001</f>
-        <v>101.36900101369</v>
+        <v>101.37400101373998</v>
       </c>
       <c r="D115" s="1">
         <f>IF(OR(_xll.BDP(B115,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B115,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B115,"BEST_ANALYST_RATING"))</f>
@@ -31442,7 +31583,7 @@
          IF(OR(_xll.BDP(B115,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B115,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B115,"YLD_CNV_MID")),
               _xll.BDP(B115,"EQY_DVD_YLD_IND")),
 _xll.BDP(B115,"EQY_DVD_YLD_IND"))</f>
-        <v>5.3343797000000004</v>
+        <v>5.3328848999999998</v>
       </c>
       <c r="G115" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B115)) = FALSE,  IF(  OR(   _xll.BDP($B115,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B115,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B115,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B115,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B115,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B115,"NXT_CPN_DT")))</f>
@@ -31450,7 +31591,7 @@
       </c>
       <c r="H115" s="1">
         <f>IF(ISERR(FIND("Equity",B115))=FALSE,0,IF(_xll.BDP($B115,"DUR_MID")="#N/A N/A",0,_xll.BDP($B115,"DUR_MID")))</f>
-        <v>3.3303287879294472</v>
+        <v>3.3303403906151545</v>
       </c>
       <c r="I115" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B115)) = FALSE,  IF(  OR(   _xll.BDP($B115,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B115,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B115,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B115,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B115,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B115,"NXT_PUT_DT")))</f>
@@ -31475,7 +31616,7 @@
       </c>
       <c r="C116" s="2">
         <f>_xll.BDP(B116,"PX_LAST")*1.00000001</f>
-        <v>102.24000102239999</v>
+        <v>102.25000102249999</v>
       </c>
       <c r="D116" s="1">
         <f>IF(OR(_xll.BDP(B116,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B116,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B116,"BEST_ANALYST_RATING"))</f>
@@ -31501,7 +31642,7 @@
       </c>
       <c r="H116" s="1">
         <f>IF(ISERR(FIND("Equity",B116))=FALSE,0,IF(_xll.BDP($B116,"DUR_MID")="#N/A N/A",0,_xll.BDP($B116,"DUR_MID")))</f>
-        <v>0.42429194924219765</v>
+        <v>0.42431808703321788</v>
       </c>
       <c r="I116" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B116)) = FALSE,  IF(  OR(   _xll.BDP($B116,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B116,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B116,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B116,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B116,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B116,"NXT_PUT_DT")))</f>
@@ -31526,7 +31667,7 @@
       </c>
       <c r="C117" s="2">
         <f>_xll.BDP(B117,"PX_LAST")*1.00000001</f>
-        <v>101.19000101189999</v>
+        <v>101.200001012</v>
       </c>
       <c r="D117" s="1">
         <f>IF(OR(_xll.BDP(B117,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B117,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B117,"BEST_ANALYST_RATING"))</f>
@@ -31552,7 +31693,7 @@
       </c>
       <c r="H117" s="1">
         <f>IF(ISERR(FIND("Equity",B117))=FALSE,0,IF(_xll.BDP($B117,"DUR_MID")="#N/A N/A",0,_xll.BDP($B117,"DUR_MID")))</f>
-        <v>0.12782057621442303</v>
+        <v>0.12786158531478742</v>
       </c>
       <c r="I117" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B117)) = FALSE,  IF(  OR(   _xll.BDP($B117,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B117,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B117,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B117,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B117,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B117,"NXT_PUT_DT")))</f>
@@ -31628,7 +31769,7 @@
       </c>
       <c r="C119" s="2">
         <f>_xll.BDP(B119,"PX_LAST")*1.00000001</f>
-        <v>103.0900010309</v>
+        <v>103.10000103099999</v>
       </c>
       <c r="D119" s="1">
         <f>IF(OR(_xll.BDP(B119,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B119,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B119,"BEST_ANALYST_RATING"))</f>
@@ -31654,7 +31795,7 @@
       </c>
       <c r="H119" s="1">
         <f>IF(ISERR(FIND("Equity",B119))=FALSE,0,IF(_xll.BDP($B119,"DUR_MID")="#N/A N/A",0,_xll.BDP($B119,"DUR_MID")))</f>
-        <v>7.3653761476464158E-2</v>
+        <v>7.3755987975356707E-2</v>
       </c>
       <c r="I119" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B119)) = FALSE,  IF(  OR(   _xll.BDP($B119,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B119,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B119,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B119,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B119,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B119,"NXT_PUT_DT")))</f>
@@ -31679,7 +31820,7 @@
       </c>
       <c r="C120" s="2">
         <f>_xll.BDP(B120,"PX_LAST")*1.00000001</f>
-        <v>104.09000104089999</v>
+        <v>104.10000104099998</v>
       </c>
       <c r="D120" s="1">
         <f>IF(OR(_xll.BDP(B120,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B120,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B120,"BEST_ANALYST_RATING"))</f>
@@ -31705,7 +31846,7 @@
       </c>
       <c r="H120" s="1">
         <f>IF(ISERR(FIND("Equity",B120))=FALSE,0,IF(_xll.BDP($B120,"DUR_MID")="#N/A N/A",0,_xll.BDP($B120,"DUR_MID")))</f>
-        <v>0.2371695655307435</v>
+        <v>0.23720831768357423</v>
       </c>
       <c r="I120" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B120)) = FALSE,  IF(  OR(   _xll.BDP($B120,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B120,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B120,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B120,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B120,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B120,"NXT_PUT_DT")))</f>
@@ -31730,7 +31871,7 @@
       </c>
       <c r="C121" s="2">
         <f>_xll.BDP(B121,"PX_LAST")*1.00000001</f>
-        <v>97.390000973900001</v>
+        <v>97.400010974000082</v>
       </c>
       <c r="D121" s="1">
         <f>IF(OR(_xll.BDP(B121,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B121,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B121,"BEST_ANALYST_RATING"))</f>
@@ -31756,7 +31897,7 @@
       </c>
       <c r="H121" s="1">
         <f>IF(ISERR(FIND("Equity",B121))=FALSE,0,IF(_xll.BDP($B121,"DUR_MID")="#N/A N/A",0,_xll.BDP($B121,"DUR_MID")))</f>
-        <v>1.8492789897366999</v>
+        <v>1.8492847769132401</v>
       </c>
       <c r="I121" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B121)) = FALSE,  IF(  OR(   _xll.BDP($B121,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B121,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B121,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B121,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B121,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B121,"NXT_PUT_DT")))</f>
@@ -31781,7 +31922,7 @@
       </c>
       <c r="C122" s="2">
         <f>_xll.BDP(B122,"PX_LAST")*1.00000001</f>
-        <v>99.340000993399997</v>
+        <v>99.350010993500092</v>
       </c>
       <c r="D122" s="1">
         <f>IF(OR(_xll.BDP(B122,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B122,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B122,"BEST_ANALYST_RATING"))</f>
@@ -31807,7 +31948,7 @@
       </c>
       <c r="H122" s="1">
         <f>IF(ISERR(FIND("Equity",B122))=FALSE,0,IF(_xll.BDP($B122,"DUR_MID")="#N/A N/A",0,_xll.BDP($B122,"DUR_MID")))</f>
-        <v>0.82305791282972829</v>
+        <v>0.82305843647586607</v>
       </c>
       <c r="I122" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B122)) = FALSE,  IF(  OR(   _xll.BDP($B122,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B122,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B122,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B122,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B122,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B122,"NXT_PUT_DT")))</f>
@@ -31832,7 +31973,7 @@
       </c>
       <c r="C123" s="2">
         <f>_xll.BDP(B123,"PX_LAST")*1.00000001</f>
-        <v>313.25000313249996</v>
+        <v>313.80000313799997</v>
       </c>
       <c r="D123" s="1">
         <f>IF(OR(_xll.BDP(B123,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B123,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B123,"BEST_ANALYST_RATING"))</f>
@@ -31850,7 +31991,7 @@
          IF(OR(_xll.BDP(B123,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B123,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B123,"YLD_CNV_MID")),
               _xll.BDP(B123,"EQY_DVD_YLD_IND")),
 _xll.BDP(B123,"EQY_DVD_YLD_IND"))</f>
-        <v>1.9090183620346326</v>
+        <v>1.9056724088825643</v>
       </c>
       <c r="G123" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B123)) = FALSE,  IF(  OR(   _xll.BDP($B123,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B123,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B123,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B123,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B123,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B123,"NXT_CPN_DT")))</f>
@@ -31883,7 +32024,7 @@
       </c>
       <c r="C124" s="2">
         <f>_xll.BDP(B124,"PX_LAST")*1.00000001</f>
-        <v>113.30800113308</v>
+        <v>113.30900113308999</v>
       </c>
       <c r="D124" s="1">
         <f>IF(OR(_xll.BDP(B124,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B124,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B124,"BEST_ANALYST_RATING"))</f>
@@ -31901,7 +32042,7 @@
          IF(OR(_xll.BDP(B124,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B124,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B124,"YLD_CNV_MID")),
               _xll.BDP(B124,"EQY_DVD_YLD_IND")),
 _xll.BDP(B124,"EQY_DVD_YLD_IND"))</f>
-        <v>4.3936403000000004</v>
+        <v>4.3932072</v>
       </c>
       <c r="G124" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B124)) = FALSE,  IF(  OR(   _xll.BDP($B124,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B124,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B124,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B124,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B124,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B124,"NXT_CPN_DT")))</f>
@@ -31909,7 +32050,7 @@
       </c>
       <c r="H124" s="1">
         <f>IF(ISERR(FIND("Equity",B124))=FALSE,0,IF(_xll.BDP($B124,"DUR_MID")="#N/A N/A",0,_xll.BDP($B124,"DUR_MID")))</f>
-        <v>4.1087925528157072</v>
+        <v>4.1087962326280438</v>
       </c>
       <c r="I124" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B124)) = FALSE,  IF(  OR(   _xll.BDP($B124,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B124,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B124,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B124,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B124,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B124,"NXT_PUT_DT")))</f>
@@ -31934,7 +32075,7 @@
       </c>
       <c r="C125" s="2">
         <f>_xll.BDP(B125,"PX_LAST")*1.00000001</f>
-        <v>102.55200102552</v>
+        <v>102.56300102563</v>
       </c>
       <c r="D125" s="1">
         <f>IF(OR(_xll.BDP(B125,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B125,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B125,"BEST_ANALYST_RATING"))</f>
@@ -31952,7 +32093,7 @@
          IF(OR(_xll.BDP(B125,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B125,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B125,"YLD_CNV_MID")),
               _xll.BDP(B125,"EQY_DVD_YLD_IND")),
 _xll.BDP(B125,"EQY_DVD_YLD_IND"))</f>
-        <v>3.996930918547835</v>
+        <v>3.9905815597607517</v>
       </c>
       <c r="G125" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B125)) = FALSE,  IF(  OR(   _xll.BDP($B125,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B125,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B125,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B125,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B125,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B125,"NXT_CPN_DT")))</f>
@@ -31960,7 +32101,7 @@
       </c>
       <c r="H125" s="1">
         <f>IF(ISERR(FIND("Equity",B125))=FALSE,0,IF(_xll.BDP($B125,"DUR_MID")="#N/A N/A",0,_xll.BDP($B125,"DUR_MID")))</f>
-        <v>1.7029441291943035</v>
+        <v>1.7029496574131524</v>
       </c>
       <c r="I125" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B125)) = FALSE,  IF(  OR(   _xll.BDP($B125,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B125,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B125,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B125,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B125,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B125,"NXT_PUT_DT")))</f>
@@ -31985,7 +32126,7 @@
       </c>
       <c r="C126" s="2">
         <f>_xll.BDP(B126,"PX_LAST")*1.00000001</f>
-        <v>100.56100100561</v>
+        <v>100.54900100549</v>
       </c>
       <c r="D126" s="1">
         <f>IF(OR(_xll.BDP(B126,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B126,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B126,"BEST_ANALYST_RATING"))</f>
@@ -32003,7 +32144,7 @@
          IF(OR(_xll.BDP(B126,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B126,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B126,"YLD_CNV_MID")),
               _xll.BDP(B126,"EQY_DVD_YLD_IND")),
 _xll.BDP(B126,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5706677999999998</v>
+        <v>4.5707830999999999</v>
       </c>
       <c r="G126" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B126)) = FALSE,  IF(  OR(   _xll.BDP($B126,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B126,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B126,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B126,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B126,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B126,"NXT_CPN_DT")))</f>
@@ -32011,7 +32152,7 @@
       </c>
       <c r="H126" s="1">
         <f>IF(ISERR(FIND("Equity",B126))=FALSE,0,IF(_xll.BDP($B126,"DUR_MID")="#N/A N/A",0,_xll.BDP($B126,"DUR_MID")))</f>
-        <v>4.3850228151299149</v>
+        <v>4.3849884483885013</v>
       </c>
       <c r="I126" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B126)) = FALSE,  IF(  OR(   _xll.BDP($B126,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B126,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B126,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B126,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B126,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B126,"NXT_PUT_DT")))</f>
@@ -32036,7 +32177,7 @@
       </c>
       <c r="C127" s="2">
         <f>_xll.BDP(B127,"PX_LAST")*1.00000001</f>
-        <v>132.80300132802998</v>
+        <v>132.73200132731998</v>
       </c>
       <c r="D127" s="1">
         <f>IF(OR(_xll.BDP(B127,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B127,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B127,"BEST_ANALYST_RATING"))</f>
@@ -32054,7 +32195,7 @@
          IF(OR(_xll.BDP(B127,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B127,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B127,"YLD_CNV_MID")),
               _xll.BDP(B127,"EQY_DVD_YLD_IND")),
 _xll.BDP(B127,"EQY_DVD_YLD_IND"))</f>
-        <v>5.6055469171379295</v>
+        <v>5.6077033718665641</v>
       </c>
       <c r="G127" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B127)) = FALSE,  IF(  OR(   _xll.BDP($B127,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B127,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B127,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B127,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B127,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B127,"NXT_CPN_DT")))</f>
@@ -32062,7 +32203,7 @@
       </c>
       <c r="H127" s="1">
         <f>IF(ISERR(FIND("Equity",B127))=FALSE,0,IF(_xll.BDP($B127,"DUR_MID")="#N/A N/A",0,_xll.BDP($B127,"DUR_MID")))</f>
-        <v>10.205190854759115</v>
+        <v>10.203362710006543</v>
       </c>
       <c r="I127" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B127)) = FALSE,  IF(  OR(   _xll.BDP($B127,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B127,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B127,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B127,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B127,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B127,"NXT_PUT_DT")))</f>
@@ -32105,7 +32246,7 @@
          IF(OR(_xll.BDP(B128,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B128,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B128,"YLD_CNV_MID")),
               _xll.BDP(B128,"EQY_DVD_YLD_IND")),
 _xll.BDP(B128,"EQY_DVD_YLD_IND"))</f>
-        <v>3.2537272000000002</v>
+        <v>3.2559979999999999</v>
       </c>
       <c r="G128" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B128)) = FALSE,  IF(  OR(   _xll.BDP($B128,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B128,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B128,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B128,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B128,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B128,"NXT_CPN_DT")))</f>
@@ -32113,7 +32254,7 @@
       </c>
       <c r="H128" s="1">
         <f>IF(ISERR(FIND("Equity",B128))=FALSE,0,IF(_xll.BDP($B128,"DUR_MID")="#N/A N/A",0,_xll.BDP($B128,"DUR_MID")))</f>
-        <v>1.8683440048865969</v>
+        <v>1.8683437430184093</v>
       </c>
       <c r="I128" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B128)) = FALSE,  IF(  OR(   _xll.BDP($B128,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B128,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B128,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B128,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B128,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B128,"NXT_PUT_DT")))</f>
@@ -32138,7 +32279,7 @@
       </c>
       <c r="C129" s="2">
         <f>_xll.BDP(B129,"PX_LAST")*1.00000001</f>
-        <v>57.398000573979999</v>
+        <v>57.281000572809994</v>
       </c>
       <c r="D129" s="1">
         <f>IF(OR(_xll.BDP(B129,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B129,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B129,"BEST_ANALYST_RATING"))</f>
@@ -32156,7 +32297,7 @@
          IF(OR(_xll.BDP(B129,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B129,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B129,"YLD_CNV_MID")),
               _xll.BDP(B129,"EQY_DVD_YLD_IND")),
 _xll.BDP(B129,"EQY_DVD_YLD_IND"))</f>
-        <v>31.356485884390565</v>
+        <v>31.429233609947289</v>
       </c>
       <c r="G129" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B129)) = FALSE,  IF(  OR(   _xll.BDP($B129,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B129,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B129,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B129,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B129,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B129,"NXT_CPN_DT")))</f>
@@ -32164,7 +32305,7 @@
       </c>
       <c r="H129" s="1">
         <f>IF(ISERR(FIND("Equity",B129))=FALSE,0,IF(_xll.BDP($B129,"DUR_MID")="#N/A N/A",0,_xll.BDP($B129,"DUR_MID")))</f>
-        <v>3.2227610565189257</v>
+        <v>3.2215411813981438</v>
       </c>
       <c r="I129" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B129)) = FALSE,  IF(  OR(   _xll.BDP($B129,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B129,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B129,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B129,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B129,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B129,"NXT_PUT_DT")))</f>
@@ -32189,7 +32330,7 @@
       </c>
       <c r="C130" s="2">
         <f>_xll.BDP(B130,"PX_LAST")*1.00000001</f>
-        <v>111.70900111709</v>
+        <v>111.70200111701999</v>
       </c>
       <c r="D130" s="1">
         <f>IF(OR(_xll.BDP(B130,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B130,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B130,"BEST_ANALYST_RATING"))</f>
@@ -32207,7 +32348,7 @@
          IF(OR(_xll.BDP(B130,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B130,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B130,"YLD_CNV_MID")),
               _xll.BDP(B130,"EQY_DVD_YLD_IND")),
 _xll.BDP(B130,"EQY_DVD_YLD_IND"))</f>
-        <v>4.7600477999999997</v>
+        <v>4.7621339000000003</v>
       </c>
       <c r="G130" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B130)) = FALSE,  IF(  OR(   _xll.BDP($B130,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B130,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B130,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B130,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B130,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B130,"NXT_CPN_DT")))</f>
@@ -32215,7 +32356,7 @@
       </c>
       <c r="H130" s="1">
         <f>IF(ISERR(FIND("Equity",B130))=FALSE,0,IF(_xll.BDP($B130,"DUR_MID")="#N/A N/A",0,_xll.BDP($B130,"DUR_MID")))</f>
-        <v>3.2243494682306344</v>
+        <v>3.2243280850337266</v>
       </c>
       <c r="I130" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B130)) = FALSE,  IF(  OR(   _xll.BDP($B130,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B130,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B130,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B130,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B130,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B130,"NXT_PUT_DT")))</f>
@@ -32240,7 +32381,7 @@
       </c>
       <c r="C131" s="2">
         <f>_xll.BDP(B131,"PX_LAST")*1.00000001</f>
-        <v>6.6380000663799996E-2</v>
+        <v>6.6340000663399998E-2</v>
       </c>
       <c r="D131" s="1">
         <f>IF(OR(_xll.BDP(B131,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B131,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B131,"BEST_ANALYST_RATING"))</f>
@@ -32258,7 +32399,7 @@
          IF(OR(_xll.BDP(B131,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B131,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B131,"YLD_CNV_MID")),
               _xll.BDP(B131,"EQY_DVD_YLD_IND")),
 _xll.BDP(B131,"EQY_DVD_YLD_IND"))</f>
-        <v>1.7625790071971414</v>
+        <v>1.7636417621004861</v>
       </c>
       <c r="G131" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B131)) = FALSE,  IF(  OR(   _xll.BDP($B131,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B131,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B131,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B131,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B131,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B131,"NXT_CPN_DT")))</f>
@@ -32291,7 +32432,7 @@
       </c>
       <c r="C132" s="2">
         <f>_xll.BDP(B132,"PX_LAST")*1.00000001</f>
-        <v>109.90900109909001</v>
+        <v>109.90000109899999</v>
       </c>
       <c r="D132" s="1">
         <f>IF(OR(_xll.BDP(B132,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B132,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B132,"BEST_ANALYST_RATING"))</f>
@@ -32309,7 +32450,7 @@
          IF(OR(_xll.BDP(B132,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B132,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B132,"YLD_CNV_MID")),
               _xll.BDP(B132,"EQY_DVD_YLD_IND")),
 _xll.BDP(B132,"EQY_DVD_YLD_IND"))</f>
-        <v>3.5524250999999998</v>
+        <v>3.5501901</v>
       </c>
       <c r="G132" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B132)) = FALSE,  IF(  OR(   _xll.BDP($B132,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B132,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B132,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B132,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B132,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B132,"NXT_CPN_DT")))</f>
@@ -32317,7 +32458,7 @@
       </c>
       <c r="H132" s="1">
         <f>IF(ISERR(FIND("Equity",B132))=FALSE,0,IF(_xll.BDP($B132,"DUR_MID")="#N/A N/A",0,_xll.BDP($B132,"DUR_MID")))</f>
-        <v>2.8382610775545905</v>
+        <v>2.8382445818133952</v>
       </c>
       <c r="I132" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B132)) = FALSE,  IF(  OR(   _xll.BDP($B132,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B132,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B132,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B132,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B132,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B132,"NXT_PUT_DT")))</f>
@@ -32360,7 +32501,7 @@
          IF(OR(_xll.BDP(B133,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B133,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B133,"YLD_CNV_MID")),
               _xll.BDP(B133,"EQY_DVD_YLD_IND")),
 _xll.BDP(B133,"EQY_DVD_YLD_IND"))</f>
-        <v>2.9721394999999999</v>
+        <v>2.9710885</v>
       </c>
       <c r="G133" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B133)) = FALSE,  IF(  OR(   _xll.BDP($B133,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B133,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B133,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B133,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B133,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B133,"NXT_CPN_DT")))</f>
@@ -32368,7 +32509,7 @@
       </c>
       <c r="H133" s="1">
         <f>IF(ISERR(FIND("Equity",B133))=FALSE,0,IF(_xll.BDP($B133,"DUR_MID")="#N/A N/A",0,_xll.BDP($B133,"DUR_MID")))</f>
-        <v>0.95384078619805868</v>
+        <v>0.95384076070502599</v>
       </c>
       <c r="I133" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B133)) = FALSE,  IF(  OR(   _xll.BDP($B133,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B133,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B133,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B133,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B133,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B133,"NXT_PUT_DT")))</f>
@@ -32495,7 +32636,7 @@
       </c>
       <c r="C136" s="2">
         <f>_xll.BDP(B136,"PX_LAST")*1.00000001</f>
-        <v>110.33600110335999</v>
+        <v>110.32500110325</v>
       </c>
       <c r="D136" s="1">
         <f>IF(OR(_xll.BDP(B136,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B136,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B136,"BEST_ANALYST_RATING"))</f>
@@ -32513,7 +32654,7 @@
          IF(OR(_xll.BDP(B136,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B136,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B136,"YLD_CNV_MID")),
               _xll.BDP(B136,"EQY_DVD_YLD_IND")),
 _xll.BDP(B136,"EQY_DVD_YLD_IND"))</f>
-        <v>3.6072421000000001</v>
+        <v>3.6086076999999999</v>
       </c>
       <c r="G136" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B136)) = FALSE,  IF(  OR(   _xll.BDP($B136,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B136,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B136,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B136,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B136,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B136,"NXT_CPN_DT")))</f>
@@ -32521,7 +32662,7 @@
       </c>
       <c r="H136" s="1">
         <f>IF(ISERR(FIND("Equity",B136))=FALSE,0,IF(_xll.BDP($B136,"DUR_MID")="#N/A N/A",0,_xll.BDP($B136,"DUR_MID")))</f>
-        <v>3.3220175169158495</v>
+        <v>3.3219926862531675</v>
       </c>
       <c r="I136" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B136)) = FALSE,  IF(  OR(   _xll.BDP($B136,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B136,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B136,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B136,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B136,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B136,"NXT_PUT_DT")))</f>
@@ -32546,7 +32687,7 @@
       </c>
       <c r="C137" s="2">
         <f>_xll.BDP(B137,"PX_LAST")*1.00000001</f>
-        <v>102.87200102871999</v>
+        <v>102.89400102894</v>
       </c>
       <c r="D137" s="1">
         <f>IF(OR(_xll.BDP(B137,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B137,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B137,"BEST_ANALYST_RATING"))</f>
@@ -32564,7 +32705,7 @@
          IF(OR(_xll.BDP(B137,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B137,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B137,"YLD_CNV_MID")),
               _xll.BDP(B137,"EQY_DVD_YLD_IND")),
 _xll.BDP(B137,"EQY_DVD_YLD_IND"))</f>
-        <v>4.929990472205616</v>
+        <v>4.9208477273047286</v>
       </c>
       <c r="G137" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B137)) = FALSE,  IF(  OR(   _xll.BDP($B137,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B137,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B137,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B137,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B137,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B137,"NXT_CPN_DT")))</f>
@@ -32572,7 +32713,7 @@
       </c>
       <c r="H137" s="1">
         <f>IF(ISERR(FIND("Equity",B137))=FALSE,0,IF(_xll.BDP($B137,"DUR_MID")="#N/A N/A",0,_xll.BDP($B137,"DUR_MID")))</f>
-        <v>2.7100948032015415</v>
+        <v>2.71012209894258</v>
       </c>
       <c r="I137" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B137)) = FALSE,  IF(  OR(   _xll.BDP($B137,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B137,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B137,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B137,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B137,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B137,"NXT_PUT_DT")))</f>
@@ -32648,7 +32789,7 @@
       </c>
       <c r="C139" s="2">
         <f>_xll.BDP(B139,"PX_LAST")*1.00000001</f>
-        <v>107.10900107108999</v>
+        <v>107.09600107096</v>
       </c>
       <c r="D139" s="1">
         <f>IF(OR(_xll.BDP(B139,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B139,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B139,"BEST_ANALYST_RATING"))</f>
@@ -32666,7 +32807,7 @@
          IF(OR(_xll.BDP(B139,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B139,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B139,"YLD_CNV_MID")),
               _xll.BDP(B139,"EQY_DVD_YLD_IND")),
 _xll.BDP(B139,"EQY_DVD_YLD_IND"))</f>
-        <v>5.0328795</v>
+        <v>5.0358872000000003</v>
       </c>
       <c r="G139" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B139)) = FALSE,  IF(  OR(   _xll.BDP($B139,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B139,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B139,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B139,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B139,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B139,"NXT_CPN_DT")))</f>
@@ -32674,7 +32815,7 @@
       </c>
       <c r="H139" s="1">
         <f>IF(ISERR(FIND("Equity",B139))=FALSE,0,IF(_xll.BDP($B139,"DUR_MID")="#N/A N/A",0,_xll.BDP($B139,"DUR_MID")))</f>
-        <v>4.0625471623225344</v>
+        <v>4.0624963854579885</v>
       </c>
       <c r="I139" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B139)) = FALSE,  IF(  OR(   _xll.BDP($B139,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B139,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B139,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B139,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B139,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B139,"NXT_PUT_DT")))</f>
@@ -32699,7 +32840,7 @@
       </c>
       <c r="C140" s="2">
         <f>_xll.BDP(B140,"PX_LAST")*1.00000001</f>
-        <v>98.959000989589995</v>
+        <v>98.950000989499998</v>
       </c>
       <c r="D140" s="1">
         <f>IF(OR(_xll.BDP(B140,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B140,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B140,"BEST_ANALYST_RATING"))</f>
@@ -32717,7 +32858,7 @@
          IF(OR(_xll.BDP(B140,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B140,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B140,"YLD_CNV_MID")),
               _xll.BDP(B140,"EQY_DVD_YLD_IND")),
 _xll.BDP(B140,"EQY_DVD_YLD_IND"))</f>
-        <v>6.6460672278524049</v>
+        <v>6.6497341653524034</v>
       </c>
       <c r="G140" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B140)) = FALSE,  IF(  OR(   _xll.BDP($B140,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B140,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B140,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B140,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B140,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B140,"NXT_CPN_DT")))</f>
@@ -32725,7 +32866,7 @@
       </c>
       <c r="H140" s="1">
         <f>IF(ISERR(FIND("Equity",B140))=FALSE,0,IF(_xll.BDP($B140,"DUR_MID")="#N/A N/A",0,_xll.BDP($B140,"DUR_MID")))</f>
-        <v>2.7849210396531472</v>
+        <v>2.7849120253329005</v>
       </c>
       <c r="I140" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B140)) = FALSE,  IF(  OR(   _xll.BDP($B140,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B140,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B140,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B140,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B140,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B140,"NXT_PUT_DT")))</f>
@@ -32801,7 +32942,7 @@
       </c>
       <c r="C142" s="2">
         <f>_xll.BDP(B142,"PX_LAST")*1.00000001</f>
-        <v>114.1700011417</v>
+        <v>114.16600114165999</v>
       </c>
       <c r="D142" s="1">
         <f>IF(OR(_xll.BDP(B142,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B142,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B142,"BEST_ANALYST_RATING"))</f>
@@ -32819,7 +32960,7 @@
          IF(OR(_xll.BDP(B142,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B142,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B142,"YLD_CNV_MID")),
               _xll.BDP(B142,"EQY_DVD_YLD_IND")),
 _xll.BDP(B142,"EQY_DVD_YLD_IND"))</f>
-        <v>3.3860540000000001</v>
+        <v>3.3843481999999998</v>
       </c>
       <c r="G142" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B142)) = FALSE,  IF(  OR(   _xll.BDP($B142,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B142,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B142,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B142,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B142,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B142,"NXT_CPN_DT")))</f>
@@ -32827,7 +32968,7 @@
       </c>
       <c r="H142" s="1">
         <f>IF(ISERR(FIND("Equity",B142))=FALSE,0,IF(_xll.BDP($B142,"DUR_MID")="#N/A N/A",0,_xll.BDP($B142,"DUR_MID")))</f>
-        <v>3.126162874643315</v>
+        <v>3.1261549733833909</v>
       </c>
       <c r="I142" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B142)) = FALSE,  IF(  OR(   _xll.BDP($B142,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B142,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B142,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B142,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B142,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B142,"NXT_PUT_DT")))</f>
@@ -32852,7 +32993,7 @@
       </c>
       <c r="C143" s="2">
         <f>_xll.BDP(B143,"PX_LAST")*1.00000001</f>
-        <v>75.76500075765</v>
+        <v>75.567000755669994</v>
       </c>
       <c r="D143" s="1">
         <f>IF(OR(_xll.BDP(B143,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B143,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B143,"BEST_ANALYST_RATING"))</f>
@@ -32870,7 +33011,7 @@
          IF(OR(_xll.BDP(B143,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B143,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B143,"YLD_CNV_MID")),
               _xll.BDP(B143,"EQY_DVD_YLD_IND")),
 _xll.BDP(B143,"EQY_DVD_YLD_IND"))</f>
-        <v>17.875394799999999</v>
+        <v>17.970134900000001</v>
       </c>
       <c r="G143" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B143)) = FALSE,  IF(  OR(   _xll.BDP($B143,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B143,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B143,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B143,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B143,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B143,"NXT_CPN_DT")))</f>
@@ -32878,7 +33019,7 @@
       </c>
       <c r="H143" s="1">
         <f>IF(ISERR(FIND("Equity",B143))=FALSE,0,IF(_xll.BDP($B143,"DUR_MID")="#N/A N/A",0,_xll.BDP($B143,"DUR_MID")))</f>
-        <v>2.6834028636521734</v>
+        <v>2.682954200442484</v>
       </c>
       <c r="I143" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B143)) = FALSE,  IF(  OR(   _xll.BDP($B143,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B143,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B143,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B143,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B143,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B143,"NXT_PUT_DT")))</f>
@@ -33056,7 +33197,7 @@
       </c>
       <c r="C147" s="2">
         <f>_xll.BDP(B147,"PX_LAST")*1.00000001</f>
-        <v>27.0500002705</v>
+        <v>27.020000270199997</v>
       </c>
       <c r="D147" s="1">
         <f>IF(OR(_xll.BDP(B147,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B147,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B147,"BEST_ANALYST_RATING"))</f>
@@ -33209,7 +33350,7 @@
       </c>
       <c r="C150" s="2">
         <f>_xll.BDP(B150,"PX_LAST")*1.00000001</f>
-        <v>94.950000949499994</v>
+        <v>95.010000950099993</v>
       </c>
       <c r="D150" s="1">
         <f>IF(OR(_xll.BDP(B150,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B150,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B150,"BEST_ANALYST_RATING"))</f>
@@ -33227,7 +33368,7 @@
          IF(OR(_xll.BDP(B150,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B150,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B150,"YLD_CNV_MID")),
               _xll.BDP(B150,"EQY_DVD_YLD_IND")),
 _xll.BDP(B150,"EQY_DVD_YLD_IND"))</f>
-        <v>0.92680357581003525</v>
+        <v>0.92621828779247284</v>
       </c>
       <c r="G150" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B150)) = FALSE,  IF(  OR(   _xll.BDP($B150,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B150,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B150,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B150,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B150,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B150,"NXT_CPN_DT")))</f>
@@ -33362,7 +33503,7 @@
       </c>
       <c r="C153" s="2">
         <f>_xll.BDP(B153,"PX_LAST")*1.00000001</f>
-        <v>106.30200106302</v>
+        <v>106.30800106308</v>
       </c>
       <c r="D153" s="1">
         <f>IF(OR(_xll.BDP(B153,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B153,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B153,"BEST_ANALYST_RATING"))</f>
@@ -33380,7 +33521,7 @@
          IF(OR(_xll.BDP(B153,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B153,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B153,"YLD_CNV_MID")),
               _xll.BDP(B153,"EQY_DVD_YLD_IND")),
 _xll.BDP(B153,"EQY_DVD_YLD_IND"))</f>
-        <v>6.2193816000000002</v>
+        <v>6.2166613999999996</v>
       </c>
       <c r="G153" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B153)) = FALSE,  IF(  OR(   _xll.BDP($B153,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B153,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B153,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B153,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B153,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B153,"NXT_CPN_DT")))</f>
@@ -33388,7 +33529,7 @@
       </c>
       <c r="H153" s="1">
         <f>IF(ISERR(FIND("Equity",B153))=FALSE,0,IF(_xll.BDP($B153,"DUR_MID")="#N/A N/A",0,_xll.BDP($B153,"DUR_MID")))</f>
-        <v>3.451841005455087</v>
+        <v>3.4518648523914059</v>
       </c>
       <c r="I153" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B153)) = FALSE,  IF(  OR(   _xll.BDP($B153,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B153,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B153,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B153,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B153,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B153,"NXT_PUT_DT")))</f>
@@ -33413,7 +33554,7 @@
       </c>
       <c r="C154" s="2">
         <f>_xll.BDP(B154,"PX_LAST")*1.00000001</f>
-        <v>97.160000971599985</v>
+        <v>97.220000972199998</v>
       </c>
       <c r="D154" s="1">
         <f>IF(OR(_xll.BDP(B154,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B154,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B154,"BEST_ANALYST_RATING"))</f>
@@ -33668,7 +33809,7 @@
       </c>
       <c r="C159" s="2">
         <f>IF(_xll.BDP(B159,"PX_LAST")="#N/A N/A",100,_xll.BDP(B159,"PX_LAST"))</f>
-        <v>100.339</v>
+        <v>100.333</v>
       </c>
       <c r="D159" s="1">
         <f>IF(OR(_xll.BDP(B159,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B159,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B159,"BEST_ANALYST_RATING"))</f>
@@ -33686,7 +33827,7 @@
          IF(OR(_xll.BDP(B159,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B159,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B159,"YLD_CNV_MID")),
               _xll.BDP(B159,"EQY_DVD_YLD_IND")),
 _xll.BDP(B159,"EQY_DVD_YLD_IND"))</f>
-        <v>4.5799687000000002</v>
+        <v>4.5768804999999997</v>
       </c>
       <c r="G159" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B159)) = FALSE,  IF(  OR(   _xll.BDP($B159,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B159,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B159,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B159,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B159,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B159,"NXT_CPN_DT")))</f>
@@ -33694,7 +33835,7 @@
       </c>
       <c r="H159" s="1">
         <f>IF(ISERR(FIND("Equity",B159))=FALSE,0,IF(_xll.BDP($B159,"DUR_MID")="#N/A N/A",0,_xll.BDP($B159,"DUR_MID")))</f>
-        <v>1.9397155346923893</v>
+        <v>1.9397103644418678</v>
       </c>
       <c r="I159" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B159)) = FALSE,  IF(  OR(   _xll.BDP($B159,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B159,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B159,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B159,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B159,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B159,"NXT_PUT_DT")))</f>
@@ -33719,7 +33860,7 @@
       </c>
       <c r="C160" s="2">
         <f>IF(_xll.BDP(B160,"PX_LAST")="#N/A N/A",100,_xll.BDP(B160,"PX_LAST"))</f>
-        <v>767.5</v>
+        <v>767.9</v>
       </c>
       <c r="D160" s="1">
         <f>IF(OR(_xll.BDP(B160,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B160,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B160,"BEST_ANALYST_RATING"))</f>
@@ -33737,7 +33878,7 @@
          IF(OR(_xll.BDP(B160,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B160,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B160,"YLD_CNV_MID")),
               _xll.BDP(B160,"EQY_DVD_YLD_IND")),
 _xll.BDP(B160,"EQY_DVD_YLD_IND"))</f>
-        <v>14.452117025269748</v>
+        <v>14.444588900761207</v>
       </c>
       <c r="G160" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B160)) = FALSE,  IF(  OR(   _xll.BDP($B160,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B160,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B160,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B160,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B160,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B160,"NXT_CPN_DT")))</f>
@@ -33770,7 +33911,7 @@
       </c>
       <c r="C161" s="2">
         <f>IF(_xll.BDP(B161,"PX_LAST")="#N/A N/A",100,_xll.BDP(B161,"PX_LAST"))</f>
-        <v>97.19</v>
+        <v>97.2</v>
       </c>
       <c r="D161" s="1">
         <f>IF(OR(_xll.BDP(B161,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B161,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B161,"BEST_ANALYST_RATING"))</f>
@@ -33796,7 +33937,7 @@
       </c>
       <c r="H161" s="1">
         <f>IF(ISERR(FIND("Equity",B161))=FALSE,0,IF(_xll.BDP($B161,"DUR_MID")="#N/A N/A",0,_xll.BDP($B161,"DUR_MID")))</f>
-        <v>2.344370943690707</v>
+        <v>2.3443791962322553</v>
       </c>
       <c r="I161" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B161)) = FALSE,  IF(  OR(   _xll.BDP($B161,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B161,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B161,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B161,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B161,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B161,"NXT_PUT_DT")))</f>
@@ -33821,7 +33962,7 @@
       </c>
       <c r="C162" s="2">
         <f>IF(_xll.BDP(B162,"PX_LAST")="#N/A N/A",100,_xll.BDP(B162,"PX_LAST"))</f>
-        <v>50.730000000000004</v>
+        <v>50.83</v>
       </c>
       <c r="D162" s="1">
         <f>IF(OR(_xll.BDP(B162,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B162,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B162,"BEST_ANALYST_RATING"))</f>
@@ -33923,7 +34064,7 @@
       </c>
       <c r="C164" s="2">
         <f>IF(_xll.BDP(B164,"PX_LAST")="#N/A N/A",100,_xll.BDP(B164,"PX_LAST"))</f>
-        <v>31632</v>
+        <v>31695</v>
       </c>
       <c r="D164" s="1">
         <f>IF(OR(_xll.BDP(B164,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B164,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B164,"BEST_ANALYST_RATING"))</f>
@@ -33974,7 +34115,7 @@
       </c>
       <c r="C165" s="2">
         <f>IF(_xll.BDP(B165,"PX_LAST")="#N/A N/A",100,_xll.BDP(B165,"PX_LAST"))</f>
-        <v>28728</v>
+        <v>28855</v>
       </c>
       <c r="D165" s="1">
         <f>IF(OR(_xll.BDP(B165,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B165,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B165,"BEST_ANALYST_RATING"))</f>
@@ -34043,7 +34184,7 @@
          IF(OR(_xll.BDP(B166,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B166,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B166,"YLD_CNV_MID")),
               _xll.BDP(B166,"EQY_DVD_YLD_IND")),
 _xll.BDP(B166,"EQY_DVD_YLD_IND"))</f>
-        <v>10.84</v>
+        <v>10.83</v>
       </c>
       <c r="G166" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B166)) = FALSE,  IF(  OR(   _xll.BDP($B166,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B166,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B166,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B166,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B166,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B166,"NXT_CPN_DT")))</f>
@@ -34051,7 +34192,7 @@
       </c>
       <c r="H166" s="1">
         <f>IF(ISERR(FIND("Equity",B166))=FALSE,0,IF(_xll.BDP($B166,"DUR_MID")="#N/A N/A",0,_xll.BDP($B166,"DUR_MID")))</f>
-        <v>5.7566352177781974</v>
+        <v>5.7570160707394029</v>
       </c>
       <c r="I166" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B166)) = FALSE,  IF(  OR(   _xll.BDP($B166,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B166,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B166,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B166,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B166,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B166,"NXT_PUT_DT")))</f>
@@ -34076,7 +34217,7 @@
       </c>
       <c r="C167" s="2">
         <f>IF(_xll.BDP(B167,"PX_LAST")="#N/A N/A",100,_xll.BDP(B167,"PX_LAST"))</f>
-        <v>106.49</v>
+        <v>106.5</v>
       </c>
       <c r="D167" s="1">
         <f>IF(OR(_xll.BDP(B167,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B167,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B167,"BEST_ANALYST_RATING"))</f>
@@ -34102,7 +34243,7 @@
       </c>
       <c r="H167" s="1">
         <f>IF(ISERR(FIND("Equity",B167))=FALSE,0,IF(_xll.BDP($B167,"DUR_MID")="#N/A N/A",0,_xll.BDP($B167,"DUR_MID")))</f>
-        <v>8.675577034010022</v>
+        <v>8.675716456461803</v>
       </c>
       <c r="I167" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B167)) = FALSE,  IF(  OR(   _xll.BDP($B167,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B167,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B167,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B167,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B167,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B167,"NXT_PUT_DT")))</f>
@@ -34115,6 +34256,57 @@
       <c r="L167" s="1" t="str">
         <f>_xll.BDP(B167,"SECURITY_NAME")</f>
         <v>RFLB 8 1/2 09/17/31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="str">
+        <f>IF(OR(_xll.BDP(B168,"ID_ISIN")="#N/A Field Not Applicable",_xll.BDP(B168,"ID_ISIN")="#N/A N/A"),B168,_xll.BDP(B168,"ID_ISIN"))</f>
+        <v>US55315J1025</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C168" s="2">
+        <f>IF(_xll.BDP(B168,"PX_LAST")="#N/A N/A",100,_xll.BDP(B168,"PX_LAST"))</f>
+        <v>14.92</v>
+      </c>
+      <c r="D168" s="1">
+        <f>IF(OR(_xll.BDP(B168,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B168,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B168,"BEST_ANALYST_RATING"))</f>
+        <v>1</v>
+      </c>
+      <c r="E168" s="1">
+        <f>IF(A168="RU000A0JR5Z5",10*_xll.BDP("486 HK Equity","BEST_TARGET_PRICE")*_xll.BDP("USDRUB Curncy","PX_LAST")/_xll.BDP("USDHKD Curncy","PX_LAST"),
+      IF(OR(_xll.BDP(B168,"BEST_TARGET_PRICE")="#N/A N/A",_xll.BDP(B168,"BEST_TARGET_PRICE")="#N/A Field Not Applicable"),0,_xll.BDP(B168,"BEST_TARGET_PRICE"))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <f>IF(OR(_xll.BDP(B168,"BDVD_PROJ_12M_YLD")="#N/A N/A",_xll.BDP(B168,"BDVD_PROJ_12M_YLD")="#N/A Field Not Applicable"),
+     IF(OR(_xll.BDP(B168,"EQY_DVD_YLD_IND")="#N/A N/A",_xll.BDP(B168,"EQY_DVD_YLD_IND")="#N/A Field Not Applicable"),
+         IF(OR(_xll.BDP(B168,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B168,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B168,"YLD_CNV_MID")),
+              _xll.BDP(B168,"EQY_DVD_YLD_IND")),
+_xll.BDP(B168,"EQY_DVD_YLD_IND"))</f>
+        <v>10.2671309706353</v>
+      </c>
+      <c r="G168" s="1" t="str">
+        <f>IF(  ISERR(FIND("Equity",B168)) = FALSE,  IF(  OR(   _xll.BDP($B168,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B168,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B168,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B168,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B168,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B168,"NXT_CPN_DT")))</f>
+        <v>21/06/2017</v>
+      </c>
+      <c r="H168" s="1">
+        <f>IF(ISERR(FIND("Equity",B168))=FALSE,0,IF(_xll.BDP($B168,"DUR_MID")="#N/A N/A",0,_xll.BDP($B168,"DUR_MID")))</f>
+        <v>0</v>
+      </c>
+      <c r="I168" s="1" t="str">
+        <f>IF(  ISERR(FIND("Equity",B168)) = FALSE,  IF(  OR(   _xll.BDP($B168,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B168,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B168,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B168,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B168,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B168,"NXT_PUT_DT")))</f>
+        <v>17/11/2017</v>
+      </c>
+      <c r="J168" s="1">
+        <f t="shared" ref="J168" si="6">COUNTIF($B:$B,B168)</f>
+        <v>1</v>
+      </c>
+      <c r="L168" s="1" t="str">
+        <f>_xll.BDP(B168,"SECURITY_NAME")</f>
+        <v>MMC Norilsk Nickel PJSC</v>
       </c>
     </row>
   </sheetData>

--- a/sberapi/DB/quotes.xlsx
+++ b/sberapi/DB/quotes.xlsx
@@ -3221,7 +3221,7 @@
         <tr r="F225" s="70"/>
       </tp>
       <tp>
-        <v>0.64625093401329214</v>
+        <v>0.65065052433562165</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SX7EEX GY Equity</stp>
@@ -3297,7 +3297,7 @@
         <tr r="E19" s="70"/>
       </tp>
       <tp>
-        <v>0.48519257334769894</v>
+        <v>0.48516886381485896</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0H6 Corp</stp>
@@ -3317,7 +3317,7 @@
         <tr r="E56" s="70"/>
       </tp>
       <tp>
-        <v>8.6571748259449013</v>
+        <v>8.6570365284810897</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVW48 Corp</stp>
@@ -3338,7 +3338,7 @@
         <tr r="E33" s="70"/>
       </tp>
       <tp>
-        <v>2.7831485742903879</v>
+        <v>2.7819996419048425</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWU98 Corp</stp>
@@ -3399,7 +3399,7 @@
         <tr r="D29" s="70"/>
       </tp>
       <tp>
-        <v>2.0761802280921282</v>
+        <v>2.0812045954093716</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SX7PEX GY Equity</stp>
@@ -3410,7 +3410,7 @@
         <tr r="F248" s="70"/>
       </tp>
       <tp>
-        <v>2.7106356691499647</v>
+        <v>2.7106524457950747</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -3452,7 +3452,7 @@
         <tr r="I145" s="70"/>
       </tp>
       <tp>
-        <v>0.84773373668068575</v>
+        <v>0.84773231822400874</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS6N8 Corp</stp>
@@ -3494,7 +3494,7 @@
         <tr r="G191" s="70"/>
       </tp>
       <tp>
-        <v>1.4754461491550934</v>
+        <v>1.4754475238535525</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -3594,7 +3594,7 @@
         <tr r="E42" s="70"/>
       </tp>
       <tp>
-        <v>7.2222222226946492E-2</v>
+        <v>7.2222222226969987E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71656MAF68 Corp</stp>
@@ -3625,7 +3625,7 @@
         <tr r="H185" s="70"/>
       </tp>
       <tp>
-        <v>0.6613139518954988</v>
+        <v>0.66180317878862283</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVP05 Corp</stp>
@@ -3831,7 +3831,7 @@
         <tr r="E37" s="70"/>
       </tp>
       <tp>
-        <v>0.38888888946559291</v>
+        <v>0.38888888946540517</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG2440JAE58 Corp</stp>
@@ -3841,7 +3841,7 @@
         <tr r="H236" s="70"/>
       </tp>
       <tp>
-        <v>5.2923032996411079</v>
+        <v>5.2923274530028346</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAF69 Corp</stp>
@@ -4004,7 +4004,7 @@
         <tr r="F256" s="70"/>
       </tp>
       <tp>
-        <v>106.41800000000001</v>
+        <v>106.441</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -4108,7 +4108,7 @@
         <tr r="G12" s="70"/>
       </tp>
       <tp>
-        <v>3.3963033147296104</v>
+        <v>3.3964552112634099</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAG54 Corp</stp>
@@ -4160,7 +4160,7 @@
         <tr r="I250" s="70"/>
       </tp>
       <tp>
-        <v>0.64006370520309552</v>
+        <v>0.64011596378722246</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKM9 Corp</stp>
@@ -4334,7 +4334,7 @@
         <tr r="H102" s="70"/>
       </tp>
       <tp>
-        <v>1.8138159449091744</v>
+        <v>1.8133504347654956</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVKK9 Corp</stp>
@@ -4344,7 +4344,7 @@
         <tr r="H203" s="70"/>
       </tp>
       <tp>
-        <v>1.8084440604755212</v>
+        <v>1.8074809678885948</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRKD2 Corp</stp>
@@ -4513,7 +4513,7 @@
         <tr r="E49" s="70"/>
       </tp>
       <tp>
-        <v>0.20376948425799851</v>
+        <v>0.20372737584362507</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7J9 Corp</stp>
@@ -4728,7 +4728,7 @@
         <tr r="F284" s="70"/>
       </tp>
       <tp>
-        <v>4.7578000802548441</v>
+        <v>4.7579857642023722</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -4868,7 +4868,7 @@
         <tr r="E44" s="70"/>
       </tp>
       <tp>
-        <v>2.3057470492815653</v>
+        <v>2.3057386602265888</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTG59 Corp</stp>
@@ -4940,7 +4940,7 @@
         <tr r="D52" s="70"/>
       </tp>
       <tp>
-        <v>4.5889918474595319</v>
+        <v>4.5890917161612919</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -5002,7 +5002,7 @@
         <tr r="L258" s="70"/>
       </tp>
       <tp>
-        <v>6.5998271211305557</v>
+        <v>6.5993273530140923</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAQ25 Corp</stp>
@@ -5012,7 +5012,7 @@
         <tr r="H277" s="70"/>
       </tp>
       <tp>
-        <v>9.1910048049363997</v>
+        <v>9.1908298652236233</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXFM1 Corp</stp>
@@ -5168,7 +5168,7 @@
         <tr r="E34" s="70"/>
       </tp>
       <tp>
-        <v>112.587</v>
+        <v>112.654</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QCB68 Corp</stp>
@@ -5189,7 +5189,7 @@
         <tr r="A9" s="70"/>
       </tp>
       <tp>
-        <v>2.1074873850119298</v>
+        <v>2.1068448528365993</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWTW3 Corp</stp>
@@ -5231,7 +5231,7 @@
         <tr r="E260" s="70"/>
       </tp>
       <tp>
-        <v>3.3146577498478256</v>
+        <v>3.3146446013111563</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -5312,7 +5312,7 @@
         <tr r="F90" s="70"/>
       </tp>
       <tp>
-        <v>1.252504571793287</v>
+        <v>1.2524471935622581</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0493579238 Corp</stp>
@@ -5332,7 +5332,7 @@
         <tr r="F155" s="70"/>
       </tp>
       <tp>
-        <v>2.6764126513008102</v>
+        <v>2.6764387045688895</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -5428,7 +5428,7 @@
         <tr r="H217" s="70"/>
       </tp>
       <tp>
-        <v>5.7568123323717053</v>
+        <v>5.7590345711380655</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWV63 Corp</stp>
@@ -5594,7 +5594,7 @@
         <tr r="H82" s="70"/>
       </tp>
       <tp>
-        <v>3.1161535682748815</v>
+        <v>3.1161772841996069</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -5604,7 +5604,7 @@
         <tr r="H23" s="70"/>
       </tp>
       <tp>
-        <v>5.5225472985696893</v>
+        <v>5.5226631162315352</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -5696,7 +5696,7 @@
         <tr r="E141" s="70"/>
       </tp>
       <tp>
-        <v>0.38754188555079067</v>
+        <v>0.38756983769996123</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -5717,7 +5717,7 @@
         <tr r="A141" s="70"/>
       </tp>
       <tp>
-        <v>0.7847127715139941</v>
+        <v>0.78471222481003511</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRCJ6 Corp</stp>
@@ -5932,7 +5932,7 @@
         <tr r="G21" s="70"/>
       </tp>
       <tp>
-        <v>3.4941461414519788</v>
+        <v>3.4941283137431838</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAP42 Corp</stp>
@@ -5942,7 +5942,7 @@
         <tr r="H254" s="70"/>
       </tp>
       <tp>
-        <v>2.983567921575947</v>
+        <v>2.9837517205645412</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXQ93 Corp</stp>
@@ -5952,7 +5952,7 @@
         <tr r="H280" s="70"/>
       </tp>
       <tp>
-        <v>2.7171208240785574</v>
+        <v>2.6458042877016368</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3M7 Corp</stp>
@@ -5980,7 +5980,7 @@
         <tr r="H182" s="70"/>
       </tp>
       <tp>
-        <v>56568</v>
+        <v>56572</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>URM7 Curncy</stp>
@@ -6023,7 +6023,7 @@
         <tr r="E75" s="70"/>
       </tp>
       <tp>
-        <v>0.68343602810612336</v>
+        <v>0.68343319582168727</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTM28 Corp</stp>
@@ -6092,7 +6092,7 @@
         <tr r="F158" s="70"/>
       </tp>
       <tp>
-        <v>1.7422034725200681</v>
+        <v>1.7422113871157419</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -6203,7 +6203,7 @@
         <tr r="H197" s="70"/>
       </tp>
       <tp>
-        <v>6.7387391507121892</v>
+        <v>6.7380821797345201</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWM07 Corp</stp>
@@ -6320,7 +6320,7 @@
         <tr r="F213" s="70"/>
       </tp>
       <tp>
-        <v>3.1892270195067391</v>
+        <v>3.1881194861050788</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB75 Corp</stp>
@@ -6350,7 +6350,7 @@
         <tr r="F265" s="70"/>
       </tp>
       <tp>
-        <v>13.31</v>
+        <v>13.22</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SX7EEX GY Equity</stp>
@@ -6437,7 +6437,7 @@
         <tr r="L189" s="70"/>
       </tp>
       <tp>
-        <v>4.8382423921207041</v>
+        <v>4.8387083803509743</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAJ93 Corp</stp>
@@ -6447,7 +6447,7 @@
         <tr r="H255" s="70"/>
       </tp>
       <tp>
-        <v>4.3908800027060542</v>
+        <v>4.3910457641336578</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAM23 Corp</stp>
@@ -6521,7 +6521,7 @@
         <tr r="I165" s="70"/>
       </tp>
       <tp>
-        <v>4.1605848363350511</v>
+        <v>4.1606603987029178</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -6685,7 +6685,7 @@
         <tr r="F247" s="70"/>
       </tp>
       <tp>
-        <v>18.64</v>
+        <v>18.594999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SX7PEX GY Equity</stp>
@@ -6746,7 +6746,7 @@
         <tr r="E72" s="70"/>
       </tp>
       <tp>
-        <v>12.013583183288574</v>
+        <v>12.127923011779785</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -6779,7 +6779,7 @@
         <tr r="E223" s="70"/>
       </tp>
       <tp>
-        <v>5.5930541043816246</v>
+        <v>5.5929404634007218</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAM11 Corp</stp>
@@ -6789,7 +6789,7 @@
         <tr r="H274" s="70"/>
       </tp>
       <tp>
-        <v>2.3853359175341122</v>
+        <v>2.3848655705302084</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXJE0 Corp</stp>
@@ -6799,7 +6799,7 @@
         <tr r="H100" s="70"/>
       </tp>
       <tp>
-        <v>9.1757757171232676E-2</v>
+        <v>9.180153436041591E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -6819,7 +6819,7 @@
         <tr r="H196" s="70"/>
       </tp>
       <tp>
-        <v>1.8738054775838235</v>
+        <v>1.87380830826515</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9V1 Corp</stp>
@@ -6880,7 +6880,7 @@
         <tr r="I30" s="70"/>
       </tp>
       <tp>
-        <v>3.1892454337968741</v>
+        <v>3.1892270195067391</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB67 Corp</stp>
@@ -6890,7 +6890,7 @@
         <tr r="H76" s="70"/>
       </tp>
       <tp>
-        <v>112.69799999999999</v>
+        <v>112.70699999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -6957,7 +6957,7 @@
         <tr r="F84" s="70"/>
       </tp>
       <tp>
-        <v>109.581</v>
+        <v>109.604</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -6999,7 +6999,7 @@
         <tr r="E31" s="70"/>
       </tp>
       <tp>
-        <v>97.100009999999997</v>
+        <v>97.09</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTG59 Corp</stp>
@@ -7289,7 +7289,7 @@
         <tr r="F277" s="70"/>
       </tp>
       <tp>
-        <v>104.15</v>
+        <v>104.14</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7J9 Corp</stp>
@@ -7414,7 +7414,7 @@
         <tr r="I27" s="70"/>
       </tp>
       <tp>
-        <v>101.863</v>
+        <v>101.857</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -7515,7 +7515,7 @@
         <tr r="A61" s="70"/>
       </tp>
       <tp>
-        <v>106.399</v>
+        <v>106.42</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -7524,7 +7524,7 @@
         <tr r="C22" s="70"/>
       </tp>
       <tp>
-        <v>83.17</v>
+        <v>83.088999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0493579238 Corp</stp>
@@ -7533,7 +7533,7 @@
         <tr r="C83" s="70"/>
       </tp>
       <tp>
-        <v>103.4</v>
+        <v>103.35</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRKD2 Corp</stp>
@@ -7554,7 +7554,7 @@
         <tr r="E13" s="70"/>
       </tp>
       <tp>
-        <v>106.09</v>
+        <v>105.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVKK9 Corp</stp>
@@ -7863,7 +7863,7 @@
         <tr r="F77" s="70"/>
       </tp>
       <tp>
-        <v>109.502</v>
+        <v>109.524</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -7893,7 +7893,7 @@
         <tr r="I168" s="70"/>
       </tp>
       <tp>
-        <v>102.413</v>
+        <v>102.429</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -7923,7 +7923,7 @@
         <tr r="G70" s="70"/>
       </tp>
       <tp>
-        <v>103.43</v>
+        <v>103.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKM9 Corp</stp>
@@ -8028,7 +8028,7 @@
         <tr r="E185" s="70"/>
       </tp>
       <tp>
-        <v>107</v>
+        <v>107.041</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAG54 Corp</stp>
@@ -8327,7 +8327,7 @@
         <tr r="E28" s="70"/>
       </tp>
       <tp>
-        <v>101.78400000000001</v>
+        <v>101.783</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG2440JAE58 Corp</stp>
@@ -8358,7 +8358,7 @@
         <tr r="F214" s="70"/>
       </tp>
       <tp>
-        <v>94.870999999999995</v>
+        <v>94.876000000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAF69 Corp</stp>
@@ -8647,7 +8647,7 @@
         <tr r="F65" s="70"/>
       </tp>
       <tp>
-        <v>107.929</v>
+        <v>107.93899999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -8727,7 +8727,7 @@
         <tr r="A108" s="70"/>
       </tp>
       <tp>
-        <v>100.352</v>
+        <v>100.378</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71656MAF68 Corp</stp>
@@ -9068,7 +9068,7 @@
         <tr r="E32" s="70"/>
       </tp>
       <tp>
-        <v>104.265</v>
+        <v>104.29</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -9199,7 +9199,7 @@
         <tr r="F255" s="70"/>
       </tp>
       <tp>
-        <v>107.2</v>
+        <v>107.19</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVW48 Corp</stp>
@@ -9220,7 +9220,7 @@
         <tr r="G95" s="70"/>
       </tp>
       <tp>
-        <v>103.3</v>
+        <v>103.29</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0H6 Corp</stp>
@@ -9542,7 +9542,7 @@
         <tr r="D92" s="70"/>
       </tp>
       <tp>
-        <v>101.04</v>
+        <v>101.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -9571,7 +9571,7 @@
         <tr r="C193" s="70"/>
       </tp>
       <tp>
-        <v>97.39</v>
+        <v>97.400009999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9V1 Corp</stp>
@@ -9580,7 +9580,7 @@
         <tr r="C121" s="70"/>
       </tp>
       <tp>
-        <v>103.24</v>
+        <v>103.23</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXJE0 Corp</stp>
@@ -9600,7 +9600,7 @@
         <tr r="E21" s="70"/>
       </tp>
       <tp>
-        <v>102.82599999999999</v>
+        <v>102.81</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAM11 Corp</stp>
@@ -9653,7 +9653,7 @@
         <tr r="A195" s="70"/>
       </tp>
       <tp>
-        <v>103.8</v>
+        <v>104.15</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWU98 Corp</stp>
@@ -9834,7 +9834,7 @@
         <tr r="A22" s="70"/>
       </tp>
       <tp>
-        <v>102.858</v>
+        <v>102.874</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -9874,7 +9874,7 @@
         <tr r="A277" s="70"/>
       </tp>
       <tp>
-        <v>101.99</v>
+        <v>101.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXEV5 Corp</stp>
@@ -9960,7 +9960,7 @@
         <tr r="G63" s="70"/>
       </tp>
       <tp>
-        <v>102.962</v>
+        <v>103.02800000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAJ93 Corp</stp>
@@ -9970,7 +9970,7 @@
         <tr r="C255" s="70"/>
       </tp>
       <tp>
-        <v>99.914000000000001</v>
+        <v>99.947999999999993</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAM23 Corp</stp>
@@ -10012,7 +10012,7 @@
         <tr r="E213" s="70"/>
       </tp>
       <tp>
-        <v>218.6844482421875</v>
+        <v>218.66957092285156</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -10145,7 +10145,7 @@
         <tr r="E77" s="70"/>
       </tp>
       <tp>
-        <v>104.822</v>
+        <v>104.824</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -10235,7 +10235,7 @@
         <tr r="G87" s="70"/>
       </tp>
       <tp>
-        <v>100.99</v>
+        <v>100.95</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWM07 Corp</stp>
@@ -10678,7 +10678,7 @@
         <tr r="A84" s="70"/>
       </tp>
       <tp>
-        <v>103.3</v>
+        <v>103.35</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3M7 Corp</stp>
@@ -10708,7 +10708,7 @@
         <tr r="C280" s="70"/>
       </tp>
       <tp>
-        <v>111.91200000000001</v>
+        <v>111.905</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAP42 Corp</stp>
@@ -10954,7 +10954,7 @@
         <tr r="F80" s="70"/>
       </tp>
       <tp>
-        <v>2.7233796298636888</v>
+        <v>2.723403999338331</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -11023,7 +11023,7 @@
         <tr r="E175" s="70"/>
       </tp>
       <tp>
-        <v>99.47</v>
+        <v>99.460009999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRCJ6 Corp</stp>
@@ -11054,7 +11054,7 @@
         <tr r="E45" s="70"/>
       </tp>
       <tp>
-        <v>102.29</v>
+        <v>102.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JX0J2 Corp</stp>
@@ -11255,7 +11255,7 @@
         <tr r="I84" s="70"/>
       </tp>
       <tp>
-        <v>3.3243619528246384</v>
+        <v>3.3243856752873895</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -11488,7 +11488,7 @@
         <tr r="C217" s="70"/>
       </tp>
       <tp>
-        <v>124.74</v>
+        <v>125</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWV63 Corp</stp>
@@ -11886,7 +11886,7 @@
         <tr r="E20" s="70"/>
       </tp>
       <tp>
-        <v>100.6</v>
+        <v>100.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWTW3 Corp</stp>
@@ -11918,7 +11918,7 @@
         <tr r="G62" s="70"/>
       </tp>
       <tp>
-        <v>6.9671365402772318</v>
+        <v>6.9679116515121997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QCB68 Corp</stp>
@@ -12166,7 +12166,7 @@
         <tr r="I131" s="70"/>
       </tp>
       <tp>
-        <v>94</v>
+        <v>95</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>COMRLES RX Equity</stp>
@@ -12175,7 +12175,7 @@
         <tr r="C30" s="70"/>
       </tp>
       <tp>
-        <v>102.22</v>
+        <v>102.276</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -12254,7 +12254,7 @@
         <tr r="I73" s="70"/>
       </tp>
       <tp>
-        <v>98.850009999999997</v>
+        <v>98.84</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXFM1 Corp</stp>
@@ -12360,7 +12360,7 @@
         <tr r="F120" s="70"/>
       </tp>
       <tp>
-        <v>116.239</v>
+        <v>116.196</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAQ25 Corp</stp>
@@ -12509,7 +12509,7 @@
         <tr r="D176" s="70"/>
       </tp>
       <tp>
-        <v>6.5984467396426583</v>
+        <v>6.6300342923859512</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0810596832 Corp</stp>
@@ -12582,7 +12582,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>4.164602340903202</v>
+        <v>4.1768135161970772</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -12593,7 +12593,7 @@
         <tr r="F101" s="70"/>
       </tp>
       <tp>
-        <v>5.8130497999999999</v>
+        <v>5.8064948000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0718502007 Corp</stp>
@@ -12624,7 +12624,7 @@
         <tr r="I226" s="70"/>
       </tp>
       <tp>
-        <v>4.2502781000000001</v>
+        <v>4.2432105</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0911599701 Corp</stp>
@@ -12765,7 +12765,7 @@
         <tr r="I159" s="70"/>
       </tp>
       <tp>
-        <v>4.5789932000000002</v>
+        <v>4.5760259999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533922933 Corp</stp>
@@ -12796,7 +12796,7 @@
         <tr r="I211" s="70"/>
       </tp>
       <tp>
-        <v>4.8074043</v>
+        <v>4.7968411</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319822752 Corp</stp>
@@ -12898,7 +12898,7 @@
         <tr r="D272" s="70"/>
       </tp>
       <tp>
-        <v>1.3481896</v>
+        <v>1.3365222999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US515110BF06 Corp</stp>
@@ -12971,7 +12971,7 @@
         <tr r="D124" s="70"/>
       </tp>
       <tp>
-        <v>4.3864261999999998</v>
+        <v>4.3797512999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405766384 Corp</stp>
@@ -13113,7 +13113,7 @@
         <tr r="D271" s="70"/>
       </tp>
       <tp>
-        <v>6.2882244097175946</v>
+        <v>6.2817508268903932</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DE000DB7XHP3 Corp</stp>
@@ -13194,7 +13194,7 @@
         <tr r="I209" s="70"/>
       </tp>
       <tp>
-        <v>6.9121852394655363</v>
+        <v>6.9127769513596258</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1071551474 Corp</stp>
@@ -13255,7 +13255,7 @@
         <tr r="I130" s="70"/>
       </tp>
       <tp>
-        <v>5.1163094999999998</v>
+        <v>5.1107161999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1188073081 Corp</stp>
@@ -13431,7 +13431,7 @@
         <tr r="I180" s="70"/>
       </tp>
       <tp>
-        <v>4.6429308999999996</v>
+        <v>4.6348738000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1433454243 Corp</stp>
@@ -13462,7 +13462,7 @@
         <tr r="F256" s="70"/>
       </tp>
       <tp>
-        <v>6.2267362999999998</v>
+        <v>6.2201332999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -13501,7 +13501,7 @@
         <tr r="C239" s="70"/>
       </tp>
       <tp>
-        <v>2.98</v>
+        <v>2.968</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KPN NA Equity</stp>
@@ -13601,7 +13601,7 @@
         <tr r="D139" s="70"/>
       </tp>
       <tp>
-        <v>4.4827259999999995</v>
+        <v>4.4814166000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1069383856 Corp</stp>
@@ -13642,7 +13642,7 @@
         <tr r="I110" s="70"/>
       </tp>
       <tp>
-        <v>2.2624541000000002</v>
+        <v>2.2617118</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1077629225 Corp</stp>
@@ -13653,7 +13653,7 @@
         <tr r="F220" s="70"/>
       </tp>
       <tp>
-        <v>2.0929237999999999</v>
+        <v>2.093477</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1198002690 Corp</stp>
@@ -13664,7 +13664,7 @@
         <tr r="F186" s="70"/>
       </tp>
       <tp>
-        <v>3.3231601</v>
+        <v>3.3137403000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0588433267 Corp</stp>
@@ -13695,7 +13695,7 @@
         <tr r="D94" s="70"/>
       </tp>
       <tp>
-        <v>165.18</v>
+        <v>165.03</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SBER RX Equity</stp>
@@ -13725,7 +13725,7 @@
         <tr r="F189" s="70"/>
       </tp>
       <tp>
-        <v>9.8103165000000008</v>
+        <v>9.8159779</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -13736,7 +13736,7 @@
         <tr r="F24" s="70"/>
       </tp>
       <tp>
-        <v>3154</v>
+        <v>3157</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RIO LN Equity</stp>
@@ -13836,7 +13836,7 @@
         <tr r="I206" s="70"/>
       </tp>
       <tp>
-        <v>4.0913598000000002</v>
+        <v>4.0876466999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1506500039 Corp</stp>
@@ -13847,7 +13847,7 @@
         <tr r="F278" s="70"/>
       </tp>
       <tp>
-        <v>5.1815080299999998</v>
+        <v>5.1387269700000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1400710726 Corp</stp>
@@ -13868,7 +13868,7 @@
         <tr r="I115" s="70"/>
       </tp>
       <tp>
-        <v>3.4398192000000001</v>
+        <v>3.4338568999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0524610812 Corp</stp>
@@ -13910,7 +13910,7 @@
         <tr r="D62" s="70"/>
       </tp>
       <tp>
-        <v>9.17</v>
+        <v>8.98</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS5F6 Corp</stp>
@@ -13939,7 +13939,7 @@
         <tr r="L195" s="70"/>
       </tp>
       <tp>
-        <v>1.9456645518138929</v>
+        <v>1.9488349356363046</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSN RM Equity</stp>
@@ -14003,7 +14003,7 @@
         <tr r="I280" s="70"/>
       </tp>
       <tp>
-        <v>4.8599934868645471</v>
+        <v>4.8562948210970074</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US456837AE31 Corp</stp>
@@ -14085,7 +14085,7 @@
         <tr r="I129" s="70"/>
       </tp>
       <tp>
-        <v>5.5406158000000003</v>
+        <v>5.5271135000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0979891925 Corp</stp>
@@ -14096,7 +14096,7 @@
         <tr r="F110" s="70"/>
       </tp>
       <tp>
-        <v>26.540656252287285</v>
+        <v>26.493333728335397</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1117280625 Corp</stp>
@@ -14107,7 +14107,7 @@
         <tr r="F129" s="70"/>
       </tp>
       <tp>
-        <v>6.1315685186623057</v>
+        <v>6.1147235341952344</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1513741311 Corp</stp>
@@ -14118,7 +14118,7 @@
         <tr r="F205" s="70"/>
       </tp>
       <tp>
-        <v>3.607247246927908</v>
+        <v>3.6078330316419849</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1032750165 Corp</stp>
@@ -14159,7 +14159,7 @@
         <tr r="I139" s="70"/>
       </tp>
       <tp>
-        <v>4.4148586999999999</v>
+        <v>4.4055567</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0993162683 Corp</stp>
@@ -14208,7 +14208,7 @@
         <tr r="L98" s="70"/>
       </tp>
       <tp>
-        <v>1.7522838774561365</v>
+        <v>1.7434062657986324</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VTBR RX Equity</stp>
@@ -14299,7 +14299,7 @@
         <tr r="I124" s="70"/>
       </tp>
       <tp>
-        <v>4.2831030999999999</v>
+        <v>4.2731136999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0643183220 Corp</stp>
@@ -14320,7 +14320,7 @@
         <tr r="I177" s="70"/>
       </tp>
       <tp>
-        <v>2.6976423999999999</v>
+        <v>2.6896898999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0923472814 Corp</stp>
@@ -14331,7 +14331,7 @@
         <tr r="F200" s="70"/>
       </tp>
       <tp>
-        <v>5.3933385804553078</v>
+        <v>5.3865331833752936</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0191754729 Corp</stp>
@@ -14512,7 +14512,7 @@
         <tr r="I151" s="70"/>
       </tp>
       <tp>
-        <v>4.1162308999999997</v>
+        <v>4.1102673000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848530977 Corp</stp>
@@ -14574,7 +14574,7 @@
         <tr r="F225" s="70"/>
       </tp>
       <tp>
-        <v>4.9559275418409845</v>
+        <v>4.9448815372342008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1085735899 Corp</stp>
@@ -14585,7 +14585,7 @@
         <tr r="F211" s="70"/>
       </tp>
       <tp>
-        <v>4.2079149000000005</v>
+        <v>4.2064944000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1568888777 Corp</stp>
@@ -14687,7 +14687,7 @@
         <tr r="A145" s="70"/>
       </tp>
       <tp>
-        <v>6.6769999999999996E-2</v>
+        <v>6.7110000000000003E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VTBR RX Equity</stp>
@@ -14900,7 +14900,7 @@
         <tr r="F63" s="70"/>
       </tp>
       <tp>
-        <v>2.0390824129141887</v>
+        <v>2.0335536349771224</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -15074,7 +15074,7 @@
         <tr r="L7" s="70"/>
       </tp>
       <tp>
-        <v>5.4556810999999996</v>
+        <v>5.4458057999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319813769 Corp</stp>
@@ -15256,7 +15256,7 @@
         <tr r="C146" s="70"/>
       </tp>
       <tp>
-        <v>24.495000000000001</v>
+        <v>24.414999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RDSA NA Equity</stp>
@@ -15355,7 +15355,7 @@
         <tr r="D278" s="70"/>
       </tp>
       <tp>
-        <v>3.2738214000000001</v>
+        <v>3.2720166000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0779213460 Corp</stp>
@@ -15396,7 +15396,7 @@
         <tr r="D157" s="70"/>
       </tp>
       <tp>
-        <v>16.678535100000001</v>
+        <v>16.669961099999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0925043100 Corp</stp>
@@ -15478,7 +15478,7 @@
         <tr r="F151" s="70"/>
       </tp>
       <tp>
-        <v>9.76</v>
+        <v>9.77</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWDN6 Corp</stp>
@@ -15510,7 +15510,7 @@
         <tr r="F171" s="70"/>
       </tp>
       <tp>
-        <v>10.778491914259146</v>
+        <v>10.78029684351767</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NILSY US Equity</stp>
@@ -15561,7 +15561,7 @@
         <tr r="C241" s="70"/>
       </tp>
       <tp>
-        <v>5.4249547920433994</v>
+        <v>5.4333764553686938</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFLT RX Equity</stp>
@@ -15674,7 +15674,7 @@
         <tr r="D110" s="70"/>
       </tp>
       <tp>
-        <v>1.5000178</v>
+        <v>1.4856815000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0816374663 Corp</stp>
@@ -15685,7 +15685,7 @@
         <tr r="F173" s="70"/>
       </tp>
       <tp>
-        <v>2.9481579999999998</v>
+        <v>2.9421232000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0849020556 Corp</stp>
@@ -15716,7 +15716,7 @@
         <tr r="F155" s="70"/>
       </tp>
       <tp>
-        <v>5.0564204000000004</v>
+        <v>5.0521770999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533921299 Corp</stp>
@@ -15880,7 +15880,7 @@
         <tr r="D284" s="70"/>
       </tp>
       <tp>
-        <v>5.2743463999999998</v>
+        <v>5.2724279999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1508914691 Corp</stp>
@@ -15891,7 +15891,7 @@
         <tr r="F109" s="70"/>
       </tp>
       <tp>
-        <v>4.1652797000000001</v>
+        <v>4.1553364999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0800817073 Corp</stp>
@@ -15902,7 +15902,7 @@
         <tr r="F206" s="70"/>
       </tp>
       <tp>
-        <v>5.2464478999999997</v>
+        <v>5.2386020000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533915721 Corp</stp>
@@ -15913,7 +15913,7 @@
         <tr r="F219" s="70"/>
       </tp>
       <tp>
-        <v>5.0514766</v>
+        <v>5.0468460999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0579851949 Corp</stp>
@@ -15924,7 +15924,7 @@
         <tr r="F115" s="70"/>
       </tp>
       <tp>
-        <v>4.3888571783338994</v>
+        <v>4.3862814008838527</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0867620725 Corp</stp>
@@ -15955,7 +15955,7 @@
         <tr r="I265" s="70"/>
       </tp>
       <tp>
-        <v>4.4544110999999997</v>
+        <v>4.4475550000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1449458915 Corp</stp>
@@ -16016,7 +16016,7 @@
         <tr r="F30" s="70"/>
       </tp>
       <tp>
-        <v>13.027810419114768</v>
+        <v>13.034617896799478</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CHMF RX Equity</stp>
@@ -16027,7 +16027,7 @@
         <tr r="F160" s="70"/>
       </tp>
       <tp>
-        <v>6.8441552954270994</v>
+        <v>6.8659691006927828</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RDSA NA Equity</stp>
@@ -16076,7 +16076,7 @@
         <tr r="L9" s="70"/>
       </tp>
       <tp>
-        <v>3.6324010170722851</v>
+        <v>3.6357025995273586</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SBER RX Equity</stp>
@@ -16129,7 +16129,7 @@
         <tr r="F177" s="70"/>
       </tp>
       <tp>
-        <v>7.0404765999999999</v>
+        <v>7.0174789999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USN54468AF52 Corp</stp>
@@ -16190,7 +16190,7 @@
         <tr r="D159" s="70"/>
       </tp>
       <tp>
-        <v>5.0734811999999998</v>
+        <v>5.0649522999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405775377 Corp</stp>
@@ -16211,7 +16211,7 @@
         <tr r="I111" s="70"/>
       </tp>
       <tp>
-        <v>3.3114221000000001</v>
+        <v>3.3008071999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0555493203 Corp</stp>
@@ -16322,7 +16322,7 @@
         <tr r="E234" s="70"/>
       </tp>
       <tp>
-        <v>1073</v>
+        <v>1064.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AAL LN Equity</stp>
@@ -16343,7 +16343,7 @@
         <tr r="A131" s="70"/>
       </tp>
       <tp>
-        <v>307.35000000000002</v>
+        <v>306.85000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSN RM Equity</stp>
@@ -16352,7 +16352,7 @@
         <tr r="C123" s="70"/>
       </tp>
       <tp>
-        <v>139.30000000000001</v>
+        <v>138.80000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VOW3 GY Equity</stp>
@@ -16579,7 +16579,7 @@
         <tr r="D67" s="70"/>
       </tp>
       <tp>
-        <v>7.52</v>
+        <v>7.54</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -16642,7 +16642,7 @@
         <tr r="A204" s="70"/>
       </tp>
       <tp>
-        <v>101.62</v>
+        <v>101.23</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MOEX RM Equity</stp>
@@ -16651,7 +16651,7 @@
         <tr r="C103" s="70"/>
       </tp>
       <tp>
-        <v>3.7865609806717639</v>
+        <v>3.785854334972282</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>IHYG LN Equity</stp>
@@ -16673,7 +16673,7 @@
         <tr r="D266" s="70"/>
       </tp>
       <tp>
-        <v>7.675654398740404</v>
+        <v>7.7052257235997237</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MOEX RM Equity</stp>
@@ -16736,7 +16736,7 @@
         <tr r="L2" s="70"/>
       </tp>
       <tp>
-        <v>19.965</v>
+        <v>19.844999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AD NA Equity</stp>
@@ -16756,7 +16756,7 @@
         <tr r="F244" s="70"/>
       </tp>
       <tp>
-        <v>678.1</v>
+        <v>686.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NVTK RX Equity</stp>
@@ -16839,7 +16839,7 @@
         <tr r="L213" s="70"/>
       </tp>
       <tp>
-        <v>1.8377602297200286</v>
+        <v>1.844380403458213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>VOW3 GY Equity</stp>
@@ -16850,7 +16850,7 @@
         <tr r="F267" s="70"/>
       </tp>
       <tp>
-        <v>2.6361789029334521</v>
+        <v>2.6349798961981743</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AAXJ US Equity</stp>
@@ -17201,7 +17201,7 @@
         <tr r="F258" s="70"/>
       </tp>
       <tp>
-        <v>26.99</v>
+        <v>26.92</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MAIL LI Equity</stp>
@@ -17293,7 +17293,7 @@
         <tr r="G154" s="70"/>
       </tp>
       <tp>
-        <v>10.050000000000001</v>
+        <v>10.02</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW1P8 Corp</stp>
@@ -17304,7 +17304,7 @@
         <tr r="F94" s="70"/>
       </tp>
       <tp>
-        <v>9.83</v>
+        <v>9.82</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9T5 Corp</stp>
@@ -17496,7 +17496,7 @@
         <tr r="D3" s="70"/>
       </tp>
       <tp>
-        <v>2.7577053531927445</v>
+        <v>2.722772277227723</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NVTK RX Equity</stp>
@@ -17528,7 +17528,7 @@
         <tr r="F91" s="70"/>
       </tp>
       <tp>
-        <v>50.04</v>
+        <v>50.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOD LI Equity</stp>
@@ -17927,7 +17927,7 @@
         <tr r="C245" s="70"/>
       </tp>
       <tp>
-        <v>7.0922759309025807</v>
+        <v>7.0585473731351227</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOD LI Equity</stp>
@@ -18097,7 +18097,7 @@
         <tr r="D63" s="70"/>
       </tp>
       <tp>
-        <v>5.1833079</v>
+        <v>5.1779709</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -18198,7 +18198,7 @@
         <tr r="A171" s="70"/>
       </tp>
       <tp>
-        <v>38.4</v>
+        <v>38.49</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>FIVE LI Equity</stp>
@@ -18327,7 +18327,7 @@
         <tr r="G263" s="70"/>
       </tp>
       <tp>
-        <v>4.4058298000000002</v>
+        <v>4.4003081000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -18338,7 +18338,7 @@
         <tr r="F8" s="70"/>
       </tp>
       <tp>
-        <v>5.5782379999999998</v>
+        <v>5.5836543000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -18349,7 +18349,7 @@
         <tr r="F3" s="70"/>
       </tp>
       <tp>
-        <v>8.4600000000000009</v>
+        <v>8.4499999999999993</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -18640,7 +18640,7 @@
         <tr r="L153" s="70"/>
       </tp>
       <tp>
-        <v>107.99</v>
+        <v>107.64</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CSX5 LN Equity</stp>
@@ -18661,7 +18661,7 @@
         <tr r="A282" s="70"/>
       </tp>
       <tp>
-        <v>193.55</v>
+        <v>193.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFLT RX Equity</stp>
@@ -18775,7 +18775,7 @@
         <tr r="L196" s="70"/>
       </tp>
       <tp>
-        <v>765.8</v>
+        <v>765.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CHMF RX Equity</stp>
@@ -18953,7 +18953,7 @@
         <tr r="F150" s="70"/>
       </tp>
       <tp>
-        <v>107.15</v>
+        <v>107.17</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>IHYG LN Equity</stp>
@@ -19058,7 +19058,7 @@
         <tr r="L6" s="70"/>
       </tp>
       <tp>
-        <v>8.9499999999999993</v>
+        <v>8.94</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWWW7 Corp</stp>
@@ -19610,7 +19610,7 @@
         <tr r="E160" s="70"/>
       </tp>
       <tp>
-        <v>28.535394668579102</v>
+        <v>28.53472900390625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RDSA NA Equity</stp>
@@ -19621,7 +19621,7 @@
         <tr r="E187" s="70"/>
       </tp>
       <tp>
-        <v>516</v>
+        <v>512</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SVAV RX Equity</stp>
@@ -19705,7 +19705,7 @@
         <tr r="G153" s="70"/>
       </tp>
       <tp>
-        <v>7.7916999999999996</v>
+        <v>7.7912999999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USDHKD Curncy</stp>
@@ -19734,7 +19734,7 @@
         <tr r="D5" s="70"/>
       </tp>
       <tp>
-        <v>56.348399999999998</v>
+        <v>56.322000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USDRUB Curncy</stp>
@@ -19761,7 +19761,7 @@
         <tr r="L124" s="70"/>
       </tp>
       <tp>
-        <v>3.2957222000000002</v>
+        <v>3.287693</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EJ644860     Corp</stp>
@@ -20175,7 +20175,7 @@
         <tr r="L220" s="70"/>
       </tp>
       <tp>
-        <v>89.56</v>
+        <v>89.67</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -20650,7 +20650,7 @@
         <tr r="L278" s="70"/>
       </tp>
       <tp>
-        <v>7.44</v>
+        <v>7.53</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NMTP RX Equity</stp>
@@ -20698,7 +20698,7 @@
         <tr r="L132" s="70"/>
       </tp>
       <tp>
-        <v>10.489207726937753</v>
+        <v>10.342943874171688</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NMTP RX Equity</stp>
@@ -20967,7 +20967,7 @@
         <tr r="I57" s="70"/>
       </tp>
       <tp>
-        <v>1025</v>
+        <v>1026</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -20985,7 +20985,7 @@
         <tr r="L280" s="70"/>
       </tp>
       <tp>
-        <v>6.9750000000000006E-2</v>
+        <v>6.9599999999999995E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MRKV RM Equity</stp>
@@ -21031,7 +21031,7 @@
         <tr r="L226" s="70"/>
       </tp>
       <tp>
-        <v>10.899146004742741</v>
+        <v>10.92261868099129</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MRKV RM Equity</stp>
@@ -21200,7 +21200,7 @@
         <tr r="I185" s="70"/>
       </tp>
       <tp>
-        <v>5.1363741000000003</v>
+        <v>5.1277214000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QCB68 Corp</stp>
@@ -21243,7 +21243,7 @@
         <tr r="D90" s="70"/>
       </tp>
       <tp>
-        <v>9334</v>
+        <v>9362</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -21281,7 +21281,7 @@
         <tr r="G147" s="70"/>
       </tp>
       <tp>
-        <v>11.94</v>
+        <v>11.965</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -21415,7 +21415,7 @@
         <tr r="L163" s="70"/>
       </tp>
       <tp>
-        <v>1236</v>
+        <v>1235</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -21942,7 +21942,7 @@
         <tr r="E29" s="70"/>
       </tp>
       <tp>
-        <v>121.54</v>
+        <v>121.72</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -21960,7 +21960,7 @@
         <tr r="L243" s="70"/>
       </tp>
       <tp>
-        <v>6.8308700285913124</v>
+        <v>6.9217967511016791</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -21971,7 +21971,7 @@
         <tr r="F32" s="70"/>
       </tp>
       <tp>
-        <v>29.425000000000001</v>
+        <v>29.504999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SNGSP RM Equity</stp>
@@ -21980,7 +21980,7 @@
         <tr r="C92" s="70"/>
       </tp>
       <tp>
-        <v>152.25</v>
+        <v>150.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>HGM LN Equity</stp>
@@ -22060,7 +22060,7 @@
         <tr r="L191" s="70"/>
       </tp>
       <tp>
-        <v>4.8124935000000004</v>
+        <v>4.8100676</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USP989MJBG51 Corp</stp>
@@ -22082,7 +22082,7 @@
         <tr r="G204" s="70"/>
       </tp>
       <tp>
-        <v>3.6243094484669944</v>
+        <v>3.6203091069123952</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
@@ -22113,7 +22113,7 @@
         <tr r="A28" s="70"/>
       </tp>
       <tp>
-        <v>271.5</v>
+        <v>271.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RUALR RX Equity</stp>
@@ -22173,7 +22173,7 @@
         <tr r="D61" s="70"/>
       </tp>
       <tp>
-        <v>120.88</v>
+        <v>120.99</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PHAU LN Equity</stp>
@@ -22212,7 +22212,7 @@
         <tr r="L82" s="70"/>
       </tp>
       <tp>
-        <v>3.8631001</v>
+        <v>3.8573211999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71654QBB77 Corp</stp>
@@ -22232,7 +22232,7 @@
         <tr r="L27" s="70"/>
       </tp>
       <tp>
-        <v>917.5</v>
+        <v>916.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -22396,7 +22396,7 @@
         <tr r="F76" s="70"/>
       </tp>
       <tp>
-        <v>2818</v>
+        <v>2832.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -22444,7 +22444,7 @@
         <tr r="E145" s="70"/>
       </tp>
       <tp>
-        <v>201.2</v>
+        <v>202.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -22515,7 +22515,7 @@
         <tr r="F210" s="70"/>
       </tp>
       <tp>
-        <v>9.4700000000000006</v>
+        <v>9.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTM28 Corp</stp>
@@ -22526,7 +22526,7 @@
         <tr r="F71" s="70"/>
       </tp>
       <tp>
-        <v>4.2649999999999997</v>
+        <v>4.2690000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -22597,7 +22597,7 @@
         <tr r="D93" s="70"/>
       </tp>
       <tp>
-        <v>24.07</v>
+        <v>24.02</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNCP RM Equity</stp>
@@ -22617,7 +22617,7 @@
         <tr r="G170" s="70"/>
       </tp>
       <tp>
-        <v>2.5099999999999998</v>
+        <v>2.5129999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -22740,7 +22740,7 @@
         <tr r="F102" s="70"/>
       </tp>
       <tp>
-        <v>9.9</v>
+        <v>10.050000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVKK9 Corp</stp>
@@ -22751,7 +22751,7 @@
         <tr r="F203" s="70"/>
       </tp>
       <tp>
-        <v>9.59</v>
+        <v>9.92</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRKD2 Corp</stp>
@@ -22814,7 +22814,7 @@
         <tr r="C1" s="70"/>
       </tp>
       <tp>
-        <v>10.27</v>
+        <v>10.37</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWB75 Corp</stp>
@@ -22904,7 +22904,7 @@
         <tr r="E147" s="70"/>
       </tp>
       <tp>
-        <v>17.669531996179561</v>
+        <v>17.703349282296653</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
@@ -22933,7 +22933,7 @@
         <tr r="L275" s="70"/>
       </tp>
       <tp>
-        <v>104.7</v>
+        <v>104.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>PRTK RX Equity</stp>
@@ -22942,7 +22942,7 @@
         <tr r="C57" s="70"/>
       </tp>
       <tp>
-        <v>5.9722150000000003</v>
+        <v>5.9665305599999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0981028177 Corp</stp>
@@ -23014,7 +23014,7 @@
         <tr r="D184" s="70"/>
       </tp>
       <tp>
-        <v>6.2517402000000004</v>
+        <v>6.2417549000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAG54 Corp</stp>
@@ -23066,7 +23066,7 @@
         <tr r="F202" s="70"/>
       </tp>
       <tp>
-        <v>9.98</v>
+        <v>9.6199999999999992</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKM9 Corp</stp>
@@ -23127,7 +23127,7 @@
         <tr r="L95" s="70"/>
       </tp>
       <tp>
-        <v>4.1298668999999997</v>
+        <v>4.1222113</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0808638612 Corp</stp>
@@ -23138,7 +23138,7 @@
         <tr r="F22" s="70"/>
       </tp>
       <tp>
-        <v>26.583667610816519</v>
+        <v>26.668746934419563</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0493579238 Corp</stp>
@@ -23190,7 +23190,7 @@
         <tr r="I201" s="70"/>
       </tp>
       <tp>
-        <v>2.5953630602577284</v>
+        <v>2.5991608447872152</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG2440JAE58 Corp</stp>
@@ -23201,7 +23201,7 @@
         <tr r="F236" s="70"/>
       </tp>
       <tp>
-        <v>5.3906811000000001</v>
+        <v>5.3896598000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAF69 Corp</stp>
@@ -23223,7 +23223,7 @@
         <tr r="F118" s="70"/>
       </tp>
       <tp>
-        <v>9.94</v>
+        <v>9.9499999999999993</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU5S5 Corp</stp>
@@ -23316,7 +23316,7 @@
         <tr r="A52" s="70"/>
       </tp>
       <tp>
-        <v>1.6042780390079008</v>
+        <v>1.6150739881263927</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -23327,7 +23327,7 @@
         <tr r="F14" s="70"/>
       </tp>
       <tp>
-        <v>3.74</v>
+        <v>3.7149999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ETLN LI Equity</stp>
@@ -23358,7 +23358,7 @@
         <tr r="A15" s="70"/>
       </tp>
       <tp>
-        <v>80.290000000000006</v>
+        <v>80.400000000000006</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -23376,7 +23376,7 @@
         <tr r="L70" s="70"/>
       </tp>
       <tp>
-        <v>4.3065461000000003</v>
+        <v>4.3028319000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0997544860 Corp</stp>
@@ -23398,7 +23398,7 @@
         <tr r="A60" s="70"/>
       </tp>
       <tp>
-        <v>4.0956086999999997</v>
+        <v>4.0906874000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0547082973 Corp</stp>
@@ -23460,7 +23460,7 @@
         <tr r="I120" s="70"/>
       </tp>
       <tp>
-        <v>1.72539419</v>
+        <v>1.3635125699999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71656MAF68 Corp</stp>
@@ -23492,7 +23492,7 @@
         <tr r="F185" s="70"/>
       </tp>
       <tp>
-        <v>13.3</v>
+        <v>9.2799999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JVP05 Corp</stp>
@@ -23544,7 +23544,7 @@
         <tr r="L77" s="70"/>
       </tp>
       <tp>
-        <v>11.24</v>
+        <v>11.22</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -23563,7 +23563,7 @@
         <tr r="G237" s="70"/>
       </tp>
       <tp>
-        <v>8338</v>
+        <v>8318</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -23572,7 +23572,7 @@
         <tr r="C47" s="70"/>
       </tp>
       <tp>
-        <v>7.2432916571661243</v>
+        <v>7.2562030504944062</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON LI Equity</stp>
@@ -23614,7 +23614,7 @@
         <tr r="G131" s="70"/>
       </tp>
       <tp>
-        <v>4.9012051999999997</v>
+        <v>4.8964540000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0842078536 Corp</stp>
@@ -23718,7 +23718,7 @@
         <tr r="I39" s="70"/>
       </tp>
       <tp>
-        <v>9.36</v>
+        <v>9.3800000000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS6N8 Corp</stp>
@@ -23751,7 +23751,7 @@
         <tr r="I268" s="70"/>
       </tp>
       <tp>
-        <v>4.8115959000000004</v>
+        <v>4.8133835999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71645WAR25 Corp</stp>
@@ -23831,7 +23831,7 @@
         <tr r="A50" s="70"/>
       </tp>
       <tp>
-        <v>5.6937576243371684</v>
+        <v>5.7023976207322162</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KCEL LI Equity</stp>
@@ -23851,7 +23851,7 @@
         <tr r="C87" s="70"/>
       </tp>
       <tp>
-        <v>104</v>
+        <v>103.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AQUA RM Equity</stp>
@@ -23860,7 +23860,7 @@
         <tr r="C29" s="70"/>
       </tp>
       <tp>
-        <v>2.8259902731431632</v>
+        <v>2.8076098486023948</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TGKA RX Equity</stp>
@@ -23871,7 +23871,7 @@
         <tr r="F59" s="70"/>
       </tp>
       <tp>
-        <v>1.222E-2</v>
+        <v>1.23E-2</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TGKA RX Equity</stp>
@@ -24121,7 +24121,7 @@
         <tr r="D102" s="70"/>
       </tp>
       <tp>
-        <v>5.7401831999999997</v>
+        <v>5.7429221999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAM11 Corp</stp>
@@ -24132,7 +24132,7 @@
         <tr r="F274" s="70"/>
       </tp>
       <tp>
-        <v>10.210000000000001</v>
+        <v>10.31</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXJE0 Corp</stp>
@@ -24154,7 +24154,7 @@
         <tr r="F196" s="70"/>
       </tp>
       <tp>
-        <v>8.81</v>
+        <v>8.8000000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JV7K7 Corp</stp>
@@ -24248,7 +24248,7 @@
         <tr r="G10" s="70"/>
       </tp>
       <tp>
-        <v>610.5</v>
+        <v>611.29999999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -24257,7 +24257,7 @@
         <tr r="C18" s="70"/>
       </tp>
       <tp>
-        <v>1.654846260545759</v>
+        <v>1.6522422538415171</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -24279,7 +24279,7 @@
         <tr r="A19" s="70"/>
       </tp>
       <tp>
-        <v>10.565110565110565</v>
+        <v>10.551284148535908</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MFON RX Equity</stp>
@@ -24290,7 +24290,7 @@
         <tr r="F18" s="70"/>
       </tp>
       <tp>
-        <v>63.45</v>
+        <v>63.55</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BSPB RX Equity</stp>
@@ -24299,7 +24299,7 @@
         <tr r="C44" s="70"/>
       </tp>
       <tp>
-        <v>2895</v>
+        <v>2900</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -24318,7 +24318,7 @@
         <tr r="F30" s="70"/>
       </tp>
       <tp>
-        <v>3.9073570649048914</v>
+        <v>3.8957195931021684</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0830192711 Corp</stp>
@@ -24424,7 +24424,7 @@
         <tr r="G210" s="70"/>
       </tp>
       <tp>
-        <v>6.3930425</v>
+        <v>6.3844069000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAM23 Corp</stp>
@@ -24435,7 +24435,7 @@
         <tr r="F235" s="70"/>
       </tp>
       <tp>
-        <v>6.5205176308694304</v>
+        <v>6.5072921097398666</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USG9328DAJ93 Corp</stp>
@@ -24666,7 +24666,7 @@
         <tr r="F197" s="70"/>
       </tp>
       <tp>
-        <v>7.72</v>
+        <v>7.73</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWM07 Corp</stp>
@@ -24814,7 +24814,7 @@
         <tr r="I40" s="70"/>
       </tp>
       <tp>
-        <v>5.0346504000000003</v>
+        <v>5.0364829000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAP42 Corp</stp>
@@ -24845,7 +24845,7 @@
         <tr r="I52" s="70"/>
       </tp>
       <tp>
-        <v>11.48</v>
+        <v>11.46</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JXQ93 Corp</stp>
@@ -24856,7 +24856,7 @@
         <tr r="F280" s="70"/>
       </tp>
       <tp>
-        <v>9.6199999999999992</v>
+        <v>18.86</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3M7 Corp</stp>
@@ -25007,7 +25007,7 @@
         <tr r="F54" s="70"/>
       </tp>
       <tp>
-        <v>4.2984749588079483</v>
+        <v>4.2981544006174985</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0975320879 Corp</stp>
@@ -25141,7 +25141,7 @@
         <tr r="F116" s="70"/>
       </tp>
       <tp>
-        <v>8.2799999999999994</v>
+        <v>8.27</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JRCJ6 Corp</stp>
@@ -25318,7 +25318,7 @@
         <tr r="D119" s="70"/>
       </tp>
       <tp>
-        <v>10.44</v>
+        <v>10.42</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWV63 Corp</stp>
@@ -25340,7 +25340,7 @@
         <tr r="F217" s="70"/>
       </tp>
       <tp>
-        <v>9.41</v>
+        <v>9.5299999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWU98 Corp</stp>
@@ -25378,7 +25378,7 @@
         <tr r="L78" s="70"/>
       </tp>
       <tp>
-        <v>53.2</v>
+        <v>52.3</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>NKNC RM Equity</stp>
@@ -25428,7 +25428,7 @@
         <tr r="G244" s="70"/>
       </tp>
       <tp>
-        <v>141.4</v>
+        <v>141.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>URKA RX Equity</stp>
@@ -25437,7 +25437,7 @@
         <tr r="C60" s="70"/>
       </tp>
       <tp>
-        <v>17.75</v>
+        <v>17.8</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -25539,7 +25539,7 @@
         <tr r="I45" s="70"/>
       </tp>
       <tp>
-        <v>9.9</v>
+        <v>10.15</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWTW3 Corp</stp>
@@ -25603,7 +25603,7 @@
         <tr r="E105" s="70"/>
       </tp>
       <tp>
-        <v>3.8165041999999998</v>
+        <v>3.8106895000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0918604496 Corp</stp>
@@ -25687,7 +25687,7 @@
         <tr r="D185" s="70"/>
       </tp>
       <tp>
-        <v>6.3493179</v>
+        <v>6.3551609999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US71647NAQ25 Corp</stp>
@@ -25865,7 +25865,7 @@
         <tr r="E137" s="70"/>
       </tp>
       <tp>
-        <v>106.61799999999999</v>
+        <v>106.637</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0911599701 Corp</stp>
@@ -25916,7 +25916,7 @@
         <tr r="E264" s="70"/>
       </tp>
       <tp>
-        <v>103.09</v>
+        <v>103.14100000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0718502007 Corp</stp>
@@ -25926,7 +25926,7 @@
         <tr r="C222" s="70"/>
       </tp>
       <tp>
-        <v>103.248</v>
+        <v>103.238</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -25967,7 +25967,7 @@
         <tr r="F51" s="70"/>
       </tp>
       <tp>
-        <v>113.235</v>
+        <v>113.08</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0810596832 Corp</stp>
@@ -26136,7 +26136,7 @@
         <tr r="A209" s="70"/>
       </tp>
       <tp>
-        <v>3.9352428393524286</v>
+        <v>3.9303482587064673</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>TRMK RX Equity</stp>
@@ -26360,7 +26360,7 @@
         <tr r="G69" s="70"/>
       </tp>
       <tp>
-        <v>100.673</v>
+        <v>100.688</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US515110BF06 Corp</stp>
@@ -26391,7 +26391,7 @@
         <tr r="I69" s="70"/>
       </tp>
       <tp>
-        <v>4.4233177649402391</v>
+        <v>4.4180372423398335</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>UPRO RX Equity</stp>
@@ -26421,7 +26421,7 @@
         <tr r="F54" s="70"/>
       </tp>
       <tp>
-        <v>103.32</v>
+        <v>103.334</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533922933 Corp</stp>
@@ -26440,7 +26440,7 @@
         <tr r="C179" s="70"/>
       </tp>
       <tp>
-        <v>111.42</v>
+        <v>111.458</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319822752 Corp</stp>
@@ -26639,7 +26639,7 @@
         <tr r="A73" s="70"/>
       </tp>
       <tp>
-        <v>95.850009999999997</v>
+        <v>95.84</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -26648,7 +26648,7 @@
         <tr r="C97" s="70"/>
       </tp>
       <tp>
-        <v>2.2006294709965353</v>
+        <v>2.2006626486383585</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWWW7 Corp</stp>
@@ -26760,7 +26760,7 @@
         <tr r="G68" s="70"/>
       </tp>
       <tp>
-        <v>98.799000000000007</v>
+        <v>98.825000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DE000DB7XHP3 Corp</stp>
@@ -26803,7 +26803,7 @@
         <tr r="E181" s="70"/>
       </tp>
       <tp>
-        <v>101.34099999999999</v>
+        <v>101.37</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405766384 Corp</stp>
@@ -26948,7 +26948,7 @@
         <tr r="F143" s="70"/>
       </tp>
       <tp>
-        <v>95.73</v>
+        <v>95.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CH0355509487 Corp</stp>
@@ -26996,7 +26996,7 @@
         <tr r="E203" s="70"/>
       </tp>
       <tp>
-        <v>105.178</v>
+        <v>105.19499999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -27068,7 +27068,7 @@
         <tr r="E101" s="70"/>
       </tp>
       <tp>
-        <v>94.134</v>
+        <v>94.117999999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -27139,7 +27139,7 @@
         <tr r="D131" s="70"/>
       </tp>
       <tp>
-        <v>98.772999999999996</v>
+        <v>98.792000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1188073081 Corp</stp>
@@ -27182,7 +27182,7 @@
         <tr r="E257" s="70"/>
       </tp>
       <tp>
-        <v>98.287000000000006</v>
+        <v>98.286000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1071551474 Corp</stp>
@@ -27308,7 +27308,7 @@
         <tr r="E220" s="70"/>
       </tp>
       <tp>
-        <v>6.5654306006581837</v>
+        <v>6.5627493044149716</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>OGZD LI Equity</stp>
@@ -27534,7 +27534,7 @@
         <tr r="C256" s="70"/>
       </tp>
       <tp>
-        <v>103.818</v>
+        <v>103.861</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1433454243 Corp</stp>
@@ -27761,7 +27761,7 @@
         <tr r="E155" s="70"/>
       </tp>
       <tp>
-        <v>111.256</v>
+        <v>111.291</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0588433267 Corp</stp>
@@ -27770,7 +27770,7 @@
         <tr r="C136" s="70"/>
       </tp>
       <tp>
-        <v>106.044</v>
+        <v>106.04300000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1198002690 Corp</stp>
@@ -27780,7 +27780,7 @@
         <tr r="C186" s="70"/>
       </tp>
       <tp>
-        <v>102.453</v>
+        <v>102.45399999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1077629225 Corp</stp>
@@ -27799,7 +27799,7 @@
         <tr r="C263" s="70"/>
       </tp>
       <tp>
-        <v>100.508</v>
+        <v>100.511</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1069383856 Corp</stp>
@@ -27953,7 +27953,7 @@
         <tr r="H69" s="70"/>
       </tp>
       <tp>
-        <v>0.66983012403781783</v>
+        <v>0.6698306660307336</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -28005,7 +28005,7 @@
         <tr r="D241" s="70"/>
       </tp>
       <tp>
-        <v>103.015</v>
+        <v>103.02800000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US456837AE31 Corp</stp>
@@ -28034,7 +28034,7 @@
         <tr r="C209" s="70"/>
       </tp>
       <tp>
-        <v>102.604</v>
+        <v>102.613</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1506500039 Corp</stp>
@@ -28044,7 +28044,7 @@
         <tr r="C278" s="70"/>
       </tp>
       <tp>
-        <v>110.03100000000001</v>
+        <v>110.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1400710726 Corp</stp>
@@ -28053,7 +28053,7 @@
         <tr r="C107" s="70"/>
       </tp>
       <tp>
-        <v>110.119</v>
+        <v>110.137</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0524610812 Corp</stp>
@@ -28158,7 +28158,7 @@
         <tr r="A261" s="70"/>
       </tp>
       <tp>
-        <v>97.9</v>
+        <v>97.97</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CH0361710632 Corp</stp>
@@ -28428,7 +28428,7 @@
         <tr r="A243" s="70"/>
       </tp>
       <tp>
-        <v>108.518</v>
+        <v>108.572</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0993162683 Corp</stp>
@@ -28438,7 +28438,7 @@
         <tr r="C279" s="70"/>
       </tp>
       <tp>
-        <v>107.542</v>
+        <v>107.613</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1513741311 Corp</stp>
@@ -28448,7 +28448,7 @@
         <tr r="C205" s="70"/>
       </tp>
       <tp>
-        <v>66.421999999999997</v>
+        <v>66.512</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1117280625 Corp</stp>
@@ -28457,7 +28457,7 @@
         <tr r="C129" s="70"/>
       </tp>
       <tp>
-        <v>103.157</v>
+        <v>103.15</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1032750165 Corp</stp>
@@ -28466,7 +28466,7 @@
         <tr r="C125" s="70"/>
       </tp>
       <tp>
-        <v>115.708</v>
+        <v>115.786</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0979891925 Corp</stp>
@@ -28849,7 +28849,7 @@
         <tr r="A177" s="70"/>
       </tp>
       <tp>
-        <v>8.5013623978201647</v>
+        <v>8.5152838427947604</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LSRG RX Equity</stp>
@@ -28870,7 +28870,7 @@
         <tr r="F264" s="70"/>
       </tp>
       <tp>
-        <v>135.55000000000001</v>
+        <v>135.642</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0191754729 Corp</stp>
@@ -28889,7 +28889,7 @@
         <tr r="F157" s="70"/>
       </tp>
       <tp>
-        <v>103.375</v>
+        <v>103.38200000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0923472814 Corp</stp>
@@ -28899,7 +28899,7 @@
         <tr r="C200" s="70"/>
       </tp>
       <tp>
-        <v>113.71</v>
+        <v>113.756</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0643183220 Corp</stp>
@@ -29049,7 +29049,7 @@
         <tr r="F132" s="70"/>
       </tp>
       <tp>
-        <v>5.6250597868225736</v>
+        <v>5.6223164527598239</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RIO LN Equity</stp>
@@ -29111,7 +29111,7 @@
         <tr r="L44" s="70"/>
       </tp>
       <tp>
-        <v>1.437293445819283</v>
+        <v>1.4372848926516979</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -29132,7 +29132,7 @@
         <tr r="E8" s="70"/>
       </tp>
       <tp>
-        <v>5.2243575195307246</v>
+        <v>5.2244863873271044</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -29183,7 +29183,7 @@
         <tr r="G98" s="70"/>
       </tp>
       <tp>
-        <v>101.02800000000001</v>
+        <v>101.09699999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1085735899 Corp</stp>
@@ -29193,7 +29193,7 @@
         <tr r="C211" s="70"/>
       </tp>
       <tp>
-        <v>105.649</v>
+        <v>105.661</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1568888777 Corp</stp>
@@ -29203,7 +29203,7 @@
         <tr r="C221" s="70"/>
       </tp>
       <tp>
-        <v>104.84699999999999</v>
+        <v>104.877</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848530977 Corp</stp>
@@ -29370,7 +29370,7 @@
         <tr r="E2" s="70"/>
       </tp>
       <tp>
-        <v>3.7026802971917756</v>
+        <v>3.7027337504362512</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -29545,7 +29545,7 @@
         <tr r="E143" s="70"/>
       </tp>
       <tp>
-        <v>94.65</v>
+        <v>94.7</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>CH0359143119 Corp</stp>
@@ -29597,7 +29597,7 @@
         <tr r="F256" s="70"/>
       </tp>
       <tp>
-        <v>2.8755522618644838</v>
+        <v>2.8998555012743705</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AAL LN Equity</stp>
@@ -29691,7 +29691,7 @@
         <tr r="E276" s="70"/>
       </tp>
       <tp>
-        <v>105.68</v>
+        <v>105.51</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWDN6 Corp</stp>
@@ -29768,7 +29768,7 @@
         <tr r="E206" s="70"/>
       </tp>
       <tp>
-        <v>159</v>
+        <v>158</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>URM7C 59000 Curncy</stp>
@@ -29788,7 +29788,7 @@
         <tr r="F257" s="70"/>
       </tp>
       <tp>
-        <v>105.742</v>
+        <v>105.783</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319813769 Corp</stp>
@@ -30005,7 +30005,7 @@
         <tr r="E184" s="70"/>
       </tp>
       <tp>
-        <v>0.56332634559073325</v>
+        <v>0.56332973956895249</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JW1P8 Corp</stp>
@@ -30015,7 +30015,7 @@
         <tr r="H94" s="70"/>
       </tp>
       <tp>
-        <v>0.93360033901019379</v>
+        <v>0.93360085164576256</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JU9T5 Corp</stp>
@@ -30138,7 +30138,7 @@
         <tr r="A176" s="70"/>
       </tp>
       <tp>
-        <v>78.257999999999996</v>
+        <v>78.274000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0925043100 Corp</stp>
@@ -30168,7 +30168,7 @@
         <tr r="E156" s="70"/>
       </tp>
       <tp>
-        <v>107.35599999999999</v>
+        <v>107.36</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0779213460 Corp</stp>
@@ -30479,7 +30479,7 @@
         <tr r="L88" s="70"/>
       </tp>
       <tp>
-        <v>100.27500000000001</v>
+        <v>100.292</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533921299 Corp</stp>
@@ -30499,7 +30499,7 @@
         <tr r="G25" s="70"/>
       </tp>
       <tp>
-        <v>101.06100000000001</v>
+        <v>101.066</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0849020556 Corp</stp>
@@ -30508,7 +30508,7 @@
         <tr r="C133" s="70"/>
       </tp>
       <tp>
-        <v>100.268</v>
+        <v>100.298</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0816374663 Corp</stp>
@@ -30715,7 +30715,7 @@
         <tr r="D149" s="70"/>
       </tp>
       <tp>
-        <v>103.30800000000001</v>
+        <v>103.389</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USN54468AF52 Corp</stp>
@@ -30743,7 +30743,7 @@
         <tr r="L30" s="70"/>
       </tp>
       <tp>
-        <v>105.587</v>
+        <v>105.613</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1449458915 Corp</stp>
@@ -30753,7 +30753,7 @@
         <tr r="C208" s="70"/>
       </tp>
       <tp>
-        <v>100.872</v>
+        <v>100.88</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1508914691 Corp</stp>
@@ -30762,7 +30762,7 @@
         <tr r="C109" s="70"/>
       </tp>
       <tp>
-        <v>102.298</v>
+        <v>102.313</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0579851949 Corp</stp>
@@ -30771,7 +30771,7 @@
         <tr r="C115" s="70"/>
       </tp>
       <tp>
-        <v>108.289</v>
+        <v>108.298</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0867620725 Corp</stp>
@@ -30781,7 +30781,7 @@
         <tr r="C253" s="70"/>
       </tp>
       <tp>
-        <v>100.628</v>
+        <v>100.667</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533915721 Corp</stp>
@@ -30791,7 +30791,7 @@
         <tr r="C219" s="70"/>
       </tp>
       <tp>
-        <v>108.45699999999999</v>
+        <v>108.505</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0800817073 Corp</stp>
@@ -30917,7 +30917,7 @@
         <tr r="A127" s="70"/>
       </tp>
       <tp>
-        <v>90.960999999999999</v>
+        <v>90.835999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0GN9A7 Corp</stp>
@@ -30947,7 +30947,7 @@
         <tr r="F98" s="70"/>
       </tp>
       <tp>
-        <v>6.8225836932801673</v>
+        <v>6.8211041154835614</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -31000,7 +31000,7 @@
         <tr r="D238" s="70"/>
       </tp>
       <tp>
-        <v>5.2678714728936917</v>
+        <v>5.2651737981837163</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>POLY LN Equity</stp>
@@ -31083,7 +31083,7 @@
         <tr r="F243" s="70"/>
       </tp>
       <tp>
-        <v>106.88</v>
+        <v>106.917</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405775377 Corp</stp>
@@ -31092,7 +31092,7 @@
         <tr r="C139" s="70"/>
       </tp>
       <tp>
-        <v>114.25700000000001</v>
+        <v>114.294</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0555493203 Corp</stp>
@@ -31112,7 +31112,7 @@
         <tr r="E207" s="70"/>
       </tp>
       <tp>
-        <v>11.326860841423949</v>
+        <v>11.336032388663968</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANEP RX Equity</stp>
@@ -31322,7 +31322,7 @@
         <tr r="F190" s="70"/>
       </tp>
       <tp>
-        <v>5.1156837781455593</v>
+        <v>5.1161842756445193</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0979891925 Corp</stp>
@@ -31332,7 +31332,7 @@
         <tr r="H110" s="70"/>
       </tp>
       <tp>
-        <v>3.2617285199732073</v>
+        <v>3.2625227212293995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1117280625 Corp</stp>
@@ -31342,7 +31342,7 @@
         <tr r="H129" s="70"/>
       </tp>
       <tp>
-        <v>3.9558052129677002</v>
+        <v>3.9560956591768277</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1513741311 Corp</stp>
@@ -31362,7 +31362,7 @@
         <tr r="F138" s="70"/>
       </tp>
       <tp>
-        <v>1.6616018443981095</v>
+        <v>1.6615984375873598</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1032750165 Corp</stp>
@@ -31393,7 +31393,7 @@
         <tr r="F169" s="70"/>
       </tp>
       <tp>
-        <v>5.5090190415354279</v>
+        <v>5.5093084560762664</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0993162683 Corp</stp>
@@ -31505,7 +31505,7 @@
         <tr r="A251" s="70"/>
       </tp>
       <tp>
-        <v>2.6686535427038294</v>
+        <v>2.6686694812785854</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US456837AE31 Corp</stp>
@@ -31524,7 +31524,7 @@
         <tr r="H264" s="70"/>
       </tp>
       <tp>
-        <v>4.8359240069084635</v>
+        <v>4.8275862068965516</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>BANE RM Equity</stp>
@@ -31544,7 +31544,7 @@
         <tr r="H157" s="70"/>
       </tp>
       <tp>
-        <v>2.2633911035391838</v>
+        <v>2.2633976629675003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1506500039 Corp</stp>
@@ -31554,7 +31554,7 @@
         <tr r="H278" s="70"/>
       </tp>
       <tp>
-        <v>4.7593449897799234</v>
+        <v>4.7604060517411142</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1400710726 Corp</stp>
@@ -31564,7 +31564,7 @@
         <tr r="H107" s="70"/>
       </tp>
       <tp>
-        <v>2.7972111258510837</v>
+        <v>2.7972453058981932</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0524610812 Corp</stp>
@@ -31682,7 +31682,7 @@
         <tr r="H257" s="70"/>
       </tp>
       <tp>
-        <v>1.8981891484881774</v>
+        <v>1.8981911703699077</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1069383856 Corp</stp>
@@ -31701,7 +31701,7 @@
         <tr r="H263" s="70"/>
       </tp>
       <tp>
-        <v>1.9536299039231735</v>
+        <v>1.953631027881753</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1077629225 Corp</stp>
@@ -31711,7 +31711,7 @@
         <tr r="H220" s="70"/>
       </tp>
       <tp>
-        <v>3.2826788726458824</v>
+        <v>3.2827574999073152</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0588433267 Corp</stp>
@@ -31721,7 +31721,7 @@
         <tr r="H136" s="70"/>
       </tp>
       <tp>
-        <v>1.7061311760881055</v>
+        <v>1.7061308085413862</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1198002690 Corp</stp>
@@ -31752,7 +31752,7 @@
         <tr r="F194" s="70"/>
       </tp>
       <tp>
-        <v>1.7255243338346165</v>
+        <v>1.7255151680358241</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWDN6 Corp</stp>
@@ -31904,7 +31904,7 @@
         <tr r="H181" s="70"/>
       </tp>
       <tp>
-        <v>6.6148593055784106</v>
+        <v>6.6050772264212947</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZP RX Equity</stp>
@@ -31915,7 +31915,7 @@
         <tr r="F31" s="70"/>
       </tp>
       <tp>
-        <v>5.137557396129977</v>
+        <v>5.1377998132325988</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1433454243 Corp</stp>
@@ -31954,7 +31954,7 @@
         <tr r="H256" s="70"/>
       </tp>
       <tp>
-        <v>10.636515912897822</v>
+        <v>10.618729096989966</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AFKS RX Equity</stp>
@@ -32014,7 +32014,7 @@
         <tr r="E73" s="70"/>
       </tp>
       <tp>
-        <v>30900</v>
+        <v>30867</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ROSM7 Index</stp>
@@ -32139,7 +32139,7 @@
         <tr r="F147" s="70"/>
       </tp>
       <tp>
-        <v>3.005259203606311</v>
+        <v>3.0234315948601664</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>AD NA Equity</stp>
@@ -32171,7 +32171,7 @@
         <tr r="D189" s="70"/>
       </tp>
       <tp>
-        <v>2.7431705736544529</v>
+        <v>2.7431691173497685</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1071551474 Corp</stp>
@@ -32192,7 +32192,7 @@
         <tr r="F241" s="70"/>
       </tp>
       <tp>
-        <v>3.3845999934865074</v>
+        <v>3.384637923648262</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1188073081 Corp</stp>
@@ -32284,7 +32284,7 @@
         <tr r="F32" s="70"/>
       </tp>
       <tp>
-        <v>4.3819784285483818</v>
+        <v>4.382061128087904</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>DE000DB7XHP3 Corp</stp>
@@ -32335,7 +32335,7 @@
         <tr r="H152" s="70"/>
       </tp>
       <tp>
-        <v>4.3457066352596057</v>
+        <v>4.3457928060127307</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405766384 Corp</stp>
@@ -32345,7 +32345,7 @@
         <tr r="H126" s="70"/>
       </tp>
       <tp>
-        <v>3.5612813370473533</v>
+        <v>3.5506302072206792</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>MGNT RX Equity</stp>
@@ -32356,7 +32356,7 @@
         <tr r="F11" s="70"/>
       </tp>
       <tp>
-        <v>2.6411220246915832</v>
+        <v>2.6401691128753506</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EEM US Equity</stp>
@@ -32529,7 +32529,7 @@
         <tr r="E64" s="70"/>
       </tp>
       <tp>
-        <v>1.280615114049398</v>
+        <v>1.280616428643061</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US515110BF06 Corp</stp>
@@ -32558,7 +32558,7 @@
         <tr r="H179" s="70"/>
       </tp>
       <tp>
-        <v>4.9258653224205862</v>
+        <v>4.9259325441396875</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533922933 Corp</stp>
@@ -32568,7 +32568,7 @@
         <tr r="H247" s="70"/>
       </tp>
       <tp>
-        <v>3.1822235126367553</v>
+        <v>3.1823264394531434</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319822752 Corp</stp>
@@ -32619,7 +32619,7 @@
         <tr r="A70" s="70"/>
       </tp>
       <tp>
-        <v>105.09</v>
+        <v>105</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS3W6 Corp</stp>
@@ -32647,7 +32647,7 @@
         <tr r="F65" s="70"/>
       </tp>
       <tp>
-        <v>9.9603395843053786</v>
+        <v>9.9591076753592134</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0GN9A7 Corp</stp>
@@ -32710,7 +32710,7 @@
         <tr r="D252" s="70"/>
       </tp>
       <tp>
-        <v>9.9709691826708351</v>
+        <v>9.9587375933980145</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ALRS RX Equity</stp>
@@ -32731,7 +32731,7 @@
         <tr r="F39" s="70"/>
       </tp>
       <tp>
-        <v>4.3195678750247124</v>
+        <v>4.3185640375031973</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0810596832 Corp</stp>
@@ -32750,7 +32750,7 @@
         <tr r="H158" s="70"/>
       </tp>
       <tp>
-        <v>7.311195305758174</v>
+        <v>7.3118430268255254</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0718502007 Corp</stp>
@@ -32760,7 +32760,7 @@
         <tr r="H222" s="70"/>
       </tp>
       <tp>
-        <v>0.8841616150896533</v>
+        <v>0.88416059183702334</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848137708 Corp</stp>
@@ -32770,7 +32770,7 @@
         <tr r="H101" s="70"/>
       </tp>
       <tp>
-        <v>2.6162916605918385</v>
+        <v>2.616316992274438</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0911599701 Corp</stp>
@@ -32918,7 +32918,7 @@
         <tr r="E85" s="70"/>
       </tp>
       <tp>
-        <v>4.0202183040638531</v>
+        <v>4.0203589469319905</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1405775377 Corp</stp>
@@ -32928,7 +32928,7 @@
         <tr r="H139" s="70"/>
       </tp>
       <tp>
-        <v>3.0849385418357986</v>
+        <v>3.0850040420501244</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0555493203 Corp</stp>
@@ -33042,7 +33042,7 @@
         <tr r="L29" s="70"/>
       </tp>
       <tp>
-        <v>2.545854941136287</v>
+        <v>2.5465780582759212</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JS5F6 Corp</stp>
@@ -33113,7 +33113,7 @@
         <tr r="H177" s="70"/>
       </tp>
       <tp>
-        <v>3.4017947778300148</v>
+        <v>3.4021088172100358</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USN54468AF52 Corp</stp>
@@ -33123,7 +33123,7 @@
         <tr r="H153" s="70"/>
       </tp>
       <tp>
-        <v>3.9579047929043543</v>
+        <v>3.9579252739417372</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1508914691 Corp</stp>
@@ -33133,7 +33133,7 @@
         <tr r="H109" s="70"/>
       </tp>
       <tp>
-        <v>4.3968263084984187</v>
+        <v>4.3970214363344642</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0800817073 Corp</stp>
@@ -33143,7 +33143,7 @@
         <tr r="H206" s="70"/>
       </tp>
       <tp>
-        <v>3.2908530844516495</v>
+        <v>3.2908888632171087</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0579851949 Corp</stp>
@@ -33153,7 +33153,7 @@
         <tr r="H115" s="70"/>
       </tp>
       <tp>
-        <v>3.4498955043125794</v>
+        <v>3.4499173493519764</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0867620725 Corp</stp>
@@ -33163,7 +33163,7 @@
         <tr r="H253" s="70"/>
       </tp>
       <tp>
-        <v>5.0160857539651911</v>
+        <v>5.0162725603069171</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533915721 Corp</stp>
@@ -33173,7 +33173,7 @@
         <tr r="H219" s="70"/>
       </tp>
       <tp>
-        <v>3.6664163173395323</v>
+        <v>3.6664906730400726</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1449458915 Corp</stp>
@@ -33183,7 +33183,7 @@
         <tr r="H208" s="70"/>
       </tp>
       <tp>
-        <v>10.984412470023981</v>
+        <v>11.013464775186343</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GMKN RX Equity</stp>
@@ -33291,7 +33291,7 @@
         <tr r="L50" s="70"/>
       </tp>
       <tp>
-        <v>2.6890448685408899</v>
+        <v>2.6890336586192363</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTYA5 Corp</stp>
@@ -33433,7 +33433,7 @@
         <tr r="F52" s="70"/>
       </tp>
       <tp>
-        <v>2.1607137561882555</v>
+        <v>2.1607246675637897</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0816374663 Corp</stp>
@@ -33454,7 +33454,7 @@
         <tr r="F178" s="70"/>
       </tp>
       <tp>
-        <v>0.91217520601002322</v>
+        <v>0.91217549876262882</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0849020556 Corp</stp>
@@ -33464,7 +33464,7 @@
         <tr r="H133" s="70"/>
       </tp>
       <tp>
-        <v>11.474024359930398</v>
+        <v>11.420089064819395</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SIBN RX Equity</stp>
@@ -33484,7 +33484,7 @@
         <tr r="H155" s="70"/>
       </tp>
       <tp>
-        <v>4.1468781952599256</v>
+        <v>4.1469352504894283</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1533921299 Corp</stp>
@@ -33494,7 +33494,7 @@
         <tr r="H111" s="70"/>
       </tp>
       <tp>
-        <v>99.322000000000003</v>
+        <v>99.341999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1439838548 Corp</stp>
@@ -33542,7 +33542,7 @@
         <tr r="E165" s="70"/>
       </tp>
       <tp>
-        <v>2.5655851622280132</v>
+        <v>2.5656128765201265</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USL6366MAC75 Corp</stp>
@@ -33561,7 +33561,7 @@
         <tr r="L33" s="70"/>
       </tp>
       <tp>
-        <v>3.029272426628038</v>
+        <v>3.029234572988289</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USA29866AA70 Corp</stp>
@@ -33683,7 +33683,7 @@
         <tr r="F35" s="70"/>
       </tp>
       <tp>
-        <v>1.8266564794908215</v>
+        <v>1.8266586205676079</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0779213460 Corp</stp>
@@ -33702,7 +33702,7 @@
         <tr r="H180" s="70"/>
       </tp>
       <tp>
-        <v>2.6467251382624983</v>
+        <v>2.6467610069593794</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0925043100 Corp</stp>
@@ -33743,7 +33743,7 @@
         <tr r="H151" s="70"/>
       </tp>
       <tp>
-        <v>107.699</v>
+        <v>107.69</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1255387976 Corp</stp>
@@ -33752,7 +33752,7 @@
         <tr r="C3" s="70"/>
       </tp>
       <tp>
-        <v>104.395</v>
+        <v>104.425</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0935311240 Corp</stp>
@@ -33913,7 +33913,7 @@
         <tr r="F144" s="70"/>
       </tp>
       <tp>
-        <v>3.991598546735585</v>
+        <v>3.991761888629739</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1319813769 Corp</stp>
@@ -33934,7 +33934,7 @@
         <tr r="A95" s="70"/>
       </tp>
       <tp>
-        <v>28357</v>
+        <v>28502</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH=M7 RU Equity</stp>
@@ -33973,7 +33973,7 @@
         <tr r="E95" s="70"/>
       </tp>
       <tp>
-        <v>8.3596343986065698</v>
+        <v>8.3374362131824693</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>GAZ LI Equity</stp>
@@ -34044,7 +34044,7 @@
         <tr r="F14" s="70"/>
       </tp>
       <tp>
-        <v>53.24</v>
+        <v>53.31</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>B5M7 Comdty</stp>
@@ -34133,7 +34133,7 @@
         <tr r="L46" s="70"/>
       </tp>
       <tp>
-        <v>98.570009999999996</v>
+        <v>98.58</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JTKZ1 Corp</stp>
@@ -34318,7 +34318,7 @@
         <tr r="E73" s="70"/>
       </tp>
       <tp>
-        <v>4.7940419322903081</v>
+        <v>4.7941502303068813</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0848530977 Corp</stp>
@@ -34338,7 +34338,7 @@
         <tr r="H225" s="70"/>
       </tp>
       <tp>
-        <v>6.2025970308892306</v>
+        <v>6.2030840900799049</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1085735899 Corp</stp>
@@ -34348,7 +34348,7 @@
         <tr r="H211" s="70"/>
       </tp>
       <tp>
-        <v>8.5739941356826215</v>
+        <v>8.5741377239659506</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS1568888777 Corp</stp>
@@ -34358,7 +34358,7 @@
         <tr r="H221" s="70"/>
       </tp>
       <tp>
-        <v>7.0972320794889994</v>
+        <v>7.0609002647837595</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LKOH RX Equity</stp>
@@ -34401,7 +34401,7 @@
         <tr r="H99" s="70"/>
       </tp>
       <tp>
-        <v>3.2037959164675307</v>
+        <v>3.2037093177033715</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>RU000A0JWBF6 Corp</stp>
@@ -34501,7 +34501,7 @@
         <tr r="G26" s="70"/>
       </tp>
       <tp>
-        <v>4.0689991461231525</v>
+        <v>4.0691685864523226</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0643183220 Corp</stp>
@@ -34511,7 +34511,7 @@
         <tr r="H124" s="70"/>
       </tp>
       <tp>
-        <v>0.92093279076090062</v>
+        <v>0.92093336818096172</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0923472814 Corp</stp>
@@ -34521,7 +34521,7 @@
         <tr r="H200" s="70"/>
       </tp>
       <tp>
-        <v>10.235132770686141</v>
+        <v>10.237462576110067</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XS0191754729 Corp</stp>
@@ -34541,7 +34541,7 @@
         <tr r="I26" s="70"/>
       </tp>
       <tp>
-        <v>4.3624161073825505</v>
+        <v>4.3800539083557952</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>KPN NA Equity</stp>
@@ -34928,7 +34928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -45017,7 +45017,7 @@
       </c>
       <c r="C2" s="2">
         <f>_xll.BDP(B2,"PX_LAST")*1.00000001</f>
-        <v>99.322000993220001</v>
+        <v>99.342000993419987</v>
       </c>
       <c r="D2" s="1">
         <f>IF(A2="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B2,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"BEST_ANALYST_RATING")))</f>
@@ -45037,7 +45037,7 @@
          IF(OR(_xll.BDP(B2,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B2,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B2,"YLD_CNV_MID")),
               _xll.BDP(B2,"EQY_DVD_YLD_IND")),
 _xll.BDP(B2,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.1833079</v>
+        <v>5.1779709</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B2)) = FALSE,  IF(  OR(   _xll.BDP($B2,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B2,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B2,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B2,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B2,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B2,"NXT_CPN_DT")))</f>
@@ -45045,7 +45045,7 @@
       </c>
       <c r="H2" s="1">
         <f>IF(ISERR(FIND("Equity",B2))=FALSE,0,IF(_xll.BDP($B2,"DUR_MID")="#N/A N/A",0,_xll.BDP($B2,"DUR_MID")))</f>
-        <v>3.7026802971917756</v>
+        <v>3.7027337504362512</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B2)) = FALSE,  IF(  OR(   _xll.BDP($B2,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B2,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B2,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B2,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B2,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B2,"NXT_PUT_DT")))</f>
@@ -45070,7 +45070,7 @@
       </c>
       <c r="C3" s="2">
         <f>_xll.BDP(B3,"PX_LAST")*1.00000001</f>
-        <v>107.69900107698999</v>
+        <v>107.69000107689999</v>
       </c>
       <c r="D3" s="1">
         <f>IF(A3="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B3,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"BEST_ANALYST_RATING")))</f>
@@ -45090,7 +45090,7 @@
          IF(OR(_xll.BDP(B3,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B3,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B3,"YLD_CNV_MID")),
               _xll.BDP(B3,"EQY_DVD_YLD_IND")),
 _xll.BDP(B3,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.5782379999999998</v>
+        <v>5.5836543000000001</v>
       </c>
       <c r="G3" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B3)) = FALSE,  IF(  OR(   _xll.BDP($B3,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B3,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B3,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B3,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B3,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B3,"NXT_CPN_DT")))</f>
@@ -45098,7 +45098,7 @@
       </c>
       <c r="H3" s="1">
         <f>IF(ISERR(FIND("Equity",B3))=FALSE,0,IF(_xll.BDP($B3,"DUR_MID")="#N/A N/A",0,_xll.BDP($B3,"DUR_MID")))</f>
-        <v>1.437293445819283</v>
+        <v>1.4372848926516979</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B3)) = FALSE,  IF(  OR(   _xll.BDP($B3,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B3,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B3,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B3,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B3,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B3,"NXT_PUT_DT")))</f>
@@ -45123,7 +45123,7 @@
       </c>
       <c r="C4" s="2">
         <f>_xll.BDP(B4,"PX_LAST")*1.00000001</f>
-        <v>1236.00001236</v>
+        <v>1235.0000123499999</v>
       </c>
       <c r="D4" s="1">
         <f>IF(A4="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B4,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"BEST_ANALYST_RATING")))</f>
@@ -45143,7 +45143,7 @@
          IF(OR(_xll.BDP(B4,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B4,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B4,"YLD_CNV_MID")),
               _xll.BDP(B4,"EQY_DVD_YLD_IND")),
 _xll.BDP(B4,"BDVD_PROJ_12M_YLD"))</f>
-        <v>11.326860841423949</v>
+        <v>11.336032388663968</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B4)) = FALSE,  IF(  OR(   _xll.BDP($B4,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B4,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B4,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B4,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B4,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B4,"NXT_CPN_DT")))</f>
@@ -45176,7 +45176,7 @@
       </c>
       <c r="C5" s="2">
         <f>_xll.BDP(B5,"PX_LAST")*1.00000001</f>
-        <v>112.69800112697999</v>
+        <v>112.70700112706999</v>
       </c>
       <c r="D5" s="1">
         <f>IF(A5="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B5,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"BEST_ANALYST_RATING")))</f>
@@ -45196,7 +45196,7 @@
          IF(OR(_xll.BDP(B5,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B5,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B5,"YLD_CNV_MID")),
               _xll.BDP(B5,"EQY_DVD_YLD_IND")),
 _xll.BDP(B5,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.8124935000000004</v>
+        <v>4.8100676</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B5)) = FALSE,  IF(  OR(   _xll.BDP($B5,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B5,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B5,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B5,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B5,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B5,"NXT_CPN_DT")))</f>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H5" s="1">
         <f>IF(ISERR(FIND("Equity",B5))=FALSE,0,IF(_xll.BDP($B5,"DUR_MID")="#N/A N/A",0,_xll.BDP($B5,"DUR_MID")))</f>
-        <v>3.3243619528246384</v>
+        <v>3.3243856752873895</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B5)) = FALSE,  IF(  OR(   _xll.BDP($B5,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B5,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B5,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B5,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B5,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B5,"NXT_PUT_DT")))</f>
@@ -45282,7 +45282,7 @@
       </c>
       <c r="C7" s="2">
         <f>_xll.BDP(B7,"PX_LAST")*1.00000001</f>
-        <v>1025.0000102499998</v>
+        <v>1026.00001026</v>
       </c>
       <c r="D7" s="1">
         <f>IF(A7="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B7,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"BEST_ANALYST_RATING")))</f>
@@ -45302,7 +45302,7 @@
          IF(OR(_xll.BDP(B7,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B7,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B7,"YLD_CNV_MID")),
               _xll.BDP(B7,"EQY_DVD_YLD_IND")),
 _xll.BDP(B7,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.2678714728936917</v>
+        <v>5.2651737981837163</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B7)) = FALSE,  IF(  OR(   _xll.BDP($B7,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B7,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B7,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B7,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B7,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B7,"NXT_CPN_DT")))</f>
@@ -45335,7 +45335,7 @@
       </c>
       <c r="C8" s="2">
         <f>_xll.BDP(B8,"PX_LAST")*1.00000001</f>
-        <v>104.39500104394999</v>
+        <v>104.42500104425</v>
       </c>
       <c r="D8" s="1">
         <f>IF(A8="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B8,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"BEST_ANALYST_RATING")))</f>
@@ -45355,7 +45355,7 @@
          IF(OR(_xll.BDP(B8,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B8,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B8,"YLD_CNV_MID")),
               _xll.BDP(B8,"EQY_DVD_YLD_IND")),
 _xll.BDP(B8,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.4058298000000002</v>
+        <v>4.4003081000000002</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B8)) = FALSE,  IF(  OR(   _xll.BDP($B8,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B8,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B8,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B8,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B8,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B8,"NXT_CPN_DT")))</f>
@@ -45363,7 +45363,7 @@
       </c>
       <c r="H8" s="1">
         <f>IF(ISERR(FIND("Equity",B8))=FALSE,0,IF(_xll.BDP($B8,"DUR_MID")="#N/A N/A",0,_xll.BDP($B8,"DUR_MID")))</f>
-        <v>5.2243575195307246</v>
+        <v>5.2244863873271044</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B8)) = FALSE,  IF(  OR(   _xll.BDP($B8,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B8,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B8,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B8,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B8,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B8,"NXT_PUT_DT")))</f>
@@ -45441,7 +45441,7 @@
       </c>
       <c r="C10" s="2">
         <f>_xll.BDP(B10,"PX_LAST")*1.00000001</f>
-        <v>271.50000271499999</v>
+        <v>271.80000271799997</v>
       </c>
       <c r="D10" s="1">
         <f>IF(A10="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B10,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"BEST_ANALYST_RATING")))</f>
@@ -45453,7 +45453,7 @@
            IF(OR(_xll.BDP(B10,"INT_ACC")="#N/A N/A",_xll.BDP(B10,"INT_ACC")="#N/A Field Not Applicable"), 0, _xll.BDP(B10,"INT_ACC")),
       _xll.BDP(B10,"BEST_TARGET_PRICE"))
 )</f>
-        <v>376.77935001286096</v>
+        <v>376.62215823869423</v>
       </c>
       <c r="F10" s="1">
         <f>IF(OR(_xll.BDP(B10,"BDVD_PROJ_12M_YLD")="#N/A N/A",_xll.BDP(B10,"BDVD_PROJ_12M_YLD")="#N/A Field Not Applicable"),
@@ -45461,7 +45461,7 @@
          IF(OR(_xll.BDP(B10,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B10,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B10,"YLD_CNV_MID")),
               _xll.BDP(B10,"EQY_DVD_YLD_IND")),
 _xll.BDP(B10,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.6243094484669944</v>
+        <v>3.6203091069123952</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B10)) = FALSE,  IF(  OR(   _xll.BDP($B10,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B10,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B10,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B10,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B10,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B10,"NXT_CPN_DT")))</f>
@@ -45494,7 +45494,7 @@
       </c>
       <c r="C11" s="2">
         <f>_xll.BDP(B11,"PX_LAST")*1.00000001</f>
-        <v>9334.0000933399988</v>
+        <v>9362.0000936199995</v>
       </c>
       <c r="D11" s="1">
         <f>IF(A11="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B11,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"BEST_ANALYST_RATING")))</f>
@@ -45514,7 +45514,7 @@
          IF(OR(_xll.BDP(B11,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B11,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B11,"YLD_CNV_MID")),
               _xll.BDP(B11,"EQY_DVD_YLD_IND")),
 _xll.BDP(B11,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.5612813370473533</v>
+        <v>3.5506302072206792</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B11)) = FALSE,  IF(  OR(   _xll.BDP($B11,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B11,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B11,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B11,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B11,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B11,"NXT_CPN_DT")))</f>
@@ -45600,7 +45600,7 @@
       </c>
       <c r="C13" s="2">
         <f>_xll.BDP(B13,"PX_LAST")*1.00000001</f>
-        <v>2895.0000289499999</v>
+        <v>2900.0000289999998</v>
       </c>
       <c r="D13" s="1">
         <f>IF(A13="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B13,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"BEST_ANALYST_RATING")))</f>
@@ -45620,7 +45620,7 @@
          IF(OR(_xll.BDP(B13,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B13,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B13,"YLD_CNV_MID")),
               _xll.BDP(B13,"EQY_DVD_YLD_IND")),
 _xll.BDP(B13,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.8359240069084635</v>
+        <v>4.8275862068965516</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B13)) = FALSE,  IF(  OR(   _xll.BDP($B13,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B13,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B13,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B13,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B13,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B13,"NXT_CPN_DT")))</f>
@@ -45653,7 +45653,7 @@
       </c>
       <c r="C14" s="2">
         <f>_xll.BDP(B14,"PX_LAST")*1.00000001</f>
-        <v>3.7400000374000002</v>
+        <v>3.7150000371499998</v>
       </c>
       <c r="D14" s="1">
         <f>IF(A14="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B14,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B14,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"BEST_ANALYST_RATING")))</f>
@@ -45673,7 +45673,7 @@
          IF(OR(_xll.BDP(B14,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B14,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B14,"YLD_CNV_MID")),
               _xll.BDP(B14,"EQY_DVD_YLD_IND")),
 _xll.BDP(B14,"BDVD_PROJ_12M_YLD"))</f>
-        <v>1.6042780390079008</v>
+        <v>1.6150739881263927</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B14)) = FALSE,  IF(  OR(   _xll.BDP($B14,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B14,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B14,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B14,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B14,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B14,"NXT_CPN_DT")))</f>
@@ -45706,7 +45706,7 @@
       </c>
       <c r="C15" s="2">
         <f>_xll.BDP(B15,"PX_LAST")*1.00000001</f>
-        <v>17.750000177499999</v>
+        <v>17.800000178000001</v>
       </c>
       <c r="D15" s="1">
         <f>IF(A15="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B15,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"BEST_ANALYST_RATING")))</f>
@@ -45726,7 +45726,7 @@
          IF(OR(_xll.BDP(B15,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B15,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B15,"YLD_CNV_MID")),
               _xll.BDP(B15,"EQY_DVD_YLD_IND")),
 _xll.BDP(B15,"BDVD_PROJ_12M_YLD"))</f>
-        <v>8.3596343986065698</v>
+        <v>8.3374362131824693</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B15)) = FALSE,  IF(  OR(   _xll.BDP($B15,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B15,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B15,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B15,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B15,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B15,"NXT_CPN_DT")))</f>
@@ -45812,7 +45812,7 @@
       </c>
       <c r="C17" s="2">
         <f>_xll.BDP(B17,"PX_LAST")*1.00000001</f>
-        <v>11.240000112399999</v>
+        <v>11.220000112199999</v>
       </c>
       <c r="D17" s="1">
         <f>IF(A17="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B17,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B17,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"BEST_ANALYST_RATING")))</f>
@@ -45824,7 +45824,7 @@
            IF(OR(_xll.BDP(B17,"INT_ACC")="#N/A N/A",_xll.BDP(B17,"INT_ACC")="#N/A Field Not Applicable"), 0, _xll.BDP(B17,"INT_ACC")),
       _xll.BDP(B17,"BEST_TARGET_PRICE"))
 )</f>
-        <v>12.013583183288574</v>
+        <v>12.127923011779785</v>
       </c>
       <c r="F17" s="1">
         <f>IF(OR(_xll.BDP(B17,"BDVD_PROJ_12M_YLD")="#N/A N/A",_xll.BDP(B17,"BDVD_PROJ_12M_YLD")="#N/A Field Not Applicable"),
@@ -45832,7 +45832,7 @@
          IF(OR(_xll.BDP(B17,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B17,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B17,"YLD_CNV_MID")),
               _xll.BDP(B17,"EQY_DVD_YLD_IND")),
 _xll.BDP(B17,"BDVD_PROJ_12M_YLD"))</f>
-        <v>7.2432916571661243</v>
+        <v>7.2562030504944062</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B17)) = FALSE,  IF(  OR(   _xll.BDP($B17,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B17,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B17,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B17,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B17,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B17,"NXT_CPN_DT")))</f>
@@ -45865,7 +45865,7 @@
       </c>
       <c r="C18" s="2">
         <f>_xll.BDP(B18,"PX_LAST")*1.00000001</f>
-        <v>610.50000610500001</v>
+        <v>611.30000611299988</v>
       </c>
       <c r="D18" s="1">
         <f>IF(A18="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B18,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"BEST_ANALYST_RATING")))</f>
@@ -45885,7 +45885,7 @@
          IF(OR(_xll.BDP(B18,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B18,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B18,"YLD_CNV_MID")),
               _xll.BDP(B18,"EQY_DVD_YLD_IND")),
 _xll.BDP(B18,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.565110565110565</v>
+        <v>10.551284148535908</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B18)) = FALSE,  IF(  OR(   _xll.BDP($B18,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B18,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B18,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B18,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B18,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B18,"NXT_CPN_DT")))</f>
@@ -45918,7 +45918,7 @@
       </c>
       <c r="C19" s="2">
         <f>_xll.BDP(B19,"PX_LAST")*1.00000001</f>
-        <v>4.2650000426499997</v>
+        <v>4.2690000426900001</v>
       </c>
       <c r="D19" s="1">
         <f>IF(A19="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B19,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"BEST_ANALYST_RATING")))</f>
@@ -45938,7 +45938,7 @@
          IF(OR(_xll.BDP(B19,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B19,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B19,"YLD_CNV_MID")),
               _xll.BDP(B19,"EQY_DVD_YLD_IND")),
 _xll.BDP(B19,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.5654306006581837</v>
+        <v>6.5627493044149716</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B19)) = FALSE,  IF(  OR(   _xll.BDP($B19,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B19,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B19,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B19,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B19,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B19,"NXT_CPN_DT")))</f>
@@ -46077,7 +46077,7 @@
       </c>
       <c r="C22" s="2">
         <f>_xll.BDP(B22,"PX_LAST")*1.00000001</f>
-        <v>106.39900106399</v>
+        <v>106.42000106419999</v>
       </c>
       <c r="D22" s="1">
         <f>IF(A22="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B22,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"BEST_ANALYST_RATING")))</f>
@@ -46097,7 +46097,7 @@
          IF(OR(_xll.BDP(B22,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B22,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B22,"YLD_CNV_MID")),
               _xll.BDP(B22,"EQY_DVD_YLD_IND")),
 _xll.BDP(B22,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.1298668999999997</v>
+        <v>4.1222113</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B22)) = FALSE,  IF(  OR(   _xll.BDP($B22,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B22,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B22,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B22,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B22,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B22,"NXT_CPN_DT")))</f>
@@ -46105,7 +46105,7 @@
       </c>
       <c r="H22" s="1">
         <f>IF(ISERR(FIND("Equity",B22))=FALSE,0,IF(_xll.BDP($B22,"DUR_MID")="#N/A N/A",0,_xll.BDP($B22,"DUR_MID")))</f>
-        <v>2.6764126513008102</v>
+        <v>2.6764387045688895</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B22)) = FALSE,  IF(  OR(   _xll.BDP($B22,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B22,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B22,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B22,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B22,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B22,"NXT_PUT_DT")))</f>
@@ -46130,7 +46130,7 @@
       </c>
       <c r="C23" s="2">
         <f>_xll.BDP(B23,"PX_LAST")*1.00000001</f>
-        <v>102.41300102413</v>
+        <v>102.42900102429</v>
       </c>
       <c r="D23" s="1">
         <f>IF(A23="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B23,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"BEST_ANALYST_RATING")))</f>
@@ -46150,7 +46150,7 @@
          IF(OR(_xll.BDP(B23,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B23,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B23,"YLD_CNV_MID")),
               _xll.BDP(B23,"EQY_DVD_YLD_IND")),
 _xll.BDP(B23,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.0956086999999997</v>
+        <v>4.0906874000000002</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B23)) = FALSE,  IF(  OR(   _xll.BDP($B23,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B23,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B23,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B23,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B23,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B23,"NXT_CPN_DT")))</f>
@@ -46158,7 +46158,7 @@
       </c>
       <c r="H23" s="1">
         <f>IF(ISERR(FIND("Equity",B23))=FALSE,0,IF(_xll.BDP($B23,"DUR_MID")="#N/A N/A",0,_xll.BDP($B23,"DUR_MID")))</f>
-        <v>3.1161535682748815</v>
+        <v>3.1161772841996069</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B23)) = FALSE,  IF(  OR(   _xll.BDP($B23,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B23,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B23,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B23,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B23,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B23,"NXT_PUT_DT")))</f>
@@ -46183,7 +46183,7 @@
       </c>
       <c r="C24" s="2">
         <f>_xll.BDP(B24,"PX_LAST")*1.00000001</f>
-        <v>94.134000941339991</v>
+        <v>94.118000941179986</v>
       </c>
       <c r="D24" s="1">
         <f>IF(A24="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B24,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"BEST_ANALYST_RATING")))</f>
@@ -46203,7 +46203,7 @@
          IF(OR(_xll.BDP(B24,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B24,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B24,"YLD_CNV_MID")),
               _xll.BDP(B24,"EQY_DVD_YLD_IND")),
 _xll.BDP(B24,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.8103165000000008</v>
+        <v>9.8159779</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B24)) = FALSE,  IF(  OR(   _xll.BDP($B24,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B24,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B24,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B24,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B24,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B24,"NXT_CPN_DT")))</f>
@@ -46211,7 +46211,7 @@
       </c>
       <c r="H24" s="1">
         <f>IF(ISERR(FIND("Equity",B24))=FALSE,0,IF(_xll.BDP($B24,"DUR_MID")="#N/A N/A",0,_xll.BDP($B24,"DUR_MID")))</f>
-        <v>3.029272426628038</v>
+        <v>3.029234572988289</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B24)) = FALSE,  IF(  OR(   _xll.BDP($B24,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B24,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B24,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B24,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B24,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B24,"NXT_PUT_DT")))</f>
@@ -46236,7 +46236,7 @@
       </c>
       <c r="C25" s="2">
         <f>_xll.BDP(B25,"PX_LAST")*1.00000001</f>
-        <v>104.26500104265</v>
+        <v>104.2900010429</v>
       </c>
       <c r="D25" s="1">
         <f>IF(A25="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B25,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"BEST_ANALYST_RATING")))</f>
@@ -46256,7 +46256,7 @@
          IF(OR(_xll.BDP(B25,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B25,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B25,"YLD_CNV_MID")),
               _xll.BDP(B25,"EQY_DVD_YLD_IND")),
 _xll.BDP(B25,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.8631001</v>
+        <v>3.8573211999999999</v>
       </c>
       <c r="G25" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B25)) = FALSE,  IF(  OR(   _xll.BDP($B25,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B25,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B25,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B25,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B25,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B25,"NXT_CPN_DT")))</f>
@@ -46264,7 +46264,7 @@
       </c>
       <c r="H25" s="1">
         <f>IF(ISERR(FIND("Equity",B25))=FALSE,0,IF(_xll.BDP($B25,"DUR_MID")="#N/A N/A",0,_xll.BDP($B25,"DUR_MID")))</f>
-        <v>4.1605848363350511</v>
+        <v>4.1606603987029178</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B25)) = FALSE,  IF(  OR(   _xll.BDP($B25,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B25,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B25,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B25,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B25,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B25,"NXT_PUT_DT")))</f>
@@ -46289,7 +46289,7 @@
       </c>
       <c r="C26" s="2">
         <f>_xll.BDP(B26,"PX_LAST")*1.00000001</f>
-        <v>101.86300101862999</v>
+        <v>101.85700101856999</v>
       </c>
       <c r="D26" s="1">
         <f>IF(A26="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B26,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"BEST_ANALYST_RATING")))</f>
@@ -46309,7 +46309,7 @@
          IF(OR(_xll.BDP(B26,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B26,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B26,"YLD_CNV_MID")),
               _xll.BDP(B26,"EQY_DVD_YLD_IND")),
 _xll.BDP(B26,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.8115959000000004</v>
+        <v>4.8133835999999999</v>
       </c>
       <c r="G26" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B26)) = FALSE,  IF(  OR(   _xll.BDP($B26,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B26,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B26,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B26,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B26,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B26,"NXT_CPN_DT")))</f>
@@ -46317,7 +46317,7 @@
       </c>
       <c r="H26" s="1">
         <f>IF(ISERR(FIND("Equity",B26))=FALSE,0,IF(_xll.BDP($B26,"DUR_MID")="#N/A N/A",0,_xll.BDP($B26,"DUR_MID")))</f>
-        <v>3.3146577498478256</v>
+        <v>3.3146446013111563</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B26)) = FALSE,  IF(  OR(   _xll.BDP($B26,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B26,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B26,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B26,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B26,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B26,"NXT_PUT_DT")))</f>
@@ -46395,7 +46395,7 @@
       </c>
       <c r="C28" s="2">
         <f>_xll.BDP(B28,"PX_LAST")*1.00000001</f>
-        <v>89.560000895599998</v>
+        <v>89.670000896700003</v>
       </c>
       <c r="D28" s="1">
         <f>IF(A28="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B28,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"BEST_ANALYST_RATING")))</f>
@@ -46415,7 +46415,7 @@
          IF(OR(_xll.BDP(B28,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B28,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B28,"YLD_CNV_MID")),
               _xll.BDP(B28,"EQY_DVD_YLD_IND")),
 _xll.BDP(B28,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.9709691826708351</v>
+        <v>9.9587375933980145</v>
       </c>
       <c r="G28" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B28)) = FALSE,  IF(  OR(   _xll.BDP($B28,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B28,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B28,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B28,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B28,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B28,"NXT_CPN_DT")))</f>
@@ -46448,7 +46448,7 @@
       </c>
       <c r="C29" s="2">
         <f>_xll.BDP(B29,"PX_LAST")*1.00000001</f>
-        <v>104.00000104</v>
+        <v>103.60000103599999</v>
       </c>
       <c r="D29" s="1">
         <f>IF(A29="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B29,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B29,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B29,"BEST_ANALYST_RATING")))</f>
@@ -46501,7 +46501,7 @@
       </c>
       <c r="C30" s="2">
         <f>_xll.BDP(B30,"PX_LAST")*1.00000001</f>
-        <v>94.000000939999993</v>
+        <v>95.00000095</v>
       </c>
       <c r="D30" s="1">
         <f>IF(A30="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B30,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B30,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B30,"BEST_ANALYST_RATING")))</f>
@@ -46554,7 +46554,7 @@
       </c>
       <c r="C31" s="2">
         <f>_xll.BDP(B31,"PX_LAST")*1.00000001</f>
-        <v>121.5400012154</v>
+        <v>121.72000121719999</v>
       </c>
       <c r="D31" s="1">
         <f>IF(A31="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B31,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"BEST_ANALYST_RATING")))</f>
@@ -46574,7 +46574,7 @@
          IF(OR(_xll.BDP(B31,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B31,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B31,"YLD_CNV_MID")),
               _xll.BDP(B31,"EQY_DVD_YLD_IND")),
 _xll.BDP(B31,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.6148593055784106</v>
+        <v>6.6050772264212947</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B31)) = FALSE,  IF(  OR(   _xll.BDP($B31,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B31,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B31,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B31,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B31,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B31,"NXT_CPN_DT")))</f>
@@ -46607,7 +46607,7 @@
       </c>
       <c r="C32" s="2">
         <f>_xll.BDP(B32,"PX_LAST")*1.00000001</f>
-        <v>152.25000152249999</v>
+        <v>150.2500015025</v>
       </c>
       <c r="D32" s="1">
         <f>IF(A32="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B32,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"BEST_ANALYST_RATING")))</f>
@@ -46627,7 +46627,7 @@
          IF(OR(_xll.BDP(B32,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B32,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B32,"YLD_CNV_MID")),
               _xll.BDP(B32,"EQY_DVD_YLD_IND")),
 _xll.BDP(B32,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.8308700285913124</v>
+        <v>6.9217967511016791</v>
       </c>
       <c r="G32" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B32)) = FALSE,  IF(  OR(   _xll.BDP($B32,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B32,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B32,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B32,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B32,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B32,"NXT_CPN_DT")))</f>
@@ -46733,7 +46733,7 @@
          IF(OR(_xll.BDP(B34,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B34,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B34,"YLD_CNV_MID")),
               _xll.BDP(B34,"EQY_DVD_YLD_IND")),
 _xll.BDP(B34,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.6937576243371684</v>
+        <v>5.7023976207322162</v>
       </c>
       <c r="G34" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B34)) = FALSE,  IF(  OR(   _xll.BDP($B34,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B34,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B34,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B34,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B34,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B34,"NXT_CPN_DT")))</f>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="C36" s="2">
         <f>_xll.BDP(B36,"PX_LAST")*1.00000001</f>
-        <v>2818.0000281799998</v>
+        <v>2832.5000283249997</v>
       </c>
       <c r="D36" s="1">
         <f>IF(A36="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B36,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"BEST_ANALYST_RATING")))</f>
@@ -46839,7 +46839,7 @@
          IF(OR(_xll.BDP(B36,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B36,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B36,"YLD_CNV_MID")),
               _xll.BDP(B36,"EQY_DVD_YLD_IND")),
 _xll.BDP(B36,"BDVD_PROJ_12M_YLD"))</f>
-        <v>7.0972320794889994</v>
+        <v>7.0609002647837595</v>
       </c>
       <c r="G36" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B36)) = FALSE,  IF(  OR(   _xll.BDP($B36,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B36,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B36,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B36,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B36,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B36,"NXT_CPN_DT")))</f>
@@ -46978,7 +46978,7 @@
       </c>
       <c r="C39" s="2">
         <f>_xll.BDP(B39,"PX_LAST")*1.00000001</f>
-        <v>7.4400000744000003</v>
+        <v>7.5300000752999994</v>
       </c>
       <c r="D39" s="1">
         <f>IF(A39="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B39,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B39,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"BEST_ANALYST_RATING")))</f>
@@ -46998,7 +46998,7 @@
          IF(OR(_xll.BDP(B39,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B39,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B39,"YLD_CNV_MID")),
               _xll.BDP(B39,"EQY_DVD_YLD_IND")),
 _xll.BDP(B39,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.489207726937753</v>
+        <v>10.342943874171688</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B39)) = FALSE,  IF(  OR(   _xll.BDP($B39,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B39,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B39,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B39,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B39,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B39,"NXT_CPN_DT")))</f>
@@ -47031,7 +47031,7 @@
       </c>
       <c r="C40" s="2">
         <f>_xll.BDP(B40,"PX_LAST")*1.00000001</f>
-        <v>201.20000201199997</v>
+        <v>202.10000202099999</v>
       </c>
       <c r="D40" s="1">
         <f>IF(A40="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B40,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"BEST_ANALYST_RATING")))</f>
@@ -47043,7 +47043,7 @@
            IF(OR(_xll.BDP(B40,"INT_ACC")="#N/A N/A",_xll.BDP(B40,"INT_ACC")="#N/A Field Not Applicable"), 0, _xll.BDP(B40,"INT_ACC")),
       _xll.BDP(B40,"BEST_TARGET_PRICE"))
 )</f>
-        <v>218.6844482421875</v>
+        <v>218.66957092285156</v>
       </c>
       <c r="F40" s="1">
         <f>IF(OR(_xll.BDP(B40,"BDVD_PROJ_12M_YLD")="#N/A N/A",_xll.BDP(B40,"BDVD_PROJ_12M_YLD")="#N/A Field Not Applicable"),
@@ -47051,7 +47051,7 @@
          IF(OR(_xll.BDP(B40,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B40,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B40,"YLD_CNV_MID")),
               _xll.BDP(B40,"EQY_DVD_YLD_IND")),
 _xll.BDP(B40,"BDVD_PROJ_12M_YLD"))</f>
-        <v>11.474024359930398</v>
+        <v>11.420089064819395</v>
       </c>
       <c r="G40" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B40)) = FALSE,  IF(  OR(   _xll.BDP($B40,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B40,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B40,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B40,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B40,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B40,"NXT_CPN_DT")))</f>
@@ -47084,7 +47084,7 @@
       </c>
       <c r="C41" s="2">
         <f>_xll.BDP(B41,"PX_LAST")*1.00000001</f>
-        <v>80.290000802899996</v>
+        <v>80.400000804000001</v>
       </c>
       <c r="D41" s="1">
         <f>IF(A41="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B41,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"BEST_ANALYST_RATING")))</f>
@@ -47104,7 +47104,7 @@
          IF(OR(_xll.BDP(B41,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B41,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B41,"YLD_CNV_MID")),
               _xll.BDP(B41,"EQY_DVD_YLD_IND")),
 _xll.BDP(B41,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.9352428393524286</v>
+        <v>3.9303482587064673</v>
       </c>
       <c r="G41" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B41)) = FALSE,  IF(  OR(   _xll.BDP($B41,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B41,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B41,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B41,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B41,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B41,"NXT_CPN_DT")))</f>
@@ -47137,7 +47137,7 @@
       </c>
       <c r="C42" s="2">
         <f>_xll.BDP(B42,"PX_LAST")*1.00000001</f>
-        <v>2.5100000250999996</v>
+        <v>2.5130000251299998</v>
       </c>
       <c r="D42" s="1">
         <f>IF(A42="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B42,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"BEST_ANALYST_RATING")))</f>
@@ -47157,7 +47157,7 @@
          IF(OR(_xll.BDP(B42,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B42,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B42,"YLD_CNV_MID")),
               _xll.BDP(B42,"EQY_DVD_YLD_IND")),
 _xll.BDP(B42,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.4233177649402391</v>
+        <v>4.4180372423398335</v>
       </c>
       <c r="G42" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B42)) = FALSE,  IF(  OR(   _xll.BDP($B42,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B42,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B42,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B42,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B42,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B42,"NXT_CPN_DT")))</f>
@@ -47243,7 +47243,7 @@
       </c>
       <c r="C44" s="2">
         <f>_xll.BDP(B44,"PX_LAST")*1.00000001</f>
-        <v>63.4500006345</v>
+        <v>63.550000635499991</v>
       </c>
       <c r="D44" s="1">
         <f>IF(A44="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B44,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"BEST_ANALYST_RATING")))</f>
@@ -47263,7 +47263,7 @@
          IF(OR(_xll.BDP(B44,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B44,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B44,"YLD_CNV_MID")),
               _xll.BDP(B44,"EQY_DVD_YLD_IND")),
 _xll.BDP(B44,"BDVD_PROJ_12M_YLD"))</f>
-        <v>1.654846260545759</v>
+        <v>1.6522422538415171</v>
       </c>
       <c r="G44" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B44)) = FALSE,  IF(  OR(   _xll.BDP($B44,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B44,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B44,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B44,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B44,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B44,"NXT_CPN_DT")))</f>
@@ -47402,7 +47402,7 @@
       </c>
       <c r="C47" s="2">
         <f>_xll.BDP(B47,"PX_LAST")*1.00000001</f>
-        <v>8338.0000833799986</v>
+        <v>8318.0000831799989</v>
       </c>
       <c r="D47" s="1">
         <f>IF(A47="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B47,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"BEST_ANALYST_RATING")))</f>
@@ -47422,7 +47422,7 @@
          IF(OR(_xll.BDP(B47,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B47,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B47,"YLD_CNV_MID")),
               _xll.BDP(B47,"EQY_DVD_YLD_IND")),
 _xll.BDP(B47,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.984412470023981</v>
+        <v>11.013464775186343</v>
       </c>
       <c r="G47" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B47)) = FALSE,  IF(  OR(   _xll.BDP($B47,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B47,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B47,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B47,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B47,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B47,"NXT_CPN_DT")))</f>
@@ -47455,7 +47455,7 @@
       </c>
       <c r="C48" s="2">
         <f>_xll.BDP(B48,"PX_LAST")*1.00000001</f>
-        <v>917.50000917499995</v>
+        <v>916.50000916499994</v>
       </c>
       <c r="D48" s="1">
         <f>IF(A48="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B48,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"BEST_ANALYST_RATING")))</f>
@@ -47475,7 +47475,7 @@
          IF(OR(_xll.BDP(B48,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B48,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B48,"YLD_CNV_MID")),
               _xll.BDP(B48,"EQY_DVD_YLD_IND")),
 _xll.BDP(B48,"BDVD_PROJ_12M_YLD"))</f>
-        <v>8.5013623978201647</v>
+        <v>8.5152838427947604</v>
       </c>
       <c r="G48" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B48)) = FALSE,  IF(  OR(   _xll.BDP($B48,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B48,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B48,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B48,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B48,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B48,"NXT_CPN_DT")))</f>
@@ -47614,7 +47614,7 @@
       </c>
       <c r="C51" s="2">
         <f>_xll.BDP(B51,"PX_LAST")*1.00000001</f>
-        <v>6.9750000697500009E-2</v>
+        <v>6.9600000695999989E-2</v>
       </c>
       <c r="D51" s="1">
         <f>IF(A51="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B51,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"BEST_ANALYST_RATING")))</f>
@@ -47634,7 +47634,7 @@
          IF(OR(_xll.BDP(B51,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B51,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B51,"YLD_CNV_MID")),
               _xll.BDP(B51,"EQY_DVD_YLD_IND")),
 _xll.BDP(B51,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.899146004742741</v>
+        <v>10.92261868099129</v>
       </c>
       <c r="G51" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B51)) = FALSE,  IF(  OR(   _xll.BDP($B51,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B51,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B51,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B51,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B51,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B51,"NXT_CPN_DT")))</f>
@@ -47667,7 +47667,7 @@
       </c>
       <c r="C52" s="2">
         <f>_xll.BDP(B52,"PX_LAST")*1.00000001</f>
-        <v>53.200000531999997</v>
+        <v>52.300000522999994</v>
       </c>
       <c r="D52" s="1">
         <f>IF(A52="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B52,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B52,"BEST_ANALYST_RATING")))</f>
@@ -47720,7 +47720,7 @@
       </c>
       <c r="C53" s="2">
         <f>_xll.BDP(B53,"PX_LAST")*1.00000001</f>
-        <v>24.070000240699997</v>
+        <v>24.020000240199998</v>
       </c>
       <c r="D53" s="1">
         <f>IF(A53="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B53,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B53,"BEST_ANALYST_RATING")))</f>
@@ -47826,7 +47826,7 @@
       </c>
       <c r="C55" s="2">
         <f>_xll.BDP(B55,"PX_LAST")*1.00000001</f>
-        <v>120.88000120879998</v>
+        <v>120.99000120989999</v>
       </c>
       <c r="D55" s="1">
         <f>IF(A55="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B55,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B55,"BEST_ANALYST_RATING")))</f>
@@ -47932,7 +47932,7 @@
       </c>
       <c r="C57" s="2">
         <f>_xll.BDP(B57,"PX_LAST")*1.00000001</f>
-        <v>104.700001047</v>
+        <v>104.50000104499999</v>
       </c>
       <c r="D57" s="1">
         <f>IF(A57="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B57,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"BEST_ANALYST_RATING")))</f>
@@ -47952,7 +47952,7 @@
          IF(OR(_xll.BDP(B57,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B57,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B57,"YLD_CNV_MID")),
               _xll.BDP(B57,"EQY_DVD_YLD_IND")),
 _xll.BDP(B57,"BDVD_PROJ_12M_YLD"))</f>
-        <v>17.669531996179561</v>
+        <v>17.703349282296653</v>
       </c>
       <c r="G57" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B57)) = FALSE,  IF(  OR(   _xll.BDP($B57,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B57,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B57,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B57,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B57,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B57,"NXT_CPN_DT")))</f>
@@ -47985,7 +47985,7 @@
       </c>
       <c r="C58" s="2">
         <f>_xll.BDP(B58,"PX_LAST")*1.00000001</f>
-        <v>516.00000516</v>
+        <v>512.00000511999997</v>
       </c>
       <c r="D58" s="1">
         <f>IF(A58="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B58,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B58,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B58,"BEST_ANALYST_RATING")))</f>
@@ -48038,7 +48038,7 @@
       </c>
       <c r="C59" s="2">
         <f>_xll.BDP(B59,"PX_LAST")*1.00000001</f>
-        <v>1.22200001222E-2</v>
+        <v>1.2300000122999999E-2</v>
       </c>
       <c r="D59" s="1">
         <f>IF(A59="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B59,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"BEST_ANALYST_RATING")))</f>
@@ -48058,7 +48058,7 @@
          IF(OR(_xll.BDP(B59,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B59,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B59,"YLD_CNV_MID")),
               _xll.BDP(B59,"EQY_DVD_YLD_IND")),
 _xll.BDP(B59,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.8259902731431632</v>
+        <v>2.8076098486023948</v>
       </c>
       <c r="G59" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B59)) = FALSE,  IF(  OR(   _xll.BDP($B59,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B59,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B59,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B59,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B59,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B59,"NXT_CPN_DT")))</f>
@@ -48091,7 +48091,7 @@
       </c>
       <c r="C60" s="2">
         <f>_xll.BDP(B60,"PX_LAST")*1.00000001</f>
-        <v>141.400001414</v>
+        <v>141.25000141249998</v>
       </c>
       <c r="D60" s="1">
         <f>IF(A60="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B60,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B60,"BEST_ANALYST_RATING")))</f>
@@ -48144,7 +48144,7 @@
       </c>
       <c r="C61" s="2">
         <f>_xll.BDP(B61,"PX_LAST")*1.00000001</f>
-        <v>102.85800102857999</v>
+        <v>102.87400102873998</v>
       </c>
       <c r="D61" s="1">
         <f>IF(A61="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B61,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"BEST_ANALYST_RATING")))</f>
@@ -48164,7 +48164,7 @@
          IF(OR(_xll.BDP(B61,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B61,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B61,"YLD_CNV_MID")),
               _xll.BDP(B61,"EQY_DVD_YLD_IND")),
 _xll.BDP(B61,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.8165041999999998</v>
+        <v>3.8106895000000001</v>
       </c>
       <c r="G61" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B61)) = FALSE,  IF(  OR(   _xll.BDP($B61,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B61,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B61,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B61,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B61,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B61,"NXT_CPN_DT")))</f>
@@ -48172,7 +48172,7 @@
       </c>
       <c r="H61" s="1">
         <f>IF(ISERR(FIND("Equity",B61))=FALSE,0,IF(_xll.BDP($B61,"DUR_MID")="#N/A N/A",0,_xll.BDP($B61,"DUR_MID")))</f>
-        <v>2.7106356691499647</v>
+        <v>2.7106524457950747</v>
       </c>
       <c r="I61" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B61)) = FALSE,  IF(  OR(   _xll.BDP($B61,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B61,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B61,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B61,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B61,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B61,"NXT_PUT_DT")))</f>
@@ -48356,7 +48356,7 @@
       </c>
       <c r="C65" s="2">
         <f>_xll.BDP(B65,"PX_LAST")*1.00000001</f>
-        <v>107.92900107928999</v>
+        <v>107.93900107938998</v>
       </c>
       <c r="D65" s="1">
         <f>IF(A65="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B65,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"BEST_ANALYST_RATING")))</f>
@@ -48376,7 +48376,7 @@
          IF(OR(_xll.BDP(B65,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B65,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B65,"YLD_CNV_MID")),
               _xll.BDP(B65,"EQY_DVD_YLD_IND")),
 _xll.BDP(B65,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.9722150000000003</v>
+        <v>5.9665305599999998</v>
       </c>
       <c r="G65" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B65)) = FALSE,  IF(  OR(   _xll.BDP($B65,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B65,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B65,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B65,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B65,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B65,"NXT_CPN_DT")))</f>
@@ -48384,7 +48384,7 @@
       </c>
       <c r="H65" s="1">
         <f>IF(ISERR(FIND("Equity",B65))=FALSE,0,IF(_xll.BDP($B65,"DUR_MID")="#N/A N/A",0,_xll.BDP($B65,"DUR_MID")))</f>
-        <v>1.7422034725200681</v>
+        <v>1.7422113871157419</v>
       </c>
       <c r="I65" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B65)) = FALSE,  IF(  OR(   _xll.BDP($B65,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B65,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B65,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B65,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B65,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B65,"NXT_PUT_DT")))</f>
@@ -48409,7 +48409,7 @@
       </c>
       <c r="C66" s="2">
         <f>_xll.BDP(B66,"PX_LAST")*1.00000001</f>
-        <v>103.80000103799999</v>
+        <v>104.1500010415</v>
       </c>
       <c r="D66" s="1">
         <f>IF(A66="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B66,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B66,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B66,"BEST_ANALYST_RATING")))</f>
@@ -48429,7 +48429,7 @@
          IF(OR(_xll.BDP(B66,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B66,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B66,"YLD_CNV_MID")),
               _xll.BDP(B66,"EQY_DVD_YLD_IND")),
 _xll.BDP(B66,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.41</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="G66" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B66)) = FALSE,  IF(  OR(   _xll.BDP($B66,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B66,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B66,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B66,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B66,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B66,"NXT_CPN_DT")))</f>
@@ -48437,7 +48437,7 @@
       </c>
       <c r="H66" s="1">
         <f>IF(ISERR(FIND("Equity",B66))=FALSE,0,IF(_xll.BDP($B66,"DUR_MID")="#N/A N/A",0,_xll.BDP($B66,"DUR_MID")))</f>
-        <v>2.7831485742903879</v>
+        <v>2.7819996419048425</v>
       </c>
       <c r="I66" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B66)) = FALSE,  IF(  OR(   _xll.BDP($B66,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B66,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B66,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B66,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B66,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B66,"NXT_PUT_DT")))</f>
@@ -48490,7 +48490,7 @@
       </c>
       <c r="H67" s="1">
         <f>IF(ISERR(FIND("Equity",B67))=FALSE,0,IF(_xll.BDP($B67,"DUR_MID")="#N/A N/A",0,_xll.BDP($B67,"DUR_MID")))</f>
-        <v>3.2037959164675307</v>
+        <v>3.2037093177033715</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B67)) = FALSE,  IF(  OR(   _xll.BDP($B67,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B67,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B67,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B67,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B67,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B67,"NXT_PUT_DT")))</f>
@@ -48515,7 +48515,7 @@
       </c>
       <c r="C68" s="2">
         <f>_xll.BDP(B68,"PX_LAST")*1.00000001</f>
-        <v>105.17800105177999</v>
+        <v>105.19500105194999</v>
       </c>
       <c r="D68" s="1">
         <f>IF(A68="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B68,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"BEST_ANALYST_RATING")))</f>
@@ -48535,7 +48535,7 @@
          IF(OR(_xll.BDP(B68,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B68,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B68,"YLD_CNV_MID")),
               _xll.BDP(B68,"EQY_DVD_YLD_IND")),
 _xll.BDP(B68,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.2267362999999998</v>
+        <v>6.2201332999999996</v>
       </c>
       <c r="G68" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B68)) = FALSE,  IF(  OR(   _xll.BDP($B68,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B68,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B68,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B68,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B68,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B68,"NXT_CPN_DT")))</f>
@@ -48543,7 +48543,7 @@
       </c>
       <c r="H68" s="1">
         <f>IF(ISERR(FIND("Equity",B68))=FALSE,0,IF(_xll.BDP($B68,"DUR_MID")="#N/A N/A",0,_xll.BDP($B68,"DUR_MID")))</f>
-        <v>2.5655851622280132</v>
+        <v>2.5656128765201265</v>
       </c>
       <c r="I68" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B68)) = FALSE,  IF(  OR(   _xll.BDP($B68,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B68,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B68,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B68,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B68,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B68,"NXT_PUT_DT")))</f>
@@ -48621,7 +48621,7 @@
       </c>
       <c r="C70" s="2">
         <f>_xll.BDP(B70,"PX_LAST")*1.00000001</f>
-        <v>98.570010985700094</v>
+        <v>98.580000985799998</v>
       </c>
       <c r="D70" s="1">
         <f>IF(A70="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B70,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"BEST_ANALYST_RATING")))</f>
@@ -48641,7 +48641,7 @@
          IF(OR(_xll.BDP(B70,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B70,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B70,"YLD_CNV_MID")),
               _xll.BDP(B70,"EQY_DVD_YLD_IND")),
 _xll.BDP(B70,"BDVD_PROJ_12M_YLD"))</f>
-        <v>8.4600000000000009</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="G70" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B70)) = FALSE,  IF(  OR(   _xll.BDP($B70,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B70,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B70,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B70,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B70,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B70,"NXT_CPN_DT")))</f>
@@ -48649,7 +48649,7 @@
       </c>
       <c r="H70" s="1">
         <f>IF(ISERR(FIND("Equity",B70))=FALSE,0,IF(_xll.BDP($B70,"DUR_MID")="#N/A N/A",0,_xll.BDP($B70,"DUR_MID")))</f>
-        <v>0.66983012403781783</v>
+        <v>0.6698306660307336</v>
       </c>
       <c r="I70" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B70)) = FALSE,  IF(  OR(   _xll.BDP($B70,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B70,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B70,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B70,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B70,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B70,"NXT_PUT_DT")))</f>
@@ -48694,7 +48694,7 @@
          IF(OR(_xll.BDP(B71,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B71,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B71,"YLD_CNV_MID")),
               _xll.BDP(B71,"EQY_DVD_YLD_IND")),
 _xll.BDP(B71,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.4700000000000006</v>
+        <v>9.5</v>
       </c>
       <c r="G71" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B71)) = FALSE,  IF(  OR(   _xll.BDP($B71,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B71,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B71,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B71,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B71,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B71,"NXT_CPN_DT")))</f>
@@ -48702,7 +48702,7 @@
       </c>
       <c r="H71" s="1">
         <f>IF(ISERR(FIND("Equity",B71))=FALSE,0,IF(_xll.BDP($B71,"DUR_MID")="#N/A N/A",0,_xll.BDP($B71,"DUR_MID")))</f>
-        <v>0.68343602810612336</v>
+        <v>0.68343319582168727</v>
       </c>
       <c r="I71" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B71)) = FALSE,  IF(  OR(   _xll.BDP($B71,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B71,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B71,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B71,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B71,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B71,"NXT_PUT_DT")))</f>
@@ -48780,7 +48780,7 @@
       </c>
       <c r="C73" s="2">
         <f>_xll.BDP(B73,"PX_LAST")*1.00000001</f>
-        <v>105.68000105679999</v>
+        <v>105.51000105510001</v>
       </c>
       <c r="D73" s="1">
         <f>IF(A73="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B73,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B73,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B73,"BEST_ANALYST_RATING")))</f>
@@ -48800,7 +48800,7 @@
          IF(OR(_xll.BDP(B73,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B73,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B73,"YLD_CNV_MID")),
               _xll.BDP(B73,"EQY_DVD_YLD_IND")),
 _xll.BDP(B73,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.76</v>
+        <v>9.77</v>
       </c>
       <c r="G73" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B73)) = FALSE,  IF(  OR(   _xll.BDP($B73,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B73,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B73,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B73,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B73,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B73,"NXT_CPN_DT")))</f>
@@ -48808,7 +48808,7 @@
       </c>
       <c r="H73" s="1">
         <f>IF(ISERR(FIND("Equity",B73))=FALSE,0,IF(_xll.BDP($B73,"DUR_MID")="#N/A N/A",0,_xll.BDP($B73,"DUR_MID")))</f>
-        <v>1.7255243338346165</v>
+        <v>1.7255151680358241</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B73)) = FALSE,  IF(  OR(   _xll.BDP($B73,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B73,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B73,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B73,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B73,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B73,"NXT_PUT_DT")))</f>
@@ -48906,7 +48906,7 @@
          IF(OR(_xll.BDP(B75,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B75,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B75,"YLD_CNV_MID")),
               _xll.BDP(B75,"EQY_DVD_YLD_IND")),
 _xll.BDP(B75,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.27</v>
+        <v>10.37</v>
       </c>
       <c r="G75" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B75)) = FALSE,  IF(  OR(   _xll.BDP($B75,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B75,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B75,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B75,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B75,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B75,"NXT_CPN_DT")))</f>
@@ -48914,7 +48914,7 @@
       </c>
       <c r="H75" s="1">
         <f>IF(ISERR(FIND("Equity",B75))=FALSE,0,IF(_xll.BDP($B75,"DUR_MID")="#N/A N/A",0,_xll.BDP($B75,"DUR_MID")))</f>
-        <v>3.1892270195067391</v>
+        <v>3.1881194861050788</v>
       </c>
       <c r="I75" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B75)) = FALSE,  IF(  OR(   _xll.BDP($B75,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B75,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B75,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B75,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B75,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B75,"NXT_PUT_DT")))</f>
@@ -48967,7 +48967,7 @@
       </c>
       <c r="H76" s="1">
         <f>IF(ISERR(FIND("Equity",B76))=FALSE,0,IF(_xll.BDP($B76,"DUR_MID")="#N/A N/A",0,_xll.BDP($B76,"DUR_MID")))</f>
-        <v>3.1892454337968741</v>
+        <v>3.1892270195067391</v>
       </c>
       <c r="I76" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B76)) = FALSE,  IF(  OR(   _xll.BDP($B76,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B76,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B76,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B76,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B76,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B76,"NXT_PUT_DT")))</f>
@@ -48992,7 +48992,7 @@
       </c>
       <c r="C77" s="2">
         <f>_xll.BDP(B77,"PX_LAST")*1.00000001</f>
-        <v>109.50200109501999</v>
+        <v>109.52400109524</v>
       </c>
       <c r="D77" s="1">
         <f>IF(A77="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B77,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"BEST_ANALYST_RATING")))</f>
@@ -49012,7 +49012,7 @@
          IF(OR(_xll.BDP(B77,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B77,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B77,"YLD_CNV_MID")),
               _xll.BDP(B77,"EQY_DVD_YLD_IND")),
 _xll.BDP(B77,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.3065461000000003</v>
+        <v>4.3028319000000002</v>
       </c>
       <c r="G77" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B77)) = FALSE,  IF(  OR(   _xll.BDP($B77,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B77,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B77,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B77,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B77,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B77,"NXT_CPN_DT")))</f>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H77" s="1">
         <f>IF(ISERR(FIND("Equity",B77))=FALSE,0,IF(_xll.BDP($B77,"DUR_MID")="#N/A N/A",0,_xll.BDP($B77,"DUR_MID")))</f>
-        <v>5.5225472985696893</v>
+        <v>5.5226631162315352</v>
       </c>
       <c r="I77" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B77)) = FALSE,  IF(  OR(   _xll.BDP($B77,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B77,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B77,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B77,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B77,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B77,"NXT_PUT_DT")))</f>
@@ -49045,7 +49045,7 @@
       </c>
       <c r="C78" s="2">
         <f>_xll.BDP(B78,"PX_LAST")*1.00000001</f>
-        <v>102.22000102219999</v>
+        <v>102.27600102275998</v>
       </c>
       <c r="D78" s="1">
         <f>IF(A78="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B78,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"BEST_ANALYST_RATING")))</f>
@@ -49065,7 +49065,7 @@
          IF(OR(_xll.BDP(B78,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B78,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B78,"YLD_CNV_MID")),
               _xll.BDP(B78,"EQY_DVD_YLD_IND")),
 _xll.BDP(B78,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.9073570649048914</v>
+        <v>3.8957195931021684</v>
       </c>
       <c r="G78" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B78)) = FALSE,  IF(  OR(   _xll.BDP($B78,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B78,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B78,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B78,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B78,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B78,"NXT_CPN_DT")))</f>
@@ -49073,7 +49073,7 @@
       </c>
       <c r="H78" s="1">
         <f>IF(ISERR(FIND("Equity",B78))=FALSE,0,IF(_xll.BDP($B78,"DUR_MID")="#N/A N/A",0,_xll.BDP($B78,"DUR_MID")))</f>
-        <v>4.7578000802548441</v>
+        <v>4.7579857642023722</v>
       </c>
       <c r="I78" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B78)) = FALSE,  IF(  OR(   _xll.BDP($B78,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B78,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B78,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B78,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B78,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B78,"NXT_PUT_DT")))</f>
@@ -49118,7 +49118,7 @@
          IF(OR(_xll.BDP(B79,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B79,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B79,"YLD_CNV_MID")),
               _xll.BDP(B79,"EQY_DVD_YLD_IND")),
 _xll.BDP(B79,"BDVD_PROJ_12M_YLD"))</f>
-        <v>8.9499999999999993</v>
+        <v>8.94</v>
       </c>
       <c r="G79" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B79)) = FALSE,  IF(  OR(   _xll.BDP($B79,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B79,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B79,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B79,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B79,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B79,"NXT_CPN_DT")))</f>
@@ -49126,7 +49126,7 @@
       </c>
       <c r="H79" s="1">
         <f>IF(ISERR(FIND("Equity",B79))=FALSE,0,IF(_xll.BDP($B79,"DUR_MID")="#N/A N/A",0,_xll.BDP($B79,"DUR_MID")))</f>
-        <v>2.2006294709965353</v>
+        <v>2.2006626486383585</v>
       </c>
       <c r="I79" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B79)) = FALSE,  IF(  OR(   _xll.BDP($B79,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B79,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B79,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B79,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B79,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B79,"NXT_PUT_DT")))</f>
@@ -49171,7 +49171,7 @@
          IF(OR(_xll.BDP(B80,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B80,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B80,"YLD_CNV_MID")),
               _xll.BDP(B80,"EQY_DVD_YLD_IND")),
 _xll.BDP(B80,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.83</v>
+        <v>9.82</v>
       </c>
       <c r="G80" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B80)) = FALSE,  IF(  OR(   _xll.BDP($B80,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B80,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B80,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B80,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B80,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B80,"NXT_CPN_DT")))</f>
@@ -49179,7 +49179,7 @@
       </c>
       <c r="H80" s="1">
         <f>IF(ISERR(FIND("Equity",B80))=FALSE,0,IF(_xll.BDP($B80,"DUR_MID")="#N/A N/A",0,_xll.BDP($B80,"DUR_MID")))</f>
-        <v>0.93360033901019379</v>
+        <v>0.93360085164576256</v>
       </c>
       <c r="I80" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B80)) = FALSE,  IF(  OR(   _xll.BDP($B80,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B80,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B80,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B80,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B80,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B80,"NXT_PUT_DT")))</f>
@@ -49224,7 +49224,7 @@
          IF(OR(_xll.BDP(B81,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B81,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B81,"YLD_CNV_MID")),
               _xll.BDP(B81,"EQY_DVD_YLD_IND")),
 _xll.BDP(B81,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.17</v>
+        <v>8.98</v>
       </c>
       <c r="G81" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B81)) = FALSE,  IF(  OR(   _xll.BDP($B81,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B81,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B81,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B81,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B81,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B81,"NXT_CPN_DT")))</f>
@@ -49232,7 +49232,7 @@
       </c>
       <c r="H81" s="1">
         <f>IF(ISERR(FIND("Equity",B81))=FALSE,0,IF(_xll.BDP($B81,"DUR_MID")="#N/A N/A",0,_xll.BDP($B81,"DUR_MID")))</f>
-        <v>2.545854941136287</v>
+        <v>2.5465780582759212</v>
       </c>
       <c r="I81" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B81)) = FALSE,  IF(  OR(   _xll.BDP($B81,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B81,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B81,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B81,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B81,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B81,"NXT_PUT_DT")))</f>
@@ -49310,7 +49310,7 @@
       </c>
       <c r="C83" s="2">
         <f>_xll.BDP(B83,"PX_LAST")*1.00000001</f>
-        <v>83.170000831699994</v>
+        <v>83.089000830889987</v>
       </c>
       <c r="D83" s="1">
         <f>IF(A83="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B83,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B83,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B83,"BEST_ANALYST_RATING")))</f>
@@ -49330,7 +49330,7 @@
          IF(OR(_xll.BDP(B83,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B83,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B83,"YLD_CNV_MID")),
               _xll.BDP(B83,"EQY_DVD_YLD_IND")),
 _xll.BDP(B83,"BDVD_PROJ_12M_YLD"))</f>
-        <v>26.583667610816519</v>
+        <v>26.668746934419563</v>
       </c>
       <c r="G83" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B83)) = FALSE,  IF(  OR(   _xll.BDP($B83,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B83,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B83,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B83,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B83,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B83,"NXT_CPN_DT")))</f>
@@ -49338,7 +49338,7 @@
       </c>
       <c r="H83" s="1">
         <f>IF(ISERR(FIND("Equity",B83))=FALSE,0,IF(_xll.BDP($B83,"DUR_MID")="#N/A N/A",0,_xll.BDP($B83,"DUR_MID")))</f>
-        <v>1.252504571793287</v>
+        <v>1.2524471935622581</v>
       </c>
       <c r="I83" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B83)) = FALSE,  IF(  OR(   _xll.BDP($B83,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B83,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B83,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B83,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B83,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B83,"NXT_PUT_DT")))</f>
@@ -49363,7 +49363,7 @@
       </c>
       <c r="C84" s="2">
         <f>_xll.BDP(B84,"PX_LAST")*1.00000001</f>
-        <v>109.58100109581</v>
+        <v>109.60400109603999</v>
       </c>
       <c r="D84" s="1">
         <f>IF(A84="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B84,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"BEST_ANALYST_RATING")))</f>
@@ -49383,7 +49383,7 @@
          IF(OR(_xll.BDP(B84,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B84,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B84,"YLD_CNV_MID")),
               _xll.BDP(B84,"EQY_DVD_YLD_IND")),
 _xll.BDP(B84,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.9012051999999997</v>
+        <v>4.8964540000000003</v>
       </c>
       <c r="G84" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B84)) = FALSE,  IF(  OR(   _xll.BDP($B84,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B84,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B84,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B84,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B84,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B84,"NXT_CPN_DT")))</f>
@@ -49391,7 +49391,7 @@
       </c>
       <c r="H84" s="1">
         <f>IF(ISERR(FIND("Equity",B84))=FALSE,0,IF(_xll.BDP($B84,"DUR_MID")="#N/A N/A",0,_xll.BDP($B84,"DUR_MID")))</f>
-        <v>4.5889918474595319</v>
+        <v>4.5890917161612919</v>
       </c>
       <c r="I84" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B84)) = FALSE,  IF(  OR(   _xll.BDP($B84,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B84,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B84,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B84,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B84,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B84,"NXT_PUT_DT")))</f>
@@ -49469,7 +49469,7 @@
       </c>
       <c r="C86" s="2">
         <f>_xll.BDP(B86,"PX_LAST")*1.00000001</f>
-        <v>11.940000119399999</v>
+        <v>11.96500011965</v>
       </c>
       <c r="D86" s="1">
         <f>IF(A86="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B86,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"BEST_ANALYST_RATING")))</f>
@@ -49489,7 +49489,7 @@
          IF(OR(_xll.BDP(B86,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B86,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B86,"YLD_CNV_MID")),
               _xll.BDP(B86,"EQY_DVD_YLD_IND")),
 _xll.BDP(B86,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.636515912897822</v>
+        <v>10.618729096989966</v>
       </c>
       <c r="G86" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B86)) = FALSE,  IF(  OR(   _xll.BDP($B86,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B86,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B86,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B86,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B86,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B86,"NXT_CPN_DT")))</f>
@@ -49628,7 +49628,7 @@
       </c>
       <c r="C89" s="2">
         <f>_xll.BDP(B89,"PX_LAST")*1.00000001</f>
-        <v>104.82200104822</v>
+        <v>104.82400104823999</v>
       </c>
       <c r="D89" s="1">
         <f>IF(A89="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B89,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"BEST_ANALYST_RATING")))</f>
@@ -49648,7 +49648,7 @@
          IF(OR(_xll.BDP(B89,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B89,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B89,"YLD_CNV_MID")),
               _xll.BDP(B89,"EQY_DVD_YLD_IND")),
 _xll.BDP(B89,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.2984749588079483</v>
+        <v>4.2981544006174985</v>
       </c>
       <c r="G89" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B89)) = FALSE,  IF(  OR(   _xll.BDP($B89,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B89,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B89,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B89,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B89,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B89,"NXT_CPN_DT")))</f>
@@ -49656,7 +49656,7 @@
       </c>
       <c r="H89" s="1">
         <f>IF(ISERR(FIND("Equity",B89))=FALSE,0,IF(_xll.BDP($B89,"DUR_MID")="#N/A N/A",0,_xll.BDP($B89,"DUR_MID")))</f>
-        <v>1.4754461491550934</v>
+        <v>1.4754475238535525</v>
       </c>
       <c r="I89" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B89)) = FALSE,  IF(  OR(   _xll.BDP($B89,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B89,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B89,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B89,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B89,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B89,"NXT_PUT_DT")))</f>
@@ -49787,7 +49787,7 @@
       </c>
       <c r="C92" s="2">
         <f>_xll.BDP(B92,"PX_LAST")*1.00000001</f>
-        <v>29.425000294249998</v>
+        <v>29.505000295049996</v>
       </c>
       <c r="D92" s="1">
         <f>IF(A92="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B92,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"BEST_ANALYST_RATING")))</f>
@@ -49807,7 +49807,7 @@
          IF(OR(_xll.BDP(B92,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B92,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B92,"YLD_CNV_MID")),
               _xll.BDP(B92,"EQY_DVD_YLD_IND")),
 _xll.BDP(B92,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.0390824129141887</v>
+        <v>2.0335536349771224</v>
       </c>
       <c r="G92" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B92)) = FALSE,  IF(  OR(   _xll.BDP($B92,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B92,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B92,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B92,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B92,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B92,"NXT_CPN_DT")))</f>
@@ -49840,7 +49840,7 @@
       </c>
       <c r="C93" s="2">
         <f>_xll.BDP(B93,"PX_LAST")*1.00000001</f>
-        <v>106.41800106418</v>
+        <v>106.44100106441</v>
       </c>
       <c r="D93" s="1">
         <f>IF(A93="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B93,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"BEST_ANALYST_RATING")))</f>
@@ -49860,7 +49860,7 @@
          IF(OR(_xll.BDP(B93,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B93,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B93,"YLD_CNV_MID")),
               _xll.BDP(B93,"EQY_DVD_YLD_IND")),
 _xll.BDP(B93,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.2957222000000002</v>
+        <v>3.287693</v>
       </c>
       <c r="G93" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B93)) = FALSE,  IF(  OR(   _xll.BDP($B93,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B93,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B93,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B93,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B93,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B93,"NXT_CPN_DT")))</f>
@@ -49868,7 +49868,7 @@
       </c>
       <c r="H93" s="1">
         <f>IF(ISERR(FIND("Equity",B93))=FALSE,0,IF(_xll.BDP($B93,"DUR_MID")="#N/A N/A",0,_xll.BDP($B93,"DUR_MID")))</f>
-        <v>2.7233796298636888</v>
+        <v>2.723403999338331</v>
       </c>
       <c r="I93" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B93)) = FALSE,  IF(  OR(   _xll.BDP($B93,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B93,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B93,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B93,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B93,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B93,"NXT_PUT_DT")))</f>
@@ -49913,7 +49913,7 @@
          IF(OR(_xll.BDP(B94,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B94,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B94,"YLD_CNV_MID")),
               _xll.BDP(B94,"EQY_DVD_YLD_IND")),
 _xll.BDP(B94,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.050000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="G94" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B94)) = FALSE,  IF(  OR(   _xll.BDP($B94,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B94,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B94,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B94,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B94,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B94,"NXT_CPN_DT")))</f>
@@ -49921,7 +49921,7 @@
       </c>
       <c r="H94" s="1">
         <f>IF(ISERR(FIND("Equity",B94))=FALSE,0,IF(_xll.BDP($B94,"DUR_MID")="#N/A N/A",0,_xll.BDP($B94,"DUR_MID")))</f>
-        <v>0.56332634559073325</v>
+        <v>0.56332973956895249</v>
       </c>
       <c r="I94" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B94)) = FALSE,  IF(  OR(   _xll.BDP($B94,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B94,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B94,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B94,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B94,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B94,"NXT_PUT_DT")))</f>
@@ -49999,7 +49999,7 @@
       </c>
       <c r="C96" s="2">
         <f>_xll.BDP(B96,"PX_LAST")*1.00000001</f>
-        <v>105.0900010509</v>
+        <v>105.00000104999999</v>
       </c>
       <c r="D96" s="1">
         <f>IF(A96="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B96,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"BEST_ANALYST_RATING")))</f>
@@ -50019,7 +50019,7 @@
          IF(OR(_xll.BDP(B96,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B96,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B96,"YLD_CNV_MID")),
               _xll.BDP(B96,"EQY_DVD_YLD_IND")),
 _xll.BDP(B96,"BDVD_PROJ_12M_YLD"))</f>
-        <v>7.52</v>
+        <v>7.54</v>
       </c>
       <c r="G96" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B96)) = FALSE,  IF(  OR(   _xll.BDP($B96,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B96,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B96,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B96,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B96,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B96,"NXT_CPN_DT")))</f>
@@ -50027,7 +50027,7 @@
       </c>
       <c r="H96" s="1">
         <f>IF(ISERR(FIND("Equity",B96))=FALSE,0,IF(_xll.BDP($B96,"DUR_MID")="#N/A N/A",0,_xll.BDP($B96,"DUR_MID")))</f>
-        <v>6.8225836932801673</v>
+        <v>6.8211041154835614</v>
       </c>
       <c r="I96" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B96)) = FALSE,  IF(  OR(   _xll.BDP($B96,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B96,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B96,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B96,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B96,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B96,"NXT_PUT_DT")))</f>
@@ -50052,7 +50052,7 @@
       </c>
       <c r="C97" s="2">
         <f>_xll.BDP(B97,"PX_LAST")*1.00000001</f>
-        <v>95.850010958500093</v>
+        <v>95.840000958399997</v>
       </c>
       <c r="D97" s="1">
         <f>IF(A97="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B97,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B97,"BEST_ANALYST_RATING")))</f>
@@ -50080,7 +50080,7 @@
       </c>
       <c r="H97" s="1">
         <f>IF(ISERR(FIND("Equity",B97))=FALSE,0,IF(_xll.BDP($B97,"DUR_MID")="#N/A N/A",0,_xll.BDP($B97,"DUR_MID")))</f>
-        <v>2.6890448685408899</v>
+        <v>2.6890336586192363</v>
       </c>
       <c r="I97" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B97)) = FALSE,  IF(  OR(   _xll.BDP($B97,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B97,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B97,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B97,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B97,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B97,"NXT_PUT_DT")))</f>
@@ -50105,7 +50105,7 @@
       </c>
       <c r="C98" s="2">
         <f>_xll.BDP(B98,"PX_LAST")*1.00000001</f>
-        <v>90.961000909609993</v>
+        <v>90.836000908359992</v>
       </c>
       <c r="D98" s="1">
         <f>IF(A98="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B98,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B98,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B98,"BEST_ANALYST_RATING")))</f>
@@ -50133,7 +50133,7 @@
       </c>
       <c r="H98" s="1">
         <f>IF(ISERR(FIND("Equity",B98))=FALSE,0,IF(_xll.BDP($B98,"DUR_MID")="#N/A N/A",0,_xll.BDP($B98,"DUR_MID")))</f>
-        <v>9.9603395843053786</v>
+        <v>9.9591076753592134</v>
       </c>
       <c r="I98" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B98)) = FALSE,  IF(  OR(   _xll.BDP($B98,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B98,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B98,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B98,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B98,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B98,"NXT_PUT_DT")))</f>
@@ -50211,7 +50211,7 @@
       </c>
       <c r="C100" s="2">
         <f>_xll.BDP(B100,"PX_LAST")*1.00000001</f>
-        <v>103.24000103239999</v>
+        <v>103.2300010323</v>
       </c>
       <c r="D100" s="1">
         <f>IF(A100="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B100,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B100,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B100,"BEST_ANALYST_RATING")))</f>
@@ -50231,7 +50231,7 @@
          IF(OR(_xll.BDP(B100,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B100,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B100,"YLD_CNV_MID")),
               _xll.BDP(B100,"EQY_DVD_YLD_IND")),
 _xll.BDP(B100,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.210000000000001</v>
+        <v>10.31</v>
       </c>
       <c r="G100" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B100)) = FALSE,  IF(  OR(   _xll.BDP($B100,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B100,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B100,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B100,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B100,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B100,"NXT_CPN_DT")))</f>
@@ -50239,7 +50239,7 @@
       </c>
       <c r="H100" s="1">
         <f>IF(ISERR(FIND("Equity",B100))=FALSE,0,IF(_xll.BDP($B100,"DUR_MID")="#N/A N/A",0,_xll.BDP($B100,"DUR_MID")))</f>
-        <v>2.3853359175341122</v>
+        <v>2.3848655705302084</v>
       </c>
       <c r="I100" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B100)) = FALSE,  IF(  OR(   _xll.BDP($B100,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B100,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B100,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B100,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B100,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B100,"NXT_PUT_DT")))</f>
@@ -50264,7 +50264,7 @@
       </c>
       <c r="C101" s="2">
         <f>_xll.BDP(B101,"PX_LAST")*1.00000001</f>
-        <v>103.24800103248</v>
+        <v>103.23800103238</v>
       </c>
       <c r="D101" s="1">
         <f>IF(A101="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B101,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"BEST_ANALYST_RATING")))</f>
@@ -50284,7 +50284,7 @@
          IF(OR(_xll.BDP(B101,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B101,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B101,"YLD_CNV_MID")),
               _xll.BDP(B101,"EQY_DVD_YLD_IND")),
 _xll.BDP(B101,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.164602340903202</v>
+        <v>4.1768135161970772</v>
       </c>
       <c r="G101" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B101)) = FALSE,  IF(  OR(   _xll.BDP($B101,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B101,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B101,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B101,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B101,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B101,"NXT_CPN_DT")))</f>
@@ -50292,7 +50292,7 @@
       </c>
       <c r="H101" s="1">
         <f>IF(ISERR(FIND("Equity",B101))=FALSE,0,IF(_xll.BDP($B101,"DUR_MID")="#N/A N/A",0,_xll.BDP($B101,"DUR_MID")))</f>
-        <v>0.8841616150896533</v>
+        <v>0.88416059183702334</v>
       </c>
       <c r="I101" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B101)) = FALSE,  IF(  OR(   _xll.BDP($B101,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B101,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B101,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B101,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B101,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B101,"NXT_PUT_DT")))</f>
@@ -50370,7 +50370,7 @@
       </c>
       <c r="C103" s="2">
         <f>_xll.BDP(B103,"PX_LAST")*1.00000001</f>
-        <v>101.62000101619999</v>
+        <v>101.23000101229999</v>
       </c>
       <c r="D103" s="1">
         <f>IF(A103="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B103,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"BEST_ANALYST_RATING")))</f>
@@ -50390,7 +50390,7 @@
          IF(OR(_xll.BDP(B103,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B103,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B103,"YLD_CNV_MID")),
               _xll.BDP(B103,"EQY_DVD_YLD_IND")),
 _xll.BDP(B103,"BDVD_PROJ_12M_YLD"))</f>
-        <v>7.675654398740404</v>
+        <v>7.7052257235997237</v>
       </c>
       <c r="G103" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B103)) = FALSE,  IF(  OR(   _xll.BDP($B103,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B103,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B103,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B103,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B103,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B103,"NXT_CPN_DT")))</f>
@@ -50582,7 +50582,7 @@
       </c>
       <c r="C107" s="2">
         <f>_xll.BDP(B107,"PX_LAST")*1.00000001</f>
-        <v>110.03100110030999</v>
+        <v>110.25000110249999</v>
       </c>
       <c r="D107" s="1">
         <f>IF(A107="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B107,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B107,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B107,"BEST_ANALYST_RATING")))</f>
@@ -50602,7 +50602,7 @@
          IF(OR(_xll.BDP(B107,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B107,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B107,"YLD_CNV_MID")),
               _xll.BDP(B107,"EQY_DVD_YLD_IND")),
 _xll.BDP(B107,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.1815080299999998</v>
+        <v>5.1387269700000004</v>
       </c>
       <c r="G107" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B107)) = FALSE,  IF(  OR(   _xll.BDP($B107,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B107,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B107,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B107,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B107,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B107,"NXT_CPN_DT")))</f>
@@ -50610,7 +50610,7 @@
       </c>
       <c r="H107" s="1">
         <f>IF(ISERR(FIND("Equity",B107))=FALSE,0,IF(_xll.BDP($B107,"DUR_MID")="#N/A N/A",0,_xll.BDP($B107,"DUR_MID")))</f>
-        <v>4.7593449897799234</v>
+        <v>4.7604060517411142</v>
       </c>
       <c r="I107" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B107)) = FALSE,  IF(  OR(   _xll.BDP($B107,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B107,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B107,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B107,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B107,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B107,"NXT_PUT_DT")))</f>
@@ -50635,7 +50635,7 @@
       </c>
       <c r="C108" s="2">
         <f>_xll.BDP(B108,"PX_LAST")*1.00000001</f>
-        <v>107.00000107</v>
+        <v>107.04100107040999</v>
       </c>
       <c r="D108" s="1">
         <f>IF(A108="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B108,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B108,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B108,"BEST_ANALYST_RATING")))</f>
@@ -50655,7 +50655,7 @@
          IF(OR(_xll.BDP(B108,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B108,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B108,"YLD_CNV_MID")),
               _xll.BDP(B108,"EQY_DVD_YLD_IND")),
 _xll.BDP(B108,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.2517402000000004</v>
+        <v>6.2417549000000001</v>
       </c>
       <c r="G108" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B108)) = FALSE,  IF(  OR(   _xll.BDP($B108,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B108,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B108,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B108,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B108,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B108,"NXT_CPN_DT")))</f>
@@ -50663,7 +50663,7 @@
       </c>
       <c r="H108" s="1">
         <f>IF(ISERR(FIND("Equity",B108))=FALSE,0,IF(_xll.BDP($B108,"DUR_MID")="#N/A N/A",0,_xll.BDP($B108,"DUR_MID")))</f>
-        <v>3.3963033147296104</v>
+        <v>3.3964552112634099</v>
       </c>
       <c r="I108" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B108)) = FALSE,  IF(  OR(   _xll.BDP($B108,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B108,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B108,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B108,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B108,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B108,"NXT_PUT_DT")))</f>
@@ -50688,7 +50688,7 @@
       </c>
       <c r="C109" s="2">
         <f>_xll.BDP(B109,"PX_LAST")*1.00000001</f>
-        <v>100.87200100871999</v>
+        <v>100.88000100879999</v>
       </c>
       <c r="D109" s="1">
         <f>IF(A109="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B109,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B109,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B109,"BEST_ANALYST_RATING")))</f>
@@ -50708,7 +50708,7 @@
          IF(OR(_xll.BDP(B109,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B109,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B109,"YLD_CNV_MID")),
               _xll.BDP(B109,"EQY_DVD_YLD_IND")),
 _xll.BDP(B109,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.2743463999999998</v>
+        <v>5.2724279999999997</v>
       </c>
       <c r="G109" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B109)) = FALSE,  IF(  OR(   _xll.BDP($B109,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B109,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B109,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B109,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B109,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B109,"NXT_CPN_DT")))</f>
@@ -50716,7 +50716,7 @@
       </c>
       <c r="H109" s="1">
         <f>IF(ISERR(FIND("Equity",B109))=FALSE,0,IF(_xll.BDP($B109,"DUR_MID")="#N/A N/A",0,_xll.BDP($B109,"DUR_MID")))</f>
-        <v>3.9579047929043543</v>
+        <v>3.9579252739417372</v>
       </c>
       <c r="I109" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B109)) = FALSE,  IF(  OR(   _xll.BDP($B109,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B109,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B109,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B109,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B109,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B109,"NXT_PUT_DT")))</f>
@@ -50741,7 +50741,7 @@
       </c>
       <c r="C110" s="2">
         <f>_xll.BDP(B110,"PX_LAST")*1.00000001</f>
-        <v>115.70800115707999</v>
+        <v>115.78600115786</v>
       </c>
       <c r="D110" s="1">
         <f>IF(A110="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B110,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B110,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B110,"BEST_ANALYST_RATING")))</f>
@@ -50761,7 +50761,7 @@
          IF(OR(_xll.BDP(B110,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B110,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B110,"YLD_CNV_MID")),
               _xll.BDP(B110,"EQY_DVD_YLD_IND")),
 _xll.BDP(B110,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.5406158000000003</v>
+        <v>5.5271135000000005</v>
       </c>
       <c r="G110" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B110)) = FALSE,  IF(  OR(   _xll.BDP($B110,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B110,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B110,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B110,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B110,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B110,"NXT_CPN_DT")))</f>
@@ -50769,7 +50769,7 @@
       </c>
       <c r="H110" s="1">
         <f>IF(ISERR(FIND("Equity",B110))=FALSE,0,IF(_xll.BDP($B110,"DUR_MID")="#N/A N/A",0,_xll.BDP($B110,"DUR_MID")))</f>
-        <v>5.1156837781455593</v>
+        <v>5.1161842756445193</v>
       </c>
       <c r="I110" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B110)) = FALSE,  IF(  OR(   _xll.BDP($B110,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B110,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B110,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B110,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B110,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B110,"NXT_PUT_DT")))</f>
@@ -50794,7 +50794,7 @@
       </c>
       <c r="C111" s="2">
         <f>_xll.BDP(B111,"PX_LAST")*1.00000001</f>
-        <v>100.27500100275</v>
+        <v>100.29200100291999</v>
       </c>
       <c r="D111" s="1">
         <f>IF(A111="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B111,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B111,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B111,"BEST_ANALYST_RATING")))</f>
@@ -50814,7 +50814,7 @@
          IF(OR(_xll.BDP(B111,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B111,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B111,"YLD_CNV_MID")),
               _xll.BDP(B111,"EQY_DVD_YLD_IND")),
 _xll.BDP(B111,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.0564204000000004</v>
+        <v>5.0521770999999998</v>
       </c>
       <c r="G111" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B111)) = FALSE,  IF(  OR(   _xll.BDP($B111,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B111,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B111,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B111,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B111,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B111,"NXT_CPN_DT")))</f>
@@ -50822,7 +50822,7 @@
       </c>
       <c r="H111" s="1">
         <f>IF(ISERR(FIND("Equity",B111))=FALSE,0,IF(_xll.BDP($B111,"DUR_MID")="#N/A N/A",0,_xll.BDP($B111,"DUR_MID")))</f>
-        <v>4.1468781952599256</v>
+        <v>4.1469352504894283</v>
       </c>
       <c r="I111" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B111)) = FALSE,  IF(  OR(   _xll.BDP($B111,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B111,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B111,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B111,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B111,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B111,"NXT_PUT_DT")))</f>
@@ -50847,7 +50847,7 @@
       </c>
       <c r="C112" s="2">
         <f>_xll.BDP(B112,"PX_LAST")*1.00000001</f>
-        <v>105.74200105742</v>
+        <v>105.78300105782999</v>
       </c>
       <c r="D112" s="1">
         <f>IF(A112="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B112,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B112,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B112,"BEST_ANALYST_RATING")))</f>
@@ -50867,7 +50867,7 @@
          IF(OR(_xll.BDP(B112,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B112,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B112,"YLD_CNV_MID")),
               _xll.BDP(B112,"EQY_DVD_YLD_IND")),
 _xll.BDP(B112,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.4556810999999996</v>
+        <v>5.4458057999999996</v>
       </c>
       <c r="G112" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B112)) = FALSE,  IF(  OR(   _xll.BDP($B112,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B112,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B112,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B112,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B112,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B112,"NXT_CPN_DT")))</f>
@@ -50875,7 +50875,7 @@
       </c>
       <c r="H112" s="1">
         <f>IF(ISERR(FIND("Equity",B112))=FALSE,0,IF(_xll.BDP($B112,"DUR_MID")="#N/A N/A",0,_xll.BDP($B112,"DUR_MID")))</f>
-        <v>3.991598546735585</v>
+        <v>3.991761888629739</v>
       </c>
       <c r="I112" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B112)) = FALSE,  IF(  OR(   _xll.BDP($B112,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B112,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B112,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B112,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B112,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B112,"NXT_PUT_DT")))</f>
@@ -50900,7 +50900,7 @@
       </c>
       <c r="C113" s="2">
         <f>_xll.BDP(B113,"PX_LAST")*1.00000001</f>
-        <v>100.35200100352</v>
+        <v>100.37800100378</v>
       </c>
       <c r="D113" s="1">
         <f>IF(A113="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B113,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B113,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B113,"BEST_ANALYST_RATING")))</f>
@@ -50920,7 +50920,7 @@
          IF(OR(_xll.BDP(B113,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B113,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B113,"YLD_CNV_MID")),
               _xll.BDP(B113,"EQY_DVD_YLD_IND")),
 _xll.BDP(B113,"BDVD_PROJ_12M_YLD"))</f>
-        <v>1.72539419</v>
+        <v>1.3635125699999999</v>
       </c>
       <c r="G113" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B113)) = FALSE,  IF(  OR(   _xll.BDP($B113,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B113,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B113,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B113,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B113,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B113,"NXT_CPN_DT")))</f>
@@ -50928,7 +50928,7 @@
       </c>
       <c r="H113" s="1">
         <f>IF(ISERR(FIND("Equity",B113))=FALSE,0,IF(_xll.BDP($B113,"DUR_MID")="#N/A N/A",0,_xll.BDP($B113,"DUR_MID")))</f>
-        <v>7.2222222226946492E-2</v>
+        <v>7.2222222226969987E-2</v>
       </c>
       <c r="I113" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B113)) = FALSE,  IF(  OR(   _xll.BDP($B113,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B113,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B113,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B113,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B113,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B113,"NXT_PUT_DT")))</f>
@@ -51006,7 +51006,7 @@
       </c>
       <c r="C115" s="2">
         <f>_xll.BDP(B115,"PX_LAST")*1.00000001</f>
-        <v>102.29800102297999</v>
+        <v>102.31300102313</v>
       </c>
       <c r="D115" s="1">
         <f>IF(A115="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B115,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B115,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B115,"BEST_ANALYST_RATING")))</f>
@@ -51026,7 +51026,7 @@
          IF(OR(_xll.BDP(B115,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B115,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B115,"YLD_CNV_MID")),
               _xll.BDP(B115,"EQY_DVD_YLD_IND")),
 _xll.BDP(B115,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.0514766</v>
+        <v>5.0468460999999998</v>
       </c>
       <c r="G115" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B115)) = FALSE,  IF(  OR(   _xll.BDP($B115,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B115,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B115,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B115,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B115,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B115,"NXT_CPN_DT")))</f>
@@ -51034,7 +51034,7 @@
       </c>
       <c r="H115" s="1">
         <f>IF(ISERR(FIND("Equity",B115))=FALSE,0,IF(_xll.BDP($B115,"DUR_MID")="#N/A N/A",0,_xll.BDP($B115,"DUR_MID")))</f>
-        <v>3.2908530844516495</v>
+        <v>3.2908888632171087</v>
       </c>
       <c r="I115" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B115)) = FALSE,  IF(  OR(   _xll.BDP($B115,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B115,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B115,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B115,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B115,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B115,"NXT_PUT_DT")))</f>
@@ -51059,7 +51059,7 @@
       </c>
       <c r="C116" s="2">
         <f>_xll.BDP(B116,"PX_LAST")*1.00000001</f>
-        <v>102.2900010229</v>
+        <v>102.30000102299999</v>
       </c>
       <c r="D116" s="1">
         <f>IF(A116="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B116,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B116,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B116,"BEST_ANALYST_RATING")))</f>
@@ -51087,7 +51087,7 @@
       </c>
       <c r="H116" s="1">
         <f>IF(ISERR(FIND("Equity",B116))=FALSE,0,IF(_xll.BDP($B116,"DUR_MID")="#N/A N/A",0,_xll.BDP($B116,"DUR_MID")))</f>
-        <v>0.38754188555079067</v>
+        <v>0.38756983769996123</v>
       </c>
       <c r="I116" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B116)) = FALSE,  IF(  OR(   _xll.BDP($B116,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B116,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B116,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B116,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B116,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B116,"NXT_PUT_DT")))</f>
@@ -51112,7 +51112,7 @@
       </c>
       <c r="C117" s="2">
         <f>_xll.BDP(B117,"PX_LAST")*1.00000001</f>
-        <v>101.0400010104</v>
+        <v>101.0500010105</v>
       </c>
       <c r="D117" s="1">
         <f>IF(A117="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B117,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B117,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B117,"BEST_ANALYST_RATING")))</f>
@@ -51132,7 +51132,7 @@
          IF(OR(_xll.BDP(B117,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B117,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B117,"YLD_CNV_MID")),
               _xll.BDP(B117,"EQY_DVD_YLD_IND")),
 _xll.BDP(B117,"BDVD_PROJ_12M_YLD"))</f>
-        <v>8.81</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G117" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B117)) = FALSE,  IF(  OR(   _xll.BDP($B117,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B117,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B117,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B117,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B117,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B117,"NXT_CPN_DT")))</f>
@@ -51140,7 +51140,7 @@
       </c>
       <c r="H117" s="1">
         <f>IF(ISERR(FIND("Equity",B117))=FALSE,0,IF(_xll.BDP($B117,"DUR_MID")="#N/A N/A",0,_xll.BDP($B117,"DUR_MID")))</f>
-        <v>9.1757757171232676E-2</v>
+        <v>9.180153436041591E-2</v>
       </c>
       <c r="I117" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B117)) = FALSE,  IF(  OR(   _xll.BDP($B117,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B117,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B117,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B117,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B117,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B117,"NXT_PUT_DT")))</f>
@@ -51218,7 +51218,7 @@
       </c>
       <c r="C119" s="2">
         <f>_xll.BDP(B119,"PX_LAST")*1.00000001</f>
-        <v>103.30000103299999</v>
+        <v>103.29000103289999</v>
       </c>
       <c r="D119" s="1">
         <f>IF(A119="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B119,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B119,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B119,"BEST_ANALYST_RATING")))</f>
@@ -51246,7 +51246,7 @@
       </c>
       <c r="H119" s="1">
         <f>IF(ISERR(FIND("Equity",B119))=FALSE,0,IF(_xll.BDP($B119,"DUR_MID")="#N/A N/A",0,_xll.BDP($B119,"DUR_MID")))</f>
-        <v>0.48519257334769894</v>
+        <v>0.48516886381485896</v>
       </c>
       <c r="I119" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B119)) = FALSE,  IF(  OR(   _xll.BDP($B119,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B119,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B119,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B119,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B119,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B119,"NXT_PUT_DT")))</f>
@@ -51271,7 +51271,7 @@
       </c>
       <c r="C120" s="2">
         <f>_xll.BDP(B120,"PX_LAST")*1.00000001</f>
-        <v>104.1500010415</v>
+        <v>104.1400010414</v>
       </c>
       <c r="D120" s="1">
         <f>IF(A120="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B120,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B120,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B120,"BEST_ANALYST_RATING")))</f>
@@ -51299,7 +51299,7 @@
       </c>
       <c r="H120" s="1">
         <f>IF(ISERR(FIND("Equity",B120))=FALSE,0,IF(_xll.BDP($B120,"DUR_MID")="#N/A N/A",0,_xll.BDP($B120,"DUR_MID")))</f>
-        <v>0.20376948425799851</v>
+        <v>0.20372737584362507</v>
       </c>
       <c r="I120" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B120)) = FALSE,  IF(  OR(   _xll.BDP($B120,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B120,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B120,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B120,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B120,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B120,"NXT_PUT_DT")))</f>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="C121" s="2">
         <f>_xll.BDP(B121,"PX_LAST")*1.00000001</f>
-        <v>97.390000973900001</v>
+        <v>97.400010974000082</v>
       </c>
       <c r="D121" s="1">
         <f>IF(A121="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B121,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B121,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B121,"BEST_ANALYST_RATING")))</f>
@@ -51352,7 +51352,7 @@
       </c>
       <c r="H121" s="1">
         <f>IF(ISERR(FIND("Equity",B121))=FALSE,0,IF(_xll.BDP($B121,"DUR_MID")="#N/A N/A",0,_xll.BDP($B121,"DUR_MID")))</f>
-        <v>1.8738054775838235</v>
+        <v>1.87380830826515</v>
       </c>
       <c r="I121" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B121)) = FALSE,  IF(  OR(   _xll.BDP($B121,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B121,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B121,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B121,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B121,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B121,"NXT_PUT_DT")))</f>
@@ -51377,7 +51377,7 @@
       </c>
       <c r="C122" s="2">
         <f>_xll.BDP(B122,"PX_LAST")*1.00000001</f>
-        <v>99.470000994699987</v>
+        <v>99.460010994600097</v>
       </c>
       <c r="D122" s="1">
         <f>IF(A122="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B122,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B122,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B122,"BEST_ANALYST_RATING")))</f>
@@ -51397,7 +51397,7 @@
          IF(OR(_xll.BDP(B122,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B122,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B122,"YLD_CNV_MID")),
               _xll.BDP(B122,"EQY_DVD_YLD_IND")),
 _xll.BDP(B122,"BDVD_PROJ_12M_YLD"))</f>
-        <v>8.2799999999999994</v>
+        <v>8.27</v>
       </c>
       <c r="G122" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B122)) = FALSE,  IF(  OR(   _xll.BDP($B122,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B122,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B122,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B122,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B122,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B122,"NXT_CPN_DT")))</f>
@@ -51405,7 +51405,7 @@
       </c>
       <c r="H122" s="1">
         <f>IF(ISERR(FIND("Equity",B122))=FALSE,0,IF(_xll.BDP($B122,"DUR_MID")="#N/A N/A",0,_xll.BDP($B122,"DUR_MID")))</f>
-        <v>0.7847127715139941</v>
+        <v>0.78471222481003511</v>
       </c>
       <c r="I122" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B122)) = FALSE,  IF(  OR(   _xll.BDP($B122,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B122,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B122,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B122,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B122,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B122,"NXT_PUT_DT")))</f>
@@ -51430,7 +51430,7 @@
       </c>
       <c r="C123" s="2">
         <f>_xll.BDP(B123,"PX_LAST")*1.00000001</f>
-        <v>307.35000307349998</v>
+        <v>306.85000306850003</v>
       </c>
       <c r="D123" s="1">
         <f>IF(A123="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B123,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B123,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B123,"BEST_ANALYST_RATING")))</f>
@@ -51450,7 +51450,7 @@
          IF(OR(_xll.BDP(B123,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B123,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B123,"YLD_CNV_MID")),
               _xll.BDP(B123,"EQY_DVD_YLD_IND")),
 _xll.BDP(B123,"BDVD_PROJ_12M_YLD"))</f>
-        <v>1.9456645518138929</v>
+        <v>1.9488349356363046</v>
       </c>
       <c r="G123" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B123)) = FALSE,  IF(  OR(   _xll.BDP($B123,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B123,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B123,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B123,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B123,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B123,"NXT_CPN_DT")))</f>
@@ -51483,7 +51483,7 @@
       </c>
       <c r="C124" s="2">
         <f>_xll.BDP(B124,"PX_LAST")*1.00000001</f>
-        <v>113.71000113709999</v>
+        <v>113.75600113755999</v>
       </c>
       <c r="D124" s="1">
         <f>IF(A124="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B124,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B124,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B124,"BEST_ANALYST_RATING")))</f>
@@ -51503,7 +51503,7 @@
          IF(OR(_xll.BDP(B124,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B124,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B124,"YLD_CNV_MID")),
               _xll.BDP(B124,"EQY_DVD_YLD_IND")),
 _xll.BDP(B124,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.2831030999999999</v>
+        <v>4.2731136999999997</v>
       </c>
       <c r="G124" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B124)) = FALSE,  IF(  OR(   _xll.BDP($B124,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B124,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B124,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B124,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B124,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B124,"NXT_CPN_DT")))</f>
@@ -51511,7 +51511,7 @@
       </c>
       <c r="H124" s="1">
         <f>IF(ISERR(FIND("Equity",B124))=FALSE,0,IF(_xll.BDP($B124,"DUR_MID")="#N/A N/A",0,_xll.BDP($B124,"DUR_MID")))</f>
-        <v>4.0689991461231525</v>
+        <v>4.0691685864523226</v>
       </c>
       <c r="I124" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B124)) = FALSE,  IF(  OR(   _xll.BDP($B124,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B124,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B124,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B124,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B124,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B124,"NXT_PUT_DT")))</f>
@@ -51536,7 +51536,7 @@
       </c>
       <c r="C125" s="2">
         <f>_xll.BDP(B125,"PX_LAST")*1.00000001</f>
-        <v>103.15700103156999</v>
+        <v>103.1500010315</v>
       </c>
       <c r="D125" s="1">
         <f>IF(A125="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B125,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B125,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B125,"BEST_ANALYST_RATING")))</f>
@@ -51556,7 +51556,7 @@
          IF(OR(_xll.BDP(B125,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B125,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B125,"YLD_CNV_MID")),
               _xll.BDP(B125,"EQY_DVD_YLD_IND")),
 _xll.BDP(B125,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.607247246927908</v>
+        <v>3.6078330316419849</v>
       </c>
       <c r="G125" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B125)) = FALSE,  IF(  OR(   _xll.BDP($B125,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B125,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B125,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B125,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B125,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B125,"NXT_CPN_DT")))</f>
@@ -51564,7 +51564,7 @@
       </c>
       <c r="H125" s="1">
         <f>IF(ISERR(FIND("Equity",B125))=FALSE,0,IF(_xll.BDP($B125,"DUR_MID")="#N/A N/A",0,_xll.BDP($B125,"DUR_MID")))</f>
-        <v>1.6616018443981095</v>
+        <v>1.6615984375873598</v>
       </c>
       <c r="I125" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B125)) = FALSE,  IF(  OR(   _xll.BDP($B125,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B125,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B125,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B125,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B125,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B125,"NXT_PUT_DT")))</f>
@@ -51589,7 +51589,7 @@
       </c>
       <c r="C126" s="2">
         <f>_xll.BDP(B126,"PX_LAST")*1.00000001</f>
-        <v>101.34100101340999</v>
+        <v>101.3700010137</v>
       </c>
       <c r="D126" s="1">
         <f>IF(A126="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B126,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B126,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B126,"BEST_ANALYST_RATING")))</f>
@@ -51609,7 +51609,7 @@
          IF(OR(_xll.BDP(B126,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B126,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B126,"YLD_CNV_MID")),
               _xll.BDP(B126,"EQY_DVD_YLD_IND")),
 _xll.BDP(B126,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.3864261999999998</v>
+        <v>4.3797512999999997</v>
       </c>
       <c r="G126" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B126)) = FALSE,  IF(  OR(   _xll.BDP($B126,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B126,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B126,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B126,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B126,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B126,"NXT_CPN_DT")))</f>
@@ -51617,7 +51617,7 @@
       </c>
       <c r="H126" s="1">
         <f>IF(ISERR(FIND("Equity",B126))=FALSE,0,IF(_xll.BDP($B126,"DUR_MID")="#N/A N/A",0,_xll.BDP($B126,"DUR_MID")))</f>
-        <v>4.3457066352596057</v>
+        <v>4.3457928060127307</v>
       </c>
       <c r="I126" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B126)) = FALSE,  IF(  OR(   _xll.BDP($B126,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B126,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B126,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B126,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B126,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B126,"NXT_PUT_DT")))</f>
@@ -51642,7 +51642,7 @@
       </c>
       <c r="C127" s="2">
         <f>_xll.BDP(B127,"PX_LAST")*1.00000001</f>
-        <v>135.5500013555</v>
+        <v>135.64200135642</v>
       </c>
       <c r="D127" s="1">
         <f>IF(A127="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B127,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B127,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B127,"BEST_ANALYST_RATING")))</f>
@@ -51662,7 +51662,7 @@
          IF(OR(_xll.BDP(B127,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B127,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B127,"YLD_CNV_MID")),
               _xll.BDP(B127,"EQY_DVD_YLD_IND")),
 _xll.BDP(B127,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.3933385804553078</v>
+        <v>5.3865331833752936</v>
       </c>
       <c r="G127" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B127)) = FALSE,  IF(  OR(   _xll.BDP($B127,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B127,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B127,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B127,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B127,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B127,"NXT_CPN_DT")))</f>
@@ -51670,7 +51670,7 @@
       </c>
       <c r="H127" s="1">
         <f>IF(ISERR(FIND("Equity",B127))=FALSE,0,IF(_xll.BDP($B127,"DUR_MID")="#N/A N/A",0,_xll.BDP($B127,"DUR_MID")))</f>
-        <v>10.235132770686141</v>
+        <v>10.237462576110067</v>
       </c>
       <c r="I127" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B127)) = FALSE,  IF(  OR(   _xll.BDP($B127,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B127,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B127,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B127,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B127,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B127,"NXT_PUT_DT")))</f>
@@ -51695,7 +51695,7 @@
       </c>
       <c r="C128" s="2">
         <f>_xll.BDP(B128,"PX_LAST")*1.00000001</f>
-        <v>107.35600107355999</v>
+        <v>107.36000107359999</v>
       </c>
       <c r="D128" s="1">
         <f>IF(A128="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B128,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B128,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B128,"BEST_ANALYST_RATING")))</f>
@@ -51715,7 +51715,7 @@
          IF(OR(_xll.BDP(B128,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B128,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B128,"YLD_CNV_MID")),
               _xll.BDP(B128,"EQY_DVD_YLD_IND")),
 _xll.BDP(B128,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.2738214000000001</v>
+        <v>3.2720166000000002</v>
       </c>
       <c r="G128" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B128)) = FALSE,  IF(  OR(   _xll.BDP($B128,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B128,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B128,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B128,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B128,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B128,"NXT_CPN_DT")))</f>
@@ -51723,7 +51723,7 @@
       </c>
       <c r="H128" s="1">
         <f>IF(ISERR(FIND("Equity",B128))=FALSE,0,IF(_xll.BDP($B128,"DUR_MID")="#N/A N/A",0,_xll.BDP($B128,"DUR_MID")))</f>
-        <v>1.8266564794908215</v>
+        <v>1.8266586205676079</v>
       </c>
       <c r="I128" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B128)) = FALSE,  IF(  OR(   _xll.BDP($B128,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B128,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B128,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B128,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B128,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B128,"NXT_PUT_DT")))</f>
@@ -51748,7 +51748,7 @@
       </c>
       <c r="C129" s="2">
         <f>_xll.BDP(B129,"PX_LAST")*1.00000001</f>
-        <v>66.422000664219993</v>
+        <v>66.512000665119999</v>
       </c>
       <c r="D129" s="1">
         <f>IF(A129="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B129,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B129,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B129,"BEST_ANALYST_RATING")))</f>
@@ -51768,7 +51768,7 @@
          IF(OR(_xll.BDP(B129,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B129,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B129,"YLD_CNV_MID")),
               _xll.BDP(B129,"EQY_DVD_YLD_IND")),
 _xll.BDP(B129,"BDVD_PROJ_12M_YLD"))</f>
-        <v>26.540656252287285</v>
+        <v>26.493333728335397</v>
       </c>
       <c r="G129" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B129)) = FALSE,  IF(  OR(   _xll.BDP($B129,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B129,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B129,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B129,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B129,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B129,"NXT_CPN_DT")))</f>
@@ -51776,7 +51776,7 @@
       </c>
       <c r="H129" s="1">
         <f>IF(ISERR(FIND("Equity",B129))=FALSE,0,IF(_xll.BDP($B129,"DUR_MID")="#N/A N/A",0,_xll.BDP($B129,"DUR_MID")))</f>
-        <v>3.2617285199732073</v>
+        <v>3.2625227212293995</v>
       </c>
       <c r="I129" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B129)) = FALSE,  IF(  OR(   _xll.BDP($B129,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B129,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B129,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B129,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B129,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B129,"NXT_PUT_DT")))</f>
@@ -51801,7 +51801,7 @@
       </c>
       <c r="C130" s="2">
         <f>_xll.BDP(B130,"PX_LAST")*1.00000001</f>
-        <v>111.42000111419999</v>
+        <v>111.45800111457999</v>
       </c>
       <c r="D130" s="1">
         <f>IF(A130="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B130,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B130,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B130,"BEST_ANALYST_RATING")))</f>
@@ -51821,7 +51821,7 @@
          IF(OR(_xll.BDP(B130,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B130,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B130,"YLD_CNV_MID")),
               _xll.BDP(B130,"EQY_DVD_YLD_IND")),
 _xll.BDP(B130,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.8074043</v>
+        <v>4.7968411</v>
       </c>
       <c r="G130" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B130)) = FALSE,  IF(  OR(   _xll.BDP($B130,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B130,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B130,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B130,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B130,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B130,"NXT_CPN_DT")))</f>
@@ -51829,7 +51829,7 @@
       </c>
       <c r="H130" s="1">
         <f>IF(ISERR(FIND("Equity",B130))=FALSE,0,IF(_xll.BDP($B130,"DUR_MID")="#N/A N/A",0,_xll.BDP($B130,"DUR_MID")))</f>
-        <v>3.1822235126367553</v>
+        <v>3.1823264394531434</v>
       </c>
       <c r="I130" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B130)) = FALSE,  IF(  OR(   _xll.BDP($B130,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B130,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B130,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B130,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B130,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B130,"NXT_PUT_DT")))</f>
@@ -51854,7 +51854,7 @@
       </c>
       <c r="C131" s="2">
         <f>_xll.BDP(B131,"PX_LAST")*1.00000001</f>
-        <v>6.6770000667699989E-2</v>
+        <v>6.7110000671099998E-2</v>
       </c>
       <c r="D131" s="1">
         <f>IF(A131="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B131,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B131,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B131,"BEST_ANALYST_RATING")))</f>
@@ -51874,7 +51874,7 @@
          IF(OR(_xll.BDP(B131,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B131,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B131,"YLD_CNV_MID")),
               _xll.BDP(B131,"EQY_DVD_YLD_IND")),
 _xll.BDP(B131,"BDVD_PROJ_12M_YLD"))</f>
-        <v>1.7522838774561365</v>
+        <v>1.7434062657986324</v>
       </c>
       <c r="G131" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B131)) = FALSE,  IF(  OR(   _xll.BDP($B131,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B131,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B131,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B131,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B131,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B131,"NXT_CPN_DT")))</f>
@@ -51907,7 +51907,7 @@
       </c>
       <c r="C132" s="2">
         <f>_xll.BDP(B132,"PX_LAST")*1.00000001</f>
-        <v>110.11900110118999</v>
+        <v>110.13700110136999</v>
       </c>
       <c r="D132" s="1">
         <f>IF(A132="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B132,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B132,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B132,"BEST_ANALYST_RATING")))</f>
@@ -51927,7 +51927,7 @@
          IF(OR(_xll.BDP(B132,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B132,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B132,"YLD_CNV_MID")),
               _xll.BDP(B132,"EQY_DVD_YLD_IND")),
 _xll.BDP(B132,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.4398192000000001</v>
+        <v>3.4338568999999999</v>
       </c>
       <c r="G132" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B132)) = FALSE,  IF(  OR(   _xll.BDP($B132,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B132,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B132,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B132,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B132,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B132,"NXT_CPN_DT")))</f>
@@ -51935,7 +51935,7 @@
       </c>
       <c r="H132" s="1">
         <f>IF(ISERR(FIND("Equity",B132))=FALSE,0,IF(_xll.BDP($B132,"DUR_MID")="#N/A N/A",0,_xll.BDP($B132,"DUR_MID")))</f>
-        <v>2.7972111258510837</v>
+        <v>2.7972453058981932</v>
       </c>
       <c r="I132" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B132)) = FALSE,  IF(  OR(   _xll.BDP($B132,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B132,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B132,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B132,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B132,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B132,"NXT_PUT_DT")))</f>
@@ -51960,7 +51960,7 @@
       </c>
       <c r="C133" s="2">
         <f>_xll.BDP(B133,"PX_LAST")*1.00000001</f>
-        <v>101.06100101061</v>
+        <v>101.06600101066</v>
       </c>
       <c r="D133" s="1">
         <f>IF(A133="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B133,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B133,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B133,"BEST_ANALYST_RATING")))</f>
@@ -51980,7 +51980,7 @@
          IF(OR(_xll.BDP(B133,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B133,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B133,"YLD_CNV_MID")),
               _xll.BDP(B133,"EQY_DVD_YLD_IND")),
 _xll.BDP(B133,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.9481579999999998</v>
+        <v>2.9421232000000002</v>
       </c>
       <c r="G133" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B133)) = FALSE,  IF(  OR(   _xll.BDP($B133,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B133,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B133,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B133,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B133,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B133,"NXT_CPN_DT")))</f>
@@ -51988,7 +51988,7 @@
       </c>
       <c r="H133" s="1">
         <f>IF(ISERR(FIND("Equity",B133))=FALSE,0,IF(_xll.BDP($B133,"DUR_MID")="#N/A N/A",0,_xll.BDP($B133,"DUR_MID")))</f>
-        <v>0.91217520601002322</v>
+        <v>0.91217549876262882</v>
       </c>
       <c r="I133" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B133)) = FALSE,  IF(  OR(   _xll.BDP($B133,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B133,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B133,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B133,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B133,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B133,"NXT_PUT_DT")))</f>
@@ -52119,7 +52119,7 @@
       </c>
       <c r="C136" s="2">
         <f>_xll.BDP(B136,"PX_LAST")*1.00000001</f>
-        <v>111.25600111256</v>
+        <v>111.29100111291</v>
       </c>
       <c r="D136" s="1">
         <f>IF(A136="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B136,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B136,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B136,"BEST_ANALYST_RATING")))</f>
@@ -52139,7 +52139,7 @@
          IF(OR(_xll.BDP(B136,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B136,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B136,"YLD_CNV_MID")),
               _xll.BDP(B136,"EQY_DVD_YLD_IND")),
 _xll.BDP(B136,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.3231601</v>
+        <v>3.3137403000000001</v>
       </c>
       <c r="G136" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B136)) = FALSE,  IF(  OR(   _xll.BDP($B136,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B136,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B136,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B136,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B136,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B136,"NXT_CPN_DT")))</f>
@@ -52147,7 +52147,7 @@
       </c>
       <c r="H136" s="1">
         <f>IF(ISERR(FIND("Equity",B136))=FALSE,0,IF(_xll.BDP($B136,"DUR_MID")="#N/A N/A",0,_xll.BDP($B136,"DUR_MID")))</f>
-        <v>3.2826788726458824</v>
+        <v>3.2827574999073152</v>
       </c>
       <c r="I136" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B136)) = FALSE,  IF(  OR(   _xll.BDP($B136,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B136,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B136,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B136,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B136,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B136,"NXT_PUT_DT")))</f>
@@ -52172,7 +52172,7 @@
       </c>
       <c r="C137" s="2">
         <f>_xll.BDP(B137,"PX_LAST")*1.00000001</f>
-        <v>103.01500103014999</v>
+        <v>103.02800103028</v>
       </c>
       <c r="D137" s="1">
         <f>IF(A137="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B137,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B137,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B137,"BEST_ANALYST_RATING")))</f>
@@ -52192,7 +52192,7 @@
          IF(OR(_xll.BDP(B137,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B137,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B137,"YLD_CNV_MID")),
               _xll.BDP(B137,"EQY_DVD_YLD_IND")),
 _xll.BDP(B137,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.8599934868645471</v>
+        <v>4.8562948210970074</v>
       </c>
       <c r="G137" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B137)) = FALSE,  IF(  OR(   _xll.BDP($B137,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B137,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B137,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B137,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B137,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B137,"NXT_CPN_DT")))</f>
@@ -52200,7 +52200,7 @@
       </c>
       <c r="H137" s="1">
         <f>IF(ISERR(FIND("Equity",B137))=FALSE,0,IF(_xll.BDP($B137,"DUR_MID")="#N/A N/A",0,_xll.BDP($B137,"DUR_MID")))</f>
-        <v>2.6686535427038294</v>
+        <v>2.6686694812785854</v>
       </c>
       <c r="I137" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B137)) = FALSE,  IF(  OR(   _xll.BDP($B137,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B137,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B137,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B137,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B137,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B137,"NXT_PUT_DT")))</f>
@@ -52278,7 +52278,7 @@
       </c>
       <c r="C139" s="2">
         <f>_xll.BDP(B139,"PX_LAST")*1.00000001</f>
-        <v>106.88000106879998</v>
+        <v>106.91700106917</v>
       </c>
       <c r="D139" s="1">
         <f>IF(A139="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B139,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B139,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B139,"BEST_ANALYST_RATING")))</f>
@@ -52298,7 +52298,7 @@
          IF(OR(_xll.BDP(B139,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B139,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B139,"YLD_CNV_MID")),
               _xll.BDP(B139,"EQY_DVD_YLD_IND")),
 _xll.BDP(B139,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.0734811999999998</v>
+        <v>5.0649522999999999</v>
       </c>
       <c r="G139" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B139)) = FALSE,  IF(  OR(   _xll.BDP($B139,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B139,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B139,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B139,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B139,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B139,"NXT_CPN_DT")))</f>
@@ -52306,7 +52306,7 @@
       </c>
       <c r="H139" s="1">
         <f>IF(ISERR(FIND("Equity",B139))=FALSE,0,IF(_xll.BDP($B139,"DUR_MID")="#N/A N/A",0,_xll.BDP($B139,"DUR_MID")))</f>
-        <v>4.0202183040638531</v>
+        <v>4.0203589469319905</v>
       </c>
       <c r="I139" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B139)) = FALSE,  IF(  OR(   _xll.BDP($B139,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B139,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B139,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B139,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B139,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B139,"NXT_PUT_DT")))</f>
@@ -52331,7 +52331,7 @@
       </c>
       <c r="C140" s="2">
         <f>_xll.BDP(B140,"PX_LAST")*1.00000001</f>
-        <v>98.287000982869998</v>
+        <v>98.286000982859989</v>
       </c>
       <c r="D140" s="1">
         <f>IF(A140="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B140,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B140,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B140,"BEST_ANALYST_RATING")))</f>
@@ -52351,7 +52351,7 @@
          IF(OR(_xll.BDP(B140,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B140,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B140,"YLD_CNV_MID")),
               _xll.BDP(B140,"EQY_DVD_YLD_IND")),
 _xll.BDP(B140,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.9121852394655363</v>
+        <v>6.9127769513596258</v>
       </c>
       <c r="G140" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B140)) = FALSE,  IF(  OR(   _xll.BDP($B140,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B140,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B140,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B140,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B140,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B140,"NXT_CPN_DT")))</f>
@@ -52359,7 +52359,7 @@
       </c>
       <c r="H140" s="1">
         <f>IF(ISERR(FIND("Equity",B140))=FALSE,0,IF(_xll.BDP($B140,"DUR_MID")="#N/A N/A",0,_xll.BDP($B140,"DUR_MID")))</f>
-        <v>2.7431705736544529</v>
+        <v>2.7431691173497685</v>
       </c>
       <c r="I140" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B140)) = FALSE,  IF(  OR(   _xll.BDP($B140,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B140,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B140,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B140,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B140,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B140,"NXT_PUT_DT")))</f>
@@ -52437,7 +52437,7 @@
       </c>
       <c r="C142" s="2">
         <f>_xll.BDP(B142,"PX_LAST")*1.00000001</f>
-        <v>114.25700114257</v>
+        <v>114.29400114293999</v>
       </c>
       <c r="D142" s="1">
         <f>IF(A142="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B142,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B142,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B142,"BEST_ANALYST_RATING")))</f>
@@ -52457,7 +52457,7 @@
          IF(OR(_xll.BDP(B142,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B142,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B142,"YLD_CNV_MID")),
               _xll.BDP(B142,"EQY_DVD_YLD_IND")),
 _xll.BDP(B142,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.3114221000000001</v>
+        <v>3.3008071999999999</v>
       </c>
       <c r="G142" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B142)) = FALSE,  IF(  OR(   _xll.BDP($B142,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B142,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B142,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B142,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B142,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B142,"NXT_CPN_DT")))</f>
@@ -52465,7 +52465,7 @@
       </c>
       <c r="H142" s="1">
         <f>IF(ISERR(FIND("Equity",B142))=FALSE,0,IF(_xll.BDP($B142,"DUR_MID")="#N/A N/A",0,_xll.BDP($B142,"DUR_MID")))</f>
-        <v>3.0849385418357986</v>
+        <v>3.0850040420501244</v>
       </c>
       <c r="I142" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B142)) = FALSE,  IF(  OR(   _xll.BDP($B142,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B142,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B142,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B142,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B142,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B142,"NXT_PUT_DT")))</f>
@@ -52490,7 +52490,7 @@
       </c>
       <c r="C143" s="2">
         <f>_xll.BDP(B143,"PX_LAST")*1.00000001</f>
-        <v>78.258000782579984</v>
+        <v>78.274000782739989</v>
       </c>
       <c r="D143" s="1">
         <f>IF(A143="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B143,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B143,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B143,"BEST_ANALYST_RATING")))</f>
@@ -52510,7 +52510,7 @@
          IF(OR(_xll.BDP(B143,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B143,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B143,"YLD_CNV_MID")),
               _xll.BDP(B143,"EQY_DVD_YLD_IND")),
 _xll.BDP(B143,"BDVD_PROJ_12M_YLD"))</f>
-        <v>16.678535100000001</v>
+        <v>16.669961099999998</v>
       </c>
       <c r="G143" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B143)) = FALSE,  IF(  OR(   _xll.BDP($B143,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B143,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B143,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B143,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B143,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B143,"NXT_CPN_DT")))</f>
@@ -52518,7 +52518,7 @@
       </c>
       <c r="H143" s="1">
         <f>IF(ISERR(FIND("Equity",B143))=FALSE,0,IF(_xll.BDP($B143,"DUR_MID")="#N/A N/A",0,_xll.BDP($B143,"DUR_MID")))</f>
-        <v>2.6467251382624983</v>
+        <v>2.6467610069593794</v>
       </c>
       <c r="I143" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B143)) = FALSE,  IF(  OR(   _xll.BDP($B143,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B143,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B143,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B143,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B143,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B143,"NXT_PUT_DT")))</f>
@@ -52702,7 +52702,7 @@
       </c>
       <c r="C147" s="2">
         <f>_xll.BDP(B147,"PX_LAST")*1.00000001</f>
-        <v>26.990000269899998</v>
+        <v>26.920000269199999</v>
       </c>
       <c r="D147" s="1">
         <f>IF(A147="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B147,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B147,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B147,"BEST_ANALYST_RATING")))</f>
@@ -53020,7 +53020,7 @@
       </c>
       <c r="C153" s="2">
         <f>_xll.BDP(B153,"PX_LAST")*1.00000001</f>
-        <v>103.30800103308</v>
+        <v>103.38900103388998</v>
       </c>
       <c r="D153" s="1">
         <f>IF(A153="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B153,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B153,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B153,"BEST_ANALYST_RATING")))</f>
@@ -53040,7 +53040,7 @@
          IF(OR(_xll.BDP(B153,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B153,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B153,"YLD_CNV_MID")),
               _xll.BDP(B153,"EQY_DVD_YLD_IND")),
 _xll.BDP(B153,"BDVD_PROJ_12M_YLD"))</f>
-        <v>7.0404765999999999</v>
+        <v>7.0174789999999998</v>
       </c>
       <c r="G153" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B153)) = FALSE,  IF(  OR(   _xll.BDP($B153,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B153,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B153,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B153,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B153,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B153,"NXT_CPN_DT")))</f>
@@ -53048,7 +53048,7 @@
       </c>
       <c r="H153" s="1">
         <f>IF(ISERR(FIND("Equity",B153))=FALSE,0,IF(_xll.BDP($B153,"DUR_MID")="#N/A N/A",0,_xll.BDP($B153,"DUR_MID")))</f>
-        <v>3.4017947778300148</v>
+        <v>3.4021088172100358</v>
       </c>
       <c r="I153" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B153)) = FALSE,  IF(  OR(   _xll.BDP($B153,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B153,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B153,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B153,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B153,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B153,"NXT_PUT_DT")))</f>
@@ -53073,7 +53073,7 @@
       </c>
       <c r="C154" s="2">
         <f>_xll.BDP(B154,"PX_LAST")*1.00000001</f>
-        <v>95.730000957299993</v>
+        <v>95.600000955999988</v>
       </c>
       <c r="D154" s="1">
         <f>IF(A154="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B154,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B154,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B154,"BEST_ANALYST_RATING")))</f>
@@ -53179,7 +53179,7 @@
       </c>
       <c r="C156" s="2">
         <f>IF(_xll.BDP(B156,"PX_LAST")="#N/A N/A",100,_xll.BDP(B156,"PX_LAST"))</f>
-        <v>94.65</v>
+        <v>94.7</v>
       </c>
       <c r="D156" s="1">
         <f>IF(A156="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B156,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B156,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B156,"BEST_ANALYST_RATING")))</f>
@@ -53338,7 +53338,7 @@
       </c>
       <c r="C159" s="2">
         <f>IF(_xll.BDP(B159,"PX_LAST")="#N/A N/A",100,_xll.BDP(B159,"PX_LAST"))</f>
-        <v>100.508</v>
+        <v>100.511</v>
       </c>
       <c r="D159" s="1">
         <f>IF(A159="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B159,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B159,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B159,"BEST_ANALYST_RATING")))</f>
@@ -53358,7 +53358,7 @@
          IF(OR(_xll.BDP(B159,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B159,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B159,"YLD_CNV_MID")),
               _xll.BDP(B159,"EQY_DVD_YLD_IND")),
 _xll.BDP(B159,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.4827259999999995</v>
+        <v>4.4814166000000002</v>
       </c>
       <c r="G159" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B159)) = FALSE,  IF(  OR(   _xll.BDP($B159,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B159,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B159,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B159,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B159,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B159,"NXT_CPN_DT")))</f>
@@ -53366,7 +53366,7 @@
       </c>
       <c r="H159" s="1">
         <f>IF(ISERR(FIND("Equity",B159))=FALSE,0,IF(_xll.BDP($B159,"DUR_MID")="#N/A N/A",0,_xll.BDP($B159,"DUR_MID")))</f>
-        <v>1.8981891484881774</v>
+        <v>1.8981911703699077</v>
       </c>
       <c r="I159" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B159)) = FALSE,  IF(  OR(   _xll.BDP($B159,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B159,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B159,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B159,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B159,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B159,"NXT_PUT_DT")))</f>
@@ -53391,7 +53391,7 @@
       </c>
       <c r="C160" s="2">
         <f>IF(_xll.BDP(B160,"PX_LAST")="#N/A N/A",100,_xll.BDP(B160,"PX_LAST"))</f>
-        <v>765.8</v>
+        <v>765.5</v>
       </c>
       <c r="D160" s="1">
         <f>IF(A160="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B160,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B160,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B160,"BEST_ANALYST_RATING")))</f>
@@ -53411,7 +53411,7 @@
          IF(OR(_xll.BDP(B160,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B160,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B160,"YLD_CNV_MID")),
               _xll.BDP(B160,"EQY_DVD_YLD_IND")),
 _xll.BDP(B160,"BDVD_PROJ_12M_YLD"))</f>
-        <v>13.027810419114768</v>
+        <v>13.034617896799478</v>
       </c>
       <c r="G160" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B160)) = FALSE,  IF(  OR(   _xll.BDP($B160,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B160,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B160,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B160,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B160,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B160,"NXT_CPN_DT")))</f>
@@ -53444,7 +53444,7 @@
       </c>
       <c r="C161" s="2">
         <f>IF(_xll.BDP(B161,"PX_LAST")="#N/A N/A",100,_xll.BDP(B161,"PX_LAST"))</f>
-        <v>97.100009999999997</v>
+        <v>97.09</v>
       </c>
       <c r="D161" s="1">
         <f>IF(A161="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B161,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B161,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B161,"BEST_ANALYST_RATING")))</f>
@@ -53472,7 +53472,7 @@
       </c>
       <c r="H161" s="1">
         <f>IF(ISERR(FIND("Equity",B161))=FALSE,0,IF(_xll.BDP($B161,"DUR_MID")="#N/A N/A",0,_xll.BDP($B161,"DUR_MID")))</f>
-        <v>2.3057470492815653</v>
+        <v>2.3057386602265888</v>
       </c>
       <c r="I161" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B161)) = FALSE,  IF(  OR(   _xll.BDP($B161,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B161,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B161,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B161,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B161,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B161,"NXT_PUT_DT")))</f>
@@ -53497,7 +53497,7 @@
       </c>
       <c r="C162" s="2">
         <f>IF(_xll.BDP(B162,"PX_LAST")="#N/A N/A",100,_xll.BDP(B162,"PX_LAST"))</f>
-        <v>53.24</v>
+        <v>53.31</v>
       </c>
       <c r="D162" s="1">
         <f>IF(A162="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B162,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B162,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B162,"BEST_ANALYST_RATING")))</f>
@@ -53550,7 +53550,7 @@
       </c>
       <c r="C163" s="2">
         <f>IF(_xll.BDP(B163,"PX_LAST")="#N/A N/A",100,_xll.BDP(B163,"PX_LAST"))</f>
-        <v>56568</v>
+        <v>56572</v>
       </c>
       <c r="D163" s="1">
         <f>IF(A163="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B163,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B163,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B163,"BEST_ANALYST_RATING")))</f>
@@ -53603,7 +53603,7 @@
       </c>
       <c r="C164" s="2">
         <f>IF(_xll.BDP(B164,"PX_LAST")="#N/A N/A",100,_xll.BDP(B164,"PX_LAST"))</f>
-        <v>30900</v>
+        <v>30867</v>
       </c>
       <c r="D164" s="1">
         <f>IF(A164="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B164,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B164,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B164,"BEST_ANALYST_RATING")))</f>
@@ -53656,7 +53656,7 @@
       </c>
       <c r="C165" s="2">
         <f>IF(_xll.BDP(B165,"PX_LAST")="#N/A N/A",100,_xll.BDP(B165,"PX_LAST"))</f>
-        <v>28357</v>
+        <v>28502</v>
       </c>
       <c r="D165" s="1">
         <f>IF(A165="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B165,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B165,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B165,"BEST_ANALYST_RATING")))</f>
@@ -53709,7 +53709,7 @@
       </c>
       <c r="C166" s="2">
         <f>IF(_xll.BDP(B166,"PX_LAST")="#N/A N/A",100,_xll.BDP(B166,"PX_LAST"))</f>
-        <v>124.74</v>
+        <v>125</v>
       </c>
       <c r="D166" s="1">
         <f>IF(A166="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B166,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B166,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B166,"BEST_ANALYST_RATING")))</f>
@@ -53729,7 +53729,7 @@
          IF(OR(_xll.BDP(B166,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B166,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B166,"YLD_CNV_MID")),
               _xll.BDP(B166,"EQY_DVD_YLD_IND")),
 _xll.BDP(B166,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.44</v>
+        <v>10.42</v>
       </c>
       <c r="G166" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B166)) = FALSE,  IF(  OR(   _xll.BDP($B166,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B166,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B166,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B166,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B166,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B166,"NXT_CPN_DT")))</f>
@@ -53737,7 +53737,7 @@
       </c>
       <c r="H166" s="1">
         <f>IF(ISERR(FIND("Equity",B166))=FALSE,0,IF(_xll.BDP($B166,"DUR_MID")="#N/A N/A",0,_xll.BDP($B166,"DUR_MID")))</f>
-        <v>5.7568123323717053</v>
+        <v>5.7590345711380655</v>
       </c>
       <c r="I166" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B166)) = FALSE,  IF(  OR(   _xll.BDP($B166,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B166,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B166,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B166,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B166,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B166,"NXT_PUT_DT")))</f>
@@ -53762,7 +53762,7 @@
       </c>
       <c r="C167" s="2">
         <f>IF(_xll.BDP(B167,"PX_LAST")="#N/A N/A",100,_xll.BDP(B167,"PX_LAST"))</f>
-        <v>107.2</v>
+        <v>107.19</v>
       </c>
       <c r="D167" s="1">
         <f>IF(A167="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B167,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B167,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B167,"BEST_ANALYST_RATING")))</f>
@@ -53790,7 +53790,7 @@
       </c>
       <c r="H167" s="1">
         <f>IF(ISERR(FIND("Equity",B167))=FALSE,0,IF(_xll.BDP($B167,"DUR_MID")="#N/A N/A",0,_xll.BDP($B167,"DUR_MID")))</f>
-        <v>8.6571748259449013</v>
+        <v>8.6570365284810897</v>
       </c>
       <c r="I167" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B167)) = FALSE,  IF(  OR(   _xll.BDP($B167,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B167,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B167,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B167,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B167,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B167,"NXT_PUT_DT")))</f>
@@ -53835,7 +53835,7 @@
          IF(OR(_xll.BDP(B168,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B168,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B168,"YLD_CNV_MID")),
               _xll.BDP(B168,"EQY_DVD_YLD_IND")),
 _xll.BDP(B168,"BDVD_PROJ_12M_YLD"))</f>
-        <v>10.778491914259146</v>
+        <v>10.78029684351767</v>
       </c>
       <c r="G168" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B168)) = FALSE,  IF(  OR(   _xll.BDP($B168,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B168,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B168,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B168,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B168,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B168,"NXT_CPN_DT")))</f>
@@ -53974,7 +53974,7 @@
       </c>
       <c r="C171" s="2">
         <f>IF(_xll.BDP(B171,"PX_LAST")="#N/A N/A",100,_xll.BDP(B171,"PX_LAST"))</f>
-        <v>107.99</v>
+        <v>107.64</v>
       </c>
       <c r="D171" s="1">
         <f>IF(A171="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B171,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B171,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B171,"BEST_ANALYST_RATING")))</f>
@@ -54080,7 +54080,7 @@
       </c>
       <c r="C173" s="2">
         <f>IF(_xll.BDP(B173,"PX_LAST")="#N/A N/A",100,_xll.BDP(B173,"PX_LAST"))</f>
-        <v>100.268</v>
+        <v>100.298</v>
       </c>
       <c r="D173" s="1">
         <f>IF(A173="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B173,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B173,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B173,"BEST_ANALYST_RATING")))</f>
@@ -54100,7 +54100,7 @@
          IF(OR(_xll.BDP(B173,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B173,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B173,"YLD_CNV_MID")),
               _xll.BDP(B173,"EQY_DVD_YLD_IND")),
 _xll.BDP(B173,"BDVD_PROJ_12M_YLD"))</f>
-        <v>1.5000178</v>
+        <v>1.4856815000000001</v>
       </c>
       <c r="G173" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B173)) = FALSE,  IF(  OR(   _xll.BDP($B173,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B173,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B173,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B173,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B173,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B173,"NXT_CPN_DT")))</f>
@@ -54108,7 +54108,7 @@
       </c>
       <c r="H173" s="1">
         <f>IF(ISERR(FIND("Equity",B173))=FALSE,0,IF(_xll.BDP($B173,"DUR_MID")="#N/A N/A",0,_xll.BDP($B173,"DUR_MID")))</f>
-        <v>2.1607137561882555</v>
+        <v>2.1607246675637897</v>
       </c>
       <c r="I173" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B173)) = FALSE,  IF(  OR(   _xll.BDP($B173,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B173,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B173,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B173,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B173,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B173,"NXT_PUT_DT")))</f>
@@ -54133,7 +54133,7 @@
       </c>
       <c r="C174" s="2">
         <f>IF(_xll.BDP(B174,"PX_LAST")="#N/A N/A",100,_xll.BDP(B174,"PX_LAST"))</f>
-        <v>100.673</v>
+        <v>100.688</v>
       </c>
       <c r="D174" s="1">
         <f>IF(A174="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B174,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B174,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B174,"BEST_ANALYST_RATING")))</f>
@@ -54153,7 +54153,7 @@
          IF(OR(_xll.BDP(B174,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B174,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B174,"YLD_CNV_MID")),
               _xll.BDP(B174,"EQY_DVD_YLD_IND")),
 _xll.BDP(B174,"BDVD_PROJ_12M_YLD"))</f>
-        <v>1.3481896</v>
+        <v>1.3365222999999999</v>
       </c>
       <c r="G174" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B174)) = FALSE,  IF(  OR(   _xll.BDP($B174,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B174,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B174,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B174,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B174,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B174,"NXT_CPN_DT")))</f>
@@ -54161,7 +54161,7 @@
       </c>
       <c r="H174" s="1">
         <f>IF(ISERR(FIND("Equity",B174))=FALSE,0,IF(_xll.BDP($B174,"DUR_MID")="#N/A N/A",0,_xll.BDP($B174,"DUR_MID")))</f>
-        <v>1.280615114049398</v>
+        <v>1.280616428643061</v>
       </c>
       <c r="I174" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B174)) = FALSE,  IF(  OR(   _xll.BDP($B174,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B174,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B174,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B174,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B174,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B174,"NXT_PUT_DT")))</f>
@@ -54662,7 +54662,7 @@
       </c>
       <c r="C184" s="2">
         <f>IF(_xll.BDP(B184,"PX_LAST")="#N/A N/A",100,_xll.BDP(B184,"PX_LAST"))</f>
-        <v>101.99</v>
+        <v>101.6</v>
       </c>
       <c r="D184" s="1">
         <f>IF(A184="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B184,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B184,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B184,"BEST_ANALYST_RATING")))</f>
@@ -54768,7 +54768,7 @@
       </c>
       <c r="C186" s="2">
         <f>IF(_xll.BDP(B186,"PX_LAST")="#N/A N/A",100,_xll.BDP(B186,"PX_LAST"))</f>
-        <v>106.044</v>
+        <v>106.04300000000001</v>
       </c>
       <c r="D186" s="1">
         <f>IF(A186="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B186,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B186,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B186,"BEST_ANALYST_RATING")))</f>
@@ -54788,7 +54788,7 @@
          IF(OR(_xll.BDP(B186,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B186,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B186,"YLD_CNV_MID")),
               _xll.BDP(B186,"EQY_DVD_YLD_IND")),
 _xll.BDP(B186,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.0929237999999999</v>
+        <v>2.093477</v>
       </c>
       <c r="G186" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B186)) = FALSE,  IF(  OR(   _xll.BDP($B186,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B186,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B186,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B186,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B186,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B186,"NXT_CPN_DT")))</f>
@@ -54796,7 +54796,7 @@
       </c>
       <c r="H186" s="1">
         <f>IF(ISERR(FIND("Equity",B186))=FALSE,0,IF(_xll.BDP($B186,"DUR_MID")="#N/A N/A",0,_xll.BDP($B186,"DUR_MID")))</f>
-        <v>1.7061311760881055</v>
+        <v>1.7061308085413862</v>
       </c>
       <c r="I186" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B186)) = FALSE,  IF(  OR(   _xll.BDP($B186,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B186,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B186,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B186,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B186,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B186,"NXT_PUT_DT")))</f>
@@ -54821,7 +54821,7 @@
       </c>
       <c r="C187" s="2">
         <f>IF(_xll.BDP(B187,"PX_LAST")="#N/A N/A",100,_xll.BDP(B187,"PX_LAST"))</f>
-        <v>24.495000000000001</v>
+        <v>24.414999999999999</v>
       </c>
       <c r="D187" s="1">
         <f>IF(A187="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B187,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B187,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B187,"BEST_ANALYST_RATING")))</f>
@@ -54833,7 +54833,7 @@
            IF(OR(_xll.BDP(B187,"INT_ACC")="#N/A N/A",_xll.BDP(B187,"INT_ACC")="#N/A Field Not Applicable"), 0, _xll.BDP(B187,"INT_ACC")),
       _xll.BDP(B187,"BEST_TARGET_PRICE"))
 )</f>
-        <v>28.535394668579102</v>
+        <v>28.53472900390625</v>
       </c>
       <c r="F187" s="1">
         <f>IF(OR(_xll.BDP(B187,"BDVD_PROJ_12M_YLD")="#N/A N/A",_xll.BDP(B187,"BDVD_PROJ_12M_YLD")="#N/A Field Not Applicable"),
@@ -54841,7 +54841,7 @@
          IF(OR(_xll.BDP(B187,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B187,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B187,"YLD_CNV_MID")),
               _xll.BDP(B187,"EQY_DVD_YLD_IND")),
 _xll.BDP(B187,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.8441552954270994</v>
+        <v>6.8659691006927828</v>
       </c>
       <c r="G187" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B187)) = FALSE,  IF(  OR(   _xll.BDP($B187,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B187,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B187,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B187,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B187,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B187,"NXT_CPN_DT")))</f>
@@ -54927,7 +54927,7 @@
       </c>
       <c r="C189" s="2">
         <f>IF(_xll.BDP(B189,"PX_LAST")="#N/A N/A",100,_xll.BDP(B189,"PX_LAST"))</f>
-        <v>107.15</v>
+        <v>107.17</v>
       </c>
       <c r="D189" s="1">
         <f>IF(A189="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B189,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B189,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B189,"BEST_ANALYST_RATING")))</f>
@@ -54947,7 +54947,7 @@
          IF(OR(_xll.BDP(B189,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B189,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B189,"YLD_CNV_MID")),
               _xll.BDP(B189,"EQY_DVD_YLD_IND")),
 _xll.BDP(B189,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.7865609806717639</v>
+        <v>3.785854334972282</v>
       </c>
       <c r="G189" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B189)) = FALSE,  IF(  OR(   _xll.BDP($B189,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B189,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B189,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B189,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B189,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B189,"NXT_CPN_DT")))</f>
@@ -55033,7 +55033,7 @@
       </c>
       <c r="C191" s="2">
         <f>IF(_xll.BDP(B191,"PX_LAST")="#N/A N/A",100,_xll.BDP(B191,"PX_LAST"))</f>
-        <v>19.965</v>
+        <v>19.844999999999999</v>
       </c>
       <c r="D191" s="1">
         <f>IF(A191="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B191,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B191,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B191,"BEST_ANALYST_RATING")))</f>
@@ -55053,7 +55053,7 @@
          IF(OR(_xll.BDP(B191,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B191,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B191,"YLD_CNV_MID")),
               _xll.BDP(B191,"EQY_DVD_YLD_IND")),
 _xll.BDP(B191,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.005259203606311</v>
+        <v>3.0234315948601664</v>
       </c>
       <c r="G191" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B191)) = FALSE,  IF(  OR(   _xll.BDP($B191,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B191,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B191,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B191,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B191,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B191,"NXT_CPN_DT")))</f>
@@ -55086,7 +55086,7 @@
       </c>
       <c r="C192" s="2">
         <f>IF(_xll.BDP(B192,"PX_LAST")="#N/A N/A",100,_xll.BDP(B192,"PX_LAST"))</f>
-        <v>1073</v>
+        <v>1064.5</v>
       </c>
       <c r="D192" s="1">
         <f>IF(A192="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B192,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B192,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B192,"BEST_ANALYST_RATING")))</f>
@@ -55106,7 +55106,7 @@
          IF(OR(_xll.BDP(B192,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B192,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B192,"YLD_CNV_MID")),
               _xll.BDP(B192,"EQY_DVD_YLD_IND")),
 _xll.BDP(B192,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.8755522618644838</v>
+        <v>2.8998555012743705</v>
       </c>
       <c r="G192" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B192)) = FALSE,  IF(  OR(   _xll.BDP($B192,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B192,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B192,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B192,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B192,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B192,"NXT_CPN_DT")))</f>
@@ -55192,7 +55192,7 @@
       </c>
       <c r="C194" s="2">
         <f>IF(_xll.BDP(B194,"PX_LAST")="#N/A N/A",100,_xll.BDP(B194,"PX_LAST"))</f>
-        <v>103.3</v>
+        <v>103.35</v>
       </c>
       <c r="D194" s="1">
         <f>IF(A194="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B194,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B194,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B194,"BEST_ANALYST_RATING")))</f>
@@ -55212,7 +55212,7 @@
          IF(OR(_xll.BDP(B194,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B194,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B194,"YLD_CNV_MID")),
               _xll.BDP(B194,"EQY_DVD_YLD_IND")),
 _xll.BDP(B194,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.6199999999999992</v>
+        <v>18.86</v>
       </c>
       <c r="G194" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B194)) = FALSE,  IF(  OR(   _xll.BDP($B194,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B194,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B194,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B194,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B194,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B194,"NXT_CPN_DT")))</f>
@@ -55220,7 +55220,7 @@
       </c>
       <c r="H194" s="1">
         <f>IF(ISERR(FIND("Equity",B194))=FALSE,0,IF(_xll.BDP($B194,"DUR_MID")="#N/A N/A",0,_xll.BDP($B194,"DUR_MID")))</f>
-        <v>2.7171208240785574</v>
+        <v>2.6458042877016368</v>
       </c>
       <c r="I194" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B194)) = FALSE,  IF(  OR(   _xll.BDP($B194,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B194,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B194,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B194,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B194,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B194,"NXT_PUT_DT")))</f>
@@ -55245,7 +55245,7 @@
       </c>
       <c r="C195" s="2">
         <f>IF(_xll.BDP(B195,"PX_LAST")="#N/A N/A",100,_xll.BDP(B195,"PX_LAST"))</f>
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="D195" s="1">
         <f>IF(A195="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B195,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B195,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B195,"BEST_ANALYST_RATING")))</f>
@@ -55265,7 +55265,7 @@
          IF(OR(_xll.BDP(B195,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B195,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B195,"YLD_CNV_MID")),
               _xll.BDP(B195,"EQY_DVD_YLD_IND")),
 _xll.BDP(B195,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.9</v>
+        <v>10.15</v>
       </c>
       <c r="G195" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B195)) = FALSE,  IF(  OR(   _xll.BDP($B195,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B195,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B195,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B195,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B195,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B195,"NXT_CPN_DT")))</f>
@@ -55273,7 +55273,7 @@
       </c>
       <c r="H195" s="1">
         <f>IF(ISERR(FIND("Equity",B195))=FALSE,0,IF(_xll.BDP($B195,"DUR_MID")="#N/A N/A",0,_xll.BDP($B195,"DUR_MID")))</f>
-        <v>2.1074873850119298</v>
+        <v>2.1068448528365993</v>
       </c>
       <c r="I195" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B195)) = FALSE,  IF(  OR(   _xll.BDP($B195,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B195,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B195,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B195,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B195,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B195,"NXT_PUT_DT")))</f>
@@ -55424,7 +55424,7 @@
          IF(OR(_xll.BDP(B198,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B198,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B198,"YLD_CNV_MID")),
               _xll.BDP(B198,"EQY_DVD_YLD_IND")),
 _xll.BDP(B198,"BDVD_PROJ_12M_YLD"))</f>
-        <v>13.3</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="G198" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B198)) = FALSE,  IF(  OR(   _xll.BDP($B198,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B198,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B198,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B198,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B198,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B198,"NXT_CPN_DT")))</f>
@@ -55432,7 +55432,7 @@
       </c>
       <c r="H198" s="1">
         <f>IF(ISERR(FIND("Equity",B198))=FALSE,0,IF(_xll.BDP($B198,"DUR_MID")="#N/A N/A",0,_xll.BDP($B198,"DUR_MID")))</f>
-        <v>0.6613139518954988</v>
+        <v>0.66180317878862283</v>
       </c>
       <c r="I198" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B198)) = FALSE,  IF(  OR(   _xll.BDP($B198,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B198,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B198,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B198,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B198,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B198,"NXT_PUT_DT")))</f>
@@ -55477,7 +55477,7 @@
          IF(OR(_xll.BDP(B199,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B199,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B199,"YLD_CNV_MID")),
               _xll.BDP(B199,"EQY_DVD_YLD_IND")),
 _xll.BDP(B199,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.94</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="G199" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B199)) = FALSE,  IF(  OR(   _xll.BDP($B199,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B199,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B199,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B199,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B199,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B199,"NXT_CPN_DT")))</f>
@@ -55510,7 +55510,7 @@
       </c>
       <c r="C200" s="2">
         <f>IF(_xll.BDP(B200,"PX_LAST")="#N/A N/A",100,_xll.BDP(B200,"PX_LAST"))</f>
-        <v>103.375</v>
+        <v>103.38200000000001</v>
       </c>
       <c r="D200" s="1">
         <f>IF(A200="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B200,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B200,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B200,"BEST_ANALYST_RATING")))</f>
@@ -55530,7 +55530,7 @@
          IF(OR(_xll.BDP(B200,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B200,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B200,"YLD_CNV_MID")),
               _xll.BDP(B200,"EQY_DVD_YLD_IND")),
 _xll.BDP(B200,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.6976423999999999</v>
+        <v>2.6896898999999999</v>
       </c>
       <c r="G200" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B200)) = FALSE,  IF(  OR(   _xll.BDP($B200,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B200,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B200,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B200,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B200,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B200,"NXT_CPN_DT")))</f>
@@ -55538,7 +55538,7 @@
       </c>
       <c r="H200" s="1">
         <f>IF(ISERR(FIND("Equity",B200))=FALSE,0,IF(_xll.BDP($B200,"DUR_MID")="#N/A N/A",0,_xll.BDP($B200,"DUR_MID")))</f>
-        <v>0.92093279076090062</v>
+        <v>0.92093336818096172</v>
       </c>
       <c r="I200" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B200)) = FALSE,  IF(  OR(   _xll.BDP($B200,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B200,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B200,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B200,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B200,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B200,"NXT_PUT_DT")))</f>
@@ -55669,7 +55669,7 @@
       </c>
       <c r="C203" s="2">
         <f>IF(_xll.BDP(B203,"PX_LAST")="#N/A N/A",100,_xll.BDP(B203,"PX_LAST"))</f>
-        <v>106.09</v>
+        <v>105.9</v>
       </c>
       <c r="D203" s="1">
         <f>IF(A203="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B203,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B203,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B203,"BEST_ANALYST_RATING")))</f>
@@ -55689,7 +55689,7 @@
          IF(OR(_xll.BDP(B203,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B203,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B203,"YLD_CNV_MID")),
               _xll.BDP(B203,"EQY_DVD_YLD_IND")),
 _xll.BDP(B203,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.9</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="G203" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B203)) = FALSE,  IF(  OR(   _xll.BDP($B203,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B203,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B203,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B203,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B203,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B203,"NXT_CPN_DT")))</f>
@@ -55697,7 +55697,7 @@
       </c>
       <c r="H203" s="1">
         <f>IF(ISERR(FIND("Equity",B203))=FALSE,0,IF(_xll.BDP($B203,"DUR_MID")="#N/A N/A",0,_xll.BDP($B203,"DUR_MID")))</f>
-        <v>1.8138159449091744</v>
+        <v>1.8133504347654956</v>
       </c>
       <c r="I203" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B203)) = FALSE,  IF(  OR(   _xll.BDP($B203,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B203,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B203,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B203,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B203,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B203,"NXT_PUT_DT")))</f>
@@ -55722,7 +55722,7 @@
       </c>
       <c r="C204" s="2">
         <f>IF(_xll.BDP(B204,"PX_LAST")="#N/A N/A",100,_xll.BDP(B204,"PX_LAST"))</f>
-        <v>50.04</v>
+        <v>50.3</v>
       </c>
       <c r="D204" s="1">
         <f>IF(A204="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B204,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B204,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B204,"BEST_ANALYST_RATING")))</f>
@@ -55742,7 +55742,7 @@
          IF(OR(_xll.BDP(B204,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B204,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B204,"YLD_CNV_MID")),
               _xll.BDP(B204,"EQY_DVD_YLD_IND")),
 _xll.BDP(B204,"BDVD_PROJ_12M_YLD"))</f>
-        <v>7.0922759309025807</v>
+        <v>7.0585473731351227</v>
       </c>
       <c r="G204" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B204)) = FALSE,  IF(  OR(   _xll.BDP($B204,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B204,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B204,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B204,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B204,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B204,"NXT_CPN_DT")))</f>
@@ -55775,7 +55775,7 @@
       </c>
       <c r="C205" s="2">
         <f>IF(_xll.BDP(B205,"PX_LAST")="#N/A N/A",100,_xll.BDP(B205,"PX_LAST"))</f>
-        <v>107.542</v>
+        <v>107.613</v>
       </c>
       <c r="D205" s="1">
         <f>IF(A205="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B205,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B205,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B205,"BEST_ANALYST_RATING")))</f>
@@ -55795,7 +55795,7 @@
          IF(OR(_xll.BDP(B205,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B205,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B205,"YLD_CNV_MID")),
               _xll.BDP(B205,"EQY_DVD_YLD_IND")),
 _xll.BDP(B205,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.1315685186623057</v>
+        <v>6.1147235341952344</v>
       </c>
       <c r="G205" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B205)) = FALSE,  IF(  OR(   _xll.BDP($B205,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B205,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B205,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B205,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B205,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B205,"NXT_CPN_DT")))</f>
@@ -55803,7 +55803,7 @@
       </c>
       <c r="H205" s="1">
         <f>IF(ISERR(FIND("Equity",B205))=FALSE,0,IF(_xll.BDP($B205,"DUR_MID")="#N/A N/A",0,_xll.BDP($B205,"DUR_MID")))</f>
-        <v>3.9558052129677002</v>
+        <v>3.9560956591768277</v>
       </c>
       <c r="I205" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B205)) = FALSE,  IF(  OR(   _xll.BDP($B205,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B205,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B205,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B205,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B205,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B205,"NXT_PUT_DT")))</f>
@@ -55828,7 +55828,7 @@
       </c>
       <c r="C206" s="2">
         <f>IF(_xll.BDP(B206,"PX_LAST")="#N/A N/A",100,_xll.BDP(B206,"PX_LAST"))</f>
-        <v>108.45699999999999</v>
+        <v>108.505</v>
       </c>
       <c r="D206" s="1">
         <f>IF(A206="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B206,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B206,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B206,"BEST_ANALYST_RATING")))</f>
@@ -55848,7 +55848,7 @@
          IF(OR(_xll.BDP(B206,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B206,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B206,"YLD_CNV_MID")),
               _xll.BDP(B206,"EQY_DVD_YLD_IND")),
 _xll.BDP(B206,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.1652797000000001</v>
+        <v>4.1553364999999998</v>
       </c>
       <c r="G206" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B206)) = FALSE,  IF(  OR(   _xll.BDP($B206,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B206,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B206,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B206,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B206,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B206,"NXT_CPN_DT")))</f>
@@ -55856,7 +55856,7 @@
       </c>
       <c r="H206" s="1">
         <f>IF(ISERR(FIND("Equity",B206))=FALSE,0,IF(_xll.BDP($B206,"DUR_MID")="#N/A N/A",0,_xll.BDP($B206,"DUR_MID")))</f>
-        <v>4.3968263084984187</v>
+        <v>4.3970214363344642</v>
       </c>
       <c r="I206" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B206)) = FALSE,  IF(  OR(   _xll.BDP($B206,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B206,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B206,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B206,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B206,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B206,"NXT_PUT_DT")))</f>
@@ -55881,7 +55881,7 @@
       </c>
       <c r="C207" s="2">
         <f>IF(_xll.BDP(B207,"PX_LAST")="#N/A N/A",100,_xll.BDP(B207,"PX_LAST"))</f>
-        <v>104.84699999999999</v>
+        <v>104.877</v>
       </c>
       <c r="D207" s="1">
         <f>IF(A207="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B207,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B207,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B207,"BEST_ANALYST_RATING")))</f>
@@ -55901,7 +55901,7 @@
          IF(OR(_xll.BDP(B207,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B207,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B207,"YLD_CNV_MID")),
               _xll.BDP(B207,"EQY_DVD_YLD_IND")),
 _xll.BDP(B207,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.1162308999999997</v>
+        <v>4.1102673000000003</v>
       </c>
       <c r="G207" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B207)) = FALSE,  IF(  OR(   _xll.BDP($B207,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B207,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B207,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B207,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B207,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B207,"NXT_CPN_DT")))</f>
@@ -55909,7 +55909,7 @@
       </c>
       <c r="H207" s="1">
         <f>IF(ISERR(FIND("Equity",B207))=FALSE,0,IF(_xll.BDP($B207,"DUR_MID")="#N/A N/A",0,_xll.BDP($B207,"DUR_MID")))</f>
-        <v>4.7940419322903081</v>
+        <v>4.7941502303068813</v>
       </c>
       <c r="I207" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B207)) = FALSE,  IF(  OR(   _xll.BDP($B207,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B207,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B207,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B207,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B207,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B207,"NXT_PUT_DT")))</f>
@@ -55934,7 +55934,7 @@
       </c>
       <c r="C208" s="2">
         <f>IF(_xll.BDP(B208,"PX_LAST")="#N/A N/A",100,_xll.BDP(B208,"PX_LAST"))</f>
-        <v>105.587</v>
+        <v>105.613</v>
       </c>
       <c r="D208" s="1">
         <f>IF(A208="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B208,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B208,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B208,"BEST_ANALYST_RATING")))</f>
@@ -55954,7 +55954,7 @@
          IF(OR(_xll.BDP(B208,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B208,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B208,"YLD_CNV_MID")),
               _xll.BDP(B208,"EQY_DVD_YLD_IND")),
 _xll.BDP(B208,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.4544110999999997</v>
+        <v>4.4475550000000004</v>
       </c>
       <c r="G208" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B208)) = FALSE,  IF(  OR(   _xll.BDP($B208,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B208,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B208,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B208,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B208,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B208,"NXT_CPN_DT")))</f>
@@ -55962,7 +55962,7 @@
       </c>
       <c r="H208" s="1">
         <f>IF(ISERR(FIND("Equity",B208))=FALSE,0,IF(_xll.BDP($B208,"DUR_MID")="#N/A N/A",0,_xll.BDP($B208,"DUR_MID")))</f>
-        <v>3.6664163173395323</v>
+        <v>3.6664906730400726</v>
       </c>
       <c r="I208" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B208)) = FALSE,  IF(  OR(   _xll.BDP($B208,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B208,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B208,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B208,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B208,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B208,"NXT_PUT_DT")))</f>
@@ -56093,7 +56093,7 @@
       </c>
       <c r="C211" s="2">
         <f>IF(_xll.BDP(B211,"PX_LAST")="#N/A N/A",100,_xll.BDP(B211,"PX_LAST"))</f>
-        <v>101.02800000000001</v>
+        <v>101.09699999999999</v>
       </c>
       <c r="D211" s="1">
         <f>IF(A211="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B211,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B211,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B211,"BEST_ANALYST_RATING")))</f>
@@ -56113,7 +56113,7 @@
          IF(OR(_xll.BDP(B211,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B211,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B211,"YLD_CNV_MID")),
               _xll.BDP(B211,"EQY_DVD_YLD_IND")),
 _xll.BDP(B211,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.9559275418409845</v>
+        <v>4.9448815372342008</v>
       </c>
       <c r="G211" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B211)) = FALSE,  IF(  OR(   _xll.BDP($B211,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B211,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B211,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B211,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B211,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B211,"NXT_CPN_DT")))</f>
@@ -56121,7 +56121,7 @@
       </c>
       <c r="H211" s="1">
         <f>IF(ISERR(FIND("Equity",B211))=FALSE,0,IF(_xll.BDP($B211,"DUR_MID")="#N/A N/A",0,_xll.BDP($B211,"DUR_MID")))</f>
-        <v>6.2025970308892306</v>
+        <v>6.2030840900799049</v>
       </c>
       <c r="I211" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B211)) = FALSE,  IF(  OR(   _xll.BDP($B211,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B211,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B211,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B211,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B211,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B211,"NXT_PUT_DT")))</f>
@@ -56146,7 +56146,7 @@
       </c>
       <c r="C212" s="2">
         <f>IF(_xll.BDP(B212,"PX_LAST")="#N/A N/A",100,_xll.BDP(B212,"PX_LAST"))</f>
-        <v>103.43</v>
+        <v>103.5</v>
       </c>
       <c r="D212" s="1">
         <f>IF(A212="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B212,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B212,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B212,"BEST_ANALYST_RATING")))</f>
@@ -56166,7 +56166,7 @@
          IF(OR(_xll.BDP(B212,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B212,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B212,"YLD_CNV_MID")),
               _xll.BDP(B212,"EQY_DVD_YLD_IND")),
 _xll.BDP(B212,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.98</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="G212" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B212)) = FALSE,  IF(  OR(   _xll.BDP($B212,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B212,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B212,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B212,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B212,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B212,"NXT_CPN_DT")))</f>
@@ -56174,7 +56174,7 @@
       </c>
       <c r="H212" s="1">
         <f>IF(ISERR(FIND("Equity",B212))=FALSE,0,IF(_xll.BDP($B212,"DUR_MID")="#N/A N/A",0,_xll.BDP($B212,"DUR_MID")))</f>
-        <v>0.64006370520309552</v>
+        <v>0.64011596378722246</v>
       </c>
       <c r="I212" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B212)) = FALSE,  IF(  OR(   _xll.BDP($B212,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B212,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B212,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B212,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B212,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B212,"NXT_PUT_DT")))</f>
@@ -56305,7 +56305,7 @@
       </c>
       <c r="C215" s="2">
         <f>IF(_xll.BDP(B215,"PX_LAST")="#N/A N/A",100,_xll.BDP(B215,"PX_LAST"))</f>
-        <v>100.99</v>
+        <v>100.95</v>
       </c>
       <c r="D215" s="1">
         <f>IF(A215="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B215,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B215,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B215,"BEST_ANALYST_RATING")))</f>
@@ -56325,7 +56325,7 @@
          IF(OR(_xll.BDP(B215,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B215,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B215,"YLD_CNV_MID")),
               _xll.BDP(B215,"EQY_DVD_YLD_IND")),
 _xll.BDP(B215,"BDVD_PROJ_12M_YLD"))</f>
-        <v>7.72</v>
+        <v>7.73</v>
       </c>
       <c r="G215" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B215)) = FALSE,  IF(  OR(   _xll.BDP($B215,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B215,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B215,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B215,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B215,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B215,"NXT_CPN_DT")))</f>
@@ -56333,7 +56333,7 @@
       </c>
       <c r="H215" s="1">
         <f>IF(ISERR(FIND("Equity",B215))=FALSE,0,IF(_xll.BDP($B215,"DUR_MID")="#N/A N/A",0,_xll.BDP($B215,"DUR_MID")))</f>
-        <v>6.7387391507121892</v>
+        <v>6.7380821797345201</v>
       </c>
       <c r="I215" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B215)) = FALSE,  IF(  OR(   _xll.BDP($B215,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B215,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B215,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B215,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B215,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B215,"NXT_PUT_DT")))</f>
@@ -56378,7 +56378,7 @@
          IF(OR(_xll.BDP(B216,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B216,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B216,"YLD_CNV_MID")),
               _xll.BDP(B216,"EQY_DVD_YLD_IND")),
 _xll.BDP(B216,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.36</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="G216" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B216)) = FALSE,  IF(  OR(   _xll.BDP($B216,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B216,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B216,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B216,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B216,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B216,"NXT_CPN_DT")))</f>
@@ -56386,7 +56386,7 @@
       </c>
       <c r="H216" s="1">
         <f>IF(ISERR(FIND("Equity",B216))=FALSE,0,IF(_xll.BDP($B216,"DUR_MID")="#N/A N/A",0,_xll.BDP($B216,"DUR_MID")))</f>
-        <v>0.84773373668068575</v>
+        <v>0.84773231822400874</v>
       </c>
       <c r="I216" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B216)) = FALSE,  IF(  OR(   _xll.BDP($B216,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B216,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B216,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B216,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B216,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B216,"NXT_PUT_DT")))</f>
@@ -56464,7 +56464,7 @@
       </c>
       <c r="C218" s="2">
         <f>IF(_xll.BDP(B218,"PX_LAST")="#N/A N/A",100,_xll.BDP(B218,"PX_LAST"))</f>
-        <v>103.4</v>
+        <v>103.35</v>
       </c>
       <c r="D218" s="1">
         <f>IF(A218="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B218,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B218,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B218,"BEST_ANALYST_RATING")))</f>
@@ -56484,7 +56484,7 @@
          IF(OR(_xll.BDP(B218,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B218,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B218,"YLD_CNV_MID")),
               _xll.BDP(B218,"EQY_DVD_YLD_IND")),
 _xll.BDP(B218,"BDVD_PROJ_12M_YLD"))</f>
-        <v>9.59</v>
+        <v>9.92</v>
       </c>
       <c r="G218" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B218)) = FALSE,  IF(  OR(   _xll.BDP($B218,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B218,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B218,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B218,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B218,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B218,"NXT_CPN_DT")))</f>
@@ -56492,7 +56492,7 @@
       </c>
       <c r="H218" s="1">
         <f>IF(ISERR(FIND("Equity",B218))=FALSE,0,IF(_xll.BDP($B218,"DUR_MID")="#N/A N/A",0,_xll.BDP($B218,"DUR_MID")))</f>
-        <v>1.8084440604755212</v>
+        <v>1.8074809678885948</v>
       </c>
       <c r="I218" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B218)) = FALSE,  IF(  OR(   _xll.BDP($B218,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B218,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B218,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B218,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B218,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B218,"NXT_PUT_DT")))</f>
@@ -56517,7 +56517,7 @@
       </c>
       <c r="C219" s="2">
         <f>IF(_xll.BDP(B219,"PX_LAST")="#N/A N/A",100,_xll.BDP(B219,"PX_LAST"))</f>
-        <v>100.628</v>
+        <v>100.667</v>
       </c>
       <c r="D219" s="1">
         <f>IF(A219="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B219,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B219,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B219,"BEST_ANALYST_RATING")))</f>
@@ -56537,7 +56537,7 @@
          IF(OR(_xll.BDP(B219,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B219,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B219,"YLD_CNV_MID")),
               _xll.BDP(B219,"EQY_DVD_YLD_IND")),
 _xll.BDP(B219,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.2464478999999997</v>
+        <v>5.2386020000000002</v>
       </c>
       <c r="G219" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B219)) = FALSE,  IF(  OR(   _xll.BDP($B219,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B219,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B219,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B219,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B219,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B219,"NXT_CPN_DT")))</f>
@@ -56545,7 +56545,7 @@
       </c>
       <c r="H219" s="1">
         <f>IF(ISERR(FIND("Equity",B219))=FALSE,0,IF(_xll.BDP($B219,"DUR_MID")="#N/A N/A",0,_xll.BDP($B219,"DUR_MID")))</f>
-        <v>5.0160857539651911</v>
+        <v>5.0162725603069171</v>
       </c>
       <c r="I219" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B219)) = FALSE,  IF(  OR(   _xll.BDP($B219,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B219,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B219,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B219,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B219,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B219,"NXT_PUT_DT")))</f>
@@ -56570,7 +56570,7 @@
       </c>
       <c r="C220" s="2">
         <f>IF(_xll.BDP(B220,"PX_LAST")="#N/A N/A",100,_xll.BDP(B220,"PX_LAST"))</f>
-        <v>102.453</v>
+        <v>102.45399999999999</v>
       </c>
       <c r="D220" s="1">
         <f>IF(A220="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B220,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B220,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B220,"BEST_ANALYST_RATING")))</f>
@@ -56590,7 +56590,7 @@
          IF(OR(_xll.BDP(B220,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B220,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B220,"YLD_CNV_MID")),
               _xll.BDP(B220,"EQY_DVD_YLD_IND")),
 _xll.BDP(B220,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.2624541000000002</v>
+        <v>2.2617118</v>
       </c>
       <c r="G220" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B220)) = FALSE,  IF(  OR(   _xll.BDP($B220,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B220,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B220,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B220,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B220,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B220,"NXT_CPN_DT")))</f>
@@ -56598,7 +56598,7 @@
       </c>
       <c r="H220" s="1">
         <f>IF(ISERR(FIND("Equity",B220))=FALSE,0,IF(_xll.BDP($B220,"DUR_MID")="#N/A N/A",0,_xll.BDP($B220,"DUR_MID")))</f>
-        <v>1.9536299039231735</v>
+        <v>1.953631027881753</v>
       </c>
       <c r="I220" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B220)) = FALSE,  IF(  OR(   _xll.BDP($B220,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B220,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B220,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B220,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B220,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B220,"NXT_PUT_DT")))</f>
@@ -56623,7 +56623,7 @@
       </c>
       <c r="C221" s="2">
         <f>IF(_xll.BDP(B221,"PX_LAST")="#N/A N/A",100,_xll.BDP(B221,"PX_LAST"))</f>
-        <v>105.649</v>
+        <v>105.661</v>
       </c>
       <c r="D221" s="1">
         <f>IF(A221="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B221,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B221,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B221,"BEST_ANALYST_RATING")))</f>
@@ -56643,7 +56643,7 @@
          IF(OR(_xll.BDP(B221,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B221,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B221,"YLD_CNV_MID")),
               _xll.BDP(B221,"EQY_DVD_YLD_IND")),
 _xll.BDP(B221,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.2079149000000005</v>
+        <v>4.2064944000000004</v>
       </c>
       <c r="G221" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B221)) = FALSE,  IF(  OR(   _xll.BDP($B221,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B221,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B221,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B221,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B221,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B221,"NXT_CPN_DT")))</f>
@@ -56651,7 +56651,7 @@
       </c>
       <c r="H221" s="1">
         <f>IF(ISERR(FIND("Equity",B221))=FALSE,0,IF(_xll.BDP($B221,"DUR_MID")="#N/A N/A",0,_xll.BDP($B221,"DUR_MID")))</f>
-        <v>8.5739941356826215</v>
+        <v>8.5741377239659506</v>
       </c>
       <c r="I221" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B221)) = FALSE,  IF(  OR(   _xll.BDP($B221,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B221,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B221,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B221,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B221,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B221,"NXT_PUT_DT")))</f>
@@ -56676,7 +56676,7 @@
       </c>
       <c r="C222" s="2">
         <f>IF(_xll.BDP(B222,"PX_LAST")="#N/A N/A",100,_xll.BDP(B222,"PX_LAST"))</f>
-        <v>103.09</v>
+        <v>103.14100000000001</v>
       </c>
       <c r="D222" s="1">
         <f>IF(A222="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B222,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B222,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B222,"BEST_ANALYST_RATING")))</f>
@@ -56696,7 +56696,7 @@
          IF(OR(_xll.BDP(B222,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B222,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B222,"YLD_CNV_MID")),
               _xll.BDP(B222,"EQY_DVD_YLD_IND")),
 _xll.BDP(B222,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.8130497999999999</v>
+        <v>5.8064948000000003</v>
       </c>
       <c r="G222" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B222)) = FALSE,  IF(  OR(   _xll.BDP($B222,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B222,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B222,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B222,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B222,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B222,"NXT_CPN_DT")))</f>
@@ -56704,7 +56704,7 @@
       </c>
       <c r="H222" s="1">
         <f>IF(ISERR(FIND("Equity",B222))=FALSE,0,IF(_xll.BDP($B222,"DUR_MID")="#N/A N/A",0,_xll.BDP($B222,"DUR_MID")))</f>
-        <v>7.311195305758174</v>
+        <v>7.3118430268255254</v>
       </c>
       <c r="I222" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B222)) = FALSE,  IF(  OR(   _xll.BDP($B222,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B222,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B222,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B222,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B222,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B222,"NXT_PUT_DT")))</f>
@@ -56729,7 +56729,7 @@
       </c>
       <c r="C223" s="2">
         <f>IF(_xll.BDP(B223,"PX_LAST")="#N/A N/A",100,_xll.BDP(B223,"PX_LAST"))</f>
-        <v>112.587</v>
+        <v>112.654</v>
       </c>
       <c r="D223" s="1">
         <f>IF(A223="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B223,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B223,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B223,"BEST_ANALYST_RATING")))</f>
@@ -56749,7 +56749,7 @@
          IF(OR(_xll.BDP(B223,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B223,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B223,"YLD_CNV_MID")),
               _xll.BDP(B223,"EQY_DVD_YLD_IND")),
 _xll.BDP(B223,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.1363741000000003</v>
+        <v>5.1277214000000004</v>
       </c>
       <c r="G223" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B223)) = FALSE,  IF(  OR(   _xll.BDP($B223,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B223,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B223,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B223,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B223,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B223,"NXT_CPN_DT")))</f>
@@ -56757,7 +56757,7 @@
       </c>
       <c r="H223" s="1">
         <f>IF(ISERR(FIND("Equity",B223))=FALSE,0,IF(_xll.BDP($B223,"DUR_MID")="#N/A N/A",0,_xll.BDP($B223,"DUR_MID")))</f>
-        <v>6.9671365402772318</v>
+        <v>6.9679116515121997</v>
       </c>
       <c r="I223" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B223)) = FALSE,  IF(  OR(   _xll.BDP($B223,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B223,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B223,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B223,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B223,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B223,"NXT_PUT_DT")))</f>
@@ -56782,7 +56782,7 @@
       </c>
       <c r="C224" s="2">
         <f>IF(_xll.BDP(B224,"PX_LAST")="#N/A N/A",100,_xll.BDP(B224,"PX_LAST"))</f>
-        <v>98.799000000000007</v>
+        <v>98.825000000000003</v>
       </c>
       <c r="D224" s="1">
         <f>IF(A224="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B224,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B224,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B224,"BEST_ANALYST_RATING")))</f>
@@ -56802,7 +56802,7 @@
          IF(OR(_xll.BDP(B224,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B224,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B224,"YLD_CNV_MID")),
               _xll.BDP(B224,"EQY_DVD_YLD_IND")),
 _xll.BDP(B224,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.2882244097175946</v>
+        <v>6.2817508268903932</v>
       </c>
       <c r="G224" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B224)) = FALSE,  IF(  OR(   _xll.BDP($B224,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B224,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B224,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B224,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B224,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B224,"NXT_CPN_DT")))</f>
@@ -56810,7 +56810,7 @@
       </c>
       <c r="H224" s="1">
         <f>IF(ISERR(FIND("Equity",B224))=FALSE,0,IF(_xll.BDP($B224,"DUR_MID")="#N/A N/A",0,_xll.BDP($B224,"DUR_MID")))</f>
-        <v>4.3819784285483818</v>
+        <v>4.382061128087904</v>
       </c>
       <c r="I224" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B224)) = FALSE,  IF(  OR(   _xll.BDP($B224,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B224,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B224,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B224,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B224,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B224,"NXT_PUT_DT")))</f>
@@ -56888,7 +56888,7 @@
       </c>
       <c r="C226" s="2">
         <f>IF(_xll.BDP(B226,"PX_LAST")="#N/A N/A",100,_xll.BDP(B226,"PX_LAST"))</f>
-        <v>98.772999999999996</v>
+        <v>98.792000000000002</v>
       </c>
       <c r="D226" s="1">
         <f>IF(A226="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B226,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B226,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B226,"BEST_ANALYST_RATING")))</f>
@@ -56908,7 +56908,7 @@
          IF(OR(_xll.BDP(B226,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B226,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B226,"YLD_CNV_MID")),
               _xll.BDP(B226,"EQY_DVD_YLD_IND")),
 _xll.BDP(B226,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.1163094999999998</v>
+        <v>5.1107161999999997</v>
       </c>
       <c r="G226" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B226)) = FALSE,  IF(  OR(   _xll.BDP($B226,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B226,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B226,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B226,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B226,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B226,"NXT_CPN_DT")))</f>
@@ -56916,7 +56916,7 @@
       </c>
       <c r="H226" s="1">
         <f>IF(ISERR(FIND("Equity",B226))=FALSE,0,IF(_xll.BDP($B226,"DUR_MID")="#N/A N/A",0,_xll.BDP($B226,"DUR_MID")))</f>
-        <v>3.3845999934865074</v>
+        <v>3.384637923648262</v>
       </c>
       <c r="I226" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B226)) = FALSE,  IF(  OR(   _xll.BDP($B226,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B226,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B226,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B226,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B226,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B226,"NXT_PUT_DT")))</f>
@@ -57332,7 +57332,7 @@
          IF(OR(_xll.BDP(B234,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B234,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B234,"YLD_CNV_MID")),
               _xll.BDP(B234,"EQY_DVD_YLD_IND")),
 _xll.BDP(B234,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.6411220246915832</v>
+        <v>2.6401691128753506</v>
       </c>
       <c r="G234" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B234)) = FALSE,  IF(  OR(   _xll.BDP($B234,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B234,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B234,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B234,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B234,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B234,"NXT_CPN_DT")))</f>
@@ -57365,7 +57365,7 @@
       </c>
       <c r="C235" s="2">
         <f>IF(_xll.BDP(B235,"PX_LAST")="#N/A N/A",100,_xll.BDP(B235,"PX_LAST"))</f>
-        <v>99.914000000000001</v>
+        <v>99.947999999999993</v>
       </c>
       <c r="D235" s="1">
         <f>IF(A235="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B235,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B235,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B235,"BEST_ANALYST_RATING")))</f>
@@ -57385,7 +57385,7 @@
          IF(OR(_xll.BDP(B235,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B235,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B235,"YLD_CNV_MID")),
               _xll.BDP(B235,"EQY_DVD_YLD_IND")),
 _xll.BDP(B235,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.3930425</v>
+        <v>6.3844069000000001</v>
       </c>
       <c r="G235" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B235)) = FALSE,  IF(  OR(   _xll.BDP($B235,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B235,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B235,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B235,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B235,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B235,"NXT_CPN_DT")))</f>
@@ -57393,7 +57393,7 @@
       </c>
       <c r="H235" s="1">
         <f>IF(ISERR(FIND("Equity",B235))=FALSE,0,IF(_xll.BDP($B235,"DUR_MID")="#N/A N/A",0,_xll.BDP($B235,"DUR_MID")))</f>
-        <v>4.3908800027060542</v>
+        <v>4.3910457641336578</v>
       </c>
       <c r="I235" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B235)) = FALSE,  IF(  OR(   _xll.BDP($B235,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B235,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B235,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B235,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B235,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B235,"NXT_PUT_DT")))</f>
@@ -57418,7 +57418,7 @@
       </c>
       <c r="C236" s="2">
         <f>IF(_xll.BDP(B236,"PX_LAST")="#N/A N/A",100,_xll.BDP(B236,"PX_LAST"))</f>
-        <v>101.78400000000001</v>
+        <v>101.783</v>
       </c>
       <c r="D236" s="1">
         <f>IF(A236="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B236,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B236,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B236,"BEST_ANALYST_RATING")))</f>
@@ -57438,7 +57438,7 @@
          IF(OR(_xll.BDP(B236,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B236,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B236,"YLD_CNV_MID")),
               _xll.BDP(B236,"EQY_DVD_YLD_IND")),
 _xll.BDP(B236,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.5953630602577284</v>
+        <v>2.5991608447872152</v>
       </c>
       <c r="G236" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B236)) = FALSE,  IF(  OR(   _xll.BDP($B236,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B236,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B236,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B236,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B236,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B236,"NXT_CPN_DT")))</f>
@@ -57446,7 +57446,7 @@
       </c>
       <c r="H236" s="1">
         <f>IF(ISERR(FIND("Equity",B236))=FALSE,0,IF(_xll.BDP($B236,"DUR_MID")="#N/A N/A",0,_xll.BDP($B236,"DUR_MID")))</f>
-        <v>0.38888888946559291</v>
+        <v>0.38888888946540517</v>
       </c>
       <c r="I236" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B236)) = FALSE,  IF(  OR(   _xll.BDP($B236,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B236,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B236,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B236,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B236,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B236,"NXT_PUT_DT")))</f>
@@ -57524,7 +57524,7 @@
       </c>
       <c r="C238" s="2">
         <f>IF(_xll.BDP(B238,"PX_LAST")="#N/A N/A",100,_xll.BDP(B238,"PX_LAST"))</f>
-        <v>165.18</v>
+        <v>165.03</v>
       </c>
       <c r="D238" s="1">
         <f>IF(A238="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B238,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B238,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B238,"BEST_ANALYST_RATING")))</f>
@@ -57544,7 +57544,7 @@
          IF(OR(_xll.BDP(B238,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B238,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B238,"YLD_CNV_MID")),
               _xll.BDP(B238,"EQY_DVD_YLD_IND")),
 _xll.BDP(B238,"BDVD_PROJ_12M_YLD"))</f>
-        <v>3.6324010170722851</v>
+        <v>3.6357025995273586</v>
       </c>
       <c r="G238" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B238)) = FALSE,  IF(  OR(   _xll.BDP($B238,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B238,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B238,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B238,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B238,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B238,"NXT_CPN_DT")))</f>
@@ -58001,7 +58001,7 @@
       </c>
       <c r="C247" s="2">
         <f>IF(_xll.BDP(B247,"PX_LAST")="#N/A N/A",100,_xll.BDP(B247,"PX_LAST"))</f>
-        <v>103.32</v>
+        <v>103.334</v>
       </c>
       <c r="D247" s="1">
         <f>IF(A247="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B247,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B247,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B247,"BEST_ANALYST_RATING")))</f>
@@ -58021,7 +58021,7 @@
          IF(OR(_xll.BDP(B247,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B247,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B247,"YLD_CNV_MID")),
               _xll.BDP(B247,"EQY_DVD_YLD_IND")),
 _xll.BDP(B247,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.5789932000000002</v>
+        <v>4.5760259999999997</v>
       </c>
       <c r="G247" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B247)) = FALSE,  IF(  OR(   _xll.BDP($B247,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B247,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B247,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B247,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B247,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B247,"NXT_CPN_DT")))</f>
@@ -58029,7 +58029,7 @@
       </c>
       <c r="H247" s="1">
         <f>IF(ISERR(FIND("Equity",B247))=FALSE,0,IF(_xll.BDP($B247,"DUR_MID")="#N/A N/A",0,_xll.BDP($B247,"DUR_MID")))</f>
-        <v>4.9258653224205862</v>
+        <v>4.9259325441396875</v>
       </c>
       <c r="I247" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B247)) = FALSE,  IF(  OR(   _xll.BDP($B247,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B247,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B247,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B247,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B247,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B247,"NXT_PUT_DT")))</f>
@@ -58054,7 +58054,7 @@
       </c>
       <c r="C248" s="2">
         <f>IF(_xll.BDP(B248,"PX_LAST")="#N/A N/A",100,_xll.BDP(B248,"PX_LAST"))</f>
-        <v>18.64</v>
+        <v>18.594999999999999</v>
       </c>
       <c r="D248" s="1">
         <f>IF(A248="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B248,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B248,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B248,"BEST_ANALYST_RATING")))</f>
@@ -58074,7 +58074,7 @@
          IF(OR(_xll.BDP(B248,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B248,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B248,"YLD_CNV_MID")),
               _xll.BDP(B248,"EQY_DVD_YLD_IND")),
 _xll.BDP(B248,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.0761802280921282</v>
+        <v>2.0812045954093716</v>
       </c>
       <c r="G248" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B248)) = FALSE,  IF(  OR(   _xll.BDP($B248,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B248,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B248,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B248,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B248,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B248,"NXT_CPN_DT")))</f>
@@ -58107,7 +58107,7 @@
       </c>
       <c r="C249" s="2">
         <f>IF(_xll.BDP(B249,"PX_LAST")="#N/A N/A",100,_xll.BDP(B249,"PX_LAST"))</f>
-        <v>13.31</v>
+        <v>13.22</v>
       </c>
       <c r="D249" s="1">
         <f>IF(A249="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B249,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B249,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B249,"BEST_ANALYST_RATING")))</f>
@@ -58127,7 +58127,7 @@
          IF(OR(_xll.BDP(B249,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B249,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B249,"YLD_CNV_MID")),
               _xll.BDP(B249,"EQY_DVD_YLD_IND")),
 _xll.BDP(B249,"BDVD_PROJ_12M_YLD"))</f>
-        <v>0.64625093401329214</v>
+        <v>0.65065052433562165</v>
       </c>
       <c r="G249" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B249)) = FALSE,  IF(  OR(   _xll.BDP($B249,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B249,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B249,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B249,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B249,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B249,"NXT_CPN_DT")))</f>
@@ -58286,7 +58286,7 @@
          IF(OR(_xll.BDP(B252,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B252,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B252,"YLD_CNV_MID")),
               _xll.BDP(B252,"EQY_DVD_YLD_IND")),
 _xll.BDP(B252,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.6361789029334521</v>
+        <v>2.6349798961981743</v>
       </c>
       <c r="G252" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B252)) = FALSE,  IF(  OR(   _xll.BDP($B252,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B252,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B252,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B252,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B252,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B252,"NXT_CPN_DT")))</f>
@@ -58319,7 +58319,7 @@
       </c>
       <c r="C253" s="2">
         <f>IF(_xll.BDP(B253,"PX_LAST")="#N/A N/A",100,_xll.BDP(B253,"PX_LAST"))</f>
-        <v>108.289</v>
+        <v>108.298</v>
       </c>
       <c r="D253" s="1">
         <f>IF(A253="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B253,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B253,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B253,"BEST_ANALYST_RATING")))</f>
@@ -58339,7 +58339,7 @@
          IF(OR(_xll.BDP(B253,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B253,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B253,"YLD_CNV_MID")),
               _xll.BDP(B253,"EQY_DVD_YLD_IND")),
 _xll.BDP(B253,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.3888571783338994</v>
+        <v>4.3862814008838527</v>
       </c>
       <c r="G253" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B253)) = FALSE,  IF(  OR(   _xll.BDP($B253,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B253,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B253,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B253,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B253,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B253,"NXT_CPN_DT")))</f>
@@ -58347,7 +58347,7 @@
       </c>
       <c r="H253" s="1">
         <f>IF(ISERR(FIND("Equity",B253))=FALSE,0,IF(_xll.BDP($B253,"DUR_MID")="#N/A N/A",0,_xll.BDP($B253,"DUR_MID")))</f>
-        <v>3.4498955043125794</v>
+        <v>3.4499173493519764</v>
       </c>
       <c r="I253" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B253)) = FALSE,  IF(  OR(   _xll.BDP($B253,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B253,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B253,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B253,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B253,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B253,"NXT_PUT_DT")))</f>
@@ -58372,7 +58372,7 @@
       </c>
       <c r="C254" s="2">
         <f>IF(_xll.BDP(B254,"PX_LAST")="#N/A N/A",100,_xll.BDP(B254,"PX_LAST"))</f>
-        <v>111.91200000000001</v>
+        <v>111.905</v>
       </c>
       <c r="D254" s="1">
         <f>IF(A254="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B254,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B254,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B254,"BEST_ANALYST_RATING")))</f>
@@ -58392,7 +58392,7 @@
          IF(OR(_xll.BDP(B254,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B254,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B254,"YLD_CNV_MID")),
               _xll.BDP(B254,"EQY_DVD_YLD_IND")),
 _xll.BDP(B254,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.0346504000000003</v>
+        <v>5.0364829000000002</v>
       </c>
       <c r="G254" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B254)) = FALSE,  IF(  OR(   _xll.BDP($B254,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B254,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B254,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B254,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B254,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B254,"NXT_CPN_DT")))</f>
@@ -58400,7 +58400,7 @@
       </c>
       <c r="H254" s="1">
         <f>IF(ISERR(FIND("Equity",B254))=FALSE,0,IF(_xll.BDP($B254,"DUR_MID")="#N/A N/A",0,_xll.BDP($B254,"DUR_MID")))</f>
-        <v>3.4941461414519788</v>
+        <v>3.4941283137431838</v>
       </c>
       <c r="I254" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B254)) = FALSE,  IF(  OR(   _xll.BDP($B254,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B254,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B254,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B254,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B254,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B254,"NXT_PUT_DT")))</f>
@@ -58425,7 +58425,7 @@
       </c>
       <c r="C255" s="2">
         <f>IF(_xll.BDP(B255,"PX_LAST")="#N/A N/A",100,_xll.BDP(B255,"PX_LAST"))</f>
-        <v>102.962</v>
+        <v>103.02800000000001</v>
       </c>
       <c r="D255" s="1">
         <f>IF(A255="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B255,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B255,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B255,"BEST_ANALYST_RATING")))</f>
@@ -58445,7 +58445,7 @@
          IF(OR(_xll.BDP(B255,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B255,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B255,"YLD_CNV_MID")),
               _xll.BDP(B255,"EQY_DVD_YLD_IND")),
 _xll.BDP(B255,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.5205176308694304</v>
+        <v>6.5072921097398666</v>
       </c>
       <c r="G255" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B255)) = FALSE,  IF(  OR(   _xll.BDP($B255,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B255,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B255,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B255,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B255,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B255,"NXT_CPN_DT")))</f>
@@ -58453,7 +58453,7 @@
       </c>
       <c r="H255" s="1">
         <f>IF(ISERR(FIND("Equity",B255))=FALSE,0,IF(_xll.BDP($B255,"DUR_MID")="#N/A N/A",0,_xll.BDP($B255,"DUR_MID")))</f>
-        <v>4.8382423921207041</v>
+        <v>4.8387083803509743</v>
       </c>
       <c r="I255" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B255)) = FALSE,  IF(  OR(   _xll.BDP($B255,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B255,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B255,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B255,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B255,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B255,"NXT_PUT_DT")))</f>
@@ -58743,7 +58743,7 @@
       </c>
       <c r="C261" s="2">
         <f>IF(_xll.BDP(B261,"PX_LAST")="#N/A N/A",100,_xll.BDP(B261,"PX_LAST"))</f>
-        <v>113.235</v>
+        <v>113.08</v>
       </c>
       <c r="D261" s="1">
         <f>IF(A261="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B261,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B261,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B261,"BEST_ANALYST_RATING")))</f>
@@ -58763,7 +58763,7 @@
          IF(OR(_xll.BDP(B261,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B261,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B261,"YLD_CNV_MID")),
               _xll.BDP(B261,"EQY_DVD_YLD_IND")),
 _xll.BDP(B261,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.5984467396426583</v>
+        <v>6.6300342923859512</v>
       </c>
       <c r="G261" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B261)) = FALSE,  IF(  OR(   _xll.BDP($B261,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B261,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B261,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B261,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B261,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B261,"NXT_CPN_DT")))</f>
@@ -58771,7 +58771,7 @@
       </c>
       <c r="H261" s="1">
         <f>IF(ISERR(FIND("Equity",B261))=FALSE,0,IF(_xll.BDP($B261,"DUR_MID")="#N/A N/A",0,_xll.BDP($B261,"DUR_MID")))</f>
-        <v>4.3195678750247124</v>
+        <v>4.3185640375031973</v>
       </c>
       <c r="I261" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B261)) = FALSE,  IF(  OR(   _xll.BDP($B261,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B261,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B261,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B261,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B261,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B261,"NXT_PUT_DT")))</f>
@@ -58902,7 +58902,7 @@
       </c>
       <c r="C264" s="2">
         <f>IF(_xll.BDP(B264,"PX_LAST")="#N/A N/A",100,_xll.BDP(B264,"PX_LAST"))</f>
-        <v>97.9</v>
+        <v>97.97</v>
       </c>
       <c r="D264" s="1">
         <f>IF(A264="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B264,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B264,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B264,"BEST_ANALYST_RATING")))</f>
@@ -59061,7 +59061,7 @@
       </c>
       <c r="C267" s="2">
         <f>IF(_xll.BDP(B267,"PX_LAST")="#N/A N/A",100,_xll.BDP(B267,"PX_LAST"))</f>
-        <v>139.30000000000001</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="D267" s="1">
         <f>IF(A267="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B267,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B267,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B267,"BEST_ANALYST_RATING")))</f>
@@ -59081,7 +59081,7 @@
          IF(OR(_xll.BDP(B267,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B267,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B267,"YLD_CNV_MID")),
               _xll.BDP(B267,"EQY_DVD_YLD_IND")),
 _xll.BDP(B267,"BDVD_PROJ_12M_YLD"))</f>
-        <v>1.8377602297200286</v>
+        <v>1.844380403458213</v>
       </c>
       <c r="G267" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B267)) = FALSE,  IF(  OR(   _xll.BDP($B267,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B267,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B267,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B267,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B267,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B267,"NXT_CPN_DT")))</f>
@@ -59114,7 +59114,7 @@
       </c>
       <c r="C268" s="2">
         <f>IF(_xll.BDP(B268,"PX_LAST")="#N/A N/A",100,_xll.BDP(B268,"PX_LAST"))</f>
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="D268" s="1">
         <f>IF(A268="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B268,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B268,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B268,"BEST_ANALYST_RATING")))</f>
@@ -59134,7 +59134,7 @@
          IF(OR(_xll.BDP(B268,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B268,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B268,"YLD_CNV_MID")),
               _xll.BDP(B268,"EQY_DVD_YLD_IND")),
 _xll.BDP(B268,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.6250597868225736</v>
+        <v>5.6223164527598239</v>
       </c>
       <c r="G268" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B268)) = FALSE,  IF(  OR(   _xll.BDP($B268,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B268,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B268,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B268,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B268,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B268,"NXT_CPN_DT")))</f>
@@ -59167,7 +59167,7 @@
       </c>
       <c r="C269" s="2">
         <f>IF(_xll.BDP(B269,"PX_LAST")="#N/A N/A",100,_xll.BDP(B269,"PX_LAST"))</f>
-        <v>2.98</v>
+        <v>2.968</v>
       </c>
       <c r="D269" s="1">
         <f>IF(A269="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B269,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B269,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B269,"BEST_ANALYST_RATING")))</f>
@@ -59187,7 +59187,7 @@
          IF(OR(_xll.BDP(B269,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B269,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B269,"YLD_CNV_MID")),
               _xll.BDP(B269,"EQY_DVD_YLD_IND")),
 _xll.BDP(B269,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.3624161073825505</v>
+        <v>4.3800539083557952</v>
       </c>
       <c r="G269" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B269)) = FALSE,  IF(  OR(   _xll.BDP($B269,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B269,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B269,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B269,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B269,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B269,"NXT_CPN_DT")))</f>
@@ -59220,7 +59220,7 @@
       </c>
       <c r="C270" s="2">
         <f>IF(_xll.BDP(B270,"PX_LAST")="#N/A N/A",100,_xll.BDP(B270,"PX_LAST"))</f>
-        <v>94.870999999999995</v>
+        <v>94.876000000000005</v>
       </c>
       <c r="D270" s="1">
         <f>IF(A270="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B270,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B270,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B270,"BEST_ANALYST_RATING")))</f>
@@ -59240,7 +59240,7 @@
          IF(OR(_xll.BDP(B270,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B270,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B270,"YLD_CNV_MID")),
               _xll.BDP(B270,"EQY_DVD_YLD_IND")),
 _xll.BDP(B270,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.3906811000000001</v>
+        <v>5.3896598000000004</v>
       </c>
       <c r="G270" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B270)) = FALSE,  IF(  OR(   _xll.BDP($B270,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B270,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B270,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B270,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B270,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B270,"NXT_CPN_DT")))</f>
@@ -59248,7 +59248,7 @@
       </c>
       <c r="H270" s="1">
         <f>IF(ISERR(FIND("Equity",B270))=FALSE,0,IF(_xll.BDP($B270,"DUR_MID")="#N/A N/A",0,_xll.BDP($B270,"DUR_MID")))</f>
-        <v>5.2923032996411079</v>
+        <v>5.2923274530028346</v>
       </c>
       <c r="I270" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B270)) = FALSE,  IF(  OR(   _xll.BDP($B270,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B270,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B270,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B270,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B270,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B270,"NXT_PUT_DT")))</f>
@@ -59326,7 +59326,7 @@
       </c>
       <c r="C272" s="2">
         <f>IF(_xll.BDP(B272,"PX_LAST")="#N/A N/A",100,_xll.BDP(B272,"PX_LAST"))</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D272" s="1">
         <f>IF(A272="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B272,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B272,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B272,"BEST_ANALYST_RATING")))</f>
@@ -59379,7 +59379,7 @@
       </c>
       <c r="C273" s="2">
         <f>IF(_xll.BDP(B273,"PX_LAST")="#N/A N/A",100,_xll.BDP(B273,"PX_LAST"))</f>
-        <v>106.61799999999999</v>
+        <v>106.637</v>
       </c>
       <c r="D273" s="1">
         <f>IF(A273="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B273,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B273,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B273,"BEST_ANALYST_RATING")))</f>
@@ -59399,7 +59399,7 @@
          IF(OR(_xll.BDP(B273,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B273,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B273,"YLD_CNV_MID")),
               _xll.BDP(B273,"EQY_DVD_YLD_IND")),
 _xll.BDP(B273,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.2502781000000001</v>
+        <v>4.2432105</v>
       </c>
       <c r="G273" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B273)) = FALSE,  IF(  OR(   _xll.BDP($B273,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B273,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B273,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B273,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B273,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B273,"NXT_CPN_DT")))</f>
@@ -59407,7 +59407,7 @@
       </c>
       <c r="H273" s="1">
         <f>IF(ISERR(FIND("Equity",B273))=FALSE,0,IF(_xll.BDP($B273,"DUR_MID")="#N/A N/A",0,_xll.BDP($B273,"DUR_MID")))</f>
-        <v>2.6162916605918385</v>
+        <v>2.616316992274438</v>
       </c>
       <c r="I273" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B273)) = FALSE,  IF(  OR(   _xll.BDP($B273,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B273,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B273,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B273,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B273,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B273,"NXT_PUT_DT")))</f>
@@ -59432,7 +59432,7 @@
       </c>
       <c r="C274" s="2">
         <f>IF(_xll.BDP(B274,"PX_LAST")="#N/A N/A",100,_xll.BDP(B274,"PX_LAST"))</f>
-        <v>102.82599999999999</v>
+        <v>102.81</v>
       </c>
       <c r="D274" s="1">
         <f>IF(A274="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B274,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B274,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B274,"BEST_ANALYST_RATING")))</f>
@@ -59452,7 +59452,7 @@
          IF(OR(_xll.BDP(B274,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B274,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B274,"YLD_CNV_MID")),
               _xll.BDP(B274,"EQY_DVD_YLD_IND")),
 _xll.BDP(B274,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.7401831999999997</v>
+        <v>5.7429221999999998</v>
       </c>
       <c r="G274" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B274)) = FALSE,  IF(  OR(   _xll.BDP($B274,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B274,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B274,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B274,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B274,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B274,"NXT_CPN_DT")))</f>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H274" s="1">
         <f>IF(ISERR(FIND("Equity",B274))=FALSE,0,IF(_xll.BDP($B274,"DUR_MID")="#N/A N/A",0,_xll.BDP($B274,"DUR_MID")))</f>
-        <v>5.5930541043816246</v>
+        <v>5.5929404634007218</v>
       </c>
       <c r="I274" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B274)) = FALSE,  IF(  OR(   _xll.BDP($B274,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B274,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B274,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B274,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B274,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B274,"NXT_PUT_DT")))</f>
@@ -59538,7 +59538,7 @@
       </c>
       <c r="C276" s="2">
         <f>IF(_xll.BDP(B276,"PX_LAST")="#N/A N/A",100,_xll.BDP(B276,"PX_LAST"))</f>
-        <v>98.850009999999997</v>
+        <v>98.84</v>
       </c>
       <c r="D276" s="1">
         <f>IF(A276="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B276,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B276,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B276,"BEST_ANALYST_RATING")))</f>
@@ -59566,7 +59566,7 @@
       </c>
       <c r="H276" s="1">
         <f>IF(ISERR(FIND("Equity",B276))=FALSE,0,IF(_xll.BDP($B276,"DUR_MID")="#N/A N/A",0,_xll.BDP($B276,"DUR_MID")))</f>
-        <v>9.1910048049363997</v>
+        <v>9.1908298652236233</v>
       </c>
       <c r="I276" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B276)) = FALSE,  IF(  OR(   _xll.BDP($B276,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B276,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B276,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B276,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B276,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B276,"NXT_PUT_DT")))</f>
@@ -59591,7 +59591,7 @@
       </c>
       <c r="C277" s="2">
         <f>IF(_xll.BDP(B277,"PX_LAST")="#N/A N/A",100,_xll.BDP(B277,"PX_LAST"))</f>
-        <v>116.239</v>
+        <v>116.196</v>
       </c>
       <c r="D277" s="1">
         <f>IF(A277="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B277,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B277,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B277,"BEST_ANALYST_RATING")))</f>
@@ -59611,7 +59611,7 @@
          IF(OR(_xll.BDP(B277,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B277,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B277,"YLD_CNV_MID")),
               _xll.BDP(B277,"EQY_DVD_YLD_IND")),
 _xll.BDP(B277,"BDVD_PROJ_12M_YLD"))</f>
-        <v>6.3493179</v>
+        <v>6.3551609999999998</v>
       </c>
       <c r="G277" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B277)) = FALSE,  IF(  OR(   _xll.BDP($B277,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B277,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B277,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B277,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B277,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B277,"NXT_CPN_DT")))</f>
@@ -59619,7 +59619,7 @@
       </c>
       <c r="H277" s="1">
         <f>IF(ISERR(FIND("Equity",B277))=FALSE,0,IF(_xll.BDP($B277,"DUR_MID")="#N/A N/A",0,_xll.BDP($B277,"DUR_MID")))</f>
-        <v>6.5998271211305557</v>
+        <v>6.5993273530140923</v>
       </c>
       <c r="I277" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B277)) = FALSE,  IF(  OR(   _xll.BDP($B277,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B277,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B277,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B277,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B277,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B277,"NXT_PUT_DT")))</f>
@@ -59644,7 +59644,7 @@
       </c>
       <c r="C278" s="2">
         <f>IF(_xll.BDP(B278,"PX_LAST")="#N/A N/A",100,_xll.BDP(B278,"PX_LAST"))</f>
-        <v>102.604</v>
+        <v>102.613</v>
       </c>
       <c r="D278" s="1">
         <f>IF(A278="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B278,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B278,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B278,"BEST_ANALYST_RATING")))</f>
@@ -59664,7 +59664,7 @@
          IF(OR(_xll.BDP(B278,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B278,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B278,"YLD_CNV_MID")),
               _xll.BDP(B278,"EQY_DVD_YLD_IND")),
 _xll.BDP(B278,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.0913598000000002</v>
+        <v>4.0876466999999996</v>
       </c>
       <c r="G278" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B278)) = FALSE,  IF(  OR(   _xll.BDP($B278,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B278,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B278,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B278,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B278,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B278,"NXT_CPN_DT")))</f>
@@ -59672,7 +59672,7 @@
       </c>
       <c r="H278" s="1">
         <f>IF(ISERR(FIND("Equity",B278))=FALSE,0,IF(_xll.BDP($B278,"DUR_MID")="#N/A N/A",0,_xll.BDP($B278,"DUR_MID")))</f>
-        <v>2.2633911035391838</v>
+        <v>2.2633976629675003</v>
       </c>
       <c r="I278" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B278)) = FALSE,  IF(  OR(   _xll.BDP($B278,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B278,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B278,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B278,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B278,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B278,"NXT_PUT_DT")))</f>
@@ -59697,7 +59697,7 @@
       </c>
       <c r="C279" s="2">
         <f>IF(_xll.BDP(B279,"PX_LAST")="#N/A N/A",100,_xll.BDP(B279,"PX_LAST"))</f>
-        <v>108.518</v>
+        <v>108.572</v>
       </c>
       <c r="D279" s="1">
         <f>IF(A279="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B279,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B279,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B279,"BEST_ANALYST_RATING")))</f>
@@ -59717,7 +59717,7 @@
          IF(OR(_xll.BDP(B279,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B279,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B279,"YLD_CNV_MID")),
               _xll.BDP(B279,"EQY_DVD_YLD_IND")),
 _xll.BDP(B279,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.4148586999999999</v>
+        <v>4.4055567</v>
       </c>
       <c r="G279" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B279)) = FALSE,  IF(  OR(   _xll.BDP($B279,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B279,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B279,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B279,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B279,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B279,"NXT_CPN_DT")))</f>
@@ -59725,7 +59725,7 @@
       </c>
       <c r="H279" s="1">
         <f>IF(ISERR(FIND("Equity",B279))=FALSE,0,IF(_xll.BDP($B279,"DUR_MID")="#N/A N/A",0,_xll.BDP($B279,"DUR_MID")))</f>
-        <v>5.5090190415354279</v>
+        <v>5.5093084560762664</v>
       </c>
       <c r="I279" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B279)) = FALSE,  IF(  OR(   _xll.BDP($B279,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B279,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B279,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B279,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B279,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B279,"NXT_PUT_DT")))</f>
@@ -59770,7 +59770,7 @@
          IF(OR(_xll.BDP(B280,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B280,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B280,"YLD_CNV_MID")),
               _xll.BDP(B280,"EQY_DVD_YLD_IND")),
 _xll.BDP(B280,"BDVD_PROJ_12M_YLD"))</f>
-        <v>11.48</v>
+        <v>11.46</v>
       </c>
       <c r="G280" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B280)) = FALSE,  IF(  OR(   _xll.BDP($B280,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B280,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B280,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B280,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B280,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B280,"NXT_CPN_DT")))</f>
@@ -59778,7 +59778,7 @@
       </c>
       <c r="H280" s="1">
         <f>IF(ISERR(FIND("Equity",B280))=FALSE,0,IF(_xll.BDP($B280,"DUR_MID")="#N/A N/A",0,_xll.BDP($B280,"DUR_MID")))</f>
-        <v>2.983567921575947</v>
+        <v>2.9837517205645412</v>
       </c>
       <c r="I280" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B280)) = FALSE,  IF(  OR(   _xll.BDP($B280,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B280,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B280,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B280,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B280,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B280,"NXT_PUT_DT")))</f>
@@ -59803,7 +59803,7 @@
       </c>
       <c r="C281" s="2">
         <f>IF(_xll.BDP(B281,"PX_LAST")="#N/A N/A",100,_xll.BDP(B281,"PX_LAST"))</f>
-        <v>678.1</v>
+        <v>686.8</v>
       </c>
       <c r="D281" s="1">
         <f>IF(A281="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B281,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B281,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B281,"BEST_ANALYST_RATING")))</f>
@@ -59823,7 +59823,7 @@
          IF(OR(_xll.BDP(B281,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B281,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B281,"YLD_CNV_MID")),
               _xll.BDP(B281,"EQY_DVD_YLD_IND")),
 _xll.BDP(B281,"BDVD_PROJ_12M_YLD"))</f>
-        <v>2.7577053531927445</v>
+        <v>2.722772277227723</v>
       </c>
       <c r="G281" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B281)) = FALSE,  IF(  OR(   _xll.BDP($B281,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B281,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B281,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B281,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B281,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B281,"NXT_CPN_DT")))</f>
@@ -59856,7 +59856,7 @@
       </c>
       <c r="C282" s="2">
         <f>IF(_xll.BDP(B282,"PX_LAST")="#N/A N/A",100,_xll.BDP(B282,"PX_LAST"))</f>
-        <v>38.4</v>
+        <v>38.49</v>
       </c>
       <c r="D282" s="1">
         <f>IF(A282="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B282,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B282,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B282,"BEST_ANALYST_RATING")))</f>
@@ -59909,7 +59909,7 @@
       </c>
       <c r="C283" s="2">
         <f>IF(_xll.BDP(B283,"PX_LAST")="#N/A N/A",100,_xll.BDP(B283,"PX_LAST"))</f>
-        <v>193.55</v>
+        <v>193.3</v>
       </c>
       <c r="D283" s="1">
         <f>IF(A283="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B283,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B283,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B283,"BEST_ANALYST_RATING")))</f>
@@ -59929,7 +59929,7 @@
          IF(OR(_xll.BDP(B283,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B283,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B283,"YLD_CNV_MID")),
               _xll.BDP(B283,"EQY_DVD_YLD_IND")),
 _xll.BDP(B283,"BDVD_PROJ_12M_YLD"))</f>
-        <v>5.4249547920433994</v>
+        <v>5.4333764553686938</v>
       </c>
       <c r="G283" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B283)) = FALSE,  IF(  OR(   _xll.BDP($B283,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B283,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B283,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B283,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B283,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B283,"NXT_CPN_DT")))</f>
@@ -59962,7 +59962,7 @@
       </c>
       <c r="C284" s="2">
         <f>IF(_xll.BDP(B284,"PX_LAST")="#N/A N/A",100,_xll.BDP(B284,"PX_LAST"))</f>
-        <v>103.818</v>
+        <v>103.861</v>
       </c>
       <c r="D284" s="1">
         <f>IF(A284="RU000A0JR5Z5",_xll.BDP("486 HK Equity","BEST_ANALYST_RATING"),IF(OR(_xll.BDP(B284,"BEST_ANALYST_RATING")="#N/A N/A",_xll.BDP(B284,"BEST_ANALYST_RATING")="#N/A Field Not Applicable"),0,_xll.BDP(B284,"BEST_ANALYST_RATING")))</f>
@@ -59982,7 +59982,7 @@
          IF(OR(_xll.BDP(B284,"YLD_CNV_MID")="#N/A N/A",_xll.BDP(B284,"YLD_CNV_MID")="#N/A Field Not Applicable"),0,_xll.BDP(B284,"YLD_CNV_MID")),
               _xll.BDP(B284,"EQY_DVD_YLD_IND")),
 _xll.BDP(B284,"BDVD_PROJ_12M_YLD"))</f>
-        <v>4.6429308999999996</v>
+        <v>4.6348738000000003</v>
       </c>
       <c r="G284" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B284)) = FALSE,  IF(  OR(   _xll.BDP($B284,"DVD_EX_DT")="#N/A N/A", _xll.BDP($B284,"DVD_EX_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B284,"DVD_EX_DT")), IF(  OR(   _xll.BDP($B284,"NXT_CPN_DT")="#N/A N/A", _xll.BDP($B284,"NXT_CPN_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B284,"NXT_CPN_DT")))</f>
@@ -59990,7 +59990,7 @@
       </c>
       <c r="H284" s="1">
         <f>IF(ISERR(FIND("Equity",B284))=FALSE,0,IF(_xll.BDP($B284,"DUR_MID")="#N/A N/A",0,_xll.BDP($B284,"DUR_MID")))</f>
-        <v>5.137557396129977</v>
+        <v>5.1377998132325988</v>
       </c>
       <c r="I284" s="1" t="str">
         <f>IF(  ISERR(FIND("Equity",B284)) = FALSE,  IF(  OR(   _xll.BDP($B284,"BDVD_NEXT_EST_DECL_DT")="#N/A N/A", _xll.BDP($B284,"BDVD_NEXT_EST_DECL_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B284,"BDVD_NEXT_EST_DECL_DT")), IF(  OR(   _xll.BDP($B284,"NXT_PUT_DT")="#N/A N/A", _xll.BDP($B284,"NXT_PUT_DT")="#N/A Field Not Applicable"),"",_xll.BDP($B284,"NXT_PUT_DT")))</f>
